--- a/dynamic-datasets/articles_excel.xlsx
+++ b/dynamic-datasets/articles_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,18 +469,21 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Näin seuraat presi­den­tin­vaalien tulosiltaa ja osallistut keskusteluun Ylellä</t>
+          <t>Stubbin ja Haaviston täytyy houkutella nyt taakseen valtava määrä uusia äänestäjiä: kartat näyttävät, mistä heitä löytyy</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071267</t>
+          <t>https://yle.fi/a/74-20071843</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ylen vaalistudiolla käy kuhina.Suomalaiset ovat aloittaneet äänestämisen presidentinvaalien ensimmäisellä kierroksella. Vaalihuoneistot aukesivat kello yhdeksän ja äänestys jatkuu kello 20:een asti. Näissä vaaleissa ennakkoon äänesti ennätykselliset 44 prosenttia.Yle seuraa tiiviisti vaalipäivän tapahtumia.Näin seuraat Ylen presidentinvaalivaalisisältöjäVerkossa vaalipäivää ja tulosiltaa seurataan aamusta saakka.Osallistu vaalikeskusteluun, vaali-chat aukeaa kello 19.00 yle.fi tai Yle-sovelluksessa.TV1:ssä vaalistudio kello 19.30 alkaen.Yle Radio Suomen vaali-ilta kello 19.30 alkaen.Ruotsinkielinen lähetys Yle Fem kello 19.50 alkaen.Lähetyksiä voi seurata Yle Areenassa ympäri maailmaa.Ketkä ehdokkaista siivittävät tiensä jatkoon, vai valitaanko Presidentinlinnan uusi valtias jo ensimmäisellä äänestyskierroksella?Näin illan jännitysnäytelmä eteneeYlen tulospalvelu verkossa, radiossa ja televisiossa seuraa hetki hetkeltä ääntenlaskentaa kello 20 alkaen, jolloin ennakkoäänet julkaistaan.Vaalikeskusteluun voi osallistua kello 19 alkaen, kun Ylen vaali-chat aukeaa. Keskustelussa voi esittää kysymyksiä asiantuntijoille, jotka ovat politiikantutkija Johanna Vuorelma sekä ulko- ja turvallisuuspolitiikan tutkija Hanna Smith. Ylen politiikantoimittaja Ari Hakahuhta on mukana keskustelussa, jota emännöi Piia Pasanen.Avaa kuvien katseluTulosillan tv-lähetystä harjoiteltiin eilen Helsingin kaupungintalolla.  Kuva: Jorma Vihtonen / YleVaali-iltaa seurataan kameroiden välityksellä Pasilan tulosstudiossa sekä Helsingin kaupungintalolta, jonne ehdokkaat kokoontuvat seuraamaan ääntenlaskennan etenemistä. Vierailemme myös illan mittaan ehdokkaiden vaalivalvojaisissa.Vieraana Yle TV1:n studiossa ovat yhteiskuntavaikuttamisen johtaja Jenny Suominen, vaaliasiantuntija Sami Borg, professori Tuomas Forsberg sekä vaaliasiantuntija Jussi Kekkonen.Mukana lähetyksessä on myös Ylen politiikantoimituksen päällikkö Paula Pokkinen sekä politiikantoimittaja Ari Hakahuhta. Juontajina toimivat Matti Rönkä ja Piia Pasanen.Suorassa tv-lähetyksessä on suomenkielinen ohjelmatekstitys ja Yle Areenassa on viittomakielinen tulkkaus rinnakkaislähetyksessä.
-Noin kello 21–22 julkaistaan Ylen vaaliennuste.Ylen uutis- ja ajankohtaistoimituksen vastaava päätoimittaja Jouko Jokinen kertoo, minkälainen ponnistus presidentinvaalit uutistoimitukselle on.</t>
+          <t>Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Presidentinvaalien ensimmäinen kierros on ohi. Toisella kierroksella oleva kokoomuksen Alexander Stubb ja valitsijayhdistyksen ehdokas, vihreiden tukema Pekka Haavisto lähtevät nyt vimmatusti hakemaan vapautuneita ääniä ympäri Suomea.Toiselta kierrokselta pudonneiden perussuomalaisten Jussi Halla-ahon ja valitsijayhdistyksen ja keskustan ehdokkaan Olli Rehnin ääniä on tarjolla eniten.Tämä juttu näyttää, mistä päin Alexander Stubbin ja Pekka Haaviston pitäisi houkutella itselleen ääniä.Suomen väestö on pakkautunut kaupunkeihin ja kaupunkiseutuihin, joten luonnollisesti suuri määrä ääniä on saatavilla näiltä alueilta.Helsingissä ääniä on tarjolla ylivoimaisesti eniten verrattuna Suomen muihin kuntiin, lähes 300 000. Toiseksi eniten ääniä on saatavilla Tampereella, noin 120 000.Oulussa ääniä on vapaana 110 000, Espoossa ja Vantaalla reilut satatuhatta. Turussa ääniä on tarjolla hieman alle satatuhatta.
+Pohjanmaa ja Lappi erottuvatMonilla paikkakunnilla yli puolet äänioikeutetuista äänesti jotain muuta ehdokasta kuin Stubbia tai Haavistoa. Esimerkiksi Oulussa yli 60 prosenttia äänioikeutetuista ei äänestänyt nyt toiselle kierrokselle päässeitä ehdokkaita.Videolla pohjoispohjanmaalaiset kertovat mielipiteensä vaalituloksesta:Alla olevassa kartassa korostuu myös Pohjanmaan länsirannikon kunnat, joissa monissa alle puolet äänioikeutetuista ei äänestänyt Haavistoa tai Stubbia. Näissä kunnissa tosin korostuu Stubbin äänisaalis, joka oli huomattavasti suurempi kuin Haaviston.Lapissa Jussi Halla-aho oli suosituin ehdokas.Videolla lappilaiset kertovat mielipiteensä vaalituloksesta:Aivan Etelä-Suomessa Haavistoa ja Stubbia äänesti yli puolet äänioikeutetuista.Kartalta erottuvat myös selvästi kunnat, joissa Halla-ahon ja Rehnin kannatus oli suurta. Näissä kunnissa yli 80 prosenttia äänioikeutetuista eivät äänestäneet toiselle kierrokselle päässeitä. Huomionarvoista on myös se, että kyseisissä kunnissa äänioikeutettuja on vain tuhansia tai joitain kymmeniä tuhansia.
+Alla olevasta kartasta voit tutkia, miten kuntasi äänesti eli ketkä ehdokkaat olivat suosituimpia.
+Toteutus vaatii toimiakseen JavaScriptin.
+Kuuntele myös:Haavisto vs. Stubb – kumpi kahmii muilta jääneet äänet?</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -498,18 +501,18 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Äänes­tys­prosentti voi nousta ”poikkeuk­sel­liseksi suomalaisessa vaali­his­toriassa”</t>
+          <t>Tässä ovat kahden jäljellä olevan ehdokkaan keskeisimmät viisi eroa</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071294</t>
+          <t>https://yle.fi/a/74-20070906</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Presidentinvaalin äänestyspäivä on tänään sunnuntaina.Asiantuntijat odottavat korkeaa äänestysprosenttia, sillä epävarma tilanne maailmalla saa monet kiinnostumaan siitä, kuka hoitaa Suomen asioita kansainvälisellä kentällä.– Euroopassa on sotaa, ja mediassa on paljon huonoja uutisia. Elämme hyvin turbulentissa maailmassa. Se laittaa ihmiset pohtimaan demokraattisia oikeuksia ja niiden käyttämisen tärkeyttä, sanoo oikeusministeriön vaalijohtaja Arto Jääskeläinen.– Suomen kansainvälispoliittinen asema, Nato-jäsenyys ja vaalien vahva ehdokasasettelu puhuvat sen puolesta, että voidaan nähdä korkeaa äänestysprosenttia, toteaa Ylen vaaliasiantuntija ja Kunnallisalan kehittämissäätiön tutkimuspäällikkö Sami Borg.Sekä Jääskeläinen että Borg uskovat, että äänestysprosentti nousee yli 75:een, koska ennakkoäänestys oli ennätyksellisen vilkasta.– Se on merkki siitä, että nämä vaalit kiinnostavat. Gallupien valossa vaaliasetelma on niin mielenkiintoinen, että äänestäjät lähtevät kyllä liikkeelle myös vaalipäivänä, Jääskeläinen sanoo.– Kun ennakkoäänestysaktiivisuus on näin merkittävästi suurempaa kuin kuusi vuotta sitten, näyttää itsestään selvältä, että koko äänestysprosentti nousee, Borg toteaa.Tiistaina päättyneessä ennakkoäänestyksessä annettiin 1 882 670 ääntä. Suomessa asuvista äänioikeutetuista 44,5 prosenttia osallistui ennakkoäänestykseen.Edellisissä presidentinvaaleissa vuonna 2018 ennakkoon annettiin 1 559 488 ääntä ja ennakkoäänestysprosentti oli 36,7.Epävarmat voivat lähteä liikkeelleYlen torstaina julkaiseman kannatusmittauksen mukaan äänestäjät ovat aiempaa epävarmempia. Peräti neljännes vastaajista ei ilmoittanut kantaansa vaan kertoi tarkkailevansa tilannetta vaalipäivään asti. Tämä voi tarkoittaa vilkasta äänestysaktiivisuutta vielä tänään, ja myös sitä, että lopputulos voi kääntyä yllättäväksi.– Jos he tarkkailevat tilannetta ja päättävät lähteä äänestämään, kyllä se varmaan kertoo hyvää siitä, mikä äänestysprosentti lopulta tulee olemaan, Jääskeläinen kertoo.– Jos äänestysprosentti nousee merkittävästi, se voi tarkoittaa onnistumista sellaisille ehdokkaille, joiden puolueet eivät yleensä saa ihan täysipainoisesti kannattajia liikkeelle vaaleissa. Näissä presidentinvaaleissa tällaisesta tilanteesta voivat hyötyä erityisesti Jussi Halla-aho ja osittain myös Pekka Haavisto, sanoo Borg.Viime vuosina äänestysaktiivisuus on laskenutPitkän aikavälin trendi on, että äänestysaktiivisuus presidentinvaaleissa on laskenut, vaikka ennakkoäänestyksen suosio on noussut.Vuoden 2018 presidentinvaalissa Suomessa asuvien kansalaisten äänestysprosentti oli 69,9. Ennakkoon äänesti yli puolet äänioikeuttaan käyttäneistä, eli 52,5 prosenttia.Vuonna 1994 vastaavat luvut olivat 82,2 ja 42 prosenttia.
-Nuoret saattavat nostaa äänestysprosenttiaVaikka presidentinvaalien kokonaisäänestysprosentti on vuosien varrella laskenut, Borg ja Jääskeläinen uskovat, että se kääntyy tällä kertaa nousuun.– Edellisten eduskuntavaalien äänestysprosentti oli 72. Pidän sitä erittäin hyvänä kansainvälisesti arvioituna. Veikkaan, että näissä presidentinvaaleissa saadaan sitäkin korkeampi aktiivisuus, Jääskeläinen sanoo.Hänen mukaansa presidentinvaalit todennäköisesti kiinnostavat eduskuntavaaleja enemmän, koska kyseessä on suora henkilövaali. Eduskuntavaaleissa myös puolueen saama äänimäärä vaikuttaa siihen, ketkä pääsevät läpi.Myös Borg luotaa aiempiin eduskuntavaaleihin, kun hän arvioi tämän kevään presidentinvaalien äänestysaktiivisuutta.– Jos verrataan vuosien 2015 ja 2023 eduskuntavaaleja, alle 25-vuotiaiden äänestysprosentti on noussut jopa kymmenisen prosenttiyksikköä. Meillä on sellainen muutos käynnissä, että nuoremmassa ikäryhmässä äänestysaktiivisuus on kohonnut. Tämä on yksi tekijä, mikä saattaa nostaa äänestysprosenttia näissä presidentinvaaleissa.Nuorten aktivoituminen voi lisätä äänestäjien määrää, sillä perinteisesti iäkkäämmät ihmiset ovat olleet ahkerampia äänestäjiä.– On täysin mahdollista, että tulemme nyt näkemään merkittävän äänestysprosentin nousun, joka olisi poikkeuksellista suomalaisessa vaalihistoriassa, Borg sanoo.Jos pohdit vielä kantaasi, saat apua ehdokkaan valitsemiseen Ylen vaalikoneesta.Lue lisää vaaleista täältä.Oikeusministeriön vaalijohtaja Arto Jääskeläinen kertoi ennakkoäänestysaktiivisuudesta Yle aamussa 23.1.2014.</t>
+          <t>Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.
+Toteutus vaati toimiakseen JavaScriptin.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -527,18 +530,18 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jesse Puljujärvelle tehtiin kesällä leikkaus, jollaisia ei tehdä Suomessa turval­li­suussyistä – huippulääkäri kertoo, miksi</t>
+          <t>Haavisto ja Stubb kohtaavat Ylellä kello 21 – ehdota kysymyksiä illan A-studioon</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20070675</t>
+          <t>https://yle.fi/a/74-20071880</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Kesän lonkkaleikkauksen jälkeen paluuta huipulle rakentava jääkiekkoilija Jesse Puljujärvi, 25, on päässyt hyvään pelivireeseen AHL-joukkue Wilkes-Barre/Scranton Penguinsissa.Suomalaishyökkääjä kirjautti tehopisteet 1+1, kun joukkue kukisti Lehigh Valleyn 4–3 varhain lauantain vastaisena yönä. Puljujärvi on iskenyt kymmenessä pelaamassaan AHL-ottelussa tehot 4+4=8.Pelaajan agentti Markus Lehto kertoo, että kuntoutusajan pitkä tauko peleistä näkyi, kun Puljujärvi palasi kaukaloon.– Ei enää olla oltu kuntoutusvaiheessa, mutta kyllä siinä aina oma aikansa menee, että oppii toimimaan uudistuneiden lonkkien kanssa, Lehto sanoo Yle Urheilulle.– Siihen, onko mies NHL-tasoa nyt, sanoisin, että jotkut vaihdot näyttävät täysin NHL-tasolta, mutta sen tason jatkuva ylläpitäminen on tietysti vielä hiukan haaste. Päivä päivältä eteenpäin on menty.Mikä ihmeen uudelleenpinnoitus?NHL-kauden 2022–2023 alavireisesti Edmontonissa ja Carolinassa pelannut Puljujärvi kertoi lonkkaleikkauksensa jälkeen heinäkuussa Yle Urheilulle taistelleensa lonkkiensa kanssa koko kauden. Lonkkien huoltoon meni aikaa ja kipulääkkeitä kului.Puljujärvi kertoi Iltalehdelle joulukuussa, että hänen molempiin lonkkiinsa tehtiin uudelleenpinnoitus.Suomen olympiajoukkueen lääkärinä useita kertoja toiminut ortopedian ja traumatologian erikoislääkäri Tuomo Karila kertoo, että uudelleenpinnoituksessa reisiluun pää pinnoitetaan, kun tavallisessa tekoniveloperaatiossa reisiluun kaula katkaistaan ja reisiluun ydinkanavaan laitetaan varrellinen tekonivel, jonka päässä on metallinen liukupintapallo.– Pallo voi olla eri materiaalia. Mutta pinnoitustekonivel on tyypillisesti metalli-metalli -pintainen, eli lonkkamaljakon puolessa on metalliliukupinta ja reisiluun päähän laitettava pinnoitus on myös metallipinta.Alla olevassa kuvassa vasemmalla uudelleenpinnoitus ja oikealla perinteinen tekonivel.
-Karilan mukaan uudelleenpinnoitettu lonkka voi tuntua perinteistä tekoniveltä enemmän oman lonkan tuntuiselta, mutta suuria eroja perinteiseen malliin ei ole.– Periaatteessa kun jätämme reisiluun kaulan katkaisematta, ehkä oma anatomia pysyy paremmin mukana. Mutta tietysti aina pitää kysyä, onko oma anatomia välttämättä optimaalinen lonkkanivelen toiminnalle, jos kerran tekonivel joudutaan asentamaan 20-vuotiaalle miehelle. 20-vuotias ei ole perinteinen tekonivelpotilas.Karila kertoo, että uudelleenpinnoitus on nimenä hieman hämäävä, sillä leikkaus on perinteistä tekonivelleikkausta suurempi ja siitä toipuminen kestää kauemmin.– Joudutaan tekemään isompi avaus ja reittä joudutaan kiertämään huomattavasti, että saadaan reisiluun pää niin esille, että se voidaan työstää. Perinteinen tekonivelleikkaus voidaan tehdä pienemmästä avauksesta ja pienemmällä kudostraumalla. Näkisin, että perinteinen tekonivel antaisi mielestäni todennäköisesti paremman tuloksen.– Mutta tämä on tietysti tällainen mielipideasia, kun spekuloimme. En tarkkaan tiedä, mitä mallia on kyseiselle urheilijalle käytetty.Avaa kuvien katseluJesse Puljujärvi tavoittelee paluuta NHL-kaukaloon. Kuva: NHLI via Getty ImagesEi tehdä SuomessaPuljujärven operoi New Yorkissa tohtori Edwin Su, joka on tehnyt vastaavia operaatioita esimerkiksi NHL-seura Detroit Red Wingsin huippuhyökkääjä Patrick Kanelle ja tennistähti Andy Murraylle.Kalevan mukaan molempien lonkkien uudelleenpinnoitusta ei tiettävästi ole tehty ammattikiekkoilijoille.Tuomo Karila kertoo, ettei uudelleenpinnoituksia tehdä Suomessa tällä hetkellä kenellekään.Ensimmäiset uudelleenpinnoitukset tehtiin Suomessa 2000-luvun taitteessa, mutta alkuinnostuksen jälkeen useimmat merkit vedettiin markkinoilta, sillä pinnoitustekonivelistä irtosi metalli-ioneita, jotka aiheuttivat esimerkiksi tekonivelten ennenaikaista irtoamista ja muodostivat kasvainta muistuttavia pseudotuumoreita.– Se ei ole mikään kasvain, vaan tietynlainen metallikollektio, joka muodostuu lonkkaniveliin. Näistä tuli sen verran näpeille, että aika monet näistä tekonivelistä jouduttiin vaihtamaan. Kun perinteinen tekonivelmalli on kuitenkin paljon turvallisempi, ja niissä on erittäin hyvät, pitkäaikaiset seurantatulokset, niin pinnoitustekonivelet jätettiin Suomessa käytännössä pois, Karila sanoo.Metalli-ionien aiheuttamista riskeistä ei Karilan mukaan tiedetä kaikkea, vaikka aiheesta onkin tutkimusta.– Pyritään myös välttämään turhaa riskinottoa. Ei haluta pitää Suomen kansalaisia minään koekaniineina.Markkinoille on pyritty tuomaan myös keraamipintaisia pinnoitetekoniveliä, mutta ne eivät ole Suomessa lyöneet läpi.Avaa kuvien katseluPatrick Kane on pelannut lonkkaoperaationsa jälkeen vahvasti. Kuva: Icon Sportswire via Getty ImagesVielä huipputasolle?Lonkan uudelleenpinnoituksessa käyneet urheilijat ovat palanneet huipputasolle vaihtelevalla menestyksellä.Florida Panthersin kapteeni, puolustaja Ed Jonakovski pelasi 37 ottelua uudelleenpinnoituksen jälkeen kaudella 2013–2014, mutta lopetti sen jälkeen uransa.Kesällä 2022 lonkan uudelleenpinnoituksessa käynyt Washington Capitalsin huippusentteri Nicklas Bäckström ilmoitti marraskuussa jäävänsä pois kaukaloista. Hän ehti pelata 39 ottelua kaudella 2022–2023, mutta jäi edelliskausien pistetahdistaan. Tällä kaudella hän oli mukana kahdeksassa ottelussa tehoin 0+1.Tenniksen entisen maailmanlistan ykkösen Andy Murrayn lonkka uudelleenpinnoitettiin vuonna 2019, mutta hän ei ole kyennyt enää nousemaan maailman 40 parhaan joukkoon.Patrick Kane on sen sijaan loistanut palattuaan NHL-jäille. Yhdysvaltalaishyökkääjä on tehtaillut 19 Red Wingsissä pelaamassaan NHL-ottelussa pisteet 7+9=16.Edwin Su on operoinut kaikki edellä mainitut urheilijat.Avaa kuvien katseluEdwin Su (oikealla) on erikoistunut urheilijoiden lonkkien uudelleenpinnoitukseen. Vasemmalla Karen Su. Kuva: Roy Rochlin / Getty Images for Hospital for SpOrtopedi Tuomo Karila ei osaa sanoa, onko urheilijalla lonkan uudelleenpinnoituksen jälkeen mahdollisuus nousta aivan operaatiota edeltävälle tasolle.– Onko järkevää lähteä käyttämään lonkan tekoniveltä niin aggressiivisesti, vaikka siellä olisi hyvin kulutusta kestävä liukupari, on yksi asia. Ei ole paljon näyttöä, pystyykö asentoaisti ja muut palaamaan leikkausta edeltävälle tasolle. Työtä se vaatii paljon.Puljujärven agentti Markus Lehto ei kerro, millaisia neuvotteluja jatkosta on käyty, mutta uskoo suomalaisen pelaavan taas piakkoin jääkiekon korkeimmalla tasolla.– Olen vakaasti sitä mieltä, että Jesse Puljujärvi tulee pelaamaan tällä kaudella NHL:ssä. Edellyttäen tietysti, että lonkat toimivat ja saadaan toimimaan sillä tavalla, että mies pystyisi ylärajoillaan pelaamaan. Jossain määrin pitää huomioida, mistä ollaan tultu ja missä nyt mennään, Lehto sanoo.Puljujärvi teki edelliskaudella Carolinassa 17 ottelussa tehot 0+2.</t>
+          <t xml:space="preserve">Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Kokoomuksen ehdokas Alexander Stubb ja valitsijayhdistyksen ehdokas, vihreiden tukema Pekka Haavisto jatkavat presidentinvaalien toiselle kierrokselle.Stubb sai 27,2 prosenttia ensimmäisen kierroksen äänistä, Haavisto 25,8 prosenttia.Millä eväillä Stubb ja Haavisto lähtevät vaalitaiston loppukiriin? Jatkoon selviytyneet ehdokkaat kohtaavat A-studion suorassa lähetyksessä maanantai-iltana klo 21.00.Keräämme lähetystä varten myös yleisön kysymyksiä, joita voit esittää alla olevalla lomakkeella. 
+</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -552,21 +555,21 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NYT: Gaza-sopimus keskeyttäisi taistelut viikoiksi – neuvottelijat ”varovaisen optimistisia”</t>
+          <t>Sähköinen asunto­re­kisteri kaaoksessa: moni voi menettää äänioikeuden yhtiö­ko­kouksessa</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071695</t>
+          <t>https://yle.fi/a/74-20071872</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pariisissa on sunnuntaina määrä neuvotella Gazan sotaa koskevasta merkittävästä sopimusluonnoksesta, josta on väännetty viime päivien ajan Yhdysvaltojen johtamissa neuvotteluissa Israelin ja Hamasin välillä.The New York Times kertoo, että alustavan luonnoksen mukaan Israel keskeyttäisi taistelunsa Gazassa noin kahdeksi kuukaudeksi ja vastineeksi Hamas vapauttaisi reilut sata panttivankia, jotka se se kaappasi Gazaan lokakuussa.Vaikka neuvotteluosapuolten välillä on yhä merkittäviä erimielisyyksiä, ovat neuvottelijat varovaisen optimistisia lopullisen sopimuksen syntymisestä, kertovat amerikkalaislähteet New York Timesille. Sopimus voitaisiin lehden mukaan sinetöidä seuraavan kahden viikon kuluessa.Yhdysvaltain presidentti Joe Biden keskusteli perjantaina puhelimitse sopimusluonnoksesta Egyptin ja Qatarin johtajien kanssa. Kyseiset maat ovat toimineet välittäjinä Israelin ja Hamasin neuvotteluissa.Avaa kuvien katseluHamasin kaappaamien panttivankien omaisia mielenosoituksessa Tel Avivissa. Kuva: Abir Sultan / EPASopimuksen ensimmäisessä vaiheessa taistelut lopetettaisiin Gazassa noin 30 päivän ajaksi ja Hamas vapauttaisi panttivankeina pitämänsä naiset, iäkkäät sekä haavoittuneet. Tänä aikana Hamas ja Israel neuvottelisivat sopimuksen toisen vaiheen yksityiskohdista. Sopimuksen toisessa vaiheessa tulitauko jatkuisi yhä Gazassa noin 30 päivän ajan ja Hamas vapauttaisi panttivangeiksi ottamansa israelilaiset miespuoliset siviilit sekä israelilaissotilaat.Lisäksi sopimukseen kuuluisi palestiinlaisvankien vapauttamisia israelilaisista vankiloista sekä humanitäärisen avun lisäämistä Gazaan.Hamas-terroristijärjestö surmasi noin 1 200 ihmistä hyökätessään Israeliin lokakuun 7. päivä. Lisäksi järjestö otti noin 240 panttivankia. Israelin kostotoimissa Gazaan on sittemmin kuollut yli 25 000 ihmistä, joista suurin osa on naisia ja lapsia, sanoo Hamasin alainen Gazan terveysjärjestö. Ei ole tiedossa, kuinka moni Gazassa kuolleista on Hamasin taistelijoita.Lyhytkestoisen tulitauon aikana marraskuussa Israel vapautti noin 250 palestiinalaisvankia ja Hamas puolestaan vapautti noin sata panttivankia.Israelista Hamasin lokakuussa kaappaamista panttivangeista 136:n uskotaan olevan yhä Gazassa. Noin parinkymmenen heistä uskotaan menehtyneen.</t>
+          <t>Eduskunnan oikeusasiamies on kiinnittänyt huomionsa Maanmittauslaitoksen toimintaan, koska asuntojen omistusten rekisteröinnit ovat ruuhkautuneet pahoin.Tästä voi seurata ongelmia juuri asuntokaupan tehneille uusille osakkaille, koska taloyhtiön osakerekisteriin kuulumaton osakas ei voi esimerkiksi osallistua yhtiökokoukseen ja äänestää siellä tehtävistä päätöksistä.– Asiasta ei vielä ole tullut kanteluita, mutta veikkaan, että niitä tulee, sanoo vanhempi oikeusasiamiehen sihteeri Jukka Anttila.Hän seuraa tilanteen kehittymistä. Asiaan voidaan hänen mukaansa tarvittaessa puuttua, vaikka valituksia ei kansalaisilta tulisikaan.– On mahdollista, että tätä lähdetään tutkimaan omasta aloitteesta.Anttila kertoo, että taloudelliseen vaihdantaan liittyvien asioiden käsittely ilman aiheetonta viivästystä kuuluu ihmisten perusoikeuksiin.Osakkaat siirretään sähköiseen rekisteriinVuodesta 2019 lähtien kaikki uudet asunto-osakeyhtiöt on perustettu sähköiseen muotoon.Tätä vanhempien taloyhtiöiden piti siirtää osakasrekisterinsä Maanmittauslaitoksen sähköiseen huoneistotietojärjestelmään vuoden 2023 loppuun mennessä.Vanhoja taloyhtiöitä on noin 90 000 koko Suomessa.Aiemmin osakasluettelot ovat olleet paperilla ja mapeissa isännöitsijöiden toimistoilla.Sähköisen osakeluettelon yhteyteen voidaan rakentaa muita digitaalisia toimintoja, kuten esimerkiksi sähköistä asuntokauppaa.Näin vältytään siltä, että osapuolten pitää kokoontua pankkiin hoitamaan asuntokauppa. Sähköisen asuntokaupan tarve nousi esille etenkin koronapandemian aikana.Noin 90 000 hakemusta jonossaValtaosa taloyhtiöiden osakasluetteloista on jo siirretty Maanmittauslaitokselle.Nyt paperiset osakekirjat muutetaan sähköisiksi.– Jos osakekirja on kotona, omistaja voi toimittaa sen meille. Me mitätöimme sen ja siitä tulee sähköinen, kertoo Maanmittauslaitoksen huoneistojen omistuksesta vastaava johtaja Janne Murtoniemi.Vanhoilla osakkailla on kymmenen vuotta aikaa hakea omistuksensa sähköistä rekisteröintiä. Näin kauan heillä myös säilyvät osakkaan oikeudet.Vanhoilla omistajilla ei siis ole kiire hakea rekisteröintiä, mutta he ovat lähteneet liikkeelle isommalla joukolla kuin Maanmittauslaitos osasi odottaa.– Hiukan alakanttiin arvioitiin näitä asioita, Murtoniemi sanoo.Tällaisia hakemuksia on nyt puolen vuoden jonossa noin 70 000 kappaletta Murtoniemen mukaan.Jos omistaja vaihtuu esimerkiksi asuntokaupan tai perinnön saannin kautta, on uuden osakkaan haettava omistuksen rekisteröintiä kahden kuukauden kuluessa omistajanvaihdoksesta.Tällaiset hakemukset Maanmittauslaitos priorisoi nyt kiireellisemmiksi kuin vanhojen osakkaiden hakemukset.Näitä hakemuksia on jonossa noin 20 000 kappaletta. Niiden käsittelyaika on noin 3–4 kuukautta.Rekrytoinnit purkavat ruuhkaaMaanmittauslaitos rekrytoi syksyllä 40 kokoaikaista ja 80 oman työn ohella auttavaa työntekijää omistusten rekisteröintiin. Helmikuun alussa aloittaa vielä 30 uutta työntekijää. Ulkopuolelta palkatut työntekijä ovat käyneet läpi Suojelupoliisin turvallisuusselvityksen.– Tilanne paranee kevään aikana, Murtoniemi sanoo.Hänen mukaansa rekrytointeja tehdään tarvittaessa myös lisää.Asiakirjojen käsittely ja rekisteröinti hoidetaan tällä hetkellä manuaalisesti. Työtä helpottaa se, että Maanmittauslaitos ottaa sähköisen hakemuksen käyttöön myöhemmin tänä vuonna.Murtoniemi kertoo blogissaan, että tammikuussa tuotu osakekirja rekisteröidään vasta kesäloman ja joulun välillä, jos asunnon omistuksessa ei ole tapahtunut muutosta.Jos rekisteröinti ei voi odottaa, sitä voi ”poikkeustilanteissa” edistää ottamalla yhteyttä asiakaspalveluun, kerrotaan Maanmittauslaitoksen sivuilla. Kiireelliset asiat luvataan hoitaa parissa päivässä.Murtoniemi suosittelee, että uusi osakas pyytää edelliseltä osakkeen omistajalta valtakirjaa, jos haluaa osallistua taloyhtiön kokoukseen.Vastikelaskut ja muita asumisen käytännön asioita saa hoidettua, kun toimittaa kauppakirjan isännöitsijälle.Lokakuussa 2023 julkaistulla videolla Ylen toimittaja Sirkka Haverinen kertoo, miten paperinen osakekirja muutetaan sähköiseksi.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -580,21 +583,21 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pariskunta remontoi entiseen kunnantaloon hotellin – sängynpäädyt veistettiin pihalta kaadetuista puista</t>
+          <t>Joku heistä kolmesta on seuraava puolus­tus­voimain komentaja – nimi selviää keskiviikkona</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071084</t>
+          <t>https://yle.fi/a/74-20071938</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>– Jos olisimme tienneet edes kymmenen prosenttia niistä ongelmista, mitä on edessä, tämä hanke olisi jäänyt tekemättä.Näin kertoo yrittäjä ja Jaala-hotellin omistaja Hannu Puhakka. Hän osti Jaalan entisen kunnantalon yhdessä vaimonsa Viorica Bucurin kanssa kymmenen vuotta sitten. Tarkoitus oli muuttaa kiinteistö hotelliksi.Nyt Jaala Hotel on viimein valmis ottamaan vastaan yöpyjiä, mutta yksinkertainen prosessi ei ole ollut.Puhakka kertoo kuvitelleensa aluksi, että kunnantalon vanhat toimistohuoneet voisi muuttaa hotellihuoneiksi sellaisinaan. Uudet huonekalut vain tilalle, ja vähän tuoretta maalia seiniin.Avaa kuvien katseluJaala-hotellin omistaja Hannu Puhakka osti entisen kunnantalon jo kymmenen vuotta sitten. Kuva: Maija Tuunila / YleKävi ilmi, että majoitustoiminnan paloturvallisuusohjeet eroavat toimistorakennuksista.Esimerkiksi kunnantalon vanhat ovet eivät kelvanneetkaan. Vanhojen ovien korjaaminen paloturvallisuutta vastaaviksi olisi maksanut liikaa, joten tilalle oli hankittava uudet.– Eivät ne ovet hirveästi muuttuneet, väri on vähän eri, mutta kyllä ne vaikuttavat samanlaisilta huoneilta kuin toimistoaikoina, Puhakka toteaa.Hannu Puhakka osti vaimonsa kanssa entisen kunnantalon, koska he halusivat remontoida siihen hotellin. Eteen tuli kuitenkin kaikenlaisia ongelmia. Video: Kalle Purhonen / YleKorona nakersi uskoa alaanJaalan kunta liittyi osaksi Suur-Kouvolaa vuonna 2009. Jaala sijaitsee Kouvolan ja Heinolan välimaastossa.Matkailuyritysten määrä ei ole viime vuosina erityisemmin muuttunut Kymenlaaksossa, mutta yöpymisvuorokausien määrä kasvaa koronan jäljiltä vuodesta toiseen.Koronapandemia hankaloitti Jaala Hotel -hotellin avaamista. Hannu Puhakan mukaan korona vähensi hänen uskoaan koko hotellialaan.– Ajattelimme, että ei kannata pitää kiirettä. Laitoimme jarruja maahan ja mietimme, että kannattaako tätä projektia edes jatkaa.Avaa kuvien katseluSekä hotellin aulaa että kaikkia hotellihuoneita koristaa käsin maalattu teos. Kuva: Maija Tuunila / YleRahoitusongelmia Puhakan hotelliprojekti oli kohdannut muutenkin. Aikanaan vanha kunnantalo onnistuttiin ostamaan lainarahalla, mutta maaseudulla sijaitsevan vanhan toimistorakennuksen vakuusarvo on Puhakan mukaan olematon. Rahoituksen hankkiminen hotelliin oli siis arvioitua hankalampaa.– Onneksi minulla oli vanhan yritystoimintani kautta kohtalaisen hyvät suhteet Nordean pankkiin ja sieltä sitten vähitellen saatiin lupaukset ja rahat kasaan, Puhakka toteaa.Avaa kuvien katseluHotelli sijaitsee Kouvolan ja Heinolan välillä Jaalassa. Kuva: Mirjam Tahkokorpi / Yle, Mapcreator, Open street mapYöpyä voi kunnanjohtajan huoneessaNyt Jaalan vanhan kunnantalon hotelli pääsee pyörähtämään kunnolla käyntiin.Hannu Puhakan mielestä kymmenen makuuhuoneen hotelli sopii parhaiten pienille ryhmille, jotka viettävät esimerkiksi sukujuhlia tai luokkakokousta. Myös kurssitoimintaa on mietitty.Kaikki hotellin huonekalut ovat uusiokäytettyjä. Osa on toimistokalusteita, sängyt saatiin remonttiin menneestä Kouvolan Vaakuna-hotellista.Avaa kuvien katseluHotellin aulassa sijaitsee entinen kunnantalon neuvonta. Nykyään sitä käytetään esimerkiksi aamiaistilana. Kuva: Maija Tuunila / YleAvaa kuvien katseluEntinen kunnanjohtajan huone, joka on nyt hotellin sviitti. Sängynpäädyt on tehty tontilta kaadetuista puista.  Kuva: Maija Tuunila / YleSängynpäädyt on rakennettu kunnantalon pihalla kasvaneista puista.– Pyrimme siihen, että tunnelmallisesti saamme tämän vastaamaan sitä aikakautta, jolloin tämä on ollut oikea kunnantalo, Puhakka kertoo.Vielä hotellin koristukseksi on tarkoitus kaivaa esiin vanhat kyltit. Silloin matkailija voisi yöpyä esimerkiksi ”Kunnanjohtajan” tai ”Kunnansihteerin” huoneessa.</t>
+          <t>Puolustusvoimat on saamassa uuden komentajan. Nykyinen komentaja Timo Kivinen jää eläkkeelle 31. maaliskuuta.Uuden komentaja nimi selviää Ylen tietojen mukaan keskiviikkona, jolloin valtioneuvosto ja presidentti päättävät asiasta ylimääräisissä istunnoissa.Ylen tietojen mukaan valinta tehtiin lopulta kolmen ehdokkaan joukosta.Puolustusvoimien strategiapäällikkö, kenraaliluutnantti Janne Jaakkola, 56. Aiemmin pääesikunnan suunnittelupäällikkönä ja Utin erikoisjääkäripataljonnan komentajana.Pääesikunnan päällikkö, kenraaliluutnantti Vesa Virtanen, 57. Aiemmin Kainuun prikaatin komentajana.Maavoimien komentaja, kenraaliluutnantti Pasi Välimäki, 58. Aiemmin Karjalan prikaatin komentajana.Päätös uudesta puolustusvoimien komentajasta osuu aivan presidentti Sauli Niinistön virkakauden loppuun, ja tuleva komentaja tekee töitä presidentti Niinistön seuraajan kanssa.Valintaa on valmisteltu jo viime syksystä, ja ehdokkaita ovat haastatelleet sekä presidentti että puolustusministeriön edustajat.Nimityksellä on kiire, koska nykyinen komentaja jää eläkkeelle. Päätös tarvitaan nopeasti myös sen takia, että komentajan nimitys pyöräyttää liikkeelle puolustusvoimien johdossa ison nimityskierroksen, joka on jo joutunut odottamaan.Hävittäjiä ja sotalaivoja lähdössä Nato-töihinMyös toinen pitkään odotettu ratkaisu etenee. Ylen lähteiden mukaan tasavallan presidentin ja keskeisten ministereiden tp-utva on linjannut Naton rauhanajan tehtävistä, joihin Suomi osallistuu.Ylen tietojen mukaan ilmavoimat ja merivoimat osallistuisivat pienimuotoisesti Naton yhteisiin sotilasliiton itärajaa vahvistaviin tehtäviin jo kevätkesällä. Asia menee eduskunnan käsittelyyn, kun eduskunta palaa istusntotauolta.Maavoimien osalta ratkaisu jää odottamaan, koska reserviläisiä ei toistaiseksi voi sitoa näihin Naton tehtäviin.Naton uutena liittolaisena Suomi haluaa osoittaa, että se kantaa huolta koko liittokunnan turvallisuudesta myös muualla kuin omalla maaperällään.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -608,21 +611,21 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Balet­ti­tanssija Emrecan Tanış löysi roskapostista kutsun Suomeen, ja se muutti koko hänen elämänsä</t>
+          <t>Ylilaudalla julkaistiin anonyymi pommiuhkaus SDP:n puolue­toi­mistoa vastaan – pian kirjoittajan luo ilmestyi poliisi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071448</t>
+          <t>https://yle.fi/a/74-20071887</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Turkkilainen Emrecan Tanış, 33, olisi ehkä suomalaisyleisölle täysin tuntematon balettitanssija, ellei hän olisi käynyt läpi roskapostiaan Internet-kahvilassa Istanbulissa kesällä 2010.Tanış oli hakenut paikkaa Kansallisbaletin nuorisoryhmästä samana kesänä, mutta Suomesta ei kuulunut mitään puoleentoista kuukauteen.– Ajattelin, että peli on menetetty.Sitten hän löysi roskapostista kutsun tulla Suomen kansallisbalettiin.Kaikki kävi äkkiä. Tanış oli Suomessa kolmessa päivässä. Koko elämä meni uusiksi.– Syksy oli tulossa, ja minulla oli taskussa koko omaisuus, muutamia kymmeniä euroja ja matkalaukku täynnä Turkin helteisiin sopivia kesävaatteita.Emrecan Tanış aloitti balettiopinnot 10-vuotiaana Istanbulissa.Nykyään Tanış kuuluu Kansallisbaletin vakituiseen tanssijakuntaan. Hän on myös koreografi, jonka töitä on nähty Suomessa ja ulkomailla. Tanış on yksi yli 200 000 vieraskielisestä työllisestä Suomessa (2022). Hänen rekrytointinsa kertoo Kansallisbaletin kansainvälistymisestä, joka voimistui 2010-luvulla.Kansainvälistä uraa havittelevan balettitanssijan on täytynyt tottua voimakkaaseen koti-ikävään. Kerran se on meinannut tuhota koko hänen uransa.Isoäiti kasvattiTanış on kasvanut suurperheessä Küçükyalıssa, joka sijaitsee Istanbulin Aasian-puoleisessa osassa. Küçükyalılla oli huonomaineisen kaupunginosan maine, ainakin Tanışin lapsuudessa. Alueella liikkui hämärämiehiä ja rikollisia.– Jos etsit vaikeuksia, löysit niitä.Isä pyöritti leipomoa ”fiinimmässä” kaupunginosassa. Perheenpää lähti töihin aamukuudelta ja palasi kotiin kymmeneltä illalla.Konservatorion edessä hengaili todella upean näköisiä ihmisiä. Ihailin tanssijoiden olemusta ja ryhtiäPojan huonosta koulumenestyksestä huolissaan ollut isä ehdotti, että poika hakisi konservatorioon opiskelemaan musiikkia. Tanış oli 10-vuotias.– Turkkilainen koululaitos ei ollut minua varten, Tanış sanoo nyt.Poika lähti konservatorion pääsykokeisiin. Hän näki itsensä tulevaisuudessa kitaristina, jota muut palvovat.– Muistan pääsykoepäivän kirkkaana. Oli touko-kesäkuu, ja konservatorion edessä hengaili todella upean näköisiä ihmisiä. En tiennyt, että he olivat tanssijoita. Ihailin heidän olemustaan ja ryhtiään.Avaa kuvien katseluKansallisbaletissa Tanış on päässyt tekemään myös solistitehtäviä. Kuva: Henrietta Hassinen / YlePääsykoe meni musiikissa pipariksi, mutta hakemukseen piti kirjoittaa myös toinen vaihtoehto. Tanış oli jättänyt kohdan tyhjäksi.En kehdannut kertoa muille lapsille, että olin balettikoulussa. Pelkäsin, että minua kiusataanKonservatoriossa kysyttiin, eikö poika haluaisi kokeilla balettia?– En tiennyt mitään baletista, mutta pääsin sisään. Päätin koulussa, että minusta tulee isona balettitanssija.Kotikulmilla baletti ei ollut ilmeinen ammatinvalinta.– En kehdannut kertoa muille lapsille, että olin balettikoulussa. Pelkäsin, että minua kiusataan. Sanoin uteliaille, että opiskelen konservatoriossa teatteria.Teini-iässä mieli muutti. Tanış päätti kertoa muillekin, mitä hän opiskeli.– Siitä ei seurannut mitään pahaa. Olin väärässä ennakkoluuloineni.Tanış uskoo, että hän välttyi vaikeuksilta osin siksi, että kävi Istanbulin keskustassa asti balettikoulua. Päivät venyivät jo matkan takia iltaan. Isoäiti kasvatti pojan, sillä Tanışin vanhemmat olivat eronneet.Koti-ikävä painoi rinnassaSeitsemän vuotta kestäneiden balettiopintojen jälkeen nuori mies päätti hakea jatko-opintoihin balettikouluun Saksaan. Hän ei vielä tiennyt, että koti-ikävä vaani kulman takana.Isä vastusti lähtöä.– Hän olisi halunnut pitää minut lähellään. Kotona, samassa kaupungissa tai edes Turkissa.Tanış pääsi John Crankon nimeä kantavaan balettikouluun Stuttgartissa. Se on yksi maailman johtavista baletin opinahjoista.Lahjakas nuori mies sai täyden stipendin opiskelun, asumisen ja elämisen kattamiseksi, mutta unelmat hajosivat, kun kone laskeutui Stuttgartiin.– Tunsin itseni täysin tyhjäksi.Avaa kuvien katseluEmrecan Tanış kuvattiin Ylen studiossa tammikuussa 2024. Kuva: Henrietta Hassinen / YleSitten alkoivat vaikeudet. Tanış alkoi voida huonosti, tanssimisesta ei tullut mitään. Stuttgart tuntui kuolleelta kaupungilta Istanbuliin verrattuna. Kadut olivat tyhjiä, ihmiset vaikuttivat etäisiltä ja sunnuntaisin koko kaupunki pantiin kiinni.Tanış oli täysin hukassa.Ymmärrän nyt, että olin sairastunut mieleltäni Stuttgartissa– En tajunnut silloin, että minulla oli hirvittävä koti-ikävä. Kaipasin sitä suurperhettä, isää, veljeä ja isoäitiä, jotka olin jättänyt Istanbuliin. Yhtäkkiä minulla ei ollut ketään.Nuoren tanssijan haluttomuuteen kiinnitettiin koulussa huomiota, ja johto päätti, että Tanış saa lähteä. Hän palasi murtuneena maitojunalla kotiin.– Ymmärrän nyt, että olin sairastunut koti-ikävään Stuttgartissa.Kotona isä oli mielissään, kun poika palasi Turkkiin, mutta tuli toisiin ajatuksiin.– Isä sanoi, että yritä uudestaan. Saat hyvän koulutuksen Saksassa.Avaa kuvien katseluKoti-ikävä oli murtaa Tanışin uran alussa Euroopassa. Kuva: Henrietta Hassinen / YleTanış kokosi itsensä, lähti koetanssiin Müncheniin Heinz-Bosl-säätiön balettikouluun ja pääsi sisään.Baletti on pieni maailma, ja kouluun kantautui tieto, että Tanışilla oli ollut vaikeuksia Stuttgartissa. Münchenissä koulun johto alkoi empiä.– Onneksi eräs opettaja piti puoliani ja sain jäädä.Vaikeuksienkin jälkeen Tanış päätti panna kaikkensa peliin ja näyttää, mitä hänestä lähtee tanssijana.Koti-ikävää hän ei päässyt karkuun, se kaihersi rinnassa. Opiskelija-asuntolan turkkilainen kämppäkaveri auttoi jaksamaan.Aika oli myös taloudellisesti raskasta. Isä lähetti pojalleen kuukausittain mitä pystyi.– Rahat eivät silti riittäneet elämiseen. Kävin tanssimassa koulun ulkopuolella ansaitakseni edes vähän lisää rahaa.Suomessa on tilaa, vesijohtovettä voi juodaSuomi otti uuden tanssijan hetimiten syleilyynsä. Siltä parikymppisestä Tanışista tuntui. Hän oli saanut jo työn saksalaisesta balettiryhmästä, mutta perui sen, kun ovet Suomen kansallisbalettiin aukesivat.Kansallisbaletin silloinen johtaja Kenneth Greve pestasi lupaavan turkkilaistanssijan taloon, eikä se ole mikään ihme. Tanış näyttää prinssiltä ilman roolivaatteitakin, ja sellaiset hahmot ovat kysyttyjä baletin satumaailmassa.Hänellä on paksut, mustat, kiharat hiukset, ja toisessa korvassa killuu helmikorvakoru. Sormessa komeilee isältä saatu sormus, jota koristaa näyttävä kivi.Kaikki olivat minulle todella ystävällisiä KansallisbaletissaSuomeen kesähepenissä saapuneelle nuorelle miehelle järjestettiin tilapäinen majoitus, ja yksi balettilaisista avasi kukkaronsa lainatakseen tulokkaalle rahaa ensimmäiseen palkkapäivään asti.– Se oli hämmentävää. Kaikki olivat minulle todella ystävällisiä Kansallisbaletissa.Ihmiset voivat Tanış mukaan olla hyvin etäisiä balettiryhmissä. Hän arvelee, että se johtuu ainakin osaksi taiteenlajin kovasta kilpailusta.Nyt vuosien jälkeen Tanış kiittää yhä Suomea monesta asiasta.– Täällä on valtavasti tilaa, liikennettä ei juuri ole ja joka paikassa voi juoda vesijohtovettä.Istanbulissa moni asia on päinvastoin.Avaa kuvien katseluEmrecan Tanış kasvoi suurperheessä Istanbulissa. Samassa asunnossa elivät myös isovanhempien vanhemmat. Kuva: Henrietta Hassinen / YleTurkkilaistanssija ihmettelee suomalaista myyttiä puhumattomasta kansasta. Hänellä ei ole sellaista kokemusta.– It takes two to tango. Ihmiset puhuvat, kun heidät ottaa siihen mukaan.Tanış on saanut maistaa suomalaisuutta myös taiteessa. Hänelle Marjo Kuuselan baletti Seitsemän veljestä oli silmät avaava kokemus. Teos lämmitettiin uudelleen Kansallisbalettiin vuonna 2013.– Marjo Kuusela on suosikkikoreografini. Seitsemän veljestä on niin maanläheinen ja rehellinen teos.Koti-ikävä oli kaataa koko miehen uran sen alkumetreillä, mutta nyt yli kymmenen vuotta myöhemmin tilanne on toinen. Siihen on vaikuttanut hänen kokemuksensa Kansallisbaletista ja Suomesta.– En tunne koti-ikävää enää lainkaan. Palaan aina kotiin, kun palaan matkoilta Suomeen.Lue edellinen Kulttuurivieras tästä: Kirjailija Iida Turpeinen kaipaa humanistien ääntä yhteiskuntaan – ”Täällä on vallalla insinööriajattelu”</t>
+          <t>SDP:n puoluetoimistoon Helsingissä kohdistui joulukuussa epäilty pommiuhka. Tilanne sai alkunsa, kun keskustelupalsta Ylilaudalle ilmestyi kirjoitus pommista.Yle on nähnyt kirjoituksen, joka kuuluu sanatarkasti: ”SDP puoletoimistoon pommin kanssa 15.12.2023.”Ylilauta.org on keskustelupalsta, jolla esiinnytään anonyymisti. Tarvittaessa poliisi pyytää sivuston ylläpidolta käyttäjien IP-osoitteita, ja ylläpito luovuttaa tiedot poliisille.Ylen tietojen mukaan poliisi selvitti viestin epäillyn kirjoittajan ja otti tämän kiinni. Mies on syntynyt vuonna 1997 ja asuu Turussa. Hänellä ei todellisuudessa ollut hallussaan räjähdettä.Jutun tutkinnanjohtaja, rikoskomisario Riikka Laaksonen Lounais-Suomen poliisista vahvistaa, että poliisi on tutkinut kyseistä rikosta nimikkeellä perätön vaarailmoitus.Epäilty on Laaksosen mukaan kiistänyt rikoksen. Poliisi ei kerro tarkemmin, mitä epäilty on kuulustelussa kertonut.Asia eteni syyteharkintaan jo joulukuussa, mutta mahdollista syytettä ei vielä ole nostettu.Epäilty tuomittu kunnianloukkauksestaYlen tietojen mukaan epäilty on aiemmin tuomittu sakkorangaistukseen kunnianloukkauksesta. Mies oli vuosien 2018 ja 2019 aikana lähetellyt eräälle naiselle Snapchatissa halventavia ja alatyylisiä viestejä, jotka tuomion mukaan sisälsivät sukupuoleen, ihmisarvoon ja terveyteen liittyviä ilmaisuja.Yle kertoi marraskuussa 2023 pirkanmaalaismiehestä, jota Keskusrikospoliisi epäilee terroristisessa tarkoituksessa tehdyistä laittomista uhkauksista. Miehen epäillään eduskuntavaalien alla lähettäneen useisiin puoluetoimistoihin pommilta muistuttavia paketteja.Kyseisen rikosepäilyn esitutkinta on yhä käynnissä, eikä se liity turkulaismiehen tapaukseen.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -636,21 +639,21 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Lauri Markkanen vauhditti Utahin seuraen­nä­tyksiin – katso faneja ihastuttanut ”sirkusheitto”</t>
+          <t>Maanvil­je­li­jöiden protestit Keski-Euroopassa jatkuvat – yrittävät nyt tukkia trakto­reillaan Pariisiin johtavat moottoritiet</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071698</t>
+          <t>https://yle.fi/a/74-20071931</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pallopeleissä usein sanotaan, että ottelun alku on tärkeä. Lauri Markkasen Utah Jazz otti koripallon NBA:n yön kierroksella ohjeen kirjaimellisesti ja tehoili jo ensimmäisellä neljänneksellä seuraennätyksen 47 pistettä Charlotte Hornetsia vastaan.Tauolla pisteitä oli kasassa jo 82, mikä on sekin seuraennätys. Utah voitti vierasparketilla lopulta 134–122 Markkanen kirkkaimpana tähtenään. Suomalainen heitti 33 pistettä ja keräsi 12 levypalloa. Tupla-tupla oli Markkaselle jo kauden viidestoista. 30 pistettä ylittyi kahdeksannen kerran.Erityisen hyvin Markkanen operoi kolmen pisteen viivalta. Seitsemän onnistunutta kolmosta kahdestatoista yrityksestä on hänelle kauden paras saldo.Katso Markkasen huippuhetket Charlotte-ottelussa!Ensimmäisen neljänneksen lopulla Markkanen heitti yhden kauden näyttävimmistä koreistaan. Hän ajoi korille, kierähti pallon kanssa 180 astetta ja ujutti pallon sukkaan. Sosiaalisessa mediassa Markkasen suoritusta tituleerattiin ”sirkusheitoksi”.Jos Utahin ensimmäinen puolisko ottelussa oli historiallisen hyvä, toisella Charlotte pääsi vielä peliin mukaan. Ero pysyi loppuun asti turvallisen tuntuisesti kahdessatoista. Ottelun paras pistemies oli Charlotten PJ Washington, joka heitti 43 pistettä.– Emme ole niin hyviä kuin ensimmäisellä puolikkaalla, mutta emme myöskään niin huonoja kuin toisella, Utahin päävalmentaja Will Hardy tiivisti seuran verkkosivuilla.Utah on NBA:n läntisessä konferenssissa nyt yhdeksäntenä. Seuraavan kerran joukkue nähdään NBA-parketilla maanantain ja tiistain vastaisena yönä Brooklyn Netsiä vastaan.Avaa kuvien katseluLauri Markkanen oli jälleen joukkueensa paras pistemies. Kuva: NBAE via Getty Images</t>
+          <t>Ranskalaiset maanviljelijät protestoivat muun muassa lisääntynyttä byrokratiaa vastaan. Heidän mukaansa maaseutu kuolee.Taustalla on suurempikin suuttumus ja se on erityisesti Euroopan Unionia ja sen esittämää luonnon ennallistamisasetusta vastaan. Se edellyttää jäsenmailta uusia ympäristötoimia vuoteen 2030 mennessä.Esimerkiksi nykyisestä peltopinta-alasta joltiseenkin neljä prosenttia tulisi jättää kesannolle.Se on pois maanviljelijän tilipussista.– Kyse on kesantopinta-alasta, kauppaneuvotteluista, maataloustuotteiden tuonnista, karjaeläinten kasvattamisesta, ylisääntelystä, maanviljelijöiden tyytymättömyydestä, hallinnasta ja kaikesta tästä, luettelee paikallisen viljelijäjärjestön puheenjohtaja Regis Desrumaux.Mitta on täysi, joten maanviljelijät ovat ilmoittaneet saartavansa Pariisin määrittelemättömäksi ajaksi tukkimalla kaupunkiin ja sieltä pois johtavat moottoritiet traktoreilla.Brittimedia Guardianin verkkosivujen mukaan koolla on jopa 1 000 traktoria.”Emme poistu ennen kuin olemme tyytyväisiä”– Jotain on tapahduttava, emme poistu, ennen kuin olemme tyytyväisiä, protestiin osallistuva Judy Peeters sanoo Reutersin haastattelussa tiukkana.– Tarkoitus oli kokoontua vasta torstaina, mutta halusimme näyttää, että voimme olla pidempäänkin. Haluamme tulla kuulluksi ja viestiä ministereille, että heidän on toimittava tai muuten kuolemme pikkuhiljaa pois, sanoo puolestaan Nicolas Abbeloos.Myös Belgiassa traktorit tukkivat moottoritieliikennettä. Osa maanviljelijöistä on ajanut traktorinsa aivan EU-päätöksenteon ytimeen, lähelle parlamenttitaloa Brysselissä.Monet protestiin osallistuvat nukkuvat yönsä traktorin hytissä. Välillä kokoonnutaan ulos lämmittelemään porukalla nuotioiden äärelle.Voileipiä protestoijille A16-moottoritien varressa valmistanut nainen sanoi uskovansa, että mielenosoitukselle on laaja kansan tuki.– He ymmärtävät, että meidän mittamme on täysi. Emme voi harrastaa halpamaanviljelyä. Ruokakori on tärkeä juttu, mutta kyllä tällä pitää pystyä elämään, hän sanoi Ranskan television haastattelussa.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -664,21 +667,21 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sääntö-Suomen hyvä puoli on se, että anaalitappi ei jää jumiin – testaa miten hyvin tunnet standardit</t>
+          <t>Itä-Suomen poliisi: Lunnin ampumisesta on tehty tutkin­tapyyntö</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20070878</t>
+          <t>https://yle.fi/a/74-20071897</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Vuonna 1904 Baltimoren kaupungissa syttyi tuhoisa tulipalo. Baltimoren oman palokunnan avuksi hälytettiin apuvoimia myös lähikaupungeista. Siitä ei ollut juurikaan apua, sillä naapurikaupungeista tulleiden palokuntien letkuliittimet eivät sopineet Baltimoressa käytössä olleisiin paloposteihin.Siksi tulipalo roihusi kaupungissa kolmenkymmenen tunnin ajan ja tuhosi 1 500 rakennusta maan tasalle.Mutta oli tuhoisassa tulipalossa jotain hyvääkin: se oli nimittäin lähtölaukaus letkuliittimien standardoinnille. Kun kaikilla palokunnilla on samanlainen kalusto, hädän tullen naapurikunnan palomiehistä on oikeasti apua.Tänä päivänä moni asia on samaan tapaan säädelty. Yhdessä sovitun standardin ansiosta A4-kopiopaperit sopivat eri valmistajien tekemiin tulostimiin. Ja vieläpä eri puolilla maailmaa.Puoli seitsemän jutussa on esitelty lisää elämää helpottavia ja turvallisuutta lisääviä säädöksiä.</t>
+          <t>Poliisin toiminnasta ja lunnin kohtalosta on tehty ainakin yksi tutkintapyyntö, kerrotaan Itä-Suomen poliisista.Poliisi ampui lunnin Joensuun Karsikossa sen jälkeen, kun pihalla kävelevästä linnusta oli ilmoitettu hätäkeskukseen.Itä-Suomen poliisin mukaan ampumiseen johtaneista tapahtumista aloitetaan mahdollisesti esitutkinta. Ennen sitä asiasta tehdään esiselvitys.Tämän vuoksi poliisi ei kerro vielä yksityiskohtia siitä, mikä johti eläimen lopettamiseen ampumalla.Itä-Suomen poliisin komisario Jari Lehto kommentoi asiaa yleisellä tasolla. Lehto kertoo, että tarvittaessa poliisi lopettaa kituvan eläimen. Tavoitteena on lopettaa loukkaantuneen eläimen kärsimys.– Eroa ei tehdä siinä, onko kyseessä rauhoitettu tai uhanalainen eläin, hän sanoo.Yle haastatteli joensuulaisnaista, joka teki erikoisesta linnusta ilmoituksen. Nainen kertoi arvioineensa poliisille, että pihalle ilmestynyt lintu on luultavasti lunni tai ruokki.Birdlife Suomi kritisoi, Pohjois-Karjalassa aiotaan tehdä ohjeetLunnin kohtalo on herättänyt paljon keskustelua. Esimerkiksi Birdlife Suomen mukaan linnun ampuminen oli poliisilta virhearvio.Birdlife Suomen tiedottaja Jan Södersved kommentoi Ylen haastattelussa, että viranomaiset ottaisivat yhteyttä asiantuntijaan ennen päätöstä lopettaa lintu.Pohjois-Karjalan lintutieteellinen yhdistys aikoo laatia viranomaisille yhteystietolistan henkilöistä, joihin voi ottaa yhteyttä vastaavissa tilanteissa.Listalle nimetään ihmisiä, jotka toimivat eläinsuojeluyhdistyksissä ja rengastavat lintuja. Tarkoitus on tehdä myös selkeät ohjeet. Ne laaditaan yhteistyössä viranomaisten kanssa.Lunni on Suomessa harvinainen. Yksittäisiä lintuja harhautuu Suomeen tyypillisesti tammikuussa. Lunni on maailmanlaajuisesti uhanalainen laji.Muutamia lunneja on harhautunut Itä-Suomeen ja Lappiin tammikuun loppupuolella.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -692,21 +695,21 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Onko ehdokas vielä hakusessa? Lue ainakin nämä vaikuttavat jutut</t>
+          <t>Salon murha­tut­kinnan pääepäillyt on siirretty tutkin­ta­van­kilaan – poliisi ei edelleenkään valota murhan motiivia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071047</t>
+          <t>https://yle.fi/a/74-20071922</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Presidentinvaalien ensimmäinen kierros käydään tänään sunnuntaina. Äänestäminen on mahdollista vielä iltakahdeksaan saakka.Kokosimme yhteen ennen vaaleja julkaisemiamme artikkeleita, joiden avulla voit tutustua ehdokkaisiin ja miettiä äänestyspäätöstäsi.Voit tutustua ehdokkaisiin myös Ylen vaalikoneessa.Ystäväkirja paljastaa ehdokkaista yllättäviä asioitaAvaa kuvien katseluPresidenttiehdokkaat jakavat ystäväkirjassa muistojaan ulkomailta. Kuva: Eeva Sarlin / YlePyysimme presidenttiehdokkaita täyttämään ystäväkirjan. Juttu muun muassa paljastaa ehdokkaiden suosikkikaupungit ja lempiruoat ulkomailla, kamalimmat reissukokemukset, esikuvat sekä saavutukset ulkopolitiikassa – monelle tutussa muodossa.Lue lisää: Jokainen presidenttiehdokas täytti ystäväkirjan – se paljastaa menneisyyden poikkeuksellisella tavallaVoidaanko presidentti potkia ulos? Voiko hänen lapsensa saada opintotukea?Avaa kuvien katselu Kuva: Silja ViitalaVideoilla Ylen toimittajat Elli Piirainen ja Jimi Holmberg kertovat yksityiskohtia – kummallisiakin sellaisia – presidentin tehtävistä. Miksi presidentti voi armahtaa rikollisia? Kuinka paljon presidentti tienaa? Voiko presidentti saada potkut? Muun muassa näihin kysymyksiin saat vastauksen.Lue lisää: Mitä se edes tekee, häh? Tämä juttu näyttää hyvin selvästi, miksi meillä on presidenttiPresidenttiehdokkaat paljastavat arvonsa – vertaa itseäsi heihinAvaa kuvien katselu Kuva: Asmo Raimoaho / YleTasavallan presidentti on ennen kaikkea ulko- ja turvallisuuspolitiikan johtaja, mutta suomalaiset odottavat häneltä myös arvojohtajuutta. Tässä jutussa voit testata, kenen arvomaailma vastaa eniten omaasi – ja kuka edustaa sinulle vieraimpia arvoja.Lue lisää: Testaa, kuinka hyvin omat arvosi vastaavat presidenttiehdokkaiden arvoja: vastaukset voivat yllättääRaati arvioi ehdokkaiden ruotsin kielen taidotAvaa kuvien katseluLi Andersson puhuu äidinkielenään ruotsia, ja se kuuluu hänen ruotsin osaamisessaan. Kuva:  Antti Haanpää / YleKoska presidentti johtaa ulkopolitiikkaa, myös hänen kielitaidollaan on merkitystä. Osalla presidenttiehdokkaista on kielipelissä etulyöntiasema. Svenska Ylen raati arvioi ehdokkaiden ruotsin taidot.Lue lisää: Kaksi on täysiä kymppejä, yksi saa tylyn viitosen – raati arvioi ehdokkaiden ruotsin kielenJoku heistä on pian maan ykköspuolisoAvaa kuvien katseluPresidenttiehdokkaiden puolisot: Kirsi Aaltola, Merja Rehn, Antonio Flores, Juha Mustonen, Hilla Halla-aho, Suzanne Innes-Stubb, Juha Pursiainen, Jasmine Pajari ja Roope Knapp. Kuva: Mimmi Nietula / Yle, Markku Pitkänen / Yle, Mikko Koski / Yle, Berislav Jurišić / Yle, Jaani Lampinen / Yle ja Kimmo Brandt / AOPPresidentin puolison pesti on arvokas, vaikka hänellä ei virallista asemaa olekaan. Tapasimme lähes kaikki presidenttiehdokkaiden puolisot, joista moni ei ole juuri esiintynyt aiemmin julkisuudessa.Lue lisää: Esittelemme presidenttiehdokkaiden puolisot – Flores haaveilee vielä lapsesta, Innes-Stubb pohtii oman uransa jatkoaRaati arvioi, mitä vaalipotretit paljastavat presidenttiehdokkaistaAvaa kuvien katseluPresidentinvaalien vaalijulisteita Helsingin Pasilassa. Kuva: Silja Viitala / YleLähes kaikki ehdokkaat hymyilevät vaalikuvissaan, tummansininen väri hallitsee. Asiantuntijoista ja opiskelijoista koottu raati analysoi presidenttiehdokkaiden vaalipotretit.Lue lisää: Raati arvioi, mitä vaalipotretit paljastavat presidenttiehdokkaista – yksi kuva mietitytti monia</t>
+          <t>Salon murhatutkinnan kolme pääepäiltyä on siirretty Turun poliisivankilasta tutkintavankilaan.– Sen verran on päästy tutkinnassa eteenpäin, että ei enää ole välttämätöntä pitää heitä poliisivankilassa, sanoo tutkinnanjohtaja, rikoskomisario Tuomas Kuure Lounais-Suomen poliisista.Poliisi haki ja sai Varsinais-Suomen käräjäoikeudelta poikkeuksellisti luvan pitää epäiltyjä vangittuina poliisivankilassa pari viikkoa.– Silloin kun sitä haetiin, se katsottiin välttämättömäksi. Nyt katson, että ei ole enää tarvetta pitää heitä täällä, Kuure sanoo.Tutkinta jatkuu perinteisin menoinSalon Kiikalassa 11. tammikuuta tapahtuneesta 41-vuotiaan miehen murhasta on ollut epäiltynä ja pidätettynä yhteensä viisi miestä ja kolme naista. He ovat 18–40-vuotiaita, joista osalla on rankkaakin rikostaustaa.Esitutkinnassa saatujen tietojen perusteella epäillyistä neljä on ollut tapahtumapaikalla ja osallistunut henkirikoksen tekemiseen. Muiden neljän epäillään osallistuneen tekoon suunnittelemalla tai muuten osaltaan mahdollistaneen surmateon tai sen jälkeisiä toimia.Poliisilla on käsitys henkirikoksen syystä, tapahtumien kulusta ja epäiltyjen osallisuudesta. Motiivia ei ole kerrottu. Myös huumausaineet liittyvät osaltaan Salon tapahtumiin. Tutkinnassa on takavarikoitu jonkin verran huumausaineita.– Kyllä huumeet jollain tavalla liittyy tapahtumiin, mutta millä tavalla, sitä ei ole tässä vaiheessa tarkennettu, tutkinnanjohtaja Tuomas Kuure kertoo.Epäilty murha tehtiin yksityisasunnossa, tekovälineenä käytettiin erilaisia välineitä, joista yksi on ampuma-ase.– Tutkinta jatkuu perinteisin menoin kuulusteluilla, laite-etsinnöillä ja teknisenä tutkintana, kertoo Tuomas Kuure.Varsinais-Suomen käräjäoikeuden mukaan syytteen nostamisen määräajaksi on asetettu 16. toukokuuta.Poliisilla on aikomus tiedottaa murhatutkinnasta lisää keskiviikkona.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -720,37 +723,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Testaa, kuinka hyvin omat arvosi vastaavat presi­dent­tieh­dok­kaiden arvoja: vastaukset voivat yllättää</t>
+          <t>Kaupan alan lakko iskee torstaina – katso, miten ostosreissut kannattaa suunnitella ja onko Alko auki</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20068848</t>
+          <t>https://yle.fi/a/74-20071874</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Tasavallan presidentti on ennen kaikkea ulko- ja turvallisuuspolitiikan johtaja, mutta suomalaiset odottavat häneltä myös arvojohtajuutta.Presidentti tulkitsee maailmaa, herättelee keskustelua ja ottaa kantaa aiheisiin, jotka eivät suoraan kuulu hänen toimivaltaansa.Tämän vuoksi on merkitystä myös sillä, millaisten lasien läpi hän maailmaa katsoo.Esitimme ehdokkaille erilaisia arvokysymyksiä. Tästä jutusta selviää, mitä ehdokkaat ajattelevat muun muassa sukupuolten moninaisuudesta, maahanmuutosta ja nuorten mielenterveydestä.Entä pitäisikö heidän mielestään ilmastonmuutos asettaa kaiken politiikan teon keskiöön tai myös alle 15-vuotias voida tuomita vankeusrangaistukseen?Jutussa voit myös verrata omia arvojasi ehdokkaiden arvoihin – klikkaa vain omaa näkemystäsi kuvaavinta täppää. Emme tallenna lukijoiden vastauksia.
-Toteutus vaatii toimiakseen JavaScriptin.
-Ensimmäiset kaksi ehdokkaille esitettyä väittämää koskivat sukupolvien välistä tasa-arvoa. Valtaosa heistä ei tahtonut tehdä eroa sukupolvien välillä, ja arvoasteikon keskelle muodostuikin tungosta.Vasemmistoliiton Li Andersson poikkesi kaikista muista ehdokkaista olemalla lähes täysin sitä mieltä, että maailma oli aiemmille sukupolville helpompi paikka.Avaa kuvien katseluAnderssonin mielestä oli pitkään niin, että kullakin sukupolvella oli paremmat oltavat kuin edellisellä.– Kun tarkastellaan nykytilannetta Suomessa, meillä on tietoa siitä, että koulutustason nousu on pysähtynyt. On myös yhä enemmän epävarmuutta työelämässä. Meillä on myös ilmastokriisi ja luontokriisi, jotka vaikuttavat hyvin keskeisesti siihen, millaisissa elinolosuhteissa nykypäivän nuoret ikäpolvet tulevat elämään.Anderssonin mukaan myönteistä kehitystä on kuitenkin tapahtunut esimerkiksi ymmärryksessä yhteiskunnan monimuotoisuudesta ja ihmisoikeuksista.
-Toteutus vaatii toimiakseen JavaScriptin.
-Yllä olevassa kysymyksessä ehdokkaat ottivat kantaa siihen, kenen kuuluu kantaa vastuu opiskelijoiden toimeentulosta.Harkimo painotti eniten opiskelijan omaa vastuuta taloudestaan. Hän kannattaa nykyistä opintotukijärjestelmää, mutta poistaisi opiskelijoiden työnteolta tulorajat.Kiinnostavaa on kuitenkin se, että valitsijayhdistyksen ehdokas Pekka Haavisto (vihr.) ja SDP:n ehdokas Jutta Urpilainen kallistuvat enemmän opiskelijan oman vastuun kannalle kuin esimerkiksi kokoomuksen Alexander Stubb ja perussuomalaisten Jussi Halla-aho.Haavisto pitää tärkeänä, että opintososiaaliset edut säilytetään. Etenkään opiskelijoiden asumismahdollisuuksiin ei pitäisi hänen mielestään tehdä suuria muutoksia.– Tietysti on tärkeää, ettei opiskelija velkaannu opiskeluiden aikana. Nykymaailman pätkätyömaailmassa velkakuormasta voi olla vaikea päästä eroon. Sellainen opintotuki tietysti pitää olla, että perustarpeet tyydytetään, Haavisto sanoo.Avaa kuvien katseluToisaalta Haavisto toteaa, että myös työkokemuksen kartuttaminen jo opiskelujen aikana on hyödyksi.Stubbin mielestä yhteiskunnan tuen on oltava olennainen osa opiskelijan toimeentuloa. Samaan hengenvetoon hän painottaa kuitenkin opiskelijan omaa vastuuta.– Itse sain isotkin opiskeluedut aikoinaan, kun opiskelin. Ilman niitä en olisi voinut toimia. Sen toinen puoli ovat jonkinnäköiset vastuut, hän sanoo.Avaa kuvien katseluHän kertoo maksaneensa Yhdysvalloissa opiskellessaan suuria lukukausimaksuja, eikä rahojen kerääminen niitä varten ollut aina helppoa.– On tärkeää, että yhteiskunta pystyy auttamaan, mutta jos uskaltaa ja haluaa ottaa riskiä, niin pitää myös voida se tehdä, Stubb sanoo.
-Toteutus vaatii toimiakseen JavaScriptin.
-Valtaosa ehdokkaista kallistui sen kannalle, että ilmastonmuutoksen torjumisen pitää olla kaiken politiikan teon keskiössä.Vain Halla-aho oli selkeästi sitä mieltä, että ilmaston­muutoksen torjuntaan voidaan keskittyä vasta, kun Suomen talous on kunnossa.Kristillisdemokraattien ehdokas Sari Essayah sijoitti itsensä keskelle, sillä hänen mielestään väittämät eivät sulje toisiaan pois.– On vanhanaikaista ajatella, että ilmastonmuutoksen torjuminen olisi lähtökohtaisesti talouden heikentämistä. Meillä on Suomessa paljon puhtaan teknologian osaamista ja innovaatioita, joita voimme edistää viennin kautta ja samalla kasvattaa talouden hyvinvointia.Avaa kuvien katseluEssayahin mukaan ei voi ajatella myöskään niin, että vain ilmastonmuutoksen torjunta olisi politiikan teon keskiössä.
-Toteutus vaatii toimiakseen JavaScriptin.
-Maahanmuuttoa käsittelevä kysymys synnytti jonkin verran hajontaa ehdokkaiden välillä.Kannatuskyselyjä johtava Stubb varoo ottamasta tiukasti kantaa ja sijoittaa itsensä janan keskelle. Näin hän tekee kaikkiaan puolessa vastauksista.Valtaosa ehdokkaista kallistui kuitenkin sille kannalle, että maassa tulee elää maan tavalla. Selkeimmin tätä mieltä olivat Halla-aho ja Liike Nytin Harry Harkimo, mutta Urpilainen on arvojanalla heti heidän vieressään.Avaa kuvien katseluUrpilainen perustelee vastaustaan toteamalla, että Suomessa jokaisen on sitouduttava esimerkiksi sukupuolten väliseen tasa-arvoon.– Suomessa eletään Suomen lainsäädännön ja yhteiskunnan perustavien arvojen ja toimintatapojen mukaan. On selvää, että kunnioitamme kaikkia uskontoja ja kulttuureja, mutta uskonnon tai kulttuurin varjolla ei voi poiketa lainsäädännöstä tai polkea toisen ihmisen itsemääräämisoikeutta, Urpilainen sanoo.
-Toteutus vaatii toimiakseen JavaScriptin.
-Viime vuonna poliitikot kävivät repivää keskustelua uudesta translaista. Ehdokkaiden sukupuoli- ja seksuaalivähemmistöjä koskevia arvoja ja asenteita tarkasteltiin kysymällä, onko sukupuolia olemassa heidän mielestään kaksi vai useampia.Halla-aho ja Essayah edustavat toista ääripäätä, jonka mukaan niitä on kaksi. He perustelevat vastauksiaan biologialla, mutta lisäävät, että kokemuksia omasta sukupuolesta voi olla monia.Valtaosa ehdokkaista kallistuu sukupuolten monimuotoisuuden kannalle.Valitsijayhdistyksen ja keskustan ehdokas Olli Rehn on selkeästi enemmän sitä mieltä, että sukupuolia on useampia.Hän kertoo tarkastelevansa asiaa ennen kaikkea ihmisoikeuskysymyksenä.– On ihmisiä, jotka tutkitusti eivät ole joko naisia tai miehiä tai kokevat, että heidän identiteettinsä ei ole naisen tai miehen identiteetti. On mielestäni peruste selvittää kolmannen sukupuolen juridiset edellytykset. Ihmisyyden kirjo on laaja, ja he ovat myös luojan luomia niin kuin me muutkin, Rehn sanoo.Avaa kuvien katseluRehn toteaa, ettei kysymys kuulu presidentin toimivaltaan, mutta pitää sitä tästä huolimatta tärkeänä arvokysymyksenä.
-Toteutus vaatii toimiakseen JavaScriptin.
-Peruskoulun uskonnonopetuksen puolesta liputtavat kaikki presidenttiehdokkaat.Pieniä eroja ehdokkaiden väliltä löytyy, mutta yksikään ei kallistu sen kannalle, että uskonnon tunneista tulisi kouluissa luopua.Avaa kuvien katseluValitsijayhdistyksen ehdokkaan Mika Aaltolan mukaan uskontoihin perehtyminen ei ole keneltäkään pois ja auttaa ymmärtämään myös maailmanpolitiikkaa.– Voi sanoa, että uskonnollisuus on yleisyhteiskunnallinen piirre. Kansalaisuskonnon ymmärrys, erityisesti omien perinteiden mutta myös muiden, antaa avaimia ja ikkunoita ymmärrykseen, hän perustelee.
-Toteutus vaatii toimiakseen JavaScriptin.
-Nuorten väkivalta ja rikollisuus nousivat viime vuonna suureksi puheenaiheeksi. Nuorisorikollisuutta käsittelevä kysymys sai ehdokkaiden vastauksissa aikaan suurinta hajontaa.Haavisto ja Andersson ovat täysin sitä mieltä, että alle 15-vuotias on liian nuori ottamaan täyttä vastuuta teoistaan.Harkimo ja Halla-aho sen sijaan kallistuvat eniten sen kannalle, että myös alle 15-vuotias pitäisi voida tuomita sakkoon tai vankeusrangaistuksen.Harkimon mukaan alaikäiset ovat yhä enemmän mukana rikoksissa ja ovat käyttäneet jopa aseita.– Ruotsissa käytetään nuoria rikoksissa, koska he välttyvät rangaistuksilta. Jotta Suomessa ei yleistyisi se, että käytetään nuorempia ja nuorempia, heille pitäisi olla myös rangaistukset, hän sanoo.Avaa kuvien katselu
-Toteutus vaatii toimiakseen JavaScriptin.
-Nuorten mielenterveysongelmia koskeva kysymys ei juuri jaa ehdokkaita. Suurin osa on selkeästi sitä mieltä, että ongelmaa ei oteta Suomessa tarpeeksi vakavasti.Vain Halla-aho on kahden vaiheilla. Hänen mielestään mielenterveystyöhön tulisi suunnata enemmän resursseja.Ihmisiä ei Halla-ahon mukaan pidä kuitenkaan lietsoa siihen, että jokaisella on mielenterveysongelma vain sen takia, että heillä on ikäkauteen kuuluvia kriisejä.– Kun ihmiselle annetaan diagnoosi, tulee siitä helposti osa hänen identiteettiään. Hän alkaa itse uskoa, että hänellä on päässä jotain vikaa, vaikka ne ovat monesti ohimeneviä asioita.Avaa kuvien katseluHalla-aho peräänkuuluttaa vanhempien vastuuta.– Nuorisoon ei tulisi lietsoa pahoinvointia erilaisilla ilmiöillä, kuten ilmastoahdistus tai sukupuolihysteria. Ne eivät ainakaan auta näiden ahdistuksen tunteiden purkamisessa.</t>
+          <t>K-ryhmä, S-ryhmä, Lidl ja Tokmanni pyrkivät pitämään kaupat auki lakosta huolimatta. Alkojen aukioloihin lakolla ei ole vaikutusta.Palvelualojen ammattiliitto PAM järjestää torstaina ja perjantaina useita sopimusaloja koskevat lakot hallituksen kaavailemia työehtojen heikennyksiä ja leikkauksia vastaan.Ruokakaupat ja tavaratalot ovat lakon kohteena vuorokauden ajan torstaina.PAMin lakon kohteetS-ryhmän myymälät ja liikenneasemat kokonaisuudessaan.Osuuskauppojen pankki- ja parturi-kampaamoiden palvelut kokonaisuudessaan.K-Citymarketit ja K-Citymarket kauppiaat, K-Supermarketit ja K-marketit.Lidl–myymälät.Tokmannin myymälät.PAMin lakko kosee myös matkailu-, ravintola- ja vapaa-ajan palveluita sekä kiinteistöpalvelualaa.Lakon piirissä ovat kaikki työntekijät, jotka työskentelevät lakkokohteissa, ja joita koskee PAMin työehtosopimus.
+Lähde: PAMAvaaK-ryhmän työmarkkina-asioista vastaava johtaja Petteri Huovinen toteaa, että poliittisessa lakossa mukana oleminen on työntekijän henkilökohtainen valinta.– Viime kädessä tiedämme lakkoaamuna, missä määrin henkilöstö saapuu paikalle ja kuinka laajalla palveluvalikoimalla sekä aukioloajalla voimme toimia, Huovinen sanoo.Myös esimiehet voivat hoitaa tehtäviä, joita kaupan auki pitämisessä tarvitaan.Jotkin tuotteet voivat loppuaLidlin operatiivinen johtaja Marcin Malewicz ennakoi sähköpostivastauksessaan, että lakolla voi olla pieniä vaikutuksia.– Käytännössä se voi tarkoittaa esimerkiksi sitä, että kassoja on vähemmän auki tai paistopisteellä voi esiintyä yksittäisiä tuotepuutteita.Myös S- ja K-ryhmistä kerrotaan, että kaupoissa voi olla puutteita yksittäisistä tuotteista, koska myös muun muassa Auto- ja kuljetusalan työntekijäliitto AKT on julistanut lakon loppuviikolle. Korvaavia tavaroita pitäisi kuitenkin löytyä hyllystä.Tokmannin sijoittajasuhde- ja viestintäpäällikkö Maarit Mikkonen ei usko, että tavarataloissa tulisi yhden päivän aikana puutetta mistään tuotteesta. Tuoretta ruokaa myyvillä osastoilla saattaa olla katkoksia päivittäin myyntiin tulevissa elintarvikkeissa.Avaa kuvien katseluTokmannin myymälä Espoonlahdessa 2022. Kuva: Henrietta Hassinen / YleS- ja K-ryhmä kertovat pyrkivänsä päivittämään tiedot aukioloajoista nettisivuilleen. K-ryhmän Petteri Huovinen kertoo myös, että tietoja pyritään kiinnittämään kauppojen oviin heti, kun mahdollista.Alko on normaalisti aukiAlkon liiketoimintajohtajan Kari Pennasen mukaan Alkot ovat loppuviikosta normaalisti auki. Myymälöiden tavallisiin aukioloaikoihin ei siis ole tulossa muutoksia, sillä Alko ei ole PAMin lakkokohde.Pennanen kertoo, että juomia on tilattu hyllyyn etukäteen riittävästi.– Olemme aikaistaneet myymälätoimituksia ja tuotteiden pitäisi kaiken järjen mukaan riittää. Toki jokin yksittäinen tuote voi loppua, mutta valikoimassa on aina jokin korvaava, Pennanen kertoo.Avaa kuvien katseluAlkokaan ei täysin välty lakon vaikutuksilta. Arkistokuva. Kuva: Esa Fills / YleAlko ei silti selviä täysin ilman lakkojen vaikutuksia, sillä Alkon myymälöihin on mahdollista tilata tuotteita nettikaupan kautta. Verkkokauppatilausten toimitukset voivat viivästyä, jos tilauksen keräily varastosta tai kuljetus osuu lakon ajalle.Ennakkoäänestys ei ole vaarassaPalvelualojen ammattiliittoon on tullut kysymyksiä siitä, vaikuttaako lakko kauppojen yhteydessä oleviin ennakkoäänestyspisteisiin. Ennakkoäänestys järjestetään normaalisti, vastaa PAMin järjestöjohtaja Risto Kalliorinne.Hän muistuttaa, ettei kaupan henkilöstö osallistu mitenkään ennakkoäänestyksen järjestämiseen tai toimittamiseen.– Lakkorajana on kaupan kassalinja. Äänestys ei tapahdu koskaan kassalinjan sisäpuolella maitohyllyjen välissä, vaan kauppakeskuksen tai kiinteistön yleisissä tiloissa.PAM on myös linjannut, että jos tilojen käyttöön tarvitaan esimerkiksi vartijoiden työpanosta, työ on lakon aikana luvallista ja se pitää suorittaa.– Olemme infonneet tästä yrityksiä, jotka tuottavat esimerkiksi kiinteistöhuolto- tai vartiointipalveluja, Kalliorinne sanoo.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -764,21 +752,21 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Olo oli surkea, vaikka Hanna-Leena Kuisma oli dieeteillä ja treenasi rankasti – verikokeen tulos muutti kaiken</t>
+          <t>Finnair peruu noin 550 lentoa lakon takia, vaikutukset koskevat 60 000:ta ihmistä</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071355</t>
+          <t>https://yle.fi/a/74-20071863</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Olo 2.0 – tästä tulee tapaTammikuussa etsimme parempaa oloa yhdessä.Liity porukkaanOnneksi homma räjähti käsiin. Niin nokialainen Hanna-Leena Kuisma, 38, ajattelee nyt, kuusi vuotta burnoutin jälkeen.– Olen aina ollut kiltti ja joustava, enkä ole osannut suojella itseäni. Töissä olin aina valmis mihin tahansa, Hanna-Leena kertoo.Hän oli työskennellyt julkisessa terveyskeskuksessa viisi vuotta pääasiassa hammashoitajana. Hoitotyötä mieluisampia Hanna-Leenalle olivat toimistohommat, joita hän sai tehdä itsenäisesti. Työtehtävät vaihtuivat usein yllättäen kesken päivän.– Hoitotyössä raskainta oli se, etten pystynyt hallitsemaan sitä. Ruokatauot jäivät usein pitämättä, ja jos hammaslääkäri oli myöhässä, asiakkaat kiukuttelivat minulle.Eräänä päivänä helmikuussa 2017 Hanna-Leena oli väsynyt ja uskoi olevansa tulossa kipeäksi. Päivästä tuli taas kerran kiireinen, ja taukoja jäi pitämättä.Hanna-Leenan olo huononi, ja hän hakeutui terveydenhoitajalle. Hän istui alas ja purskahti heti itkuun. Uupunut Hanna-Leena jäi sairauslomalle, joka kesti lopulta kolme kuukautta.– Kun sain vihdoinkin luovuttaa ja levätä, jämähdin kotiin makaamaan. Ensimmäisen kuukauden elin sumussa.Paino nousi 25 kiloa vuodessaHanna-Leena ei jaksanut enää harrastaa mitään. Roskaruoka ja herkut maistuivat. Hanna-Leenalla todettiin lievä masennus, ja hän aloitti masennuslääkityksen.– Sanotaan, että lääke ei vaikuta painonnousuun, mutta varmasti vaikutti, koska se lisäsi ruokahalua. Lihoin vuodessa 25 kiloa.Oltuaan kolme kuukautta sairauslomalla Hanna-Leena yritti palata osa-aikaisesti töihin. Hänelle mieluisat toimistotyöt otettiin pois. Jäljelle jäi hoitotyö, jossa hän joutui venymään kuten ennenkin.Avaa kuvien katseluHoitotyössä on raskainta se, ettei työtä pysty hallitsemaan itse, sanoo Hanna-Leena Kuisma. Kuva: Jani Aarnio / YleKesälomalla Hanna-Leena ymmärsi, ettei voisi enää palata samaan työhön. Hän haki opiskelemaan tradenomiksi Tampereen ammattikorkeakouluun. Syksyllä alkoivat opinnot ja uusi työ asiakaspalveluneuvojana puhelinoperaattorilla.– Toivuin edelleen uupumuksesta, mutta olin iloinen, että sain päiviini täytettä ja uutta opittavaa. Se auttoi pääsemään eteenpäin.Elämänmuutos kesti aina pari viikkoaHanna-Leena yritti pudottaa painoaan pikadieeteillä ja rankoilla treeniohjelmilla. Hän ei jaksanut noudattaa niitä paria viikkoa kauempaa. Paino ei pudonnut, ja olo oli surkea.– Vanhat vaatteet eivät menneet päälle, enkä tunnistanut itseäni peilistä. Silti minulla ei ollut fyysisiä eikä henkisiä voimavaroja rajuihin kunto-ohjelmiin.Vanhat vaatteet eivät menneet päälle, enkä tunnistanut itseäni peilistä.Hanna-Leena KuismaHanna-Leena jätti painonpudotuksen sikseen. Kolmen vuoden ajan hän keskittyi ainoastaan opintoihin ja työntekoon. Kun opinnot alkoivat olla loppusuoralla, hän päätti käydä verikokeissa.– Tulokset olivat karmaisevat: kaikki arvot viittasivat kakkostyypin diabetekseen. Tajusin, että jotain pitää tehdä.Hän päätti muuttaa ruokailutapansa, kun opinnäytetyö olisi hyväksytty ja hänellä riittäisi energiaa muuhunkin. Hanna-Leena halusi ennen kaikkea veriarvonsa kuntoon ja lähti siksi liikkeelle ruoasta.– Olen aina ollut perso suklaalle ja käynyt usein väsyneenä ostamassa kaupasta suklaalevyn. Olen vetänyt sen sitten jo autossa tai viimeistään kotimatkalla.Uudet rutiinit ja uusi työKesän korvalla Hanna-Leena jätti pois muut herkut paitsi jäätelön ja alkoi syödä iltapäivisin terveellistä välipalaa: rahkan, omenan ja kourallisen manteleita. Lisäksi hän alkoi käydä rauhallisilla kävelylenkeillä. Pois jäi myös alkoholi, jonka Hanna-Leena oli huomannut huonontavan paitsi veriarvoja myös unen laatua.Avaa kuvien katseluPitkän tauon jälkeen Hanna-Leena Kuisma aloitti liikunnan rauhallisilla kävelylenkeillä. Kuva: Jani Aarnio / YleKun välipalan syömisestä tuli rutiini, Hanna-Leena alkoi syödä myös aamupalaa ja myöhemmin viisi ateriaa päivässä. Sitten hän alkoi syödä enemmän kasviksia lounaalla ja päivällisellä.– En odottanut radikaaleja muutoksia tai pyrkinyt pudottamaan painoani tietyssä ajassa. Tärkeintä oli saada oma pääni kuntoon ja olla itseäni kohtaan armollinen, Hanna-Leena sanoo.Vuoden aikana paino putosi 15 kiloa, ja samalla veriarvotkin paranivat.Syksyllä Hanna-Leena aloitti palveluneuvojan työn terveydenhuoltoalan yhtiössä Mehiläisessä. Hän piti yhä kiinni säännöllisestä ruokarytmistä ja kävelylenkeistä.– Lopetin vaa’an kyttäämisen ja itseni kiusaamisen. Annoin kropalleni ja mielelleni aikaa keskittyä uusien asioiden oppimiseen.Hanna-Leenan toipuminen uupumuksestaan oli edelleen kesken. Hän kertoi siitä avoimesti työnantajalleen.– Kun kuormituin liikaa, se otettiin huomioon ja työtäni kevennettiin hetkeksi.Korkea kynnys lähteä salilleAvaa kuvien katseluHanna-Leena Kuisma pelkäsi, että kuntosalilla muut katsovat häntä ylipainon vuoksi. Kuva: Jani Aarnio / YleKun uusi työ oli tullut tutuksi, Hanna-Leena halusi alkaa käydä taas kuntosalilla. Tuttu personal trainer teki hänelle helpon aloitusohjelman, johon kuului muutama liike kerran viikossa.– Oli iso kynnys lähteä salille, vaikka polte oli kova. Vanhat salivaatteeni eivät enää mahtuneet päälle ja pelkäsin, että kaikki katsovat minua, kun olen niin lihava, Hanna-Leena kertoo.Treenaaminen tuntui hyvältä, ja kahden kuukauden jälkeen hän alkoi tehdä pidemmän treeniohjelman kahdesti viikossa. Nykyään salitreenejä on kolmesti viikossa. Lisäksi Hanna-Leena käy avantouimassa ja harrastaa kali-kamppailulajia.Yksi muutos kerrallaanTerveyden ja hyvinvoinnin laitoksen THL:n tutkimuspäällikön Susanna Raulion mukaan moni epäonnistuu muuttamaan elämäntapojaan, koska yrittää muuttaa liian monta asiaa kerralla.– Paino voi pudota tiukalla dieetillä, mutta kukaan ei pysty elämään niin koko loppuelämäänsä. Syömistä ja esimerkiksi välipaloja ei pidä pelätä, Raulio kertoo.Paino voi pudota tiukalla dieetillä, mutta kukaan ei pysty elämään niin koko loppuelämäänsä.Susanna RaulioHän kannustaa aloittamaan itselle helpoimmasta asiasta. Se voi olla vaikka säännöllinen syöminen tai kasvisten lisääminen ruokavalioon.– Elämäntapamuutosta ei kannata edes yrittää silloin kun on esimerkiksi uupunut tai elämä on hyvin hektistä, Raulio sanoo.”Peikko tulee välillä olkapäälle”Nykyisin Hanna-Leena on Mehiläisen suun terveyden myyntipäällikkö ja nauttii työstään.– Tämä työ on kuin minulle tehty. Pidän ongelmanratkaisusta ja siitä, että olen saanut lisää vastuuta, hän kiittelee.Työ ja vapaa-aika ovat nyt tasapainossa. Ja jos ne eivät joskus ole, Hanna-Leena tunnistaa uupumuksen merkit. Ensin kärsii uni, sitten liikunta ja lopulta hän haluaa vain käpertyä iltaisin peiton alle syömään suklaata.– Uupua voi niin työssä kuin vapaa-ajallakin, jos tekemistä on liikaa. Tarvittaessa jätän pois yhdistystoiminnan ja salitreenit. Käyn vain kävelyllä.Avaa kuvien katseluJos Hanna-Leena Kuisma uupuu liikaa, hän jättää salitreenit väliin. Kuva: Jani Aarnio / YleHanna-Leena on pudottanut painonsa samaan lukemaan kuin ennen uupumistaan. Hän huolehtii edelleen säännöllisestä syömisestä ja liikunnasta – eikä unohda myöskään herkuttelua. Hän on nyt paremmassa kunnossa kuin koskaan.– Silti peikko tulee silti välillä olkapäälle sanomaan, että nyt pitää äkkiä laihduttaa. Osaan nykyisin hiljentää sen. Ulkonäössäni ei ole virheitä, ei kenenkään ulkonäössä ole.Kolme vinkkiä – tee ainakin nämä1. Aloita pienestäAla käydä vaikka kävelyllä kerran viikossa. Yritä iltapäiväväsymyksen aikaan syödä välipala karkkipussin sijaan.2. Älä jätä kaikkia herkkuja poisJos olet perso suklaalle, jätä se pois, mutta ota tilalle jokin vähemmän houkutteleva herkku, jota sinun ei tee mieli syödä joka päivä.3. Jos et jaksa, lepääJos olet uupunut henkisesti, sinun ei kannata rääkätä itseäsi rankalla jumpalla. Mene mieluummin vaikka kävelylle.Ladataan lomaketta...Olo 2.0 on sisältökokonaisuus unesta, ravinnosta ja liikunnasta. Tammikuussa etsimme parempaa elämää yhdessä toimittaja Inkeri Alatalon kanssa. Katso Olo 2.0:n jakso 8: Kuva musta itestä on muuttunu.</t>
+          <t>Lentoyhtiö Finnair joutuu perumaan poliittisen lakon vuoksi noin 550 lentoa, kertoo Finnair tiedotteessaan.Perumiset koskevat noin 60 000 matkustajaa.Finnairin viestintäjohtaja Päivyt Tallqvistin mukaan peruttaville lennoille lipun ostaneille asiakkaille tarjotaan matkasuunnitelmien muutosmahdollisuus tai vaihtoehtoinen reititys.Tallqvistin mukaan noin 35 000 asiakasta on jo viime viikolla muuttanut lakkopäivien matkasuunnitelmiaan. Heille, jotka eivät näin toimineet, järjestetään lennon uudelleenreititys.Reitityksissä kestää kaksi päivääTyötaistelutoimet tuntuvat Tallqvistin mukaan liioitelluilta.– Tuntuu kohtuuttomalta, että poliittisesta lakosta, jolla ei ole mitään tekemistä Finnairin kanssa, aiheutuu vaivaa näin monelle asiakkaallemme.Finnair aloittaa lentojen perumiset ja vaihtoehtoiset reititykset huomenna tiistaiaamuna lento kerrallaan. Asiakkaat saavat tiedon lennon peruutuksesta ja vaihtoehtoisesta reitityksestä sitä mukaa, kun peruutukset on järjestelmissä tehty.– Voimme esimerkiksi lennättää asiakkaita muilla lentoyhtiöillä.Uudelleenreitityksissä kestää noin kaksi päivää.Jos vaihtoehtoinen reititys ei miellytä asiakasta, voi hän pyytää lentolipun hinnan takaisin Finnairilta lipputyypistä huolimatta.Joitain lentoja saatetaan lentääFinnair pyrkii torstaina ja perjantaina lentämään joitain yksittäisiä lentoja lakosta huolimatta. Näistäkin tiedotetaan asiakkaille henkilökohtaisesti.Tallqvistin mukaan lentojen onnistuminen on monien osien summa, joten on mahdoton ennakoida, mitkä lennot saatetaan lentää. Asia riippuu muun muassa siitä, kuinka paljon lentoyhtiöiden ja lentokentistä vastaavan Finavian henkilökuntaa on saatavilla.– Esimerkiksi ilman jäänestohenkilökuntaa koneet eivät voi lentää.Lennettävien lentojen matkatavarakuormauksessa ja lentojen juoma- ja ruokatarjoilussa voi olla häiriöitä ja lennot saattavat viivästyä.Aikatauluongelmia voi esiintyä myös lakon jälkeen lauantaina. Tallqvist myös muistuttaa, että Finnairin asiakaspalvelu on tällä hetkellä ruuhkautunut.Finavia listasi sulkeutuvat lentokentätTämän viikon lakot pysäyttävät Suomen lentoliikenteen lähes kokonaan maan isoilla lentokentillä torstaina ja perjantaina, pois lukien Puolustusvoimien käytössä olevat Utin ja Hallin sotilaslentokentät.Lentokenttiä hallinnoivan Finavian mukaan kapasiteettirajoituksia kaupalliselle matkustaja- ja rahtilentoliikenteelle aikavälille 1.–2. helmikuuta on tiedossa Helsinki-Vantaan, Ivalon, Jyväskylän, Kittilän, Kuopion, Kuusamon, Oulun, Rovaniemen, Tampere-Pirkkalan, Turun ja Vaasan lentokentille.Kaupallinen matkustaja- ja rahtilentoliikenne pysähtyy kokonaan aikavälillä 1.2. kello 0.00–2.2. kello 24.00 Joensuun, Kajaanin, Kemi-Tornion, Kokkola-Pietarsaaren, Porin ja Savonlinnan lentokentillä.Lakoissa ovat mukana ainakin Finavian tai Airpron palveluksessa työskentelevät JHL:n jäsenet, PAMin lentoasemien kiinteistöhuollosta, siivouksesta ja vartioinnista vastaavat työntekijät sekä Finnairin lentäjiä edustava Liikennelentäjäliitto.Miten laaja lakkoaalto tulossa? Radio Suomen päivässä keskusteltiin viime perjantaina siitä, miten laaja lakkoaalto Suomeen on tulossa.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -792,21 +780,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ihmiset pilasivat papin työn: ”Se ei merkitse heille mitään”</t>
+          <t>Tutkijat tiputtivat järveen 1 500 joulukuusta – paljastui tulos, joka ällistytti biologia</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20069503</t>
+          <t>https://yle.fi/a/74-20071783</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Joka kerta pappina työskentelevällä Sonjalla käy mielessä, millainen porukka häntä odottaa yleisössä.– Junnaan vuodesta toiseen hautajaisia, kasteita ja avioliittoon vihkimisiä, joissa ketään ei oikeasti kiinnosta, mitä puhun. Tärkeintä on saada asia nopeasti hoidettua, jotta he pääsevät kahville.Sonja huomaa tämän ihmisten eleistä ja ilmeistä. He saattavat vilkuilla kelloaan tai puhelintaan. Ihmisten katse siirtyy seinille tai he liikehtivät hermostuneesti. Silmissä ei näy iloa.Tällaisia tilaisuuksia on valtaosa.Välillä Sonja kertoo näkevänsä kummeista, ketkä ovat olleet viihteellä ristiäisiä edeltävänä iltana. He huohottavat, hiki valuu ja he eivät haluaisi pidellä enää vauvaa sylissä.Lisäksi osa vanhemmista supattaa keskenään, kun Sonja puhuu. Hänen on vaikeaa sulattaa sitä.– Vanhemmat vaivautuvat kastamaan lapsensa, mutta se ei kuitenkaan merkitse heille mitään.Sonja kokee työssään merkityksettömyyden tunnetta viikoittain.Hän ei ole kertonut ajatuksiaan kellekään. Papin työssä merkityksettömyyden tunne on hänestä tabu, josta ei saa puhua ääneen.– Se liittyy ennen kaikkea kutsumukseen, että tässä pitäisi pysyä ja olla onnellinen, kun saa työtä tehdä.Työterveyslaitoksen erityisasiantuntija Anniina Virtasen mukaan työn merkityksettömyys on vaiettu aihe, jonka yleisyydestä ei ole tietoa.– Työpaikoilla olisi tärkeää puhua asiasta silloin, kun pohditaan työuupumuksen syitä. Uupumusta voisi ehkäistä se, että työntekijät pystyisivät tekemään työtään riittävän merkityksellisellä tavalla.Anniina Virtanen kertoo, kuinka merkityksettömyyden kokemus näkyy työssä:Mistä työn merkityksettömyys voi johtua, Työterveyslaitoksen erityisasiantuntija Anniina Virtanen?Työssä koettu merkityksettömyys voi heikentää motivaatiota ja vähentää työpaikkaan sitoutumista, kertoo Työterveyslaitoksen erityisasiantuntija Anniina Virtanen. Tässä jutussa kerromme Sonjan ja kahden muun kokemuksen työn merkityksettömyydestä. Heidän nimensä on muutettu, koska kyse on heidän nykyisestä työstään, eivätkä he halua työnantajansa tietävän tästä.Sonjan tarina: Väsymyksen hetkinä rukoilu ei autaPappina työskentelevä Sonja on kutsumusammatissaan. Hän voi kertoa ihmisille Jeesuksesta ja Jumalasta.Silti merkityksettömyys työssä on aiheuttanut hänessä pettymystä, riittämättömyyttä ja kyynistymistä.– Kun into loppuu, kaikki työtehtävät tuntuvat aika raskailta. Se on osaltaan vaikuttanut myös omaan hengellisyyteeni.Sonja on pohtinut, että sanoisi esihenkilölleen olevansa työuupumuksen partaalla, vaikka se ei olekaan totta.Mitä voi tehdä, jos kokee työssään merkityksettömyyttä, Työterveyslaitoksen erityisasiantuntija Anniina Virtanen? Merkityksettömyys alkaa muodostua ongelmaksi, kun se alkaa näkyä työssä suoriutumisessa tai heikentää hyvinvointia merkittävästi. Merkityksettömyyden kokemusten kanssa ei kannata jäädä yksin, kertoo Työterveyslaitoksen erityisasiantuntija Anniina Virtanen. Jos merkityksettömyyden tunne jatkuu, Sonjan toiveena on löytää kirkosta tehtävä, jossa hänen ei tarvitse olla ihmisten kanssa tekemisissä. Tällainen voisi olla hallinnollinen työ.– En ole asettanut itselleni aikarajaa työpaikan vaihtamiselle, mutta kun väsymyksen hetkiä tulee, niin ei se rukoilemalla parane.Eräissä ristiäisissä Sonja kysyi lapselta, onko Raamattu hänelle tuttu kirja, ja lapsi vastasi kyllä. Kun Sonja kysyi lapselta, onko hänelle opetettu iltarukous, lapsi vastasi kyllä.– Tämä oli itselleni herätys, että miksi oletan lähtökohtaisesti, että ketään ei kiinnosta.Ninan tarina: ”Itkeviä ihmisiä haetaan vessasta”Nina on työskennellyt asiakaspalvelutyöntekijänä samassa paikassa 15 vuotta.Hänen työnsä tapahtuu puhelimitse.Avaa kuvien katseluVuoden 2018 jälkeen Ninan työ muuttui niin, ettei hän koe enää työtään asiakaspalveluna. Kuva: Matti Myller / YleNinan työssä kaikki kellotetaan, myös vessa- ja ruokatauot.– Nyt myös seurataan sekuntipelillä, miten kauan puhelu kestää. Siinä ei ole aikaa kuunnella asiakkaita. Kun vanha tai sairaana oleva ihminen soittaa, sekunnit täytyy silti rajata.Avaa kuvien katseluKun työhön käytettyä aikaa seurataan myös sekuntikellolla, Nina kertoo tekevänsä kiireessä herkästi virheitä. Esihenkilöt muistuttavat jälkikäteen niistä.  Kuva: Matti Myller / YleSekuntien laskeminen syö Ninan motivaatiota.– Jos millään ei ole töissä väliä, oman jaksamisen taso laskee huomattavasti.Avaa kuvien katseluNina kertoo, että kyse on myös siitä, että esihenkilöt eivät ymmärrä, mitä kaikkea hänen oikeasti täytyy hallita työssään. Työssä ei myöskään korjata asioita, vaikka hän huomauttaisi niistä.  Kuva: Matti Myller / YleTyöpaikassa on käynyt ovi. Nina kertoo, että joillain työkavereilla on ollut pitkiä sairauslomia työuupumuksen takia ja jopa itsemurhayrityksiä työstä johtuvan kuormituksen vuoksi.– Meillä on haettu ihmisiä kesken päivän vessasta, kun he itkevät lattialla. Sitten tuli rajoitus, kauanko siellä vessassa saa viettää aikaa.Kehityskeskusteluissa on kirjattuna vuodesta toiseen samat epäkohdat.Avaa kuvien katseluNina on pohtinut alanvaihtoa. Hänelle vastapaino työlle on löytynyt vapaa-ajalla. Hän harrastaa miniatyyrien maalaamista. Kuva: Matti Myller / YleNinan mukaan työntekijöitä on myös uhkailtu työpaikan menettämisellä, jos he ovat ilmaisseet tyytymättömyytensä työhön.Ninalle merkityksettömyyden kokemus on päivittäistä. Ensin hän oli vihainen työpäiviensä jälkeen.Sitten töiden aloittaminen alkoi tuntua vastenmieliseltä.Hän on kokenut työnsä jäljestä myös häpeää, kun esimerkiksi puhelut pitää hoitaa tietyssä ajassa.– Se syö minua, etten voi tehdä työtäni hyvin, vaan välttävästi.Juuson tarina: Lähtisin, jos pomo pyytäisiJuuso opettaa kokkeja ammatillisessa koulutuksessa.Hänen ryhmässään opiskelijoita on aina noin kaksikymmentä. Heistä noin puolet on valmistunut ammattiin. Harva jää hänen mukaansa alalle.Tämä aiheuttaa Juusossa merkityksettömyyden tunnetta.Avaa kuvien katseluJuuson työstä tekee merkityksetöntä se, että se ei tuota tulosta. Hänen opettamillaan opiskelijoilla ei ole Juuson mielestä motivaatiota tarpeeksi.  Kuva: Matti Myller / YleKun hän soitti valmistuneet opiskelijat läpi, he kertoivat työskentelevänsä nyt postissa tai ruokakaupassa.– Eräs opiskelija sanoi, että hänestä on paljon kivempaa hyllyttää kuin olla aina viikonloput ja illat töissä.Juuson mielestä metsään mennään jo silloin, kun opiskelija saa päättää ensimmäisen harjoittelupaikan ja valitsee paikan, joka ei olekaan järkevä tai mielekäs. Tällainen voi olla esimerkiksi ravintola, jossa pitää tehdä iltatyötä.Avaa kuvien katselu– Osa meidän opiskelijoistamme tulee opiskelemaan, kun ajattelee työn olevan helppoa. Ajatellaan, että mennään keittiöön ja saadaan paperit. Moni heistä on maahanmuuttajia ja saavat näin mahdollisuuden Suomen kansalaisuuteen, sanoo Juuso.  Kuva: Matti Myller / YleAikaisemmin Juuso oli opiskelijoiden tavoitettavissa myös työajan ulkopuolella. Juuso soitti ja etsi opiskelijoille työpaikkoja.– Nämä ovat jääneet vähemmälle. En vastaa enää viikonloppuisin.Juuson motivaatio on kärsinyt.– En vaan viitsi. Kun he eivät työllisty, niin miksi tekisin mitään asian eteen. Antaa olla.Avaa kuvien katseluJuuso on vaihtamassa työpaikkaa merkityksettömyyden tunteen vuoksi. – Raavin nykyisen työni takia vain päätäni koko ajan, että ei hitto. Kuva: Matti Myller / YleMerkityksettömyyden tunne on mielessä päivittäin.– Ennen menin töihin ennen seitsemää. Nykyään minua ei saa sinne ennen kahdeksaa. Olen kuitenkin työnantajan puolella. Jos pomo sanoisi, että lähde ja pakkaa kamat, niin lähtisin.</t>
+          <t>Maaliskuun alussa vuonna 2021 aivan Lappeenrannan keskustan tuntumassa, Saimaan Sunisenselällä oli outo näky. Jään päälle raahattiin satoja joulukuusia, joita paikalliset asukkaat olivat edellisen joulun jäljiltä tutkijoille lahjoittaneet.Suomen ympäristökeskuksen kehittämispäällikkö, vesibiologi Kari-Matti Vuori ystävineen porasi paksuun jäähän avannon. Reiästä he tiputtivat joulukuusia Saimaan syvyyksiin.Sama toistui muutamana vuonna peräkkäin, joten nyt pohjassa on kaikkiaan jo noin 1 500 joulukuusta.
+Tutkijoiden tarkoitus olikin selvittää, voisiko tällä tavalla saada Saimaan pohjaan vedenalainen puulajipuisto, josta hyötyvät sekä kalat että vesistö.Avaa kuvien katseluNäin Sunisenselällä upotettiin vuonna 2021 Saimaaseen joulukuusia.  Painoina käytettiin reikätiiliä. Kuva: Sirkka Haverinen / YleNyt tutkijat ovat saapuneet takaisin Sunisenselälle. He nostivat pohjasta kuusia analysoitavaksi. Tulokset ovat ällistyttäviä.– Pohjaeläintuotanto on lisääntynyt huimasti niillä paikoilla, mihin näitä on upotettu, Kari-Matti Vuori kertoo.Pohjaeläinten yksilömäärät ovat Vuoren mukaan monikymmenkertaistuneet ja lajiston monimuotoisuus jopa viisinkertaistunut upotusalueella. Tämä selviää alueelta otetuista pohjaeläinnäytteistä ennen ja jälkeen kuusten upottamisen.– Tässä purkissa on pohjaeläinnäyte ennen kuusten upottamista. Siinä on todella vähän eliöitä. Tässä toisessa on näyte kuusten upottamisen jälkeen, ja siinä on tuhatmäärin yksilöitä ja 30–40 eri lajia.Avaa kuvien katseluSykkeen kehittämispäällikkö Kari-Matti Vuorella on kaksi näytepuolloa joulukuusten upotusalueelta. Oikeanpuolisessa pullossa näkyy selvästi pohjaeläinten runsastuminen. Kuva: Kalle Schönberg / YleMyös kalakanta joulukuusien upotusalueella on Vuoren mukaan vahvistunut, mihin viittaavat myös kalastajien kokemukset alueelta.– Pilkkimiehiltä olemme sitten saaneet kiitoksia, että hyvin on tullut kalaa näiltä paikoilta, joihin kuusia on upotettu.Kalastajien ikivanha menetelmäVedenalaiset uppopuut eli turot eivät ole uusi menetelmä, vaikka niitä ei hetkeen Suomen vesistöissä ole nähtykään.Vesibiologi Kari-Matti Vuoren apulaisina oli joukko Lappeenranta Saimaan Rotaryklubin jäseniä. Yksi heistä Olli Smolander tutustui kalaturoihin jo viisivuotiaana oman isoisänsä opastuksella. Sadan viime vuoden aikana ihmiset ovat kuitenkin Smolanderin mukaan ”systemaattisesti raivanneet kaiken puuaineksen pois vesistöstä”, jolloin entiset kalaturotkin on poistettu.– Ennen vanhaan kalaturoja rakennettiin tuonne vesistöihin katajista ja kuusista. Jokaisella isännällä oli omat turot tuolla Saimaassa, ja ne olivat erittäin salaisia kalastuspaikkoja.Avaa kuvien katseluOlli Smolanderin mukaan hän kävi isoisänsä kanssa pikkupoikana kalaturoilla. Ne olivat järven pohjaan upotettuja kuusen ja katajan rankoja, jotka houkuttelivat kaloja.  Kuva: Kalle Schönberg / YlePoistaa ravinteita vedestäPuun lisäämisestä pohjaan pyritään kehittämään menetelmä vesistöjen laadun parantamiseen.Syken kehittämispäällikkö Kari-Matti Vuoren mukaan tätä havainnollistavat esimerkiksi sudenkorennot, joita on uppopuurakenteissa suuria määriä. Sudenkorentojen toukat elävät vedessä kaksi vuotta, ja sinä aikana ne syövät pieniä selkärangattomia eliöitä, jotka laiduntavat järven päällyskasvustoa.– Niistä kahden vuoden aikana kerätyistä ravinteista ja hiilestä 99 prosenttia siirtyy aikuisen sudenkorennon mukana taivaalle lentelemään ja rikastuttamaan rantaluontoa, Vuori toteaa.Upotettujen kuusten vaikutuksesta järven pohjaeläimiin ei ole vielä tutkimuksia, mutta Vuori arvioi, että menetelmä voisi ainakin osittain auttaa puhdistamaan Suomen järviä.– Näen sillä suurta potentiaalia. Tämä kuhina on niin valtava näissä uppopuurakenteissa, joita nyt on tutkittu.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -820,21 +809,21 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Kittilässä pakkanen kiristyi -51,5 asteeseen 25 vuotta sitten – ilmaston lämpeneminen voi tuoda hirmupakkaset takaisin</t>
+          <t>Mediat: Latvialainen euro­par­la­men­taarikko paljastui Venäjän vakoojaksi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071419</t>
+          <t>https://yle.fi/a/74-20071879</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Vuonna 1999 Pohjois- ja Keski-Lapissa oli 45–50 asteen pakkasia noin viikon ajan. Ilmatieteen laitoksen mittaushistorian alhaisin lämpötila, -51,5 astetta, saavutettiin myös tämän viikon aikana Kittilän Pokassa 28. tammikuuta 1999.Sen jälkeen vastaavia pakkasia ei ole koettu edes Lapissa.Katso videolta, miltä 25 vuoden takaiset hirmupakkaset näyttivät.Lähimmäksi päästiin kolme viikkoa sitten, kun Enontekiöllä mitattiin -44,3 astetta. Ilmatieteen laitoksen tilastojen mukaan pakkasennätykset ovat muuttuneet pikkuhiljaa hivenen lauhemmiksi viime vuosien aikana, ja esimerkiksi –40-asteen alitukset ovat vähentyneet.Tämä ei kuitenkaan tarkoita sitä, ettei uusia pakkasennätyksiä voisi tulla. Hirmupakkasia voi aiheuttaa jatkossakin napa-alueen jääkylmän ilman virtaaminen etelämmäksi, kuten on käynyt viime vuosina muun muassa Pohjois-Amerikassa Texasia myöten.Näin käy, jos napapyörre (polaarivorteksi tai polaaripyörre) ja sitä reunustavat suihkuvirtaukset häiriintyvät.Avaa kuvien katseluVahva napapyörre pitää napa-alueen kylmät ilmamassat aloillaan Kuva: YleHäiriöitä tapahtuu etenkin silloin, jos napa-alueella on poikkeuksellisen lämmintä tai etelämpää virtaa lämmin ilmamassa, joka työntyy napapyörteeseen.Avaa kuvien katseluHeikko napapyörre päästää kylmää ilmaa virtaamaan pois napa-alueilta Kuva: YleTulevaisuus on lämpimämpi – tai kylmempiKaukaisen tulevaisuuden ennustaminen on tunnetusti vaikeaa, varsinkin kun kyse on sääilmiöistä, joita ei pystytä luotettavasti ennustamaan muutoinkaan kovin montaa päivää eteenpäin.Ilmastotutkijat pitävät mahdollisena kahta hyvin erilaista tulevaisuudenkuvaa: yhdessä Suomi lämpenee, toisessa se kylmenee.Lämpeneminen tapahtuu siinä tapauksessa, jos esimerkiksi merivirtoihin ei tule suuria muutoksia, ja varsinkin, jos kasvihuonekaasujen päästöjä ei saada kuriin. Siinäkin tapauksessa ääri-ilmiöt ovat yhä mahdollisia.Kylmeneminen saattaa olla seurauksena silloin, jos Pohjois-Atlantille valuu runsaasti lämmintä ja makeaa vettä. Se saattaa aiheuttaa häiriöitä valtamerten välillä kulkeviin merivirtoihin, jotka kuljettavat muun muassa huomattavan paljon lämpöä Fennoskandiaan.Häiriöitä on ennustettu jo tälle vuosisadalle, ainakin jos kasvihuonekaasujen päästöt jatkavat kasvuaan. Tiedemiehet ovat kuitenkin varsin erimielisiä tällaisen kehityksen todennäköisyydestä, aikataulusta ja vaikutuksista.Pahimmillaan Suomessa saattaisi olla sadan vuoden päästä Alaskan säät, mikä tarkoittaisi kylmiä kesiä ja hyvin kylmiä talvia. Tulevaisuus kuitenkin vasta näyttää, käykö niin.Tämän artikkelin lähteinä on käytetty muun muassa Ilmatieteen laitosta, USA:n valtion tutkimuslaitosta NOAA:ta ja Ison-Britannian meteorologista laitosta Met Officea.Millaisia muistoja sinulle jäi ennätyspakkasista? Keskustelu aiheesta päättyy 29.1. kello 23.</t>
+          <t>Ruotsalaisten, baltialaisten ja venäläisten journalistien yhteistyössä tekemä paljastus perustuu parlamentaarikon vuodettuihin sähköpostiviesteihin yhteyshenkilöilleen Venäjän tiedustelupalvelussa.Latvialainen europarlamentaarikko Tatjana Ždanoka, 73, on toiminut ainakin toistakymmentä vuotta Venäjän tiedustelupalvelun FSB:n vakoojana, kertoi ruotsalaislehti Expressen maanantaina. Lehden tiedot perustuvat venäläisen Insider-uutissivuston sekä latvialaisen Re:Baltica-sivuston ja virolaisen Delfi-sivuston kanssa yhteistyössä tehtyyn tutkivaan journalismiin.Tietojen lähteenä ovat olleet Ždanokan vuodetut sähköpostit, joita hän on lähettänyt kahdelle eri yhteyshenkilölle FSB:ssä. Ždanokan epäillään vakoilleen Venäjälle ainakin vuosina 2004–2017.Europarlamentaarikko tunnetaan Venäjä-myönteisyydestäänŽdanoka on muutenkin ollut jo pitkään tunnettu avoimesta Venäjä-myönteisyydestään. Hän on muun muassa levittänyt tietoja venäläisiin väitetysti kohdistuneista rikoksista Baltiassa ja ajanut Venäjään myönteisesti suhtautuvaa politiikkaa.Ždanoka kieltäytyi vastaamasta Insiderin hänelle esittämiin kysymyksiin.– Nämä kysymykset perustuvat tietoihin, joita teillä väitetysti on, mutta joita teillä ei pitäisi olla, Ždanoka vastasi sähköpostilla.Europarlamentaarikko ei sinänsä kiistänyt, etteivätkö vuodetut sähköpostit olisi aitoja. Hän kuitenkin kiisti tietäneensä, että niiden vastaanottajat olisivat olleet FSB:n palveluksessa.– Ainoat ihmiset, joiden kanssa olen istunut samassa pöydässä ja joista tiedän varmasti, että he ovat FSB:n virkailijoita, ovat Vladimir Putin ja (Venäjän ulkomaantiedustelun johtaja) Sergei Naryshkin.Paljastuminen ”ei yllätys”Ruotsalainen europarlamentaarikko ja entinen kulttuuriministeri Alice Bah Kuhnke, joka kuului 2000-luvun alkupuolella samaan europarlamentin ryhmittymään kuin Ždanoka, piti uutista ”kauheana, mutta ei yllättävänä”.– Entisenä ruotsalaisministerinä tiedän, miten Venäjä ja Putinin agentit toimivat, ja heillä on verkostoja kaikkialla, Kuhnke sanoi.Nimettömänä pysytellyt tiedustelulähde sanoi Insiderille, ettei Ždanokan vakoilun pontimena ole ollut raha.– Ei hän tarvitse rahaa, sitä tulee riittävästi Euroopan parlamentista. Hän käyttää omia rahojaan puolueensa toimiin, lähde sanoi.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -848,21 +837,21 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Suomessa valmistettu maailman suurin risteilyalus lähti neitsyt­ris­tei­lylleen Karibialle</t>
+          <t>”Nyt oikeat vaalit vasta alkavat”, sanovat opiskelijat ja pohtivat liberaalien presi­dent­tieh­dok­kaiden eroja</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071697</t>
+          <t>https://yle.fi/a/74-20071861</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Suomessa valmistettu maailman suurin risteilyalus Icon of the Seas on lähtenyt neitsytristeilylleen.Alus lähti matkaan Yhdysvalloissa Floridan osavaltiossa Miamissa sijaitsevasta kotisatamastaan sunnuntaina alkuyöstä Suomen aikaa. Alus viettää viikon Karibianmerellä ennen kuin se palaa takaisin kotisatamaansa.Telakkayhtiö Meyer Turku kuvaili lauantaina Facebook-sivullaan yhtiön rakentaneen aluksen pala palalta ja odottavan innolla, kun laiva pääsee elementtiinsä Karibialla.Royal Caribbean International -varustamon operoima Icon of the Seas on 365 metriä pitkä ja alukseen mahtuu enimmillään 7 600 matkustajaa ja 2 350 miehistön jäsentä. Kaikkiaan alukseen mahtuu siis lähes 10 000 ihmistä.Avaa kuvien katseluIhmiset seurasivat Miamissa, kun Icon of the Seas lähti neitsytmatkalleen Karibialle sunnuntaina alkuyöstä Suomen aikaa. Kuva: Marco Bello/ AFP/LehtikuvaSisävesiputous ja ennätyksellinen vesipuistoVarustamo suitsuttaa verkkosivuillaan muun muassa alukselta löytyvää vesipuistoa, jonka kerrotaan olevan suurin vesipuisto merillä. Altaita vesipuistossa on kaikkiaan seitsemän ja näihin lukeutuva Royal Bay on varustamon mukaan puolestaan suurin merillä liikkuva uima-allas. Vesipuistossa on myös ensimmäinen risteilyalukselta löytyvä vapaan pudotuksen liukumäki.Lisäksi alukselta löytyy muun muassa merten suurin jääareena.Aluksen sisätiloihin on Independent-lehden mukaan myös rakennettu liki 17 metriä korkea vesiputous, ja alusta verrataan Eiffel-torniin, jonka Icon of the Seas voittaa pituudessa.Pituutensa puolesta Turussa rakennettu alus vei suurimman risteilijän tittelin Royal Caribbeanin hieman pienemmältä Wonder of the Seas -alukselta.Messi mojautti mammuttia samppanjapullollaKaikkiaan kaksi miljardia dollaria maksanut Icon of the Seas kastettiin tiistaina.Pohjois-Amerikan MLS-liigassa pelaavaa Inter Miamia tätä nykyä edustava argentiinalainen jalkapallon supertähti Lionel Messi sai kunnian painaa nappia, joka lähetti samppanjapullon törmäyskurssille laivan keulan kanssa.Kovasta kansainvälisestä suitsutuksesta huolimatta Icon of the Seas on herättänyt myös huolta. Yhtiö on sanonut, että risteilijä olisi valtavasta koostaan huolimatta ympäristöystävällisempi kuin jotkut pienemmät risteilyalukset. Yhtiön mukaan alusta muun muassa pyöritetään ympäristöystävälliseksi kuvaillulla nesteytetyllä maakaasulla (LNG).Friends of the Earth -kansalaisjärjestö on kuitenkin listannut Royal Caribbeanin vuonna 2022 suurista risteily-yhtiöistä saastuttavimpien joukkoon. Aktivistit ovat syyttäneet Royal Caribbeania viherpesusta.</t>
+          <t>Helsingin yliopiston opiskelijat olivat yllättyneitä, kun presidentinvaalien ensimmäisellä kierroksella ei tullutkaan jättiyllätystä. Vaalien toiselle kierrokselle jatkavat kokoomuksen Alexander Stubb ja valitsijayhdistyksen ehdokas, vihreiden kannattama Pekka Haavisto.Politiikkaa ja viestintää opiskelevan, sitoutumattoman Matti Välipakan mukaan julkisuudessa viime viikolla puhuttu perussuomalaisten Jussi Halla-ahon loppukiri oli toiveajattelua.– Olin kovasti valmis yllättymään, mutta yllätystä ei tullut. Lähinnä tuntuu, että nyt oikeat vaalit vasta alkavat, kun Stubbin ja Haaviston välillä oli niin pieni ero äänimäärässä.Yhteiskunnallisen muutoksen koulutusohjelmassa opiskeleva Pele Kalanje komppaa.– Kun on puhuttu viime viikkoina taktikoinnista, päällimmäisenä oli mielessä, mitä voisi sattua.Kalanjen mielestä Halla-ahon äänimäärä on vaalivoitto perussuomalaisille. Kalanje itse toimii vasemmistonuorissa ja puhuu vapaa-ajallaankin politiikasta ystäviensä kanssa.Myös Kuutti Viittanen muistuttaa, että Halla-aho sai äänistä lähes viidenneksen eli 19 prosenttia.– Ei Halla-ahon tulos lässähtänyt, vaan ylitti odotukset, joita oli kannatuskyselyissä, Viittanen muistuttaa.Viittanen opiskelee politiikkaa ja viestintää ja osallistuu SDP:n toimintaan.Opiskelijat toivovat näkevänsä eroja ehdokkaiden välilläOpiskelijat toivovat, että toisen kierroksen kampanjoinnissa ja vaalitenteissä nostetaan esiin presidentin toimivaltaan kuuluvia asioita.– Toivon, että keskustelu pysyy presidentin roolin kannalta keskeisissä asioissa, esimerkiksi suuntautuminen Yhdysvaltoihin ja miten työskennellä Yhdysvaltain tulevan presidentin kanssa, Pele Kalanje sanoo.Matti Välipakka toivoo, etteivät Stubb ja Haavisto ole turhan kilttejä toisilleen.– Toki siinä on riskejä, mutta toivon, että löytyisi eroja, että saataisiin vaaliväittelyä.Kuutti Viittasen mukaan Stubb ja Haavisto ovat olleet tähän saakka niin samanmielisiä, että suurin ero heidän välillään on ollut tähän saakka Halla-aho.– Keskustelu Ukrainasta ja Natosta oli ensimmäisellä kierroksella relevanttia, mutta paljon keskityttiin myös sisäpolitiikkaan, Viittanen kritisoi.”Perittävät” äänet kiinnostavatOpiskelijat seuraavat mielenkiinnolla, kumpi liberaaleista ehdokkaista perii ensimmäisellä kierroksella muille ehdokkaille menneet äänet. Niitä on 47 prosenttia ensimmäisen kierroksen äänistä.– Haavistohan irtautui täysin vasemmistosta, mikä on vaikuttanut hänen suosioonsa vasemmistolaisten parissa. Samaan aikaan Stubb on sen verran liberaali, ettei hänellä ole konservatiivissa piireissä suosiota. Odotan eroja, Pele Kalanje sanoo.Myös Matti Välipakka miettii, kuinka moni Halla-ahon kannattajista äänestää liberaalia Stubbia ja kuinka moni vasemmistoliiton Li Anderssonin kannattaja äänestää lähellä keskustaa olevaa Haavistoa.– Omasta mielestäni on mielenkiintoista, keitä Stubb ja Haavisto eivät saa äänestämään toisella kierroksella. Mielenkiintoista on myös toisen kierroksen äänestysprosentti, Välipakka pohtii.Näin Stubb ja Haavisto ennakoivat eilen sunnuntaina toisen kierroksen keskusteluja:Katso videolta, miten Stubb ja Haavisto ennakoivat toisen kierroksen keskusteluja.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -876,22 +865,21 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Janne Ahosen ja pian Hannu Mannisenkin ennätykset murskaksi – asiantuntija piti palopuheen ja muistutti cheerlea­ding­seurasta</t>
+          <t>Eläinlää­kä­riketju Evidensia tekee miljoonien voitot lääke­myynnillä, vaikka eläinlääkärit eivät saa tienata lääkkeillä</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071691</t>
+          <t>https://yle.fi/a/74-20071338</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Suomen talviurheilulegendoista Janne Ahosen yksi kaikkien aikojen ennätyksistä meni murskaksi viime viikonloppuna, kun Stefan Kraft ohitti Kuningaskotkan kaikkien aikojen eniten mäkihypyn maailmancupin palkintokorokepaikkoja saavuttaneena.Toisen talvilajilegendan Hannu Mannisen palkintokorokepaikkaennätys voi mennä myös pian rikki. Norjan Jarl Magnus Riiber on vain enää yhden palkintokorokepaikan päässä Mannisesta yhdistetyn kaikkien aikojen palkintokorokepaikkamiehenä.Janne Ahonen suhtautui ennätyksensä menettämiseen maltilla.– Olisi erikoisempaa, jos ennätyksiä ei rikottaisi. On turha harmitella. Olisi pitänyt menestyä paremmin, jos haluaisi pitää ennätykset nimissään, Ahonen sanoi Urheilustudiossa.
-Yle Urheilun mäkihyppyasiantuntija Ahonen ei halua selitellä myöskään sillä, että nykypäivänä käydään paljon enemmän maailmancup-kilpailuja kuin hänen aikanaan.Yle Urheilun yhdistetyn asiantuntija ja pitkään Suomen yhdistetyn maajoukkueen päävalmentajana toiminut Petter Kukkonen halusi kuitenkin pitää palopuheen suksilajien tilanteesta.Kukkosen mukaan pitää katsoa syvemmälle kuin maajoukkuevalmentamiseen, jos halutaan muitakin kuin yksittäisiä huippuja silloin tällöin suksilajeihin. Hän kaipaisi elinvoimaa urheiluseuroihin. Kukkosen mielestä kaikki lähtee siitä, että seurojen olosuhteet ovat kunnossa ja lapsia saadaan mukaan toimintaan.– Se olisi ylivoimaisesti tärkein tavoite vaikkapa Suomen hiihtoliitolle. Jos tämä toteutuu, voi valmentaa vaikka vähän väärinkin, Kukkonen aloitti.Hän teki vertauksen jyväskyläläiseen cheerleadingseuraan, jossa on 800 harrastajaa.– Tiedämme, että Suomessa miljoona ihmistä hiihtää suksilla. Saamme kolme tuhatta rekisteröityä hiihtäjää. Pitäisi katsoa, tehdäänkö tällä hetkellä kaikki asiat oikein? Kukkonen painottaa.– Pitäisikö Hiihtoliiton silti miettiä uudelleen konseptia? Olemmeko jääneet 1980- tai 1990-luvulle? Pitäisi saada elinvoimaa seuroihin. Sinne pitäisi laittaa kaikki mahdollinen panos. Siten pystyisimme kasvattamaan lajeja, Kukkonen sanoo.Hänen mielestään nyt suksilajien pitäisi uskaltaa uudistautua. Kilpailu ihmisten vapaa-ajasta on koventunut yhä.– Pitää kuunnella, mitä kentällä tapahtuu. Pitää vastata siihen haasteeseen. Emme olleet mielestäni siinä hereillä. Hälytyskellojen pitää soida, Kukkonen alleviivaa.Urheilustudio-päivä käynnistyy kello 10.15. Ensimmäisenä on luvassa naisten 20 kilometrin yhteislähtökilpailu hiihdon maailmancupissa. Yhdistetyssä päivä alkaa naisten mäkikilpailulla. Kaiken Urheilustudio-viikonlopusta löydät täältä.</t>
+          <t xml:space="preserve">Eläinlääkäriketju Evidensia on kasvanut kymmenessä vuodessa alan suurimmaksi toimijaksi Suomessa. Evidensian tilinpäätöstietojen mukaan sen markkinaosuus yksityisistä pieneläinklinikoista oli yli 30 prosenttia vuonna 2022.EvidensiaEvidensia on alun perin ruotsalaisen säätiön omistama eläinlääkäriketju.Yksi maailman suurimmista pääomasijoittajista, ruotsalainen EQT osti Evidensian vuonna 2014.Evidensia on siitä lähtien ostanut eläinlääkäriklinikoita Suomessa.2022 lopussa Evidensialla oli yhteensä 48 pieneläinklinikkaa ja eläinsairaalaa Suomessa.2016 EQT osti brittiläisen eläinlääkäriketjun IVC:n.2017 yhtiöt yhdistettiin: IVC Evidensia2019 Nestlè osti pienen osuuden yhtiöstä.2021, pääomasijoittaja Silverlake ja Nestlè ostivat yhteensä vajaan kolmanneksen IVC Evidensiasta 3,5 miljardilla eurolla.IVC Evidensian markkina-arvo vuonna 2021 oli 12,3 miljardia euroa.Suomen Evidensian liikevaihto vuonna 2022 oli 88 miljoonaa euroa.Evidensian E-Lääketukun liikevaihto vuonna 2022 oli 11,5 miljoonaa euroa. Liikevoitto 2,1 miljoonaa euroa.AvaaEvidensian klinikoilla asiakkaille myydään suoraan myös eläinlääkkeitä. Lain mukaan eläinlääkäreillä on lääkemyyntiin oikeus, mutta lääkkeillä ei saa tehdä voittoa. Asia on Suomen Eläinlääkäriliiton puheenjohtajan Mikko Turun mukaan yksiselitteinen.Suomen Eläinlääkäriliiton puheenjohtajan mukaan lain ajatuksena on, että eläinlääkäri tekee tuloksen omalla ammattitaidollaan. Laki on vuosikymmeniä vanha.MOT:n selvityksen mukaan Evidensian klinikoilla tapahtuvan lääkemyynnin avulla on kuitenkin onnistuttu tekemään miljoonien eurojen voitot.Evidensia perusti oman lääketukunMarkkinavoimansa ansiosta Evidensia on pystynyt neuvottelemaan lääkeostoista suoraan lääkeyhtiöiden kanssa. MOT:n tietojen mukaan Evidensian neuvottelemat hinnat ovat olleet merkittävästi alle muiden eläinlääkärien maksaman tukkuhinnan.Lääkkeitä ei ole kuitenkaan myyty asiakkaille halvemmalla kuin muilla eläinlääkäriklinikoilla, vaikka eläinlääkärit eivät saa tehdä lääkkeillä voittoa.Voitto lääkkeistä on jäänyt pöytälaatikkoyhtiöön nimeltään E-Lääketukku. E-Lääketukun omistaja on Evidensian emoyhtiö nimeltään Islay New Group Holding SA, jonka kotipaikka on Luxemburg.Kysely eläinlääkeyhtiöilleKysyimme kymmeneltä Suomessa toimivalta eläinlääkeyhtiöltä, ovatko ne tehneet sopimuksen Evidensian E-Lääketukun kanssa lääkkeiden myynnistä.Viisi yhtiötä ei vastannut kyselyyn, kolme ei kommentoinut.FaunaPharma vahvisti, että sillä on sopimus E-Lääketukun kanssa.Ainoa lääkeyhtiö joka vastasi, että ei ole sopimusta Evidensian E-Lääketukun kanssa, oli suomalainen pörssiyhtiö Orion.Evidensian E-Lääketukku on ostanut lääkkeet halvalla ja myynyt ne kalliimmalla Evidensian omille klinikoillle. Lääkemyynnin liikevaihto oli 11,5 miljoonaa euroa vuonna 2022. Liikevoittoa syntyi 2,1 miljoonaa.Evidensia ja E-Lääketukku kuuluvat kansainväliseen IVC Evidensia-konserniin.Suomen Evidensian toimitusjohtaja Ilari Kujala ei antanut MOT:lle haastattelua. Sähköpostitse välittämässään vastauksessa Kujala sanoi, että Evidensian strategia varmistaa, että klinikoilla on käytössään uusimmat ja parhaat eläinlääkkeet.– Lisäämme lääkkeiden hintaan potilashoitojen aikana syntyvän hävikin osuuden, Kujala kirjoitti.Kujalan puolesta vastauksen kysymykseen siitä, tekeekö E-Lääketukku voittoa lääkkeillä, välitti brittiläinen kriisiviestintäyhtiö Brunswick.Avaa kuvien katseluSähköpostitse välitetyn vastauksen mukaan E-Lääketukku mahdollistaa sen, että Evidensian klinikoilla ympäri Suomen on käytössään viimeisimmät ja parhaat eläinlääkkeet. Kuva: Kuvakaappaus IVC Evidensian yritys- ja talousviestintätoimisto Brunswick Groupin sähköpostivastauksesta, kuvankäsittely: Otso Ritonummi / YleBrunswick kirjoittaa vastauksessaan, ettei E-Lääketukku lisää eläinlääkkeisiin lisähintaa. Seuraavassa lauseessa kuitenkin todetaan IVC Evidensian puolesta, että E-Lääketukku tuottaa lisätuloja lääkevalmistajien kanssa tehtyjen sopimusten ansiosta.Voiton tekeminen eläinlääkkeillä on monissa muissa maissa sallittu, kuten Isossa-Britanniassa.Suomessa Ruokaviraston tehtävänä on valvoa, että eläinlääkärit eivät tee voittoa lääkkeillä. Ruokaviraston erityisasiantuntijan Henriette Helin-Soilevaaran mukaan Evidensian järjestely ei ole lainvastainen.– Mutta ainakin se on tapa, jolla lainsäädännön henkeä ei noudateta, Helin-Soilevaara sanoo.Lääketukun toimitila oli asianajotoimiston kaappiEvidensia on saanut järjestelyyn lääketukkutoimiluvan Fimealta vuonna 2019.Fimea on tehnyt tarkastuksen E-Lääketukkuun vuonna 2021. Tarkastuksessa on todettu, että lääketukun toimitila on tamperelaisen asianajotoimiston lukittu kaappi.– Ei ole mitenkään epätavanomaista, että on tällaisia toimijoita, joiden toimitiloissa ei varastoida lääkevalmisteita. Sitä arvioidaan aina sen toimiluvan mukaisesti, minkälaiset tilat ovat asianmukaiset, tarkastuksen suorittanut Fimean yliproviisori Johannes Pietiläinen toteaa.Avaa kuvien katseluFimean tekemän tarkastuksen mukaan E-Lääketukun papereita on säilytetty ulkopuolisen asianajotoimiston kaapissa. Kuva: Kuvakaappaus Fimean tarkastuspöytäkirjasta, kuvankäsittely: Otso Ritonummi / YleE-Lääketukun tilinpäätöksen mukaan henkilökuntaa oli tarkastusvuotena nolla henkilöä. Lääketukussa pitää kuitenkin Fimean toimiluvan mukaan olla vastuullinen johtaja.Fimean tekemän tarkastuksen aikaan E-lääketukkukaupan vastuunalaisena johtajana on toiminut PharmaLex-yhtiön työntekijä. PharmaLex on lääkkeiden myyntilupiin liittyviä palveluja tarjoava yritys.Fimean mukaan E-Lääketukun toiminta on ollut sen saaman toimintaluvan mukaista.Ruokaviraston mukaan sillä ei ole mahdollisuutta puuttua E-Lääketukun toimintaan lainsäädännön puitteissa. Lain mukaan eläinlääkärit eivät saa tehdä voittoa eläinlääkkeillä, mutta E-Lääketukku on yritys, jota sama laki ei koske.– Meidän näkökulmasta näyttää siltä, että eläinlääkäri myy lääkkeet suurin piirtein sillä hinnalla, jolla hän on ostanut ne lääkkeet tai klinikalle on ostettu lääkkeet, sanoo Ruokaviraston Henriette Helin-Soilevaara.Eläinlääkärikäynnin kalliit kustannukset ovat jo pitkään herättäneet keskustelua lemmikinomistajien parissa. MOT selvittää uusimmassa dokkarissaan Ihmisen kallein ystävä, miksi eläinlääkärissä käyminen maksaa omistajille niin paljon. Katso Yle Areenassa.Isot eläinlääkärilaskut raivostuttavat lemmikkien omistajia. Tuhansien eurojen hoidot nostavat myös eläinlääkäreihin kohdistuvia paineita. MOT löytää vielä uuden tavan, jolla markkinajohtaja tekee voittoa omistajilleen. </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -905,21 +893,21 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Maailmankuulu Youtube-tähti julkaisi videon Suomesta – MrBeastin ryhmä kehuu vuolaasti luksussaarta Lapissa</t>
+          <t>Joensuun Mailan hallituksen puheenjohtaja Joni Rytkösestä: ”Liian aikaista puhua, mitä sopimuksen jatkolle tapahtuu”</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071693</t>
+          <t>https://yle.fi/a/74-20071923</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Yksi maailman kuuluisimmista Youtube-tähdistä MrBeast eli James Stephen ”Jimmy” Donaldson on julkaissut videon, jossa vieraillaan Suomessa. Videolla MrBeastin ryhmän jäsenet käyvät luksussaarella Lapissa.Kyseessä on Xwander Nordic -nimisen yrityksen majoituspaikka Inarissa.Donaldson ei itse ole matkalla mukana, mutta Inarin vierailulla on hänen ryhmästään muun muassa Karl Jacobs, jonka omalla kanavallaankin on yli neljä miljoonaa tilaajaa.Videolla ryhmä siirtyy saarelle ilmatyynyaluksilla, majoittuu lasi-igluissa, ihailee revontulia, nauttii viiden tähden lappilaisen aterian ja käy koiravaljakon kyydissä.Videolla kuullaan myös lyhyt pätkä suomen kieltä ruokia esittelevän työntekijän suusta, mille Jacobs repeää nauramaan.– Olemme todella iloisia siitä, miten hyvin projekti onnistui haasteellisissa olosuhteissa ja aikataulussa, kertoo tuotantoa Lapissa avustaneen ja isännöineen yrityksen edustaja Joni Kautto Xwanderin tiedotteessa.Videon yhteydessä mainostetaan myös suomalaisen Kitka Gamesin Stumble Guys -mobiilipeliä, johon MrBeastin kanssa on yhteistyössä tehty oma kenttä.Miljoonien katsojien yleisöAvaa kuvien katseluVaikka MrBeast ei henkilökohtaisesti vieraillut Suomessa, on hänen kanavallaan satojen miljoonien yleisö. Kuva: Greg Grudt/UPI/Shutterstock/All Over PressMrBeastin Youtube-kanavalla on yli 235 miljoonaa tilaajaa, mikä on toiseksi eniten maailmassa. Hänen videoissaan on tunnuksenomaista massiiviset tempaukset.MrBeast muun muassa järjesti 456 henkilölle tosielämän Squid Game -kilpailun, joka pohjautui vuoden 2021 hittisarjaan. Voittaja sai palkinnoksi 456 000 dollaria.Tuore Lapissa kuvattu pätkä on osa videota, jossa MrBeastin ryhmä vierailee erihintaisilla yksityisillä saarilla. Halvin saari on yhden dollarin arvoinen, kun taas kallein on 250 miljoonaa dollaria. Suomalainen saari on videon mukaan arvoltaan 5 miljoonaa dollaria eli noin 4,6 miljoonaa euroa.MrBeastin ryhmän vierailusta Lapissa tiedettiin jo viime vuoden lopulla, kun hänen Instagram-tililtään julkaistiin video porokyydistä.</t>
+          <t>Joensuun Maila ei kommentoi, mitä vaikutuksia seuralle on siitä, että urheilun eettinen kurinpitolautakunta hyllytti pesäpalloilija Joni Rytkösen.Olympiakomitean alainen kurinpitolautakunta päätti maanantaina asettaa Rytkösen viiden kuukauden pelikieltoon. Kurinpitolautakunnan mukaan Rytkönen on häirinnyt kahta alaikäistä pesäpallotyttöä sosiaalisessa mediassa.Asiasta on käynnissä myös Itä-Suomen poliisin esitutkinta, jossa poliisi epäilee Rytköstä lapsen seksuaalisesta hyväksikäytöstä. Tutkinnanjohtaja Tomi Lautanen arvioi esitutkinnan valmistuvan kevättalven aikana.Joensuun Mailan hallituksen puheenjohtaja Joni Nousiainen sanoo seuran perehtyvän kurinpitolautakunnan päätöksiin ennen kuin se tekee tulevaisuutta koskevia ratkaisuja.– Meidän pitää tutustua lautakunnan päätökseen ja sen taustoihin tarkemmin, minkä jälkeen tehdään johtopäätökset ja toimenpiteet, Nousiainen toteaa.Rytkönen ei ole ollut viime vuoden toukokuun jälkeen mukana Joensuun Mailan toiminnassa. Hänellä on sopimus seuran kanssa syksyyn 2025. Toistaiseksi Nousiaisen mukaan on vielä liian aikaista puhua siitä, mitä sopimuksen jatkolle tapahtuu.Seura on ollut Nousiaisen mukaan hyllytyksen aikana hyvin vähäisissä tekemisissä Rytkösen kanssa.– Olemme antaneet rauhan tutkinnalle. Me olemme keskittyneet siihen, mikä on meidän osamme, eli Joensuun Mailan toimintaan, Nousiainen sanoo.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -933,21 +921,21 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Yksi ihminen kuoli omako­ti­ta­lo­palossa Espoossa</t>
+          <t>Pesä­pal­loilija Joni Rytköselle pelikieltoa seksuaalisen häirinnän takia</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071696</t>
+          <t>https://yle.fi/a/74-20071822</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Espoossa yksi ihminen on kuollut omakotitalopalossa, kertoo Länsi-Uudenmaan pelastuslaitos. Päivystävän palomestarin mukaan palava rakennus on tuhoutumassa käytännössä täysin.Palomestarin mukaan sammutustyöt kestänevät koko yön. Alkuyöstä sammutustöissä oli neljä yksikköä, kun enimmillään palopaikalla oli ollut 13 yksikköä.Palo ei ollut alkuyöstä vaarassa levitä ympäristöön, mutta savua kerrottiin leviävän alueelle. Palomestari suositteli laittamaan ilmanvaihtokoneet kiinni, jos on havaittavissa savunhajua.Hätäkeskus sai ilmoituksen rakennuspalosta Veininkadulla lauantai-iltana. Palomestarin mukaan ilmoituksen teki naapuri.Pelastuslaitos ei kommentoinut sunnuntain vastaisena yönä tulipalossa menehtyneen ikää tai sukupuolta, eikä sitä oliko hän mahdollisesti omakotitalon asukas.Pelastuslaitos ja poliisi selvittävät palon syttymissyytä.</t>
+          <t>Olympiakomiten hallinnoima urheilun eettinen kurinpitolautakunta on määrännyt Joni Rytkösen määräaikaiseen pelikieltoon seksuaalisen häirinnän takia.Pelikielto päättyy 30. kesäkuuta eli noin viiden kuukauden kuluttua. Lautakunta otti pelikiellon pituuden osalta huomioon esimerkiksi sen, että Rytkönen on ollut hyllytettynä seuransa toiminnasta yhden kauden ajan.Olympiakomitean eettisen kurinpitolautakunnan puheenjohtaja Pirjo Aaltosen mukaan päätöksessä käytiin kokonaisharkintaa.– Päätös perustui kokonaisuudessaan lautakunnalle esitettyyn näyttöön. Meillä oli paljon kirjallista todistelua ja otimme vastaan myös henkilötodistelua, Aaltonen kommentoi.Kurinpitolautakunta katsoi Rytkösen häirinneen kahta alaikäistä pesäpallotyttöä sosiaalisessa mediassa. Kurinpitolautakunnan mukaan Joni Rytkönen lähetti heille seksuaalissävytteisiä viestejä ja toiselle myös seksuaalisia kuvia ja videoita. Lautakunta katsoi, että Rytkösen teot loukkasivat tyttöjen seksuaalista itsemääräämisoikeutta. Se katsoi, että toinen asianomistaja myötävaikutti tapahtumiin provosoimalla Rytköstä yhden päivän aikana.Teot tapahtuivat marraskuun 2022 ja huhtikuun 2023 välisenä aikana.Kurinpitolautakunta otti muun muassa kantaa siihen, onko tapauksella riittävää liitäntää urheiluun. Lautakunta katsoi, että teot tapahtuivat lajiyhteisön sisällä ja Rytkönen käytti urheilijastatustaan väärin.– Erityisesti lapsia ja nuoria tulee suojella seksuaaliselta häirinnältä urheilun piirissä, lautakunta kirjoitti tiedotteessa.Urheiluun liitännän osalta lautakunta ei ollut täysin samaa mieltä ja kaksi jäsentä olisi hylännyt kurinpitovaatimuksen. He katsoivat, ettei tapaus liity kiinteästi urheiluun, eikä kurinpitomääräyksiä kuuluisi siksi soveltaa tapaukseen.Rytkönen valittaa päätöksestä urheilun oikeusturvalautakuntaan. Rytkönen lähetti asiasta tiedotteen asiamiehensä Olli Rausteen kautta.Rytkönen viittaa tiedotteessaan muun muassa siihen, että lautakunnan mukaan moni asia tarkemmasta tapahtumainkulusta jää epäselväksi. Lautakunta totesi näin toisen henkilön osalta.– Lautakunnan päätös perustuu suurelta osin valheisiin, jotka pystyn todistamaan, Rytkönen kommentoi tiedotteen mukaan.Joensuun Mailan hallituksen puheenjohtaja Joni Nousiainen sanoo, että seura aikoo tutustua kurinpitolautakunnan päätökseen ja tehdä sen perusteella mahdollisia toimenpiteitä.Näin tapaus on edennytPesäpalloilija Joni Rytkösen tapaus nousi esiin toukokuussa, jolloin hänen seuransa Joensuun Maila hyllytti pelaajan esille tulleiden häirintäepäilyjen takia.Rytkösen tapaus on myös Itä-Suomen poliisilaitoksen tutkinnassa. Poliisi epäilee Rytköstä lapsen seksuaalisesta hyväksikäytöstä. Tutkinnanjohtaja Tomi Lautanen arvioi esitutkinnan valmistuvan kevättalven aikana.Lapsen seksuaalisesta hyväksikäytöstä voidaan tuomita vankeuteen vähintään neljäksi kuukaudeksi ja enintään kuudeksi vuodeksi.Rytkösen tapaus oli alun perin Suomen urheilun eettisen tutkimuskeskuksen käsittelyssä. Syyskuussa asia eteni Olympiakomitean eettiselle kurinpitolautakunnalle.Rytkönen teki rikosilmoituksenHäirintätapaukseen liittyy myös toinen poliisitutkinta. Rytkönen teki marraskuussa rikosilmoituksen nuorista naisista ja poliisi tutkii, ovatko he syyllistyneet rikokseen. Rikosnimike on seksuaalisen kuvan luvaton levittäminen ja yksityiselämää loukkaavan tiedon levittäminen.Joni Rytkönen on ollut Superpesiksen valovoimaisimpia pelaajia. Hän on voittanut kolme kertaa sarjan etenijäkuninkuuden ja juhlinut kertaalleen Suomen mestaruutta Sotkamon Jymyssä.Rytkönen oli ennen tapausta myös yksi Superpesiksen viime kauden mainoskasvoista kuuden pelaajan viuhkamainoksessa. Epäiltyjen häirintätapausten tultua ilmi Pesäpalloliitto poisti Rytkösen mainoksesta.Uutista täydennetty 29.1. kello 14.23: Lisätty Tomi Lautasen arvio esitutkinnan valmistumisesta.Uutista täydennetty 29.1. kello 15.41: lisätty Joensuun Mailan puheenjohtajan kommentit sekä tieto, että Rytkönen aikoo valittaa päätöksestä.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -961,22 +949,26 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Arvaa kuka presi­dent­tieh­dokas: yhdeksän väitettä paljastavat, oletko politiikan supertietäjä</t>
+          <t>Kisa saame­lais­kä­räjien puheen­joh­ta­juudesta käydään toden­nä­köisesti kahden naisen välillä</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20070339</t>
+          <t>https://yle.fi/a/74-20071840</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.
-Toteutus vaati toimiakseen JavaScriptin.</t>
+          <t>Saamelaiskäräjien uusi johto selviää tiistain ja keskiviikon aikana, kun Saamelaiskäräjät kokoontuu järjestäytymiskokoukseen.Puheenjohtajan paikalle ovat ilmaisseet haluavansa Anni Koivisto ja Pirita Näkkäläjärvi. Molemmat ovat vaikuttaneet Saamelaiskäräjillä kuluneella vaalikaudella. Koivisto on toiminut viimeiset neljä vuotta Saamelaiskäräjien ensimmäisenä varapuheenjohtajana. Näkkäläjärvi taas on johtanut Saamelaiskäräjien kulttuurilautakuntaa.Nykyinen puheenjohtaja Tuomas Aslak Juuso kertoo myös olevansa valmis kaikkiin toimiin, joihin löytyy luottamusta, niin puheenjohtajistoon ja kuin hallitukseen. Ylen tietojen mukaan vaikuttaa kuitenkin siltä, että puheenjohtajakisa käydään Koiviston ja Näkkäläjärven kesken.Tukea löytyy molemmille naisilleSaamelaiskäräjille valitaan puheenjohtajan lisäksi kaksi varapuheenjohtajaa sekä neljä hallituksen jäsentä.Yle kysyi saamelaiskäräjäjäseniltä, ovatko he kiinnostuneet johtopaikoista ja keitä he tukevat puheenjohtajaksi. Kaikki vastanneet eivät kertoneet, kenen taakse asettuvat puheenjohtajavalinnassa.Pirita Näkkäläjärven takana kertovat olevansa Asko Länsman, Armi Palonoja, Marko Katajamaa, Inka Musta, Tauno Ljetoff, Ulla-Maarit Magga ja Leena Niittyvuopio-Jämsä. Myös Tuomas Aslak Juuso näkee Näkkäläjärven olevan hyvä ehdokas puheenjohtajan virkaan.Anni Koivistoa tukevat ainakin Anne Nuorgam ja Kari Toivo Lukkari.Varapuheenjohtajaehdokkaita vähintään viisiTuomas Aslak Juuson lisäksi varapuheenjohtajien paikoista ovat kiinnostuneet Anu Avaskari, Ulla-Maarit Magga, Tauno Ljetoff ja Leo Aikio, joka on viimeiset neljä vuotta toiminut toisena varapuheenjohtajana.Anu Avaskari oli syksyn vaalien ääniharava ja haluaisi vähintäänkin hallitukseen. Hän on ollut Saamelaiskäräjien hallituksessa vaalikaudella 2008–2011.Hallitukseen haluavat myös Asko Länsman, Inka Musta, Tauno Ljetoff, Ulla-Maarit Magga ja Veikko Feodoroff. Vielä istuvan hallituksen jäsen Anne Nuorgam kertoo, että hänen kiinnostuksensa hallituspaikasta riippuu puheenjohtajavalinnasta. Myös Feodoroff on ollut kuluneen kauden hallituksessa.Vielä istuvan hallituksen jäsen Juha-Petteri Alakorva ei halua kommentoida valintoja tässä vaiheessa. Uusi Saamelaiskäräjien jäsen Janne Hirvasvuopio ei ole pyrkimässä puheenjohtajistoon tai hallitukseen. Hänen mielestään hallituksessa pitäisi kuitenkin olla myös kaupunkisaamelaisten edustaja.Saamelaiskäräjien jäsenistä Aslak Pekkala, Nilla Tapiola, Karen-Anni Hetta ja Pigga Keskitalo eivät vastanneet Ylen kyselyyn määräaikaan mennessä.Koivisto ja Näkkäläjärvi ovat valmiita kantamaan puheenjohtajan vastuunPirita Näkkäläjärvellä ja Anni Koivistolla on molemmilla jo kokemusta Saamelaiskäräjiltä.
+Näkkäläjärvi aloittaa nyt kolmannen vaalikautensa, tosin vuonna 2012 alkaneella kaudella hän luopui jäsenyydestään ja hallituspaikasta tultuaan valituksi Yle Sápmin päälliköksi. Menneellä kaudella 2019–2023 hän on toiminut kulttuurilautakunnan puheenjohtajana.
+Näkkäläjärvi kertoo pohtineensa pitkään, onko hän käytettävissä puheenjohtajaksi. Nyt työtilanne antaa myöten, mikäli Saamelaiskäräjien täysistunto niin päättää.
+– On kerääntynyt elämänkokemusta, työkokemusta ja poliittista kokemusta, ja toivottavasti opintojen myötä myös taitoja, joista olisi hyötyä saamelaisyhteisölle ja meidän yhteistyömme johtamiselle, sanoo Näkkäläjärvi.
+Anni Koivisto on toisen kauden saamelaiskäräjäjäsen. Kuluneella kaudella hän on toiminut Saamelaiskäräjien ensimmäisenä varapuheenjohtajana.Viime syksyn vaaleissa Koivisto keräsi itselleen toiseksi suurimman äänimäärän. Nyt hän olisi valmis ottamaan puheenjohtajan paikan, jos Saamelaiskäräjien täysistunto niin haluaa.
+– Pohdin asiaa vaalien jälkeen, kun sekä Saamelaiskäräjien jäsenet ja myös muut saamelaiset pyysivät minua asettumaan ehdolle. Ajattelen myös, että suuri äänimäärä velvoittaa kantamaan vastuuta, sanoo Koivisto.Saamelaiskäräjät kokoontuu ensimmäistä kertaa tällä vaalikaudella järjestäytymiskokoukseen 30. ja 31. tammikuuta.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -990,21 +982,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Rankkasade tuhosi ravintolan perustuksia myöten – mitä jos sama tapahtuu uudelleen, huolehtii ravin­to­loitsija</t>
+          <t>Venäjällä harmitellaan Putin-kuiskaajan siirtymistä syrjään ja suosikkien Venäjän-vastaista linjaa</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071558</t>
+          <t>https://yle.fi/a/74-20071790</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>– Kyllä sen aamun muistaa, eikä varmaan ihan äkkiä unohdakaan, toteaa kotkalaisen ravintola For Youn ravintoloitsija Yrjö Piirainen.On kulunut noin viisi kuukautta siitä, kun hänen ravintolansa joutui veden valtaan. Rankkasateen aiheuttama tulva kadulla valutti vettä ravintolaan ja tuhosi lähes kaiken. Ehjäksi jäivät vain baaritiski, yläkerran vessat, viinavarasto ja esiintymislava.Vettä satoi rajuimmillaan yli 20 millimetriä tunnissa.Avaa kuvien katselu”Aika hurjaa”, luonnehtii Ravintoloitsija Yrjö Piirainen tuntemuksiaan, kun ensimmäisen kerran näki ravintolan alakerran vesivahingon jälkeen.   Kuva: Maija Tuunila / YleRavintolan alakerrassa, jossa vesi nousi pahimmillaan puolen metrin korkeuteen, joudutaan yhä liikkumaan puhelimen taskulampun varassa. Siellä sijaitsivat muun muassa saunatilat, toimisto ja keittiö.– Kaikki on viety täältä pois kaatopaikalle, Piirainen toteaa.Myös kolme senttimetriä paksu kivilattia piti poistaa sekä ylä- että alakerrasta vesivahinkojen vuoksi.Kaiken kaikkiaan Yrjö Piirainen arvioi, että vahingot nousevat satoihin tuhansiin euroihin ja tonttivaurioiden kanssa jopa miljoonaan euroon.Avaa kuvien katseluRavintolan yläkerta on saatu viiden kuukauden jälkeen kuivaksi, mutta remontin aikataulusta ei vielä ole tietoa. Kuva: Maija Tuunila / Yle”Tapahtuuko tämä uudestaan”Ravintolan yläkerta on kuluneiden kuukausien aikana saatu kuivattua, mutta kellarikerros ei ole vieläkään täysin kuiva. Syy sille selvisi vasta pari viikkoa sitten.– Eräs yritys kävi kameran kanssa kuvaamassa salaojat ja sadevesiviemärit. Kävi ilmi, että käytännössä kaikki niistä ovat sortuneet tulvaveden painosta, Piirainen kertoo.Hänen mukaansa edessä saattaa olla uuden viemäristön rakentaminen, mutta on vielä epäselvää, kuka niin ison rakennusprojektin maksaisi. Vakuutusyhtiön kanssa ei onneksi ole ollut ongelmia.Avaa kuvien katseluKellarin kolme senttimetriä paksu kivilattia poistettiin piikkaamalla. Siitä on jäänyt jälkiä betonilattiaan. Kuva: Maija Tuunila / YlePiirainen ei ole laskenut, miten paljon rahaa hän on menettänyt, kun ravintola on ollut suljettuna elokuusta lähtien. Hän on kuitenkin luottavainen yhtiönsä puolesta.– Olemme vain tyytyväisiä, että yhtiö selviää. Ilman sitä vakuutusta emme olisi tässä enää, vastaa Piirainen.Yrjö Piiraisen mukaan elokuisen vesivahingon jälkeen hän haluaisi selvittää, kuka tulvimisesta on vastuussa.– Kaikkein eniten mietityttää se, että tapahtuuko tämä uudestaan.</t>
+          <t>Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Useat venäläiset uutistoimistot ja sanomalehdet noteerasivat Suomen presidentinvaalien ensimmäisen kierroksen.Kokoomuksen ehdokas Alexander Stubb ja valitsijayhdistyksen ehdokas, vihreiden kannattama Pekka Haavisto jatkavat presidentinvaalien toiselle kierrokselle.Venäläinen sanomalehti Vedomosti, uutistoimistot Interfax ja Tass ja pietarilainen verkkomedia Fontanka uutisoivat Nato-Suomen presidentinvaalien tuloksesta ja muistuttivat Stubbin ja Haaviston Venäjä-linjasta.– Jo vaalikampanjan aikana kärkiehdokkaat puhuivat Venäjän-vastaisen kurssin jatkamisesta ja Ukrainan tukemisesta, Interfax kirjoitti.Myös valtion uutistoimisto Tass uutisoi Suomen presidentinvaaleista.Tass kertoi jo aiemmin, että Suomen presidentinvaalien ennakkosuosikit Stubb ja Haavisto ovat rakentaneet presidentinvaalikampanjansa Venäjän-vastaisen politiikan ympärille.Tass viittaa Haaviston Guardianille antamaan haastatteluun, jossa Haavisto puhui Suomen yhtenäisyyden säilyttämisestä ja ulkoisen uhkan torjumisesta.Tassin mukaan Haavisto viittasi ulkoisella uhkalla Venäjään.Stubbista Tass kirjoitti, että presidenttinä Stubb ei aloittaisi vuoropuhelua Venäjän presidentin tai Venäjän poliittisen johdon kanssa ennen kuin Venäjä vetäytyy Ukrainasta.
+Myös ehdokkaiden rajakommentit huomattiinVenäläinen Interfax painotti, että Stubb, toisin kuin Haavisto, on Suomen Nato-jäsenyyden pitkäaikainen ja aktiivinen kannattaja.– Hän kannattaa Suomen yhteistyötä Yhdysvaltojen kanssa. Hän puhui myös eurooppalaisemman Naton perustamisen puolesta ja siitä, että Suomen olisi otettava enemmän vastuuta puolustuksesta, venäläinen uutistoimisto Interfax kirjoittaa vaaleja käsittelevässä jutussaan.Oppositiolehti Meduzan mukaan ennakkosuosikeista Haavisto oli pitkään Kremlille mieluisampi ehdokas lievemmän ydinaseden sijoittamista koskevan linjansa takia.Stubb on kertonut, että ei ole järkeä sulkea pois sitä, että Suomen läpi tuotaisiin ydinaseita. Haavisto ei näe tarvetta muuttaa lakia, joka kieltää ydinaseiden kauttakulun.Haavistolla on kuitenkin, venäläismedioiden mukaan, rajumpi linja rajasulkua koskevassa asiassa.Avaa kuvien katseluSuomi sulki koko itärajansa ensimmäisen kerran marraskuussa. Imatran rajanylityspaikka. Kuvattu 25.1.2024 Kuva: Mikko Savolainen / Yle– Haavisto uskoo, että kolmansista maista tulevat rajanylittäjät on Venäjän masinoima projekti. Haavisto pitäisi rajat suljettuina niin kauan kuin on tarpeen, Interfax kirjoitti.Myös Sari Essayahin (kd.) rajakommentit huomattiin venäläismediassa.– Essayahin mukaan Venäjä on syyllinen rajasulkuun, Fontanka kirjoittaa.Valtionmedia Tass mainitsi erikseen, että presidentinvaalien ehdokkaista vain vasemmistoliiton Li Andersson ei kannattanut täydellistä rajasulkua.Putin-kuiskaaja ei saa jatkajaaVedomosti-sanomalehden mukaan Suomen presidentillä on valtionpäämiehellä erityinen rooli maan ulko- ja turvallisuuspolitiikassa.Suomen presidentti edustaa maata sotilasliitto Natossa ja toimii puolustusvoimien ylipäällikkönä.75-vuotias Niinistö on toiminut Suomen presidenttinä 12 vuotta. Useat venäläismediat luonnehtivat Niinistön suhteita presidentti Vladimir Putiniin lämpimiksi.– Länsimaisissa tiedotusvälineissä Niinistöstä käytettiin lempinimeä ”Putinin kuiskaaja” vuoteen 2022 saakka.– Yhdeksästä ehdokkaasta yksikään ei halua periä Niinistön lempinimeä, Fontanka uutisoi.Venäläisen oppositiolehden Meduzan mukaan Suomen presidenttinä Niinistö vältti taitavasti ansat suhteissaan Venäjään.– Se ei tarkoittanut, että Suomi olisi sietänyt kaikkea, mitä Kreml teki. Vuonna 2014 Suomi tuomitsi Krimin niemimaan miehittämisen ja liittyi EU:n Venäjän vastaisiin pakotteisiin, Meduza kirjoitti.Meduzan mukaan Niinistön presidenttikauden suurin saavutus oli Putinin ja Yhdysvaltain silloisen presidentin Donald Trumpin tapaamisen isännöinti Helsingissä vuonna 2018.Presidentti Sauli Niinistö äänesti sunnuntaina Lähderannan koululla Espoossa.Haaviston seksuaalinen suuntautuminen ja Halla-ahon Ukraina-projekti huomattiinHaaviston persoona näyttää kiinnostavan Venäjällä, jossa Kreml on viime aikoina kiristänyt sukupuoli- ja seksuaalivähemmistöjä koskevia lakeja.– Vihreiden puolueeseen kuuluva entinen ulkoministeri Pekka Haavisto on avoimesti homo ja Suomen luterilaisen evankeliskirkon jäsen, Fontanka kirjoitti Suomen vaaleja koskevassa artikkelissaan.Alexander Stubbista venäläismediassa kerrotaan, että hän toimi Suomen pääministerinä vuosina 2014–2015.– Vuonna 2017 Stubb ilmoitti jättävänsä politiikan lopullisesti. Hän palasi politiikkaan Ukrainan tapahtumien vuoksi, Fontanka luonnehti.Pietarilaisen Fontanka-lehden isossa Suomen presidentinvaaleja käsittelevässä jutussa noteerattiin myös presidenttikisassa kolmanneksi sijoittunut Jussi Halla-aho (ps.).Meduzan ja Fontankan mukaan Halla-aho puhuu erinomaista venäjää.Fontanka muisti suuressa vaalijutussaan myös mainita Halla-ahon erikoisen Ukraina-projektin.Median mukaan tammikuussa 2023 kansanedustaja Halla-aho maksoi siitä, että ukrainalaiskranaattiin kirjoitettaisiin teksti ”Suomen vapauden puolesta”.Fontanka myös muisti Halla-ahon kommentit, joiden mukaan venäläisten sotilaiden tappaminen on oikein ja tarpeellista.Kukaan ehdokkaista ei odotetusti saanut yli puolia äänistä, joten tuleva presidentti selviää vasta kahden viikon päästä sunnuntaina.Stubb voitti vaalien ensimmäisen kierroksen noin 27 prosentilla äänistä. Haaviston kannatus on puolestaan vajaat 26 prosenttia.Ehdokkaisiin voi tutustua Ylen vaalikoneessa.Vaaleihin liittyvät artikkelit löytyvät täältä.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1018,21 +1011,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Avustus­järjestö ei voi toimia Gazassa ilman yhteyksiä Hamasiin, sanoo professori</t>
+          <t>Suomen presidentillä on erityinen rooli, joka kiinnostaa nyt maailmalla</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071675</t>
+          <t>https://yle.fi/a/74-20071796</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>YK:n palestiinalaispakolaisten avustusjärjestö UNRWA:n rooli on ollut Gazassa keskeinen muun muassa suojan tarjoajana ja avun välittäjänä, kertoo Lähi-idän tutkimuksen professori Hannu Juusola Helsingin yliopistosta.Ulkomaankauppa- ja kehitysministeri Ville Tavio (ps.) kertoi aiemmin tänään, että Suomen rahoitus UNRWA:lle keskeytetään tilapäisesti. Rahoituksen keskeytys liittyy syytöksiin UNRWA:n työntekijöiden osallisuudesta Hamasin terrori-iskuun Israelia vastaan. UNRWA on kertonut erottaneensa useita työntekijöitä, joita Israel on syyttänyt osallistumisesta äärijärjestö Hamasin lokakuussa Israeliin tekemään hyökkäykseen. Järjestö on aloittanut myös tutkinnan asiasta.Juusolan mukaan Suomi näyttää noudattavan Yhdysvaltojen ja Israelin linjaa. Yhdysvaltojen lisäksi ainakin Kanada, Britannia, Australia ja Italia ovat kertoneet rahoituksen keskeyttämisestä.Tietoa ei ole, minkä pituisesta ajasta rahoituksen keskeyttämisessä on kysymys. Juusolan mukaan aika on palestiinalaisten kannalta merkittävin tekijä.Hän kertoo, että Gazassa ei UNRWA:n lisäksi ole juurikaan muuta siviileihin kohdistuvaa avustustoimintaa. Terveydenhuolto sekä koulutus- ja sosiaalipalvelut ovat olleet alueella järjestön varassa.– On täysin selvää, että jos tämä tilanne jatkuu, se vaikeuttaa gazalaisten asemaa ja pahentaa karua tilannetta entisestään, Juusola sanoo.Selvää ei ole myöskään se, mitä pitäisi tapahtua, jotta rahoitusta jälleen jatkettaisiin. UNRWA:n työntekijöiden syytösten selvittäminen on vielä auki eikä niistä ole konkreettista tietoa.– Onko kyseessä poliittinen näpäytys, jolla pyritään painostamaan tutkimuksia vai jatkuuko tilanne pidempään, Juusola pohtii.Hän toivoo, että Suomi palauttaa rahoituksen, jos selvitykset etenevät, sillä tilanne lisää syyttömien kärsimystä alueella.Yhteys Hamasiin on avustustoiminnan kannalta välttämätönUNRWA ei voi toimia alueella ilman yhteyttä Hamasiin. Juusolan mukaan mikään avustusjärjestö ei voi toimia ilman kytköksiä tahoon, joka aluetta hallinnoi tai hallitsee. Hamas on hallinnut Gazaa vuodesta 2007 lähtien.Sama pätee hänen mukaansa UNRWA:n toimintaan kaikilla muillakin alueilla.– UNRWA on keskeinen palveluntuottaja palestiinalaisille, vaikka Israel onkin tyypillisesti julkisuudessa arvostellut ja vaatinut sen lopettamista, Juusola sanoo.Hänen mukaansa Israel on usein pöydän alla sallinut ja kannustanut UNRWA:n toimintaa, sillä se vie Israelilta vastuuta miehittämänsä väestön koulutuksesta ja huolehtimisesta. Kansainvälisen oikeuden puitteissa huolehtiminen kuuluu miehittäjälle, sanoo Juusola.</t>
+          <t>Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Suomen presidentinvaalien ensimmäisen kierroksen tulos on kiinnostanut maailmalla.Esimerkiksi Financial Times, Politico, France 24, Bloomberg, Guardian, Reuters, ABC News, CNBC News ja monet muut kansainväliset mediat uutisoivat ensimmäisen kierroksen tuloksesta sunnuntaina.Kokoomuksen ehdokas Alexander Stubb ja vihreiden ja kannatusyhdistyksen Pekka Haavisto jatkavat vaalien toiselle kierrokselle.
+Suomen presidentinvaalit kiinnostavat nyt maailmalla, koska Suomen presidentillä on valtionpäämiehenä poikkeuksellinen rooli maan ulko- ja turvallisuuspolitiikassa.Suomen presidentti edustaa maata sotilasliitto Natossa ja johtaa puolustusvoimia. Ulkomaisten medioiden mukaan Suomen presidentin valtuudet ovat laajempia kuin monessa muussa maassa.Pohjoismaat: Stubb on suosikkiToisen kierroksen varsinainen vaalipäivä on ensi viikon sunnuntaina 11. helmikuuta, ja vaalien tulos vahvistetaan kolmen päivän kuluttua keskiviikkona 14. helmikuuta, mutta ruotsalaismedioissa ennakoidaan jo nyt Stubbin voittoa.– Jos toimitukset valitsisivat Suomen presidentin, niin Stubb olisi jo julistettu presidentiksi, kertoo kirjeenvaihtaja Pirjo Auvinen ruotsalaismedioiden uutisissa Ylen radiouutisissa.Esimerkiksi Dagens Nyheter esitteli presidenttiehdokkaista Stubbin isossa artikkelissaan.Myös Svenska Dagbladet on kuvaillut Stubbia suursuosikiksi.Ruotsalaismedioiden analyyseissa ennakoidaan, että keskustan ja perussuomalaisten äänet päätyvät Stubbille kakkoskierroksella.Myös Norjan yleisradioyhtiö NRK luonnehti Stubbia selväksi suosikiksi sunnuntai-iltana, kun presidentinvaalien ensimmäisen kierroksen tuloksista kerrottiin.Ensimmäisellä kierroksella Kokoomuksen ehdokas Stubb sai 27,2 prosentin kannatuksen. Vihreiden ja kannatusyhdistyksen Haavisto ylsi puolestaan 25,8 prosenttiin.Viro: Naapurimaiden suhteet eivät muutuViron yleisradioyhtiön EER:n mukaan Venäjän hyökkäyksen vuoksi Suomi luopui perinteisestä puolueettomuuden ja idän ja lännen välisen tasapainon politiikasta.– Vuonna 2023 Suomi liittyi Natoon ja allekirjoitti DCA-sopimuksen, joka helpottaa amerikkalaisjoukkojen toimintaa Suomessa sekä mahdollistaa niiden aseiden ja tarvikkeiden varastoinnin Suomen maaperällä, EER kirjoittaa.Virolainen Postmees kirjoittaa, että Haaviston tai Stubbin valinta presidentiksi ei vaikuta virolaisiin tai Suomen ja Viron suhteisiin, koska myös Viro kuuluu sotilasliitto Natoon.Britannia: Presidentinvaaleja varjosti geopoliittinen draamaBritannian yleisradioyhtiön BBC:n mukaan Suomen presidentinvaalien ensimmäinen kierros sujui rauhallisesti ja suurilta skandaaleilta vältyttiin.BBC:n mukaan perussuomalaisten kannattajien väitteet Jussi Halla-ahon mustamaalaamisesta mediassa vaalien aikana kohautti Suomessa.Brittiläisen Guardianin mukaan Suomen presidentinvaalien ensimmäistä kierrosta varjosti geopoliittinen draama, joka liittyy Suomen Nato-jäsenyyteen.Yhdysvallat: Suomi tunnetaan korkeasta valmiustasostaanAmerikkalaismedioiden mukaan presidentinvaalien ensimmäisen kierroksen tärkeimpiä teemoja olivat ulko- ja turvallisuuspoliittiset kysymykset, Venäjä-politiikka ja turvallisuusyhteistyön lisääminen Yhdysvaltojen kanssa sekä Ukrainalle annettava sotilastuki.Amerikkalaismedioiden mukaan Suomen presidentillä on poikkeukselliset valtuudet vaikuttaa maan ulko- ja turvallisuuspolitiikkaan verrattuna muihin maihin.Suomen presidentti toimii armeijan ylipäällikkönä ja edustaa maata Natossa. Uutistoimisto AP:n mukaan Suomen presidentti voi vaikuttaa Suomen ja suurvaltojen välisiin suhteisiin, kuten suhteisiin Yhdysvaltoihin, Kiinaan ja Venäjään.Talouslehti Financial TImes muistutti, että Suomi on tunnettu maailmalla koko yhteiskuntaa koskevan korkean valmiustason vuoksi.– Venäjä on viime aikoina koetellut Suomen rajaturvallisuutta lähettämällä siirtolaisia ​​rajalle. Myös kaasuputken ja datakaapelin vaurioituminen Itämerellä on lisännyt Suomen valmiutta.FT:n mukaan Suomen varautuminen on ymmärrettävää, sillä onhan Suomella ja Venäjällä yhteistä rajaa liki 1 340 kilometriä.Saksa: Suomen presidentinvaalit ovat Nato-vaalitMyös Saksassa korostettiin Suomen Nato-jäsenyyden merkitystä presidentinvaalien aikana.Deutsche Welle mukaan Suomen presidentinvaalit järjestetään poikkeuksellisena aikana, kun Pohjoismaiden suhteet Venäjään ovat heikentyneet maan hyökättyä Ukrainaan 2022.– Ehdokkaat ovat luvanneet tiukkaa Venäjä-linjaa, DW kirjoittaa.Saksalaismedian mukaan Suomi päätti luopua puolueettomuudesta ja liittyi Natoon vastauksena Venäjän hyökkäykselle Ukrainaan.Venäjä: Suomi saa Venäjä-vastaisen presidentinVenäjällä haikaillaan presidentti Sauli Niinistön kauden päättymistä.Useat venäläismediat ovat luonnehtineet Niinistön suhteita presidentti Vladimir Putiniin lämpimiksi. Niinistöstä jopa käytettiin lempinimeä ”Putinin kuiskaaja” vuoteen 2022 saakka.Venäläismedioiden mukaan vaalien voittajasta riippumatta Suomi saa Venäjä-vastaisen presidentin– Jo vaalikampanjan aikana kärkiehdokkaat puhuivat Venäjä-vastaisen kurssin jatkamisesta ja Ukrainan tukemisesta, Interfax kirjoitti.Venäläinen uutistoimisto Tass kertoi, että Suomen presidentinvaalien ennakkosuosikit Stubb ja Haavisto ovat rakentaneet presidentinvaalikampanjansa Venäjä-vastaisen politiikan ympärille.Lähteet: AP, Reuters</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1046,21 +1040,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ministeri Tavio: Suomi keskeyttää pales­tii­na­lais­pa­ko­laisten avustus­järjestö UNRWA:n rahoittamisen</t>
+          <t>Näin Suomi äänesti – tämä juttu paljastaa yksi­tyis­kohdat</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071666</t>
+          <t>https://yle.fi/a/74-20071019</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Suomen rahoitus YK:n palestiinalaispakolaisten avustusjärjestölle UNRWA:lle keskeytetään tilapäisesti, kertoo ulkomaankauppa- ja kehitysministeri Ville Tavio (ps.) viestipalvelu X:ssä.Tavio kirjoittaa, että syytökset UNRWA:n 12 työntekijän osallisuudesta Hamasin 7.10. terrori-iskuun Israelia vastaan ovat hyvin vakavia.– Odotamme riippumatonta ja perinpohjaista selvitystä. Suomen linja on, että Hamasia hyödyttäviä tukia ei makseta.Suomella on UNRWA:n kanssa nelivuotinen humanitaarisen avun sopimus vuosille 2023–2026, suuruudeltaan viisi miljoonaa euroa vuodessa, kertoo ulkoministeriö tiedotteessaan.– Suomen rahaa ei saa mennä Hamasille eikä muille terroristeille euroakaan. Epäilys tuensaajan työntekijöiden osallisuudesta terrori-iskuun johtaa tuen keskeytykseen. Tapaus täytyy selvittää perusteellisesti, ministeri Tavio linjaa tiedotteessa.UNRWA on kertonut erottaneensa useita työntekijöitä, joita Israel on syyttänyt osallistumisesta äärijärjestö Hamasin lokakuussa Israeliin tekemään hyökkäykseen. Järjestö on aloittanut myös tutkinnan asiasta.UNRWA:n johtajan Philippe Lazzarinin mukaan päätös tehtiin, jotta järjestön kyky toimittaa humanitaarista apua voidaan turvata.UNRWA (The United Nations Relief and Works Agency for Palestine Refugees) on YK:n alainen humanitaarinen järjestö, jonka tehtävä on tuottaa palestiinalaispakolaisten peruspalvelut, kuten koulutus, terveydenhoito ja sosiaalipalvelut. UNRWA työllistää ulkoministeriön mukaan noin 28 000 palestiinalaista.Lisää maita keskeyttää avustuksenAlankomaat, Britannia ja Italia ilmoittivat lauantaina keskeyttävänsä UNRWA:n rahoituksen väliaikaisesti.– Liittolaiset ovat tehneet samanlaisen päätöksen. Olemme sitoutuneet toimittamaan humanitaarista apua palestiinalaisille samalla suojellen Israelin turvallisuutta, kirjoitti ulkoministeri Antonio Tajani viestipalvelu X:ssa.Aiemmin päivällä samanlaisen ilmoituksen antoivat myös Kanada ja Australia.– Kiittelemme UNRWA:n nopeaa toimintaa erottamisissa ja tutkinnan aloittamisessa, Australian ulkoministeri Penny Wong sanoi.Lauantai-iltana myös Saksa ilmoitti keskeyttävänsä rahoituksensa UNRWA:lle.Maat ovat tehneet päätöksiä UNRWA:n rahoittamisen väliaikaisesta keskeyttämisestä sen jälkeen, kun Yhdysvallat perjantaina ilmoitti keskeyttävänsä rahoituksen.Israel sanoo, että sen tavoitteena on lopettaa UNRWA:n toiminta Gazassa kokonaan sodan päätyttyä.AFP, ReutersJuttua täydennetty kello 13:56 ulkoministeriön tiedotteella.Päivitetty kello 22.54: Lisätty Saksan ilmoitus rahoituksen keskeyttämisestä UNRWA:lle.</t>
+          <t>Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Presidentinvaalien ensimmäisen kierroksen voittajaksi nousi odotetusti kokoomuksen ehdokas Alexander Stubb. Hän sai 27,2 prosenttia äänistä.Toiselle kierrokselle ylsi selvästi myös valitsijayhdistyksen ehdokas, vihreiden kannattama Pekka Haavisto 25,8 prosentin ääniosuudella.Hän päihitti kolmanneksi jääneen perussuomalaisten Jussi Halla-ahon 6,8 prosenttiyksiköllä.
+Rehn oli suosituin kaikkiaan 108 kunnassaAlexander Stubb oli suosituin ehdokas kaikkiaan 84 kunnassa, Pekka Haavisto 39 kunnassa ja Jussi Halla-aho 78 kunnassa.Kisassa neljänneksi jäänyt Olli Rehn oli voittaja tällä mittarilla: hän on suosituin kaikkiaan 108 kunnassa.Tämä kartta kertoo, kuka voitti missäkin kunnassa. Klikkaamalla ehdokkaan kuvaa näet, missä tämä pärjäsi parhaiten.
+Grafiikka: Petter West / Yle ja Maija Hurme / YleKaupungeissa ääniä keräsi etenkin HaavistoKolmanneksi tullut Jussi Halla-aho oli suosituin Lapin ja Satakunnan vaalipiireissä ja neljänneksi jäänyt Olli Rehn Oulun vaalipiirissä. Muissa vaalipiireissä ykköseksi tuli jompikumpi toiselle kierrokselle päässeistä ehdokkaista.Stubbia kannatettiin etenkin ruotsinkielisellä rannikolla. Korsnäsissä hän sai jopa 60,2 prosenttia äänistä.Haavisto puolestaan sai korkeimmat kannatuslukunsa Ahvenanmaalta. Hän oli myös ykkönen suurissa kaupungeissa: Helsingissä, Turussa, Tampereella ja Oulussa.Vähäisintä Stubbin kannatus oli Merijärvellä Pohjois-Pohjanmaalla (8,6 %) ja Haaviston puolestaan Halsualla Keski-Pohjanmaalla (6,6 %).
+Entä millaisissa kunnissa eri ehdokkaita äänestettiin eniten? Haavisto sai ääniä etenkin kaupungeissa, kun taas pienemmissä taajamissa suosituin oli Stubb.Maaseudulla Rehn oli suosituin.
+Vaali innosti suomalaiset uurnilleÄänestysaktiivisuuden lasku presidentinvaaleissa taittui. Kaikkiaan 74,9 prosenttia äänioikeutetuista antoi äänensä ensimmäisellä kierroksella. Tätä useampi (77,2 %) äänesti presidentinvaalissa viimeksi vuonna 2006 toisella kierroksella, jolloin vastakkain olivat Tarja Halonen ja Sauli Niinistö.Muihin vaaleihin verrattuna presidentinvaalit yleensä innostavat äänestäjiä hyvin uurnille. Viime kevään eduskuntavaaleissa äänesti 72 prosenttia suomalaisista, kun taas edellisissä kuntavaaleissa äänestysprosentti oli 55,1.Ennakkoäänestämisen suosio on kasvanut 2000-luvulla, ja nyt se nousi presidentinvaalien ennätyslukemaan, 44,6 prosenttiin.Ahkerimmin näissä vaaleissa äänestettiin Luodossa, Kauniaisissa ja Pedersören kunnassa. Vähäisintä äänestysinto oli Ahvenanmaalla: Hammarlandissa, Finströmissä ja Saltvikissä.
+Tuleeko ensimmäisen kierroksen ykkösestä taas presidentti?Koska voittaja Alexander Stubb ei saanut yli 50:tä prosenttia äänistä, järjestetään presidentinvaalissa toinen kierros.Hänellä on kuitenkin hyvät mahdollisuudet tulla valituksi presidentiksi, sillä nykyisen vaalitavan aikana kaikissa edellisissä presidentinvaaleissa ensimmäisen kierroksen ykkönen on lopulta voittanut vaalit.Vuonna 2018 presidentinvaalissa järjestettiin vain yksi kierros, sillä istuva presidentti Sauli Niinistö sai ensimmäisellä kierroksella 62,6 prosenttia äänistä.Alkavalla toisella kierroksella 47 prosenttia äänestäneistä joutuu etsimään itselleen uuden ehdokkaan. Niin sanottuja kodittomia ääniä on enemmän kuin koskaan sitten vuoden 1994 presidentinvaalien ensimmäisen kierroksen. Tällöin 52,1 prosenttia äänesti jotakuta muuta kuin kahta suosituinta ehdokasta.
+Toisen kierroksen vaali käydään 11. helmikuuta. Silloin ratkeaa, kummasta, Alexander Stubbista vai Pekka Haavistosta tulee Suomen 13. presidentti.Oikaisu 29.1. klo 8.20. Jutun viimeisessä grafiikassa oli virheellisesti tähti, jonka mukaan Stubb olisi valittu presidentiksi ensimmäisellä kierroksella. Tähti on poistettu grafiikasta.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1074,21 +1074,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Presi­dent­tieh­dok­kaiden viimeinen rutistus päättyi vaali­mak­ka­roihin, soppatykkiin ja uteliaisiin kansalaisiin</t>
+          <t>Mieletön nousu NFL:n konfe­rens­si­fi­naaleissa – Kansas Cityn tähtipelaaja teki historiaa, kun joukkue eteni Super Bowliin</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071643</t>
+          <t>https://yle.fi/a/74-20071799</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Helsingin Narinkkatorilla oli lauantaina aistittavissa jopa jonkinlaista vaalihuumaa, kun useat presidenttiehdokkaat piipahtivat siellä tapaamassa äänestäjiä. Ehdokkaiden puheille riitti pyrkijöitä viimeisenä kampanjapäivänä ennen sunnuntain ensimmäistä vaalikierrosta.Narinkkatorilla kansalaisia tapasi muun muassa kokoomuksen presidenttiehdokas Alexander Stubb. Hänen mielestään myös viime hetken tapaamisilla on merkitystä äänestäjille. Omaa oloaan ehdokas kuvaili seesteiseksi vaikka takana on viiden kuukauden tiivis kampanjointi.Kokoomuksen presidenttiehdokas Alexander Stubb kertoo viimeisen kampanjointipäivän tunnelmistaan.Samassa paikassa päivysti myös perussuomalaisten presidenttiehdokas Jussi Halla-Aho. Hänen puheilleen oli ajoittain jopa tunkua, kun ihmiset halusivat kertoa ajatuksistaan tai ottaa ehdokkaan kanssa selfieitä.Perussuomalaisten ehdokas Jussi Halla-aho kertoo, mikä häntä erityisesti ilahdutti vaalitapahtumissa.Valitsijayhdistyksen (vihr.) presidenttiehdokas Pekka Haavisto parkkeerasi kampanjabussinsa muun muassa Vihdin Nummelaan. Hän kuvaili kuukausia kestänyttä vaalikentillä kiertelyä hyväksi kokemukseksi ja kehui varsinkin ihmisten hyviä kysymyksiä, joilla ehdokkaita on haastettu.Valitsijayhdistyksen (vihr.) ehdokas Pekka Haavisto muistelee erityisen mieleenpainuvaa kohtaamista kampanjamatkallaan Lapissa.Valitsijayhdistyksen ja keskustan ehdokas Olli Rehn vakuutti jaksavansa kampanjoida tarvittaessa vielä seuraavat kaksi viikkoa. Helsingin keskustan vaalitoimistollaan piipahtanut Rehn kertoi kiertäneensä ihmisiä tapaamassa ympäri Suomea.Valitsijayhdistyksen ja keskustan ehdokas Olli Rehn kertoo missä kaikkialla hän on kampanjoidessaan käynyt.Vasemmistoliiton presidenttiehdokas Li Andersson oli valinnut viimeisen kampanjapäivän yhdeksi pysähtymispaikakseen Vantaan Tikkurilan. Soppatykki houkutteli syöjiä tasaiseen tahtiin ja uskaltautuivatpa rohkeimmat myös puheille ehdokkaan kanssa.Vasemmistoliiton presidenttiehdokas Li Andersson kertoo, mitä hän aikoo tehdä viimeisen kampanjapäivän iltana.Kampanjoinnin sydämeksi muodostuneella Helsingin Narinkkatorilla moni lauantain ostoskierroksella oleva pysähtyi syömään vaalimakkaraa ja jutustelemaan SDP:n presidenttiehdokas Jutta Urpilaisen kanssa. Urpilainen pitää äänestäjien kanssa käytyjä keskusteluja tärkeinä.SDP:n presidenttiehdokas Jutta Urpilainen kertoo, mikä hänen mielestään on näissä vaaleissa ollut erilaista kuin muissa vaaleissa.Narinkkatorilla kampanjoi myös kristillisdemokraattien presidenttiehdokas Sari Essayah. Hän kertoo ihmisten tulleen luokseen juttelemaan paitsi päivän politiikasta myös turvallisuusasioista.Kristillisdemokraattien ehdokas Sari Essayah tapasi paljon ihmisiä, jotka eivät vielä olleet äänestäneet.Torille oli parkkeerattu myös Liike Nytin ehdokkaan Harry Harkimon vaalirekka. Harkimo kertoi, että rekalla on käynyt mukavasti äänestäjiä juttusilla. Ehdokas itse on jo valmis lopettelemaan pitkään jatkunutta kampanjointia.Liike Nytin ehdokas Harry Harkimo paljasti, mitä aikoo tehdä illalla.Ensimmäistä kertaa vaalikampanjaa tehnyt valitsijayhdistyksen Mika Aaltola piti kokemusta kansalaisten tapaamisista innostavana. Myös Aaltola vastaili viimeisenä kampanjapäivänä ihmisten kysymyksiin Narinkkatorilla.</t>
+          <t>Amerikkalaisen jalkapallon NFL-kausi huipentuu kahden viikon kuluttua Kansas City Chiefsin ja San Francisco 49ersin väliseen Super Bowliin.Sarjan hallitseva mestari Kansas City kukisti AFC-konferenssin finaalissa ennakkosuosikki Baltimore Ravensin 17–10. NFC-konferenssin loppuottelussa 49ers voitti Detroit Lionsin trillerimäisessä pisteiloittelussa 34–31.Chiefs ja 49ers kohtasivat Super Bowlissa myös neljä vuotta sitten, jolloin Chiefs oli parempi pistein 30–21.Viime vuosien menestysseura Chiefs ei runkosarjassa vakuuttanut, mutta joukkue on parhaimmillaan kauden ratkaisuhetkillä. Joukkueen puolustus nollasi pelinrakentajatähti Lamar Jacksonin johtaman Baltimoren hyökkäyksen lähes täysin.– Puolustuksemme oli uskomaton. Saimme johdon ja vahvalla luonteella pystyimme pitämään sen, Chiefsin päävalmentaja Andy Reid kertasi lehdistötilaisuudessa.Avaa kuvien katseluAndy Reid on valmentanut Kansas Cityä vuodesta 2013 saakka. Kuva: Getty Images65-vuotias menestysvalmentaja kiitteli joukkueensa yhteishenkeä ja henkistä lujuutta. Erityiskiitosta hän jakoi muun muassa joukkueensa hyökkäyksen ja puolustuksen linjalle.– Linjamme tulivat tänään voittamaan ja pelasivat täydellä sydämellään, Reid tunnelmoi.Tutkapari loisti jälleenChiefsin, ja ehkä koko sarjan, suurin tähti, pelinrakentaja Patrick Mahomes oli jälleen isojen panosten ottelussa loistava. Hän muun muassa onnistui 11 ensimmäisessä syöttöyrityksessään. Chiefs teki touchdownit kahdella ensimmäisellä hyökkäysvuorollaan.– Se on jotain erityistä, Reid kiteytti.Mahomes heitti lopulta 241 jaardia, yhden touchdownin eikä yhtäkään syötönkatkoa. Läpi kauden loistanutta Baltimoren puolustusta vastaan 39 syöttöyrityksestä onnistui peräti 30.Vuosien ajan Mahomesin tutkaparina häärinyt tähtipelaaja Travis Kelce loisti pelinrakentajan rinnalla. Sisempi laitahyökkääjä vastaanotti Mahomesin heittämän touchdownin ja keräsi yhteensä 116 kiinniottojaardia. Mahomesin jokainen Kelcelle suunnattu heitto onnistui ottelussa.11 kiinniotollaan 34-vuotias Kelce nousi lajilegenda Jerry Ricen ohi kaikkien aikojen eniten kiinniottoja pudotuspeleissä napanneeksi pelaajaksi 152 kiinniotollaan.Avaa kuvien katseluTravis Kelce teki Kansas Cityn ensimmäisen touchdownin Baltimorea vastaan. Kuva: Getty ImagesJos Mahomes loisti varmuudellaan ja lyhyillä heitoillaan, Lamar Jacksonin ilta oli kauttaaltaan vaikea. Supertähti onnistui 37 syöttöyrityksestään 20:ssä.Ravensin hyökkäys vaikutti läpi ottelun epävarmalta, sillä kiirehtimistä, epäselviä tilanteita ja heikkoa huolenpitoa pelivälineestä oli liikaa ottelun panoksiin nähden. Etenkin, kun Chiefsin puolustus oli alusta asti vahva.Päätösneljänneksellä nähtiin Ravensin kohtalon hetket, kun laitahyökkääjä Zay Flowers oli heittäytymässä kaventavaan touchdowniin, mutta Chiefsin kulmapuolustaja L'Jarius Sneed syöksyi tökkäämään pallon Flowersin käsistä ja Chiefs sai pallonriiston.Noin neljänneksen puolivälissä Jackson heitti kohti maalialuetta, mutta puolustaja Deon Bush nappasi syötönkatkon ja Chiefs sai jälleen hyökkäysvuoron 17–7-johdossa. Jackson oli tilanteen jälkeen raivoissaan ja heitti kypäränsä voimalla maahan.Justin Tuckerin potkumaali ottelun lopussa oli laiha lohtu Ravensille. Chiefs eteni neljännen kerran viiden viime vuoden aikana Super Bowliin. 27-vuotias Ravens-tähti Jackson ei vieläkään saa lunastettua varauspäivänä vannomaansa lupausta mestaruuden tuomisesta Baltimoreen.Avaa kuvien katseluMorgan Moses (vas.) lohdutti Zay Flowersia hänen epäonnistuneen kiinniottonsa jälkeen päätösneljänneksellä. Kuva: Getty ImagesDetroit suli massiivisesta johtoasemastaNFC-konferenssin runkosarjavoittaja San Francisco 49ers nousi 17 pisteen tappioasemasta Super Bowliin. Detroit Lions dominoi konferenssifinaalin avauspuolikasta ja joukkue johti puoliajalla 24–7.Detroit onnistui juoksupelillään musertamaan 49ersin puolustuksen miltei täysin. Jameson Williamsin juoksema 42-jaardinen avaustouchdown sekä Jahmyr Gibbsin reilusta 20 jaardista pujottelema kolmas touchdown olivat malliesimerkkejä tästä.Kolmas jakso käänsi pelin, sillä 49ers voitti neljänneksen peräti 17–0. Puoliaikatauon jälkeen kotijoukkue teki peräti 27 pistettä peräkkäin ja otti pelin hallinnan itselleen.Kiistelty pelinrakentaja Brock Purdy petrasi avauspuolikkaan ja heittämänsä syötönkatkon jälkeen. Hän heitti lopulta touchdownin, 267 jaardia sekä eteni pallon kanssa lähes 50 jaardia.– Tehtäväni on jakaa palloa vapaille pelaajille. Joskus sellaisia ei ole ja on vain löydettävä keinot. Yritin vain pitää hyökkäyksen käynnissä ja liikuttaa palloa eteenpäin, Purdy kertasi lehdistölle.Avaa kuvien katseluBrock Purdy on pelannut NFL:ssä kaksi kautta ja nyt joukkue eteni Super Bowliin. Kuva: Getty Images49ersista tuli ensimmäinen joukkue NFL:n historiassa, joka on noussut konferenssifinaalissa 17 pisteen puoliaikatappiosta voittoon.– Tämä saattoi olla ainoa mahdollisuutemme (mestaruuteen), Detroitin päävalmentaja Dan Campbell sanoi tunteikkaana lehdistötilaisuudessa.Detroit on pelannut NFL:ssä 66 vuotta ilman mestaruutta. Lions oli ennen kuluvia pudotuspelejä voittanut pudotuspeliottelun viimeksi vuonna 1991.Joukkueen hyökkäys tyrehtyi toisella puolikkaalla lähes kokonaan. Epäonnistuneita kiinniottoja ja pelinrakentaja Jared Goffin heittoja tuli liikaa. Goffin mukaan yllättäjäjoukkueen johdon menettäminen ei mennyt konferenssifinaalin paineiden piikkiin.– Ei ottelu ollut liian iso. Emme onnistuneet toteuttamaan hyökkäystä toisella puoliskolla haluamallamme tavalla ja hävisimme ottelun. San Francisco pelasi hyvin toisella puoliskolla, Goff arvioi lehdistötilaisuudessa.Avaa kuvien katseluJared Goff (vas.) heitti 273 jaardia, mutta 49ers puolustus sai pelinrakentajan ongelmiin etenkin toisella puolikkaalla. Kuva: Getty ImagesNFL-kausi huipentuu Super Bowlissa sunnuntaina 11. helmikuuta. Suomen aikaa ottelu pelataan 12. helmikuuta aamuyöllä. Pelinrakentajien kaksintaistelu on jälleen huomion keskipisteenä, kun joukkueet kohtaavat neljän vuoden jälkeen uudestaan loppuottelussa.Chiefsin supertähti Mahomes pelaa 10 vuoden ja 450 miljoonan dollarin sopimuksella, kun Purdylla on voimassa 3,7 miljoonan dollarin tulokassopimus.Näin NFL:n pudotuspelit ovat edenneetAFC-konferenssi:Wild Card -kierros:Kansas City Chiefs – Miami Dolphins 26–7
+Buffalo Bills – Pittsburgh Steelers 31–17
+Houston Texans – Cleveland Browns 45–14Konferenssivälierät:Buffalo Bills – Kansas City Chiefs 24–27
+Baltimore Ravens – Houston Texans 34–10Konferenssifinaali:Baltimore Ravens – Kansas City Chiefs 10–17NFC-konferenssi:Wild Card -kierros:Tampa Bay Buccaneers – Philadelphia Eagles 32–9
+Detroit Lions – Los Angeles Rams 24–23
+Dallas Cowboys – Green Bay Packers 32–48Konferenssivälierät:Detroit Lions – Tampa Bay Buccaneers 31–23
+San Francisco 49ers – Green Bay Packers 24–21Konferenssifinaali:San Francisco 49ers – Detroit Lions 34–31Super Bowl LVIII:Kansas City ja San Francisco kohtaavat Super Bowlissa, joka pelataan Vegasin Allegiant Stadiumilla Suomen aikaa maanantain vastaisena yönä 12. helmikuuta.Avaa</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1102,21 +1108,43 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Tunteet kuumenivat viimeisessä presi­den­tin­vaa­li­tentissä – Harkimo: ”Pyydän Liltä anteeksi”</t>
+          <t>Susanna Tapani palaa Naisleijoniin, päävalmentaja avaa tähtipelaajan ratkaisua</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071678</t>
+          <t>https://yle.fi/a/74-20071898</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Tunteet kuohuivat Opetusalan ammattijärjestö OAJ:n järjestämässä keskustelupaneelissa Educa-messuilla, kun presidenttiehdokkaat kohtasivat viimeisessä yhteisessä tentissään. Paneelissa keskusteltiin muun muassa sivistyksen merkityksestä Suomelle. Paikalla olivat kaikki yhdeksän presidenttiehdokasta.Presidenttiehdokkaat Li Andersson ja Harry Harkimo kävivät tilaisuudessa kiivaan keskustelun lukutaidosta.Andersson piti lukemista puolustavan puheenvuoron, jossa hän muun muassa korosti lukutaidottomuuden uhkaa demokratialle. Anderssonin mukaan lapsia tulee tukea lukemisessa läpi koulutien.Harkimo nosti esiin erimielisyytensä Anderssonin kanssa ja korosti, että on paljon lukihäiriöisiä, joille kuunteleminen on ainoa mahdollisuus tiedon saamiseen.– Olen huomannut, että Li ei arvosta niitä, joilla on lukihäiriö, Harkimo täräytti.Harkimo lisäsi, että ei ikinä unohda sitä, kun Andersson nauroi hänelle eduskunnassa.Andersson tarttui nopeasti Harkimon väitteeseen toteamalla, että ei ole hänelle eduskunnassa nauranut.– Tuo on erittäin loukkaavaa puhetta Hjallis. Et sinäkään voi sanoa muille ihmisille mitä vaan, Andersson vastasi.Lisäksi hän korosti, että opetuksessa on kyse siitä, että jokaiselle löydetään sopiva tapa oppia.Keskustelupaneelin juontaja Anna-Stina Nykänen veti väittelyä yhteen.– Näemme, miten vaikeaa on olla loukkaamatta toisia ihmisiä. Jopa presidenteillä ja maailman huippujohtajilla on herkät kohtansa, Nykänen sanoi.Hetkeä myöhemmin Harkimo pyysi Anderssonilta anteeksi.– Pyydän Liltä anteeksi. Sanoin liian jyrkästi tämän asian, arvostan sinua todella paljon. Olet ihana tyyppi, vaikka et ajattele politiikasta yhtään samalla tavalla kuin minä. Mä tykkään susta, Harkimo totesi.– Samat sanat, arvostan sitä, Andersson vastasi.</t>
+          <t>Tähtihyökkääjä Susanna Tapani palaa pitkästä aikaa naisten jääkiekkomaajoukkueen kokoonpanoon.Tapani oli mukana maanantaina nimetyssä joukkueessa, joka matkaa Tshekin Liberecissä 7.–11. helmikuuta pelattavaan naisten EHT-finaaliturnaukseen.– Erinomaista, että hän tulee mukaan. Meillä on ollut koko ajan avoin vuorovaikutus. Hänellä oli, omat valintansa menneen puolentoista vuoden aikana. Sopimus oli, että kun pelit jatkuvat ja hän on motivoitunut maajoukkueeseen (on paluu ajankohtainen). Nämä toteutuvat nyt, päävalmentaja Juuso Toivola kommentoi.Tapani oli Suomen mukana edellisen kerran elo-syyskuussa pelatuissa MM-kisoissa 2022. Tapani nousi otsikoihin lähdettyään kesken kisojen ystäviensä häihin. Se ei jäänyt turnauksen ainoaksi kohuksi, sillä Suomen turnaus päättyi shokkitappioon joukkueen hävittyä Japanille sijoitusottelussa, mikä pudotti Suomen B-tasolohkoon.Avaa kuvien katseluNaisleijonien MM-turnaus 2022 sujui mollivoittoisesti.  Kuva: Tomi HänninenTapani piti taukoa jääkiekosta koko viime kauden keskityessään toiseen lajiinsa ringetteen. Siitä huolimatta Tapani valittiin ensimmäisenä suomalaisena Pohjois-Amerikan uuteen jääkiekkoliiga PWHL:ään.Suomalaishyökkääjä on aloittanut kautensa hyvin. Minnesota johtaa sarjaa tasapisteissä Montrealin kanssa. Kahdeksan ottelun jälkeen Tapani on pistepörssissä kuudentenatoista tehoin 2+3=5.– Todella vauhdikkaita, hyviä pelejä. Olen seurannut todella mielenkiinnolla uutta sarjaa. Aika näyttää, varmaan pelaajaliikenne tulee Suomesta olemaan sinnepäin isompaakin, Toivola näkee.Myös PWHL:ssä vietetään helmikuun toisena viikonloppuna maajoukkuetaukoa. USA ja Kanada pelaavat tällöin toisiaan vastaan.Tapani on toistaiseksi ainoa suomalaispelaaja, joka PWHL:ssä pelaa. Myös konkaripuolustaja Minttu Tuominen varattiin sarjaan, mutta Tuominen valitsi kiinalaisen Shenzhen Kunlun Red Starin. Joukkue juhli vastikään sarjan mestaruutta.”Iso osa MM-joukkueessa”Muista konkareista varakapteeni Petra Nieminen ja kapteeni Jenni Hiirikoski palaavat maajoukkueen kokoonpanoon oltuaan sivussa joulukuun EHT-peleistä. Michelle Karvinen palasi puolestaan joukkueen vahvuuteen jo edellisessä, joulukuussa pelatussa EHT-turnauksessa.Toivolan mukaan joukkueesta moni nähtänee myös huhtikuussa Yhdysvalloissa pelattavassa MM-turnauksessa.– En lähde nyt spekuloimaan (kuinka lähellä MM-joukkuetta nimetty ryhmä on), mutta kyllähän tästä varmasti iso osa on joukkueessa, Toivola myöntää.Avaa kuvien katseluJenni Hiirikoski oli sivussa joulukuun EHT-peleistä.  Kuva: Andrea Cardin/IIHF/All Over PressSairastuvalta joukkue on saanut vahvuuteensa myös HIFK:n Julia Liikalan, joka on Naisten Liigan pistepörssin kolmantena tehoin 21+32=53.– Totta kai hänen kokemuksensa vahvistaa meidän tekemistänne. Toivon mukaan palautuminen on mennyt hyvin ja ainakin näillä tietoa hän on todella hyvässä iskussa, Toivola näkee.Naisleijonien joulukuinen EHT-turnaus poiki tappiot Ruotsille ja Sveitsille. Saksan ja Tshekin Suomi onnistui kukistamaan, mutta toisaalta marraskuussa Tshekki kaatoi Suomen 4–2.– Edelliseen turnaukseen meidän on parannettava peliä niin, että riistämme yhä tehokkaammin kun tulemme omalle alueelle, että pystymme viisikkona rakentamaan paremmin hyökkäyspeliämme, joka on ollut vahvuutemme. Pidämme sen vahvuutenamme, mutta lisäämme tehokkuutta maalinteossa, Toivola aloittaa.Avaa kuvien katseluMichelle Karvinen palasi maajoukkueen vahvuuteen joulukuussa.  Kuva: Tomi HänninenUSA ja Kanada ovat naisten jääkiekon mahtimaat, mutta syksyn EHT-turnauksessa myös Tshekki, Ruotsi ja Sveitsi ovat onnistuneet haastamaan Suomea. Toivola ei ole huolissaan Naisleijonien kehityksestä.– Se kuuluu valmennukseen ja urheiluun, että jokainen joukkue ja maa tekee töitä. On totta, että Tshekillä, Ruotsilla ja Sveitsillä on ollut todella hyvät viime tapahtumat ja nousujohteinen trendi. Me jatkamme oma pelaamistamme, siellä on hyvät perustat ja palikat tekemiselle. Hiomme vielä jäällä ja jään ulkopuolella kuviot kuntoon.Naisleijonat helmikuun EHT-finaaliturnauksessaMaalivahdit:31 Pajarinen Tiia, Kiekko-Espoo
+36 Keisala Anni, HV71 Jönköping SWEPuolustajat:2 Karjalainen Sini, Brynäs IF SWE
+5 Yrjölä Siiri, HIFK Helsinki
+6 Hiirikoski Jenni, Luleå HF SWE
+7 Rantala Sanni, KalPa Kuopio
+8 Savander Eve, Modo Hockey SWE
+11 Eronen Ada, Kiekko-Espoo
+15 Koukkula Oona, HPK Hämeenlinna
+88 Savolainen Ronja, Luleå HF SWEHyökkääjät:
+10 Holopainen Elisa, KalPa Kuopio
+12 Vanhanen Sanni, HIFK Helsinki
+16 Nieminen Petra, Luleå HF SWE
+20 Antti-Roiko Anna-Kaisa, Kärpät Oulu
+21 Täks Lisette, Kiekko-Espoo
+22 Schalin Julia, Kiekko-Espoo
+24 Vainikka Viivi, Luleå HF SWE
+25 Yrjänen Kiira, HV71 Jönköping SWE
+28 Nylund Jenniina, Brynäs IF SWE
+32 Vesa Emilia, Frölunda HC SWE
+33 Karvinen Michelle, Frölunda HC SWE
+40 Tulus Noora, Luleå HF SWE
+77 Tapani Susanna, Minnesota, PWHL
+91 Liikala Julia, HIFK Helsinki</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1130,21 +1158,21 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Niko Kytösaho kirjoitti kesällä itselleen tavoitelapun ja piti siitä kiinni – valmentaja kertoi napakasti kantansa juhlista</t>
+          <t>Oikeus: Lääkäri aiheutti vaimonsa kuoleman Ullanlinnassa – välituomion mukaan tekoa ei kuitenkaan suunniteltu etukäteen</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071694</t>
+          <t>https://yle.fi/a/74-20071827</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Niko Kytösaho on tällä kaudella hypännyt vain kolme kertaa mäkihypyn maailmancupin pisteille, ja näistä kaksi kertaa vain niukasti. Siksi hänen venymisensä seitsemänteen sijaan Kulmin lentomäen MM-kisoissa oli iso yllätys. Tavallaan se oli yllätys Kytösaholle itselleenkin.– Viimeaikaisten kisojen perusteella en osannut tällaista ajatella, mutta toukokuussa kirjoitin lapulle, että tavoitteenani on olla lentomäen MM-kisoissa top-kympissä, Kytösaho sanoi Yle Urheilulle.– Se on ollut koko vuoden tavoitteena, ja se toteutui. Mutta talvi on ollut niin vaikea, että en viime aikoina ole tähän uskonut.Kytösaho pääsi avaamaan kisan perjantaina päivänä pisimmällä hypyllä, 232,5-metrisellä, ja pystyi pitämään sijoituksensa samana kahdella seuraavallakin kierroksella. Kytösahon mukaan tuohon pisimpään loikkaan purkautui paljon.– Tämä on ylivoimaisesti paras kisa, minkä olen ikinä hypännyt ja se sattui vielä MM-kisoihin. Tavallaan sen pisimmän hypyn jälkeen oli vain sairaan siistiä hypätä, nauttia fiiliksestä ja lentämisestä. Lopputulos oli sitten sen mukainen.Ei tarvitse enää arvuutella tasoaKulmissa ei vaikeiden tuuliolojen takia päästy hyppäämään kuin kolme kierrosta. Tämä harmitti Kytösahoa, joka olisi halunnut vain hypätä. Hyppääjät joutuivat odottamaan hyppylupaa neljän ja puolen tunnin ajan, mutta lopulta tuuliolot olivat suhteellisen tasapuoliset.Kytösahon sijoitus on paras suomalaistulos lentomäen MM-kisoissa 16 vuoteen. Vuonna 2008 Janne Ahonen sijoittui noissa karkeloissa kolmanneksi. Kytösaho myöntää, että hän saa tästä tuloksesta paljon itseluottamusta.– Näkee, että tasoni on noinkin kova. Se, että pystyin tekemään hyvän hypyn kolme kertaa putkeen kisatilanteessa, hän totesi.– Nyt ei tarvitse arvuutella, että riittääkö oma taso vai ei. Se on nyt tuolla tasolla. Nyt lähdetään nauttimaan tästä ja jatkamaan samaa rataa. Toivottavasti saan pidettyä tasoni tästä eteenpäin tässä.Päävalmentaja linjasi juhlimisenAikaisemmin suomalaiset mäkihyppääjät olisivat saattaneet juhlia onnistumisia kesken kisaviikonlopun, mutta nykyään joukkueessa on toisenlainen tahti. Kun Yle Urheilu kysyi Kytösaholta, aikooko hän juhlia saavutustaan tänään, ehti päävalmentaja Lauri Hakola huutaa taustalta vastaukseksi 'ei!', ennen kuin Kytösaho sai suunvuoron.– Katsotaan, tänään nyt ei ainakaan, hän naurahti.– Meillä on huomenna vielä tärkeä päivä joukkuekisassa. Katsotaan keksitäänkö huomenna jotain, mutta tänään menee ihan saunomishommiin ja huiliin.</t>
+          <t>Helsingin käräjäoikeus antoi tänään maanantaina välituomion Ullanlinnan murhajutussa. Psykiatrimies on syytettynä vaimonsa murhasta.Välituomiossa käräjäoikeus on katsonut näytetyksi, että psykiatrimies on menetellyt syytteen teonkuvauksen mukaisella, rangaistavaksi säädetyllä tavalla. Hänen menettelyään ei kuitenkaan ole näytetty olleen syytteessä kerrotulla tavalla ennalta valmisteltua tai suunniteltua.Myöskään asiassa muun muassa ei ole katsottu näytetyksi, että teon motiivina olisi ollut mustasukkaisuus.Syyttäjän mukaan 49-vuotias mies murhasi vaimonsa Ullanlinnassa vuosi sitten. Mies on esitutkinnassa myöntänyt aiheuttaneensa naisen kuoleman, mutta on sanonut sen olleen tapaturma.Mielentilatutkimus aloitettu VaasassaVälituomion perusteella miehen mielentilaa on määrätty edelleen tutkittavaksi. Mielentilatutkimus oli alun perin määrätty suoritettaviksi jo esitutkinnan aikana. Mielentilatutkimus on nyt aloitettu Vaasan vanhassa sairaalassa 4. tammikuuta.Asian käsittelyä on lykätty jatkettavaksi, kunnes mielentilatutkimus on valmistunut.Välituomiossa ei ole otettu kantaa asian rikosoikeudelliseen arviointiin, toisin sanoen, mihin rikokseen mies on menettelyllään syyllistynyt ja onko teko tehty esimerkiksi vakaasti harkiten, onko teko ollut erityisen raaka ja julma ja onko teko ollut kokonaisuutena arvostellen törkeä.Välituomiossa ei myöskään ole otettu kantaa miehen tahallisuuden asteeseen. Näihin asioihin käräjäoikeus ottaa kantaa mielentilatutkimuksen valmistuttua tuomiossa.Aviomies pysyy yhä vangittunaPsykiatrimies on määrätty edelleen pidettäväksi vangittuna. Lisäksi käräjäoikeuden asettama ja jatkettavaksi määrätty vakuustakavarikko on määrätty edelleen pidettäväksi voimassa.Asianomistajien vaatimuksiin ja asian vahingonkorvausoikeudellisiin kysymyksiin käräjäoikeus ottaa kantaa vasta lopullisessa tuomiossa.Välituomio on osittain julkinen.Murhan lisäksi vuonna 1974 syntynyttä miestä syytetään henkirikoksen yhteydessä tapahtuneesta törkeästä varkaudesta.Jutussa iso osa oikeuden istunnoista ja asiakirjoista salattiin, koska ne sisälsivät oikeuden mukaan yksityis- ja perhe-elämään liittyviä salassa pidettäviä tietoja. Myös poliisin esitutkinta salattiin muutamaa sivua lukuun ottamatta.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1158,21 +1186,21 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Niko Kytösaho mahtavaan urotekoon lentomäen MM-kisoissa – Janne Ahonen kertoo, miksi ex-lapsitähti onnistui nyt</t>
+          <t>Helteet, rankkasateet ja pakkaset lyövät kovimmin niitä, joilla on jo valmiiksi vaikeaa</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071688</t>
+          <t>https://yle.fi/a/74-20071870</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Suomalaismäkihyppääjä Niko Kytösaho oli huippuvireessä lentomäen MM-kisoissa Itävallan Kulmissa. Avauspäivän jälkeen seitsemäntenä ollut 24-vuotias suomalainen pysyi samalla sijalla myös viimeisenä päivänä.Tuuliolosuhteiden takia kisa typistyi neljän kierroksen sijaan kolmen kierroksen kisaksi. Kytösaholla ei ollut viimeisen hyppynsä aikana mikään paras tuulirako, mutta hän pystyi silti tälläämään niihin oloihin hienon 215-metrisen siivun.Maailmanmestaruutta juhli kotiyleisön suosikki Stefan Kraft. Hopea meni Saksan Andreas Wellingerille ja pronssi Slovenian Timi Zajcille.Suomalaisittain kyse on todellisesta huippusijasta, sillä edellisen kerran suomalaiset ovat pärjänneet lentomäen MM-kisoissa paremmin 2008. Tuolloin kokonaispanos oli huima, sillä Janne Ahonen oli kolmas, Janne Happonen viides ja Harri Olli kuudes.Niko Kytösaho upeasti seitsemäs lentomäen MM-kisoissa.Kunnioitus toi rentoudenNykyään Yle Urheilun asiantuntijana vaikuttava mäkilegenda Ahonen muistuttaa Kytösahon tasaisista suorituksista viikonlopun aikana. Perjantaina hän tinttasi koko päivän pisimmän hypyn, 232,5 metriä.Kytösahon alkukausi on ollut muiden suomalaisten tavoin kokonaisuudessaan vaikea. Ahonen huomauttaa lentomäkihyppäämisen erikoisominaisuudesta.Lentomäessä ikään kuin ”kunnioitetaan enemmän mäkeä”, minkä takia maltti säilyy paremmin.– Nikolla on ollut kiire lentämään, eikä hän ole malttanut tehdä kunnolla työntöä keulalla. Lentomäkihyppääminen on kuitenkin edelleen harvinaista herkkua. Siinä kunnioitetaan mäen kokoa, vauhtia ja voimia.– Ei lähdetä niin yrittämään ja intoilemaan. Kaikki asiat tulevatkin helpommin selkärangasta, Ahonen kertoo.Avaa kuvien katseluNiko Kytösaho muistetaan kovana juniorilupauksena. Kuva: EPA-EFEJuniorilupaus ei ole iällä pilattuKytösaho muistetaan juniorilupauksena, josta on kuiskittu jo tämän ollessa vain 14-vuotias. Suomalaishyppääjä ei ole edelleenkään iällä pilattu, sillä hän on 24-vuotias.Ahonen uskoo, että lentomäestä löytynyt maltti ja rentous näkyvät loppukaudesta myös tavallisissa mäkikisoissa. Sunnuntaina Kulmissa hypätään joukkuekisa, josta Kytösaho voi ammentaa lisää onnistumisia.– Luulen, että kun tullaan takaisiin normaalimäkiin, ahaa-elämys on löytynyt. Hän pystyy malttamaan keulan päällä jatkossakin, Ahonen tuumii.Ahonen ei pidä Kytösahoa varsinaisena lentomäkispesialistina. Hän muistuttaa, että esimerkiksi Eetu Nousiainen loisti muutama vuosi sitten Obertsdorfin lentomäkikisassa ollen kahdeksas.Nyt hän ei selvinnyt 30 parhaan joukkoon.– Välillä se ahaa-elämys voi löytyä, kun on erilainen ilmapiiri, Ahonen lisää.Kytösahon onnistuminen on tärkeä positiivinen sytyttäjä etenkin koko suomalaiselle miesmäkihypylle. Jo monen vuoden ajan onnistumiset ovat olleet harvassa, etenkin arvokisoissa.– Sijoitus kymmenen parhaan joukkoon on kovaa valuuttaa. Pitää tehdä oikeita asioita ja moni asia on tuuristakin kiinni. Nyt vasta yksi sellainen on saatu, mutta toivotaan saman menon jatkuvan tulevaisuudessakin.Korjaus kello 19.41: Kytöahon sijoitus oli paras suomalaissuoritus lentomäen MM-kisoissa 16 vuoteen. Ingressissä luki alun perin 14 vuoteen.</t>
+          <t>Yleistyvät sään ääri-ilmiöt vaikeuttavat eniten niiden elämää, joille arjesta selviytyminen on jo nyt ongelma.Tämä käy ilmi Tampereen kaupungin selvityksestä, joka käsitteli sään ääri-ilmiöiden, kuten helteiden, myrskyjen ja pakkasten, vaikutuksia eri kaupunginosissa ja väestöryhmissä.Selvityksessä tamperelaisiin kohdistuvia ilmastoriskejä arvioitiin sen suhteen, miten alttiita ihmiset ovat myrskyjen, liukkauden ja helteen vaikutuksille ja miten hyvin he voivat sopeutua poikkeusoloihin.Äärisäiden riskien näkökulmasta haavoittuvia ihmisryhmiä ovat esimerkiksi pienet lapset, vanhukset, pienituloiset ja kielivähemmistöt.Asioiden itsenäinen hoitaminen hankaloituuMonet ilmastonmuutoksen riskit lisäävät esimerkiksi terveydenhuollon, pelastustoimen sekä tieto- ja viestintäyhteyksien kuormitusta ja heikentävät niiden toimivuutta.Se taas vaikuttaa heihin, jotka eivät voi omatoimisesti varautua häiriötilanteisiin eivätkä vähentää niiden vaikutuksia tilanteen ollessa käynnissä.Selvitystä varten haavoittuvien ryhmien edustajilta kerättiin kokemuksia siitä, miten sään ääriolosuhteet olivat vaikuttaneet.Vastausten mukaan asioiden itsenäinen hoitaminen, esimerkiksi kaupassa käyminen, vaikeutuu.Esimerkiksi vanhukselle tai apuvälineen käyttäjälle runsas lumisade tai jäinen keli voi tarkoittaa pakollista kotiin jäämistä. Jos sää jatkuu pitkään samana, se vähentää lopulta sitä, kuinka paljon ulkona voi liikkua.Avaa kuvien katseluTampereella ilmastonmuutos näkyy esimerkiksi kovina pakkasina ja lumi- ja vesisateina, liukkaiden kelien lisääntymisenä ja kesällä helleaaltoina. Kuva viime syyskuulta, jolloin rankkasade sai Tampereen kadut tulvimaan. Kuva: Kirsi Matson-Mäkelä / YleTietoa tilanteesta voi olla vaikea saada. Kuurosokea voi tarvita tulkin viittomaan tiedon kädestä käteen, mutta sää voi estää tulkin kulkemisen. Iäkkäistä kuulonäkövammaisista kaikki eivät pysty käyttämään verkkoviestintää.Suuri osa vammaisista on pienituloisia tai tulottomia. Kun kaikessa on pakko säästää, se kohdistuu harvoin tarvittaviin asioihin, kuten pakkaskelpoisiin takkeihin tai jalkineisiin.Kun asutaan tiiviisti, riskit kasvavatSelvityksessä tarkasteltiin, missä Tampereella asuu haavoittuviin ryhmiin kuuluvia ihmisiä. Tämä tieto yhdistettiin kartoille tietoon todennäköisimmistä tulva- ja lämpösaarekealueista. Lämpösaarekkeella tarkoitetaan aluetta, jonka lämpötila on korkeampi kuin sitä ympäröivien alueiden.Selvitys havaitsi, että haavoittuvuus ilmastonmuutoksen riskeille on suurin tiiviissä asutuskeskittymissä, kuten Tampereen keskustassa, Hervannassa, Lielahdessa ja kaupunginosien keskuksissa.Näin on myös alueilla, joilla on yhteiskunnan kannalta kriittisiä toimintoja, kuten useita kouluja tai päiväkoteja, ja joihin muodostuu lämpösaareke. Näitä alueita on esimerkiksi Kaarilassa, Hyhkyssä, Sairaalankadun alueella, Nekalassa ja Muotialassa.Kaupunkisuunnittelulla on mahdollista vaikuttaa tulviin ja lämpösaarekkeisiin.Tarpeen ovat ainakin lämpösaarekeilmiötä lieventävät puistot ja muut viileät paikat sekä sadevettä imevät pinnat. Tänä lumisena talvena on jälleen nähty lumen välivarastointipaikkojen merkitys.Tarkastelun toteutti Tampereen kaupungin tilauksesta Ramboll-yhtiö.Eurooppa ja muu maailma kärvistelivät viime kesänä poikkeuksellisessa kuumuudessa. Onko ilmastonmuutoksen aiheuttamiin sään ääri-ilmiöihin vain sopeuduttava, vai voiko niiden voimakkuuteen vielä vaikuttaa? Heinäkuussa 2023 kuvatussa haastattelussa Maailman ilmatieteen järjestön silloinen pääsihteeri Petteri Taalas.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1186,21 +1214,21 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Turkki tutkii sotilaskoneen läheltä piti -tilannetta – katso hätkähdyttävä video</t>
+          <t>Hallitus aikoo kieltää aurauslumen kippaamiseen mereen – näin lumen­kaa­to­paikat toimivat eri puolilla Suomea</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071682</t>
+          <t>https://yle.fi/a/74-20069320</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Turkin viranomaiset selvittävät vaaratilannetta, joka sattui ilmavoimien kuljetuskoneelle torstaina Kayserissa Keski-Turkissa.Ilmavoimien C-160-kuljetuskone joutui tekemään suunnittelemattoman hätälaskun kesken harjoituslennon. Kone joutui vaikeuksiin noustuaan ilmaan ilmavoimien lentotukikohdasta.Koneen sinnittely matalalla suurkaupungin yllä säikäytti ihmisiä. Sosiaalisessa mediassa on jaettu lukuisia videoita matalalla kohti lentokenttää palaavasta koneesta.Turkin ilmavoimien mukaan lentäjät ja muu miehistö olivat hätälaskun jälkeen kunnossa. Ilmavoimien mukaan kone kärsi pieniä vahinkoja ja tapauksesta on aloitettu tutkinta.Sosiaalisessa media näkyvät kuvat kertovat, minkä verran kone romuttui laskussa.Aerotime Hub -ilmailusivuston mukaan Turkin ilmavoimat on ollut viimeinen C-160D-koneiden operaattori sen jälkeen, kun Saksa ja Ranska luopuivat niiden käytöstä. Julkaisun mukaan Turkilla on kaksi tämäntyyppistä konetta käytössä.Reuters</t>
+          <t>Joka vuosi tuhansia ruuhkaisilta ja roskaisilta kaduilta aurattuja lumikuormia kaadetaan mereen Helsingissä. Nyt hallitus aikoo puuttua peliin.Lumen mereen kaatamisen kielto on osa hallituksen esitystä, jonka esittelyn on tarkoitus tapahtua huhtikuussa.Uuden hallituksen alaisuudessa ympäristöministeriö on kääntänyt kelkkansa lumen kaatamisen osalta. Vielä vuonna 2020 ympäristöministeriön teettämän selvityksen perusteella tehtiin johtopäätös siitä, ettei auratun lumen sijoittamista mereen ole tarpeen kieltää lainsäädännössä.Ympäristöministeriön erityisasiantuntija Henna Rinne kertoo, että vesistöjen tilan parantaminen on saanut hallitusohjelmassa paljon huomiota ja tuore esitys lumen mereen kaatamisen kiellosta on osa tätä kokonaisuutta.– Lakimuutos on aika järeä keino, mutta toisaalta sillä saadaan varmistettua, että lumen mereen kaataminen loppuu.Vuoden 2020 selvityksen mukaan aurauslumen loppusijoitus mereen ei ole kovin yleistä. Sitä tehdään lähinnä Helsingin kantakaupungissa ja muutamilla satama-alueilla.Lumessa erityisesti mikromuoveja ja isompaa roskaaLumen mukana mereen päätyy paljon hiekkaa, sepeliä sekä isompaa ja pienempää roskaa, kuten tupakantumppeja. Lumen seassa on myös runsaasti esimerkiksi autojen renkaista irronnutta mikroroskaa.– Roskilla on erilaisia vaikutuksia merieläimille. Eläimet voivat takertua isompiin roskiin ja mikroroskat voivat päätyä eläinten ruuansulatukseen ja sitä kautta ravintoketjuun, Rinne sanoo.Avaa kuvien katseluYmpäristöministeriön luontoympäristöosaston erityisasiantuntija Henna Rinne kertoo, että lumen mereen kaadon kieltäminen on osa hallituksen pyskimyksiä vesistöjen tilan parantamiseen. Kuva: Rinna Härkönen / YleLumessa voi olla mukana myös erilaisia raskasmetalleja, tiesuolauksessa käytettäviä aineita ja erilaisia yhdisteitä jotka voivat olla merieläimille myrkyllisiä. Niiden pitoisuudet lumessa ovat melko pieniä, mutta kun samalta laiturilta kipataan tuhansia lumikuormia kauden aikana, voivat pienetkin pitoisuudet kuormittaa meriluontoa paikallisesti.Hiekka ja sepeli voivat samentaa merivettä hetkellisesti, mutta painuvat melko nopeasti pohjaan. Lumen mukana mereen kulkeutuu myös ravinteita, mutta Rinne arvioi typpi- ja fosforikuorman jäävän melko pieneksi.– Jos katsotaan rehevöitymisen kokonaiskuvaa, niin tällä lumen kaadolla on hyvin pieni vaikutus rehevöitymiseen.Muissa rannikkokaupungeissa lumenkaatopaikat ovat maallaYle kävi haastattelemassa Oulun ja Turun katujen kunnossapidosta vastaavia insinöörejä. Turun kaupungin katuinsinööri Heidi Jokinen kertoo, että Turussakin on vuosia sitten kaadettu aurauslumia mereen, mutta enää sitä ei tehdä ympäristösyistä.Toistaiseksi maalle sijoitetut lumensijoituspaikat ovat riittäneet hyvin.– Meillä on neljä lumensijoituspaikkaa, joista kolme on nyt käytössä. Tällä hetkellä ne riittävät hyvin: lunta on tullut maltillisesti, mutta talvi on vasta alussa, Jokinen arvioi.Avaa kuvien katseluTurussa lunta on kertynyt sijoituspaikoille vielä maltillisesti, mutta talvea on vielä jäljellä. Kuva: Jere Sanaksenaho / YleMyöskään Oulun kaupungin aurauslumia ei tarvitse kaataa mereen, ja hyvä niin. Roskaa kaupungin kaduilta tarttuu nimittäin mukaan melko runsaasti, joskus polkupyöriä tai ostoskärryjäkin.Kaupungin lupainsinööri Mika Jutila arvioi, että esimerkiksi Oritkarin lumenkaatopaikalta roskia kerätään yleensä parin autokuorman verran. Rannikkokaupungeissa on tarpeen huomioida, että lumenkaatopaikoilta sulava vesi pyrkii sekin vääjäämättä kohti merta, roskineen päivineen.Esimerkiksi Oritkarilla sulamisvedet johdetaan erillisiin saostusaltaisiin, joihin roskat ja epäpuhtaudet jäävät ennen kuin vesi johdetaan mereen.Lumi voi säilyä kaatopaikalla jopa kesän yli, kun hiekkakerroksen alle pakkautunut lumi jää eristyksiin. Usein lumenkaatopaikalla voi olla uuden kauden alkaessa pohjalla vielä edellisvuotista lunta.Helsingin kaupungilla omat suunnitelmansaLumenkaato mereen on loppumassa nyt myös Helsingissä, mutta ihan nopeasti siirtymä ei onnistu. Hernesaaren lumenkaatopaikka on tarkoitus sulkea vuoteen 2033 mennessä, mutta jos hallituksen lakiesitys menee läpi, voi se muuttaa kaupungin suunnitelmia.Hernesaaren lumenkaatopaikasta on väännetty kaupungissa kauan. Kaupunki teki jo vuonna 2019 periaatepäätöksen, että tavasta on luovuttava, mutta aluehallintoviraston kaupungille myöntämä ympäristölupa lumen kippaamiseen mereen on voimassa vuoteen 2031 saakka.Ympäristöministeriö on vuoden 2020 selvityksen jälkeen seurannut Helsingin kaupungin toimia Hernesaaressa. Kaupunki on selvittänyt, miten meren roskaantumista voitaisiin ehkäistä.Ensin alueella kokeiltiin verhopuomia, mutta se ei osoittautunut hyväksi menetelmä tuulisella rannalla. Viime talvena kaupunki testasi uutta kuplaverhoa.– Ilmakuplien avulla ohjataan roskia tiettyyn paikkaan ja sieltä ne voidaan kerätä helpommin alukseen. Jos ne pääsevät sen yli, edessä on vielä öljypuomi, joka pysäyttää isommat roskat, Henna Rinne kertoo.Mikromuovi ei kuitenkaan pysähdy kuplaverhoihin tai öljypuomeihin. Osa pohjaan vajonneesta mikroroskasta saadaan kerättyä pois, kun merenpohjaa ruopataan lumenkaatopaikan edustalla.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1214,21 +1242,21 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Yhdysvallat hyväksyi hävit­tä­jä­kaupat Turkkiin ja Kreikkaan</t>
+          <t>Lehti: Raportin mukaan joka kymmenennellä pales­tii­na­laisia auttavan YK-järjestön työntekijällä on yhteyksiä ääri­jär­jes­töihin</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071686</t>
+          <t>https://yle.fi/a/74-20071891</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Yhdysvallat on hyväksynyt F-16-hävittäjien myymisen Turkkiin. Asiasta kertoi Yhdysvaltain ulkoministeriö.Turkki antoi aiemmin tällä viikolla pitkään roikkuneen hyväksyntänsä Ruotsin Nato-jäsenyydelle. Ratifiointi oli asetettu ehdoksi Turkin hävittäjäkauppoihin Yhdysvaltain kanssa. Turkin jälkeen Ruotsin Nato-jäsenyys on ratifioimatta enää Unkarilta.Yhdysvaltain ulkoministeriön mukaan Turkille myydään 40 uutta F-16-hävittäjää sekä päivityksiä 79 hävittäjään, joita maalla on entuudestaan. Kauppa on 23 miljardin dollarin eli noin 21 miljardin euron suuruinen.Turkin koneet ovat samankaltaisia kuin videossa olevat Tanskan ilmavoimien F-16-hävittäjät.Lisäksi Kreikalle ollaan ministeriön mukaan myymässä 40 F-35-hävittäjää, joiden sovittu kauppahinta on 8,6 miljardia dollaria eli noin 7,9 miljardia euroa.Yhdysvaltalaisen virkamieslähteen mukaan Yhdysvallat ei ollut näyttänyt vihreää valoa hävittäjäkaupoille ennen kuin Turkin ratifiointiasiakirjat olivat saapuneet Washingtoniin.Kaupat olivat jumiutuneet kongressiinTurkin parlamentti hyväksyi Ruotsin Nato-jäsenyyden tiistaina yli vuoden kestäneiden viivästysten jälkeen. Turkin ratifiointi astui virallisesti voimaan torstaina, kun asiaa koskeva laki julkaistiin Turkin virallisessa lehdessä.Turkin presidentti Recep Tayyip Erdogan oli alkujaan vastustanut Ruotsin Nato-pyrkimyksiä, koska Turkki katsoi Ruotsin hallinnon hyväksyvän kurdiryhmiä, jotka Turkki oli määritellyt terroristijärjestöiksi.Ruotsi vastasi syytöksiin kiristämällä terrorismin vastaista lainsäädäntöään ja ottamalla muita turvallisuuteen liittyviä askeleita, joita Erdogan oli vaatinut.Ratifiointia ei kuitenkaan irronnut tämänkään jälkeen, vaan turkkilaispresidentti käänsi katseensa hävittäjäkauppoihin, jotka olivat kohdanneet vastustusta Yhdysvaltain kongressissa. Jumin taustalla olivat Turkin vastakkainasettelu Nato-liittolaisen Kreikan kanssa sekä ihmisoikeusasiat, joiden oli katsottu heikentyneen Turkissa.Kreikkaa liennytettiin hävittäjinYhdysvaltain senaatin ulkoasiainvaliokunnan puheenjohtaja, demokraattisenaattori Ben Cardin sanoi perjantaina, että hän hyväksyisi hävittäjien myynnin Turkille. Hän kuitenkin painotti, ettei tämä päätös ollut hänelle helppo.Yhdysvaltain ulkoministeri Antony Blinken oli kertonut Turkille kahden edeltävän vierailunsa yhteydessä, että Ruotsin Nato-jäsenyyden ratifiointi auttaisi lopettamaan vastustuksen kongressissa.Kreikka on sen sijaan vastustanut voimallisesti Yhdysvaltain hävittäjäkauppoja Turkin kanssa, koska Kreikalla ja Turkilla on selvittämättömiä aluekiistoja energiarikkaalla Välimeren alueella.Yhdysvaltalaislähteen mukaan Yhdysvaltain kauppasopimuksen onnistuminen Turkin kanssa oli ensinnäkin kiinni siitä, että Kreikka ei estäisi kauppaa. Tästä syystä Kreikalle luvattiin lähteen mukaan pääsy lisähävittäjiin.</t>
+          <t>Israelin tiedusteluraportin mukaan kymmenellä prosentilla YK:n palestiinalaispakolaisten avustusjärjestön UNRWA:n Gazan henkilöstöstä on yhteyksiä islamistisiin ääriryhmiin. Asiasta kirjoittaa tiedusteludokumentit nähnyt amerikkalainen The Wall Street Journal -lehti.Aikaisemmin on kerrottu, että 12 UNRWA:n työntekijää olisi sekaantunut Hamasin Israeliin 7. lokakuuta tekemään terrori-iskuun. Terroristit surmasivat Israelissa noin 1 200 ihmistä. Kuuden UNRWA:n työntekijän sanotaan osallistuneen hyökkäykseen, kahden sanotaan auttaneen panttivankien sieppaamisessa ja kaksi on jäljitetty paikkoihin, joissa tapettiin israelilaisia.Raportin tiedot perustuvat muun muassa matkapuhelinten jäljittämiseen sekä vangituilta militanteilta kuulusteluissa saatuihin tietoihin. Israel on luovuttanut tiedot muun muassa Yhdysvalloille.Israel väittää, että UNRWA:n 12 000 työntekijästä 1 200:lla olisi yhteyksiä Hamasiin tai Islamistinen Jihad -ääriryhmään. Yhdysvallat ja EU pitävät molempia terroristijärjestöinä. Suurella joukolla työntekijöitä on väitetysti myös sukulaisia ääriryhmissä.Tiedusteluraportissa on tunnistettu UNRWA:n arabian kielen opettaja, joka osallistui väitetysti joukkomurhaan Be'erin kibbutsilla.UNRWA:n tiedottaja ei maanantaina kommentoinut tiedustelutietoja The Wall Street Journalille.UNRWA (The United Nations Relief and Works Agency for Palestine Refugees) on YK:n alainen humanitaarinen järjestö, jonka tehtävä on tuottaa palestiinalaispakolaisten peruspalvelut, kuten koulutus, terveydenhoito ja sosiaalipalvelut. UNRWA jakaa myös ruokaa ja avustustarvikkeita.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1242,21 +1270,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Essee: Uutuuselokuva näyttää natsit tavallisina ihmisinä, ja sen katsominen on musertava kokemus</t>
+          <t>Näin lakot vaikuttavat työmatkoihin, päiväkoteihin ja kauppoihin – kokosimme listan</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071369</t>
+          <t>https://yle.fi/a/74-20071469</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Rudolf Höss tuijottaa pimeään. Hänen ilmeensä ei värähdä. Hän ei uskalla liikkua. Pimeyden edessä myös Auschwitzin keskitysleirin johtaja on pieni ja yksin.Olen nähnyt brittiohjaaja Jonathan Glazerin uuden elokuvan The Zone of Interest jo kaksi kertaa. Kummallakin kerralla olen tuijottanut valkokangasta lamaantuneena.En pidä natseista enkä natsielokuvista. Miksi elokuva natsijohtajan perhe-elämästä sitten puhuttelee minua?Vielä kuukausia elokuvan näkemisen jälkeen havahdun ajattelemasta sitä eri yhteyksissä: holokaustia taiteessa ja historiassa, ihmisen kykyä pahaan.Joka kerta palaan tähän elokuvan loppupuolella esiintyvään kuvaan:Rudolf Höss yksin pimeyden edessä.Kuvassa ei ole paljon mitään, ja samalla se tuntuu sisältävä kaiken. Uskon, että me kaikki voimme nähdä kohtauksessa itsemme – jos vain uskallamme katsoa.Mikä natseissa kiinnostaa?Olen kyllästynyt natseihin. Heihin liittyvät elokuvat, kirjat ja näytelmät ovat Suomessa todella suosittuja. Olen joskus todennut happamasti, että mistä tahansa teoksesta voi tehdä menestyksen laittamalla sen mainokseen hakaristin.Suomessa yksi syy natsien tenhoon on vaikea suhde omaan sotahistoriaamme. Toisin kuin sotaa, sen jättämiä haavoja on käsitelty taiteessamme liian vähän.Avaa kuvien katseluHollywood harvoin onnistuu kuvaamaan holokaustia. Schindlerin lista (1993) on todennäkösesti onnistunein holokaustista kertova Hollywood-elokuva, sillä se ei päästä katsojaansa helpolla. Sekin on parhaimmillaan keskittyessään johonkin muuhun kuin sankaritarinansa juoneen. Kuva: Wikimedia commons.Uskon natsitarinoiden tulvan johtuvan ennen muuta siitä, että haluamme selityksen asioille, joita emme osaa selittää. Haluaisimme ymmärtää pahuutta, jotta meidän ei tarvitsisi pelätä sitä.Elokuvien ja kirjojen natsihahmot ovat kuitenkin lähes aina pelkkää pop-kulttuurikuvastoa: fetisoituja ja demonisoituja epäihmisiä, jotka haukahtelevat komentosanoja saksaksi.Natsien kuvaamiseen liittyy toinenkin ongelma. Rehellinen pahuuden käsittely vaatisi holokaustin kuvaamista. On kuitenkin väitetty, että holokaustia ei voi kuvata.Kauhuja ei näytetä. Silti ne ovat läsnä koko ajan.Väitteessä on vissi perä. Kuuden miljoonan juutalaisen ja miljoonien muiden ihmisten murhaaminen on niin massiivinen tragedia, että sitä on vaikea edes käsittää. Saati sitten kuvata.Elokuvantekijöitä ja kirjailijoita ei voi syyttää yrityksen puutteesta. Holokausti on erittäin suosittu elokuvien ja kirjojen elementti.Pahimmillaan sitä käytetään aiheen sijasta miljöönä tai yleistunnelmana. Esimerkiksi Heather Morrisin bestseller-romaanissa Auschwitzin tatuoija keskitysleirin kamaluudet ovat vain jännittävä taustakangas, jota vasten teoksen rakkaustarina piirtyy.Tällaisissa teoksissa holokaustin massiivinen ja käsittämätön kauheus katoaa näkyvistä itse tarinan taakse. Katsoja tai lukija pääsee liian helpolla.Avaa kuvien katseluKolmentoista tunnin mittainen dokumenttielokuva Shoah (1985) toimii lukuohjeena The Zone of Interestille. Se luo katsojalle käsitystä holokaustista hitaalla kerronnalla, jossa haastateltujen pitämät tauot ja keskitysleirien metsittyneet rauniot ovat merkittävämpiä kuin se mitä sanotaan tai nähdään. Shoah luottaa katsojan kykyyn täydentää mielessään se, mitä elokuva ei sano tai näytä. Kuva: Les Aleph/Historia/Kobal/Shutterstock/All Over PressThe Zone of Interest kertoo holokaustista vain rivien välissä. Uhrien tarinoiden sijaan se kuvaa kansanmurhan toteuttajia. Sitä, miten pahuus on osa heidän arkeaan.Elokuva näyttää sen, minkä tiedämme, mutta mitä emme halua ajatella:Holokaustin toteuttajat olivat tavallisia ihmisiä. Sellaisia kuin sinä ja minä.Kauhu kuvien takanaElokuvassa ei tapahdu melkein mitään. Enimmäkseen se kuvaa, miten viiden lapsen äiti Hedwig Höss (Sandra Hüller) häärää pyörittämässä taloutta, juoruaa naisseurassa ja esittelee kaunista puutarhaansa Auschwitziin kylään tulleelle äidilleen.Isä-Rudolf ulkoilee luonnossa lasten kanssa ja hoitaa työasioita. Lapset leikkivät.Osa kriitikoista on syyttänyt The Zone of Interestiä ontoksi. Mielestäni se ei ole ontto. Päin vastoin. Elokuva on mykistävä. Sen tunnelma on niin voimakas, että kokemusta on vaikea pukea sanoiksi.Kauhuja ei näytetä. Silti ne ovat läsnä koko ajan.Avaa kuvien katseluThe Zone of Interest on pelkkiä kuvia katsoen kevyt ja pieni elokuva, mutta sen pinnan alla myllertää isoja ja vaikeita kysymyksiä. Kuva: Courtesy of A24Auschwitzin taukoamatta toiminnassa olevista krematorioista syntyvä haju on hallitseva elementti Martin Amisin romaanissa, johon The Zone of Interest perustuu. Elokuvassa ymmärrys tapahtumien taustalla käynnissä olevasta joukkomurhasta välittyy toisella tavalla.Se on läsnä äänimaisemassa, dialogin rivien välissä, näennäisen viattomissa yksityiskohdissa niin kuin puutarhan lannoittamisessa tuhkalla.Kuvaamalla Hössin arkista perhe-elämää ja keskitysleirityön byrokraattista puolta Auschwitzissa kuvattu elokuva herkistää katsojan kaikelle sille, mitä tapahtuu kohtauksien laidoilla ja kuvan ulkopuolella:Öisin taivaalla hohkaavaan krematorion infernaaliseen kajoon. Taustalla tauotta jatkuvaan tuhoamisleirin äänimaisemaan.Emme katso, mutta katsomme kuitenkin.Kehoon siirretty syyllisyys”Meillä on täällä kaikki mitä olemme halunneet.”Näin kuvailee Auschwitzia keskitysleirin johtajan vaimo Hedwig Höss. Repliikki tuntuu yhtä aikaa vilpittömältä ja valheelliselta.Sandra Hüllerin näyttelijäntyössä rouva Hössin ilmeetön ja kulmikas tapa kävellä ja olla viestivät hänen kantavan syyllisyyttä, jota hän ei kykene myöntämään edes itselleen.Avaa kuvien katseluNäyttelijä Sandra Hüller on kertonut haastatteluissa, miten kammottavalta hänestä tuntui mennä saksalaisena Auschwitziin kuvaamaan The Zone of Interestiä. Hän ei halunnut inhimillistää rooliaan, koska ei kokenut Hedwig Hössin ansaitsevan minkäänlaista anteeksiantoa. Kuva: LANDMARK MEDIA / Alamy/All Over PressThe Zone of Interestin henkilöt tietävät tarkalleen, mitä muurin toisella puolella tapahtuu. Se on selvää heidän puheissaan ja kaikessa heidän olemisessaan.Näyttelijöiden työskentely kuvastaa sitä syyllisyyttä, joka iski sodan loputtua saksalaisiin ja isoon osaan muitakin eurooppalaisia. Yhtäkkiä kaikki esittivät, että eivät olleet tienneet mitään siitä, mitä juutalaisille tehtiin.”Opa war kein Nazi”, minun isoisäni ei ollut natsi, on sukupolvelleni yleinen saksalainen hokema. Jos kaikki tällaiset väitteet pitäisivät paikkansa, oli koko natsi-Saksassa vain kourallinen natseja.Nurin käännetty maailmaThe Zone of Interest kuvaa maailmaa, jossa kuolemantehtaat ovat arkipäiväistä byrokratiaa ja kuolevilta ryöstäminen kahvipöytäkeskustelun aihe. Se kysyy samaa kysymystä, jota eurooppalaiset ovat toistaneet itselleen lähes 80 vuotta. Miten se oli mahdollista?Holokausti edellytti saksalaisen yhteiskunnan muutoksen. Maata hallinnut natsipuolue ajoi väkivaltaisen antisemitisminsa läpi 1930-luvulla askel askeleelta.Avaa kuvien katseluEhkä onnistunein fiktioelokuva holokaustista on unkarilaisen László Nemesin Son of Saul (2015). Yhtä keskitysleirin vankia seuraava elokuva pitää kameran niin tiiviisti päähenkilössään sonderkommando Saulissa, että kaasukammiot, teloitukset ja muut Auschwitzin kauhut nähdään vain taustalla. Katsoja ymmärtää näkevänsä vain pienen osan totuutta. Kuva: Photo 12 / Alamy/All Over PressEnsin muuttui kieli, sitten lait ja lopulta ihmisten käyttäytyminen. Lähes huomaamatta moraali oli kääntynyt ympäri ja ihmisten murhaamisesta oli tullut normaali ja hyväksyttävä, jopa välttämättömänä pidetty, asia.Kaiken läpäisseestä asennemuutoksesta huolimatta ajatusta kuolemanleireistä pidettiin Euroopassa liian kamalana. Todisteista huolimatta ihmiset käänsivät selkänsä, kun heidän naapurinsa ajettiin pois kotoaan.On tärkeää, ettei historia unohdu. Vain jos tiedämme, mihin ihmiset kykenevät, voimme estää sitä tapahtumasta uudestaan.Tästä syystä holokaustia on kuvattava. Vaikka sitä ei voi kuvata, on sen yrittäminen välttämätöntä.Holokaustia kuvaavat teokset kysyvät:Mitä sinä tekisit?Pimeys katsoo takaisinMielessäni Rudolf Höss tuijottaa yhä pimeään. Uskon tämän kuvan kulkevan mukanani niin kauan kuin elän.Ainakin toivon niin. Se muistuttaa minua siitä, että meistä jokaisen sisällä on oma pimeytemme.Avaa kuvien katseluRudolf Höss (Christian Friedel) on elokuvassa tehokkuuteen pyrkivä työnarkomaani, jonka työhön kuuluu muun muassa neuvotella IG-Farben-yhtiön edustajien kanssa kaasukammioiden tehoa parantavista uudistuksista. Kuva: Courtesy of A24Me kaikki kannamme syyllisyyttä asioista, joita teemme vaikka tiedämme niiden olevan väärin tai haitallisia.Käännämme nytkin selkämme sodille, joissa siviilejä ja lapsia tapetaan julmasti ja syyttä.Ostamme parin vuoden välein uuden kännykän vaikka tiedämme, että lapsia kuolee kaivoksissa teknologiaame käytettävien mineraalien takia.Saastutamme ainoaa kodiksemme soveltuvaa planeettaa, koska emme kykene hillitsemään päästöjä aiheuttavia tottumuksiamme.Nämä kauhdeudet ja holokausti eivät ole sama asia. Se ei tee meistä vähemmän syyllisiä.Huomaan, että holokaustitarinoille altistuminen on saanut minut epäilemään ihmisen hyvyyttä.Elokuvassa Rudolf Höss voi pienen hetken huonosti, ehkä tekojensa takia. Tapahtuiko niin koskaan todella?Onko natsivaimon kehossaan kantama syyllisyys vain elokuvantekijän romantisoitu käsitys siitä, että ihminen on pohjimmiltaan hyvä?Rinnastaen aiempiin esimerkkeihin nykyajasta: voivatko kännykkäfirmojen toimitusjohtajat koskaan pahoin Kongon kaivoksissa kuolevien lasten takia?Askel pois pimeästäYksi vastaus löytyy dokumenttielokuvasta The Act of Killing (2012), johon The Zone of Interestin loppukohtausta on verrattu.Se seuraa Indonesian kommunistivainoissa ihmisiä raa’asti teloittanutta Anwar Congoa, joka esittää kameran edessä ylpeillen millaisia murhia on tehnyt 40 vuotta aiemmin.Avaa kuvien katseluIndonesian kommunistivainoista kertova The Act of Killing (2012) kysyy samoja kysymyksiä kuin The Zone of Interest. Keskellä kuvassa elokuvan päähenkilö, kuolemanpartioihin osallistunut Anwar Congo. Kuva: The Act Of KillingElokuvan alussa Congo ei tunne syyllisyyttä. Miksi tuntisikaan? Hänhän on Indonesiassa lähes kansallissankari.Loppupuolella, käytyään murhiaan läpi yhä uudestaan ja uudestaan elokuvan tekijöiden kanssa, vanha teloittaja alkaa äkillisesti voida pahoin. Hänen kehonsa tuntuu näyttävän, että jollakin syvemmällä tasolla ihminen tietää tehneensä väärin vaikka kieltäisi sen itseltään.Tarkoittaako se, että toivoa on?</t>
+          <t xml:space="preserve">Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Keskiviikkona alkavilla eri ammattiliittojen ja palkansaajien lakoilla on isoja vaikutuksia koko maassa. Osa päiväkodeista, julkisesta liikenteestä, kuljetuksista, ruokakaupoista ja teollisuudesta pysähtyy.Iso osa aloittaa työtaistelutoimet torstaina 1. helmikuuta. Ne kestävät yhdestä kahteen päivää. Lisäksi 6. helmikuuta on tiedossa ulosmarsseja. Osin vaikutukset näkyvät kuitenkin jo keskiviikkona 31. tammikuuta.Lakoilla ja ulosmarsseilla vastustetaan hallituksen työelämäuudistuksia ja sosiaaliturvaleikkauksia. Niiden piiriin kuuluvat useat keskusjärjestö SAK:n, STTK:n ja Akavan ammattiliitot.Katso alla olevasta videosta kootusti, miten lakko vaikuttaa arkeesi.Toimittaja Minna Matintupa selventää, mitä vaikutuksia tulevilla lakoilla on sinun arkeesi. Kuvaus ja editointi: Isto Janhunen / YleLakon vaikutukset arkeenTiedot lakon vaikutuksista löydät alta laajemmin. Voit klikata eri ammattialojen osion auki.Tietoihin voi vielä tulla useitakin muutoksia ennen työtaistelujen alkua.Bussit, junat, raitiovaunut ja metrotJulkinen liikenne pysähtyy tai harvenee lakon ajaksi monissa Suomen kaupungeissa.Pääkaupunkiseudulla paikallisjunat, metrot ja raitiovaunut eivät liikennöi perjantaina 2. helmikuuta lainkaan. Myös HSL:n bussiliikenteestä suuri osa jää ajamatta.Tampereella liikennöidään perjantaina noin puolet Nyssen bussiliikenteestä. Tampereen raitioliikenne pysähtyy perjantaina kokonaan. Vaikutuksia joukkoliikenteelle voi olla Tampereella jo torstaina.Turussa Fölin bussiliikenne jatkuu todennäköisesti kaikilla linjoilla, mutta harvennetusti. Heillä lakko kestää perjantain ajan.Kuopiossa suurin osa paikallisliikenteen bussivuoroista jää ajamatta perjantaina. Myös osa ELY-liikenteen vuoroista voi jäädä ajamatta.Lappeenrannan ja Imatran paikallisliikenne ei todennäköisesti liikennöi perjantaina lainkaan. Sama koskee seutu- ja lähiliikennelinjoja. Lappeenrannan kaupunki ei voi taata lakisääteisten koulukuljetusten toteutumista.Satakunnassa osa paikallisliikenteestä ei liikennöi perjantaina ainakaan Raumalla ja Porissa. Lakon piirissä ovat Rauman Gyyt, Porin linjat ja Satakunnan liikenne.Lakko vaikuttaa myös Onnibussin liikennöintiin perjantaina. Ajettavat vuorot on syytä tarkistaa Onnibussin verkkosivuilta ennen matkan ostoa.Koko Suomen junaliikenne seisahtuu perjantaina Pohjois-Suomen yöjunia lukuun ottamatta. Junaliikenteen lakko koskee työvuoroja, jotka alkavat 2.2. kello 00.01 ja 23.59 välillä.Lisäksi kaikki ratapihatoiminnot keskeytyvät Haminan ja Kotkan ratapihoilla torstain ajaksi.AvaaLentoliikenneSuomen lentoliikenne pysähtyy lähes kaikilla Suomen isoilla lentokentillä torstaina. Lakossa ovat mukana JHL:n jäsenet, jotka työskentelevät Finavian tai Airpron palveluksessa, sekä joitain muita ammattiliittoja.Hallin ja Utin lentokentät eivät ole lakon piirissä.Lentoyhtiö Finnair on valmis siirtämään asiakkaidensa lennot lakkopäiviltä toiseen ajankohtaan lipputyypistä huolimatta.PAMin lentoasemien kiinteistöhuollosta ja siivouksesta sekä vartioinnista vastaavat työntekijät ovat lakossa.Myös Finnairin lentäjiä edustava Liikennelentäjäliitto osallistuu poikkeuksellisesti työtaisteluun.Monet ulkomaalaiset ovat jo peruneet Lapin-matkansa lakkojen vuoksi.AvaaRuokakaupat, ravintolat ja siivousKaupan ala järjestää vuorokauden mittaisen lakon torstaina 1. helmikuuta. Mukana ovat suurimmat ketjut, eli S- ja K-ryhmät ja Lidl.Lakko voi näkyä ruokakauppojen valikoimassa.Myös hotelleja ja ravintoloita, liikenneasemia sekä kiinteistö- ja siivouspalvelualan yrityksiä on lakossa ympäri Suomea.Kaupat sekä hotellit ja ravintolat pyritään pitämään auki esimiesvoimin tai liittoon kuulumattomien työntekijöiden avulla.Suomen elintarviketyöläisten liitto (SEL) lakkoilee myös: mukana on lähes 4 500 elintarvikealan työntekijää 21 työpaikalla 1.–2. helmikuuta. Lakko pysäyttää muun muassa Saarioisten tehtaiden tuotannon ja logistiikan kahdeksi päiväksi.AvaaPäiväkodit, koulut ja terveydenhuoltoPääkaupunkiseudulla suurin osa päiväkodeista, perhepäivähoidoista ja ryhmäperhepäiväkodeista on suljettuna keskiviikkona ja torstaina. Lakko koskee kaikkia yksityisiä ja julkisia yksiköitä Helsingissä, Espoossa, Vantaalla ja Kauniaisissa. Myös puistotoiminta pysähtyy.Lakko koskee työvuoroja, jotka alkavat keskiviikon 31.1. kello 6 ja torstain 1.2. kello 21 välisenä aikana. Lakossa ovat mukana lastenhoitajat, osa varhaiskasvatuksen opettajista ja perhepäivähoitajat.Lopullinen henkilöstötilanne ja avoinna olevat päiväkodit selviävät vasta lakkoaamuna.Kerro Ylelle, miten järjestät lapsesi päivähoidon lakon aikanaLakoissa ovat mukana sosiaali-, terveys- ja kasvatusalan ammattijärjestö Tehy, lähi- ja perushoitajaliitto SuPer, julkisten ja hyvinvointialojen liitto JHL ja sosiaalialan korkeakoulutettujan ammattijärjestö Talentia.Tehy ja SuPer rajaavat lakon ulkopuolelle vain viranhaltijat. JHL:n mukaan lakko ei koske heidän osaltaan kotona tehtävää perhepäivähoitoa, ryhmäperhepäivähoitoa, ryhmäperhepäiväkoteja ja yksityistä perhepäivähoitoa.Myös Opetusalan ammattiliitto OAJ ja ammattiliitto Jyty ilmoittivat päivän mittaisesta lakosta pääkaupunkiseudun varhaiskasvatuksessa 31. tammikuuta. Jytyn lakko koskee myös perhepäivähoitoa ja puistotoimintaa.Korkeakoulutettujen keskusjärjestö Akava ilmoitti, että se järjestää ulosmarssin pääkaupunkiseudulla, Turussa ja Tampereella 6. helmikuuta kello 14–16. Marssiin osallistuvat lukuisat sote-työntekijät, insinöörit ja lääkärit.Ulosmarssit eivät koske virkasuhteisia työntekijöitä, kuten opettajia ja poliiseja. Näin ollen Akavan suurin jäsenliitto OAJ ei osallistu ulosmarssiin.AvaaPostiPostin työntekijät eivät tee työvuoroja aikavälillä 1. helmikuuta kello 0.00–2. helmikuuta kello 18. Tämä koskee noin 10 000 työntekijää.Lakon aikana kirjeposti, pakettilajittelu ja logistiikka seisoo. Tämä aiheuttaa muutamien päivien viiveitä lähetysten kulkuun. Posti neuvoo seuraamaan pakettien kulkua OmaPostissa.Postin yritysasiakkaat voivat lähettää lähetyksiä Postille normaalisti.Posti- ja logistiikka-alan unioni PAU kertoi, että lakon ulkopuolelle on rajattu terveyteen ja turvallisuuteen liittyvät työt.AvaaKuljetukset, logistiikka ja huoltoAuto- ja kuljetusalan työntekijäliitto AKT:n lakko kestää torstain ja perjantain, tosin linja-autoalan ja matkahuoltoalan osalta vain perjantain.Lakossa ovat mukana liki kaikki toimialat eli kuorma-autoala, linja-autoala, matkahuoltoala, kaupan automiehet, säiliöauto- ja öljytuoteala, matkatoimistoala, terminaalitoiminta, huolinta-ala, huoltokorjaamot, AKT:n Viking Linen työntekijät ja ahtausliikkeiden toimihenkilöt sekä ahtausala.Myös toimihenkilöliitto Erto ilmoitti lakosta autoliikenne-, huolinta- ja sosiaalialalle 1.–2. helmikuuta.AvaaRakennustyömaat, sähköt ja muu teollisuusMoni Suomen isoista teollisuusyrityksistä pysäyttää toimintansa osittain tai kokonaan torstaina ja perjantaina. Myös rakennustyömaat hiljenevät etenkin pääkaupunkiseudulla.Rakennusliiton työntekijöiden osalta hätätyö, LVI-huolto ja tienhoito jatkuvat, mutta muutoin lakon piirissä ovat kaikkien sopimusalojen työt Helsingissä, Espoossa ja Vantaalla.Rakennustyömaiden sähkötyöt sekä matkapuhelin- ja tietoliikenneverkkotyöt pysähtyvät JHL:n ja Sähköliiton työtaistelun vuoksi. Mukana on lukuisia yhtiöitä, jotka vastaavat sähköverkkojen rakentamisesta ja kunnossapidosta. Sähkön ja lämmön tuotanto ja jakelu sekä raideliikenteessä tehtävät työt ovat lakon ulkopuolella.Ammattiliitto Pron lakko laajenee koskemaan Digitaa, ICT-alaa, rahoitusalaa, vakuutusalaa sekä tiettyjä kiinteistöalan työpaikkoja. Näissä työnseisaus on 1. helmikuuta.Useat Stora Enson, UPM:n ja Huhtamäen tehtaat pysähtyvät tai vähentävät toimintaansa paperiliiton lakon ajaksi. Lakot alkavat torstain 1. helmikuuta aamuvuoroista ja päättyvät 3. helmikuuta aamuvuoroihin. Vaikutuksia on ainakin Imatralla, Oulussa, Varkaudessa, Kymissä, Pietarsaaressa ja Raumalla.Myös ruudin valmistus voi pysähtyä. Lakon piirissä on 1. ja 2. helmikuuta myös neljä ammusvalmistaja Nammon tehdasta.Kemianteollisuudessa lakko vaikuttaa ainakin Porvoon Kilpilahden ja Kokkolan teollisuusalueisiin.Lakko vaikuttaa useisiin kaivoksiin ja jalostamoihin esimerkiksi Kittilässä, Sodankylässä, Naantalissa, Kemissä, Torniossa, Raahessa, Sotkamossa ja Siilinjärvellä. Ainakin Nesteen Porvoon jalostamo jatkaa toimintaansa työtaistelusta huolimatta, vaikka on lakon piirissä.AvaaTyötaistelujen ulkopuolelle kaikilla ammattialoilla jäävät ne tehtävät, joiden tekemättä jättäminen aiheuttaisi vaaraa ihmisten hengelle, terveydelle tai omaisuudelle. 
+</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1270,21 +1299,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Helsin­ki­läis­ra­vin­tolan lattiaan tuli niin syviä jälkiä, että tietyt kengät ovat nyt kielto­listalla</t>
+          <t>Analyysi: Yksi asia ratkaisi sen, että toisella kierroksella ovat Stubb ja Haavisto eikä Halla-aho</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071576</t>
+          <t>https://yle.fi/a/74-20071715</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hiljattain uudelleen avattu, remontoitu ravintola Kaisaniemi, eli nykyinen Cajsan Helmi, kertoo eteisessä, että jääpiikit ja -nastat on poistettava saapuessa.Näin halutaan suojella ravintolasalin vanhaa parkettia. Pinta vasta hiottiin ja käsiteltiin öljyllä remontissa, eli se on hyvin arka.– Siellä on syviäkin skraaduja ajalta, jolloin tämä oli tanssiravintola ja bändit vetivät kovaäänisiä pitkin parkettia. Emme halua sen vaurioituvan enemmän, sanoo entisen ravintola Kaisaniemen korjaaja-restauroija sekä hallituksen puheenjohtaja Airi Kallio.Yle kertoi aikaisemmin, kuinka kaikkiin paikkoihin Helsingissä ei saa kävellä nastakengissä tai liukuesteet kengissään.Linjaukset vaihtelevat paikkakohtaisesti. Esimerkiksi Helsingin Kaupunginteatteriin saa mennä nastakengissä, mutta Kansallisteatteriin ei.Kallio toivoo asiakkailta hienotunteisuutta ja ymmärrystä, että nastat kengänpohjissa ei voi tulla sisälle. Kengät tulee riisua tai liukuesteet irrottaa eteisessä.Osa asiakkaista istuukin nauttimassa kahvistaan sukkasillaan.Paikallaolijat vaikuttavat ymmärtävän ravintoloitsijan halun varjella puulattiaa enemmiltä rei’iltä.– Keskustan vanhoissa paikoissa on sama sääntö, ja itse asiassa uusissakin. Musiikkitalon saliin ei voi mennä liukuesteillä, Galerie Forsblomiin ei voi mennä ja niin edelleen, sanoo asiakas Aino Sinnemäki.Avaa kuvien katseluAiri Kallio pohtii kuullessaan nastojen rapisevan kalanruotoparketilla, että pitäisikö siitä huomauttaa. Kuva: Kristiina Lehto / YleJotkut asiakkaat silti vastustavat kehotusta riisua nastakengät.– Tietty, sillä ihmiset ovat perusluonteeltaan mukavuudenhaluisia, Kallio sanoo.Toiset saapastelevat salin puolelle nastoissaan epähuomiossa.Kallio muistuttaa entisajoista, jolloin hienoilla naisilla oli aina vaihtokengät mukanaan. Herroilla oli kalossit, jotka riisuttiin. Jotkut vaihtavat edelleen sisäkengät tullessaan Cajsan Helmeen.Pitää olla hienotunteinenEräs harmi parketin kannalta on Airi Kallion mukaan monissa nykyaikaisissa talvikengissä olevat ”traktorinrengaspohjat”. Niiden mukana sisään kulkeutuu katusuolaa ja kiviä. Sama vika on lastenvaunujen renkaissa.Kun Kallio kuulee nastojen rapisevan kauniilla kalanruotoparketillaan hän pohtii, pitäisikö siitä huomauttaa.– Se on sellainen comme ci, comme ça -tilanne, eli niin ja näin. Pitää olla hienotunteinen, molemmin puolin, hän sanoo.Avaa kuvien katseluRavintola Cajsan Helmen kaunis ja vanha kalanruotoparketti on hiljattain kunnostettu, mutta aikojen saatossa syntyneet raapaumat näkyvät silti selvästi. Kuva: Kristiina Lehto / YleMyös turvallisuus sisätiloissa on syytä ottaa huomioon: nastat kenkien pohjissa ovat erittäin liukkaat kovilla alustoilla.– Tavarataloissa ja ostoskeskuksissa on lattiapintoja, joilla näkee käveltävän hyvin varovasti näillä kengillä, kun selvästi koetaan, että se on liukas, sanoo asiakas Eeva-Leena Ylimäki.Varovasti käveleminen taas ei ole hyväksi tuki- ja liikuntaelimille, kun ihminen joutuu jännittämään lihaksiaan.Myös Ylimäki pitää kohtuullisena Cajsan Helmen ravintoloitsijan linjausta, että sisään ei tulla nastoilla. Hänen mielestään nastapohjilla ei pitäisi liikkua sisällä niin paljon muuallakaan.Suutari suosittelee liukkaalla kelillä pingviinikävelyä, jos kengissä ei ole liukuesteitä tai nastojaLauhtuminen ja sitä seuraava liukkaus saavat monet harrastamaan pantomiimia, tahtomattaankin. Kenkiin asennettavia liukuesteitä on ollut markkinoilla jo kymmeniä vuosia. Niiden rinnalle ovat tulleet nastakengät, joita suosittelee pitkään alalla ollut suutarikin. </t>
+          <t>Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Alexander Stubb ja Pekka Haavisto etenevät presidentinvaalin toiselle kierrokselle.Viinilasit täyttyivät Pikku-Finlandiassa sitä mukaa kun tuloksia päivittyi näytöille. Kokoomuksen presidenttiehdokas Alexander Stubb oli silminnähden helpottunut, mutta pidätteli liikaa riemua kuullessaan ensimmäiset uutiset vaalin tuloksesta.Kello 21.30 Stubb oli keräämässä noin 27 prosenttia äänistä.Vastaansa hän saa odotetusti valitsijayhdistyksen Pekka Haaviston (vihr.), joka oli keräämässä reilu 25 prosenttia äänistä.– Meidän täytyy olla tästä demokratiasta äärimmäisen ylpeitä, Stubb sanoi ja laski osallistuneensa kampanjan aikana 45 paneeliin.Toisella kierroksella toisensa kohtaa kaksi entistä ulkoministeriä, joita on koeteltu politiikan syvissä vesissä. Stubb ja Haavisto pitivät piikkipaikkaa mielipidemittauksissa kisan alusta saakka.Aivan viime viikkoina perussuomalaisten Jussi Halla-ahon rivakka nousu toi kisaan uutta jännitystä, mutta hän jäi selvästi kärkikaksikon taakse. Sen verran vauhdikasta nousu kuitenkin oli, että kokoomuksen valvojaisissa muutama myönsi ehtineensä jo huolestua.Halla-aho onnistui erottumaan perussuomalaisille läheisillä yksittäisillä aiheilla, jotka nousivat otsikoihin. Näitä olivat niin tutkintapyynnön tekeminen fasistinimittelystä, vaatimus Ylen rahoituksen rajusta leikkaamisesta ja väite poliittisesta vinoumasta kuin ehdotus kansanedustajien suomalaisesta syntyperästäkin.Halla-ahon nousu herätti jonkin verran keskustelua taktisesta äänestämisestä eli siitä, äänestäisivätkö ihmiset suoraan suosituimpia ehdokkaita saadakseen heidät varmasti toiselle kierrokselle. Tämä olisi vienyt ääniä esimerkiksi Jutta Urpilaiselta (sd.), Li Anderssonilta (vas.) ja Olli Rehniltäkin (kesk.).Tuloksen perusteella näin saattaakin käyneen, sillä Urpilaisen ja Anderssonin kannatus jäi vaisuksi.Vaaleja edeltävällä viikolla varsinkin Urpilainen, Rehn ja Andersson ärhäköityivät vaalitenteissä, mutta rutistus alkoi heidän kannaltaan aivan liian myöhään.Haaviston ennakkosuosikin asema suli jo aiemminMikä sitten ratkaisi sen, että kokoomuksen Alexander Stubb ja valitsijayhdistyksen Pekka Haavisto (vihr.) pääsivät vaalien toiselle kierrokselle?Sekä Haavisto että Stubb erottuivat joukosta ulkopolitiikan kokemuksellaan. Entisinä ulkoministereinä he pystyivät vastaamaan kysymyksiin kokemuksella ja luettelemaan uskottavasti kansainvälisiä kontaktejaan.Stubb ja Haavisto ovat olleet syksystä saakka gallupien kärkipari. Vielä lokakuussa Haavisto olisi mielipidemittausten mukaan voittanut, mutta marraskuussa paikat vaihtuivat ja Stubb on siitä asti pidellyt piikkipaikkaa.Pekka Haavisto oli vaalitenteissä rauhallinen ja asioita avaava, eikä juuri lainkaan haastanut muita ehdokkaita. Oliko viilipyttymäinen esiintyminen taktikointia vai painoiko ennakkosuosikin aseman sulaminen – sen yksin Haavisto itse tietää.Vaalien ensimmäisen kierroksen kannatus on Haavistolle joka tapauksessa helpotus.Stubb esiintyi vaaliväittelyissä selkeästi. Viimeisellä viikolla vaalitenttejä oli hengästyttävä määrä, mutta siitä huolimatta Stubb onnistui tuomaan esiin useimmiten jotakin uutta. Hän ehdotti niin Naton huippukokouksen tavoittelemista Suomeen kuin piti esillä ehdotustaan 5 000 sotilaan ammattireservistä.Stubb joutuu yhä tasapainottelemaan kokemuksensa esittelyn ja vaatimattomuuden välillä.Illasta toiseen vaalien yhdeksän ehdokasta antoivat kaikkensa, kertoivat vitsejä ruotsiksi, osallistuivat lasten pistokokeisiin ja puhuivat tunteistaan.Stubbin ja Haaviston kanttia koetellaan vielä kaksi viikkoa. Virheisiin ei kummallakaan ole varaa.
+Näin Stubb ja Haavisto ennakoivat toisen kierroksen keskusteluja:Näin Stubb ja Haavisto ennakoivat toisen kierroksen keskusteluja.Lue lisää Ylen juttuja presidentinvaaleista.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1298,21 +1328,38 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Solvaavat kuvat Taylor Swiftistä herättävät huolta –  jopa Yhdysvaltojen hallinto älähti</t>
+          <t>Yllättikö? Kartta näyttää, kuinka sinun kotikuntasi äänesti</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071667</t>
+          <t>https://yle.fi/a/74-20069982</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Kuluneella viikolla poplaulaja Taylor Swiftistä levinneet deepfake-alastonkuvat ovat herättäneet laajaa keskustelua.Kuvat on muokattu tekoälyn avulla ja niitä kuvataan seksuaalisesti loukkaaviksi. The New York Timesin mukaan joitain kuvista katsottiin X:ssä jopa 47 miljoonaa kertaa. Deepfake-teknologia käyttää hyväkseen tekoälyä aidolta vaikuttavien kuvien tai videoiden luomiseen.Kuvat ovat herättäneet keskustelua sekä tekoälyn riskeistä että somepalvelujen vastuusta.Yhdysvalloissa maan presidentin hallinnon tiedottaja Karine Jean-Pierre sanoi, että sosiaalisen median yhtiöillä on suuri vastuu siinä, että ne noudattavat omia sääntöjään valheellisen tiedon leviämisen estämiseksi.– Löysä sääntöjen noudattaminen vaikuttaa etenkin naisiin ja tyttöihin, jotka ovat somessa tapahtuvan häirinnän suurin kohde, Jean-Pierre sanoi.Useat vaikuttajat ja poliitikot ottaneet kantaaViestipalvelu X sanoi kannanotossaan, että ”ilman suostumusta tehtyjen alastonkuvien jakaminen on jyrkästi kielletty X:ssä”. Silti kuvat olivat palvelussa lähes vuorokauden.Keskustelussa on noussut huolta myös tekoälyn nopeasta kehityksestä.– Tekoälyn uudet ominaisuudet mahdollistavat ”deepfakien” tekemisen aiempaa helpommin ja halvemmin, sanoi Yhdysvaltojen demokraattipuolueen kongressiedustaja Yvette Clarke.Taylor Swift on maailman toiseksi kuunnelluin laulaja suoratoistopalvelu Spotifyssa. Hän on myös suuri mielipidevaikuttaja. Hänellä on Instagramissa 280 miljoonaa seuraajaa. Hän on kehottanut fanejaan muun muassa äänestämään vaaleissa.Lähteet: AP, AFP, Reuters</t>
+          <t>Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Suomalaiset sen ratkaisivat: sunnuntai-iltana varmistui, että presidentinvaalien toisella kierroksella presidenttiydestä kamppailevat ehdokkaat Alexander Stubb (kok.) ja valitsijayhdistyksen Pekka Haavisto (vihr.).Äänestysdata paljastaa monia mielenkiintoisia asioita. Yksi niistä on se, kuinka Suomen eri kolkat ryhmittyivät ehdokkaiden taakse eri tavalla.Pureskelimme monimutkaisen datan yksinkertaiseen karttamuotoon. Alla olevasta interaktiivisesta karttavisualisoinnista voit vapaasti tarkastella, kuinka esimerkiksi juuri sinun kotikunnassasi äänestettiin.
+Toteutus vaatii toimiakseen JavaScriptin.
+Näissä kunnissa äänestysprosentti oli korkeinVilkkaimmin äänestäjät kävivät Luodossa. Lähes yhtä suurta innostus oli myös Kauniaisissa.Näissä kunnissa äänestysprosentti oli yli 80 %:Luoto 88,8
+Kauniainen 87,5
+Pedersöre, 85,8
+Rusko 82,1
+Inkoo 81,5
+Pirkkala 81,3
+Kustavi 81,0
+Masku 80,8
+Kruunupyy 80,6
+Taipalsaari 80,6
+Kaarina 80,5
+Naantali 80,5
+Lieto 80,4
+Vesilahti 80,3
+Mustasaari 80,2
+Korsnäs 80,1Juttua päivitetty 29.1. kello 8.55: Kartan data päivitetty tuoreimpaan, 100 prosenttia äänistä sisältäneeseen versioon.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1326,21 +1373,21 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Kolesteroli voi olla koholla, vaikka elämäntavat olisivat kunnossa – Taina Törmänen, 34, yllättyi tuloksistaan</t>
+          <t>Kauhuelokuva ajoi lapsen kuukausien psykiatriseen hoito­suh­teeseen – nämä elokuvat trauma­ti­soivat suomalaisia</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20069633</t>
+          <t>https://yle.fi/a/74-20070055</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Kuopiolainen Taina Törmänen, 34, aloitti muutama vuosi sitten uudessa työpaikassa ja kävi terveystarkastuksessa. Ilmeni, että hänen kolesteroliarvonsa olivat koholla.– Hetkellisesti kävi mielessä, että toiset voivat syödä mitä huvittaa, mutta silti ei tule mitään ongelmia. Tuntui epäreilulta, mutta omille geeneilleen ei voi mitään, hän sanoo.Törmäsellä oli jo aiemmin tiedossa, että suvussa on korkeaa kolesterolia. Hän osasi odottaa, että jossain vaiheessa ne olisivat koholla hänelläkin.Tilanne oli kuitenkin yllättävä, sillä hän oli uudessa työssään aloittaessaan vasta 33-vuotias.Avaa kuvien katseluTaina Törmänen kokoaa lounaaksi kasvispainotteisen lautasen. Kuva: Toni Pitkänen / YleYle kysyi lukijoilta, seuraavatko he kolesteroliarvojaan, ja millaisin toimin he pyrkivät parantamaan terveyttään.Suurin osa vastanneista kertoi, että he kiinnittävät huomiota arvoihin vasta 60 ikävuoden jälkeen. Yleisimmin lääkäri oli kannustanut tekemään elämäntapamuutoksen tai määrännyt lääkkeitä.Vastauksissa oli yllättävää, että myös moni nuori aikuinen miettii asiaa ja tekee arjessaan valintoja, jotka tukevat verisuonten terveyttä. Erityisesti asia kiinnosti silloin, jos suvussa oli korkeaa kolesterolia tai äkillisiä sairauskohtauksia.Avaa kuvien katseluItä-Suomen yliopiston tutkimuksessa lasten kolesteroliarvoja pystyttiin parantamaan muun muassa vaihtamalla voipohjaiset levitteet kasvirasvalevitteisiin. Kuva: Toni Pitkänen / YleNuorena mittaaminen aiheellista, jos kuuluu riskiryhmäänItä-Suomen yliopiston tuoreen tutkimuksen mukaan lapsuuden ja nuoruuden poikkeavilla kolesteroli- ja rasva-arvoilla on havaittu yhteys kohonneeseen kuolemanriskiin jo 40 ikävuoden jälkeen sekä valtimonkovettumataudin varhaismuutoksiin ja sydänmuutoksiin jo parikymppisillä.Lapsella on suuri riski kohonneeseen kolesteroliin, jos hänellä on perinnöllinen kolesterolia kohottava sairaus, tyypin 1 diabetes, jos hän on sairastanut syövän, tai hänelle on tehty elinsiirto.– Sepelvaltimotaudin ehkäisy tulee suuren riskin ryhmissä aloittaa jo lapsuusiässä. Yleistä väestötason seulontaa lapsilla ja nuorilla ei pidetä hoitosuositusten mukaan aiheellisena, sanoo ravitsemusterapian professori Ursula Schwab Itä-Suomen yliopistosta.Avaa kuvien katseluSuomalaisten ruokavaliossa on liikaa kovaa rasvaa ja liian vähän kasviksia. Lounaspöytä on täynnä valintoja.  Kuva: Toni Pitkänen / YleYleensä kolesteroliarvo mitataan ensimmäisen kerran työterveydessä. Schwab arvioi, että suomalaisilla on yleensä hyvin tiedossa, jos suvussa on korkeaa kolesterolia. Erityisesti heidän tulisi mitata kolesteroli viimeistään nuorena aikuisena.– Edes kerran, jotta tietäisi, ettei kokonaiskolesteroli ole 8 mmol/l tai 10 mmol/l, mikä kertoisi perinnöllisestä taustasta. Ihmisille tehdään nykyään paljon turhempiakin mittauksia, hän sanoo.Väestötasolla suositellaan, että kokonaiskolesteroli olisi alle 5 mmol/l ja siitä niin sanottu ”paha kolesteroli” LDL alle 3,0 mmol/l.Lähes kaikki saavat liikaa kovaa rasvaaItä-Suomessa on tutkittu lasten kolesteroliarvoja jo aiemmin. Keväällä 2020 kerrottiin, että 6–8-vuotiaiden lasten kolesteroliarvoja pystyttiin parantamaan lisäämällä runsasrasvaisten kasvirasvalevitteiden käyttöä, vaihtamalla maito rasvattomaan ja lisäämällä liikuntaa.Vastaavasti lapset vähensivät tutkimuksen aikana voipohjaisten levitteiden ja rasvaisten maitotuotteiden käyttöä.Samat keinot auttavat myös aikuisilla.Merkittävin terveysteko suomalaisten ruokavaliossa olisi kovan rasvan käytön vähentäminen.– Miehistä 97 prosenttia ja naisista 94 prosenttia saa liikaa kovaa rasvaa. Se on erittäin merkittävä tekijä veren kohonneiden rasva-arvojen taustalla, mikä puolestaan suurentaa sydän- ja verisuonitautien riskiä, Schwab sanoo.Lisää: Näin päivittyneet pohjoismaiset ravintosuositukset näkyvät lautasmallissa – vähemmän lihaa, enemmän kasviksiaAvaa kuvien katseluTaina Törmänen tekee arjessaan monenlaisia terveyttä tukevia valintoja. Kuva: Toni Pitkänen / YleKolesteroli voi olla koholla, vaikka elintavat olisivat kunnossaTaina Törmänen elää liikkuvaa arkea. Hän käy kuntosalilla ja lentopalloharjoituksissa. Ruokavalio on ollut jo pitkään kasvispainotteinen. Punaisen lihan sijaan hän valitsee kalaa ja kanaa.Kolesterolitulos sai hänet miettimään, voisiko elintapoja muuttaa vielä terveellisemmäksi. Toisaalta hän ei halunnut asian rajoittavan liikaa elämää.– Kävelen nykyään hieman useammin, esimerkiksi salille. Tiedän, että matalan sykkeen kestävyysliikunta on kolesterolin kannalta hyväksi, Törmänen sanoo.Viimeiset vuodet hän on käyttänyt myös kolesterolia alentavaa levitettä. Kolesteroliarvon hän aikoo mittauttaa uudelleen muutaman vuoden sisällä.Kolesteroli ei voi olla käytännössä liian matalaKolesterolia alentavien tuotteiden käyttö on tutkijan mukaan turvallista, jos niitä käytetään ohjeiden ja suositusten mukaan. Tällöin saa riittävästi vaikuttavaa ainetta kasvistanoliesteriä.– Jos tuotteita käyttää hyvin paljon, ne saattavat vähentää rasvaliukoisten vitamiinien imeytymistä. En kuitenkaan usko, että niitä käytetään liikaa, sillä ne ovat kalliimpia kuin tavalliset leipärasvat, professori Ursula Schwab sanoo.Yleisin virhe on, että juotavia tuotteita nautitaan välipaloina, jolloin niiden teho ei ole parhaimmillaan. Esimerkiksi jogurtti pitäisi syödä muun ruoan kanssa.Toinen virhe voi olla, että esimerkiksi levitettä käytetään liian vähän. Suositusannos on noin kuusi teelusikallista vuorokaudessa.Sitä ei tarvitse pelätä, että kolesterolin saisi terveillä elämäntavoillaan tai kolesterolia alentavilla markettituotteilla liian matalaksi.– Kolesteroli ei voi olla liian matala. Luonnonkansoilla se on luonnostaan erittäin matala, eikä heillä ole mitään ongelmia sen suhteen, Schwab sanoo.Korjattu kello 17.18 muutamasta kohdasta artikkelia ”kolesteri” muotoon ”kolesteroli”.</t>
+          <t>”Tuntui, että kukaan perheestäni ei ymmärtänyt sitä kauhua, missä päivittäin elin.”Näin kertoo Poltergeist-elokuvan (1982) noin 12-vuotiaana nähnyt nainen Ylelle.Pelko yltyi niin kovaksi kauhuelokuvan takia, että tyttö kääntyi useaksi vuodeksi uskoon.”Supisin kuuman peiton alla isä meidän -rukouksia kuin mantraa.”Kysyimme joulukuussa Yleisradion Kulttuuricocktailin lukijoilta heidän voimallisimpia elokuvatraumojaan. Saimme yli 500 toinen toistaan kauhistuttavampaa kokemusta. Vastauksissa mainittiin yli 200 elokuvaa.Yksi oli ylitse muiden.Olin varma pirun kaappaavan minut.Manaajan nähnytWilliam Friedkinin kauhuelokuva Manaaja (1973) traumatisoi lähes kymmenesosan kyselyyn vastanneista. Mikään muu elokuva ei toistunut yhtä usein vastauksissa.Myöhemmin jutussa käydään läpi myös esimerkkejä uudemmista elokuvista.Avaa kuvien katselu”Yksi kauheimmista”, ”tuli uniin” ja ”yliluonnollisen pelottava”, vastauksissa kuvaillaan Manaaja-elokuvaa (1973). Elokuvassa nuori jesuiittapappi koettaa manata demonin pois 12-vuotiaasta lapsesta. Kuva: Universal History Archive/Shutterstock/All Over PressSuurin osa näki elokuvan alle 15-vuotiaana. Monessa kokemuksessa toistui kertomus elokuvan katsomisesta vanhemmilta salaa.En yli vuoteen uskaltanut nukkua, vaan olin varma pirun kaappaavan minut. Pelko oli niin voimakas, että perheeni pelkäsi minun sekoavan täysin. Makasin äidin sängyn vieressä lattialla Raamattu rinnan päällä. Vieläkin puistattaa.Nainen, 54, elokuvan nähdessään 12Toiselle vastaajalle kauhu ”menetti teränsä” vasta kahden vuoden kuluttua.Yksin kotona oleminen pelotti niin, että juoksin usein vähissä vaatteissa ulos. Nyt tätä kirjoittaessani minun piti käydä laittamassa huoneeseen lisää valoa, koska asian ajatteleminen toi pelon pintaan!Nainen, 34, elokuvan nähdessään 12Manaaja on ollut traumaattinen elämänkokemus monille ikäluokille. 26-vuotias vastaaja kertoi katsoneensa elokuvan vanhempiensa seurassa lapsena kauhusta jäykkänä.Pelkäsin 12-vuotiaaksi kasvamista, koska silloin elokuvan tyttö muuttui riivatuksi.Nainen, 26, elokuvan nähdessään 7Japanilainen kauhu ajoi poliklinikalleKyselyyn vastanneita pelottivat klassikot.Nämä elokuvat toistuivat eniten vastauksissa1. Manaaja (1973)2. Uinu, uinu lemmikkini (1989)3. Tappajahai (1975)4. Hohto (1980), Ring (1998) (yhtä monta vastausta)5. Psyko (1960), Kauna (2004) (yhtä monta vastausta)Suurin osa eniten pelkoa aiheuttaneista elokuvista on yhdysvaltalaisia ja tehty ennen 90-lukua, mutta mukana on kaksi japanilaistaustaista uudempaa elokuvaa: Ring ja Kauna.Molemmat elokuvat pohjaavat japanilaiseen onryō-mytologiaan, jossa kostonhimoiset, usein naispuoliset kummitukset palaavat elävien maailmaan. Kummastakin elokuvasta on olemassa japanilainen ja yhdysvaltalainen versio.Vieläkin vedän kylppärin oven perästä kiinni, jotta viemäristä ei tule Ringin tyttö.Nainen, 39, elokuvan nähdessään 1832-vuotias nainen kertoo olevansa hyvä esimerkki ihmisestä, jonka ei pitäisi katsoa kauhuelokuvia.Kaunan nähtyäni valvoin koko yön selkä seinää vasten. Pelkäsin ja säikyin kaikkea. Luottamukseni todellisuuden ennustettavuuteen horjahti. Viikon sinnittelin ennen kuin kerroin vanhemmilleni. Kävin puolen vuoden ajan nuorisopsykiatrisella poliklinikalla juttelemassa. Nukuin valot päällä monta vuotta.Nainen 32, elokuvan nähdessään 14Avaa kuvien katseluKayako Saeki (Takako Fuji) on Kauna-elokuvien kostonhimoinen haamu. Elokuvat järkyttivät monia vastaajia. Kuva: Columbia/Kobal/Shutterstock/All Over PressYleisradio on nähnyt kertojan potilasasiakirjat ja todennut tapahtumien kulun.Nykyään hän ei enää kiusaa itseään katsomalla painostavia elokuvia. ”Harry Potter vitosen jätin kesken.”Nainen työskentelee nyt muusikkona, ja hän on ollut esimerkiksi yhden kotimaisen kauhuelokuvan työryhmässä. Sen hän uskalsi katsoa elokuvateatterissa.Tappajahai vei järviuinneista ilonUseampi Steven Spielbergin Tappajahain (1975) nähnyt kertoo, että vesistöt aiheuttavat yhä pelkoa.Uiminen meressä, tai oikeastaan missä tahansa muualla kuin uima-altaassa vaatii suuria ponnistuksia. Kirkas vesi, eli jos pohja näkyy, helpottaa.Mies, 40, elokuvan nähdessään 7Avaa kuvien katseluSteven Spielbergin Tappajahai (1975) oli ilmestyessään maailman tuottoisin elokuva. Useampi suomalainen kertoo että järvissä uiminen hirvittää elokuvan katsomisen jälkeen. Kuva: World History Archive / Alamy/All Over PressYksi vastaaja kertoi kääntyneensä rentoutumiskasettien puoleen nähtyään Poltergeist-elokuvan (1982).Vedin aina peloissani peiton pään yli, ja hikoilin sitten hengitykseni lämmittämässä peittoluolassa kunnes nukahdin. Kuuntelin usein nukkumaan mennessä sen ajan rentoutumis-c-kasetteja koska yritin peittää kaikki mahdolliset huoneen ja talon äänet ja rapsahdukset etten mennyt täysin paniikkiin. Nainen, 42, elokuvan nähdessään 12Hanskapäinen pingviini kauhistuttiJoillekin elokuvat aiheuttivat poikkeuksellisen voimakkaan tunnemyrskyn, vaikka kyseessä ei olisikaan ollut kauhuteos.75-vuotias mies kertoo, ettei kykene enää katsomaan musikaaliklassikko West Side Storya (1961).Joudun tunnekuohun valtaan ja alan itkemään.Mies, 75, elokuvan nähdessään 13Parissakin vastauksessa trauman oli aloittanut brittiläinen Wallace &amp; Gromit -lastenelokuva tai -lyhytelokuva.Hanskapäinen pingviini oli niin pelottava, etten uskaltanut kulkea yöllä kotona neljään vuoteen ajattelematta ja pelkäämättä pingviiniä. Säikähdin hirveästi joka kerta kun näin DVD:n kaupassa.Nainen, 22, lyhytelokuvan nähdessään 7Myöhemmin asia on naurattanut kertojaa.Avaa kuvien katseluFeathers McGraw -pingviini ja Wallace. Vahahahmot esiintyvät Wallace ja Gromit: Väärät housut -lyhytelokuvassa (1994). Kuva: imago/United Archives/ All Over PressYksi vastaaja muistelee romanttisen draamaelokuvan William Shakespearen Romeon ja Julian (1996) näkemistä teini-ikäisenä näin:Menin lopusta niin hysteeriseksi, että vartijan piti kantaa minut ulos ennen seuraavan elokuvan alkua, koska en voinut kävellä. Itkin vielä kotona niin hysteerisesti että äiti luuli jonkun oikeasti kuolleen. En voinut vuosiin edes selittää kenellekään, miten loppu menee ilman että aloitin holtittoman itkun.Nainen, 42, elokuvan nähdessään 15Nainen kävi katsomassa elokuvan lopulta kolme kertaa teatterissa. Suuri tunnereaktio vain oli samanaikaisesti niin hirveä ja ihana.Avaa kuvien katseluJulia (Claire Danes) ja Romeo (Leonardo DiCaprio) William Shakespearen Romeo ja Julia -elokuvassa. Kuva: Photo 12 / Alamy/All Over PressLue Yle Kulttuuricocktailin aiempi kyselyjuttu: ”Pelatessa tajusin, että elämäni on lahja” – suomalaiset kertovat, miten valtavan tärkeitä videopelit ovat</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1354,21 +1401,21 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Tutkija uskoo mikrobien supervoimaan: Jo jukurt­ti­lusi­kal­lisessa on yhtä monta bakteerisolua kuin maapallolla asukkaita</t>
+          <t>Syytetyn sarja­tu­ho­polt­tajan kännykästä löytyi muistio tulipalojen plussa­puolista</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20068516</t>
+          <t>https://yle.fi/a/74-20071809</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Näsijärven pohjassa makaa 1,5 miljoonaa kuutiota sellutehtaan jätettä eli niin sanottua nollakuitua. Hiedanrannalla ollut sellutehdas tuuppasi järveen jätettä vuosikymmeniä. Nyt mätänevä sellu halutaan hyödyntää.Mikrobiologi ja bioteknologi Elias Hakalehdon selvityksen mukaan jäte voitaisiin nostaa pohjasta. Biojalostamossa siitä saataisiin tuotettua noin sadan miljoonan euron arvosta raaka-aineita, energiakaasuja sekä orgaanisia lannoitteita kemianteollisuuden tarpeisiin mikrobiologisen biojalostuksen keinoilla.Avaa kuvien katseluNäsijärven pohjasta nostetun sellutehtaan jätteen käsittelyä on pilotoitu. Reaktoriliemen pinnalla näkyy kaasumaisten tuotteiden vapautumisen aiheuttamaa kuplintaa. Mikrobien avulla syntyy haitattomia ja myrkyttömiä kemikaaleja mm. elintarvike-, lääkeaine- ja kosmeettiseen teollisuuteen. Kuva: Finnoflag OyTampereen kaupunki on valinnut Fortumin tarjouksen jätteen käsittelyyn: nollakuitu on menossa polttoon. Jätteestä potentiaalisesti saatava muu hyöty jää varsin vaatimattomaksi, mutta ympäristö kohenee uuden asuinalueen tieltä.Elias Hakalehto ei kuitenkaan ole luovuttanut ideastaan hyödyntää vanhojen sellutehtaiden jätteitä, sillä sitä riittää eri puolilla maailmaa.Mikrobien avulla voidaan Hakalehdon mukaan saada materiaaleja kierrätettyä ja säästettyä luonnonvaroja. Luopuminen fossiilisista energialähteistä nostaa bioteknologian mahdollisuudet esiin.Kuka on Elias Hakalehto?Avaa kuvien katselu Kuva: Mårten Lampén / YleElias Hakalehto valmistui ympäristömikrobiologiksi 1983 Helsingin yliopistosta. Hän on suorittanut bioteknologian jatko-opintoja Englannissa, ja työskennellyt vierailevana tutkijana Jerusalemin heprealaisessa yliopistossa.Hakalehto on väitellyt filosofian tohtoriksi Kuopion yliopistosta. Hän on tutkijan urallaan soveltanut mikrobiologiaan liittyvää tietoa teollisuusmittaluokan uusiin innovaatioihin.Vuonna 1993 perustamansa Finnoflag Oy:n kautta hän on ollut mukana lukuisissa kotimaisissa ja kansainvälisissä projekteissa.Hakalehto on urallaan etsinyt tuotantomalleja, jotka hyödyntävät mikrobiologiaa, bioteknologiaa ja tieteellistä tutkimusta. Hän on ollut mukana muun muassa pilotoimassa vesien puhdistukseen, jätteiden kierrätykseen ja luonnonmukaiseen maatalouteen liittyviä ratkaisuja.AvaaHakalehdon tutkimus- ja tuotekehitysyhtiö Finnoflag on toiminut jo kolmekymmentä vuotta. Se on ollut mukana monessa hankkeessa, jossa mikrobeja on hyödynnetty uusilla tavoilla.Hakalehdon innovointi nousi esiin myös koronaepidemian aikana.Kun koronarokotteiden valmistumista vielä odoteltiin, toi Hakelehto julkisuuteen mahdollisuuden valmistaa vasta-aineita, jotka antaisivat lyhyen suojan koronavirusta vastaan.Kanaan olisi istutettu vaarattomassa muodossa oleva virus, jolloin muniin olisi kertynyt vasta-aineita. Ne olisi eristetty ja annosteltu suihkeena suuhun, jolloin limakalvot olisivat hylkineet koronaviruksia.Iso konsortio tutkijoita haki tälle rahoitusta EU:lta, mutta tuloksetta, kun isojen lääkeyhtiöiden nopeasti lupaamia rokotteita odotettiin. Hakalehdon ja kumppanien idea jäi toteutumatta.Avaa kuvien katseluKoska mikrobit ovat silmälle näkymättömiä, vain niiden vaikutukset tulevat esiin, mutta meidän on vaikea ymmärtää sitä mahdollisuuksien valtavaa moninaisuutta, mikä sieltä löytyy, sanoo Elias Hakalehto. Kuva: Mårten Lampén / YleJapanissa työskennellään Elias Hakalehto oli havainnut, että passiivi-immunisaatiolla pystytään ehkäisemään myös kariesbakteereita. Sokeria popsineiden rottien hampaat pysyivät ehjinä, kun niille annettiin kananmunissa kehitettyjä vasta-aineita.Voisiko tätä passiivi-immunisaatiota käyttää esimerkiksi koululaisten epidemioiden estämiseen, Hakalehto miettii. Kesäloman päättyessä lapsille annettaisiin imeskeltäväksi vasta-aineita sisältä makeinen ja estettäisiin virusten leviäminen. Samalla vähenisivät vanhempien kotiinjäämiset sairaiden lasten takia, Hakalehto pohtii.– Sillä olisi selkeä taloudellinen merkitys yhteiskunnassa. Suomessa tällaisia asioita on tutkittu ja hyviä ideoita on kehitelty.Mehän olemme keksijöiden ja insinöörien maa ja täällä pystytään löytämään täysin uusia ratkaisuja.Elias HakalehtoElias Hakalehto innostui mikrobien merkityksestä teollisuuden kehittämisessä opiskellessaan 1980-luvulla Englannissa. Ymmärrys asiasta oli Briteissä tuolloin pidemmällä kuin Suomessa.– Mikrobien aineenvaihdunnan kapasiteetti on valtava ja sen avulla voidaan tuottaa kaikki orgaaniset kemikaalit, mitä on olemassa. Sillä voidaan täydentää ja korvata petrokemian teollisuutta ja fossiilisia raaka-aineita, mikä on maapallon ympäristön kannalta erittäin tärkeää.Yhdessä jukurttilusikallisessa on yhtä paljon bakteerisoluja kuin maailmassa on ihmisiä, Elias Hakalehto sanoo.Ympäristön mikrobien seuranta avaa Hakalehdon mukaan ymmärrystä siihen, mitä on tapahtumassa luonnossa. Samalla se antaa uusia ideoita mikrobien hyötykäytölle. Hakalehto sanoo olleensa aina enemmän kiinnostunut viemään uudet tutkimustulokset nopeasti käyttöön kuin ryhtyä akateemiseksi tutkijaksi.– Minulla on aina ollut maailmanparantajan mieltä, enkä ole varsinaisen yrittäjän prototyyppi.Avaa kuvien katseluPitäisi ottaa käyttöön mahdollisuudet, mitkä luonto tarjoaa kasvien ja eläinten ohella mikrobien muodossa, jotta voimme ylläpitää terveyttä, torjua mikrobikäsittelyjen avulla erilaisia uhkia, voidaan taistella antibioottiresistenssiä ja erilaisia epidemioita vastaan. Voimme tuottaa hyödyllisiä kemikaaleja, energiaratkaisuja ja maanparannuskeinoja. Tässä on valtavat mahdollisuudet. Kuva: Mårten Lampén / YleJotta voisin vapaasti jatkaa T&amp;K työtä ja keksintötoimintaa laajalla sektorilla, päätin 1993 perustaa tutkimusyrityksen, enkä jäädä yliopistolle.Elias HakalehtoHakalehdon Finnoflag-yhtiön toiminta onkin suuntautunut monelle alalle, missä mikrobeja voitaisiin hyödyntää.Yhtiön alkutaipaleella tehtiin paljon vesi- ja elintarvikehygienian tutkimusta, Hakalehto kertoo. 1990-luvun lopulla kehitettyä PMEU-laitetta (Portable Microbe Enrichment Unit) on myyty eri puolille maailmaa.Automaattinen vesijohtoveden tarkkailu helpottaa valvontaa, sillä tieto bakteeripitoisuuksista saadaan vaikka maapallon toiselle puolelle.Talousveden mikrobiologisen laadun seurannassa käytetään Coliline PMEU -laitetta, joka on automatisoitu verkostoon liitettävä analysaattori. Se hälyttää, jos esimerkiksi vesitornista putkistoon päätyvän veden bakteeripitoisuus nousee haitalliseksi.Vuosien varrella Finnoflagillä on ollut hankkeita myös terveyden ja ravitsemuksen alalla. Sadan koehenkilön suolistofloora-analyysit ovat johtaneet Kuopion yliopiston ja englantilaisen Greenwichin yliopiston yhteiseen tutkimushankkeeseen tasapainoisesta ravinnosta. Hanke käynnistyi tämän vuoden alussa.Avaa kuvien katseluBioteknologia voi hyödyntää mikrobien aineenvaihduntaa esimerkiksi teollisuuskemikaalien valmistuksessa. Kuva on 3D-mallinnus mikrobeista.  Kuva: Finnoflag OyIdeoiden aivovienti maailmalleElias Hakalehto pääsi 80-luvulla seuraamaan VTT:llä teollisuusentsyymien kehitystyötä ja sen valtavaa sovellus- ja kaupallistamisaluetta. Tämän suomalaisen kehitystyön hyödyt valuivat Hakalehdon mukaan kuitenkin pääosin ulkomaille erilaisten yritysostojen kautta.Hakalehto kertoo pohtineensa tapahtuneen seurauksena sitä, ettei osaaminen tai hyvät keksinnöt takaa kovassa maailmassa muuta kuin sen, että joutuu tiukkoihin paikkoihin.Niiden löytäminen ja hyväksikäyttäminen edellyttää yhteistyötä. Yksittäinen teknologiayritys tarvitsee kehitystyölleen usein tukea.– Se on vasta alkusoittoa. Meidän pitäisi saada nämä teolliset ratkaisut lyötyä läpi kaupunkeihin, teollisuuslaitoksiin ja eri puolille yhteiskuntaa.Avaa kuvien katseluKuva vuodelta 2014. Tuolloin Finnoflagin ja Savonia ammattikorkeakoulun pilottilaitoksessa tutkittiin erilaisten biomassojen hyötykäyttöä. Laitokseen tuotiin kanantuotannon jätteitä Ruotsista, perunateollisuuden jätteitä sekä ravintoloiden biojätteitä Puolasta, ja metsäteollisuuden lietteitä Suomesta. Kuvassa Elias Hakalehto ja laboratoriopäällikkö Anneli Heitto.  Kuva: Finnoflag OySuomessa riittää erilaisia kehitys- ja innovaatiohankkeita, mutta päätyvätkö niiden hyödyt aina suomalaisen yhteiskunnan avuksi, Hakalehto pohtii.– Kun siirrytään isompiin kuvioihin, niin mahdollisuutemme ikään kuin laimenevat. Jää käyttämättä asioita, jotka voisivat tuottaa Suomelle sekä taloudellista hyötyä että erilaista muuta merkittävää etua, lisätä yhteiskunnan resilienssiä ja kilpailukykyä kansainvälisesti ja erilaisten haasteiden edessä.</t>
+          <t>Pirkanmaan käräjäoikeus jatkoi maanantaina laajan tuhopolttojen sarjan käsittelyä. 1990-luvulla syntynyttä nuorta tamperelaista miestä syytetään 21 rikoksesta.Syyttäjällä on todisteina esimerkiksi televalvontatietoja, bensakuitteja, valokuvia sekä jälkiä palopaikalta. Syytetyllä oli bensakanisteri samana iltana, kun hän jäi kiinni.Syytetylle vaaditaan ainakin kuuden vuoden vankeusrangaistusta. Hän kiistää kaikki syytteet.– Kiistän syyllistyneeni yhtään mihinkään ellei pyöräileminen ole laitonta, hän kertoi poliisille kuulustelussa.Tuhansia työtunteja meni hukkaanOikeudessa kuultiin maanantaina useita tuhotöiden asianomistajia. Yksi heistä kertoi vapaa-ajan talon pystyttämisestä. Rakennus paloi ennen valmistumista, asianomistajan mukaan se oli viittä vaille valmis.– Rakentamiseen on mennyt tuhansia tunteja. Se on tehty hartiapankkihommina, mies arvioi.Asianomistaja kertoi, että materiaaleja on ostettu silloin, kun on ollut mahdollista. Sen takia rakentaminen kesti kauan.– Emme ole mikään rikas perhe.Tulipalo on ottanut koville.– En ole uskaltanut käydä siellä. En tiedä, kestänkö nähdä sen.Muutkin asianomistajat kertoivat oikeudessa, miten tärkeitä asumattomilta näyttäneet vanhat rakennukset olivat heille rahallisesti ja tunnearvoltaan. Osa niistä toimi mökkeinä, yksi taloista oli peritty suvussa 1800-luvulta asti.– Talo oli 170 vuotta, ja se oli säilynyt hyvänä. Polttajalle se ei ole minkään arvoinen, yksi asianomistaja sanoi.Kännykästä löytyi lista tulipalojen plussistaSyytetyn kännykästä löytyi myös erikoinen muistio, jossa on plussia allekkain. Plussien mukaan ”palokunta sai harjoitusta, omistaja säästi purkukustannukset, omistaja saa rahaa vakuutuksestaja omistajalla menee kiinteistöveroa vähemmän”. Yhdessä plussassa arvioidaan, että palon jälkeen ilkivalta vähenee.– Tässä on etsitty syitä, miksi tulipaloja kannattaa sytytellä, aluesyyttäjä Siina Simola sanoo.Avaa kuvien katseluEsitutkinta-aineistossa on syytetyn kännykästä löytynyt muistio, jossa listataan tulipalojen hyötyjä. Kuva: poliisin esitutkinta-aineisto.  Kuva: Anu Leena Hankaniemi / Yle, editointi Matias Väänänen / YleSyytetyn mukaan hän oli vain pohtinut, mitä lähellä olevista tulipaloista voi seurata. Hänen mukaansa alueen rakennusten arvo voi nousta ja turvallisuus parantua, jos purkukuntoisia rakennuksia ei ole.Syytetty selvitti velkojen vanhentumistaSyytetty oli myös selvitellyt, milloin rikosvelka vanhenee. Hän oli syyttäjän mukaan myös etsinyt tietoa, toimitetaanko Suomeen liekinheittäjädroonia.Syytetty kävi hämmästyttävän usein hakemassa muutamia litroja 95-oktaanista bensaa eri puolelta Tamperetta huoltoasemilta. Syyttäjän mukaan syytetty liikkui palopaikoilla moottoripyörällä, pyörällä ja ainakin kahdella eri autolla. Syytetyn autot olivat dieselkäyttöisiä, ja moottoripyörään käytettiin syyttäjän mukaan 98-oktaanista.Syytetyn mukaan hän tankkasi joskus moottoripyörään 95-bensaa. Puolustuksen mukaan syytetty haki bensaa auton vanteiden puhdistamiseksi.Breitensteinin huvila paloi Tampereella viime toukokuussa. Savua levisi laajalle alueelle Santalahdesta itään.Seurasi tarkkaan uutisointiaEnsimmäiset epäillyt tuhotyöt tehtiin jo edellisen vuoden syksyllä, mutta tapausten määrä kiihtyi viime vuoden keväällä. Esimerkiksi Tampereen keskustan lähellä Hipposkylässä paloi kaksi puista asumatonta kerrostaloa.Syytetyn kännykästä löytyi koostesivusto esimerkiksi tästä Hipposkylän palosta. Syytetyllä oli kuvakaappauksia esimerkiksi Ylen teksti-tv:n sivusta, tulipalouutisia monesta eri mediasta ja vielä valokuva Aamulehden printistä. Syytetyltä löytyi myös useita kuvakaappauksia Tilannehuoneessa olevista hälytyksistä.Syytetty seurasi tarkkaan esimerkiksi Aamulehden ja Ylen uutisointia.– Hän oli kiinnostunut siitä, missä palaa, syyttäjä havainnollistaa valokuvilla.Kuvia tuntemattomista autiotaloistaYhteen valokuvaan syytetty on kirjoittanut kellonaikoja, milloin hälytys tuli ja milloin uutiset.– Hän on kirjoittanut 15.10 on, onko se tulipalon sytyttämisaika? syyttäjä kysyy.Kännykästä löytyi myös lukuisia kuvia tuntemattomista autiotaloista. Syyttäjän mukaan ne saattoivat olla tulevia kohteita.Puolustus kiistää kulujaPuolustuksen mukaan paloista ei tullut taloudellista haittaa ainakaan osalle kohteista, sillä talot haluttiin purkaa huonokuntoisina.Puolustus kiistää useita kustannuksia ja vaatimuksia, joita syytetyistä tuhotöistä on kertynyt.Oikeudenkäynti jatkuu keskiviikkona syytetyn ja todistajien kuulemisella. Silloin kuullaan myös loppulausunnot.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1382,21 +1429,21 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Aina joku tekee tämän virheen lähtiessään äänestämään</t>
+          <t>Nuorten olympia­kilpailu oli Minja Korhosen ylivoimaa: ”Aika rauhassahan siinä sai hiihtää”</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071250</t>
+          <t>https://yle.fi/a/74-20071868</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Presidentinvaaleissa äänestävän kannattaa tarkistaa oma äänestyspaikka hyvissä ajoin.Esimerkiksi Helsingissä tapahtuu vaalista toiseen erehdyksiä oman äänestyspaikan suhteen. Se voi olla ongelma, varsinkin jos paikalle saapuu viime minuuteilla sunnuntai-iltana.Helsingin keskusvaalilautakunnan sihteeri Veera Reuna tunnistaa ilmiön.– Kyllä näitä aina jonkin verran tulee.Reunan mukaan sekaannuksia voi sattua, jos äänestäjä ei ole tarkistanut omaa äänestysaluettaan tai on vastikään muuttanut.Kaikki Ylen sisällöt presidentinvaaleista löydät täältäÄänestyspaikka määräytyy äänioikeutetun osoitetiedon mukaan. Presidentinvaaleja varten tiedot on kerätty väestötetojärjestelmästä 8. joulukuuta 2023.Äänestyspaikka saattaa muuttua edellisistä vaaleista myös esimerkiksi julkisten tilojen remonttien takia.– Jos esimerkiksi joku koulu menee remonttiin, äänestyspaikka saattaa siirtyä väliaikaisesti muualle. Äänestyspaikat pyritään kyllä pitämään niin samoina kuin vain mahdollista.Eri alueiden äänestyspaikkoja on jopa samassa osoitteessaHelsingissä äänestysalueita ja -paikkoja on peräti 167. Muutamien eri äänestysalueiden äänestyspaikat ovat jopa samassa osoitteessa, mutta eri oven takana.Äänioikeutettu pääsee varsinaisena vaalipäivänä äänestämään vain oman alueensa äänestyspaikalla. Paikan voi tarkastaa kotiin postitetusta kirjeestä tai verkkopalvelusta.Avaa kuvien katseluÄänestämään kyllä ehtii viime hetkilläkin, kunhan on äänestyspaikassa sunnuntaina iltakahdeksaan mennessä.  Kuva: Saara Hirvonen / YleVaalihuoneistot ovat sunnuntaina auki aamyhdeksästä iltakahdeksaan. Äänestämään pääsee mahdollisesti muutaman minuutin ylikin, kunhan on äänestystilassa tai aivan sen lähistöllä virallisen ajan puitteissa.Äänioikeutettu ohjataan oikeaan paikkaan, jos omaa nimeä ei vaaliluettelosta löydy. Viime tipassa väärään paikkaan erehtyviltä kaupunkilaisilta saattaa silti pahimmillaan jäädä äänioikeus käyttämättä.Veera Reuna odottaa vaalisunnuntaita hyvillä mielin.– Järjestelyt ovat sujuneet hyvin. Toivottavasti myös sää on hyvä, että ihmiset lähtevät äänestämään.Kaikki presidenttiehdokkaat kohtasivat Ylen Suuressa vaalikeskustelussa torstaina 25.1.2024.</t>
+          <t>Yhdistetyn suomalaiskomeetta Minja Korhonen saavutti maanantaina suvereeniin tyyliin arvokisakultaa Ganwonissa, Etelä-Koreassa järjestettävissä nuorten talviolympialaisissa.Korhosen vire oli Pyeongchangin olympiamaisemissa kohdallaan niin normaalimäessä kuin hiihtoladulla. Mäkikierroksen pisin hyppy 103,5 metriä takasi Korhoselle turvallisen kärkipaikan hiihtobaanalle, ja neljän kilometrin matkalla siilinjärveläinen venytti eron Slovenian hopeamitalistiin Teja Paveciin liki 50 sekuntiin.– Mäessä sain tosi hyvän hypyn, ja luottavaisella fiiliksellä pääsi lähtemään hiihto-osuudelle. Siinä pääsi oman rennon hiihdon hiihtämään ja aika rauhassahan siinä sai sinänsä hiihtää, ei tarvinnut hirveästi takaa tulevista murehtia. Tosi hieno kisapäivä tänään, Korhonen iloitsi Olympiakomitean tiedotteessa.Korhosen kultamitali oli odotettavissa, sillä 16-vuotias savolainen on noussut tällä kaudella naisten maailmancupin kärkikahinoihin. Korhonen kipusi joulukuun puolivälissä Ramsaussa ensimmäistä kertaa maailmancupin palkintokorokkeelle olemalla kolmas.Maailmancupissa Korhosen tavoin kilpaillut Heta Hirvonen taipui maanantain olympiakilpailussa karvaasti neljännelle sijalle, kun Slovenian Tia Malovrh nousi hiihdossa pronssimitaliin kiinni.Korhosella ja 15-vuotiaalla Hirvosella on edessään pidempi tauko maailmancupin ympyröistä, sillä ensi viikolla Slovenian Planicassa järjestetään hiihtolajien nuorten MM-kilpailut. Pyeongchangissa ohjelmassa on vielä keskiviikon sekajoukkuekilpailu.Karppelin kiri pronssillePyeongchangissa juhlittiin maanantaina myös suomalaista maastohiihtomitalia, kun Nelli-Lotta Karppelin ylsi pronssille naisten vapaan hiihtotavan sprinttikilpailussa. Limingasta kotoisin oleva Karppelin taipui loppukirissä ruotsalaisvoittajalle Elsa Tänglanderille vain vajaalla puolella sekunnilla.– Oli tosi kiva hiihtää täällä: oli sellainen rata, joka sopi minulle. Siinä oli pitkä työpätkä ja (rata) oli aika pitkä sprintiksi, 17-vuotias Karppelin kertasi.Suomen joukkue on saavuttanut Etelä-Korean kisoista yhteensä neljä mitalia (kulta ja kolme pronssia).</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1410,22 +1457,21 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Harrastatko hyvin syömistä? Kerro siitä meille</t>
+          <t>Hallinto-oikeus kumosi Helsingin poliisin päätökset kieltää Elokapinan rahan­ke­räykset</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071240</t>
+          <t>https://yle.fi/a/74-20071853</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Kuopiossa on lyhyen ajan sisällä suljettu jo viisi ruokaravintolaa pysyvästi tai väliaikaisesti. Osuuskauppa Keskimaa pohtii Jyväskylän keskustassa sijaitsevan ravintola Amarillon sulkemista.Alalle on vaikeaa houkutella uusia ammattilaisia.Näivettymässä ei suomalainen ravintolakulttuuri kuitenkaan ole: intohimoisten ruokaharrastajien ja -ammattilaisten Châine des Rôtisseurs -seuran mukaan se on suorastaan eläväinen.– Olemme kehittyneet huimasti. Jos menee vaikka kolmekymmentä vuotta taaksepäin, niin ravintolassa syöminen oli liiketoiminta-hommia tai sitten käytiin sunnuntaisin Rossossa syömässä, sanoo seuran Suomen valtavouti Johanna Hornborg.Ihmiset innostuvat ruuasta yhä enemmän ja ovat valmiita panostamaan siihen. Hornborg iloitsee varsinkin nuorten ravintolakäyttäytymisestä. Nuoret aikuiset panostavat elämyksiin ja luksukseen aiempia sukupolvia enemmän. 
-</t>
+          <t>Ympäristöliike Elokapinan aktivistit ovat voittaneet Helsingin poliisin hallinto-oikeudessa kiistassa rahankeräyksistä.Helsingin poliisi oli kieltänyt kaksi pienkeräystä, joilla oli tarkoitus kerätä rahaa Elokapinan aktivistien oikeudenkäyntikuluihin. Poliisi vetosi rahankeräyslain kohtaan, jonka mukaan keräystä ei saa järjestää selvästi yleistä järjestystä tai turvallisuutta vaarantavan tai lainvastaisen toiminnan rahoittamiseksi.Hallinto-oikeus katsoi, että keräysten ensisijainen tarkoitus oli kerätä rahaa yksityishenkilöiden oikeudenkäyntikuluihin, ei Elokapina-liikkeen toimintaan. Näin ollen se kumosi poliisin päätökset.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1439,22 +1485,21 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Oletko vapaa­eh­toisesti sinkku? Kerro meille kokemuksesi, teemme juttua aiheesta</t>
+          <t>Histo­rial­linen hetki: Suomessa tehtiin aamulla tuuli­voi­maen­nätys</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071559</t>
+          <t>https://yle.fi/a/74-20071820</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Vapaaehtoisesta lapsettomuudesta on viime vuosina puhuttu paljon, mutta yleistyvä ilmiö on myös vapaaehtoinen sinkkuus.Vapaaehtoisesti sinkuiksi itsensä mieltävät eivät etsi parisuhdetta. He eivät myöskään toivo tai koe tarvitsevansa sellaista.Oletko sinä vapaaehtoisesti sinkku? Kerro meille, miksi ja millaista se on – teemme juttua aiheesta. Kokemuksesi voit kertoa alla olevalla lomakkeella: 
-</t>
+          <t>Kantaverkkoyhtiö Fingrid kertoi aamulla historiallisesta hetkestä: tuulivoima saavutti maanantaina klo 7.14 ensimmäistä kertaa yli 6 000 megawatin tehon.Ennätysmäärää eli 6070 megawatin tehoa tuli tosin vain hetken. Klo 7-8 välisen tunnin keskiarvo oli silti kova eli 5940 megawattia.– Kyllä, ennätys tuli. Koko maassa tuulee nyt aika kovaa ja se on saatu hyvin käyttöön. Enää eivät ole vaivanneet jäätymisongelmat kuin vielä viikonloppuna, sanoo valvomopäällikkö Arto Pahkin Fingridiltä.Tuulivoima on ylittänyt aamupäivällä selvästi ydinvoiman tuotannon, joka on ollut noin 4370 megawattia.Suomessa on myös tuotettu sähköä selvästi enemmän kuin kulutetaan. Esimerkiksi klo 10.23 Suomen kulutus oli noin 11 800 megawattia ja tuotanto runsaat 13 000 megawattia.Sähköä on viety naapurimaihin kuten Viroon, mutta olisi viety enemmänkin. Virossa sähkön hinta on nimittäin nyt selvästi korkeampi kuin Suomessa. Se olisi alhaisempi, jos vikaantunut sähkökaapeli Estlink 2:n olisi käytössä.– Onhan se harmi, kun eurooppalaisessa sähkömarkkinassa ollaan. Saataisi vietyä sähköä sinne missä se on kalleinta ja tasattua näin hintapiikkejä. Estlink 2:n vikaantumisen takia vientimahdollisuudesta puuttuu 650 megawattia Viron suuntaan, sanoo Pahkin.Maanantain ennätystuotannosta huolimatta uusiakin tuotantoennätyksiä voi vielä tulla. Suomen Tuulivoimayhdistyksen mukaan Suomessa on nyt 1601 tuulivoimalaa, joiden yhteenlaskettu teho on 6 946 megawattia (MW).</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1468,24 +1513,543 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ilta­pu­ku­yrittäjä halusi lahjoittaa ilmaiseksi satoja poistomekkoja – somemyrsky pakotti perumaan tapahtuman</t>
+          <t>Grafiikka näyttää, miksi Haaviston nousu kakkossijalta presidentiksi olisi histo­rial­linen</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071304</t>
+          <t>https://yle.fi/a/74-20071779</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Iltapuku Outletin turkulainen yrittäjä Hanna Granberg päätti lahjoittaa ilmaiseksi myymättä jääneitä tanssiaismekkoja.Lahjoitustapahtuman piti olla sunnuntaina, mutta Granbergin oli peruttava se turvallisuussyistä.– Somessa levitetyn dis- ja misinformaation takia meillä ei ole muuta vaihtoehtoa kuin perua. Saamamme tiedon mukaan meille ollaan järjestämässä jotain joukkotappelun kaltaista kähinää, Granberg kirjoittaa sosiaalisessa mediassa.Ylen puhelimitse tavoittama yrittäjä selventää, että yrityksen varastoihin on kertynyt muutamia satoja mekkoja, jotka eivät ole menneet kaupaksi edes pikkurahalla.Someilmoituksessa mekkoja kuvailtiin viallisiksi tai huonosti istuviksi. Alkuperäisenä ajatuksena oli lahjoittaa mekot esimerkiksi harrastajateattereille tai lasten leikkeihin.Avaa kuvien katseluSosiaalisessa mediassa paheksuttiin, miksei mekkoja tarjottu ensin vähävaraisille.  Kuva: Hanna GranbergTapahtuma herätti niin suurta mielenkiintoa, että Granberg pelkäsi, ettei pysty hallitsemaan paikalle saapuvaa väkijoukkoa.Kukaan ei ole Granbergin mukaan suoraan uhannut tappelulla, mutta kielenkäyttö on ollut sen suuntaista, että ”mennään sinne painimaan ja haetaan parhaat päältä”.Lisäksi tieto vääristyi.– Viesti vääntyi siihen muotoon, että tarjolla olisi unelmien tanssipukuja ilmaiseksi, Granberg harmittelee.Myös ainakin kaksi turkulaista lukiota on jakanut virheellisesti tietoa, että oppilaat voivat hakea tapahtumasta ilmaiseksi mieleisensä vanhojentanssimekon.Granberg on kertonut kouluille, että kyse on puvuista, jotka eivät ole kelvanneet kenellekään.– Eniten olen pahoillani nuorten puolesta. Minua surettaa, miten pahasti he pettyvät.Tutkija: Somekohuissa otetaan kantaa tunteellaHelsingin yliopiston sometutkija ja dosentti Janne Matikainen arvioi kohun olevan varsin tyypillinen sosiaalisessa mediassa syntynyt tapahtumaketju.– Nykyinen mediakulttuurimme tarvitsee kohuja. Kohujen määrä on esimerkiksi tutkimusten mukaan noussut politiikassa. Lisäksi ihmiset kaipaavat kohuja, ja niitä syntyy joskus myös ilman median avustusta, juurikin sosiaalisen median ryhmissä.Matikaisen mukaan somekohuissa tyypillistä ovat tunnekuohut ja joko tahalliset tai tahattomat väärinymmärrykset.– Asetelman pitää jotenkin pöyristyttää, jolloin reagointi on nopeaa, eikä sitä ajattele loppuun. Motiiveja voi olla myös erilaisia, jolloin vastakkainasettelua halutaan lisätä ja tahallaan ymmärretään väärin. Kohun kohteena oleva on näissä yleensä todella voimaton eivätkä oikaisuyrityksetkään aina auta.Avaa kuvien katseluLopulta Granberg löysi useita pieniä teattereita ja päiväkoteja, joten mekot pääsevät käyttöön. Puvustaja Tarja Siirtola-Virta haki niitä rooliasuiksi. Kuva: Hanna Granberg</t>
+          <t>
+</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>41</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Tulevan presidentin puoliso on ensimmäistä kertaa ulko­maa­lais­taus­tainen</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20071782</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Suomen seuraavan presidentin puoliso on ensimmäistä kertaa ulkomaalaistaustainen.Toiselle kierrokselle nousseiden kokoomuksen ehdokkaan Alexander Stubbin sekä kansalaisliikkeen ja vihreiden tukeman Pekka Haaviston puolisot ovat molemmat syntyneet ulkomailla.Stubbin puoliso Suzanne Innes-Stubb on englantilainen. Hän on syntynyt Solihullissa. Haaviston puoliso Antonio Flores on ecuadorilainen. Hän on syntynyt Esmeraldasissa.Puolisoilla voi olla merkitystä toisella kierroksellaToisen kierroksen äänestyspäätöksissä myös puolisot voivat olla ratkaisevassa roolissa, pohdittiin illan vaalilähetyksessä.Puolisolla ei ole lakiin kirjoitettua virallista roolia, mutta hänellä on paljon edustustehtäviä. Molempien kärkiehdokkaiden puolisot ovat todenneet pohtineensa, millaisen roolin ottaisivat tulevassa asemassaan valtionjohtajan rinnalla ja maan ykköspuolisona.– Osalla voi nousta harkintaan, voiko puolisona olla homoseksuaali. Voiko presidenttipari olla homopari heteroparin sijaan. Tämä ei ollut kampanjoinnin keskiössä, mutta tätäkin asiaa saattaa moni äänestäjä miettiä, totesi Ylen politiikka- ja yhteiskuntatoimituksen päällikkö Paula Pokkinen.Toisaalta Pokkinen katsoo, että Haaviston etuna saatetaan pitää myös sitä, että hän uskaltaa olla oma itsensä. Se voi olla myös etu Suomen maakuvalle joissakin asioissa.Vaalikampanjoinnin uskotaan kuitenkin säilyvän maltillisina ja kaikkia osapuolia kunnioittavana myös toisella kierroksella.Molemmat pitäisivät esillä perheiden asioitaEnnen vaaleja Suzanne Innes-Stubb toivoi, että hän voisi presidentin puolisona näyttää, kuinka paljon Suomi hänelle merkitsee.Erityisesti hän haluaisi puolisona edistää perheiden hyvinvointia, ehkäistä syrjäytymistä ja tuoda ihmisiä yhteen musiikin ja urheilun avulla.– Lisäksi haluaisin osallistua lähisuhdeväkivallan vastaiseen työhön, Innes-Stubb sanoi.Antonio Flores puolestaan kertoi ennen vaaleja haluavansa presidentin puolisona edistää lasten ja nuorten asiaa.– Suomessa on paljon apua tarvitsevia lapsia ja nuoria. On tärkeää, että lapset saavat koulutusta, heillä on koti ja rakkautta, Flores totesi.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>42</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Vaalien tulos kertoo ainakin neljästä ilmiöstä</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20071725</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Presidentinvaalien ensimmäinen kierros päättyi ennakko-odotusten mukaisesti. Gallupkyselyiden kärjessä keikkuneet kokoomuksen ehdokas Alexander Stubb ja valitsijayhdistyksen ehdokas, vihreiden Pekka Haavisto jatkavat rinta rinnan vaalien toiselle kierrokselle. Heistä toinen saa täyttääkseen kaksi kautta istuneen tasavallan presidentti Sauli Niinistön saappaat.Vaikka vaalien ensimmäisen kierroksen lopputulos ei tuonut merkittäviä yllätyksiä, vaalitulos kertoo kuitenkin ainakin neljästä asiasta.1. Äänet keskittyvät kärkiehdokkaillePresidentinvaaleissa gallupkyselyt ovat yleensä pitäneet hyvin kutinsa. Vaaliasetelma muotoutui jo varsin varhaisessa vaiheessa kahden kamppailuksi.Ilmiö ruokkii itseään. Puhutaan niin sanotusta voittajan vankkurit -ilmiöstä, jossa kannatusmittaukset ohjaavat äänestäjien käyttäytymistä.Ylen kannatuskyselyissä Stubb ja Haavisto ovat pitäneet lokakuusta alkaen tiukasti kiinni kärkipaikoista.Lokakuussa Stubbia kannatti kantansa ilmoittaneista 22 prosenttia ja Haavistoa 29 prosenttia. Sittemmin Stubb paahtoi Haaviston ohi. Tuoreimmassa kannatuskyselyssä Stubbin kannatus oli 27 prosenttia ja Haaviston 23 prosenttia.Vaaleissa Haavisto keräsi Ylen kyselyä kovemman kannatuksen.
+Ainoastaan perussuomalaisten Jussi Halla-aho onnistui viime metreillä kirimään kärkeä kiinni. Halla-ahon kannatus nousi lokakuun kahdeksasta prosentista tuoreimman kannatusmittauksen 18 prosenttiin. Noste ei kuitenkaan riittänyt siivittämään Halla-ahoa kisassa toiselle kierrokselle.Presidentinvaaleissa tulos oli kuitenkin perussuomalaisille puolueen historian paras.
+2. Taktinen äänestäminenTiiviisti äänten keskittymiseen kytkeytyvä ilmiö on niin sanottu taktinen äänestäminen. Ilmiö on varmasti heijastunut presidentinvaalien tulokseen.Taktikointia voidaan käyttää siten, että omaa ääntä ei anneta ensisijaiselle ehdokkaalle vaan jollekin kärkiehdokkaista. Tavoitteena on estää jonkin tietyn ehdokkaan pääsy toiselle kierrokselle. Asiantuntijat ovat painottaneet, että taktisessa äänestämisessä ei ole mitään väärää, vaan oikeus äänestää myös jotakin vastaan kuuluu demokratiaan.Voimakkaimmin tämä näkyy vasemmiston kannattajien järjestäytymisestä Haaviston taakse. Haaviston taakse asettui paljon vasemmistoliiton ja SDP:n kannattajia. Vasemmistoliiton ehdokkaan Li Anderssonin ja SDP:n ehdokkaan Jutta Urpilaisen yhteenlaskettu kannatus jäi alle kymmeneen prosenttiin.3. Suomalaiset lähtivät uurnille – laiskasti alkaneesta vaalitaistosta huolimattaVaalikampanjoinnin aikana etenkin kärkiehdokkaiden välisiä eroja sai etsiä suurennuslasin kanssa. Tämä ei kuitenkaan syönyt kansalaisten äänestysintoa. Ennakkoäänestys oli ennätysvilkasta, ja äänensä kävi antamassa ennakkoon 44,6 prosenttia äänioikeutetuista.Esimerkiksi tiukan ehdokasasetelman on arvioitu voineen vaikuttaa äänestyshaluihin.Suomalaisten äänestysaktiivisuus kipusi vaalien ensimmäisellä kierroksella 74,9 prosenttiin. Aktiivisimmin äänioikeutetut äänestivät Helsingin vaalipiirissä, jossa äänestysprosentti oli 78,5. Manner-Suomen matalin äänestysaktiivisuus oli Savo-Karjalan vaalipiirissä, 71,8 prosenttia.Äänestysaktiivisuus oli kuitenkin kaikissa vaalipiireissä korkeampi kuin viime presidentinvaalissa. Vuoden 2018 vaalissa kotimaan äänestysprosentti jäi 69,9 prosenttiin.4. Toisesta kierroksesta voi tulla tiukkaEnsimmäisellä kierroksella Stubbin ja Haaviston äänisaaliiden ero oli pieni, alle 50 000 ääntä. Haavisto lähtee vaalien toiselle kierrokselle altavastaajan asemasta.Kärkiehdokkailla on nyt täysi työ houkutella taakseen niitä äänestäjiä, jotka eivät äänestäneet heitä ensimmäisellä kierroksella.Esimerkiksi valitsijayhdistyksen ja keskustan ehdokkaan Olli Rehnin äänipotin jakautuminen toisella kierroksella on kiinnostavaa. Sama pätee myös muun muassa perussuomalaisten Halla-ahon kannattajien äänten jakautumiseen. Rehn ja Halla-aho kahmaisivat vaalien ensimmäisellä kierroksella annetuista äänistä yli kolmanneksen.Stubb ja Haavisto eivät ole kampanjoinnissaan tuoneet esiin merkittäviä linjaeroja esimerkiksi ulko- ja turvallisuuspolitiikassa. Kyseessä on kuitenkin henkilövaali, joten presidenttiehdokkaan persoonallakin on merkitystä.Vaalien toisella kierroksella ehdokkaiden täytyy pystyä vakuuttamaan äänestäjät omasta paremmuudesta presidentin pestiin.Pian nähdään, kuinka he siinä onnistuvat.
+Presidentinvaalien toisen kierroksen ennakkoäänestys alkaa ensi keskiviikkona. Ennakkoäänestysaika päättyy 6. helmikuuta. Vaalipäivä on sunnuntai 11. helmikuuta.Korjattu 29.1. klo 8.14: Manner-Suomen matalin äänestysaktiivisuus oli Savo-Karjalan vaalipiirissä, ei Lapin vaalipiirissä.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>43</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Jukka Jalonen arvostaa Patrik Laineen ratkaisua: ”Silloin on tosi kyseessä”</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20071906</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Columbus Blue Jacketsin suomalaishyökkääjä Patrik Laine kertoi Instagram-tilillään hakeutuneensa NHL-pelaajien tukiohjelmaan mielenterveyteen liittyvien syiden takia.– Jääkiekko on ollut intohimoni ja elämäni, mutta pystyäkseni pelaamaan parhaalla tasollani minun on otettava aikaa itselleni, Laine muun muassa totesi.Laineen kahdeksan vuoden takaisten nuorten MM-kisojen kautta tunteva Suomen miesten jääkiekkomaajoukkueen päävalmentaja Jukka Jalonen antaa arvoa suomalaispelaajan rohkeudelle hakea apua.– Jos lähtee hoito-ohjelmaan mukaan, silloin ollaan oikeilla jäljillä ja on tosi kyseessä. Hieno homma, että hän on tällaiseen ratkaisuun päätynyt. Jos on kokenut, että on jotain ongelmia, on hyvä laittaa ne kuntoon.– Jääkiekko on vain jääkiekkoa. Muu elämä on kuitenkin tärkeämpää, Jalonen lisää.Viime vuosina monet huippu-urheilijat ovat kertoneet avoimesti mielenterveydellisistä haasteistaan. Niin myös jääkiekkoilijat.Jalonen on mielissään suuntauksesta.– Erittäin tärkeä asia, sillä ongelmia on mielenterveyspuolellakin. Niitä voi olla ihan kaikilla ihmisillä riippumatta siitä, mitä tekee toimeentulonsa eteen.– Se vaatii rohkeutta, mutta uskon, että se antaa myös mahdollisuuden olla rohkea ja mennä esimerkiksi rohkeasti hoitoon. Se varmasti auttaa sitten siviilielämässä ja omassa ammatissa jatkossakin.Tukiohjelmassa olevat pelaajat saavat palkkaa tavalliseen tapaan. Sinne on ohjattu esimerkiksi erilaisista riippuvuksista tai mielenterveysongelmista kärsiviä pelaajia.Laine on pelannut viimeksi puolitoista kuukautta sitten.Mikä on NHL:n pelaajien tukiohjelma?NHL:n ja sen pelaajayhdistyksen NHLPA:n tukiohjelma on tarkoitettu pelaajille ja heidän perheilleen, jotka kamppailevat esimerkiksi päihde- tai mielenterveysongelmien kanssa.Ohjelma antaa pelaajille esimerkiksi luottamuksellisen puhelinsoittolinjan ja tukiohjelman ohjaajia on jokaisessa liigakaupungissa.Pelaajalle ei ole asetettu aikaa, joka hänen tulee viettää ohjelmassa. Pelaaja ei kuitenkaan voi poistua ohjelmasta ennen kuin sitä vetävät ihmiset ovat antaneet siihen luvan.Pelaajien yksityisyys on ohjelman ydin, joten tapahtumista tai syistä liittyä ohjelmaan ei kerrota julkisuuteen. Urheilijat voivat kuitenkin itse halutessaan kertoa asiasta.Tukiohjelma perustettiin vuonna 1996.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>44</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Patrik Laine kertoi syyn NHL:n tukiohjelmaan hakeu­tu­miselle: ”Minun on laitettava mielen­ter­veyteni etusijalle”</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20071795</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Eilen uutisoitiin Patrik Laineen hakeutuneen NHL-pelaajien tukiohjelmaan. Suomen aikaa viime yönä Laine kertoi Instagram-tilinsä stories-osiossa syyn ratkaisulleen. Hän sanoi tarvitsevansa tauon jääkiekosta.– Tarkan harkinnan ja joukkueen sekä tukiverkostoni kanssa käymien keskustelujen jälkeen, olen ymmärtänyt, että minun on laitettava mielenterveyteni sekä hyvinvointini etusijalle, Laine kirjoitti.– Jääkiekko on ollut intohimoni ja elämäni, mutta pystyäkseni pelaamaan parhaalla tasollani minun on otettava aikaa itselleni.Laine on pelannut tällä kaudella 18 ottelua ja tehnyt tehopisteet 6+3. Laitahyökkääjä on edustanut Columbusta vuodesta 2020 saakka ja tehnyt 174 ottelussa 138 tehopistettä.Tehopisteiden valossa Laineen paras kausi on hänen toinen NHL-kautensa Winnipegissä, jolloin hän laukoi 44 maalia ja keräsi 26 pistettä.Avaa kuvien katseluLaine (vas.) loukkasi solisluunsa tässä tilanteessa joulukuussa. Kuva: John E. Sokolowski-USA Today Sports/All Over PressLaine ei kertonut tarkempaa aikataulua prosessilleen. Hän kiitti seurayhteisöä ymmärryksestä.– Olen kiitollinen ymmärryksestä ja tuesta liigalle, seuralle sekä faneillemme. Odotan paluuta jäälle kirkkaalla mielellä ja uudella energialla, Laine totesi tilillään.– Kiitos, että kunnioitatte yksityisyyttäni tänä aikana ja tuette minua, Laine päätti.Tukiohjelmassa mukana olevat pelaajat saavat palkkaa tavalliseen tapaan. NHL:n ja pelaajayhdistyksen tukiohjelmaan on ohjattu esimerkiksi erilaisista riippuvuuksista tai mielenterveysongelmista kärsiviä pelaajia.Mikä on NHL:n pelaajien tukiohjelma?NHL:n ja sen pelaajayhdistyksen NHLPA:n tukiohjelma on tarkoitettu pelaajille ja heidän perheilleen, jotka kamppailevat esimerkiksi päihde- tai mielenterveysongelmien kanssa.Ohjelma antaa pelaajille esimerkiksi luottamuksellisen puhelinsoittolinjan ja tukiohjelman ohjaajia on jokaisessa liigakaupungissa.Pelaajalle ei ole asetettu aikaa, joka hänen tulee viettää ohjelmassa. Pelaaja ei kuitenkaan voi poistua ohjelmasta ennen kuin sitä vetävät ihmiset ovat antaneet siihen luvan.Pelaajien yksityisyys on ohjelman ydin, joten tapahtumista tai syistä liittyä ohjelmaan ei kerrota julkisuuteen. Urheilijat voivat kuitenkin itse halutessaan kertoa asiasta.Tukiohjelma perustettiin vuonna 1996.AvaaLaineen kausi on ollut tynkä, sillä hän sai solisluuvamman 14. joulukuuta ottelussa Torontoa vastaan. Hän palasi joukkueen harjoituksiin 19. tammikuuta. Päävalmentaja Pascal Vincent paljasti ennen sunnuntain Vancouver-ottelua, että Laineen solisluuvamman kanssa on tullut takapakkia eikä hän pysty vielä pelaamaan.Laine on pelannut viimeksi joulukuun puolivälissä.</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>45</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Lehti: EU uhkaa iskeä Unkarin talouteen, jos Orbán estää avun Ukrainalle</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20071814</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>EU:ssa on laadittu suunnitelma Unkarin talouteen iskemisestä, jos maa estää avun Ukrainalle tällä viikolla järjestettävässä huippukokouksessa. Salaisesta suunnitelmasta kirjoittaa The Financial Times -lehti.Lehden näkemissä dokumenteissa EU:n virkamiehet ovat hahmotelleet, miten Unkarin taloudellisiin heikkouksiin iskettäisiin. Tarkoituksena on muun muassa viedä sijoittajien luottamus ja näin heikentää Unkarin valuuttaa, työllisyyttä ja kasvua. Suunnitelma pantaisiin täytäntöön, jos Unkari edelleen estää Ukrainan tukemisen.Unkarin itsevaltainen pääministeri Viktor Orbán esti EU:n 50 miljardin euron tukipaketin Ukrainalle joulukuussa. Muut maat olisivat hyväksyneet tukipaketin, mutta paketin hyväksyminen olisi vaatinut yksimielisyyden.Jos Orbán ei peräänny tämän viikon huippukokouksessa asiassa, suunnittelee EU Unkarin rahoittamisen keskeyttämistä. EU ei kommentoinut vuotoa The Financial Timesille.Taipuuko Unkari?Ilman rahoitusta finanssimarkkinat ja kansainväliset yhtiöt voisivat menettää kiinnostustaan sijoittaa Unkariin, suunnitelmassa todetaan. Dokumentin mukaan Unkarin julkinen talous on erittäin alijäämäinen, inflaatio on korkea ja valuutta heikko. Myös maan lainanhoitokulut ovat EU:n korkeimmat.Unkarin EU-ministeri János Bóka sanoi The Financial Timesille, ettei Unkari ole tietoinen EU:n talousuhkasta, mutta että maa ei aio antaa periksi.Bókan mukaan Ukrainan tukemisella ja Unkarin saamalla EU-rahoituksella ei ole yhteyttä.Unkari on kuitenkin lähettänyt kompromissiesityksen Brysseliin lauantaina, jonka mukaan se olisi nyt valmis käyttämään varoja EU:n budjetista Ukrainan tukemiseen.</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>46</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Mikael Lahtinen kuntoilee työajalla tunnin joka päivä – sairaus­lomalla hän ei ole ollut kohta kolmeen vuoteen</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20071078</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Punaiset köydet viuhuvat kuin piiskat.Mikael Lahtinen, 26, tiristää vielä muutaman vedon ja hengähtää. Kesken työpäivän tehdyn salitreenin jälkeen työpöydän ääreen palaa mies, jolla on tuoreita ideoita.– On taas tarmoa tehdä asioita. Sellainen hyvällä tavalla kaoottinen olo, Lahtinen toteaa hymyillen.Turkulainen mainostoimisto Tagomo tarjoaa työntekijöilleen mahdollisuuden liikuntaan jokaisena työpäivänä. Työajalla saa liikkua päivittäin tunnin ajan.Mainostoimiston tarkoituksena on muuttaa työntekokulttuuria.– Uskon, että suomalaisilla yrittäjillä on mahdollisuus ottaa haaste harteilleen. Yhteiskunta voi huonommin kuin koskaan. Siitä puhutaan paljon. Puheiden aika on ohi, nyt tarvitaan tekoja, sanoo yrittäjä Petri Elovaara.Elovaara voi seistä ryhdikkäänä sanojensa takana, sillä liikuntaetu on ollut osana hänen yrityksensä arkea jo viiden vuoden ajan. Tulokset puhuvat puolestaan.Tunti liikkumista lisäsi työtehoa hurjastiYrittäjä Petri Elovaara rämpi läpi loppuunpalamisen vajaa kymmenen vuotta sitten. Liiallinen työnteko ja liikkumisen vähyys johtivat tilanteeseen, jossa oli pakko havahtua hyvinvoinnin tärkeyteen.– Vuonna 2018 päätimme kokeilla liikunnan merkitystä. Jotkut olivat innoissaan, toiset sanoivat, ettei kiinnosta. Pidimme päämme siinä, että testataan kolme kuukautta ja tarvitsemme kaikkia, jotta saamme relevanttia dataa.Oli ohjattua liikuntaa, hikiliikuntaa ja steppaamista portailla.Kun oli liikuttu joka keskiviikko kolmen kuukauden ajan, mainostoimistossa mitattiin vaikutuksia seuraamalla työmääriä, myyntilukuja, tuotannon tehokkuutta ja sisällöntuotantoa.– Keskiviikkopäivät, vaikka olivat tunnin lyhyempiä, olivat 152 prosenttia tehokkaampia. Se on valtava lukema. Totesimme, että tämä on vain kotiinpäin. Annoimme ihmisten harrastaa liikuntaa joka työpäivä.Nyt liikuntaetua käyttää yrityksen työntekijöistä aktiivisesti alle puolet. Osa liikkuu silloin tällöin.Yrittäjä Petri Elovaara uskoo, että työntekijöiden hyvinvointiin satsaaminen maksaa jokaisen euron takaisin moninkertaisesti. Liikunnalliselle Mikael Lahtiselle kuntoilu työpäivän aikana on isompi juttu henkisesti kuin fyysisesti.– Sairauspoissaoloja on kahden ja puolen vuoden ajalta nolla. Omasta näkökulmastani tämä on työnantajalle hyvä investointi.Lahtinen pohtii työnantajan saavan paljon sitoutuneemman, hyvinvoivemman ja terveemmän työntekijän. Samalla hän itse palautuu ja jaksaa paremmin.Mikael Lahtinen yrittää ajoittaa liikunnan ennen lounasta tai heti sen perään. Tiiminjohtajana hän haluaa olla roolimalli ja ilahtuu saadessaan työkavereista seuraa lenkille tai salille.– Kävelylenkit tekevät myös hyvää. Etätöissä, kun pää jumittaa, koiran kanssa ulkoilu tekee ihmeitä.Avaa kuvien katseluRauta nousee ja pää nollaantuu, kun Mikael Lahtinen käy kuntosalilla kesken työpäivän.  Kuva: Arttu Kuivanen / YleAjattelutapa vaatii muutostaJopa 95 prosenttia työnantajista tukee työntekijöidensä liikkumista, selviää työikäisten liikkumista tukevan Liikkuva aikuinen -ohjelman tekemästä tutkimuksesta.Tutkimuksen mukaan työnantajan tarjoamat liikuntasetelit ja kuntosalikortit lisäävät työhyvinvointia, mutta rahallinen liikuntaetu jää käyttämättä kolmasosalta palkansaajista.Liikuntalääketieteen erikoislääkäri Harri Helajärvi Paavo Nurmi -keskuksesta ei pidä liikuntaseteleitä tai kuntosalikortin tarjoamista vääränä tapana lisätä liikkumista. Aina se ei kuitenkaan riitä.– Tätä pitäisi ajatella perinteisen lähestymistavan ulkopuolelta. Olisi mietittävä, mikä toimii juuri meidän työyhteisössämme ja mikä olisi erilaisille työntekijöille sopivaa ja innostavaa liikkumista, Helajärvi sanoo.Liian vähäisen liikunnan terveyshaitoista on puhuttu pitkään. Sen sijaan vaikutukset pitkällä aikavälillä voivat yllättää.Ennusteen mukaan 2040-luvulla 50-vuotiaista miehistä vain kaksi prosenttia on hyvässä kunnossa, jos nykyinen kehitys jatkuu.Työpaikalla on suuri rooli siinä, miten ihmiset saadaan liikkumaan.– Liikuntaa ja liikettä tukevan kulttuurin lisääminen työpaikalla kasvattaa usein työntekijän liikuntaa myös vapaa-aikana. Oikein toteutettuna se voi motivoida ja sitouttaa työntekijöitä, Helajärvi toteaa.Suomessa ollaan kuitenkin jo nyt muuta maailmaa edellä.– Se, että työajalla voi liikkua, on vielä hyvin erikoista muualla Euroopassa, toteaa liikunnan aluejärjestö LiikUn aluejohtaja Jukka Läärä.</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>47</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Suomen hiihtäjien surkeus hämmästyttää – Aino-Kaisa Saarinen tarjosi loogisen syyn ja ihmetteli tähden kommentteja</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20071738</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Mikä puhuttaa?Suomalaisten huonous vapaalla hiihtotavalla nousi taas esiin, kun hiihdon maailmancupissa Gomsissa kilpailtiin suomalaisittain heikommalla tavalla viikonloppuna.Yle Urheilun asiantuntija Aino-Kaisa Saarinen joutui jatkuvasti sunnuntaina selittämään Urheilustudion chatissa katsojille suomalaisten surkeutta.Saarinen näkee asian monisyisenä, mutta nostaa esiin yhden asian.– Vapaa hiihtotapa vaatii jalkojen lihaskestävyydeltä todella paljon. Sen kanssa pitäisi varmasti tehdä töitä todella rajusti. On varmasti tehtykin, mutta jotain siihen pitäisi keksiä, Saarinen sanoo.Toisaalta jalkojen lihaskestävyys kuulostaa maallikon korviin aika yksinkertaiselta asialta korjata. Saarinen muistuttaa, että näin ei välttämättä ole isossa kuvassa.– Ruotsista, Norjasta ja Keski-Euroopasta löytyy vuoria ja etenkin pitkiä nousuja. Kyseisten maiden hiihtäjät ovat nuoresta pitäen nousseet sellaisia, Saarinen arvioi.15-kertainen arvokisamitalisti muistuttaa, että kyseessä on silti vain hänen spekulaationsa.– Maajoukkueurheilijat pääsevät Keski-Eurooppaan ja pitkiin nousuihin, mutta onko kyse jo nuoruuden ajan ongelmista? Lapsena ja nuorena ei ole mahdollista päästä kehittämään samalla lailla lihaskestävyyttä, kun Suomessa ei ole vuoria, Saarinen havainnollistaa.Norjan Johannes Hösflot Kläbo otti viikonloppuna kaksi kirivoittoa. Sunnuntaina  Kläbo ei antanut Simen Hegstad Krügerin yllättää häntä loppukirissä.Kuka yllätti?Urheilustudio-viikonlopun suurin yllättäjä oli mäkihyppääjä Niko Kytösaho. Hän oli peräti seitsemäs lentomäen MM-kisoissa.Kytösaho ei ole edes ollut koskaan maailmancupissa kymmenen parhaan joukossa. Viimeksi kovempaa suomalaismenestystä lentomäen MM-kisoissa on nähty 16 vuotta sitten. Tuolloin oli kolme suomalaista kymmenen joukossa, Janne Ahonen oli heistä paras kisan kolmantena.Niko Kytösaho upeasti seitsemänneksi lentomäen MM-kisoissa Ahonen taustoitti jo aiemmin Kytösahon yllätyksen syitä, mutta palasi myöhemmin Urheilustudiossa myös 16 vuoden takaisiin tunnelmiin. Vuoden 2008 lentomäen MM-kisat olivat viimeiset, mistä Ahonen sai mitaleita urallaan. Sen kevään jälkeen hän lopetti, mutta palasi vielä takaisin kilpailemaan.Ahonen paljasti Urheilustudiossa katuneensa ensimmäistä lopettamisratkaisua.– Tietysti ei sille mitään voi. Se on elämää. Sillä hetkellä tuntui siltä. Kadun lopettamispäätöstä, koska lopetin vääristä syistä. Halua hypätä olisi oikeasti ollut. Huomasin sen myöhemmin. Tuli vähän painostusta, että huipulla on hyvä lopettaa ja sille olisi nyt hyvä aika. Kompastuin enemmän muiden mielipiteisiin kuin olisin miettinyt omiani, Ahonen kuvaili.Mitä ihmettä?Suomalainen penkkiurheilukansa on toistuvasti toivonut, että Urheilstudion asiantuntijakaarti haastaisi toisiaan ja tekisivät mitä eriskummallisia haasteita. Nyt toiveeseen on vastattu.Viikonloppuna alkoi uusi Urheilustudion Tehtävä. Janne Ahonen ja Kalle Palander haastettiin opettelemaan breakdancea viikon ajan.Ahonen oli vielä sunnuntaina mielikuvaharjoittelun parissa.– Tavoitteena on, että olisimme uskottavia breikkaajia. Uskon, että meistä tulee uskomattomia breikkaajia, Ahonen kuvaili.Urheilustudion Tehtävän breakdancehaaste on käynnissä – äänestä suosikkiasi ja voita Urheilustudion pinkki pipo!26.1.Kuka floppasi?Aino-Kaisa Saarinen nostaa viikonlopun flopiksi kokonaisuudessaan Suomen hiihtomaajoukkueen. Suomella kulki asiantuntijan mielestä maltillisiakin odotuksia mollivoittoisemmin.Suomen joukkueesta paistoi silmään etenkin Krista Pärmäkoski. Vuosikausia Suomen kärkihiihtäjiin kuulunut Pärmäkoski oli 20 kilometrin kisassa vasta 38:s.Pärmäkoski jäi yli kolme minuuttia kärjestä. Hän on viimeksi ollut normaalimatkan kilpailussa yhtä heikko yli 15 vuotta sitten. Joulukuussa 2008 Davosissa Pärmäkoski oli myös 38:s. Tuo kilpailu oli hänen uransa kolmas maailmancupissa.Avaa kuvien katseluKrista Pärmäkosken tilanne on tällä hetkellä kysymysmerkki. Kuva: Kimmo Brandt / All Over PressPärmäkoski antoi kilpailun jälkeen mystisiä kommentteja tilanteestaan. Hän kertoi tietävänsä syyt heikommalle menolleen, mutta ei halunnut avata niitä. Kalustopuolesta ei ollut kuitenkaan Pärmäkosken mukaan kyse.– Oli kyllä mystiset kommentit. Kun hän on lähtenyt kilpailemaan, ei voi olla vakavampaa syytä, Saarinen hämmästeli.Mitä seuraavaksi?Seuraavaksi Suomen parhaat hiihtäjät nähdään loppuviikosta Vantaan SM-kisoissa. Aino-Kaisa Saarinen odottaa innolla etenkin Iivo Niskasen kisaamista. Suomen ykköstähti on kilpaillut tällä kaudella säästeliäästi, mutta hänen on tarkoitus kilpailla Vantaalla kaikilla matkoilla.Maailmancup-kiertue jatkuu sen jälkeen Pohjois-Amerikassa. Ensiksi kilpaillaan Kanadan Canmoressa ja sitten siirrytään seuraavaksi Yhdysvaltoihin Minnesotaan. Maajoukkueen viime vuosien vakiohiihtäjistä Johanna Matintalo avautui sunnuntaina Yle Urheilun haastattelussa, kuinka kaikki eivät pääse lähtemään Pohjois-Amerikkaan Hiihtoliiton talousvaikeuksien takia.Aino-Kaisa Saarinen muistuttaa, että tilanne ei ole uusi. Vuoden 2001 Lahden dopingskandaalin jälkimainingeissa Hiihtoliiton taloustilanne ei ollut myöskään hirveän hyvä.Hiihtoliitto päätti loppuvuodesta 2005, että Suomi ei lähde lainkaan rapakon taakse maailmancup-kilpailuihin. Silloiset Suomen kärkinimet, kuten Saarinen, Virpi Sarasvuo ja Riitta-Liisa Roponen päättivät lähteä omalla kustannuksella alemman tason Alpen Cupin kilpailuihin Keski-Eurooppaan.– Eihän tilanne ole missään nimessä hyvä. Urheilijoilta nipistetään koko ajan, mutta minkäs teet. Ymmärrän, että lennot rapakon taakse maksavat aika paljon, Saarinen sanoi.Avaa kuvien katseluTiril Udnes Weng tuuletti viime kaudella Lahdessa maailmancupin voittoa. Tällä kaudella avaus viivästyi sairastelujen jälkeen. Hänkin kärsii Norjan liiton ratkaisusta säästää rahaa. Kuva: EPA-EFESuomi ei ole ainoa maa, joka tiivistää joukkojaan Pohjois-Amerikkaan lähtiessä. Mahtimaa Norjastakin Pohjois-Amerikkaan pääsevät vain niin sanotut punaisen ryhmän urheilijat. Se tarkoittaa, että moni huippunimi ei pääse kisoihin. Esimerkiksi kesken kauden maailmancupiin palannut kokonaiscupin hallitseva voittaja Tiril Udnes Weng tai tänä vuonna normaalimatkoilla kovia tuloksia takonut Jan Thomas Jenssen.Aino-Kaisa Saarinen näkee asian kaksipiippuisena.– Reissu on hirmukallis ja maastohiihto on pieni laji Yhdysvalloissa. Yhdysvaltojen markkinat ovat kuitenkin kokonaisuudessaan valtavat. Maastohiihtoa pitää tuoda siellä esiin. Jos sitä ei tuoda esiin, laji hukkuu Yhdysvaltojen lajipaljoudessa, Saarinen sanoo.Hän muistuttaa, että Pohjois-Amerikan kilpailut ovat nyt erityisen tärkeät, koska yhdysvaltalainen Jessie Diggins johtaa naisten kokonaiskilpailua.– Maastohiihto tulee varmasti saamaan huomiota nyt siellä. Nyt on todella tärkeä näyteikkuna maastohiihdolle. Kun hiihtourheilu kasvaisi siellä, raha valuisi jossain vaiheessa urheilijoillekin, Saarnen alleviivaa.</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>48</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Tutkijat kritisoivat Lapin oikeusasteita Kittilä-päätöksistä ‒ ”Lain tulkintaoppia on ehkä syytä kerrata pohjoisessa”</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20071751</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Kunnallisalan kehittämissäätiö KAKS on julkaissut Kittilän laajaa rikosvyyhtiä avaavan kirjan Kittilän opetukset. Siinä kritisoidaan varsin voimakkaasti Lapin tuomioistuinten Kittilä-tuomioissaan käyttämiä perusteluja, mutta ei oteta kantaa tuomioihin sinänsä.Polemia-sarjassa julkaistun kirjan ovat kirjoittaneet virkarikosasiantuntijana tunnettu emeritusprofessori Pekka Viljanen sekä kunta-asioita pitkään seurannut toimittaja Eeva-Liisa Hynynen.Tässä artikkelissa käydään läpi viisi keskeistä kommenttia kirjasta. Niitä kommentoi myös oikeustieteen ja hallintotieteiden tohtori Matti Muukkonen.Muukkonen toimii muun muassa dosenttina Lapin yliopistossa. Hänen erikoisalaansa ovat muun muassa kuntien talous ja toiminta.Avaa kuvien katseluMatti Muukkosen mukaan Kittilän opetukset -kirja on tarpeellinen puheenvuoro, sillä järjestelmä ei toimi tällä hetkellä. Kuva: Varpu Heiskanen / Itä-Suomen yliopisto                                              Lapin käräjäoikeus ja Rovaniemen hovioikeus eivät tässä vaiheessa kommentoineet kirjan väitteitä, sillä niillä on yhä käsittelyssä tai tulossa käsittelyyn samaan kokonaisuuteen kuuluvia juttuja – yli 10 vuotta vyyhdin aloittaneiden tapahtumien jälkeen.1. Lapin tuomioistuinten linjaukset mitätöisivät luottamushenkilöiden virkavastuunMatti Muukkonen sanoo, että hän ei itse käyttäisi Lapin tuomioistuimet -käsitettä. Hänen mukaansa jokainen tuomioistuin on itsenäinen ja jokainen tuomari toimii itsenäisesti virkavastuulla.‒ Mutta jos Lapin käräjäoikeus ja Rovaniemen hovioikeus olisivat olleet ne, jotka olisivat korkeimman oikeuden tasolla päättäneet näistä asioista, niin kovin erilaiselta virkavastuujärjestelmä näyttäisi, kuin mitä se perinteisesti on esimerkiksi kirjallisuudessa.2. Suomessa ei haluta tunnustaa korruptiota julkisen hallinnon ongelmaksiKittilän virkarikosjutuissa toimineet syyttäjät ovat todenneet, että päätösten taustalla on vaikuttanut rakenteellinen korruptio eli muut tarkoitusperät kuin kunnan edun ajaminen. Muukkonen kommentoi tätä kahdella eri tasoilla.‒ Ensinnäkin pitää muistaa, että Suomessakin korruptiotutkijat, erityisesti Vaasan yliopiston emeritusprofessori Ari Salminen, on jo vuosia kirjoittanut, että Suomen ongelma on piilo- ja rakenteellinen korruptio. Se on hyvin erilaista, kuin mitä esimerkiksi Transparency Internationalin CPI-indeksi mittaa.Muukkosen mukaan CPI-indeksi mittaa perinteisen ”katukorruption” tyyppisiä ilmiöitä, jotka eivät ole Suomelle tyypillistä. Meillä ongelmat liittyvät esimerkiksi viran täyttöön ja hankintoihin.‒ Kun olen kunnanjohtajanakin toiminut, niin siellä on erilaisia paikallisyhteisön paineita, että asioita pitäisi ajatella aina sen paikallisen hyvinvoinnin ja edun näkökulmasta.Viljanen ja Hynynen nostavat kirjassaan esiin ongelman, miten määritellään ”kunnan etu”. Muukkosen mukaan Kittilän virkarikosoikeudenkäynneissä käräjä- ja hovioikeuden näkemyksen mukaan kunnan etu oli paikallisuuden ajattelua, eli että kaikki menee kivasti kunnassa.‒ Oikeusvaltiossa kunnan edun pitäisi olla objektiivisempaa. Erityisesti, jos hallinnon oikeusperiaatteista nostetaan tarkoitussidonnaisuuden periaate ja puolueettomuusperiaate, eivät viranomaiset voi käyttää toimivaltaa muihin tarkoituksiin kuin mihin se niille on myönnetty.3. Lapin rikostuomioistuimet eivät huomioineet hallintotuomioistuinten päätöksiäKorkein hallinto-oikeus on periaatteessa kunta- ja hallintolakien ylin tulkitsija, mutta muun muassa Kittilää koskevien virkarikosjuttujen tuomioissa sen perusteluille tai päätöksille ei ole annettu käytännössä juurikaan painoarvoa.Muukkosenkin mukaan tuomioistuinten yhteistoimintaa tulisi parantaa silloin, kun käsitellään ilmiöitä, jotka selkeästi ketjuuntuvat toisiin.‒ Jos kunnassa tehdään päätös, jonka hallinto-oikeus kumoaa, niin siinä vaiheessa pitäisi arvioida sitä, että onko joku tehnyt virheen, josta pitää tulla jonkinlainen seuraamus. Sitä meillä harvemmin näkee tehtävän, ja se on tässä aidosti iso ongelma.Muukkosen mukaan oikeuslähdeopin perusteisiin kuuluu, että siviili- ja rikosasioissa pitäisi huomioida hallintolain käytössä annetut ratkaisut, mutta näin ei ole.‒ Meillä kerran meni sama asia sekä korkeimpaan hallinto-oikeuteen että korkeimpaan oikeuteen, jotka olivat eri mieltä keskenään siitä, miten tasa-arvolakia pitää tulkita. Niillä on siihen perustellusti mahdollisuus, mutta tietenkin oikeusvarmuuden ja oikeuden ennakoitavuuden näkökulmasta voisi olla parempi, että tulkinnat olisivat yhtenäisiä.4. Tuomioistuimet eivät saa olla heikoin lenkki, kun puututaan rakenteelliseen korruptioonPerustuslaki säätää, että kaikessa julkisessa toiminnassa on noudatettava tarkoin lakia. Muukkosen mukaan se koskee kaikkia, niin lainsäätämistä, tuomioistuinten toimintaa kuin hallintoakin.Muukkonen toivoo, että kaikki ottaisivat tämän tarkempaan kontrolliin toiminnassaan, myös Lapin tuomioistuimet.‒ Jotain kertoo se, että aika moni asia on joko kääntynyt tai mahdollisesti kääntymässä korkeimmassa oikeudessa toiseen suuntaan. Siinä mielessä lain tulkintaoppia on ehkä syytä kerrata myös siellä pohjoisessa.5. Kuntalakiin tulee lisätä kunnille velvollisuus torjua rakenteellista korruptiotaKirjan esitys kuntien velvollisuudesta torjua rakenteellista korruptiota on Muukkosen mukaan sinänsä hyvä ajatus. Eri asia on se, miten asia istuu kuntalakiin.‒ Kuntalain systematiikan kannalta se voisi olla vähän hankalaa. Pitäisi miettiä jotain muuta selkeää sääntelyä, jossa kuntien viranomaiset on osallistettu korruption torjuntaan.Itä-Suomen yliopistossa on käynnissä professori Emilia Korkea-ahon johtama hanke, jossa tutkitaan lobbausta ja sen aiheuttamia sokeita pisteitä kunnissa. Muukkonen odottaa innolla sen tuloksia.‒ On mielenkiintoista, jos päästäisiin pikkaisen enemmän sisään siihen, minkälainen oikeasti kuntien korruptiotilanne on, Muukkonen sanoo.Muukkonen tutkii itsekin kuntien virkarikoksia. Hänen mukaansa esimerkiksi ennen soteuudistusta kunnissa työskenteli noin 3/4 julkisesta sektorista. Viimeisen 10 vuoden aikana käräjäoikeuksissa on käsitelty hiukan toistasataa tapausta, jotka liittyvät kuntien toimintaan.‒ Se on vain neljäsosa tai viidesosa siitä, mitä tuomioistuimissa on käsitelty virkarikoksia. En usko, että kunnissa oikeasti olisi näin vähän tekoja suhteessa valtioon.Oikeusistuimet eivät kommentoiYle antoi Lapin käräjäoikeudelle ja Rovaniemen hovioikeudelle mahdollisuuden kommentoida kirjan sisältöä, mutta ne kieltäytyivät siitä.Lapin käräjäoikeuden laamanni Janika Kaski ja Rovaniemen hovioikeuden presidentti Jyrki Kiviniemi perustelivat asiaa sähköpostiviesteissä sillä, että Kittilän virkarikosvyyhtiin kuuluvia juttuja on edelleen kesken oikeuskäsittelyissä.KAKSin julkaisun Kittilän opetukset (Viljanen, Pekka ja Hynynen, Eeva-Liisa) voi ladata ilmaiseksi TÄÄLTÄ.KORJATTU 29.1. klo 17:14 Professori Emilia Korkea-ahon johtamassa hankkeessa tutkitaan lobbausta eikä korruptiota, kuten jutussa aiemmin väitettiin.</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>49</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ylen tulosilta keräsi miljoo­nay­leisöt ruutujen äärelle</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20071805</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Ylen tulosilta houkutteli valtavan määrä suomalaisia televisioiden ja muiden ruutujen äärelle sunnuntaina.Presidentinvaalien ensimmäisen kierroksen ääntenlaskennan etenemistä seurasi TV1:ltä alkuillasta keskimäärin 1,4 miljoonaa katsojaa. Isoin kiinnostus osui iltayhdeksään, jolloin tulosiltaa tapitti lähes 1,9 miljoonaa silmäparia. Kaikkiaan tulosilta tavoitti 2,6 miljoonaa suomalaista jossain vaiheessa lähetystä.Loppuiltaa kohti katsojien joukko harveni sitä mukaa kuin jännitys toiselle kierrokselle menijöistä alkoi hellittää. Kokonaisuutena television katsojamäärät olivat nyt pitkälti samat kuin kuusi vuotta sitten.Yle Areenassa tulosillan lähetys käynnistettiin 745 000 kertaa. Eniten klikkauksia kertyi iltakahdeksan ja -yhdeksän välillä.Ylen verkkosivuilta löytyneen tulospalvelun etusivulla kävi sunnuntaina 237 000 eri selainta. Sivunäyttöjä kertyi yli 1,3 miljoonaa kappaletta. Tulosillan chatissa oli 164 000 kävijää ja 6 600 kirjoittajaa. Viestijä tuli yhteensä 18 000 kappaletta.Televisiolähetyksen tiedot perustuvat Finnpanelin TV-mittaritutkimukseen. Verkkoluvut on koostettu Adobe Analytics -työkalun ja Ylen datapilven tietojen avulla.Korjattu kello 16.07: Yle Areenassa tulosiltaa ei käynnistetty yli miljoonaa kertaa. Miljoona ylittyi, jos mukaan lasketaan Ylen verkkosivuille upotetun lähetyksen luvut. Lisäksi juttuun päivitetty tietoja lähetyksen kokonaiskattavuudesta ja verkkopalveluiden käyttäjämääristä.</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>50</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Voittajat esiintyivät omilleen presi­dent­ti­parin elkein – tässä vaali-illan tärkeimmät kuvat</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20071745</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Koostimme tähän artikkeliin kuvat vaali-illan tunteikkaimmista käänteistä ja kiinnostavimmista yksityiskohdista.Voit hyppiä eri osioiden välillä sisällysluettelon avulla.Ensimmäisen kierroksen äänet saatiin laskettua sunnuntaina kello 23.34. Alexander Stubb (kok.) ja Pekka Haavisto (vihr.) jatkavat toiselle kierrokselle. Stubb sai äänistä 27,2 prosenttia. Haavisto keräsi 25,8 prosenttia äänistä.Vaalien toinen kierros huipentuu kahden viikon kuluttua.
+Toteutus vaati toimiakseen JavaScriptin.Stubb omilleen: ”Se kisa alkaa vasta nyt”Kiitospuheessaan Stubb sanoo pyytävänsä kannattajiltaan kolmea asiaa.Ensimmäiseksi hän sanoo, että seuraavat 13 päivää ”paiskitaan töitä ihan hulluna”. Toisekseen töitä tehdään nöyrästi. Kolmantena hän sanoo, että kampanja kunnioittaa ja arvostaa kilpailijaa ja käy rehdin kisan.Avaa kuvien katseluAlexander ja Suzanne Innes-Stubb esiintyivät kampanjaväelle kuin uusi presidenttipari.  Kuva: Silja Viitala / YleAvaa kuvien katseluMedia piiritti ensimmäisen kierroksen voittajan vaalivalvojaisissa.  Kuva: Silja Viitala / YleAvaa kuvien katseluStubbien hymyt toimivat täydellisessä synkronissa.  Kuva: Silja Viitala / Yle
+Toteutus vaati toimiakseen JavaScriptin.Haavisto kampanjaväelle: ”On tuhlattu kaikki rahat”Haavisto iloitsi siitä, että hän voitti gallupit ykköskierroksella. Kiitospuheessaan hän sanoi myös suoraan, että kampanja tarvitsee lisää rahaa.Lopuksi hän muistutti siitä, että kampanjan pitää tehdä töitä muiden puolueiden äänestäjien tavoittamiseksi.Avaa kuvien katseluHaavisto juhli paikkaansa kakkoskierroksella puolisonsa Antonio Floresin kanssa.  Kuva: Tuomo Björksten / YleAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluKaikki halusivat osansa gallupit peitonneesta presidenttiehdokkaasta. Kuva: Tuomo Björksten / Yle
+Toteutus vaati toimiakseen JavaScriptin.Tulos selvilläYksi kuva paljastaa Olli Rehnin tunteet vaalituloksesta.Avaa kuvien katseluOlli Rehn sanoi olevansa iloinen siitä, että hänen kannatuksensa peittosi gallupit, mutta hymy näytti kuitenkin olevan tiukassa.  Kuva: Tiina Jutila / YleAvaa kuvien katseluKipakoissa väittelyissä viime viikkona kohdannut porukka rentoutui vaalien ensimmäisen kierroksen tuloksen ollessa selvä.  Kuva: Tiina Jutila / YleAvaa kuvien katseluStubb lähti Helsingin kaupungintalolta tervehtimään kannattajiaan Pikku-Finlandiaan.  Kuva: Silja Viitala / YleAvaa kuvien katseluHalla-ahon loppukiri ei riittänyt toiselle kierrokselle. Kannatus oli kuitenkin kaksinkertainen perussuomalaisten edelliseen presidentinvaalitulokseen verrattuna.  Kuva: Benjamin Suomela / Yle
+Toteutus vaati toimiakseen JavaScriptin.Tunnelma tiivistyi kaupungintalollaAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluHarkimo, Aaltola ja Essayah eivät ainakaan vielä kertoneet, ketä äänestävät toisella kierroksella. Kuva: Silja Viitala / Yle
+Toteutus vaati toimiakseen JavaScriptin.Ylen ennuste saatiin kello 21Ehdokkaat vastaanottivat Ylen ennusteen Kaupungintalolla.Avaa kuvien katseluVaalien kolmen kärki kommentoi tilannetta ennakkoäänten jälkeen yhteishaastattelussa Helsingin kaupungintalolla. Kuva: Tiina Jutila / YleAvaa kuvien katseluJutta Urpilainen, Olli Rehn ja Li Andersson näyttivät voipuneilta yhteishaastattelussa. Olli Rehn myönsi pettymyksen, kun ei päässyt toiselle kierrokselle. Kuva: Silja Viitala / YleAvaa kuvien katseluMika Aaltola arvioi, että tulevat vaalit ”saavat nyt jäädä”. Kuva: Tiina Jutila / YleAvaa kuvien katseluHalla-aho skoolasi Stubbin kanssa: “kilpakumppanit saivat enemmän ääniä, näin tämä demokratia toimii”, hän sanoi Ylelle.  Kuva: Silja Viitala / Yle
+Toteutus vaati toimiakseen JavaScriptin.Ehdokkaat reagoivat ennakkoäänten tulokseenEnnakkoäänten tulos julkistettiin kello 20. Yhdet riemuitsevat, kun toisten naamat valahtavat.Ennakkoäänissä johdossa oli Alexander Stubb 28,3 prosentilla, toisena Pekka Haavisto (vihr.) 25,8 prosentilla, kolmantena Jussi Halla-aho (ps.) 16,1 prosentilla ja neljäntenä Olli Rehn (kesk.) 15,5 prosentilla.Avaa kuvien katseluAlexander Stubb ja Suzanne Innes-Stubb suutelivat, kun ennakkoäänien tulos oli selvinnyt. Kuva: Silja Viitala / YleAvaa kuvien katseluPekka Haavisto hymyili leveästi saatuaan ennakkoäänten tuloksen selville. Hänen vierellään olivat  Maria Ohisalo, Antonio Flores, Sofia Virta. Takana nyrkkiään nosti Panu Laturi. Kuva: Tuomo Björksten / Yle Avaa kuvien katseluRiikka Purra antoi Halla-ahon äänisaaliille aplodit. Kuva: Benjamin Suomela / YleAvaa kuvien katseluOlli Rehn ja vaimonsa Merja Rehn odottivat Anu Vehviläisen kanssa jännittyneenä ennakkoäänten tulosta keskustan puoluetoimistolla. Kuva: Tiina Jutila / YleAvaa kuvien katseluLi Andersson vaikutti tyytyväiseltä ennakkoäänten saaliiseen. Kuva: Mimmi Nietula / Yle
+Toteutus vaati toimiakseen JavaScriptin.Vaalivalvojaisten valmistelutPresidenttiehdokas Alexander Stubbin vaalivalvojaiset järjestettiin Pikku-Finlandiassa Helsingissä 28. tammikuuta 2024.Avaa kuvien katseluTuija Virtanen vaihtoi pikkukengät jalkaan saapuessaan Pikku-Finlandiaan. Kuva: Silja Viitala / YleAvaa kuvien katseluYlen tietojen mukaan Elina Valtonen sijaisti vatsatautiin sairastunutta puolueen puheenjohtajaa Petteri Orpoa.  Kuva: Silja Viitala / YleAvaa kuvien katseluStubb hymyili leveästi jo ennen ennakkoäänten julkistusta. Kuva: Silja Viitala / YlePekka Haaviston vaalivalvojaiset järjestettiin Kulttuuritehdas Korjaamolla Töölössä.Avaa kuvien katseluPekka Haavisto näytti peukkua kannattajilleen. Kuva: Tuomo Björksten / YleAvaa kuvien katseluEntinen puolustusministeri Elisabeth Rehn (r.) liittyi Haaviston tukijoihin.  Kuva: Tuomo Bjorksten / YleAvaa kuvien katseluVihreiden puheenjohtaja Sofia Virran hymy oli herkässä vaalivalvojaisten alussa. Kuva: Tuomo Björksten / YleJussi Halla-ahon vaalivalvojaiset pidettiin Apollo-klubilla Helsingissä.Avaa kuvien katseluFred Koroleff (oik.), Leena Kurikka(vas), Matti Putkonen, Markku Rissanen takana ja perällä Kalevi Tylli. Kuva: Benjamin Suomela / YleAvaa kuvien katseluToni Paussu, Helsingistä, Kike Elomaa ja Arto Luukkanen (oik.) tuulettaa. Kuva: Benjamin Suomela / YlePresidenttiehdokas Olli Rehnin vaalivalvojaisia vietiettiin keskustan puoluetoimistolla Helsingissä.Avaa kuvien katseluMaija Kymäläinen keskustanuorten varapuheenjohtaja asettelee Rehnin vaalipaitoja pöydälle vaalivalvojaisissa. Kuva: Tiina Jutila / YleAvaa kuvien katseluOlli Rehn vaimonsa Merja Rehnin kanssa keskustan puoluetoimistolla. Kuva: Tiina Jutila / YleAvaa kuvien katseluOlli Rehnin kannattajat ottavat ehdokkaan vastaan. Kuva: Tiina Jutila / YleLi Anderssonin vaalivalvojaisia vietetään yökerho Butchersissa Helsingissä.Avaa kuvien katseluLi Andersson ja Silvia Modig ottamassa selfietä vaalivalvojaisissa. Kuva: Mimmi Nietula / YlePresidenttiehdokas Jutta Urpilaisen (sd.) vaalivalvojaisia vietettiin ravintola Maxinessa Helsingissä.Avaa kuvien katseluDemarinuorten Ilona Rantala (vas) ja Sara Salonen vaalivalvojaisten glitterpisteellä. Kuva: Tiina Jutila / YleAvaa kuvien katseluTässä sai somistautua saapuessaan Urpilaisen juhliin.  Kuva: Tiina Jutila / YleAvaa kuvien katseluDemarinuorten Etta Melander ja Eero Toivonen pystyttivät Jutta-lakanan SDP:n vaalivalvojaispaikka ravintola Maximiin vievien hissien edustalle Helsingin Narinkkatorilla Kuva: Tiina Jutila / YleValitsijayhdistyksen ehdokas Mika Aaltolan vaalivalvojaiset järjestettiin ravintola Kappelin kellarissa Helsingin Esplanadilla.Avaa kuvien katseluMika Aaltolan koira haukkui innostuneesti ehdokkaan henkilöauton etupenkillä sateen kasteleman lasin takaa.  Kuva: Jani Saikko / YleAvaa kuvien katseluAaltola puhui kannattajilleen jo ennen ennakkoäänten julkistusta.  Kuva: Mimmi Nietula / Yle
+Toteutus vaati toimiakseen JavaScriptin.Suomi äänestiAvaa kuvien katseluJasper Tommila äänesti ensi kertaa presidentinvaaleissa.  Kuva: Silja Viitala / YleAvaa kuvien katseluMikko Karppanen äänesti Helsingin yliopistolla mukanaan tyttärensä Aino Karppanen. Kuva: Silja Viitala / YleAvaa kuvien katseluVarsinaisena vaalipäivänä äänet pudotettiin suoraan uurnaan. Kuva: Silja Viitala / YleAvaa kuvien katseluKuopion kaupungintalolle kertyi sunnuntaina jonoksi asti äänestäjiä.  Kuva: Sami Takkinen / Yle Presidenttiehdokkaita Alexander Stubb, Jussi Halla-aho, Olli Rehn ja Harry Harkimo (liik.) tallentuivat kuviin käydessään äänestämässä sunnuntaina.Avaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluTasavallan presidentti Sauli Niinistä äänesti Espoon Lähderannan koululla. Kuva: Markku Rantala / YleAvaa kuvien katseluAino ja Teemu Tuulari tulivat äänestämään lastensa Teon ja Tildan kanssa. Kuva: Silja Viitala / Yle
+Toteutus vaati toimiakseen JavaScriptin.</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>51</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Miten käy Halla-ahon äänten toisella kierroksella? Purra: Perus­suo­ma­laisille vaikea päätös</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20071773</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Perussuomalaisten presidenttiehdokas Jussi Halla-aho jää ulos toiselta kierrokselta 19 prosentin kannatuksellaan.Hän on kolmantena ensimmäisen kierroksen voittaneen kokoomuksen Alexander Stubbin ja valitsijayhdistyksen sekä vihreiden Pekka Haaviston jälkeen.
+Puheenjohtaja Riikka Purra (ps.) piti Halla-ahon tulosta hyvänä, vaikka toinen kierros jäi haaveeksi. Purra ei suostunut tukemaan haastattelussa kumpaakaan toiselle kierrokselle menevistä ehdokkaista. Hän ennakoi, että toisen kierroksen valinta on vaikea monelle perussuomalaisten kannattajalle.– Näyttää siltä, että on punavihreä vastaan liberaali oikeisto, joten on hyvin mielenkiintoista. Otaksun esimerkiksi, että monella perussuomalaisella on vaikea tehdä äänestyspäätöstä.Avaa kuvien katseluJussi Halla-ahon vaalivalvojaiset järjestettiin Apollo-klubilla Helsingissä. Kuva: Benjamin Suomela / YleAvaa kuvien katseluRiikka Purra juhli Halla-ahon ennakkoääniä vaali-iltana. Kuva: Benjamin Suomela / Yle
+</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>63</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Veera Kivirinnan uintiura uuteen nousuun poliisina – saavuttamaton unelma vetää yhä altaaseen: ”Kyllähän se kutkuttelee”</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20068958</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Veera Kivirinta saapuu Helsingin Mäkelänrinteen uimahallin pääovelle täsmällisesti sovittuna aikana kello 6.45.Normaalisti hän ilmaantuu aamuharjoituksiin viittä vaille seitsemän, mutta toimittajan pyynnöstä hän oli valmis heräämään hieman aiemmin kuvausten takia.Jokainen minuutti lepoa ja palautumista on tärkeää Kivirinnalle, joka kilpailee Euroopan huipputasolla rintauinnin sprinttimatkalla ja työskentelee samalla täysipäiväisesti vanhempana konstaapelina Helsingin poliisissa.Haastattelupäivänä Kivirinnan työpäivä poliisina alkaa uinti- ja kuntosaliharjoitusten jälkeen kello 13.00 käskynjaolla ja päättyy iltamyöhään partiovuoron jälkeen.– Ei ihan hirveästi jää aikaa mihinkään ylimääräiseen, Kivirinta naurahtaa.Kivirinnan arki kuluu pitkälti uima-altaassa ja partioautossa. Video: Kimmo Hiltunen / YleKivirinta harkitsi lopettamista jo 2020Kivirinnan poliisiuran alku osui vuoteen 2020, jolloin hänen tulostasonsa junnasi ja usko tekemiseen hiipunut.Lontoon vuoden 2016 pitkän radan EM-kisojen viidennestä sijasta oli ehtinyt kulua jo useampi vuosi, ja Lontoota seuranneissa arvokisoissa Kivirinnan kohtalona oli useimmiten karsiutua jatkouinneista maakiintiön takia, Jenna Laukkasen ja Ida Hulkon oltua nopeampia.Kun opinnot alkoivat Poliisiammattikorkeakoulussa lokakuussa 2020, kilpauransa lopettamista vakavasti harkinnut Kivirinta muutti Tampereelle ja antoi uinnille vielä yhden mahdollisuuden TaTU:n riveissä, Jere Jänneksen valmennuksessa.– Sitten se uinti lähtikin niin hirveään nousuun, että tässä sitä näköjään vielä ollaan, Kivirinta toteaa.Avaa kuvien katseluIso osa Kivirinnan arjesta kuluu Mäkelänrinteen uimahallissa Helsingissä. Kuva: Kimmo Hiltunen / YleNousu Euroopan kärkikahinoihinOpintojen ja työn alkamisen jälkeen Kivirinta on yltänyt uransa parhaimpiin sijoituksiin ja parantanut omia ennätyksiään, mikä on ruokkinut motivaatiota jatkaa.Vuoden 2020 jälkeen hän on ollut EM-kisoissa viides sekä pitkällä että lyhyellä radalla, uinut kaksi kertaa lyhyen radan MM-kisojen finaaleissa ja kahdesti MM-semifinaaleissa pitkällä radalla.Kehitysloikan takana on monta yksittäistä tekijää, joista moni liittyy uinnin ja opiskelun värittämään arkeen Tampereella.– Sun ei tarvitse miettiä uintia koko ajan. Mä uskon, että kun on joku toinen tärkeä asia elämässä urheilun lisäksi, se vaikuttaa siihen uimiseen ja urheiluun tosi paljon, Kivirinta avaa.Opiskelurytmiä pystyi muokkaamaan harjoitusten, leirien ja kisojen mukaan. Tampereelta löytyi uusia ystäviä, samanhenkistä uintiseuraa ja harjoituksista uutta ärsykettä Jänneksen johdolla.Lisäksi opinnot ja valmistumisen jälkeen työ toivat taloudellista turvaa urheilijalle, joka ei ole saanut kertaakaan urallaan suoraa rahallista tukea Suomen olympiakomitealta.Vaativa kaksoisura verottaaAvaa kuvien katseluMatti Mäki kantaa päävastuuta Kivirinnan valmennuksesta Helsingissä. Kuva: Kimmo Hiltunen / YleMäkelänrinteen uimahalli on tullut Kivirinnalle tutuksi sen jälkeen, kun hän muutti Helsinkiin työharjoittelun perässä vuonna 2022. Valmistumisen jälkeen hän jäi Helsinkiin, sillä hän sai vakituisen Helsingin poliisista.Tätä nykyä harjoitussuunnitelmat hallilla piirtää taululle Matti Mäki, mutta Kivirinta itse kantaa suurimman vastuun kokonaisuudesta.Henkistä ja fyysistä kuormitusta kertyy molemmista päivätöistä, mikä ei ole helppo yhtälö.– Mua on väsyttänyt viimeisen vuoden aikana enemmän kuin koskaan. Vaikka reenit ovat määrällisesti vähentyneet töiden takia, olen joutunut tekemään paljon töitä oman pään sisällä. On ollut raskasta ja rankkaa, mutta toisaalta myös palkitsevaa. Ja kyllä se tuloksissakin näkyy, että tämä on ollut ihan hyväksi, vaikka välillä tuntuu, että ei oikein jaksaisikaan.Avaa kuvien katseluKivirinnan päivät jatkuvat uimaharjoitusten jälkeen usein Urhean kuntosalilla. Kuva: Kimmo Hiltunen / YleKivirinnan haastattelupäivään mahtuu aamu-uintien lisäksi tunnin kuntosaliharjoittelu ja iltavuoro partioautossa. Seuraavana päivänä sama kaava toistuu. Vuorotyö määrittää sen, milloin Kivirinta voi harjoitella ja levätä.– Palautuminen on se mistä joutuu karsimaan kaikista eniten. Jos mulla on sitä vapaa-aikaa, käytän sen itselleni tärkeisiin asioihin ja lepoon, mikä on sitten myös lähipiiriltä pois.Ura jatkuu ainakin kesään – mitalihaave motivoiAvaa kuvien katseluKivirinta valmistui poliisiksi loppuvuodesta 2023. Kuva: Kimmo Hiltunen / YleKivirinta tietää, että hän ei pysty keskittymään kahteen uraan sataprosenttisesti kovin pitkään.Toistaiseksi se on onnistunut, työnantajan joustaessa ja harjoitussuunnitelmaa muokatessa, mutta uintiuran päätepiste lähestyy.Vähentynyt harjoitusmäärä on tarkoittanut aiempaakin selkeämmin keskittymistä 50 metrin matkalle, mikä on merkinnyt Kivirinnan olympiahaaveen hautaamista.Vuoden 2024 pitkän radan kaudelle mahtuu kuitenkin kahdet muut arvokisat: MM-kisat Dohassa helmikuussa ja EM-kisat Serbiassa kesällä.Ne saattavat jäädä Kivirinnan uran viimeisiksi, mutta lopullista päätöstä hän ei ole tehnyt. Yksi iso motivaattori on arvokisamitali, joka palkintokaapista vielä puuttuu. Viimeisin yritys päättyi uimarille jo tutuksi tulleeseen viidenteen sijaan lyhyen radan EM-kisoissa Romaniassa joulukuussa.– Kyllähän se mua kutkuttelee. Mä en varmaan mitään muuta haluakaan kuin sen mitalin, Kivirinta paljastaa naurahtaen.– Olen toisaalta kuitenkin 28-vuotias ja haaveilen myös niistä muista asioista elämässä. Olisi lisäksi kivaa saada keskittyä poliisin töihin enemmän kuin nyt. Saa nähdä, loppuuko uintiura kesällä. Isoja päätöksiä pitäisi tehdä, Kivirinta päättää.</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>64</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>”Ei tullut seka­me­te­li­soppaa” – asiantuntijan mukaan parjattu pisteuudistus toimi Monte Carlon MM-rallissa</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20071760</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Hyundain asfalttispesialisti Thierry Neuville hallitsi Monte Carlon vuoristopätkät ja voitti MM-sarjan avausrallin ennen kahdeksankertaista maailmanmestaria Sebastien Ogieria.Yle Urheilun ralliasiantuntija Henri Haapamäki piti Neuvillen suoritusta tyylikkäänä. Kotirallissaan ajanutta Ogieria ja alkurallista kovassa vauhdissa ollutta Elfyn Evansia ei tuosta vain päihitetä.– Ei ole ihan helppoa ajaa heitä polvilleen. Kyllä Neuville sai autonsa viimeisen päälle säätöihin ja ajoi kokolailla virheettömän kilpailun. Todella hyvää suorituskykyä.– Hänellä on tosipaikan tullen usein alkanut tulla pieniä virheitä, mutta nyt vauhti vain yltyi loppua kohti, Haapamäki sanoo.MM-sarjan mestarikandidaatteihin ennakolta lukeutuneiden Evansin ja Ott Tänakin suoritukset olivat Haapamäen mukaan pettymyksiä.Evans hyytyi hyvän alun jälkeen ja valitteli, että rytmin ja ajotuntuman löytäminen oli hankalaa. Tänak tuskaili haastatteluissa autonsa ongelmia.Haapamäen mukaan kuljettajan on pystyttävä luottamaan autoonsa etenkin Monte Carlon tapaisessa kisassa, jossa olosuhteet ovat todella hankalat.– Jos yliyrittää jatkuvasti ja menee oman kynnyksen yli, jossain kohtaa tulee ulosajo tai muita ongelmia. Väkisin ei pysty ajamaan pohja-aikoja, Haapamäki sanoo.– Toki tässä on vielä paljon ralleja jäljellä. Monte on kuitenkin niin erikoinen kilpailu olosuhteiden puolesta, että on se sitten auto tai kuljettaja, niin ei sieltä ihan koko totuutta kovimpaan nopeuteen saada, mutta tämäkin pitää huippukuljettajan pystyä voittamaan.Avaa kuvien katseluOtt Tänakin ralli oli vaikea. Kuva: EPA-EFEMonte Carlossa uusi pistelasku toimiMM-sarjan pisteidenlaskusysteemi uudistui tälle kaudelle.Aiemmin täyden 30 pisteen potin saavuttaminen vaati osakilpailun voittamisen lisäksi rallin päättävän erikoiskokeen eli Power Stagen voittoa. Yleiskilpailun voittamisesta sai 25 pistettä ja päätöspätkältä viisi pistettä.Tänä vuonna 30 pisteen keräämiseen on voitettava kolme erillistä pistekategoriaa: kokonaistilanne lauantain jälkeen (18 pistettä), sunnuntain kokonaisaika (7 pistettä) ja Power Stage (5 pistettä).
+Viikonlopun kokonaiskisan voitosta ei siis saa pisteitä. Sekavaksi arvosteltua uudistusta on perusteltu sillä, että aiemmin kuskit usein säästelivät autojaan sunnuntaina, kun erot olivat jo selviä.Neuville keräsi Monte Carlosta täyden pistepotin, joten pistelasku oli helppoa.– Vielä ei saatu sekametelisoppaa aikaan, eikä vielä voi sanoa mitään kielteistä. Eikä varmasti tulekaan kauden aikana. Se on vain vähän haasteellisempi rallifaneille seurata, Haapamäki sanoo.– Varsinkin sunnuntai on tosi hankala, kun siinä alkaa vallan toinen kilpailu peruskisan rinnalle. Joutuu pitämään omaa ruutupaperikirjanpitoa, jos oikeasti haluaa sekunnilleen pysyä kärryillä koko ajan.Haapamäen mukaan uudistuksen hyvä puoli on se, että sunnuntai ei ole enää ”köröttelypäivä”.– Jos kuvitellaan vaikka kahden minuutin johtomarginaali lauantai-iltaan, niin uudella systeemillä sunnuntaina alkaa uusi kilpailu. Ei voi vain varmistella ja antaa eron kaventua.Sunnuntain sijaan kuljettajat saattavat himmailla nyt lauantaina, jos alkukisa menee penkin alle.– Hyvä asia alussa keskeyttäneille on, että sunnuntaina on 12 pistettä tarjolla. Se on todella merkittävä. Ennen se oli vain viisi pistettä Power Stagelta. Nyt käytännössä melkein puolet koko pistepotista pystyy saamaan sunnuntaina.Avaa kuvien katseluThierry Neuville voitti Monte Carlon MM-rallin myös vuonna 2020. Kuva: Getty ImagesHaastaako Neuville Rovanperän?Rallin MM-sarja jatkuu helmikuun puolessa välissä Ruotsissa. Silloin kautensa avaa hallitseva maailmanmestari Kalle Rovanperä, joka ajaa tällä kaudella vain osan kisoista.Haapamäki arvioi, että Monte Carlon voittaja Thierry Neuville saa kisaan hyvät lähtökohdat, vaikkei häntä tunneta lumiolojen erikoismiehenä.– Totta kai voitosta saa tosi hyvän buustin koko kauteen ja tekemiseen. Eihän tuon parempaa aloitusta kaudelle voi olla. Jos miettii, että asia olisi toisin päin, että on poljettu lattianrakoon ja mistään ei tule mitään, siitä on aina hankalampi jatkaa.– Jos auto on oikeasti noin hyvä kuin Montessa, ja sillä pystyy ajamaan todella hyvin ja virheettömästi, niin eihän sitä tiedä, vaikka Ruotsissakin päästäisi ihan kunnon kyytiin.MONTE CARLON MM-RALLI1. Thierry Neuville, Hyundai 3.09.30,9
+2. Sebastien Ogier, Toyota +16,1
+3. Elfyn Evans, Toyota +45,2
+4. Ott Tänak, Hyundai +1.59,8
+5. Adrien Fourmaux, Ford +3.36,9
+6. Andreas Mikkelsen, Hyundai +5.34,6
+7. Takamoto Katsuta, Toyota +8.28,5
+8. Yohan Rossel, Citroen/Rally2 +10.29,8
+9. Pepe Lopez, Skoda/Rally2 +10.33,8
+10. Nikolai Grjazin, Citroen/Rally2 +10.45,2
+11. Nicolas Ciamin, Hyundai/Rally2 +14.44,1
+12. Sami Pajari, Toyota/Rally2 +15.16,3SUNNUNTAIN TULOKSET1. Thierry Neuville 31.21,4
+2. Elfyn Evans +10,3
+3. Sebastien Ogier +12,8
+4. Ott Tänak +12,9
+5. Adrien Fourmaux +42,9
+6. Takamoto Katsuta +54,5
+7. Gregoire Munster +1.09,4POWER STAGEN NOPEIMMAT1. Thierry Neuville 9.50,4
+2. Sebastien Ogier +2,6
+3. Takamoto Katsuta +2,8
+4. Elfyn Evans +3,2
+5. Ott Tänak +5,1MM-SARJAN TILANNE (1/13)1. Thierry Neuville 30 (18+7+5)
+2. Sebastien Ogier 24 (15+5+4)
+3. Elfyn Evans 21 (13+6+2)
+4. Ott Tänak 15 (10+4+1)
+5. Adrien Fourmaux 11 (8+3+0)
+6. Takamoto Katsuta 9 (4+2+3)
+7. Andreas Mikkelsen 6 (6+0+0)</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>65</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Saksan valtio­va­rain­mi­nisteri sättii muita Euroopan maita Ukraina-tuen niukkuudesta</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20071785</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Saksan valtiovarainministerin Christian Lindnerin mukaan maan eurooppalaisten kumppanien on tehtävä ryhtiliike tuen tarjoamisessa Ukrainalle.Tilanne ei Lindnerin mielestä voi olla sellainen, että Saksa lisää omia menojaan ja maksaa toisten puolesta Ukrainalle ja samaan aikaan Saksan eurooppalaiset kumppanit eivät tee tarpeeksi.Puoluetilaisuudessa Berliinissä lauantaina puhunut Lindner muistutti, että Saksan osuus on tällä hetkellä jo puolet kaikesta siitä tuesta, mitä Ukraina saa Euroopasta.– Emme aio luopua sitoumuksistamme, hän vakuutti.Erityisesti Venäjän hyökkäyssodan alussa Saksaa arvosteltiin siitä, että se epäröi ja viivytteli aseavun lähettmäistä Ukrainaan. Tätä nykyä Saksa tukee Ukrainaa enemmän kuin yksikään Euroopan maa. Eri maiden tukia Ukrainalle seuraavan Kiel-instituutin mukaan Saksa oli antanut yli 17,1 miljardia euroa sotilaallista apua Ukrainalle tammikuun 2022 ja lokakuun 2023 välisenä aikana.Trumpin mahdollinen valtaannousu huolettaaMyös Saksan liittokansleri Olaf Scholz painotti viime viikolla, että Euroopan on panostettava enemmän Ukrainaan. Aseavun lisääminen Ukrainalle on kriittisen tärkeää erityisesti siksi, että Yhdysvalloissa Ukrainan tukeminen on ajautunut sisäpoliittisen kiistan välikappaleeksi.Niin ikään Ukrainan presidentti Volodymyr Zelenskyi sanoi sunnuntaina Saksan yleisradioyhtiö ARD:n haastattelussa, että Yhdysvaltojen passiivinen suhtautuminen tai tuen väheneminen olisivat huono signaali.Zelenskyi vetosi Saksaan, että se käyttäisi taloudellista painoarvoaan lujittaakseen muiden EU-maiden tukea Ukrainalle.Yhdysvaltain entinen presidentti ja republikaanien todennäköinen presidenttiehdokas Donald Trump on puheillaan aiheuttanut hermostuneisuutta maan Ukraina-tuen jatkosta. Moni pelkää, että mikäli Trump valittaisiin marraskuussa presidentiksi, hän saattaisi vetää Yhdysvaltain sotilaallisen tuen Ukrainalta ajatellen, että Yhdysvallat jättää Ukrainan eurooppalaisten huoleksi.</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>66</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Tiktok kiilasi ilta­päi­vä­lehtien ohi nuorten tärkeimmäksi uutis­ka­navaksi – lue viisi vinkkiä uutisten seuraamiseen somessa</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20071681</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Tiktok on nuorten tärkein uutiskanava. Sen kautta uutisia seuraa 49 prosenttia 13-18-vuotiaista. Asia selviää Uutismedian liiton teettämästä tutkimuksesta.Vielä vuosi sitten ykkössijaa pitivät iltapäivälehdet. Nyt Tiktok on kiilannut selvästi ohi. Iltapäivälehtien verkkosivuilta uutisia seuraa 37 prosenttia nuorista.– Yllätti, että Tiktok oli vuodessa harpannut niin isosti ja oli kirkkaasti edellä, sanoo Uutismedian liiton mediakasvatusasintuntija Hanna Romppainen.Tiktokin nousu on ollut huima vuodesta 2020, jolloin sitä käytti uutislähteenä vain neljännes samanikäisistä nuorista.Yhtenä syynä suosion kasvuun Romppainen pitää algoritmeja, jotka on tehty koukuttamaan. Niiden vuoksi kanavalla vietetään paljon aikaa, mutta ei enää vain viihtymistarkoituksessa. Tiktokista on tullut nuorille merkittävä uutis- ja ajankohtaistiedon lähde.Nuorten suosimassa kärkiviisikossa oli myös kaksi muuta sosiaalisen median kanavaa, Instagram ja Snapchat.– Tämä on tärkeä tunnistaa. Emme voi puhua journalismista irrallaan somekontekstista, koska silloin on riskinä, että se jää kauaksi nuorten arjesta, Romppainen sanoo.Yle listalla kuudentenaPerinteisistä uutismedioista suosituimpia olivat Iltapäivälehdet ja sen jälkeen Ylen verkkosivut, joita 22 prosenttia kyselyyn vastanneista nuorista kertoi seuraavansa.Romppainen muistuttaa, että myös sosiaalisessa mediassa tulee vastaan perinteisten uutismedioiden tuottamaa sisältöä.– Mutta sen tunnistaminen journalistiseksi sisällöksi vaatii aika paljon. On entistäkin tärkeämpi puhua siitä, mitä journalismi on ja mitä journalistiset mediat tekevät, jotta ne erottautuisivat somessa.Kyselyyn vastanneista 69 prosenttia sanoi tunnistavansa Tiktokissa uutismedioiden tekemät sisällöt muista.– En kuitenkaan tuudittautuisi tähän. Journalismin tunnistaminen somessa on todella hankalaa, koska sen joutuu tekemään nopeassa virrassa. Tämä on vakava paikka. Me emme voi jättää nuoria yksin someen tai Tiktokiin.Avaa kuvien katseluToiseksi suosituin uutiskanava olivat nuorilla iltapäivälehtien verkkosivut. Kuva: Henrietta Hassinen / YleHanna Romppainen antaakin viiden kohdan vinkkilistan Tiktokin käyttöön uutiskanavana:1. Muista kuplat”Muista, että se, mitä omalla sivulla tai feedillä näkyy, ei ole koko totuus. Voi kysyä, mitkä näkökulmat omassa feedissä painottuvat? Miten oma feedi erottuu kaverin vastaavasta? Mikä fiideissä on jaettua?”2. Miksi näen tämän?”Algoritmi ohjaa Tiktokissa niin vahvasti sisältöjä, että on olennaista olla algoritmikriittinen. Edellisen kohdan lisäksi voisi miettiä, miten näkemäänsä voisi vaikuttaa. Ettei oltaisi algoritmin armoilla, vaan aktiivisia sen suhteen, mitä sisältöjä tulee nähtäväksi.”3. Kuka sen on tehnyt?”On tärkeää erottaa erilaiset sisällöt toisistaan ja huomata, ovatko ne journalismia, mainontaa vai poliittinen viesti. Silloin voi kysyä, kuka sisällöt on julkaissut, mikä niiden tarkoitus on ja voiko niihin luottaa.”4. Tutustu journalismiin”Seuraa uutismedioita. Jounalismia ei erota, jos sitä ei tee itselleen tutuksi. Ota Tiktokissa kotimaisia uutismedioita seurantaan. Katso, millaista journalistista sisältöä ne someen tuottavat. Tiktok voi pahimmillaan luoda yleiskriittisen asenteen, mutta harjoittele luottamista.”5. Haasta itsesi”Seuraa uutismedioita myös Tiktokin ulkopuolella. Jos löydät kiinnostavan videon Tiktokissa, kokeile seurata myös sen tuottaneen uutismedian omia verkkosivuja.”Videot kiinnostavat enitenKyselyyn vastanneista nuorista päivittäin uutisia seurasi 36 prosenttia. Eniten heitä kiinnostivat omaan elämään liittyvät uutiset, joita kulutettiin mieluiten lyhyinä uutisvideoina. Videot olivat suositumpia kuin teksti, kuvat tai äänet. Sisällön lyhyys suositumpaa kuin syvällisyys tai pituus.Nuoret ja uutismediasuhde -tutkimuksen toteutti Kantar Media Uutismedian liiton toimeksiannosta. Tutkimukseen vastasi 755 nuorta. Tutkimus on osa koulujen ja uutismedian Uutisten viikkoa, jota vietetään 29.1.–2.2.Myös Yle Uutiset on Tiktokissa. Voit seurata Ylen uutisia täällä.Toimittaja Antti Kurra kertoo videolla Tiktokin tulevaisuuden suunnitelmista. Sovelluksen emoyhtiö suunnittelee lukuisia uusia ominaisuuksia.</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>68</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Olo oli surkea, vaikka Hanna-Leena Kuisma oli dieeteillä ja treenasi – verikoe muutti kaiken</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20071355</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Olo 2.0 – tästä tulee tapaTammikuussa etsimme parempaa oloa yhdessä.Liity porukkaanOnneksi homma räjähti käsiin. Niin nokialainen Hanna-Leena Kuisma, 38, ajattelee nyt, kuusi vuotta burnoutin jälkeen.– Olen aina ollut kiltti ja joustava, enkä ole osannut suojella itseäni. Töissä olin aina valmis mihin tahansa, Hanna-Leena kertoo.Hän oli työskennellyt julkisessa terveyskeskuksessa viisi vuotta pääasiassa hammashoitajana. Hoitotyötä mieluisampia Hanna-Leenalle olivat toimistohommat, joita hän sai tehdä itsenäisesti. Työtehtävät vaihtuivat usein yllättäen kesken päivän.– Hoitotyössä raskainta oli se, etten pystynyt hallitsemaan sitä. Ruokatauot jäivät usein pitämättä, ja jos hammaslääkäri oli myöhässä, asiakkaat kiukuttelivat minulle.Eräänä päivänä helmikuussa 2017 Hanna-Leena oli väsynyt ja uskoi olevansa tulossa kipeäksi. Päivästä tuli taas kerran kiireinen, ja taukoja jäi pitämättä.Hanna-Leenan olo huononi, ja hän hakeutui terveydenhoitajalle. Hän istui alas ja purskahti heti itkuun. Uupunut Hanna-Leena jäi sairauslomalle, joka kesti lopulta kolme kuukautta.– Kun sain vihdoinkin luovuttaa ja levätä, jämähdin kotiin makaamaan. Ensimmäisen kuukauden elin sumussa.Paino nousi 25 kiloa vuodessaHanna-Leena ei jaksanut enää harrastaa mitään. Roskaruoka ja herkut maistuivat. Hanna-Leenalla todettiin lievä masennus, ja hän aloitti masennuslääkityksen.– Sanotaan, että lääke ei vaikuta painonnousuun, mutta varmasti vaikutti, koska se lisäsi ruokahalua. Lihoin vuodessa 25 kiloa.Oltuaan kolme kuukautta sairauslomalla Hanna-Leena yritti palata osa-aikaisesti töihin. Hänelle mieluisat toimistotyöt otettiin pois. Jäljelle jäi hoitotyö, jossa hän joutui venymään kuten ennenkin.Avaa kuvien katseluHoitotyössä on raskainta se, ettei työtä pysty hallitsemaan itse, sanoo Hanna-Leena Kuisma. Kuva: Jani Aarnio / YleKesälomalla Hanna-Leena ymmärsi, ettei voisi enää palata samaan työhön. Hän haki opiskelemaan tradenomiksi Tampereen ammattikorkeakouluun. Syksyllä alkoivat opinnot ja uusi työ asiakaspalveluneuvojana puhelinoperaattorilla.– Toivuin edelleen uupumuksesta, mutta olin iloinen, että sain päiviini täytettä ja uutta opittavaa. Se auttoi pääsemään eteenpäin.Elämänmuutos kesti aina pari viikkoaHanna-Leena yritti pudottaa painoaan pikadieeteillä ja rankoilla treeniohjelmilla. Hän ei jaksanut noudattaa niitä paria viikkoa kauempaa. Paino ei pudonnut, ja olo oli surkea.– Vanhat vaatteet eivät menneet päälle, enkä tunnistanut itseäni peilistä. Silti minulla ei ollut fyysisiä eikä henkisiä voimavaroja rajuihin kunto-ohjelmiin.Vanhat vaatteet eivät menneet päälle, enkä tunnistanut itseäni peilistä.Hanna-Leena KuismaHanna-Leena jätti painonpudotuksen sikseen. Kolmen vuoden ajan hän keskittyi ainoastaan opintoihin ja työntekoon. Kun opinnot alkoivat olla loppusuoralla, hän päätti käydä verikokeissa.– Tulokset olivat karmaisevat: kaikki arvot viittasivat kakkostyypin diabetekseen. Tajusin, että jotain pitää tehdä.Hän päätti muuttaa ruokailutapansa, kun opinnäytetyö olisi hyväksytty ja hänellä riittäisi energiaa muuhunkin. Hanna-Leena halusi ennen kaikkea veriarvonsa kuntoon ja lähti siksi liikkeelle ruoasta.– Olen aina ollut perso suklaalle ja käynyt usein väsyneenä ostamassa kaupasta suklaalevyn. Olen vetänyt sen sitten jo autossa tai viimeistään kotimatkalla.Uudet rutiinit ja uusi työKesän korvalla Hanna-Leena jätti pois muut herkut paitsi jäätelön ja alkoi syödä iltapäivisin terveellistä välipalaa: rahkan, omenan ja kourallisen manteleita. Lisäksi hän alkoi käydä rauhallisilla kävelylenkeillä. Pois jäi myös alkoholi, jonka Hanna-Leena oli huomannut huonontavan paitsi veriarvoja myös unen laatua.Avaa kuvien katseluPitkän tauon jälkeen Hanna-Leena Kuisma aloitti liikunnan rauhallisilla kävelylenkeillä. Kuva: Jani Aarnio / YleKun välipalan syömisestä tuli rutiini, Hanna-Leena alkoi syödä myös aamupalaa ja myöhemmin viisi ateriaa päivässä. Sitten hän alkoi syödä enemmän kasviksia lounaalla ja päivällisellä.– En odottanut radikaaleja muutoksia tai pyrkinyt pudottamaan painoani tietyssä ajassa. Tärkeintä oli saada oma pääni kuntoon ja olla itseäni kohtaan armollinen, Hanna-Leena sanoo.Vuoden aikana paino putosi 15 kiloa, ja samalla veriarvotkin paranivat.Syksyllä Hanna-Leena aloitti palveluneuvojan työn terveydenhuoltoalan yhtiössä Mehiläisessä. Hän piti yhä kiinni säännöllisestä ruokarytmistä ja kävelylenkeistä.– Lopetin vaa’an kyttäämisen ja itseni kiusaamisen. Annoin kropalleni ja mielelleni aikaa keskittyä uusien asioiden oppimiseen.Hanna-Leenan toipuminen uupumuksestaan oli edelleen kesken. Hän kertoi siitä avoimesti työnantajalleen.– Kun kuormituin liikaa, se otettiin huomioon ja työtäni kevennettiin hetkeksi.Korkea kynnys lähteä salilleAvaa kuvien katseluHanna-Leena Kuisma pelkäsi, että kuntosalilla muut katsovat häntä ylipainon vuoksi. Kuva: Jani Aarnio / YleKun uusi työ oli tullut tutuksi, Hanna-Leena halusi alkaa käydä taas kuntosalilla. Tuttu personal trainer teki hänelle helpon aloitusohjelman, johon kuului muutama liike kerran viikossa.– Oli iso kynnys lähteä salille, vaikka polte oli kova. Vanhat salivaatteeni eivät enää mahtuneet päälle ja pelkäsin, että kaikki katsovat minua, kun olen niin lihava, Hanna-Leena kertoo.Treenaaminen tuntui hyvältä, ja kahden kuukauden jälkeen hän alkoi tehdä pidemmän treeniohjelman kahdesti viikossa. Nykyään salitreenejä on kolmesti viikossa. Lisäksi Hanna-Leena käy avantouimassa ja harrastaa kali-kamppailulajia.Yksi muutos kerrallaanTerveyden ja hyvinvoinnin laitoksen THL:n tutkimuspäällikön Susanna Raulion mukaan moni epäonnistuu muuttamaan elämäntapojaan, koska yrittää muuttaa liian monta asiaa kerralla.– Paino voi pudota tiukalla dieetillä, mutta kukaan ei pysty elämään niin koko loppuelämäänsä. Syömistä ja esimerkiksi välipaloja ei pidä pelätä, Raulio kertoo.Paino voi pudota tiukalla dieetillä, mutta kukaan ei pysty elämään niin koko loppuelämäänsä.Susanna RaulioHän kannustaa aloittamaan itselle helpoimmasta asiasta. Se voi olla vaikka säännöllinen syöminen tai kasvisten lisääminen ruokavalioon.– Elämäntapamuutosta ei kannata edes yrittää silloin kun on esimerkiksi uupunut tai elämä on hyvin hektistä, Raulio sanoo.”Peikko tulee välillä olkapäälle”Nykyisin Hanna-Leena on Mehiläisen suun terveyden myyntipäällikkö ja nauttii työstään.– Tämä työ on kuin minulle tehty. Pidän ongelmanratkaisusta ja siitä, että olen saanut lisää vastuuta, hän kiittelee.Työ ja vapaa-aika ovat nyt tasapainossa. Ja jos ne eivät joskus ole, Hanna-Leena tunnistaa uupumuksen merkit. Ensin kärsii uni, sitten liikunta ja lopulta hän haluaa vain käpertyä iltaisin peiton alle syömään suklaata.– Uupua voi niin työssä kuin vapaa-ajallakin, jos tekemistä on liikaa. Tarvittaessa jätän pois yhdistystoiminnan ja salitreenit. Käyn vain kävelyllä.Avaa kuvien katseluJos Hanna-Leena Kuisma uupuu liikaa, hän jättää salitreenit väliin. Kuva: Jani Aarnio / YleHanna-Leena on pudottanut painonsa samaan lukemaan kuin ennen uupumistaan. Hän huolehtii edelleen säännöllisestä syömisestä ja liikunnasta – eikä unohda myöskään herkuttelua. Hän on nyt paremmassa kunnossa kuin koskaan.– Silti peikko tulee silti välillä olkapäälle sanomaan, että nyt pitää äkkiä laihduttaa. Osaan nykyisin hiljentää sen. Ulkonäössäni ei ole virheitä, ei kenenkään ulkonäössä ole.Kolme vinkkiä – tee ainakin nämä1. Aloita pienestäAla käydä vaikka kävelyllä kerran viikossa. Yritä iltapäiväväsymyksen aikaan syödä välipala karkkipussin sijaan.2. Älä jätä kaikkia herkkuja poisJos olet perso suklaalle, jätä se pois, mutta ota tilalle jokin vähemmän houkutteleva herkku, jota sinun ei tee mieli syödä joka päivä.3. Jos et jaksa, lepääJos olet uupunut henkisesti, sinun ei kannata rääkätä itseäsi rankalla jumpalla. Mene mieluummin vaikka kävelylle.Ladataan lomaketta...Olo 2.0 on sisältökokonaisuus unesta, ravinnosta ja liikunnasta. Tammikuussa etsimme parempaa elämää yhdessä toimittaja Inkeri Alatalon kanssa. Katso Olo 2.0:n jakso 8: Kuva musta itestä on muuttunu.</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>69</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Essee: Uutuuselokuva näyttää natsit tavallisina ihmisinä, ja sen katsominen on musertava kokemus</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20071369</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Rudolf Höss tuijottaa pimeään. Hänen ilmeensä ei värähdä. Hän ei uskalla liikkua. Pimeyden edessä myös Auschwitzin keskitysleirin johtaja on pieni ja yksin.Olen nähnyt brittiohjaaja Jonathan Glazerin uuden elokuvan The Zone of Interest jo kaksi kertaa. Kummallakin kerralla olen tuijottanut valkokangasta lamaantuneena.En pidä natseista enkä natsielokuvista. Miksi elokuva natsijohtajan perhe-elämästä sitten puhuttelee minua?Vielä kuukausia elokuvan näkemisen jälkeen havahdun ajattelemasta sitä eri yhteyksissä: holokaustia taiteessa ja historiassa, ihmisen kykyä pahaan.Joka kerta palaan tähän elokuvan loppupuolella esiintyvään kuvaan:Rudolf Höss yksin pimeyden edessä.Kuvassa ei ole paljon mitään, ja samalla se tuntuu sisältävä kaiken. Uskon, että me kaikki voimme nähdä kohtauksessa itsemme – jos vain uskallamme katsoa.Mikä natseissa kiinnostaa?Olen kyllästynyt natseihin. Heihin liittyvät elokuvat, kirjat ja näytelmät ovat Suomessa todella suosittuja. Olen joskus todennut happamasti, että mistä tahansa teoksesta voi tehdä menestyksen laittamalla sen mainokseen hakaristin.Suomessa yksi syy natsien tenhoon on vaikea suhde omaan sotahistoriaamme. Toisin kuin sotaa, sen jättämiä haavoja on käsitelty taiteessamme liian vähän.Avaa kuvien katseluHollywood harvoin onnistuu kuvaamaan holokaustia. Schindlerin lista (1993) on todennäkösesti onnistunein holokaustista kertova Hollywood-elokuva, sillä se ei päästä katsojaansa helpolla. Sekin on parhaimmillaan keskittyessään johonkin muuhun kuin sankaritarinansa juoneen. Kuva: Wikimedia commons.Uskon natsitarinoiden tulvan johtuvan ennen muuta siitä, että haluamme selityksen asioille, joita emme osaa selittää. Haluaisimme ymmärtää pahuutta, jotta meidän ei tarvitsisi pelätä sitä.Elokuvien ja kirjojen natsihahmot ovat kuitenkin lähes aina pelkkää pop-kulttuurikuvastoa: fetisoituja ja demonisoituja epäihmisiä, jotka haukahtelevat komentosanoja saksaksi.Natsien kuvaamiseen liittyy toinenkin ongelma. Rehellinen pahuuden käsittely vaatisi holokaustin kuvaamista. On kuitenkin väitetty, että holokaustia ei voi kuvata.Kauhuja ei näytetä. Silti ne ovat läsnä koko ajan.Väitteessä on vissi perä. Kuuden miljoonan juutalaisen ja miljoonien muiden ihmisten murhaaminen on niin massiivinen tragedia, että sitä on vaikea edes käsittää. Saati sitten kuvata.Elokuvantekijöitä ja kirjailijoita ei voi syyttää yrityksen puutteesta. Holokausti on erittäin suosittu elokuvien ja kirjojen elementti.Pahimmillaan sitä käytetään aiheen sijasta miljöönä tai yleistunnelmana. Esimerkiksi Heather Morrisin bestseller-romaanissa Auschwitzin tatuoija keskitysleirin kamaluudet ovat vain jännittävä taustakangas, jota vasten teoksen rakkaustarina piirtyy.Tällaisissa teoksissa holokaustin massiivinen ja käsittämätön kauheus katoaa näkyvistä itse tarinan taakse. Katsoja tai lukija pääsee liian helpolla.Avaa kuvien katseluKolmentoista tunnin mittainen dokumenttielokuva Shoah (1985) toimii lukuohjeena The Zone of Interestille. Se luo katsojalle käsitystä holokaustista hitaalla kerronnalla, jossa haastateltujen pitämät tauot ja keskitysleirien metsittyneet rauniot ovat merkittävämpiä kuin se mitä sanotaan tai nähdään. Shoah luottaa katsojan kykyyn täydentää mielessään se, mitä elokuva ei sano tai näytä. Kuva: Les Aleph/Historia/Kobal/Shutterstock/All Over PressThe Zone of Interest kertoo holokaustista vain rivien välissä. Uhrien tarinoiden sijaan se kuvaa kansanmurhan toteuttajia. Sitä, miten pahuus on osa heidän arkeaan.Elokuva näyttää sen, minkä tiedämme, mutta mitä emme halua ajatella:Holokaustin toteuttajat olivat tavallisia ihmisiä. Sellaisia kuin sinä ja minä.Kauhu kuvien takanaElokuvassa ei tapahdu melkein mitään. Enimmäkseen se kuvaa, miten viiden lapsen äiti Hedwig Höss (Sandra Hüller) häärää pyörittämässä taloutta, juoruaa naisseurassa ja esittelee kaunista puutarhaansa Auschwitziin kylään tulleelle äidilleen.Isä-Rudolf ulkoilee luonnossa lasten kanssa ja hoitaa työasioita. Lapset leikkivät.Osa kriitikoista on syyttänyt The Zone of Interestiä ontoksi. Mielestäni se ei ole ontto. Päin vastoin. Elokuva on mykistävä. Sen tunnelma on niin voimakas, että kokemusta on vaikea pukea sanoiksi.Kauhuja ei näytetä. Silti ne ovat läsnä koko ajan.Avaa kuvien katseluThe Zone of Interest on pelkkiä kuvia katsoen kevyt ja pieni elokuva, mutta sen pinnan alla myllertää isoja ja vaikeita kysymyksiä. Kuva: Courtesy of A24Auschwitzin taukoamatta toiminnassa olevista krematorioista syntyvä haju on hallitseva elementti Martin Amisin romaanissa, johon The Zone of Interest perustuu. Elokuvassa ymmärrys tapahtumien taustalla käynnissä olevasta joukkomurhasta välittyy toisella tavalla.Se on läsnä äänimaisemassa, dialogin rivien välissä, näennäisen viattomissa yksityiskohdissa niin kuin puutarhan lannoittamisessa tuhkalla.Kuvaamalla Hössin arkista perhe-elämää ja keskitysleirityön byrokraattista puolta Auschwitzissa kuvattu elokuva herkistää katsojan kaikelle sille, mitä tapahtuu kohtauksien laidoilla ja kuvan ulkopuolella:Öisin taivaalla hohkaavaan krematorion infernaaliseen kajoon. Taustalla tauotta jatkuvaan tuhoamisleirin äänimaisemaan.Emme katso, mutta katsomme kuitenkin.Kehoon siirretty syyllisyys”Meillä on täällä kaikki mitä olemme halunneet.”Näin kuvailee Auschwitzia keskitysleirin johtajan vaimo Hedwig Höss. Repliikki tuntuu yhtä aikaa vilpittömältä ja valheelliselta.Sandra Hüllerin näyttelijäntyössä rouva Hössin ilmeetön ja kulmikas tapa kävellä ja olla viestivät hänen kantavan syyllisyyttä, jota hän ei kykene myöntämään edes itselleen.Avaa kuvien katseluNäyttelijä Sandra Hüller on kertonut haastatteluissa, miten kammottavalta hänestä tuntui mennä saksalaisena Auschwitziin kuvaamaan The Zone of Interestiä. Hän ei halunnut inhimillistää rooliaan, koska ei kokenut Hedwig Hössin ansaitsevan minkäänlaista anteeksiantoa. Kuva: LANDMARK MEDIA / Alamy/All Over PressThe Zone of Interestin henkilöt tietävät tarkalleen, mitä muurin toisella puolella tapahtuu. Se on selvää heidän puheissaan ja kaikessa heidän olemisessaan.Näyttelijöiden työskentely kuvastaa sitä syyllisyyttä, joka iski sodan loputtua saksalaisiin ja isoon osaan muitakin eurooppalaisia. Yhtäkkiä kaikki esittivät, että eivät olleet tienneet mitään siitä, mitä juutalaisille tehtiin.”Opa war kein Nazi”, minun isoisäni ei ollut natsi, on sukupolvelleni yleinen saksalainen hokema. Jos kaikki tällaiset väitteet pitäisivät paikkansa, oli koko natsi-Saksassa vain kourallinen natseja.Nurin käännetty maailmaThe Zone of Interest kuvaa maailmaa, jossa kuolemantehtaat ovat arkipäiväistä byrokratiaa ja kuolevilta ryöstäminen kahvipöytäkeskustelun aihe. Se kysyy samaa kysymystä, jota eurooppalaiset ovat toistaneet itselleen lähes 80 vuotta. Miten se oli mahdollista?Holokausti edellytti saksalaisen yhteiskunnan muutoksen. Maata hallinnut natsipuolue ajoi väkivaltaisen antisemitisminsa läpi 1930-luvulla askel askeleelta.Avaa kuvien katseluEhkä onnistunein fiktioelokuva holokaustista on unkarilaisen László Nemesin Son of Saul (2015). Yhtä keskitysleirin vankia seuraava elokuva pitää kameran niin tiiviisti päähenkilössään sonderkommando Saulissa, että kaasukammiot, teloitukset ja muut Auschwitzin kauhut nähdään vain taustalla. Katsoja ymmärtää näkevänsä vain pienen osan totuutta. Kuva: Photo 12 / Alamy/All Over PressEnsin muuttui kieli, sitten lait ja lopulta ihmisten käyttäytyminen. Lähes huomaamatta moraali oli kääntynyt ympäri ja ihmisten murhaamisesta oli tullut normaali ja hyväksyttävä, jopa välttämättömänä pidetty, asia.Kaiken läpäisseestä asennemuutoksesta huolimatta ajatusta kuolemanleireistä pidettiin Euroopassa liian kamalana. Todisteista huolimatta ihmiset käänsivät selkänsä, kun heidän naapurinsa ajettiin pois kotoaan.On tärkeää, ettei historia unohdu. Vain jos tiedämme, mihin ihmiset kykenevät, voimme estää sitä tapahtumasta uudestaan.Tästä syystä holokaustia on kuvattava. Vaikka sitä ei voi kuvata, on sen yrittäminen välttämätöntä.Holokaustia kuvaavat teokset kysyvät:Mitä sinä tekisit?Pimeys katsoo takaisinMielessäni Rudolf Höss tuijottaa yhä pimeään. Uskon tämän kuvan kulkevan mukanani niin kauan kuin elän.Ainakin toivon niin. Se muistuttaa minua siitä, että meistä jokaisen sisällä on oma pimeytemme.Avaa kuvien katseluRudolf Höss (Christian Friedel) on elokuvassa tehokkuuteen pyrkivä työnarkomaani, jonka työhön kuuluu muun muassa neuvotella IG-Farben-yhtiön edustajien kanssa kaasukammioiden tehoa parantavista uudistuksista. Kuva: Courtesy of A24Me kaikki kannamme syyllisyyttä asioista, joita teemme vaikka tiedämme niiden olevan väärin tai haitallisia.Käännämme nytkin selkämme sodille, joissa siviilejä ja lapsia tapetaan julmasti ja syyttä.Ostamme parin vuoden välein uuden kännykän vaikka tiedämme, että lapsia kuolee kaivoksissa teknologiaame käytettävien mineraalien takia.Saastutamme ainoaa kodiksemme soveltuvaa planeettaa, koska emme kykene hillitsemään päästöjä aiheuttavia tottumuksiamme.Nämä kauhdeudet ja holokausti eivät ole sama asia. Se ei tee meistä vähemmän syyllisiä.Huomaan, että holokaustitarinoille altistuminen on saanut minut epäilemään ihmisen hyvyyttä.Elokuvassa Rudolf Höss voi pienen hetken huonosti, ehkä tekojensa takia. Tapahtuiko niin koskaan todella?Onko natsivaimon kehossaan kantama syyllisyys vain elokuvantekijän romantisoitu käsitys siitä, että ihminen on pohjimmiltaan hyvä?Rinnastaen aiempiin esimerkkeihin nykyajasta: voivatko kännykkäfirmojen toimitusjohtajat koskaan pahoin Kongon kaivoksissa kuolevien lasten takia?Askel pois pimeästäYksi vastaus löytyy dokumenttielokuvasta The Act of Killing (2012), johon The Zone of Interestin loppukohtausta on verrattu.Se seuraa Indonesian kommunistivainoissa ihmisiä raa’asti teloittanutta Anwar Congoa, joka esittää kameran edessä ylpeillen millaisia murhia on tehnyt 40 vuotta aiemmin.Avaa kuvien katseluIndonesian kommunistivainoista kertova The Act of Killing (2012) kysyy samoja kysymyksiä kuin The Zone of Interest. Keskellä kuvassa elokuvan päähenkilö, kuolemanpartioihin osallistunut Anwar Congo. Kuva: The Act Of KillingElokuvan alussa Congo ei tunne syyllisyyttä. Miksi tuntisikaan? Hänhän on Indonesiassa lähes kansallissankari.Loppupuolella, käytyään murhiaan läpi yhä uudestaan ja uudestaan elokuvan tekijöiden kanssa, vanha teloittaja alkaa äkillisesti voida pahoin. Hänen kehonsa tuntuu näyttävän, että jollakin syvemmällä tasolla ihminen tietää tehneensä väärin vaikka kieltäisi sen itseltään.Tarkoittaako se, että toivoa on?</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
         <is>
           <t>Yle</t>
         </is>

--- a/dynamic-datasets/articles_excel.xlsx
+++ b/dynamic-datasets/articles_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,25 +465,21 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Stubbin ja Haaviston täytyy houkutella nyt taakseen valtava määrä uusia äänestäjiä: kartat näyttävät, mistä heitä löytyy</t>
+          <t>Analyysi: Pekka Haavisto kehui Olli Rehniä – Alexander Stubb toivoi Riikka Purralle talousonnea</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071843</t>
+          <t>https://yle.fi/a/74-20072585</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Presidentinvaalien ensimmäinen kierros on ohi. Toisella kierroksella oleva kokoomuksen Alexander Stubb ja valitsijayhdistyksen ehdokas, vihreiden tukema Pekka Haavisto lähtevät nyt vimmatusti hakemaan vapautuneita ääniä ympäri Suomea.Toiselta kierrokselta pudonneiden perussuomalaisten Jussi Halla-ahon ja valitsijayhdistyksen ja keskustan ehdokkaan Olli Rehnin ääniä on tarjolla eniten.Tämä juttu näyttää, mistä päin Alexander Stubbin ja Pekka Haaviston pitäisi houkutella itselleen ääniä.Suomen väestö on pakkautunut kaupunkeihin ja kaupunkiseutuihin, joten luonnollisesti suuri määrä ääniä on saatavilla näiltä alueilta.Helsingissä ääniä on tarjolla ylivoimaisesti eniten verrattuna Suomen muihin kuntiin, lähes 300 000. Toiseksi eniten ääniä on saatavilla Tampereella, noin 120 000.Oulussa ääniä on vapaana 110 000, Espoossa ja Vantaalla reilut satatuhatta. Turussa ääniä on tarjolla hieman alle satatuhatta.
-Pohjanmaa ja Lappi erottuvatMonilla paikkakunnilla yli puolet äänioikeutetuista äänesti jotain muuta ehdokasta kuin Stubbia tai Haavistoa. Esimerkiksi Oulussa yli 60 prosenttia äänioikeutetuista ei äänestänyt nyt toiselle kierrokselle päässeitä ehdokkaita.Videolla pohjoispohjanmaalaiset kertovat mielipiteensä vaalituloksesta:Alla olevassa kartassa korostuu myös Pohjanmaan länsirannikon kunnat, joissa monissa alle puolet äänioikeutetuista ei äänestänyt Haavistoa tai Stubbia. Näissä kunnissa tosin korostuu Stubbin äänisaalis, joka oli huomattavasti suurempi kuin Haaviston.Lapissa Jussi Halla-aho oli suosituin ehdokas.Videolla lappilaiset kertovat mielipiteensä vaalituloksesta:Aivan Etelä-Suomessa Haavistoa ja Stubbia äänesti yli puolet äänioikeutetuista.Kartalta erottuvat myös selvästi kunnat, joissa Halla-ahon ja Rehnin kannatus oli suurta. Näissä kunnissa yli 80 prosenttia äänioikeutetuista eivät äänestäneet toiselle kierrokselle päässeitä. Huomionarvoista on myös se, että kyseisissä kunnissa äänioikeutettuja on vain tuhansia tai joitain kymmeniä tuhansia.
-Alla olevasta kartasta voit tutkia, miten kuntasi äänesti eli ketkä ehdokkaat olivat suosituimpia.
-Toteutus vaatii toimiakseen JavaScriptin.
-Kuuntele myös:Haavisto vs. Stubb – kumpi kahmii muilta jääneet äänet?</t>
+          <t>Presidentinvaalien toisen kierroksen ehdokkaat kohtasivat torstai-iltana Ylen presidenttiväittelyssä.Valitsijayhdistyksen ja vihreiden presidenttiehdokas Pekka Haavisto ja kokoomuksen presidenttiehdokas Alexander Stubb tavoittelevat lisää ääniä ensimmäisellä kierroksella presidenttikisasta pudonneiden kannattajajoukoista.Ylen presidenttiväittelyssä Pekka Haavisto heitti verkkojaan erityisesti valitsijayhdistyksen ja keskustan ehdokkaana presidentiksi pyrkineen Olli Rehnin äänestäjille.– No tuolla on ollut erittäin hyviä ehdokkaita ensimmäisellä kierroksella ja taisin jossain sanoa, että nukkuisin yöni ihan hyvin, vaikka Olli Rehnin hallitsemassa tasavallassa, Haavisto sanoi.– Totta kai minä tuon Pekan ottaisin, naurahti Alexander Stubb kysymykseen, kenet ensimmäisen kierroksen ehdokkaista hän ottaisi varapresidentiksi, jos sellainen Suomessa olisi.Ehdokkaat kosivat maaseudun äänestäjiäHaavistolla ja Stubbilla on haasteita myös maaseudun äänestäjien tavoittelemisessa.Haavisto kiinnitti huomiota maanviljelijöiden talousvaikeuksiin, kun kustannukset ovat nousseet. Stubb kertoi, että hän on menossa maatilalle perjantaina.Suurin potti kodittomia äänestäjiä on perussuomalaisten ehdokkaana kampanjoineen Jussi Halla-ahon tukijoukoissa.Stubb on pääministeripuolue kokoomuksen ehdokas, mutta hän on varonut leimautumista hallituksen ehdokkaaksi.Ylen presidenttiväittelyssä Stubb toivotti kuitenkin valtiovarainministeri Riikka Purralle (ps.) menestystä talouspolitiikan hoidossa.Erilaisia näkemyksiä Nato-politiikastaPresidenttiväittelyn ensimmäisenä aiheena oli ulko- ja turvallisuuspolitiikka.Haavistolla ja Stubbilla on entisinä ulkoministerinä vahvaa käytännön kokemusta ulkopolitiikan hoitamisesta.Kokemus näkyi ja kuului ehdokkaiden linjauksissa. Vastaukset tulivat nopeasti ja sujuvasti. Näkemyksistä löytyi myös eroja äänestäjien arvioitavaksi.Alexander Stubb edustaa ulko- ja turvallisuuspolitiikassa suoraviivaisempaa linjaa kuin ainakin sanoissaan hieman varovaisempi Haavisto.Presidenttiehdokkaat Alexander Stubb ja Pekka Haavisto sanailivat Suomen Nato-politiikasta Ylen presidenttiväittelyssä 1. helmikuuta 2024.Ydinasepolitiikassa Stubb haluaa viestittää Nato-liittolaisille ja myös Venäjälle, että Suomella ei ole rajoitteita ydinaseiden liikuttelussa tai sijoittamisessa Suomeen.Haavisto muistutti, että ydinenergialaki kieltää ydinaseiden sijoittamisen Suomeen. Stubb vastasi, että lakia voidaan muuttaa.Stubb toivoi, että Suomeen sijoitettaisiin pysyvästi esikuntatehtäviin 40–50 Nato-upseeria.Haaviston mielestä harjoitusyhteistyö riittää, eikä Suomeen tarvita pysyviä Nato-joukkoja.Ehdokkaat säilyttivät malttinsa väittelyssäYlen ensimmäinen presidenttiväittely ei presidenttikisaa vielä ratkaissut.Haavisto ja Stubb säilyttivät hyvin malttinsa väittelyssä.Nopeassa sanailussa äänestäjillä saattoi olla välillä hieman vaikeuksia pysyä mukana, mutta koko väittelyn voi katsoa uudelleen Yle Areenasta.Katso koko presidenttiväittely.Presidentinvaalien toisen kierroksen ehdokkaat Pekka Haavisto ja Alexander Stubb kohtasivat Ylen presidenttiväittelyssä 1. helmikuuta 2024.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -497,22 +493,21 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tässä ovat kahden jäljellä olevan ehdokkaan keskeisimmät viisi eroa</t>
+          <t>Neljä huippukohtaa Stubbin ja Haaviston presi­dent­ti­väit­telystä</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20070906</t>
+          <t>https://yle.fi/a/74-20072600</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.
-Toteutus vaati toimiakseen JavaScriptin.</t>
+          <t>Presidentinvaalien toisen kierroksen ehdokkaat, kokoomuksen Alexander Stubb ja vihreiden tukema, valitsijayhdistyksen Pekka Haavisto kohtasivat Ylen presidenttiväittelyssä torstaina. Katso alta neljä huippukohtaa.Alexander Stubb ehdottaa Suomeen jonkinlaista Naton alaesikuntaa, jossa ei olisi kysymys tukikohdasta vaan muutamasta kymmenestä upseerista. Haaviston mukaan Suomen puolustus nojaa suomalaisiin eikä turvallisuustilanne ole sellainen, että Nato-joukkoja tarvittaisiin.Pekka Haavisto ei halua Suomen liikuttavan ydinaseita konkreettisesti. Alexander Stubbin mukaan Suomella on nyt mahdollisuus saada ydinasepelotin. Hänen mukaansa on kyse siitä, että Suomi viestittää muulle maailmalle, ettei sillä ole rajoitteita Nato-jäsenyytensä suhteen.Haavisto voisi presidenttinä ottaa kantaan työmarkkina-asioihin kulisseissa. Hän suosittelisi sopimusyhteiskunnassa pysymistä eikä rajujen selkävoittojen ottamista.Alexander Stubbin mukaan presidentin tehtävä ei ole tukea hallituksen politiikkaa. Hän sanoo olevansa asian kanssa varovainen, koska on ollut itsekin hallitusvastuussa, joissa päätökset ovat olleet hankalia.Yle näyttää vielä ensi viikon torstaina 8. helmikuuta toisen presidenttiväittelyn, jolloin teemana on erityisesti ulkopolitiikka.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -530,18 +525,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Haavisto ja Stubb kohtaavat Ylellä kello 21 – ehdota kysymyksiä illan A-studioon</t>
+          <t>Kuvat ja videot näyttävät, kuinka suomalaiset viettivät lakkopäivää</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071880</t>
+          <t>https://yle.fi/a/74-20072567</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Kokoomuksen ehdokas Alexander Stubb ja valitsijayhdistyksen ehdokas, vihreiden tukema Pekka Haavisto jatkavat presidentinvaalien toiselle kierrokselle.Stubb sai 27,2 prosenttia ensimmäisen kierroksen äänistä, Haavisto 25,8 prosenttia.Millä eväillä Stubb ja Haavisto lähtevät vaalitaiston loppukiriin? Jatkoon selviytyneet ehdokkaat kohtaavat A-studion suorassa lähetyksessä maanantai-iltana klo 21.00.Keräämme lähetystä varten myös yleisön kysymyksiä, joita voit esittää alla olevalla lomakkeella. 
-</t>
+          <t>Useat SAK:n, STTK:n ja Akavan ammattiliitot protestoivat hallituksen työelämäuudistuksia ja sosiaaliturvaleikkauksia vastaan poliittisilla lakoilla.Lakossa on arviolta 200 000–300 000 ihmistä keskiviikon, torstain ja perjantain aikana.Lakot olivat poikkeuksellisen laajoja torstaina. Ne näkyivät esimerkiksi päiväkodeissa, lentoliikenteessä, tuotantolaitoksissa ja kaupoissa.Torstaina järjestetyssä SAK:n ja STTK:n mielenosoituksessa Helsingin Senaatintorilla oli poliisin arvion mukaan noin 13 000 mielenosoittajaa.Tästä jutusta näet kuvina ja videoina, miten päivä eri puolilla Suomea eteni.Aikaisin aamulla liikkelleLakkovahdit seisoivat torstaiaamuna Škoda Transtechin Otanmäen tehtaan portilla Kajaanissa. Avaa kuvien katseluSAK:n ja STTK:n mielenosoitukseen Helsingin Senaatintorille lähti Turusta aamulla ykstoista bussillista ammattiyhdistysliikkeen jäseniä.  Kuva: Tarja Hiltunen / YleRanja Pelttari ja Marko Ketolainen lähtivät aikaisin aamulla Kokkolan rautatieasemalta kohti Helsinkiä.Eilen keskiviikkona Senaatintorilla oli puolenpäivän aikaan hiljaista ja sää oli sumuinen.24 tuntia myöhemmin aurinkoisella torilla oli tuhansia ihmisiä.Monenlaista kannanottoaAvaa kuvien katseluPääministeri Petteri Orpo (kok.) on sanonut pitävänsä työtaistelutoimia ylimitoitettuina. Hänkin sai osansa mielenosoittajien kylteistä. Kuva: Vesa Moilanen / LehtikuvaAvaa kuvien katseluPääoppositiopuolue SDP:n puheenjohtaja Antti Lindtman piti puheen Senaatintorilla. Kuva: benjamin Suomela / YleMyös työministeri Arto Satonen (kok.) saapui Senaatintorille huutojen säestyksellä.Avaa kuvien katseluHelsingin poliisi arvioi osallistujamääräksi 13 000 ihmistä.  Kuva: Benjamin Suomela / YleAvaa kuvien katseluJärjestäjien arvion mukaan noin 7 000 ihmistä saapui Helsingin ulkopuolelta.  Kuva: Benjamin Suomela / YleYrittäjille vaikeuksia ja ylimääräistä työtäPoliittisilla lakoilla on monenlaisia vaikutuksia yrityksiin. Näin jyväskyläläiset yrittäjät kertoivat lakon vaikutuksista.Avaa kuvien katseluRuokakauppojen aukioloajoissa oli isoa vaihtelua. Tämä kuva on S-market Pasaatista Kotkasta. Kuva: Mari Siltanen / YleAvaa kuvien katseluTurun K-Citymarket Kupittaan kauppias Hannu Aaltosen mukaan noin 80 prosenttia henkilökunnasta tuli torstaina töihin. Hän itse työskenteli kärrypoikana. Kuva: Tarja Hiltunen / YleLappeenrantalainen Miro Kangas sai viettää torstaina vapaapäivää päiväkodista. Hän vietti päivän isänsä kanssa, koska päiväkoti oli kiinni. He kävivät yhdessä ostoksilla.Avaa kuvien katseluKoneen osallistuminen lakkoon pysäytti hissihuoltoa Suomessa. Kuopion kauppakeskus Sektorissa rikkinäisen hissin korjaus viivästyy. Kuva: Petri JulkunenLakko näkyi vahvasti myös muun muassa lentoliikenteessä. Katso Silja Viitalan kuvareportaasista, miltä Helsinki-Vantaan lentoasemalla torstaina näytti.Avaa kuvien katseluSenaatintorilla nähtiin myös toiveikkaita ilmeitä. Kuva: Silja Viitala / YleYle jatkaa lakkojen seurantaa myös perjantaina tässä artikkelissa.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -559,17 +553,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sähköinen asunto­re­kisteri kaaoksessa: moni voi menettää äänioikeuden yhtiö­ko­kouksessa</t>
+          <t>Analyysi: Ministerin torilla saama vastaanotto paljasti, ettei helppoja aikoja ole edessä</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071872</t>
+          <t>https://yle.fi/a/74-20072566</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Eduskunnan oikeusasiamies on kiinnittänyt huomionsa Maanmittauslaitoksen toimintaan, koska asuntojen omistusten rekisteröinnit ovat ruuhkautuneet pahoin.Tästä voi seurata ongelmia juuri asuntokaupan tehneille uusille osakkaille, koska taloyhtiön osakerekisteriin kuulumaton osakas ei voi esimerkiksi osallistua yhtiökokoukseen ja äänestää siellä tehtävistä päätöksistä.– Asiasta ei vielä ole tullut kanteluita, mutta veikkaan, että niitä tulee, sanoo vanhempi oikeusasiamiehen sihteeri Jukka Anttila.Hän seuraa tilanteen kehittymistä. Asiaan voidaan hänen mukaansa tarvittaessa puuttua, vaikka valituksia ei kansalaisilta tulisikaan.– On mahdollista, että tätä lähdetään tutkimaan omasta aloitteesta.Anttila kertoo, että taloudelliseen vaihdantaan liittyvien asioiden käsittely ilman aiheetonta viivästystä kuuluu ihmisten perusoikeuksiin.Osakkaat siirretään sähköiseen rekisteriinVuodesta 2019 lähtien kaikki uudet asunto-osakeyhtiöt on perustettu sähköiseen muotoon.Tätä vanhempien taloyhtiöiden piti siirtää osakasrekisterinsä Maanmittauslaitoksen sähköiseen huoneistotietojärjestelmään vuoden 2023 loppuun mennessä.Vanhoja taloyhtiöitä on noin 90 000 koko Suomessa.Aiemmin osakasluettelot ovat olleet paperilla ja mapeissa isännöitsijöiden toimistoilla.Sähköisen osakeluettelon yhteyteen voidaan rakentaa muita digitaalisia toimintoja, kuten esimerkiksi sähköistä asuntokauppaa.Näin vältytään siltä, että osapuolten pitää kokoontua pankkiin hoitamaan asuntokauppa. Sähköisen asuntokaupan tarve nousi esille etenkin koronapandemian aikana.Noin 90 000 hakemusta jonossaValtaosa taloyhtiöiden osakasluetteloista on jo siirretty Maanmittauslaitokselle.Nyt paperiset osakekirjat muutetaan sähköisiksi.– Jos osakekirja on kotona, omistaja voi toimittaa sen meille. Me mitätöimme sen ja siitä tulee sähköinen, kertoo Maanmittauslaitoksen huoneistojen omistuksesta vastaava johtaja Janne Murtoniemi.Vanhoilla osakkailla on kymmenen vuotta aikaa hakea omistuksensa sähköistä rekisteröintiä. Näin kauan heillä myös säilyvät osakkaan oikeudet.Vanhoilla omistajilla ei siis ole kiire hakea rekisteröintiä, mutta he ovat lähteneet liikkeelle isommalla joukolla kuin Maanmittauslaitos osasi odottaa.– Hiukan alakanttiin arvioitiin näitä asioita, Murtoniemi sanoo.Tällaisia hakemuksia on nyt puolen vuoden jonossa noin 70 000 kappaletta Murtoniemen mukaan.Jos omistaja vaihtuu esimerkiksi asuntokaupan tai perinnön saannin kautta, on uuden osakkaan haettava omistuksen rekisteröintiä kahden kuukauden kuluessa omistajanvaihdoksesta.Tällaiset hakemukset Maanmittauslaitos priorisoi nyt kiireellisemmiksi kuin vanhojen osakkaiden hakemukset.Näitä hakemuksia on jonossa noin 20 000 kappaletta. Niiden käsittelyaika on noin 3–4 kuukautta.Rekrytoinnit purkavat ruuhkaaMaanmittauslaitos rekrytoi syksyllä 40 kokoaikaista ja 80 oman työn ohella auttavaa työntekijää omistusten rekisteröintiin. Helmikuun alussa aloittaa vielä 30 uutta työntekijää. Ulkopuolelta palkatut työntekijä ovat käyneet läpi Suojelupoliisin turvallisuusselvityksen.– Tilanne paranee kevään aikana, Murtoniemi sanoo.Hänen mukaansa rekrytointeja tehdään tarvittaessa myös lisää.Asiakirjojen käsittely ja rekisteröinti hoidetaan tällä hetkellä manuaalisesti. Työtä helpottaa se, että Maanmittauslaitos ottaa sähköisen hakemuksen käyttöön myöhemmin tänä vuonna.Murtoniemi kertoo blogissaan, että tammikuussa tuotu osakekirja rekisteröidään vasta kesäloman ja joulun välillä, jos asunnon omistuksessa ei ole tapahtunut muutosta.Jos rekisteröinti ei voi odottaa, sitä voi ”poikkeustilanteissa” edistää ottamalla yhteyttä asiakaspalveluun, kerrotaan Maanmittauslaitoksen sivuilla. Kiireelliset asiat luvataan hoitaa parissa päivässä.Murtoniemi suosittelee, että uusi osakas pyytää edelliseltä osakkeen omistajalta valtakirjaa, jos haluaa osallistua taloyhtiön kokoukseen.Vastikelaskut ja muita asumisen käytännön asioita saa hoidettua, kun toimittaa kauppakirjan isännöitsijälle.Lokakuussa 2023 julkaistulla videolla Ylen toimittaja Sirkka Haverinen kertoo, miten paperinen osakekirja muutetaan sähköiseksi.</t>
+          <t>Työministeri Arto Satonen (kok.) nousi buuausten saattelemana torstaina Senaatintorin lavalle toistamaan tuttua viestiä. Hallituksen ajamat muutokset ovat välttämättömiä kansantalouden tasapainottamiseksi, kilpailukyvyn parantamiseksi ja työllisyyden lisäämiseksi.Satosen puhe ei varsinaisesti uponnut mielenosoittajiin kuin veitsi sulaan voihin.Ay-liikkeen nyt nähtävät ponnistukset ovat jatkoa jo viime syksyllä alkaneille toimille.Kaava vaikuttaa selkeältä.Siinä missä joulukuiset lakot olivat vuorokauden mittaisia, tämänhetkiset toimet kestävät enintään kaksi päivää.Laajuus on myös paisunut. Nyt kolmen päivän ajalle ulottuvien, erimittaisten lakkojen piirissä on ammattiliittojen mukaan jopa 300 000 työntekijää.Ylen tietojen mukaan SAK:n työvaliokunta kokoontuu huomenna perjantaina ja luvassa on lisää työtaisteluilmoituksia.Jatkoa voi siis seurata jo ennen kuin viimeisetkin keiton jämät on kaavittu soppatykkien pohjilta.Seuraavat toimet tuskin poikkeavat linjasta. Vaikka työntekijäleiri toistelee toivovansa hallitukselta vastaantuloa, siitä ei ainakaan vielä näy merkkejä. Toki siitä ei myöskään ole varmuutta, millainen vastaantulo olisi riittävä.Suurin työntekijäkenttää hiertävä kysymys on varmasti kokemus siitä, että neuvottelut työelämämuutoksista eivät ole aitoja. Työntekijäleiri katsoo elinkeinoelämän kädenjäljen näkyvän niin voimakkaasti hallitusohjelmassa, että työnantajaleirillä ei ole motivaatiota tulla piiruakaan vastaan.Työministeri Satonen heitti jälleen Senaatintorilla palloa palkansaajapuolelle.Hän toivoi, että työntekijäkeskusjärjestö SAK palaa takaisin neuvottelemaan vientivetoisesta palkkamallista. SAK keskeytti neuvottelut joulukuussa, kun asialistaa ei suostuttu laajentamaan koskemaan muita hallituksen ajamia työelämämuutoksia.Perinteisesti merkittävistä työelämämuutoksista on neuvoteltu työmarkkinaosapuolten kanssa. Nyt työ kolmikannoissa on takunnut, ja esimerkiksi poliittisten lakkojen rajaamista pohtineen työryhmän työ päättyi erimielisenä.Osa hallituksen ajamista muutoksista on ay-liikkeelle hyvin periaatteellisia.Esimerkiksi paikallisen sopimisen laajentamisen järjestäytymättömiin yrityksiin pelätään romuttavan koko työehtosopimusten yleissitovuuden.Onko tilanteesta ulospääsyä?Vaikka työnantajat eivät ole nyt nähtävän kiistan suora osapuoli, lakoilla pyritään vaikuttamaan myös työnantajalinnakkeen, Eteläranta 10:n, joukkoihin. Hallitus kuuntelee työnantajaleiriä hyvin herkällä korvalla, palkansaajajärjestöissä nähdään.Työnantajaleirissä katsotaan, että hallitusohjelmakirjauksilla saavutetaan isommat hyödyt kuin mitä haittoja työtaisteluista aiheutuu.Elinkeinoelämän keskusliitto arvioi, että nyt käynnissä olevien lakkotoimien tekemä lovi bruttokansantuotteeseen on 360 miljoonaa euroa. Kipurajan sijaintia voi vain arvailla.Työnantajaleirissä luotetaan eduskunnan kokoonpanon pysyvän vastaisuudessakin heille niin suotuisana, että kerran läpi saatuja poliittisia päätöksiä tuskin tullaan lähitulevaisuudessa purkamaan.Senaatintorille kokoontuneet työntekijät olivat täynnä taistelutahtoa. Ilmassa oli tyytymättömyyttä, vihaakin. Osalle taas tapahtuma saattoi olla toivottu lisävapaapäivä, jolloin saa viettää vapaa-aikaa kollegoiden kanssa.Osassa ammattiliitoista poliittisiin työtaisteluihin osallistuminen jakaa jäsenistöä. Jäsenistöstä iso osa voi olla hallituspuolueiden kannattajia, ja se näkyy muun muassa monessa korkeakoulutettujen keskusjärjestö Akavan jäsenliitossa.Akavalaiset liitot laajemmin eivät olekaan yhtyneet työntekijäkeskusjärjestö SAK:n johtamaan ja STTK:n peesaamaan lakkorintamaan. Ensi viikolla Akavakin kuitenkin järjestää kahden tunnin mielenilmauksen vastalauseena hallituksen toimille. Aika näyttää, meneekö viesti akavalaisten kautta paremmin perille.Kannatus pysynytHallituspuolueiden kannatus on pitänyt pintansa kovista toimista huolimatta.Jos jonkun hallituspuolueen kannatus kääntyisi kovaan laskuun hallituksen työpolitiikan vuoksi, se voisi lisätä soraääniä hallituksen sisällä ja edesauttaa vastaantuloa työntekijäleirin suuntaan.Katse on kohdistunut etenkin perussuomalaisiin. Pettymistä puolueeseen oli ilmassa ainakin Senaatintorilla, kun lakkoilijoita epäisänmaallisuudesta syyttänyt perussuomalaisten kansanedustaja Miko Bergbom piti puheen mielenosoitusväelle.Omaa tarinaansa kertoi yhden mielenosoittajan kantama kyltti, joka julisti tutunkuuloista fraasia mukaillen: ”Perussuomalaiset pettävät aina”.Edessä häämöttää myös huhtikuinen kehysriihi, josta valtiovarainministeri Riikka Purra (ps.) on ennakoinut jopa kahden miljardin lisäleikkauksia.Palkansaajajärjestöt vakuuttavat keinovalikoimaa vielä riittävän. Vaikka Teollisuusliiton ja AKT:n kaltaisia voimaliittoja seurataan tarkasti, esimerkiksi naisvaltaisten matalapalkka-alojen pidemmillä lakoilla voisi olla merkittäviä vaikutuksia ihmisten arkeen.Ammattiyhdistyksiin kuuluu yhä pienempi osa työvoimasta. Tämä voi vaikuttaa ay-liikkeen iskuvoimaan.Nyt nähtävä ponnistus ei kuitenkaan ole viimeinen laatuaan.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -587,17 +581,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Joku heistä kolmesta on seuraava puolus­tus­voimain komentaja – nimi selviää keskiviikkona</t>
+          <t>Puolus­tus­mi­nisteri Antti Häkkänen aikoo estää reservistä eroamisen, kertoo Kyrönmaa-lehti</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071938</t>
+          <t>https://yle.fi/a/74-20072595</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Puolustusvoimat on saamassa uuden komentajan. Nykyinen komentaja Timo Kivinen jää eläkkeelle 31. maaliskuuta.Uuden komentaja nimi selviää Ylen tietojen mukaan keskiviikkona, jolloin valtioneuvosto ja presidentti päättävät asiasta ylimääräisissä istunnoissa.Ylen tietojen mukaan valinta tehtiin lopulta kolmen ehdokkaan joukosta.Puolustusvoimien strategiapäällikkö, kenraaliluutnantti Janne Jaakkola, 56. Aiemmin pääesikunnan suunnittelupäällikkönä ja Utin erikoisjääkäripataljonnan komentajana.Pääesikunnan päällikkö, kenraaliluutnantti Vesa Virtanen, 57. Aiemmin Kainuun prikaatin komentajana.Maavoimien komentaja, kenraaliluutnantti Pasi Välimäki, 58. Aiemmin Karjalan prikaatin komentajana.Päätös uudesta puolustusvoimien komentajasta osuu aivan presidentti Sauli Niinistön virkakauden loppuun, ja tuleva komentaja tekee töitä presidentti Niinistön seuraajan kanssa.Valintaa on valmisteltu jo viime syksystä, ja ehdokkaita ovat haastatelleet sekä presidentti että puolustusministeriön edustajat.Nimityksellä on kiire, koska nykyinen komentaja jää eläkkeelle. Päätös tarvitaan nopeasti myös sen takia, että komentajan nimitys pyöräyttää liikkeelle puolustusvoimien johdossa ison nimityskierroksen, joka on jo joutunut odottamaan.Hävittäjiä ja sotalaivoja lähdössä Nato-töihinMyös toinen pitkään odotettu ratkaisu etenee. Ylen lähteiden mukaan tasavallan presidentin ja keskeisten ministereiden tp-utva on linjannut Naton rauhanajan tehtävistä, joihin Suomi osallistuu.Ylen tietojen mukaan ilmavoimat ja merivoimat osallistuisivat pienimuotoisesti Naton yhteisiin sotilasliiton itärajaa vahvistaviin tehtäviin jo kevätkesällä. Asia menee eduskunnan käsittelyyn, kun eduskunta palaa istusntotauolta.Maavoimien osalta ratkaisu jää odottamaan, koska reserviläisiä ei toistaiseksi voi sitoa näihin Naton tehtäviin.Naton uutena liittolaisena Suomi haluaa osoittaa, että se kantaa huolta koko liittokunnan turvallisuudesta myös muualla kuin omalla maaperällään.</t>
+          <t>Puolustusministeri Antti Häkkänen (kok.) suunnittelee estävänsä reservistä eroamisen.Näin hän kertoi Laihialla ilmestyvälle Kyrönmaa-lehdelle torstaina.Häkkänen aikoo etsiä keinot, ettei reservistä eroaminen olisi enää jatkossa mahdollista.Haastattelussa hän kertoo pitävänsä epäisänmaallisena sitä, että reservistä erotaan.Yhä useampi armeijan käynyt reserviläinen on siirtynyt siviilipalvelukseenVuoden 2022 lopulla Ylelläkin uutisoitiin, että reservistä siviilipalvelukseen siirtyvien määrä on moninkertaistunut Ukrainan sodan alkamisen jälkeen.Vaikka tarkkoja syitä reserviläisten siviilipalveluksen suosion rajuun kasvuun ei kuitenkaan tiedetä, arvioi siviilipalvelusjohtaja Mikko Reijonen siviilipalveluskeskuksesta, että Ukrainan sodan vaikutus oli ilmeinen.Puolustusvoimissa ei oltu kuitenkaan huolissaan lukujen kasvusta.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -611,21 +605,21 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ylilaudalla julkaistiin anonyymi pommiuhkaus SDP:n puolue­toi­mistoa vastaan – pian kirjoittajan luo ilmestyi poliisi</t>
+          <t>Kommentti: Kimi Räikkösen jälkeinen kuiva putki vihdoin katki? Unelma­liitosta jättipotti tylsäksi haukutulle F1-sarjalle</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071887</t>
+          <t>https://yle.fi/a/74-20072549</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SDP:n puoluetoimistoon Helsingissä kohdistui joulukuussa epäilty pommiuhka. Tilanne sai alkunsa, kun keskustelupalsta Ylilaudalle ilmestyi kirjoitus pommista.Yle on nähnyt kirjoituksen, joka kuuluu sanatarkasti: ”SDP puoletoimistoon pommin kanssa 15.12.2023.”Ylilauta.org on keskustelupalsta, jolla esiinnytään anonyymisti. Tarvittaessa poliisi pyytää sivuston ylläpidolta käyttäjien IP-osoitteita, ja ylläpito luovuttaa tiedot poliisille.Ylen tietojen mukaan poliisi selvitti viestin epäillyn kirjoittajan ja otti tämän kiinni. Mies on syntynyt vuonna 1997 ja asuu Turussa. Hänellä ei todellisuudessa ollut hallussaan räjähdettä.Jutun tutkinnanjohtaja, rikoskomisario Riikka Laaksonen Lounais-Suomen poliisista vahvistaa, että poliisi on tutkinut kyseistä rikosta nimikkeellä perätön vaarailmoitus.Epäilty on Laaksosen mukaan kiistänyt rikoksen. Poliisi ei kerro tarkemmin, mitä epäilty on kuulustelussa kertonut.Asia eteni syyteharkintaan jo joulukuussa, mutta mahdollista syytettä ei vielä ole nostettu.Epäilty tuomittu kunnianloukkauksestaYlen tietojen mukaan epäilty on aiemmin tuomittu sakkorangaistukseen kunnianloukkauksesta. Mies oli vuosien 2018 ja 2019 aikana lähetellyt eräälle naiselle Snapchatissa halventavia ja alatyylisiä viestejä, jotka tuomion mukaan sisälsivät sukupuoleen, ihmisarvoon ja terveyteen liittyviä ilmaisuja.Yle kertoi marraskuussa 2023 pirkanmaalaismiehestä, jota Keskusrikospoliisi epäilee terroristisessa tarkoituksessa tehdyistä laittomista uhkauksista. Miehen epäillään eduskuntavaalien alla lähettäneen useisiin puoluetoimistoihin pommilta muistuttavia paketteja.Kyseisen rikosepäilyn esitutkinta on yhä käynnissä, eikä se liity turkulaismiehen tapaukseen.</t>
+          <t>Formula 1 -maailma hätkähti oikein kunnolla perjantaina. ”Lewis Hamilton on siirtymässä Ferrarille”, raportoi muun muassa erittäin luotettu ja perinteikäs moottoriurheilumedia Autosport.Sitä ennen italialainen Corriere della Sera oli aamulla spekuloinut siirrolla ja saanut F1-fanit hämmästelemään. Voiko tämä olla totta? Voiko tähän uskoa, vaikka Autosport erittäin harvoin tekee huteja?Autosportin ja Sky Sportsin perään moni muu alkoi myös uutisoida samaa asiaa. Britannin yleisradioyhtiö BBC kertoi myös Mercedeksen reaktiosta. Kokoon oli kutsuttu koko tiimi palaveriin torstai-iltapäiväksi.Italialaisen Gazzetta dello Sportin mukaan ratkaisu oli niin pikainen, että Mercedes-pomo Toto Wolff johti puhetta ja kertoi Hamiltonin yllätysratkaisusta etäyhteydellä ulkomailta. Sky Sports näytti, kuinka Mercedeksen väki tuli paikalle ja sitten poistui nopeasti tehtaalta palaverin jälkeen. Tilanne alleviivasi koko asian yllätyksellisyyttä.Lewis Hamiltonin siirtymisestä Ferrarille on puhuttu jo monena vuotena aikaisemminkin. Ei ole oikeastaan ollut silly seasonia, F1-kuljettajien siirtoaikaa, jolloin tätä liittoa ei olisi nostettu esiin.Nyt kuitenkin tärähti voimalla ja oikein kunnolla. Tavalla, jota ei koskaan aiemmin Hamiltonin Ferrari-huhuissa nähty. Normaalisti silly season ei ole käynnissä ainakaan helmikuun alussa, vaan kesähelteillä ja alkusyksystä.Šokkisiirto sai sinettinsä torstaina noin kello 21 Suomen aikaa. Ensin Mercedes kertoi, että Hamilton on hyödyntänyt sopimuksessaan ollutta purkupykälää ja siirtyy toisaalle kauden 2024 jälkeen.Ferrari tiedotti perään, että Hamilton siirtyy kaudeksi 2025 Ferrarille monivuotisella sopimuksella.Lue lisää: F1-jättipaukulle vahvistus! Näin Lewis Hamilton selittää lähtöään FerrarilleAvaa kuvien katseluLewis Hamilton jättää Mercedeksen historiallisena menestyneenä F1-kuskina. Kuva: NurPhoto / Getty ImagesKaikkein aikojen menestyneimmän F1-kuljettajan siirtyminen kaikkein perinteikkäämpään formulatalliin on järisyttävä uutinen.Hamiltonin ja Ferrarin sopimus on unelmaliitto, jota F1-sarjan omistaja Liberty Media ei varmasti edes villeimmissä unelmissaan uskonut. Hamiltonin ja Ferrarin toiminta avaa valtavia kaupallisia mahdollisuuksia. Ei vain Hamiltonille ja Ferrarille, mutta myös koko sarjalle.F1-sarja oli jo ehtinyt kitua kiinnostavuusongelman kanssa, kun Red Bullista ja Max Verstappenista tuli jopa historiallisen ylivoimaisia. Suurin osa kilpailuista on ollut viime vuosina todella ennalta-arvattavia.Vaikka F1-sarja on kasvanut kasvamistaan, Red Bullin ja Max Verstappenin ylivoimasta olisi tullut varmasti tulevina vuosina iso uhka kuninkuusluokan kiinnostavuudelle globaalisti.Nyt Hamiltonin sopimus Ferrarin kanssa luo ihan uutta kiinnostavuutta sarjaan.Netflixin F1-dokumenttisarjan Drive to Surviven tekijät varmasti hierovat käsiään. Miten Hamilton ajaa tällä kaudella kaikki 24 kilpailua Mercedeksellä, kun hän siirtyy kuitenkin seuraavaksi vuodeksi kilpailijan riveihin? Mitä tapahtuu kulisseissa? Puheenaiheita varmasti riittää.Kimi Räikkösen haamu poistuu?Ferrarin takamatka Red Bulliin on toki vielä melkoinen, mutta nyt on monen mielestä käsillä kaikkien aikojen kovimman kuljettajan viimeinen tanssi. Hamiltonin himoa ei pidä aliarvioida. Brittimestarin kohdalla 40 vuotta ei ole ikä, joka estäisi voittamista.Asetelmat ovat mielenkiintoiset. Vuonna 2025 valmistaudutaan sääntömuutoksiin ja uusiin autoihin. Vuonna 2026 historiallinen kahdeksas kuljettajien mestaruus. Viimeinen niitti ohi Michael Schumacherin kaikkien aikojen ykkösenä. Tällainen elokuvamainen tarina on varmasti monen mielessä.Toisella puolella kolikkoa on sitten Sebastian Vettelin tarina. Saksalainen saapui Ferrarille neljän mestaruuden ja yhden heikomman kauden jälkeen Red Bullilta 2010-luvun puolivälissä. Ferrari ei kuitenkaan siivittänyt Vetteliä enää mestariksi, kun Hamilton ja Mercedes olivat vahvempia.Maranellossa odotukset ovat myös varmasti korkealla. On suorastaan käsittämätön ja monelle Ferrari-fanille, tifosolle, kiusallinen fakta, että Kimi Räikkönen on yhä Ferrarin viimeisen kuljettajien maailmanmestari vuodelta 2007. Sen jälkeen tuli vielä yksi tiimien mestaruus, mutta muuten mahtitallissa on vietetty todella kuivaa putkea.Avaa kuvien katseluJoko joku muukin Ferrari-kuski pääsee vihdoin Kimi Räikkösen jalanjäljissä juhlimaan F1-mestaruutta? Kuva: Getty ImagesNyt jos koskaan Ferrarin kuljettajan pitäisi nousta kuljettajien maailmanmestariksi. Pitkään aikaan ei ole nähty formula ykkösissä kovempaa kuljettajakaksikkoa kuin Lewis Hamilton ja Charles Leclerc. Jälkimmäinen ei varmasti tule myöskään helpolla luovuttamaan valtikkaansa Hamiltonille.Ferrarin oma poika, akatemiasta kasvatettu Leclerc himoinnee varmasti Hamiltonin päänahkaa ja sitä, että hän toisi pitkään odotetun mestaruuden Maranelloon. Ferrarin toimintaan olennaisesti kuuluvaa sisäpolitiikkaa nähdään varmasti.Italialaismedia pääsee takomaan herkullisia otsikoita. Kehutun ranskalaispomon ja Lewis Hamiltonin siirron takapiruna pidetyn Frederic Vasseurin taidot päästään mittaamaan kunnolla.Kaiken kaikkiaan Lewis Hamiltonin šokkipäätös tuo autourheilun kuninkuusluokkaan sähinää, jota se on kaikkien tylsien kisojen jälkeen tarvinnut.Tätä F1-herkkua tuskin malttaa odottaa. Melkoinen täyskäännös viime vuosien tunnelmiin.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -639,21 +633,21 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Maanvil­je­li­jöiden protestit Keski-Euroopassa jatkuvat – yrittävät nyt tukkia trakto­reillaan Pariisiin johtavat moottoritiet</t>
+          <t>F1-jättipaukulle vahvistus! Näin Lewis Hamilton selittää lähtöään Ferrarille</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071931</t>
+          <t>https://yle.fi/a/74-20072598</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ranskalaiset maanviljelijät protestoivat muun muassa lisääntynyttä byrokratiaa vastaan. Heidän mukaansa maaseutu kuolee.Taustalla on suurempikin suuttumus ja se on erityisesti Euroopan Unionia ja sen esittämää luonnon ennallistamisasetusta vastaan. Se edellyttää jäsenmailta uusia ympäristötoimia vuoteen 2030 mennessä.Esimerkiksi nykyisestä peltopinta-alasta joltiseenkin neljä prosenttia tulisi jättää kesannolle.Se on pois maanviljelijän tilipussista.– Kyse on kesantopinta-alasta, kauppaneuvotteluista, maataloustuotteiden tuonnista, karjaeläinten kasvattamisesta, ylisääntelystä, maanviljelijöiden tyytymättömyydestä, hallinnasta ja kaikesta tästä, luettelee paikallisen viljelijäjärjestön puheenjohtaja Regis Desrumaux.Mitta on täysi, joten maanviljelijät ovat ilmoittaneet saartavansa Pariisin määrittelemättömäksi ajaksi tukkimalla kaupunkiin ja sieltä pois johtavat moottoritiet traktoreilla.Brittimedia Guardianin verkkosivujen mukaan koolla on jopa 1 000 traktoria.”Emme poistu ennen kuin olemme tyytyväisiä”– Jotain on tapahduttava, emme poistu, ennen kuin olemme tyytyväisiä, protestiin osallistuva Judy Peeters sanoo Reutersin haastattelussa tiukkana.– Tarkoitus oli kokoontua vasta torstaina, mutta halusimme näyttää, että voimme olla pidempäänkin. Haluamme tulla kuulluksi ja viestiä ministereille, että heidän on toimittava tai muuten kuolemme pikkuhiljaa pois, sanoo puolestaan Nicolas Abbeloos.Myös Belgiassa traktorit tukkivat moottoritieliikennettä. Osa maanviljelijöistä on ajanut traktorinsa aivan EU-päätöksenteon ytimeen, lähelle parlamenttitaloa Brysselissä.Monet protestiin osallistuvat nukkuvat yönsä traktorin hytissä. Välillä kokoonnutaan ulos lämmittelemään porukalla nuotioiden äärelle.Voileipiä protestoijille A16-moottoritien varressa valmistanut nainen sanoi uskovansa, että mielenosoitukselle on laaja kansan tuki.– He ymmärtävät, että meidän mittamme on täysi. Emme voi harrastaa halpamaanviljelyä. Ruokakori on tärkeä juttu, mutta kyllä tällä pitää pystyä elämään, hän sanoi Ranskan television haastattelussa.</t>
+          <t>Mercedeksen F1-talli vahvisti tiedotteessaan, että seitsemänkertainen mestari Lewis Hamilton siirtyy muualle tallista tämän kauden jälkeen. Tiedotteen mukaan Hamilton on hyödyntänyt sopimuksessaan ollutta purkupykälää. Vielä viime elokuussa Hamilton oli tehnyt Mercedeksen kanssa sopimuksen tästä ja ensi kaudesta.Ferrari tiedotti perään, että Hamilton siirtyy kaudeksi 2025 Ferrarille monivuotisella sopimuksella.– Minulla on ollut 11 uskomatonta vuotta tiimissä. Olen ylpeä siitä, mitä saavutimme yhdessä. Mercedes on ollut osa elämääni 13-vuotiaasta asti. Olen kasvanut Mercedeksen mukana. Tämä oli yksi vaikeimmista päätöksistäni elämässäni. Nyt on kuitenkin oikea aika ottaa tämä askel. Olen innoissani uudesta haasteesta, Hamilton sanoi tiedotteessa ja kiitteli tallipäällikkö Toto Wolffia.Hamilton vakuuttaa antavansa vielä alkavalla kaudella kaikkensa Mercedeksellä.– Suhteemme Lewisin kanssa on ollut historian menestyksekkäin, kun katsotaan tiimiä ja kuljettajaa. Lewis tulee olemaan tärkeä osa Mercedeksen moottoriurheiluhistoriaa. Tiesimme, että yhteistyömme tulee luonnolliseen loppuun jossain vaiheessa. Nyt se päivä on tullut. Hyväksymme Lewisin päätöksen hakea uusia haasteita, Wolff sanoi.Avaa kuvien katseluTästä se kaikki lähti. Lewis Hamilton ja Toto Wolff juhlivat ensimmäistä F1-mestaruuttaan vuonna 2014. Kuva: Getty ImagesHamilton siirtyi Mercedekselle vuodeksi 2013 McLarenilta. Hän voitti Mercedeksellä kuusi kuljettajien mestaruutta. Vuonna 2016 tuli tappio Nico Rosbergille, mutta muuten britti dominoi Mercedeksen kanssa F1-sarjaa.Jo McLarenilla Hamilton ajoi Mercedeksen moottoreilla F1-uransa alusta asti eli nyt Hamiltonilla katkeaa pitkä 17 vuoden ajanjakso saksalaisen autonvalmistajan kanssa. Jo sitä ennenkin Hamilton teki yhteistyötä Mercedeksen kanssa.Viime vuodet ovat olleet hankalia Hamiltonille ja Mercedekselle. Viimeksi britti on voittanut F1-kilpailun joulukuussa 2021. Kaikkien aikojen eniten F1-kilpailuja voittanut kuljettaja ei ole siis kahdella edellisellä kaudella noussut kertaakaan korkeimmalle korokkeelle.39-vuotias Hamilton on napannut myös kaikkien aikojen eniten paalupaikkoja. Michael Schumacher on ainoa, joka on Lewis Hamiltonin tavoin yltänyt seitsemään mestaruuteen.Siirto tarkoittaa sitä, että Carlos Sainz ei jatka enää alkavan kauden jälkeen Ferrarilla. Lewis Hamiltonin tallitoveriksi jää Charles Leclerc kaudelle 2025.– Meillä on pitkä kausi edessämme. Kuten aina, tulen tekemään parhaani tiimilleni ja tifosoille (Ferrari-faneille) ympäri maailmaa, Sainz kirjoitti X-tilillään.Sainz kertoo, että hänen oma F1-tulevaisuutensa ratkeaa aikanaan.F1-kausi alkaa kolmen viikon päästä testeillä Bahrainissa. Kauden ensimmäinen kilpailu on luvassa Bahrainissa 2. maaliskuuta.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -667,21 +661,21 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Itä-Suomen poliisi: Lunnin ampumisesta on tehty tutkin­tapyyntö</t>
+          <t>Näin Suomen julkinen liikenne pysähtyy – katso lakon vaikutukset busseihin, juniin ja ratikoihin</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071897</t>
+          <t>https://yle.fi/a/74-20072444</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Poliisin toiminnasta ja lunnin kohtalosta on tehty ainakin yksi tutkintapyyntö, kerrotaan Itä-Suomen poliisista.Poliisi ampui lunnin Joensuun Karsikossa sen jälkeen, kun pihalla kävelevästä linnusta oli ilmoitettu hätäkeskukseen.Itä-Suomen poliisin mukaan ampumiseen johtaneista tapahtumista aloitetaan mahdollisesti esitutkinta. Ennen sitä asiasta tehdään esiselvitys.Tämän vuoksi poliisi ei kerro vielä yksityiskohtia siitä, mikä johti eläimen lopettamiseen ampumalla.Itä-Suomen poliisin komisario Jari Lehto kommentoi asiaa yleisellä tasolla. Lehto kertoo, että tarvittaessa poliisi lopettaa kituvan eläimen. Tavoitteena on lopettaa loukkaantuneen eläimen kärsimys.– Eroa ei tehdä siinä, onko kyseessä rauhoitettu tai uhanalainen eläin, hän sanoo.Yle haastatteli joensuulaisnaista, joka teki erikoisesta linnusta ilmoituksen. Nainen kertoi arvioineensa poliisille, että pihalle ilmestynyt lintu on luultavasti lunni tai ruokki.Birdlife Suomi kritisoi, Pohjois-Karjalassa aiotaan tehdä ohjeetLunnin kohtalo on herättänyt paljon keskustelua. Esimerkiksi Birdlife Suomen mukaan linnun ampuminen oli poliisilta virhearvio.Birdlife Suomen tiedottaja Jan Södersved kommentoi Ylen haastattelussa, että viranomaiset ottaisivat yhteyttä asiantuntijaan ennen päätöstä lopettaa lintu.Pohjois-Karjalan lintutieteellinen yhdistys aikoo laatia viranomaisille yhteystietolistan henkilöistä, joihin voi ottaa yhteyttä vastaavissa tilanteissa.Listalle nimetään ihmisiä, jotka toimivat eläinsuojeluyhdistyksissä ja rengastavat lintuja. Tarkoitus on tehdä myös selkeät ohjeet. Ne laaditaan yhteistyössä viranomaisten kanssa.Lunni on Suomessa harvinainen. Yksittäisiä lintuja harhautuu Suomeen tyypillisesti tammikuussa. Lunni on maailmanlaajuisesti uhanalainen laji.Muutamia lunneja on harhautunut Itä-Suomeen ja Lappiin tammikuun loppupuolella.</t>
+          <t>Julkinen liike pysähtyy tai harvenee perjantaina lakkojen takia lähes koko Suomessa.Julkisten ja hyvinvointialojen liitto JHL:n lakko pysäyttää matkustajajunaliikenteen koko maassa Pohjois-Suomen yöjunia lukuun ottamatta. Junaliikenteen lakko koskee työvuoroja, jotka alkavat 2. helmikuuta kello 00.01 ja 23.59 välillä. Lauantain junaliikenne kulkee normaalisti.VR:n kaukoliikenteen kertalipun voi muuttaa halutessaan toiseen ajankohtaan maksutta. Jos matkan ajankohtaa ei vaihda, VR palauttaa rahat automaattisesti takaisin lakon ajalle ostetuista junalipuista.Osa kaukoliikenteen busseista ei liikennöiAuto- ja kuljetusalan työntekijäjärjestö AKT:n lakko vaikuttaa kaukoliikenteen linja-autoihin.Osa Matkahuollon vuoroista jää liikennöimättä. Matkahuollon verkkosivujen aikatauluhaussa ja nettilipunmyynnissä on ajantasainen tieto mahdollisen lakonkin aikana.Onnibus pyrkii ajamaan suurimman osan vuoroista. Lipunmyynnissä voi olla peruttuja vuoroja, mutta lista ajettavista vuoroista päivittyy Onnibusin nettisivuille. Lauantaina Onnibus ajaa vuorot normaalisti lukuun ottamatta klo 1.30 Tampereelta lentokentälle lähtevää vuoroa.Vuoroihin voi tulla muutoksia lyhyellä varoitusajalla. Sekä Onnibus että Matkahuolto hyvittävät perutuille vuoroille ostetut liput.Toimittaja Juha Kokkala kyseli Tampereen rautatieasemalle, että vieläkö matkustajilla riittää lakkolaisille ymmärrystä.Paikallisliikenteen vuoroja peruttu ympäri SuomeaAKT:n ja JHL:n lakot iskevät myös paikallisliikenteeseen. Selvitimme, miten lakon vaikutukset näkyvät eri puolilla Suomea.PääkaupunkiseutuPääkaupunkiseudulla paikallisjunat, metrot ja raitiovaunut eivät liikennöi tänään lainkaan. Myös suuri osa HSL:n bussiliikenteestä jää ajamatta.Torstain ja perjantain välisenä yönä bussit ja raitiovaunut kulkevat noin kello kahteen. Sen jälkeen liikenne on lähes kokonaan seisahduksissa ja alkaa uudelleen lauantaiaamuna.Osa busseista kuitenkin kulkee myös perjantaina.HSL päivittää sivuilleen ajantasaista tietoa lakon vaikutuksista liikennöintiin.AvaaTampereBussit, ratikat ja lähijunat eivät kulje perjantaina Tampereen seudulla. Torstain ja perjantain välisenä yönä ratikat ja bussit liikennöivät työvuorot loppuun eli noin kello kahteen.Joitain yksittäisiä bussivuoroja saatetaan ajaa perjantain aikana. Vain neljä linjaa liikennöi perjantaina normaalisti aikataulun mukaan. Ajantasaisen tiedon liikennöivistä linjoista voi tarkistaa Nyssen reittioppaasta.Lauantaina bussiliikenne palaa normaaliksi lauantaiaamuna noin neljän ja viiden välillä. Ratikkaliikenne käynnistyy viiden jälkeen lauantaiaamuna.AvaaTurkuLakko pysäyttää ainakin osan Fölin bussiliikenteestä perjantaina, mutta ajettavia vuoroja on lähes kaikilla linjoilla.Ajettavat vuorot selviävät vasta, kun tiedetään lakkoon osallistuvien kuljettajien määrä. Ajantasainen tieto ajettavista vuoroista löytyy Fölin verkkosivuilta.Fölin reittiopas ei päivity lakon aikana, mutta peruutetut vuorot ovat nähtävissä reittioppaan pysäkkiaikatauluista.AvaaLahtiLahden seudun liikenteessä suurinta osaa vuoroista ei ajeta perjantaina. Lakkopäivänä ajettavat vuorot löytyvät LSL:n verkkosivuilta.Ajettavat linjat kulkevat pääsääntöisesti vain perjantai-iltapäivään saakka.AvaaHämeenlinnaOsa Hämeenlinnan seudun bussivuoroista jää ajamatta perjantaina. Pekolan Liikenteen ja Mikkolan Liikenteen seutulinjat sekä Lehdon liikenteen vuorot kulkevat normaalisti.Esimerkiksi kaikkia Länsilinjojen liikennöimiä linjoja ei ajeta. Myös osa koulukuljetuksista voi jäädä ajamatta.Tiedot päivitetään reittioppaaseen sekä Hämeenlinnan kaupungin verkkosivuille.AvaaJyväskyläUseimmat Linkki-linjat jäävät ajamatta Jyväskylässä, Laukaassa ja Muuramessa. Muutamat linjat kuitenkin liikennöivät normaalisti. Kokonaan ajamatta jäävät Koiviston Auto Jyväskylän vuorot.Linkin aikataulu- ja reittioppaasta näkee, mitkä vuorot liikennöivät lakon aikana.AvaaItä-SuomiLakon takia Itä-Suomessa jää ajamatta osa Koiviston auto Kuopion, Pohjolan matkan, Savonlinjan, Savo-Karjalan linjan ja Soisalon liikenteen vuoroista.Kuopiossa suurin osa paikallisliikenteen bussivuoroista jää ajamatta, mutta muutamia yksittäisiä linjoja ja vuoroja liikennöi normaalisti.Myös osa ely-keskuksen järjestämän liikenteen vuoroista voi jäädä ajamatta. Lakon aikaisen liikennöinnin tietoja päivitetään ely-keskuksen verkkosivuille ja aluekohtaisiin reittioppaisiin.AvaaKaakkois-SuomiPerjantain lakko peruuttaa suuren osan paikallisliikenteen bussivuoroista Kaakkois-Suomessa. Lauantaina liikenne ajetaan normaalisti aamukolmesta alkaen.Katso täältä tarkemmat tiedot Lappeenrannan, Kouvolan ja Kotkan seudun paikallisliikenteestä.AvaaSatakuntaSatakunnassa osa paikallisliikenteestä ei liikennöi perjantaina Raumalla ja Porissa. Lakon piirissä ovat Rauman Gyyt, Porin Linjat ja Satakunnan Liikenne.AvaaVaasaVaasassa suurin osa bussiliikenteen vuoroista jää ajamatta. Kaupunki pyrkii pitämään Liftin reittioppaan aikataulutiedot ajan tasalla.Lakon aikana Vaasan kaupunki tarjoaa bussimatkat ilmaiseksi Vekan ja Oravaisten Liikenteen liikennöimillä linjoilla.AvaaRovaniemiRovaniemellä osa paikallisliikenne Linkkarin bussivuoroista jää ajamatta perjantaina. Myös koulukuljetuksissa on muutoksia.Ajantasainen tieto lakon aiheuttamista muutoksista löytyy Linkkarin sivuilta.Avaa</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -695,21 +689,21 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Salon murha­tut­kinnan pääepäillyt on siirretty tutkin­ta­van­kilaan – poliisi ei edelleenkään valota murhan motiivia</t>
+          <t>Näin lakot vaikuttavat tänään eri puolilla Suomea – katso lista kaikilta päiviltä</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071922</t>
+          <t>https://yle.fi/a/74-20071469</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Salon murhatutkinnan kolme pääepäiltyä on siirretty Turun poliisivankilasta tutkintavankilaan.– Sen verran on päästy tutkinnassa eteenpäin, että ei enää ole välttämätöntä pitää heitä poliisivankilassa, sanoo tutkinnanjohtaja, rikoskomisario Tuomas Kuure Lounais-Suomen poliisista.Poliisi haki ja sai Varsinais-Suomen käräjäoikeudelta poikkeuksellisti luvan pitää epäiltyjä vangittuina poliisivankilassa pari viikkoa.– Silloin kun sitä haetiin, se katsottiin välttämättömäksi. Nyt katson, että ei ole enää tarvetta pitää heitä täällä, Kuure sanoo.Tutkinta jatkuu perinteisin menoinSalon Kiikalassa 11. tammikuuta tapahtuneesta 41-vuotiaan miehen murhasta on ollut epäiltynä ja pidätettynä yhteensä viisi miestä ja kolme naista. He ovat 18–40-vuotiaita, joista osalla on rankkaakin rikostaustaa.Esitutkinnassa saatujen tietojen perusteella epäillyistä neljä on ollut tapahtumapaikalla ja osallistunut henkirikoksen tekemiseen. Muiden neljän epäillään osallistuneen tekoon suunnittelemalla tai muuten osaltaan mahdollistaneen surmateon tai sen jälkeisiä toimia.Poliisilla on käsitys henkirikoksen syystä, tapahtumien kulusta ja epäiltyjen osallisuudesta. Motiivia ei ole kerrottu. Myös huumausaineet liittyvät osaltaan Salon tapahtumiin. Tutkinnassa on takavarikoitu jonkin verran huumausaineita.– Kyllä huumeet jollain tavalla liittyy tapahtumiin, mutta millä tavalla, sitä ei ole tässä vaiheessa tarkennettu, tutkinnanjohtaja Tuomas Kuure kertoo.Epäilty murha tehtiin yksityisasunnossa, tekovälineenä käytettiin erilaisia välineitä, joista yksi on ampuma-ase.– Tutkinta jatkuu perinteisin menoin kuulusteluilla, laite-etsinnöillä ja teknisenä tutkintana, kertoo Tuomas Kuure.Varsinais-Suomen käräjäoikeuden mukaan syytteen nostamisen määräajaksi on asetettu 16. toukokuuta.Poliisilla on aikomus tiedottaa murhatutkinnasta lisää keskiviikkona.</t>
+          <t>Osa päiväkodeista, julkisesta liikenteestä, kuljetuksista, ruokakaupoista ja teollisuudesta pysähtyi, kun ammattiliittojen lakot alkoivat.Ensimmäiset lakot alkoivat eilen keskiviikkona, mutta suurempi vaikutus nähdään tänään torstaina 1. helmikuuta. Lakkojen kesto vaihtelee aloittain yhdestä päivästä kahteen. Lisäksi 6. helmikuuta on tiedossa ulosmarsseja.Lisää: Li Andersson syyttää pääministeri Orpoa valehtelusta – Yle seuraa poikkeuksellista jättilakkoaLakoilla ja ulosmarsseilla vastustetaan hallituksen työelämäuudistuksia ja sosiaaliturvaleikkauksia. Niiden piiriin kuuluvat useat keskusjärjestö SAK:n, STTK:n ja Akavan ammattiliitot.Keskusjärjestöt järjestävät laajan mielenilmauksen Helsingin Senaatintorilla tänään torstaina kello 12 alkaen.Lakon vaikutukset keskiviikkona, torstaina ja perjantainaEilen keskiviikkona lakko vaikutti etenkin varhaiskasvatukseen, päiväkoteihin, esiopetukseen, perhepäivätoimintaan ja puistotoimintaan. Vaikutukset jatkuvat torstaihin.Tänään torstaina lakko vaikuttaa lentoliikenteeseen, ruokakauppojen aukioloihin ja valikoimaan, hotelleihin ja ravintoloihin, postin jakeluun, pankkien ja vakuutusyhtiöiden konttoreihin, logistiikkaan ja kuljetuksiin sekä laajasti teollisuuteen. Torstaina alkavat työtaistelutoimet kestävät perjantaihin asti.Perjantaina lakko vaikuttaa torstain osalta mainittujen lisäksi julkiseen liikenteeseen, kun junat, raitiovaunut ja metrot pysähtyvät ja bussit kulkevat harvennetusti tai eivät lainkaan.Lakon vaikutukset ammattialoittainTiedot lakon vaikutuksista löydät alta laajemmin.Päivitämme tähän tuoreimmat tiedot lakon vaikutuksista eri puolilla Suomea.Bussit, junat, raitiovaunut ja metrotJulkinen liikenne pysähtyy tai harvenee lakon ajaksi monissa Suomen kaupungeissa.Pääkaupunkiseudulla paikallisjunat, metrot ja raitiovaunut eivät liikennöi perjantaina 2. helmikuuta lainkaan. Myös HSL:n bussiliikenteestä suuri osa jää ajamatta.Katso lista HSL:n ajettavista bussivuoroista.Tampereen seudulla lakot pysäyttävät käytännössä koko Nysse-liikenteen perjantaina. Ratikat ja bussit liikennöivät noin kello kahteen perjantaina aamuyöllä. Torstaina joukkoliikenne sujuu normaalisti.Turussa Fölin bussiliikenne jatkuu todennäköisesti kaikilla linjoilla, mutta harvennetusti. Heillä lakko kestää perjantain ajan.Kuopiossa suurin osa paikallisliikenteen bussivuoroista jää ajamatta perjantaina. Myös osa ELY-liikenteen vuoroista ja PALI-kyydeistä voi jäädä ajamatta.Jyväskylän alueella linja-autot eivät kulje perjantaina Jyväskylässä, Laukaassa ja Muuramessa. Koulumatkoja ei perjantaina ajeta, pois lukien taksikuljetusoppilaiden koulukuljetukset.Itä-Suomessa lakko koskee perjantaina Koiviston auto Kuopion, Pohjolan matkan, Savonlinjan, Savo-Karjalan linjan ja Soisalon liikenteen vuoroja. Osa näiden vuoroista jää ajamatta.Lappeenrannan ja Imatran paikallisliikenne ei todennäköisesti liikennöi perjantaina lainkaan. Sama koskee seutu- ja lähiliikennelinjoja. Lappeenrannan kaupunki ei voi taata lakisääteisten koulukuljetusten toteutumista.Satakunnassa osa paikallisliikenteestä ei liikennöi perjantaina ainakaan Raumalla ja Porissa. Lakon piirissä ovat Rauman Gyyt, Porin linjat ja Satakunnan liikenne.Rovaniemellä vaikutuksia on bussiliikenteeseen ja osa koulukuljetuksista jää perjantaina ajamatta.Lakko vaikuttaa myös Onnibussin liikennöintiin perjantaina. Ajettavat vuorot on syytä tarkistaa Onnibussin verkkosivuilta ennen matkan ostoa.Koko Suomen matkustajajunaliikenne seisahtuu perjantaina Pohjois-Suomen yöjunia lukuun ottamatta. Junaliikenteen lakko koskee työvuoroja, jotka alkavat 2.2. kello 00.01 ja 23.59 välillä.Radan kunnossapito- ja ratatyökalustoa liikkuu rataverkolla normaalisti.Kaikki ratapihatoiminnot keskeytyvät Haminan ja Kotkan ratapihoilla torstain ajaksi.AvaaLentoliikenneSuomen kaupallinen matkustaja- ja rahtilentoliikenne pysähtyy lähes kaikilla Suomen isoilla lentokentillä torstaina.Lentokenttiä hallinnoivan Finavian mukaan kapasiteettirajoituksia kaupalliselle matkustaja- ja rahtilentoliikenteelle aikavälille 1.–2. helmikuuta on tiedossa Helsinki-Vantaan, Ivalon, Jyväskylän, Kittilän, Kuopion, Kuusamon, Oulun, Rovaniemen, Tampere-Pirkkalan, Turun ja Vaasan lentokentille.Kaupallinen matkustaja- ja rahtilentoliikenne pysähtyy kokonaan aikavälillä 1.2. kello 0.00–2.2. kello 24.00 Joensuun, Kajaanin, Kemi-Tornion, Kokkola-Pietarsaaren, Porin ja Savonlinnan lentokentillä.Puolustusvoimien käytössä olevat Utin ja Hallin sotilaslentokentät sekä Maarianhaminan lentoasema eivät ole lakon piirissä. Myös jotkut Finavian ulkopuoliset kentät voivat olla käytössä.Lentoyhtiö Finnair joutuu perumaan noin 550 lentoa. Yhtiö on valmis siirtämään asiakkaidensa lennot lakkopäiviltä toiseen ajankohtaan lipputyypistä huolimatta. Muille tehdään lentojen uudelleenreititys.Finnair lentää torstain aikana noin kymmenen lentoa. Näistä on tiedotettu asiakkaille.Lentoasemien muista palveluista, kuten kaupoista ja ravintoloista, osa pyritään pitämään auki.Lakon vuoksi lentoasemilla voi olla ruuhkaa lakkoa ennen ja sen jälkeen.Lakoissa ovat mukana ainakin Finavian tai Airpron palveluksessa työskentelevät JHL:n jäsenet, PAMin lentoasemien kiinteistöhuollosta, siivouksesta ja vartioinnista vastaavat työntekijät sekä Finnairin lentäjiä edustava Liikennelentäjäliitto.Monet ulkomaalaiset ovat jo peruneet Lapin-matkansa lakkojen vuoksi.AvaaRuokakaupat, ravintolat ja muut palvelutKaupan ala järjestää vuorokauden mittaisen lakon torstaina 1. helmikuuta. Mukana ovat suurimmat ketjut, eli S- ja K-ryhmät ja Lidl sekä Tokmanni.Lakko voi näkyä ruokakauppojen valikoimassa sekä kauppojen aukioloajoissa. Useat ympärivuorokautiset kaupat sulkeutuvat yöksi. Monet keskikokoiset kaupat sulkeutuvat etuajassa. Osa maan isoista Prismoista on torstaina suljettuna.Alko on auki normaalisti. Verkkotilauksissa voi ilmetä viiveitä.Myös osuuskauppojen pankki- ja parturi-kampaamoiden palvelut saattavat olla kiinni.Myös hotellien, ravintoloiden, liikenneasemien sekä kiinteistö- ja siivouspalvelualan yritysten työntekijöitä on lakossa ympäri Suomea.Hotellit ja ravintolat pyritään pitämään auki esimiesvoimin tai liittoon kuulumattomien työntekijöiden avulla.Jätteenlajittelussa voi 1. ja 2. helmikuuta olla viiveitä. Ainakin Rinki-ekopisteissä tähän varaudutaan.Lakko vaikuttaa torstaina myös pankkien ja vakuutusyhtiöiden palveluihin. Useat konttorit ovat kiinni ja puhelinpalvelut ovat ruuhkaisia. Pankkiautomaatit toimivat näillä näkymin normaalisti.Suomen elintarviketyöläisten liitto (SEL) lakkoilee myös: mukana on lähes 4 500 elintarvikealan työntekijää 21 työpaikalla 1.–2. helmikuuta. Lakko pysäyttää muun muassa Saarioisten tehtaiden tuotannon ja logistiikan kahdeksi päiväksi.AvaaPäiväkodit, koulut ja kirjastotPääkaupunkiseudulla suurin osa päiväkodeista, perhepäivähoidoista ja ryhmäperhepäiväkodeista on suljettuna keskiviikkona ja torstaina. Lakko koskee kaikkia yksityisiä ja julkisia yksiköitä Helsingissä, Espoossa, Vantaalla ja Kauniaisissa. Myös puistotoiminta pysähtyy.Lakko koskee työvuoroja, jotka alkoivat tämän keskiviikon 31.1. kello 6 ja huomisen torstain 1.2. kello 21 välisenä aikana. Lakossa ovat mukana lastenhoitajat, osa varhaiskasvatuksen opettajista ja perhepäivähoitajat.Lopullinen henkilöstötilanne ja torstaina avoinna olevat päiväkodit selviävät vasta huomenna aamulla.Lakon aikaan päiväkoteja on auki Helsingissä 59, Vantaalla 20–30, Espoossa noin 40 ja Kauniaisissa kaksi.Katso täältä lista auki olevista päiväkodeista pääkaupunkiseudullaLakko voi torstaina vaikuttaa myös joidenkin nuorisotilojen, kirjastojen ja liikuntapaikkojen aukioloaikoihin. Näin on esimerkiksi Jyväskylässä.Lakoissa ovat mukana sosiaali-, terveys- ja kasvatusalan ammattijärjestö Tehy, lähi- ja perushoitajaliitto SuPer, julkisten ja hyvinvointialojen liitto JHL ja sosiaalialan korkeakoulutettujan ammattijärjestö Talentia.Tehy ja SuPer rajaavat lakon ulkopuolelle vain viranhaltijat. JHL:n mukaan lakko ei koske heidän osaltaan kotona tehtävää perhepäivähoitoa, ryhmäperhepäivähoitoa, ryhmäperhepäiväkoteja ja yksityistä perhepäivähoitoa.Myös Opetusalan ammattiliitto OAJ ja ammattiliitto Jyty ilmoittivat päivän mittaisesta lakosta pääkaupunkiseudun varhaiskasvatuksessa 31. tammikuuta. Jytyn lakko koskee myös perhepäivähoitoa ja puistotoimintaa.Korkeakoulutettujen keskusjärjestö Akava ilmoitti, että se järjestää ulosmarssin pääkaupunkiseudulla, Turussa ja Tampereella 6. helmikuuta kello 14–16. Marssiin osallistuvat lukuisat sote-työntekijät, insinöörit ja lääkärit.Ulosmarssit eivät koske virkasuhteisia työntekijöitä, kuten opettajia ja poliiseja. Näin ollen Akavan suurin jäsenliitto OAJ ei osallistu ulosmarssiin.AvaaPostiPostin työntekijät eivät tee työvuoroja aikavälillä 1. helmikuuta kello 0.00–2. helmikuuta kello 18. Tämä koskee noin 10 000 työntekijää.Lakon aikana kirjeposti, pakettilajittelu ja logistiikka seisoo. Tämä aiheuttaa muutamien päivien viiveitä lähetysten kulkuun. Posti neuvoo seuraamaan pakettien kulkua OmaPostissa.Postin yritysasiakkaat voivat lähettää lähetyksiä Postille normaalisti.Posti- ja logistiikka-alan unioni PAU kertoi, että lakon ulkopuolelle on rajattu terveyteen ja turvallisuuteen liittyvät työt.AvaaKuljetukset, logistiikka ja huoltoAuto- ja kuljetusalan työntekijäliitto AKT:n lakko kestää torstain ja perjantain, tosin linja-autoalan ja matkahuoltoalan osalta vain perjantain.Lakossa ovat mukana liki kaikki toimialat eli kuorma-autoala, linja-autoala, matkahuoltoala, kaupan automiehet, säiliöauto- ja öljytuoteala, matkatoimistoala, terminaalitoiminta, huolinta-ala, huoltokorjaamot, AKT:n Viking Linen työntekijät ja ahtausliikkeiden toimihenkilöt sekä ahtausala.Myös toimihenkilöliitto Erto ilmoitti lakosta autoliikenne-, huolinta- ja sosiaalialalle 1.–2. helmikuuta.AvaaRakennustyömaat, sähköt, satamat ja muu teollisuusMoni Suomen isoista teollisuusyrityksistä pysäyttää toimintansa osittain tai kokonaan torstaina ja perjantaina. Myös rakennustyömaat hiljenevät etenkin pääkaupunkiseudulla.Rakennusliiton työntekijöiden osalta hätätyö, LVI-huolto ja tienhoito jatkuvat, mutta muutoin lakon piirissä ovat kaikkien sopimusalojen työt Helsingissä, Espoossa ja Vantaalla.Rakennustyömaiden sähkötyöt sekä matkapuhelin- ja tietoliikenneverkkotyöt pysähtyvät JHL:n ja Sähköliiton työtaistelun vuoksi. Mukana on lukuisia yhtiöitä, jotka vastaavat sähköverkkojen rakentamisesta ja kunnossapidosta. Sähkön ja lämmön tuotanto ja jakelu sekä raideliikenteessä tehtävät työt ovat lakon ulkopuolella.Ammattiliitto Pron lakko laajenee koskemaan Digitaa, ICT-alaa, rahoitusalaa, vakuutusalaa sekä tiettyjä kiinteistöalan työpaikkoja. Näissä työnseisaus on 1. helmikuuta.Suomen suurin yleissatama, Haminan-Kotkan satama, on pysähdyksissä torstain ja perjantain. Tämä aiheuttaa todennäköisesti useiden vuorokausien purkutarpeen suman.Useat Stora Enson, UPM:n ja Huhtamäen tehtaat pysähtyvät tai vähentävät toimintaansa paperiliiton lakon ajaksi. Lakot alkavat torstain 1. helmikuuta aamuvuoroista ja päättyvät 3. helmikuuta aamuvuoroihin. Vaikutuksia on ainakin Imatralla, Oulussa, Varkaudessa, Kymissä, Pietarsaaressa ja Raumalla.Myös ruudin valmistus voi pysähtyä. Lakon piirissä on 1. ja 2. helmikuuta myös neljä ammusvalmistaja Nammon tehdasta.Kemianteollisuudessa lakko vaikuttaa ainakin Porvoon Kilpilahden ja Kokkolan teollisuusalueisiin.Lakko vaikuttaa useisiin kaivoksiin ja jalostamoihin esimerkiksi Kittilässä, Sodankylässä, Naantalissa, Kemissä, Torniossa, Raahessa, Sotkamossa ja Siilinjärvellä. Ainakin Nesteen Porvoon jalostamo jatkaa toimintaansa työtaistelusta huolimatta, vaikka on lakon piirissä.AvaaTyötaistelujen ulkopuolelle kaikilla ammattialoilla jäävät ne tehtävät, joiden tekemättä jättäminen aiheuttaisi vaaraa ihmisten hengelle, terveydelle tai omaisuudelle.Katso alla olevasta videosta kootusti, miten lakko vaikuttaa arkeesi.Toimittaja Minna Matintupa selventää, mitä vaikutuksia tulevilla lakoilla on sinun arkeesi. Kuvaus ja editointi: Isto Janhunen / Yle</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -723,22 +717,21 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Kaupan alan lakko iskee torstaina – katso, miten ostosreissut kannattaa suunnitella ja onko Alko auki</t>
+          <t>Käsivarren Lapissa lumikaaos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071874</t>
+          <t>https://yle.fi/a/74-20072577</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>K-ryhmä, S-ryhmä, Lidl ja Tokmanni pyrkivät pitämään kaupat auki lakosta huolimatta. Alkojen aukioloihin lakolla ei ole vaikutusta.Palvelualojen ammattiliitto PAM järjestää torstaina ja perjantaina useita sopimusaloja koskevat lakot hallituksen kaavailemia työehtojen heikennyksiä ja leikkauksia vastaan.Ruokakaupat ja tavaratalot ovat lakon kohteena vuorokauden ajan torstaina.PAMin lakon kohteetS-ryhmän myymälät ja liikenneasemat kokonaisuudessaan.Osuuskauppojen pankki- ja parturi-kampaamoiden palvelut kokonaisuudessaan.K-Citymarketit ja K-Citymarket kauppiaat, K-Supermarketit ja K-marketit.Lidl–myymälät.Tokmannin myymälät.PAMin lakko kosee myös matkailu-, ravintola- ja vapaa-ajan palveluita sekä kiinteistöpalvelualaa.Lakon piirissä ovat kaikki työntekijät, jotka työskentelevät lakkokohteissa, ja joita koskee PAMin työehtosopimus.
-Lähde: PAMAvaaK-ryhmän työmarkkina-asioista vastaava johtaja Petteri Huovinen toteaa, että poliittisessa lakossa mukana oleminen on työntekijän henkilökohtainen valinta.– Viime kädessä tiedämme lakkoaamuna, missä määrin henkilöstö saapuu paikalle ja kuinka laajalla palveluvalikoimalla sekä aukioloajalla voimme toimia, Huovinen sanoo.Myös esimiehet voivat hoitaa tehtäviä, joita kaupan auki pitämisessä tarvitaan.Jotkin tuotteet voivat loppuaLidlin operatiivinen johtaja Marcin Malewicz ennakoi sähköpostivastauksessaan, että lakolla voi olla pieniä vaikutuksia.– Käytännössä se voi tarkoittaa esimerkiksi sitä, että kassoja on vähemmän auki tai paistopisteellä voi esiintyä yksittäisiä tuotepuutteita.Myös S- ja K-ryhmistä kerrotaan, että kaupoissa voi olla puutteita yksittäisistä tuotteista, koska myös muun muassa Auto- ja kuljetusalan työntekijäliitto AKT on julistanut lakon loppuviikolle. Korvaavia tavaroita pitäisi kuitenkin löytyä hyllystä.Tokmannin sijoittajasuhde- ja viestintäpäällikkö Maarit Mikkonen ei usko, että tavarataloissa tulisi yhden päivän aikana puutetta mistään tuotteesta. Tuoretta ruokaa myyvillä osastoilla saattaa olla katkoksia päivittäin myyntiin tulevissa elintarvikkeissa.Avaa kuvien katseluTokmannin myymälä Espoonlahdessa 2022. Kuva: Henrietta Hassinen / YleS- ja K-ryhmä kertovat pyrkivänsä päivittämään tiedot aukioloajoista nettisivuilleen. K-ryhmän Petteri Huovinen kertoo myös, että tietoja pyritään kiinnittämään kauppojen oviin heti, kun mahdollista.Alko on normaalisti aukiAlkon liiketoimintajohtajan Kari Pennasen mukaan Alkot ovat loppuviikosta normaalisti auki. Myymälöiden tavallisiin aukioloaikoihin ei siis ole tulossa muutoksia, sillä Alko ei ole PAMin lakkokohde.Pennanen kertoo, että juomia on tilattu hyllyyn etukäteen riittävästi.– Olemme aikaistaneet myymälätoimituksia ja tuotteiden pitäisi kaiken järjen mukaan riittää. Toki jokin yksittäinen tuote voi loppua, mutta valikoimassa on aina jokin korvaava, Pennanen kertoo.Avaa kuvien katseluAlkokaan ei täysin välty lakon vaikutuksilta. Arkistokuva. Kuva: Esa Fills / YleAlko ei silti selviä täysin ilman lakkojen vaikutuksia, sillä Alkon myymälöihin on mahdollista tilata tuotteita nettikaupan kautta. Verkkokauppatilausten toimitukset voivat viivästyä, jos tilauksen keräily varastosta tai kuljetus osuu lakon ajalle.Ennakkoäänestys ei ole vaarassaPalvelualojen ammattiliittoon on tullut kysymyksiä siitä, vaikuttaako lakko kauppojen yhteydessä oleviin ennakkoäänestyspisteisiin. Ennakkoäänestys järjestetään normaalisti, vastaa PAMin järjestöjohtaja Risto Kalliorinne.Hän muistuttaa, ettei kaupan henkilöstö osallistu mitenkään ennakkoäänestyksen järjestämiseen tai toimittamiseen.– Lakkorajana on kaupan kassalinja. Äänestys ei tapahdu koskaan kassalinjan sisäpuolella maitohyllyjen välissä, vaan kauppakeskuksen tai kiinteistön yleisissä tiloissa.PAM on myös linjannut, että jos tilojen käyttöön tarvitaan esimerkiksi vartijoiden työpanosta, työ on lakon aikana luvallista ja se pitää suorittaa.– Olemme infonneet tästä yrityksiä, jotka tuottavat esimerkiksi kiinteistöhuolto- tai vartiointipalveluja, Kalliorinne sanoo.</t>
+          <t>Voimakkaat myrskypuuskat ovat ravistelleet Lappia torstaina.Ajokeli on erittäin huono Käsivarren Lapissa. Enontekiöläinen taksiautoilija Elli-Maria Kultima kertoi alkuillasta jääneensä jumiin autollaan tien syrjään Muotkatakan kohdalla, vaikka vauhtia oli vain vähän. Lunta oli kertymässä tielle, ja näkyvyyttä oli iltapäivällä vain muutamia metrejä.– Ylämäkeen täytyy pikkuisen vauhtia pitää, Kultima sanoo.Avaa kuvien katseluNäkyvyyttä muutamia metrejä. Tältä näytti torstai-iltapäivänä Valtatie 21 Enontekiöllä.  Kuva: Elli-Maria Kultima Ylämäkeä seudulla riittää, sillä Muotkatakassa sijaitsee Suomen maanteiden korkein kohta. Autossa oli onneksi lämmin, ja puoli kahdeksan aikaan illalla Kultima kertookin jo päässeensä pinteestä, sillä hänen sukulaisensa saapuivat apuun.– Älä lähde ajamaan, jos ei ole pakko, kuuluu Elli-Maria Kultiman neuvo.Kymmeniä vuosia ajanut Kultima ei muista, milloin viimeksi ajokeli olisi ollut yhtä huono. Kultiman mukaan myös muita autoja on jäänyt kiinni tiellä.Finntrafficin mukaan huono sää jatkuu maan pohjoisosassa puoleen yöhön saakka. Ajokeli on huono lumi- ja räntäsateen vuoksi. Paikoin kova tuuli kinostaa lunta.Norjassa Ingunn-myrskyn tuulet raivosivat torstain vastaisena yönä hirmumyrskylukemissa.Avaa kuvien katseluPohjois-Norjan Tromssan myrskyä kuvattuna torstaina. Norjan myrskylle on annettu nimeksi Ingunn. Kuva: Seija TuulentieReittilennoilla vaikeuksia RovaniemelläUseat ulkomaiset reittilennot eivät päässeet laskeutumaan aikataulussa Rovaniemen lentokentälle torstaina myräkän vuoksi.Rovaniemelle oli tarkoitus torstaina laskeutua kuusi lentoa, mutta lentoaseman päällikkö Johan Juujärven mukaan vain kaksi niistä pääsi laskeutumaan normaaliajassa.Kaksi Ryanairin lentoa ja yksi Transavia Francen lento joutuivat ensi lentämään Luulajaan. Myöhemmin torstaina ne pääsivät hakemaan matkustajansa sään parannuttua.Eurowingsin lento sen sijaan lensi Luulajaan tankkaamaan, ja palasi Saksaan. Se palaa perjantaina hakemaan matkustajansa.Normaalisti pääsivät laskeutumaan Turkish Airlines sekä charter-lento Freebird.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -752,21 +745,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Finnair peruu noin 550 lentoa lakon takia, vaikutukset koskevat 60 000:ta ihmistä</t>
+          <t>Yhdysvallat keksi luovan keinon jatkaa Ukrainan sotilasapua – alkaa kierrättää kalustoa Kreikan välityksellä</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071863</t>
+          <t>https://yle.fi/a/74-20072570</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lentoyhtiö Finnair joutuu perumaan poliittisen lakon vuoksi noin 550 lentoa, kertoo Finnair tiedotteessaan.Perumiset koskevat noin 60 000 matkustajaa.Finnairin viestintäjohtaja Päivyt Tallqvistin mukaan peruttaville lennoille lipun ostaneille asiakkaille tarjotaan matkasuunnitelmien muutosmahdollisuus tai vaihtoehtoinen reititys.Tallqvistin mukaan noin 35 000 asiakasta on jo viime viikolla muuttanut lakkopäivien matkasuunnitelmiaan. Heille, jotka eivät näin toimineet, järjestetään lennon uudelleenreititys.Reitityksissä kestää kaksi päivääTyötaistelutoimet tuntuvat Tallqvistin mukaan liioitelluilta.– Tuntuu kohtuuttomalta, että poliittisesta lakosta, jolla ei ole mitään tekemistä Finnairin kanssa, aiheutuu vaivaa näin monelle asiakkaallemme.Finnair aloittaa lentojen perumiset ja vaihtoehtoiset reititykset huomenna tiistaiaamuna lento kerrallaan. Asiakkaat saavat tiedon lennon peruutuksesta ja vaihtoehtoisesta reitityksestä sitä mukaa, kun peruutukset on järjestelmissä tehty.– Voimme esimerkiksi lennättää asiakkaita muilla lentoyhtiöillä.Uudelleenreitityksissä kestää noin kaksi päivää.Jos vaihtoehtoinen reititys ei miellytä asiakasta, voi hän pyytää lentolipun hinnan takaisin Finnairilta lipputyypistä huolimatta.Joitain lentoja saatetaan lentääFinnair pyrkii torstaina ja perjantaina lentämään joitain yksittäisiä lentoja lakosta huolimatta. Näistäkin tiedotetaan asiakkaille henkilökohtaisesti.Tallqvistin mukaan lentojen onnistuminen on monien osien summa, joten on mahdoton ennakoida, mitkä lennot saatetaan lentää. Asia riippuu muun muassa siitä, kuinka paljon lentoyhtiöiden ja lentokentistä vastaavan Finavian henkilökuntaa on saatavilla.– Esimerkiksi ilman jäänestohenkilökuntaa koneet eivät voi lentää.Lennettävien lentojen matkatavarakuormauksessa ja lentojen juoma- ja ruokatarjoilussa voi olla häiriöitä ja lennot saattavat viivästyä.Aikatauluongelmia voi esiintyä myös lakon jälkeen lauantaina. Tallqvist myös muistuttaa, että Finnairin asiakaspalvelu on tällä hetkellä ruuhkautunut.Finavia listasi sulkeutuvat lentokentätTämän viikon lakot pysäyttävät Suomen lentoliikenteen lähes kokonaan maan isoilla lentokentillä torstaina ja perjantaina, pois lukien Puolustusvoimien käytössä olevat Utin ja Hallin sotilaslentokentät.Lentokenttiä hallinnoivan Finavian mukaan kapasiteettirajoituksia kaupalliselle matkustaja- ja rahtilentoliikenteelle aikavälille 1.–2. helmikuuta on tiedossa Helsinki-Vantaan, Ivalon, Jyväskylän, Kittilän, Kuopion, Kuusamon, Oulun, Rovaniemen, Tampere-Pirkkalan, Turun ja Vaasan lentokentille.Kaupallinen matkustaja- ja rahtilentoliikenne pysähtyy kokonaan aikavälillä 1.2. kello 0.00–2.2. kello 24.00 Joensuun, Kajaanin, Kemi-Tornion, Kokkola-Pietarsaaren, Porin ja Savonlinnan lentokentillä.Lakoissa ovat mukana ainakin Finavian tai Airpron palveluksessa työskentelevät JHL:n jäsenet, PAMin lentoasemien kiinteistöhuollosta, siivouksesta ja vartioinnista vastaavat työntekijät sekä Finnairin lentäjiä edustava Liikennelentäjäliitto.Miten laaja lakkoaalto tulossa? Radio Suomen päivässä keskusteltiin viime perjantaina siitä, miten laaja lakkoaalto Suomeen on tulossa.</t>
+          <t>Kreikan hallitus on alkanut pikaisesti valmistella kahdenvälistä, sotilaallista tukipakettia Ukrainalle. Kreikka panee kasaan paketin, johon kuuluu muun muassa aseistusta ja tarvikkeita.Itsestään Kreikka ei apupakettia keksinyt vaan pyyntö tuli suoraan Yhdysvalloilta, joka ei viime vuoden lopun jälkeen ole pystynyt sopimaan Ukrainan tuen jatkosta.Yllättävintä Kreikan apupaketissa on se, että myös Ukrainalle luovuttava kalusto tulee Yhdysvalloilta. Asiasta ovet kertoneet kreikkalaiset tiedotusvälineet.– Kun rahat ovat nyt loppu, tehdään luovia ratkaisuja, sanoo Ruotsin maanpuolustuskorkeakoulun sotatieteiden dosentti Ilmari Käihkö.Homma toimii näin.Yhdysvallat lahjoittaa Kreikalle muun muassa partiointiveneitä, kuljetuskoneita ja panssariajoneuvoja, joita se ei itse tarvitse.Avaa kuvien katseluYhdysvallat kierrättää Ukrainaan Kreikan kautta muun muassa kaksi ilmavoimien Hercules C-130H-kuljetuskonetta. Kuva: Alireza Boeini/AOPPresidentillä on oikeus määrätä lahjoitukselle hinta, nolla dollaria, kunhan Kreikka huolehtii kaluston siirtämisestä. Lupaa kongressilta ei tarvitse kysyä.Yhdysvallat on liittänyt lahjoitukset ja niiden toimitukset Ukrainaan osaksi samaa sopimusta, jolla se myy Kreikalle 40 F-35-hävittäjää.– Kyllä Yhdysvaltain hallinnossa ja tiedustelupalveluissa ymmärretään, että jos Ukrainaa ei tueta nyt ja Venäjä pääsee tavoitteeseensa, siitä tulee valtavia seurauksia kansainväliselle turvallisuudelle, Käihkö sanoo.Kilpajuoksu aikaa vastaanYhdysvaltain keskustiedustelupalvelun CIA:n johtaja William Burns kirjoitti tällä viikolla Foreign Affairs -lehdessä, että tuen vetäminen Ukrainalta olisi Yhdysvalloilta ”kaikkien aikojen oma maali”.Republikaanienemmistöinen edustajainhuone on estänyt rahoituspäätöksen teon kongressissa viime vuoden lopulta lähtien.Käihkö sanoo, että Yhdysvaltain tuen jumiutuminen jo tässä vaiheessa on tullut yllätyksenä.– Uskottiin, että Ukraina-tuki jatkuisi ainakin tämän vuoden loppuun asti, Käihkö sanoo viitaten Yhdysvaltain presidentinvaaleihin marraskuussa.Yhdysvaltain sisäpoliittinen vääntö on osoittanut, että Ukrainan tukijoilla onkin yhtäkkiä vuosi vähemmän aikaan saada korvaavaa tukea kuntoon.Kilpajuoksu aikaa vastaan on käynnissä.– Euroopan pitäisi päättää, mitä haluamme Ukrainassa tapahtuvan ja toimia sitten sen mukaan. Tästä Euroopassa ei ole yhteistä näkemystä, Käihkö sanoo.Torstaina Euroopan unioni sopi huippukokouksessa neljän vuoden aikana Ukrainalle annettavasta 50 miljardin euron talousavusta kotirintaman tukemiseen.Alla olevalla videolla Ukrainan presidentti Volodymyr Zelenskyi kiittää päätöksestä.Ukrainan presidentti Volodymyr Zelenskyi kiitti EU-johtajia tukipäätöksestä.Valmisteilla on lisäksi päätös seuraavasta 5 miljardin euron sotilasavusta rauhanrahaston kautta.Euroopalta kysytään riskinottokykyäKäihkö muistuttaa, että kahdenvälinen tuki Ukrainalle on kasvanut. Saksa on luvannut kaksinkertaistaa tukensa kahdeksaan miljardiin euroon tänä vuonna.Suuri kysymys Yhdysvaltain tuen jumiutuessa on se, että vaikka tahtoa Euroopassa Ukrainan tukemiseen löytyisi, onko siihen kykyä.– Tähän vaikuttaa eurooppalaisten oma riskinottokyky eli kuinka paljon on halua ja uskallusta siirtää materiaalia Ukrainaan, Käihkö sanoo.Avaa kuvien katseluIlmari Käihkö sanoo, että Ukrainan tukeminen testaa Euroopan riskinottokykyä. Kuva: Berislav Jurišić / YleEsimerkiksi jatkuva ammuslupauksista lipsuminen on osoittanut, että sotamateriaalin tuottaminen vie aikaa ja tuki tässä vaiheessa on nimenomaan pois maiden omista varastoista.– Ukrainan tuen varmistamisessa on kyse kolmesta asiasta: poliittisesta tahdosta, kyvyistä ja halusta kantaa riskiä, Käihkö summaa.Tällä hetkellä Ukrainaa ei tueta tarpeeksi verrattuna sen omiin tavoitteisiin palauttaa vuoden 1991 rajat.Menossa ”rakennusvuosi”Viime viikonloppuna The Washington Post -lehti kirjoitti, että Valkoinen talo muuttaa tänä vuonna Ukraina-strategiaansa.Ukraina ei pysty tänä vuonna valtaamaan menettämiään alueita takaisin. Niinpä Ukrainaa tuetaan vahvistamalla sen puolustusvoimaa ja taloutta.– Ukrainalla ei tällä hetkellä ei ole resursseja laajamittaiseen hyökkäykseen, Käihkö toteaa.Rintamalla tämä näkyy.Kesällä Ukraina ampui hyökkäysvaiheessaan päivittäin arviolta 7 000 ammusta ja Venäjä ampui 5 000.Nyt Ukraina ampuu päivässä 2 000 kranaattia, Venäjä 10 000.– Tästä vuodesta on puhuttu rakennusvuotena, jolloin Ukrainaa valmistellaan siihen, että hyökkäyskyky löytyisi vuonna 2025, Käihkö sanoo.Ukrainaa tuetaan muun muassa rakentamaan omaa puolustusteollisuutta, jolloin sen riippuuvuus epävarmasta, ulkopuolisesta tuesta vähenisi.Venäjäkin tietää tämän. Käihkö huomauttaa, että Venäjä on kohdistanut tänä talvena ilmaiskujaan juuri puolustusteollisuuteen eikä esimerkiksi sähkövoimaloiden kaltaisiin infrakohteisiin.Hyviä uutisia rintamalta ei ole tiedossaKäihkö muistuttaa, että rintama ei ole juurikaan liikkunut yli vuoteen. Venäjän vähimmäistavoite on kuitenkin edelleen liittää ainakin Itä-Ukrainan Donbas pysyvästi itseensä.– Venäjä jatkaa hyökkäyksiään ja sen olisi varmaan hyvä saada jotain aikaiseksi ennen [maaliskuun] presidentinvaaleja.Avaa kuvien katseluVenäjän ohjusisku teki 23. tammikuuta tuhoa Kiovan lähellä. Kuva: Aleksandr Gusev/AOPKäihkö harmittelee, että usein Ukraina-keskustelussa unohtuu vastapuoli eli Venäjä.– Venäjällä varmasti myös ajatellaan, että Ukraina on nyt heikko ja kannattaa käyttää tilaisuus hyväkseen, Käihkö sanoo.
+Aloite on ainakin väliaikaisesti enemmän Venäjän käsissä. Käihkön mukaan nykytietojen valossa ei kuitenkaan ole syytä odottaa Ukrainan suurta romahdusta.– Hyviä uutisia ei Ukrainan puolelta kannata hirveästi tänä vuonna odottaa, Käihkö sanoo.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -780,22 +774,21 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Tutkijat tiputtivat järveen 1 500 joulukuusta – paljastui tulos, joka ällistytti biologia</t>
+          <t>Venäjän Mustanmeren laivasto pieneni jälleen? Ukraina kertoo upottaneensa korvetin</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071783</t>
+          <t>https://yle.fi/a/74-20072569</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Maaliskuun alussa vuonna 2021 aivan Lappeenrannan keskustan tuntumassa, Saimaan Sunisenselällä oli outo näky. Jään päälle raahattiin satoja joulukuusia, joita paikalliset asukkaat olivat edellisen joulun jäljiltä tutkijoille lahjoittaneet.Suomen ympäristökeskuksen kehittämispäällikkö, vesibiologi Kari-Matti Vuori ystävineen porasi paksuun jäähän avannon. Reiästä he tiputtivat joulukuusia Saimaan syvyyksiin.Sama toistui muutamana vuonna peräkkäin, joten nyt pohjassa on kaikkiaan jo noin 1 500 joulukuusta.
-Tutkijoiden tarkoitus olikin selvittää, voisiko tällä tavalla saada Saimaan pohjaan vedenalainen puulajipuisto, josta hyötyvät sekä kalat että vesistö.Avaa kuvien katseluNäin Sunisenselällä upotettiin vuonna 2021 Saimaaseen joulukuusia.  Painoina käytettiin reikätiiliä. Kuva: Sirkka Haverinen / YleNyt tutkijat ovat saapuneet takaisin Sunisenselälle. He nostivat pohjasta kuusia analysoitavaksi. Tulokset ovat ällistyttäviä.– Pohjaeläintuotanto on lisääntynyt huimasti niillä paikoilla, mihin näitä on upotettu, Kari-Matti Vuori kertoo.Pohjaeläinten yksilömäärät ovat Vuoren mukaan monikymmenkertaistuneet ja lajiston monimuotoisuus jopa viisinkertaistunut upotusalueella. Tämä selviää alueelta otetuista pohjaeläinnäytteistä ennen ja jälkeen kuusten upottamisen.– Tässä purkissa on pohjaeläinnäyte ennen kuusten upottamista. Siinä on todella vähän eliöitä. Tässä toisessa on näyte kuusten upottamisen jälkeen, ja siinä on tuhatmäärin yksilöitä ja 30–40 eri lajia.Avaa kuvien katseluSykkeen kehittämispäällikkö Kari-Matti Vuorella on kaksi näytepuolloa joulukuusten upotusalueelta. Oikeanpuolisessa pullossa näkyy selvästi pohjaeläinten runsastuminen. Kuva: Kalle Schönberg / YleMyös kalakanta joulukuusien upotusalueella on Vuoren mukaan vahvistunut, mihin viittaavat myös kalastajien kokemukset alueelta.– Pilkkimiehiltä olemme sitten saaneet kiitoksia, että hyvin on tullut kalaa näiltä paikoilta, joihin kuusia on upotettu.Kalastajien ikivanha menetelmäVedenalaiset uppopuut eli turot eivät ole uusi menetelmä, vaikka niitä ei hetkeen Suomen vesistöissä ole nähtykään.Vesibiologi Kari-Matti Vuoren apulaisina oli joukko Lappeenranta Saimaan Rotaryklubin jäseniä. Yksi heistä Olli Smolander tutustui kalaturoihin jo viisivuotiaana oman isoisänsä opastuksella. Sadan viime vuoden aikana ihmiset ovat kuitenkin Smolanderin mukaan ”systemaattisesti raivanneet kaiken puuaineksen pois vesistöstä”, jolloin entiset kalaturotkin on poistettu.– Ennen vanhaan kalaturoja rakennettiin tuonne vesistöihin katajista ja kuusista. Jokaisella isännällä oli omat turot tuolla Saimaassa, ja ne olivat erittäin salaisia kalastuspaikkoja.Avaa kuvien katseluOlli Smolanderin mukaan hän kävi isoisänsä kanssa pikkupoikana kalaturoilla. Ne olivat järven pohjaan upotettuja kuusen ja katajan rankoja, jotka houkuttelivat kaloja.  Kuva: Kalle Schönberg / YlePoistaa ravinteita vedestäPuun lisäämisestä pohjaan pyritään kehittämään menetelmä vesistöjen laadun parantamiseen.Syken kehittämispäällikkö Kari-Matti Vuoren mukaan tätä havainnollistavat esimerkiksi sudenkorennot, joita on uppopuurakenteissa suuria määriä. Sudenkorentojen toukat elävät vedessä kaksi vuotta, ja sinä aikana ne syövät pieniä selkärangattomia eliöitä, jotka laiduntavat järven päällyskasvustoa.– Niistä kahden vuoden aikana kerätyistä ravinteista ja hiilestä 99 prosenttia siirtyy aikuisen sudenkorennon mukana taivaalle lentelemään ja rikastuttamaan rantaluontoa, Vuori toteaa.Upotettujen kuusten vaikutuksesta järven pohjaeläimiin ei ole vielä tutkimuksia, mutta Vuori arvioi, että menetelmä voisi ainakin osittain auttaa puhdistamaan Suomen järviä.– Näen sillä suurta potentiaalia. Tämä kuhina on niin valtava näissä uppopuurakenteissa, joita nyt on tutkittu.</t>
+          <t>Ukraina sanoo upottaneensa venäläisen korvetin, Ivanovetsin.Reuters julkaisi videon, jolla väitetty meridroonihyökkäys näkyy. Ivanovetsiin osuu videon perusteella ainakin kolme meridroonia. Alukselta yritetään tulittaa drooneja, mutta ne onnistuvat tehtävässään ja räjähtävät tuhoisin seurauksin.Videon väitetään olevan keskiviikon ja torstain väliseltä yöltä.Kyse on vuonna 1988 valmistuneesta kevyestä Molnija-luokan ohjuskorvetista. Alus kuului 41. ohjusveneprikaatin 298. ohjusvenelaivueeseen, vahvistaa Ylen asiantuntija Marko Eklund.– Se on suhteellisen pieni, 56-metrinen alus. Kyseisen alusluokan miehistöön kuuluu noin 40 henkeä, Eklund kertoo.Pääaseena aluksella on neljä P-270 ”Moskit” -merimaaliohjusta, joiden kantaman arvioidaan olevan versiosta riippuen 120–250 kilometriä. Ohjus lentää yli kaksinkertaisella äänennopeudella ja siitä on ollut käytössä myös lentokoneesta laukaistava versio.Ukrainan sotilastiedustelupalvelun mukaan alus oli partioimassa Krimin niemimaan edustalla.Turvallisuusyhtiö Ambreyn mukaan Ukraina käytti iskussa todennäköisesti kuutta meridroonia. Kukin sisältää noin 300 kiloa räjähteitä. Asiasta kertoo uutistoimisto AP.Avaa kuvien katseluIvanovets (oik.) osallistui Mustanmeren laivastopäivään Krimin Sevastopolissa toisen korvetin kanssa vuonna 2019. Kuva: EPA-EFEVenäjä ei ole kommentoinut upottamista, mutta Venäjän armeijaan kytköksissä olevalla Telegram-kanavalla kerrottiin Ukrainan hyökänneen yhdeksällä meridroonilla alueelle yöllä. Kanavan mukaan neljä drooneista havaittiin ja niitä kohti avattiin tuli.Kanavan mukaan yksi kohteena ollut alus ”vaurioitui”.Lähteet: AP, AFP, STT</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -809,21 +802,21 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mediat: Latvialainen euro­par­la­men­taarikko paljastui Venäjän vakoojaksi</t>
+          <t>EU:n ydinjoukko laittoi Unkarin ruotuun huippu­ko­kouksen aamuna</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071879</t>
+          <t>https://yle.fi/a/74-20072530</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ruotsalaisten, baltialaisten ja venäläisten journalistien yhteistyössä tekemä paljastus perustuu parlamentaarikon vuodettuihin sähköpostiviesteihin yhteyshenkilöilleen Venäjän tiedustelupalvelussa.Latvialainen europarlamentaarikko Tatjana Ždanoka, 73, on toiminut ainakin toistakymmentä vuotta Venäjän tiedustelupalvelun FSB:n vakoojana, kertoi ruotsalaislehti Expressen maanantaina. Lehden tiedot perustuvat venäläisen Insider-uutissivuston sekä latvialaisen Re:Baltica-sivuston ja virolaisen Delfi-sivuston kanssa yhteistyössä tehtyyn tutkivaan journalismiin.Tietojen lähteenä ovat olleet Ždanokan vuodetut sähköpostit, joita hän on lähettänyt kahdelle eri yhteyshenkilölle FSB:ssä. Ždanokan epäillään vakoilleen Venäjälle ainakin vuosina 2004–2017.Europarlamentaarikko tunnetaan Venäjä-myönteisyydestäänŽdanoka on muutenkin ollut jo pitkään tunnettu avoimesta Venäjä-myönteisyydestään. Hän on muun muassa levittänyt tietoja venäläisiin väitetysti kohdistuneista rikoksista Baltiassa ja ajanut Venäjään myönteisesti suhtautuvaa politiikkaa.Ždanoka kieltäytyi vastaamasta Insiderin hänelle esittämiin kysymyksiin.– Nämä kysymykset perustuvat tietoihin, joita teillä väitetysti on, mutta joita teillä ei pitäisi olla, Ždanoka vastasi sähköpostilla.Europarlamentaarikko ei sinänsä kiistänyt, etteivätkö vuodetut sähköpostit olisi aitoja. Hän kuitenkin kiisti tietäneensä, että niiden vastaanottajat olisivat olleet FSB:n palveluksessa.– Ainoat ihmiset, joiden kanssa olen istunut samassa pöydässä ja joista tiedän varmasti, että he ovat FSB:n virkailijoita, ovat Vladimir Putin ja (Venäjän ulkomaantiedustelun johtaja) Sergei Naryshkin.Paljastuminen ”ei yllätys”Ruotsalainen europarlamentaarikko ja entinen kulttuuriministeri Alice Bah Kuhnke, joka kuului 2000-luvun alkupuolella samaan europarlamentin ryhmittymään kuin Ždanoka, piti uutista ”kauheana, mutta ei yllättävänä”.– Entisenä ruotsalaisministerinä tiedän, miten Venäjä ja Putinin agentit toimivat, ja heillä on verkostoja kaikkialla, Kuhnke sanoi.Nimettömänä pysytellyt tiedustelulähde sanoi Insiderille, ettei Ždanokan vakoilun pontimena ole ollut raha.– Ei hän tarvitse rahaa, sitä tulee riittävästi Euroopan parlamentista. Hän käyttää omia rahojaan puolueensa toimiin, lähde sanoi.</t>
+          <t>Unkarin pääministeri Viktor Orbán suostui Ukrainalle maksettavaan tukeen EU:n ydinjoukon kurinpalautuksessa, joka edelsi varsinaista huippukokousta.Paikalla olivat Ranskan presidentti Emmanuel Macron, Saksan pääministeri Olaf Scholz ja Italian pääministeri Giorgia Meloni sekä EU-komission puheenjohtaja Ursula von der Leyen.EU-päättäjät olivat kokoontuneet Brysseliin ylimääräiseen huippukokoukseen siksi, että Unkari torppasi joulukuun kokouksessa Ukrainalle maksettavan tuen.Orbán toisti tiettävästi kokouksessa vaatimuksiaan muun muassa veto-oikeudesta. Hän halusi, että tukea myönnettäisiin Ukrainalle vain vuodeksi, minkä jälkeen siitä pitäisi taas päättää yksimielisesti.Kokouslähde arvioi, että Orbánin piti kuulla kasvotusten EU-johtajilta, että he ovat tosissaan eikä vastaantuloa ole odotettavissa. Orbán ei luottanut pääministerien lähimpien neuvonantajien viesteihin, vaikka kannat ovat olleet samat viikkojen ajan.Orbánin pelimerkit alkoivat olla vähissä.Varsinainen huippukokous ehti kestää vain muutaman minuutin, kun Eurooppa-neuvoston puheenjohtaja Charles Michel ilmoitti, että Unkari hyväksyy Ukrainan tukipaketin.Pieninä myönnytyksinä sopimukseen kirjattiin, että tuesta keskustellaan vuosittain ja tarvittaessa voidaan tehdä arvio kahden vuoden kuluttua. Tämä on kaukana Unkarin vaatimasta veto-oikeudesta.Nämäkin lauseet olisi voitu kirjata sopimukseen jo joulukuun huippukokouksessa, yksi virkamies totesi.Orbán selitti asiaa tviitissään parhain päin: ”Tehtävä suoritettu. Unkarin rahoja ei päädy Ukrainaan, ja meillä on kontrollimekanismi.”Unkarilta jäädytettyjä varoja ei ole ollut tarkoituskaan käyttää Ukrainan tukemiseen. Tuki maksetaan EU-budjetista, jonka maksajia ovat jäsenmaat.Unkarin päätökseen saattoi vaikuttaa myös aiemmin viikolla Financial Timesiin vuodettu asiakirja, jonka mukaan Unkarin tukemista aiottiin rajoittaa, niin että maan talous ajautuu entistä pahempaan alamäkeen ja sijoittajat menettävät luottamuksensa.EU-johtajat pohjustivat päätöstä edellispäivän illallisella. Pääministeri Petteri Orpon (kok.) mukaan siellä vahvistui, ettei kukaan lipeä Unkarin puolelle. Orbán ei ollut illallisella.Moni tympääntyi Unkariin tukiriidan kestäessä. Orpon mukaan Unkari ei päätöksen jälkeen saanut muilta arvostelua mutta ei kehujakaan.Esimerkiksi Puolen pääministeri Donald Tusk totesi Reutersin mukaan, ettei hän luottaisi siihen, että Orbán jatkossa pelaa joukkueessa.Unkari on harannut EU:ssa vastaan jo monissa päätöksissä, esimerkiksi Venäjän-vastaisissa sanktioissa.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -837,21 +830,21 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>”Nyt oikeat vaalit vasta alkavat”, sanovat opiskelijat ja pohtivat liberaalien presi­dent­tieh­dok­kaiden eroja</t>
+          <t>50 miljardin Ukraina-tuesta sopu EU-huippu­ko­kouksessa</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071861</t>
+          <t>https://yle.fi/a/74-20072489</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Helsingin yliopiston opiskelijat olivat yllättyneitä, kun presidentinvaalien ensimmäisellä kierroksella ei tullutkaan jättiyllätystä. Vaalien toiselle kierrokselle jatkavat kokoomuksen Alexander Stubb ja valitsijayhdistyksen ehdokas, vihreiden kannattama Pekka Haavisto.Politiikkaa ja viestintää opiskelevan, sitoutumattoman Matti Välipakan mukaan julkisuudessa viime viikolla puhuttu perussuomalaisten Jussi Halla-ahon loppukiri oli toiveajattelua.– Olin kovasti valmis yllättymään, mutta yllätystä ei tullut. Lähinnä tuntuu, että nyt oikeat vaalit vasta alkavat, kun Stubbin ja Haaviston välillä oli niin pieni ero äänimäärässä.Yhteiskunnallisen muutoksen koulutusohjelmassa opiskeleva Pele Kalanje komppaa.– Kun on puhuttu viime viikkoina taktikoinnista, päällimmäisenä oli mielessä, mitä voisi sattua.Kalanjen mielestä Halla-ahon äänimäärä on vaalivoitto perussuomalaisille. Kalanje itse toimii vasemmistonuorissa ja puhuu vapaa-ajallaankin politiikasta ystäviensä kanssa.Myös Kuutti Viittanen muistuttaa, että Halla-aho sai äänistä lähes viidenneksen eli 19 prosenttia.– Ei Halla-ahon tulos lässähtänyt, vaan ylitti odotukset, joita oli kannatuskyselyissä, Viittanen muistuttaa.Viittanen opiskelee politiikkaa ja viestintää ja osallistuu SDP:n toimintaan.Opiskelijat toivovat näkevänsä eroja ehdokkaiden välilläOpiskelijat toivovat, että toisen kierroksen kampanjoinnissa ja vaalitenteissä nostetaan esiin presidentin toimivaltaan kuuluvia asioita.– Toivon, että keskustelu pysyy presidentin roolin kannalta keskeisissä asioissa, esimerkiksi suuntautuminen Yhdysvaltoihin ja miten työskennellä Yhdysvaltain tulevan presidentin kanssa, Pele Kalanje sanoo.Matti Välipakka toivoo, etteivät Stubb ja Haavisto ole turhan kilttejä toisilleen.– Toki siinä on riskejä, mutta toivon, että löytyisi eroja, että saataisiin vaaliväittelyä.Kuutti Viittasen mukaan Stubb ja Haavisto ovat olleet tähän saakka niin samanmielisiä, että suurin ero heidän välillään on ollut tähän saakka Halla-aho.– Keskustelu Ukrainasta ja Natosta oli ensimmäisellä kierroksella relevanttia, mutta paljon keskityttiin myös sisäpolitiikkaan, Viittanen kritisoi.”Perittävät” äänet kiinnostavatOpiskelijat seuraavat mielenkiinnolla, kumpi liberaaleista ehdokkaista perii ensimmäisellä kierroksella muille ehdokkaille menneet äänet. Niitä on 47 prosenttia ensimmäisen kierroksen äänistä.– Haavistohan irtautui täysin vasemmistosta, mikä on vaikuttanut hänen suosioonsa vasemmistolaisten parissa. Samaan aikaan Stubb on sen verran liberaali, ettei hänellä ole konservatiivissa piireissä suosiota. Odotan eroja, Pele Kalanje sanoo.Myös Matti Välipakka miettii, kuinka moni Halla-ahon kannattajista äänestää liberaalia Stubbia ja kuinka moni vasemmistoliiton Li Anderssonin kannattaja äänestää lähellä keskustaa olevaa Haavistoa.– Omasta mielestäni on mielenkiintoista, keitä Stubb ja Haavisto eivät saa äänestämään toisella kierroksella. Mielenkiintoista on myös toisen kierroksen äänestysprosentti, Välipakka pohtii.Näin Stubb ja Haavisto ennakoivat eilen sunnuntaina toisen kierroksen keskusteluja:Katso videolta, miten Stubb ja Haavisto ennakoivat toisen kierroksen keskusteluja.</t>
+          <t>EU on päässyt sopuun Ukrainalle annettavasta 50:n miljardin euron tukipaketista. Kaikki 27 jäsenmaata hyväksyivät tukipaketin ylimääräisessä huippukokouksessa Brysselissä.– Näin varmistetaan vakaa, pitkäaikainen ja ennustettava rahoitus Ukrainalle, Eurooppa-neuvoston puheenjohtaja Charles Michel kirjoitti viestipalvelu X:ssä.Sopimuksen syntymisestä ilmoitettiin heti kokouksen alettua.Vielä joulukuussa Unkari vastusti tukea eikä päätöstä Ukrainan tukemisesta saatu silloin aikaan. Sen jälkeen Unkarin kanssa on käyty neuvotteluja asian ratkaisemiseksi. Kuitenkin vielä ennen ylimääräistä huippukokousta oli epäselvää, miten Unkari nyt asian kanssa toimii.Ukrainan pääministeri Denys Šmyhal kiitteli tuoreeltaan päätöksen syntymistä.– EU-maat osoittivat solidaarisuutensa ja yhtenäisyytensä Ukrainaa kohtaan, hän sanoi.Myös presidentti Volodymyr Zelenskyi kehui päätöstä ja sanoi sen vahvistavan Ukrainan pitkän ajan taloustilannetta. Zelenskyi piti erittäin tärkeänä, että kaikki EU:n jäsenmaat hyväksyivät tukipaketin.Neljän vuoden aikana maksettava 50 miljardin euron tukipaketti ei ole sotilaallista tukea. Paketilla tuetaan Ukrainan jälleenrakentamista ja sodasta toipumista.Ukraina odotaa saavansa paketin ensimmäisen osan, 4,5 miljardia euroa, maaliskuussa.Reutersin lähde: Unkarin tuet pysyvät jäädytettynäVälittömästi ratkaisun jälkeen ei ole selvää tekivätkö muut EU-maat Unkarille myönnytyksiä.Sopimuksessa tukipaketista on kirjattu, että siitä keskustallaan vuosittain. Pakettia arvioitaisiin tarvittaessa kahden vuoden välein.Uutistoimisto Reutersille puhuneen EU-lähteen mukaan Unkarilta jäädytetyt varat pysyvät sopimuksesta huolimatta jäädytettynä. EU-lähde sanoi, että Unkarin on edelleen täytettävä vaadittavat ehdot, jotta tuet vapautetaan.Unkarilta on jäädytetty tukia oikeusvaltioperiaatteen rikkomisen takia. Joulukuussa komissio vapautti Unkarille 10 miljardia euroa, koska maa oli komission mukaan edennyt vaadituissa uudistuksissa. Jäissä on yhä 20 miljardia euroa.EU-maat ovat syyttäneet Unkarin itsevaltaista pääministeriä Viktor Orbánia kiristämisestä tukipakettiasialla. Orbán on ylläpitänyt läheisiä suhteita Vladimir Putiniin Venäjän Ukrainaan hyökkäämisestä huolimatta.Orbán ei ole kommentoinut tukipaketin syntymistä. Kokouspaikalla olevien delegaattien mukaan hän ei olisi saanut mitään myönnytyksiä, kertoo brittiläinen The Guardian-lehti.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -865,21 +858,21 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Eläinlää­kä­riketju Evidensia tekee miljoonien voitot lääke­myynnillä, vaikka eläinlääkärit eivät saa tienata lääkkeillä</t>
+          <t>Tammikuu tarjosi kaikkea paukku­pak­kasista vesisateisiin – katso kuukauden parhaat sääkuvat</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071338</t>
+          <t>https://yle.fi/a/74-20070418</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eläinlääkäriketju Evidensia on kasvanut kymmenessä vuodessa alan suurimmaksi toimijaksi Suomessa. Evidensian tilinpäätöstietojen mukaan sen markkinaosuus yksityisistä pieneläinklinikoista oli yli 30 prosenttia vuonna 2022.EvidensiaEvidensia on alun perin ruotsalaisen säätiön omistama eläinlääkäriketju.Yksi maailman suurimmista pääomasijoittajista, ruotsalainen EQT osti Evidensian vuonna 2014.Evidensia on siitä lähtien ostanut eläinlääkäriklinikoita Suomessa.2022 lopussa Evidensialla oli yhteensä 48 pieneläinklinikkaa ja eläinsairaalaa Suomessa.2016 EQT osti brittiläisen eläinlääkäriketjun IVC:n.2017 yhtiöt yhdistettiin: IVC Evidensia2019 Nestlè osti pienen osuuden yhtiöstä.2021, pääomasijoittaja Silverlake ja Nestlè ostivat yhteensä vajaan kolmanneksen IVC Evidensiasta 3,5 miljardilla eurolla.IVC Evidensian markkina-arvo vuonna 2021 oli 12,3 miljardia euroa.Suomen Evidensian liikevaihto vuonna 2022 oli 88 miljoonaa euroa.Evidensian E-Lääketukun liikevaihto vuonna 2022 oli 11,5 miljoonaa euroa. Liikevoitto 2,1 miljoonaa euroa.AvaaEvidensian klinikoilla asiakkaille myydään suoraan myös eläinlääkkeitä. Lain mukaan eläinlääkäreillä on lääkemyyntiin oikeus, mutta lääkkeillä ei saa tehdä voittoa. Asia on Suomen Eläinlääkäriliiton puheenjohtajan Mikko Turun mukaan yksiselitteinen.Suomen Eläinlääkäriliiton puheenjohtajan mukaan lain ajatuksena on, että eläinlääkäri tekee tuloksen omalla ammattitaidollaan. Laki on vuosikymmeniä vanha.MOT:n selvityksen mukaan Evidensian klinikoilla tapahtuvan lääkemyynnin avulla on kuitenkin onnistuttu tekemään miljoonien eurojen voitot.Evidensia perusti oman lääketukunMarkkinavoimansa ansiosta Evidensia on pystynyt neuvottelemaan lääkeostoista suoraan lääkeyhtiöiden kanssa. MOT:n tietojen mukaan Evidensian neuvottelemat hinnat ovat olleet merkittävästi alle muiden eläinlääkärien maksaman tukkuhinnan.Lääkkeitä ei ole kuitenkaan myyty asiakkaille halvemmalla kuin muilla eläinlääkäriklinikoilla, vaikka eläinlääkärit eivät saa tehdä lääkkeillä voittoa.Voitto lääkkeistä on jäänyt pöytälaatikkoyhtiöön nimeltään E-Lääketukku. E-Lääketukun omistaja on Evidensian emoyhtiö nimeltään Islay New Group Holding SA, jonka kotipaikka on Luxemburg.Kysely eläinlääkeyhtiöilleKysyimme kymmeneltä Suomessa toimivalta eläinlääkeyhtiöltä, ovatko ne tehneet sopimuksen Evidensian E-Lääketukun kanssa lääkkeiden myynnistä.Viisi yhtiötä ei vastannut kyselyyn, kolme ei kommentoinut.FaunaPharma vahvisti, että sillä on sopimus E-Lääketukun kanssa.Ainoa lääkeyhtiö joka vastasi, että ei ole sopimusta Evidensian E-Lääketukun kanssa, oli suomalainen pörssiyhtiö Orion.Evidensian E-Lääketukku on ostanut lääkkeet halvalla ja myynyt ne kalliimmalla Evidensian omille klinikoillle. Lääkemyynnin liikevaihto oli 11,5 miljoonaa euroa vuonna 2022. Liikevoittoa syntyi 2,1 miljoonaa.Evidensia ja E-Lääketukku kuuluvat kansainväliseen IVC Evidensia-konserniin.Suomen Evidensian toimitusjohtaja Ilari Kujala ei antanut MOT:lle haastattelua. Sähköpostitse välittämässään vastauksessa Kujala sanoi, että Evidensian strategia varmistaa, että klinikoilla on käytössään uusimmat ja parhaat eläinlääkkeet.– Lisäämme lääkkeiden hintaan potilashoitojen aikana syntyvän hävikin osuuden, Kujala kirjoitti.Kujalan puolesta vastauksen kysymykseen siitä, tekeekö E-Lääketukku voittoa lääkkeillä, välitti brittiläinen kriisiviestintäyhtiö Brunswick.Avaa kuvien katseluSähköpostitse välitetyn vastauksen mukaan E-Lääketukku mahdollistaa sen, että Evidensian klinikoilla ympäri Suomen on käytössään viimeisimmät ja parhaat eläinlääkkeet. Kuva: Kuvakaappaus IVC Evidensian yritys- ja talousviestintätoimisto Brunswick Groupin sähköpostivastauksesta, kuvankäsittely: Otso Ritonummi / YleBrunswick kirjoittaa vastauksessaan, ettei E-Lääketukku lisää eläinlääkkeisiin lisähintaa. Seuraavassa lauseessa kuitenkin todetaan IVC Evidensian puolesta, että E-Lääketukku tuottaa lisätuloja lääkevalmistajien kanssa tehtyjen sopimusten ansiosta.Voiton tekeminen eläinlääkkeillä on monissa muissa maissa sallittu, kuten Isossa-Britanniassa.Suomessa Ruokaviraston tehtävänä on valvoa, että eläinlääkärit eivät tee voittoa lääkkeillä. Ruokaviraston erityisasiantuntijan Henriette Helin-Soilevaaran mukaan Evidensian järjestely ei ole lainvastainen.– Mutta ainakin se on tapa, jolla lainsäädännön henkeä ei noudateta, Helin-Soilevaara sanoo.Lääketukun toimitila oli asianajotoimiston kaappiEvidensia on saanut järjestelyyn lääketukkutoimiluvan Fimealta vuonna 2019.Fimea on tehnyt tarkastuksen E-Lääketukkuun vuonna 2021. Tarkastuksessa on todettu, että lääketukun toimitila on tamperelaisen asianajotoimiston lukittu kaappi.– Ei ole mitenkään epätavanomaista, että on tällaisia toimijoita, joiden toimitiloissa ei varastoida lääkevalmisteita. Sitä arvioidaan aina sen toimiluvan mukaisesti, minkälaiset tilat ovat asianmukaiset, tarkastuksen suorittanut Fimean yliproviisori Johannes Pietiläinen toteaa.Avaa kuvien katseluFimean tekemän tarkastuksen mukaan E-Lääketukun papereita on säilytetty ulkopuolisen asianajotoimiston kaapissa. Kuva: Kuvakaappaus Fimean tarkastuspöytäkirjasta, kuvankäsittely: Otso Ritonummi / YleE-Lääketukun tilinpäätöksen mukaan henkilökuntaa oli tarkastusvuotena nolla henkilöä. Lääketukussa pitää kuitenkin Fimean toimiluvan mukaan olla vastuullinen johtaja.Fimean tekemän tarkastuksen aikaan E-lääketukkukaupan vastuunalaisena johtajana on toiminut PharmaLex-yhtiön työntekijä. PharmaLex on lääkkeiden myyntilupiin liittyviä palveluja tarjoava yritys.Fimean mukaan E-Lääketukun toiminta on ollut sen saaman toimintaluvan mukaista.Ruokaviraston mukaan sillä ei ole mahdollisuutta puuttua E-Lääketukun toimintaan lainsäädännön puitteissa. Lain mukaan eläinlääkärit eivät saa tehdä voittoa eläinlääkkeillä, mutta E-Lääketukku on yritys, jota sama laki ei koske.– Meidän näkökulmasta näyttää siltä, että eläinlääkäri myy lääkkeet suurin piirtein sillä hinnalla, jolla hän on ostanut ne lääkkeet tai klinikalle on ostettu lääkkeet, sanoo Ruokaviraston Henriette Helin-Soilevaara.Eläinlääkärikäynnin kalliit kustannukset ovat jo pitkään herättäneet keskustelua lemmikinomistajien parissa. MOT selvittää uusimmassa dokkarissaan Ihmisen kallein ystävä, miksi eläinlääkärissä käyminen maksaa omistajille niin paljon. Katso Yle Areenassa.Isot eläinlääkärilaskut raivostuttavat lemmikkien omistajia. Tuhansien eurojen hoidot nostavat myös eläinlääkäreihin kohdistuvia paineita. MOT löytää vielä uuden tavan, jolla markkinajohtaja tekee voittoa omistajilleen. </t>
+          <t>Avaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katselu</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -893,21 +886,23 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Joensuun Mailan hallituksen puheenjohtaja Joni Rytkösestä: ”Liian aikaista puhua, mitä sopimuksen jatkolle tapahtuu”</t>
+          <t>Haavisto ja Stubb paljastavat ystä­vä­kirjassa lempiruokansa ja hirveimmät kokemukset ulkomailta</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071923</t>
+          <t>https://yle.fi/a/74-20072243</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Joensuun Maila ei kommentoi, mitä vaikutuksia seuralle on siitä, että urheilun eettinen kurinpitolautakunta hyllytti pesäpalloilija Joni Rytkösen.Olympiakomitean alainen kurinpitolautakunta päätti maanantaina asettaa Rytkösen viiden kuukauden pelikieltoon. Kurinpitolautakunnan mukaan Rytkönen on häirinnyt kahta alaikäistä pesäpallotyttöä sosiaalisessa mediassa.Asiasta on käynnissä myös Itä-Suomen poliisin esitutkinta, jossa poliisi epäilee Rytköstä lapsen seksuaalisesta hyväksikäytöstä. Tutkinnanjohtaja Tomi Lautanen arvioi esitutkinnan valmistuvan kevättalven aikana.Joensuun Mailan hallituksen puheenjohtaja Joni Nousiainen sanoo seuran perehtyvän kurinpitolautakunnan päätöksiin ennen kuin se tekee tulevaisuutta koskevia ratkaisuja.– Meidän pitää tutustua lautakunnan päätökseen ja sen taustoihin tarkemmin, minkä jälkeen tehdään johtopäätökset ja toimenpiteet, Nousiainen toteaa.Rytkönen ei ole ollut viime vuoden toukokuun jälkeen mukana Joensuun Mailan toiminnassa. Hänellä on sopimus seuran kanssa syksyyn 2025. Toistaiseksi Nousiaisen mukaan on vielä liian aikaista puhua siitä, mitä sopimuksen jatkolle tapahtuu.Seura on ollut Nousiaisen mukaan hyllytyksen aikana hyvin vähäisissä tekemisissä Rytkösen kanssa.– Olemme antaneet rauhan tutkinnalle. Me olemme keskittyneet siihen, mikä on meidän osamme, eli Joensuun Mailan toimintaan, Nousiainen sanoo.</t>
+          <t xml:space="preserve">Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.
+Toteutus vaatii toimiakseen JavaScriptin.
+</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -921,21 +916,21 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Pesä­pal­loilija Joni Rytköselle pelikieltoa seksuaalisen häirinnän takia</t>
+          <t>Näin Stora Enson pomo perustelee yt-neuvotteluja, joista voi seurata potkut tuhannelle ihmiselle</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071822</t>
+          <t>https://yle.fi/a/74-20072562</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Olympiakomiten hallinnoima urheilun eettinen kurinpitolautakunta on määrännyt Joni Rytkösen määräaikaiseen pelikieltoon seksuaalisen häirinnän takia.Pelikielto päättyy 30. kesäkuuta eli noin viiden kuukauden kuluttua. Lautakunta otti pelikiellon pituuden osalta huomioon esimerkiksi sen, että Rytkönen on ollut hyllytettynä seuransa toiminnasta yhden kauden ajan.Olympiakomitean eettisen kurinpitolautakunnan puheenjohtaja Pirjo Aaltosen mukaan päätöksessä käytiin kokonaisharkintaa.– Päätös perustui kokonaisuudessaan lautakunnalle esitettyyn näyttöön. Meillä oli paljon kirjallista todistelua ja otimme vastaan myös henkilötodistelua, Aaltonen kommentoi.Kurinpitolautakunta katsoi Rytkösen häirinneen kahta alaikäistä pesäpallotyttöä sosiaalisessa mediassa. Kurinpitolautakunnan mukaan Joni Rytkönen lähetti heille seksuaalissävytteisiä viestejä ja toiselle myös seksuaalisia kuvia ja videoita. Lautakunta katsoi, että Rytkösen teot loukkasivat tyttöjen seksuaalista itsemääräämisoikeutta. Se katsoi, että toinen asianomistaja myötävaikutti tapahtumiin provosoimalla Rytköstä yhden päivän aikana.Teot tapahtuivat marraskuun 2022 ja huhtikuun 2023 välisenä aikana.Kurinpitolautakunta otti muun muassa kantaa siihen, onko tapauksella riittävää liitäntää urheiluun. Lautakunta katsoi, että teot tapahtuivat lajiyhteisön sisällä ja Rytkönen käytti urheilijastatustaan väärin.– Erityisesti lapsia ja nuoria tulee suojella seksuaaliselta häirinnältä urheilun piirissä, lautakunta kirjoitti tiedotteessa.Urheiluun liitännän osalta lautakunta ei ollut täysin samaa mieltä ja kaksi jäsentä olisi hylännyt kurinpitovaatimuksen. He katsoivat, ettei tapaus liity kiinteästi urheiluun, eikä kurinpitomääräyksiä kuuluisi siksi soveltaa tapaukseen.Rytkönen valittaa päätöksestä urheilun oikeusturvalautakuntaan. Rytkönen lähetti asiasta tiedotteen asiamiehensä Olli Rausteen kautta.Rytkönen viittaa tiedotteessaan muun muassa siihen, että lautakunnan mukaan moni asia tarkemmasta tapahtumainkulusta jää epäselväksi. Lautakunta totesi näin toisen henkilön osalta.– Lautakunnan päätös perustuu suurelta osin valheisiin, jotka pystyn todistamaan, Rytkönen kommentoi tiedotteen mukaan.Joensuun Mailan hallituksen puheenjohtaja Joni Nousiainen sanoo, että seura aikoo tutustua kurinpitolautakunnan päätökseen ja tehdä sen perusteella mahdollisia toimenpiteitä.Näin tapaus on edennytPesäpalloilija Joni Rytkösen tapaus nousi esiin toukokuussa, jolloin hänen seuransa Joensuun Maila hyllytti pelaajan esille tulleiden häirintäepäilyjen takia.Rytkösen tapaus on myös Itä-Suomen poliisilaitoksen tutkinnassa. Poliisi epäilee Rytköstä lapsen seksuaalisesta hyväksikäytöstä. Tutkinnanjohtaja Tomi Lautanen arvioi esitutkinnan valmistuvan kevättalven aikana.Lapsen seksuaalisesta hyväksikäytöstä voidaan tuomita vankeuteen vähintään neljäksi kuukaudeksi ja enintään kuudeksi vuodeksi.Rytkösen tapaus oli alun perin Suomen urheilun eettisen tutkimuskeskuksen käsittelyssä. Syyskuussa asia eteni Olympiakomitean eettiselle kurinpitolautakunnalle.Rytkönen teki rikosilmoituksenHäirintätapaukseen liittyy myös toinen poliisitutkinta. Rytkönen teki marraskuussa rikosilmoituksen nuorista naisista ja poliisi tutkii, ovatko he syyllistyneet rikokseen. Rikosnimike on seksuaalisen kuvan luvaton levittäminen ja yksityiselämää loukkaavan tiedon levittäminen.Joni Rytkönen on ollut Superpesiksen valovoimaisimpia pelaajia. Hän on voittanut kolme kertaa sarjan etenijäkuninkuuden ja juhlinut kertaalleen Suomen mestaruutta Sotkamon Jymyssä.Rytkönen oli ennen tapausta myös yksi Superpesiksen viime kauden mainoskasvoista kuuden pelaajan viuhkamainoksessa. Epäiltyjen häirintätapausten tultua ilmi Pesäpalloliitto poisti Rytkösen mainoksesta.Uutista täydennetty 29.1. kello 14.23: Lisätty Tomi Lautasen arvio esitutkinnan valmistumisesta.Uutista täydennetty 29.1. kello 15.41: lisätty Joensuun Mailan puheenjohtajan kommentit sekä tieto, että Rytkönen aikoo valittaa päätöksestä.</t>
+          <t>Metsäyhtiö Stora Enso kertoo valmistelevansa kannattavuuden parantamisohjelmaa, joka voi johtaa noin tuhannen työntekijän vähentämiseen.Henkilöstövähennykset koskettaisivat konsernin kaikkia toimintoja. Vielä ei ole tiedossa, miten paljon ja mistä yksiköistä työpaikkoja lähtee Suomessa.– Markkinatilanne on edelleen haastava. Näkyvissä on joitakin normalisoitumisen merkkejä, ja me teemme oikeita asioita, koska pystyimme kuitenkin kolmannesta kvartaalista jonkun verran parantamaan tulosta, mutta edelleen ollaan epätyydyttävän alhaisella tasolla, sanoo toimitusjohtaja Hans Sohlström.Yhtiö keskittyy ydintoimintoihin, joita ovat asiakkaiden palveleminen ja tuotteiden tehokas tuottaminen. Joitakin hallinnollisia tehtäviä saattaa jäädä pois. Tavoitteena on 80 miljoonan euron säästöt.– Meidän pitää epävarmassa markkinatilanteessa keskittyä niihin asioihin, mihin me voimme vaikuttaa. Muun muassa kustannustehokkuus on meidän käsissämme.Osinko laskee rajustiMuutosneuvottelut yhtiön eri toimintamaissa käynnistyvät lähiaikoina.Valtaosa suunnitelluista säästöistä voisi toteutua vuonna 2025, mutta merkittävä osa mahdollisista työntekijävähennyksistä tapahtuisi jo vuoden 2024 ensimmäisellä puoliskolla.Ohjelmaan ei ole suunniteltu uusia tuotantolaitosten sulkemisia.Stora Enson loka–joulukuun liikevaihto laski liki neljänneksen ja oli 2,17 miljardia euroa. Operatiivinen liiketulos pieneni 51 miljoonaan euroon vuoden takaisesta 355 miljoonasta.Osinko laskee 0,10 euroon osaketta kohti viime vuonna maksetusta 0,60 eurosta.Viime vuoden lopussa yhtiö sai päätökseen kesäkuussa 2023 käynnistyneen uudelleenjärjestelyohjelman. Sen myötä operatiivinen liiketulos parani 110 miljoonalla eurolla vuodessa ja henkilöstöstä vähennettiin 1 150 työntekijää.Vuonna 2023 liikevaihto oli 9,4 miljardia euroa. Vuotta aiemmin se oli 11,7 miljardia euroa. Yhtiö työllistää noin 21 000 henkilöä.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -949,26 +944,21 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Kisa saame­lais­kä­räjien puheen­joh­ta­juudesta käydään toden­nä­köisesti kahden naisen välillä</t>
+          <t>Yhä useampi kesätyöpaikka toivoo hakijasta videota – katso vinkit, mitä esitte­ly­videossa kannattaa näyttää</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071840</t>
+          <t>https://yle.fi/a/74-20071287</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Saamelaiskäräjien uusi johto selviää tiistain ja keskiviikon aikana, kun Saamelaiskäräjät kokoontuu järjestäytymiskokoukseen.Puheenjohtajan paikalle ovat ilmaisseet haluavansa Anni Koivisto ja Pirita Näkkäläjärvi. Molemmat ovat vaikuttaneet Saamelaiskäräjillä kuluneella vaalikaudella. Koivisto on toiminut viimeiset neljä vuotta Saamelaiskäräjien ensimmäisenä varapuheenjohtajana. Näkkäläjärvi taas on johtanut Saamelaiskäräjien kulttuurilautakuntaa.Nykyinen puheenjohtaja Tuomas Aslak Juuso kertoo myös olevansa valmis kaikkiin toimiin, joihin löytyy luottamusta, niin puheenjohtajistoon ja kuin hallitukseen. Ylen tietojen mukaan vaikuttaa kuitenkin siltä, että puheenjohtajakisa käydään Koiviston ja Näkkäläjärven kesken.Tukea löytyy molemmille naisilleSaamelaiskäräjille valitaan puheenjohtajan lisäksi kaksi varapuheenjohtajaa sekä neljä hallituksen jäsentä.Yle kysyi saamelaiskäräjäjäseniltä, ovatko he kiinnostuneet johtopaikoista ja keitä he tukevat puheenjohtajaksi. Kaikki vastanneet eivät kertoneet, kenen taakse asettuvat puheenjohtajavalinnassa.Pirita Näkkäläjärven takana kertovat olevansa Asko Länsman, Armi Palonoja, Marko Katajamaa, Inka Musta, Tauno Ljetoff, Ulla-Maarit Magga ja Leena Niittyvuopio-Jämsä. Myös Tuomas Aslak Juuso näkee Näkkäläjärven olevan hyvä ehdokas puheenjohtajan virkaan.Anni Koivistoa tukevat ainakin Anne Nuorgam ja Kari Toivo Lukkari.Varapuheenjohtajaehdokkaita vähintään viisiTuomas Aslak Juuson lisäksi varapuheenjohtajien paikoista ovat kiinnostuneet Anu Avaskari, Ulla-Maarit Magga, Tauno Ljetoff ja Leo Aikio, joka on viimeiset neljä vuotta toiminut toisena varapuheenjohtajana.Anu Avaskari oli syksyn vaalien ääniharava ja haluaisi vähintäänkin hallitukseen. Hän on ollut Saamelaiskäräjien hallituksessa vaalikaudella 2008–2011.Hallitukseen haluavat myös Asko Länsman, Inka Musta, Tauno Ljetoff, Ulla-Maarit Magga ja Veikko Feodoroff. Vielä istuvan hallituksen jäsen Anne Nuorgam kertoo, että hänen kiinnostuksensa hallituspaikasta riippuu puheenjohtajavalinnasta. Myös Feodoroff on ollut kuluneen kauden hallituksessa.Vielä istuvan hallituksen jäsen Juha-Petteri Alakorva ei halua kommentoida valintoja tässä vaiheessa. Uusi Saamelaiskäräjien jäsen Janne Hirvasvuopio ei ole pyrkimässä puheenjohtajistoon tai hallitukseen. Hänen mielestään hallituksessa pitäisi kuitenkin olla myös kaupunkisaamelaisten edustaja.Saamelaiskäräjien jäsenistä Aslak Pekkala, Nilla Tapiola, Karen-Anni Hetta ja Pigga Keskitalo eivät vastanneet Ylen kyselyyn määräaikaan mennessä.Koivisto ja Näkkäläjärvi ovat valmiita kantamaan puheenjohtajan vastuunPirita Näkkäläjärvellä ja Anni Koivistolla on molemmilla jo kokemusta Saamelaiskäräjiltä.
-Näkkäläjärvi aloittaa nyt kolmannen vaalikautensa, tosin vuonna 2012 alkaneella kaudella hän luopui jäsenyydestään ja hallituspaikasta tultuaan valituksi Yle Sápmin päälliköksi. Menneellä kaudella 2019–2023 hän on toiminut kulttuurilautakunnan puheenjohtajana.
-Näkkäläjärvi kertoo pohtineensa pitkään, onko hän käytettävissä puheenjohtajaksi. Nyt työtilanne antaa myöten, mikäli Saamelaiskäräjien täysistunto niin päättää.
-– On kerääntynyt elämänkokemusta, työkokemusta ja poliittista kokemusta, ja toivottavasti opintojen myötä myös taitoja, joista olisi hyötyä saamelaisyhteisölle ja meidän yhteistyömme johtamiselle, sanoo Näkkäläjärvi.
-Anni Koivisto on toisen kauden saamelaiskäräjäjäsen. Kuluneella kaudella hän on toiminut Saamelaiskäräjien ensimmäisenä varapuheenjohtajana.Viime syksyn vaaleissa Koivisto keräsi itselleen toiseksi suurimman äänimäärän. Nyt hän olisi valmis ottamaan puheenjohtajan paikan, jos Saamelaiskäräjien täysistunto niin haluaa.
-– Pohdin asiaa vaalien jälkeen, kun sekä Saamelaiskäräjien jäsenet ja myös muut saamelaiset pyysivät minua asettumaan ehdolle. Ajattelen myös, että suuri äänimäärä velvoittaa kantamaan vastuuta, sanoo Koivisto.Saamelaiskäräjät kokoontuu ensimmäistä kertaa tällä vaalikaudella järjestäytymiskokoukseen 30. ja 31. tammikuuta.</t>
+          <t>Kesätyöhaku käy juuri nyt kuumimmillaan. Nykyään moni työnantaja pyytää hakijalta myös esittelyvideota.Kysyimme eri yrityksiltä, mikä merkitys videolla on työpaikan saamisessa ja voiko sen avulla parantaa asemaansa rekrytoinnissa.Tavarataloketju Motonetin henkilöstöjohtaja Mira Prinz kertoo, että heillä esittelyvideo pyydetään, sillä se on heidän kokemuksensa mukaan monelle nuorelle hyvin luonteva tapa ilmaista itseään.– Jokainen saa loistaa omalla tavallaan. Toki huomioimme, että videon tekeminen voi olla myös epämiellyttävää. Emme pudota ketään pois hakuprosessista pelkän videon perusteella, Prinz kommentoi.Avaa kuvien katseluMotonetin Mira Prinzin mukaan video usein syventää hakijan persoonaa. ”Siinä voi tulla esille myös jotakin sellaista, mitä ei varsinaiseen hakulomakkeeseen ole huomannut laittaa tai me emme ole huomanneet kysyä.” Kuvituskuva. Kuva: Juuso Stoor / YlePersoona ja asenne esiinTavarataloketju Tokmannilta kerrotaan videohakemusten määrän kasvaneen selvästi. Heille hakiessa videon tekeminen ei ole pakollista, mutta sitä kannattaa harkita.Video ei kuitenkaan aseta hakijoita eri viivalle, vaan se on hyvä mahdollisuus tuoda esiin eri tavalla omaa persoonaa, motivaatiota ja asennetta.– Sisältö ratkaisee, ei niinkään sisällön tiedostomuoto, kertoo Tokmannin HR-asiantuntija Jasmin Rinne sähköpostitse.Avaa kuvien katseluKaikki eivät ole luontaisia esiintyjiä. Tämän ymmärtävät myös työnantajat. ”Jännittäminenkin on ok, jos asenne ja motivaatio on kunnossa”, sanoo Tokmannin Jasmin Rinne. Kuvituskuva. Kuva: Tiina Jutila / YleLinnanmäen huvipuiston henkilöstöjohtaja Mirva Mölsä kertoo, että esittelyvideo on merkityksellinen lisä hakuprosessissa niin työnhakijalle kuin rekrytoijallekin.– Video voi auttaa välittämään asiakaspalveluosaamista ja positiivista asennetta. Myös kielitaidon voi esitellä videolla.Mölsä pitää esittelyvideon vahvuutena myös sitä, että siinä hakija saa kertoa itsestään haluamallaan tavalla ja haluamassaan järjestyksessä. Persoonallinen ote ja toteutus huomataan.Vaikka toteutustapa on vapaa, yhden vinkin Mölsä kuitenkin antaa.– Video kannattaa tehdä rauhallisessa paikassa, jotta itse esittely tulee selkeästi esille.Avaa kuvien katseluLinnanmäen huvipuistoon hakevien kannattaa harkita videohakemuksen tekemistä. ”Se voi tuoda hyvän loppusilauksen hakemukseen ja täydentää kirjallista hakemusta”, sanoo Linnanmäen henkilöstöjohtaja Mirva Mölsä. Kuvituskuva vuodelta 2020. Kuva: Matti Myller / Yle Hakuprosessissa kokonaisuus ratkaiseeS-ryhmän rekrytoinnista vastaava päällikkö Annina Hyvönen kertoo sähköpostitse, että muutamissa osuuskaupoissa on käytössä videoesittely.Pääsääntöisesti haku kuitenkin tapahtuu netin kautta perinteisellä hakemuksella ja CV:llä, eli ansioluettelolla. Hyvönen pitää tätä tärkeänä osana hakemusta.– Kesätyö on usein nuorelle ensimmäinen työpaikka, mihin CV:n tarvitsee. Sen tekeminen osaltaan kartuttaa nuoren työelämätaitoja, kun sen yhteydessä tulee listattua, mitä kaikkea on tehnyt ja mitä vahvuuksia löytyy.Avaa kuvien katseluIkea Suomen rekrytointipäällikkö Anna-Maija Korko arvioi, että noin viidessä prosentissa hakemuksia on mukana video. ”Kannattaa tehdä hakemus siinä muodossa, joka itselle tuntuu luontevimmalle.” Kuva: Yle KuvapalveluJos kirjallinen ilmaisu ontuu, voiko hyvällä videolla pelata itselleen kesätyöpaikan?Kaikki kyselyyn vastanneet työnantajat painottavat, että hakuprosessissa kokonaisuus ratkaisee. Erinomainen video ei välttämättä pelasta, jos kokonaisuus ei ole kunnossa.– Mutta sen avulla voi löytyä joku potentiaalinen kultajyvä, joka ehkä muuten jäisi huomaamatta, sanoo Motonetin henkilöstöjohtaja Mira Prinz.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -982,22 +972,21 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Venäjällä harmitellaan Putin-kuiskaajan siirtymistä syrjään ja suosikkien Venäjän-vastaista linjaa</t>
+          <t>Lapissa juhlitaan penkkareita jo nyt – katso tunnelmat</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071790</t>
+          <t>https://yle.fi/a/74-20072555</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Useat venäläiset uutistoimistot ja sanomalehdet noteerasivat Suomen presidentinvaalien ensimmäisen kierroksen.Kokoomuksen ehdokas Alexander Stubb ja valitsijayhdistyksen ehdokas, vihreiden kannattama Pekka Haavisto jatkavat presidentinvaalien toiselle kierrokselle.Venäläinen sanomalehti Vedomosti, uutistoimistot Interfax ja Tass ja pietarilainen verkkomedia Fontanka uutisoivat Nato-Suomen presidentinvaalien tuloksesta ja muistuttivat Stubbin ja Haaviston Venäjä-linjasta.– Jo vaalikampanjan aikana kärkiehdokkaat puhuivat Venäjän-vastaisen kurssin jatkamisesta ja Ukrainan tukemisesta, Interfax kirjoitti.Myös valtion uutistoimisto Tass uutisoi Suomen presidentinvaaleista.Tass kertoi jo aiemmin, että Suomen presidentinvaalien ennakkosuosikit Stubb ja Haavisto ovat rakentaneet presidentinvaalikampanjansa Venäjän-vastaisen politiikan ympärille.Tass viittaa Haaviston Guardianille antamaan haastatteluun, jossa Haavisto puhui Suomen yhtenäisyyden säilyttämisestä ja ulkoisen uhkan torjumisesta.Tassin mukaan Haavisto viittasi ulkoisella uhkalla Venäjään.Stubbista Tass kirjoitti, että presidenttinä Stubb ei aloittaisi vuoropuhelua Venäjän presidentin tai Venäjän poliittisen johdon kanssa ennen kuin Venäjä vetäytyy Ukrainasta.
-Myös ehdokkaiden rajakommentit huomattiinVenäläinen Interfax painotti, että Stubb, toisin kuin Haavisto, on Suomen Nato-jäsenyyden pitkäaikainen ja aktiivinen kannattaja.– Hän kannattaa Suomen yhteistyötä Yhdysvaltojen kanssa. Hän puhui myös eurooppalaisemman Naton perustamisen puolesta ja siitä, että Suomen olisi otettava enemmän vastuuta puolustuksesta, venäläinen uutistoimisto Interfax kirjoittaa vaaleja käsittelevässä jutussaan.Oppositiolehti Meduzan mukaan ennakkosuosikeista Haavisto oli pitkään Kremlille mieluisampi ehdokas lievemmän ydinaseden sijoittamista koskevan linjansa takia.Stubb on kertonut, että ei ole järkeä sulkea pois sitä, että Suomen läpi tuotaisiin ydinaseita. Haavisto ei näe tarvetta muuttaa lakia, joka kieltää ydinaseiden kauttakulun.Haavistolla on kuitenkin, venäläismedioiden mukaan, rajumpi linja rajasulkua koskevassa asiassa.Avaa kuvien katseluSuomi sulki koko itärajansa ensimmäisen kerran marraskuussa. Imatran rajanylityspaikka. Kuvattu 25.1.2024 Kuva: Mikko Savolainen / Yle– Haavisto uskoo, että kolmansista maista tulevat rajanylittäjät on Venäjän masinoima projekti. Haavisto pitäisi rajat suljettuina niin kauan kuin on tarpeen, Interfax kirjoitti.Myös Sari Essayahin (kd.) rajakommentit huomattiin venäläismediassa.– Essayahin mukaan Venäjä on syyllinen rajasulkuun, Fontanka kirjoittaa.Valtionmedia Tass mainitsi erikseen, että presidentinvaalien ehdokkaista vain vasemmistoliiton Li Andersson ei kannattanut täydellistä rajasulkua.Putin-kuiskaaja ei saa jatkajaaVedomosti-sanomalehden mukaan Suomen presidentillä on valtionpäämiehellä erityinen rooli maan ulko- ja turvallisuuspolitiikassa.Suomen presidentti edustaa maata sotilasliitto Natossa ja toimii puolustusvoimien ylipäällikkönä.75-vuotias Niinistö on toiminut Suomen presidenttinä 12 vuotta. Useat venäläismediat luonnehtivat Niinistön suhteita presidentti Vladimir Putiniin lämpimiksi.– Länsimaisissa tiedotusvälineissä Niinistöstä käytettiin lempinimeä ”Putinin kuiskaaja” vuoteen 2022 saakka.– Yhdeksästä ehdokkaasta yksikään ei halua periä Niinistön lempinimeä, Fontanka uutisoi.Venäläisen oppositiolehden Meduzan mukaan Suomen presidenttinä Niinistö vältti taitavasti ansat suhteissaan Venäjään.– Se ei tarkoittanut, että Suomi olisi sietänyt kaikkea, mitä Kreml teki. Vuonna 2014 Suomi tuomitsi Krimin niemimaan miehittämisen ja liittyi EU:n Venäjän vastaisiin pakotteisiin, Meduza kirjoitti.Meduzan mukaan Niinistön presidenttikauden suurin saavutus oli Putinin ja Yhdysvaltain silloisen presidentin Donald Trumpin tapaamisen isännöinti Helsingissä vuonna 2018.Presidentti Sauli Niinistö äänesti sunnuntaina Lähderannan koululla Espoossa.Haaviston seksuaalinen suuntautuminen ja Halla-ahon Ukraina-projekti huomattiinHaaviston persoona näyttää kiinnostavan Venäjällä, jossa Kreml on viime aikoina kiristänyt sukupuoli- ja seksuaalivähemmistöjä koskevia lakeja.– Vihreiden puolueeseen kuuluva entinen ulkoministeri Pekka Haavisto on avoimesti homo ja Suomen luterilaisen evankeliskirkon jäsen, Fontanka kirjoitti Suomen vaaleja koskevassa artikkelissaan.Alexander Stubbista venäläismediassa kerrotaan, että hän toimi Suomen pääministerinä vuosina 2014–2015.– Vuonna 2017 Stubb ilmoitti jättävänsä politiikan lopullisesti. Hän palasi politiikkaan Ukrainan tapahtumien vuoksi, Fontanka luonnehti.Pietarilaisen Fontanka-lehden isossa Suomen presidentinvaaleja käsittelevässä jutussa noteerattiin myös presidenttikisassa kolmanneksi sijoittunut Jussi Halla-aho (ps.).Meduzan ja Fontankan mukaan Halla-aho puhuu erinomaista venäjää.Fontanka muisti suuressa vaalijutussaan myös mainita Halla-ahon erikoisen Ukraina-projektin.Median mukaan tammikuussa 2023 kansanedustaja Halla-aho maksoi siitä, että ukrainalaiskranaattiin kirjoitettaisiin teksti ”Suomen vapauden puolesta”.Fontanka myös muisti Halla-ahon kommentit, joiden mukaan venäläisten sotilaiden tappaminen on oikein ja tarpeellista.Kukaan ehdokkaista ei odotetusti saanut yli puolia äänistä, joten tuleva presidentti selviää vasta kahden viikon päästä sunnuntaina.Stubb voitti vaalien ensimmäisen kierroksen noin 27 prosentilla äänistä. Haaviston kannatus on puolestaan vajaat 26 prosenttia.Ehdokkaisiin voi tutustua Ylen vaalikoneessa.Vaaleihin liittyvät artikkelit löytyvät täältä.</t>
+          <t>Penkkarikausi alkoi jo pohjoisessa, kun Rovaniemellä järjestettiin tänään penkinpainajaiset eli penkkarit.Bilettävien abien rekat saapuivat Lordinaukion laitaan harmaan, mutta lauhan sään saattelemina.Avaa kuvien katseluSome ja energiajuomat näkyvät Lyseonpuiston lukion abien penkkarilakanassa. Kuva: Antti Mikkola / YleAvaa kuvien katseluAbit lähdössä ajelulle Lyseonpuiston lukiolta.  Kuva: Antti Mikkola / YleNykyään penkkareita juhlitaan eri puolilla maata eri aikoihin.Vuosikymmenten ajan penkkareita sekä vanhojen tansseja vietettiin kaikkialla Suomessa helmikuun puolessa välissä yo-kuunteluiden päättymisen jälkeen. Se oli sopiva ajankohta, koska kuunteluihin päättyi abiturienttien opiskelu ennen lukulomaa.Avaa kuvien katseluSuomennos: ”Kuinka paljon IB (tai IB-lukio) on oravanpyörä”? IB-lukiossa opetus tapahtuu englanniksi.  Kuva: Antti Mikkola / YleKeväällä 2018 perinteiset erilliset yo-kuuntelut loppuivat, ja muutos on vaikuttanut myös penkkareiden aikatauluihin.Tänä vuonna monilla paikkakunnilla penkkarit järjestetään ensi viikolla: Helsingissä ja Tampereella torstaina, Turussa perjantaina. Myös Lapissa esimerkiksi Kemissä penkkarit järjestetään ensi viikon torstaina.Avaa kuvien katseluAbi pukeutuneena tietokonepeli Minecraftin timanttihaarniskaan.  Kuva: Antti Mikkola / YleAvaa kuvien katselu“Mitä Kenin sisko vuokraa” viittaa viime syksyn englannin pitkän oppimäärän ylioppilaskokeeseen, joka hämmensi opiskelijoita.  Kuva: Antti Mikkola / Yle</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1011,22 +1000,21 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Suomen presidentillä on erityinen rooli, joka kiinnostaa nyt maailmalla</t>
+          <t>Valtava määrä musiikkia katosi Tiktokista – Mikael Gabriel: ”Koko katalogini 17 vuoden ajalta on hävinnyt”</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071796</t>
+          <t>https://yle.fi/a/74-20072531</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Suomen presidentinvaalien ensimmäisen kierroksen tulos on kiinnostanut maailmalla.Esimerkiksi Financial Times, Politico, France 24, Bloomberg, Guardian, Reuters, ABC News, CNBC News ja monet muut kansainväliset mediat uutisoivat ensimmäisen kierroksen tuloksesta sunnuntaina.Kokoomuksen ehdokas Alexander Stubb ja vihreiden ja kannatusyhdistyksen Pekka Haavisto jatkavat vaalien toiselle kierrokselle.
-Suomen presidentinvaalit kiinnostavat nyt maailmalla, koska Suomen presidentillä on valtionpäämiehenä poikkeuksellinen rooli maan ulko- ja turvallisuuspolitiikassa.Suomen presidentti edustaa maata sotilasliitto Natossa ja johtaa puolustusvoimia. Ulkomaisten medioiden mukaan Suomen presidentin valtuudet ovat laajempia kuin monessa muussa maassa.Pohjoismaat: Stubb on suosikkiToisen kierroksen varsinainen vaalipäivä on ensi viikon sunnuntaina 11. helmikuuta, ja vaalien tulos vahvistetaan kolmen päivän kuluttua keskiviikkona 14. helmikuuta, mutta ruotsalaismedioissa ennakoidaan jo nyt Stubbin voittoa.– Jos toimitukset valitsisivat Suomen presidentin, niin Stubb olisi jo julistettu presidentiksi, kertoo kirjeenvaihtaja Pirjo Auvinen ruotsalaismedioiden uutisissa Ylen radiouutisissa.Esimerkiksi Dagens Nyheter esitteli presidenttiehdokkaista Stubbin isossa artikkelissaan.Myös Svenska Dagbladet on kuvaillut Stubbia suursuosikiksi.Ruotsalaismedioiden analyyseissa ennakoidaan, että keskustan ja perussuomalaisten äänet päätyvät Stubbille kakkoskierroksella.Myös Norjan yleisradioyhtiö NRK luonnehti Stubbia selväksi suosikiksi sunnuntai-iltana, kun presidentinvaalien ensimmäisen kierroksen tuloksista kerrottiin.Ensimmäisellä kierroksella Kokoomuksen ehdokas Stubb sai 27,2 prosentin kannatuksen. Vihreiden ja kannatusyhdistyksen Haavisto ylsi puolestaan 25,8 prosenttiin.Viro: Naapurimaiden suhteet eivät muutuViron yleisradioyhtiön EER:n mukaan Venäjän hyökkäyksen vuoksi Suomi luopui perinteisestä puolueettomuuden ja idän ja lännen välisen tasapainon politiikasta.– Vuonna 2023 Suomi liittyi Natoon ja allekirjoitti DCA-sopimuksen, joka helpottaa amerikkalaisjoukkojen toimintaa Suomessa sekä mahdollistaa niiden aseiden ja tarvikkeiden varastoinnin Suomen maaperällä, EER kirjoittaa.Virolainen Postmees kirjoittaa, että Haaviston tai Stubbin valinta presidentiksi ei vaikuta virolaisiin tai Suomen ja Viron suhteisiin, koska myös Viro kuuluu sotilasliitto Natoon.Britannia: Presidentinvaaleja varjosti geopoliittinen draamaBritannian yleisradioyhtiön BBC:n mukaan Suomen presidentinvaalien ensimmäinen kierros sujui rauhallisesti ja suurilta skandaaleilta vältyttiin.BBC:n mukaan perussuomalaisten kannattajien väitteet Jussi Halla-ahon mustamaalaamisesta mediassa vaalien aikana kohautti Suomessa.Brittiläisen Guardianin mukaan Suomen presidentinvaalien ensimmäistä kierrosta varjosti geopoliittinen draama, joka liittyy Suomen Nato-jäsenyyteen.Yhdysvallat: Suomi tunnetaan korkeasta valmiustasostaanAmerikkalaismedioiden mukaan presidentinvaalien ensimmäisen kierroksen tärkeimpiä teemoja olivat ulko- ja turvallisuuspoliittiset kysymykset, Venäjä-politiikka ja turvallisuusyhteistyön lisääminen Yhdysvaltojen kanssa sekä Ukrainalle annettava sotilastuki.Amerikkalaismedioiden mukaan Suomen presidentillä on poikkeukselliset valtuudet vaikuttaa maan ulko- ja turvallisuuspolitiikkaan verrattuna muihin maihin.Suomen presidentti toimii armeijan ylipäällikkönä ja edustaa maata Natossa. Uutistoimisto AP:n mukaan Suomen presidentti voi vaikuttaa Suomen ja suurvaltojen välisiin suhteisiin, kuten suhteisiin Yhdysvaltoihin, Kiinaan ja Venäjään.Talouslehti Financial TImes muistutti, että Suomi on tunnettu maailmalla koko yhteiskuntaa koskevan korkean valmiustason vuoksi.– Venäjä on viime aikoina koetellut Suomen rajaturvallisuutta lähettämällä siirtolaisia ​​rajalle. Myös kaasuputken ja datakaapelin vaurioituminen Itämerellä on lisännyt Suomen valmiutta.FT:n mukaan Suomen varautuminen on ymmärrettävää, sillä onhan Suomella ja Venäjällä yhteistä rajaa liki 1 340 kilometriä.Saksa: Suomen presidentinvaalit ovat Nato-vaalitMyös Saksassa korostettiin Suomen Nato-jäsenyyden merkitystä presidentinvaalien aikana.Deutsche Welle mukaan Suomen presidentinvaalit järjestetään poikkeuksellisena aikana, kun Pohjoismaiden suhteet Venäjään ovat heikentyneet maan hyökättyä Ukrainaan 2022.– Ehdokkaat ovat luvanneet tiukkaa Venäjä-linjaa, DW kirjoittaa.Saksalaismedian mukaan Suomi päätti luopua puolueettomuudesta ja liittyi Natoon vastauksena Venäjän hyökkäykselle Ukrainaan.Venäjä: Suomi saa Venäjä-vastaisen presidentinVenäjällä haikaillaan presidentti Sauli Niinistön kauden päättymistä.Useat venäläismediat ovat luonnehtineet Niinistön suhteita presidentti Vladimir Putiniin lämpimiksi. Niinistöstä jopa käytettiin lempinimeä ”Putinin kuiskaaja” vuoteen 2022 saakka.Venäläismedioiden mukaan vaalien voittajasta riippumatta Suomi saa Venäjä-vastaisen presidentin– Jo vaalikampanjan aikana kärkiehdokkaat puhuivat Venäjä-vastaisen kurssin jatkamisesta ja Ukrainan tukemisesta, Interfax kirjoitti.Venäläinen uutistoimisto Tass kertoi, että Suomen presidentinvaalien ennakkosuosikit Stubb ja Haavisto ovat rakentaneet presidentinvaalikampanjansa Venäjä-vastaisen politiikan ympärille.Lähteet: AP, Reuters</t>
+          <t>Yksi maailman suurimmista levy-yhtiöstä, Universal Music lopetti yhteistyönsä Tiktokin kanssa eilen keskiviikkona. Siksi Universalin artistien musiikki katosi sosiaalisen median palvelusta torstaina.Mikael Gabriel on yksi levy-yhtiön suomalaisartisteista.– Tänä aamuna huomasin, että koko mun katalogi viimeisen 17 vuoden ajalta on hävinnyt Tiktokista, ja niin myös kaikkien muiden Universalin artistien biisit.Hän kuvaa Ylelle tunnelmiaan näin:– Aika negatiiviset fiilikset.Universal Music kertoi päätöksestään artisteille ja musiikin tekijöille nettisivuillaan julkaisemassaan avoimessa kirjeessä.Levy-yhtiö ei ole tyytyväinen Tiktokilta saamiensa korvausten suuruuteen.Universal Musicin mielestä Tiktokin korvaus musiikin käytöstä ei ole samalla tasolla kuin mitä muut sosiaalisen median palvelut sille tilittävät.Kiinalaisen ByteDance-yhtiön omistaman Tiktokin mukaan Universalin väitteet ovat vääriä.Mikael Gabriel: ”Artistit sivutulen alla”Muusikkojen liiton puheenjohtaja Ahti Vänttiselle Universalin ilmoitus vetää miljoonia kappaleita pois Tiktokista ei tullut yllätyksenä.– Näista asioista on aika paljon puhuttu ja tämä on Universalin reaktio tilanteeseen.– Levy-yhtiöllä on oikeus totta kai toimia noin. Universalin osalta kyse on ensisijaisesti rahasta, Vänttinen toteaa.Mikael Gabrielin mielestä artistit ovat jääneet sivustaseuraajiksi, kun kukaan ei ole neuvotellut päätöksestä heidän kanssaan.– Tuntuu, että tässä on tilanne, jossa kaksi isoa tahoa on vastakkain, ja me artistit ja työntekijät joudumme sivutulen alle. Nyt on kyse aivan jostain muusta kuin että artisteille ei makseta tarpeeksi.Avaa kuvien katseluUniversalin sopimus sosiaalisen median palvelu Tiktokin kanssa päättyi tammikuun viimeinen päivä. Kuva: Getty ImagesTiktokilla valtava promootioarvoHollantilais-amerikkalaisella Universalilla on ollut Tiktokissa miljoonia musiikkikappaleita.– Taiteilijoiden kannalta suurin vaikutus ei ole taloudellinen, vaan välillinen ja liittyy promootioarvoon, joka Tiktok-alustalla on, Ahti Vänttinen sanoo.Samaa sanoo Mikael Gabriel.– Tiktok on meille artisteille isoin alusta promota musiikkia. Sen arvoa on vaikea mitata rahassa.Muusikkojen liitossa on vajaa 4 000 jäsentä. Liiton puheenjohtaja Ahti Vänttisen mukaan muusikot eivät ole olleet häneen vielä asiasta yhteydessä.– Onhan se ikävää, jos musiikki ei näy jatkossa Tiktokissa. Joissain mielessä ymmärrän, että jos sopimukseen ei päästä, tuollainen tulos siitä voi tulla.Vaihtavatko artistit levy-yhtiötä?Mikael Gabrielin mukaan artistit saattavat harkita Universal Musicin päätöksen takia levy-yhtiön vaihtamista.– Jos homma jatkuu pitkään näin, ei artisti halua Universalille tulla, koska heillä ei ole tarjota artistille Tiktok-alustaa. He tekevät diilejä Sonyn ja Warnerin kanssa tai independenttinä [itsenäisinä], jotta pääsevät Tiktokiin.Päätöksellä on myös muita seurauksia. Se voi jatkossa vaikuttaa myös artistin ja yhteistyökumppaneiden välisiin sopimuksiin.– Varmasti vaikuttaa siihen, että haluaako yhteistyökumppanit tehdä musiikkia artistin kanssa, jonka musiikkia ei löydy isommalta platformilta.Avaa kuvien katseluUuden musiikin kilpailun osallistujat ytheiskuvassa. Vasemmalla Mikael Gabriel ja Nublu. Kuva: Yle / Miikka VarilaUMK:n kannalta huono ajoitusMikael Gabrielin mukaan levy-yhtiön päätös tuli erittäin huonoon aikaan.Hän osallistuu parhaillaan Uuden musiikin kilpailuun yhdessä virolaisartisti Nublun kanssa.Universalin poistuminen Tiktokista tarkoittaa, ettei heidän kilpailukappale Vox Populista tehtyjä videoita nähdä siellä.– Ajankohta on todella ikävä, koska tässä on UMK isosti käynnissä. Vox Populiin tehdään videoita, ja siinä on hyvä ilmiöitys menossa. Kun video vedetään isoimmalta alustalta alas, se on aika iso etulyöntiasema muille kilpailijoille.Mikael Gabrielin kritiikki ei kohdistu oman levy-yhtiön toimintaan Suomessa.– Kaikki info tulee Amerikasta, eikä Suomen Universal voi siihen vaikuttaa. Se on pelkästään sen tiedon varassa, joka tulee pääkonttorilta.Mikael Gabriel toivoo, että levy-yhtiö ja Tiktok pääsisivät asiassa pikaisesti sopuun.– Tämähän on neuvottelukysymys ja varmasti aika pienistä nyansseista kiinni.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1040,27 +1028,24 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Näin Suomi äänesti – tämä juttu paljastaa yksi­tyis­kohdat</t>
+          <t>Synkkä pilvi Suomen Davis Cup -ryhmän yllä – kestääkö Otto Virtasen nilkka?</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071019</t>
+          <t>https://yle.fi/a/74-20072573</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Presidentinvaalien ensimmäisen kierroksen voittajaksi nousi odotetusti kokoomuksen ehdokas Alexander Stubb. Hän sai 27,2 prosenttia äänistä.Toiselle kierrokselle ylsi selvästi myös valitsijayhdistyksen ehdokas, vihreiden kannattama Pekka Haavisto 25,8 prosentin ääniosuudella.Hän päihitti kolmanneksi jääneen perussuomalaisten Jussi Halla-ahon 6,8 prosenttiyksiköllä.
-Rehn oli suosituin kaikkiaan 108 kunnassaAlexander Stubb oli suosituin ehdokas kaikkiaan 84 kunnassa, Pekka Haavisto 39 kunnassa ja Jussi Halla-aho 78 kunnassa.Kisassa neljänneksi jäänyt Olli Rehn oli voittaja tällä mittarilla: hän on suosituin kaikkiaan 108 kunnassa.Tämä kartta kertoo, kuka voitti missäkin kunnassa. Klikkaamalla ehdokkaan kuvaa näet, missä tämä pärjäsi parhaiten.
-Grafiikka: Petter West / Yle ja Maija Hurme / YleKaupungeissa ääniä keräsi etenkin HaavistoKolmanneksi tullut Jussi Halla-aho oli suosituin Lapin ja Satakunnan vaalipiireissä ja neljänneksi jäänyt Olli Rehn Oulun vaalipiirissä. Muissa vaalipiireissä ykköseksi tuli jompikumpi toiselle kierrokselle päässeistä ehdokkaista.Stubbia kannatettiin etenkin ruotsinkielisellä rannikolla. Korsnäsissä hän sai jopa 60,2 prosenttia äänistä.Haavisto puolestaan sai korkeimmat kannatuslukunsa Ahvenanmaalta. Hän oli myös ykkönen suurissa kaupungeissa: Helsingissä, Turussa, Tampereella ja Oulussa.Vähäisintä Stubbin kannatus oli Merijärvellä Pohjois-Pohjanmaalla (8,6 %) ja Haaviston puolestaan Halsualla Keski-Pohjanmaalla (6,6 %).
-Entä millaisissa kunnissa eri ehdokkaita äänestettiin eniten? Haavisto sai ääniä etenkin kaupungeissa, kun taas pienemmissä taajamissa suosituin oli Stubb.Maaseudulla Rehn oli suosituin.
-Vaali innosti suomalaiset uurnilleÄänestysaktiivisuuden lasku presidentinvaaleissa taittui. Kaikkiaan 74,9 prosenttia äänioikeutetuista antoi äänensä ensimmäisellä kierroksella. Tätä useampi (77,2 %) äänesti presidentinvaalissa viimeksi vuonna 2006 toisella kierroksella, jolloin vastakkain olivat Tarja Halonen ja Sauli Niinistö.Muihin vaaleihin verrattuna presidentinvaalit yleensä innostavat äänestäjiä hyvin uurnille. Viime kevään eduskuntavaaleissa äänesti 72 prosenttia suomalaisista, kun taas edellisissä kuntavaaleissa äänestysprosentti oli 55,1.Ennakkoäänestämisen suosio on kasvanut 2000-luvulla, ja nyt se nousi presidentinvaalien ennätyslukemaan, 44,6 prosenttiin.Ahkerimmin näissä vaaleissa äänestettiin Luodossa, Kauniaisissa ja Pedersören kunnassa. Vähäisintä äänestysinto oli Ahvenanmaalla: Hammarlandissa, Finströmissä ja Saltvikissä.
-Tuleeko ensimmäisen kierroksen ykkösestä taas presidentti?Koska voittaja Alexander Stubb ei saanut yli 50:tä prosenttia äänistä, järjestetään presidentinvaalissa toinen kierros.Hänellä on kuitenkin hyvät mahdollisuudet tulla valituksi presidentiksi, sillä nykyisen vaalitavan aikana kaikissa edellisissä presidentinvaaleissa ensimmäisen kierroksen ykkönen on lopulta voittanut vaalit.Vuonna 2018 presidentinvaalissa järjestettiin vain yksi kierros, sillä istuva presidentti Sauli Niinistö sai ensimmäisellä kierroksella 62,6 prosenttia äänistä.Alkavalla toisella kierroksella 47 prosenttia äänestäneistä joutuu etsimään itselleen uuden ehdokkaan. Niin sanottuja kodittomia ääniä on enemmän kuin koskaan sitten vuoden 1994 presidentinvaalien ensimmäisen kierroksen. Tällöin 52,1 prosenttia äänesti jotakuta muuta kuin kahta suosituinta ehdokasta.
-Toisen kierroksen vaali käydään 11. helmikuuta. Silloin ratkeaa, kummasta, Alexander Stubbista vai Pekka Haavistosta tulee Suomen 13. presidentti.Oikaisu 29.1. klo 8.20. Jutun viimeisessä grafiikassa oli virheellisesti tähti, jonka mukaan Stubb olisi valittu presidentiksi ensimmäisellä kierroksella. Tähti on poistettu grafiikasta.</t>
+          <t>Suomen joukkueen Davis Cup -karsinnat alkavat Turusta 2.–3. helmikuuta, kun Suomi kohtaa Portugalin. Yle näyttää kaikki Suomen joukkueen Davis Cup 2024 -ottelut kanavillaan.Tennismaajoukkue on pelannut vuodesta 2019 alkaen kotiottelunsa Espoossa, mutta kun varaustilanne ei sallinut pelaamista pääkaupunkiseudulla, niin Turusta valikoitui uusi pelipaikka.Davis Cupin karsintaottelu on järjestetty Turussa viimeksi vuonna 2002. Suomi ja Portugali taas ovat kohdanneet tenniksessä kahdesti aiemmin: vuonna 1968 Suomi vei voiton, mutta vuonna 2015 Portugalin joukkue oli vahvempi.Perjantaina kello 17.30 alkaen luvassa on kaksi kaksinpeliä, joissa maiden ykköspelaajat kohtaavat kakkoset.Ottelun ohjelman mukaan aloittava Suomen kakkospelaaja Otto Virtanen koki kovia viime viikolla pyöräyttäessään harmittavasti nilkkansa, jonka lopullinen kunto ja kestävyys selviävät vasta seuraavina kahtena päivänä.– Kondis on ok. Viime viikolla tuli vähän loukkaantumista, ei sen enempää. Kentällä on tullut oltua kuitenkin pelaamassa suht paljon. Meillä on hyvä taustatiimi, joka pitää huolen, että pääsen pelaamaan. Paljon hoitoa ja oheisharjoittelua, selvitti Virtanen Ylelle.Suomella on ollut Davis Cupin arvonnoissa tuuria, kun se on saanut usein kotikenttäedun karsintoihin. Syyskuusta 2019 alkaen Suomi on kohdannut kotonaan Itävallan, Intian, Belgian, Uuden-Seelannin, Argentiinan ja nyt Portugalin. Ainoastaan vuoden 2020 Meksiko-ottelu on pelattu vieraskentällä, kun turnaustapahtumia ei lasketa.– Onhan se tosi iso etu, ja kaikki pelaajat nauttivat siitä, että saadaan olla yhdessä kotimaassa ekstraviikko. Se on meille maailmalla reissaaville aina iso bonus, huomauttaa Virtanen.Otto Virtaselle on vastassa Portugalin ykköspelaaja, hyvävireinen Nuno Borges heti perjantaina.– Aika tuttu kaveri, jopa ihan pelikentän ulkopuolellakin. On tullut harjoiteltua paljon hänen kanssaan ja pelattua kerran vastaan. On hyvä pelaaja, niin kuin on nähty viimeisen kuukauden aikana, kun on ottanut kovia voittoja ja pelasi viimeksi Australiassa tosi hyvin. Top-50 -sijoitus kertoo hänestä aika paljon, tuumii Virtanen torstai-iltana.Suomen ja Portugalin kohtaamisen ohjelmaPe 2.2. klo 17.30 alkaenOtto Virtanen (ATP-166) – Nuno Borges (ATP-47)
+Emil Ruusuvuori (ATP-55) – Joao Sousa (ATP-245)La 3.2. klo 15.00 alkaenHarri Heliövaara / Patrik Niklas-Salminen – Francisco Cabral / Nuno Borges
+Emil Ruusuvuori – Nuno Borges
+Otto Virtanen – Joao SousaAvaaBorges tällä hetkellä tennisuransa huipullaBorges myöntää pelaavansa elämänsä parasta tennistä juuri tällä hetkellä.Hän voitti äskettäin Australian Grand Slamissa kolme ottelua ja eteni 16 parhaan joukkoon, kunnes taipui maailmanlistan kolmoselle, finaaliin yltäneelle Daniil Medvedeville erin 3–6, 6–7, 7–5, 1–6.– Viime vuosi oli minulle jo iso menestys ja askel uralla eteenpäin. Vuosi 2024 lähti sitten minun osaltani upeasti käyntiin. Aion pitää kiinni tästä viretilastani, mutta aika näyttää, onnistunko siinä.Borges tuntee Suomen nuorekkaan joukkueen omasta mielestään erittäin hyvin ja on harjoitellut Virtasen ja myös Emil Ruusuvuoren kanssa paljon.Tuoreimpien tietojen mukaan tapahtumaan on myyty yhteensä 13 300 lippua – perjantaiksi 6 100 ja lauantaiksi 7 200. Areenan kapasiteetti on noin 8 300.Suomen yleisöennätykset menevät siis komeasti uusiksi. Tennismaajoukkueiden edellinen yleisöennätys on viime vuoden helmikuulta, kun Espoon maaottelussa kahden päivän aikana oli 9 500 katsojaa. Samalla joukkue kirjasi päiväkohtaisen ennätyksensä 5 200 katsojaa.– Turun sisähallin pelialusta ei ole mikään uusi tuttavuus, ja meillä on ollut riittävästi aikaa tottua siihen. Ehkä Suomi on niukasti ennakkosuosikki, koska heillä on ollut joukkueena hyviä kokemuksia ja he pelaavat kotiyleisönsä edessä. Tiedän kuitenkin, että voimme voittaa täällä, jos pelaamme huipputennistämme, paaluttaa Borges.Avaa kuvien katseluSuomen ja Portugalin tennismaajoukkueet joukkuekuvassa torstaina. Kuva: Suomen tennisliittoSuomen viisihenkisen maajoukkueen muodostavat Emil Ruusuvuori, Otto Virtanen, Harri Heliövaara, Patrik Niklas-Salminen ja Eero Vasa. Vasa korvasi joukkueessa loukkaantuneen Patrick Kaukovallan. Kapteenina toimii Jarkko Nieminen.Portugalin riveissä ovat Nuno Borgesin lisäksi Joao Sousa, Henrique Rocha, Gastao Elias ja Francisco Cabral.– Aika odotettu kokoonpano Portugalilta. Avauspäivän osalta voi sanoa, että vastustajilla on kaksi todella kovaa ja tasaista takakentän pelaajaa. Borges tavoittelee varmasti paikkaa takalinjan lähellä, eikä tykkää pelata, jos joutuu kauemmas peruuttelemaan. Sousa sen sijaan pystyy myös kauempaakin pelaamaan ja on sitkeä sekä taitavan monipuolinen lyönneissään, analysoi kapteeni Nieminen.Miesten tennismaajoukkue onnistui erinomaisesti viime vuonna, kun se ylsi Davis Cupin välieriin. Suomalaiset seurasivat joukkueen otteita niin kotikatsomoissa kuin paikan päällä Malagassa, Espanjassa. Marraskuun puolivälissä Malagan stadionilla oli yli 5 000 suomalaista. Onnistumisten myötä Davis Cup -joukkue palkittiin vuoden esikuvana ja vuoden joukkueena Urheilugaalassa 11. tammikuuta.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1074,27 +1059,21 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mieletön nousu NFL:n konfe­rens­si­fi­naaleissa – Kansas Cityn tähtipelaaja teki historiaa, kun joukkue eteni Super Bowliin</t>
+          <t>Miksi nyt oikein lakkoillaan? Lue tästä, miten Suomi muuttuu ja miksi se ei käy kaikille</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071799</t>
+          <t>https://yle.fi/a/74-20072498</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Amerikkalaisen jalkapallon NFL-kausi huipentuu kahden viikon kuluttua Kansas City Chiefsin ja San Francisco 49ersin väliseen Super Bowliin.Sarjan hallitseva mestari Kansas City kukisti AFC-konferenssin finaalissa ennakkosuosikki Baltimore Ravensin 17–10. NFC-konferenssin loppuottelussa 49ers voitti Detroit Lionsin trillerimäisessä pisteiloittelussa 34–31.Chiefs ja 49ers kohtasivat Super Bowlissa myös neljä vuotta sitten, jolloin Chiefs oli parempi pistein 30–21.Viime vuosien menestysseura Chiefs ei runkosarjassa vakuuttanut, mutta joukkue on parhaimmillaan kauden ratkaisuhetkillä. Joukkueen puolustus nollasi pelinrakentajatähti Lamar Jacksonin johtaman Baltimoren hyökkäyksen lähes täysin.– Puolustuksemme oli uskomaton. Saimme johdon ja vahvalla luonteella pystyimme pitämään sen, Chiefsin päävalmentaja Andy Reid kertasi lehdistötilaisuudessa.Avaa kuvien katseluAndy Reid on valmentanut Kansas Cityä vuodesta 2013 saakka. Kuva: Getty Images65-vuotias menestysvalmentaja kiitteli joukkueensa yhteishenkeä ja henkistä lujuutta. Erityiskiitosta hän jakoi muun muassa joukkueensa hyökkäyksen ja puolustuksen linjalle.– Linjamme tulivat tänään voittamaan ja pelasivat täydellä sydämellään, Reid tunnelmoi.Tutkapari loisti jälleenChiefsin, ja ehkä koko sarjan, suurin tähti, pelinrakentaja Patrick Mahomes oli jälleen isojen panosten ottelussa loistava. Hän muun muassa onnistui 11 ensimmäisessä syöttöyrityksessään. Chiefs teki touchdownit kahdella ensimmäisellä hyökkäysvuorollaan.– Se on jotain erityistä, Reid kiteytti.Mahomes heitti lopulta 241 jaardia, yhden touchdownin eikä yhtäkään syötönkatkoa. Läpi kauden loistanutta Baltimoren puolustusta vastaan 39 syöttöyrityksestä onnistui peräti 30.Vuosien ajan Mahomesin tutkaparina häärinyt tähtipelaaja Travis Kelce loisti pelinrakentajan rinnalla. Sisempi laitahyökkääjä vastaanotti Mahomesin heittämän touchdownin ja keräsi yhteensä 116 kiinniottojaardia. Mahomesin jokainen Kelcelle suunnattu heitto onnistui ottelussa.11 kiinniotollaan 34-vuotias Kelce nousi lajilegenda Jerry Ricen ohi kaikkien aikojen eniten kiinniottoja pudotuspeleissä napanneeksi pelaajaksi 152 kiinniotollaan.Avaa kuvien katseluTravis Kelce teki Kansas Cityn ensimmäisen touchdownin Baltimorea vastaan. Kuva: Getty ImagesJos Mahomes loisti varmuudellaan ja lyhyillä heitoillaan, Lamar Jacksonin ilta oli kauttaaltaan vaikea. Supertähti onnistui 37 syöttöyrityksestään 20:ssä.Ravensin hyökkäys vaikutti läpi ottelun epävarmalta, sillä kiirehtimistä, epäselviä tilanteita ja heikkoa huolenpitoa pelivälineestä oli liikaa ottelun panoksiin nähden. Etenkin, kun Chiefsin puolustus oli alusta asti vahva.Päätösneljänneksellä nähtiin Ravensin kohtalon hetket, kun laitahyökkääjä Zay Flowers oli heittäytymässä kaventavaan touchdowniin, mutta Chiefsin kulmapuolustaja L'Jarius Sneed syöksyi tökkäämään pallon Flowersin käsistä ja Chiefs sai pallonriiston.Noin neljänneksen puolivälissä Jackson heitti kohti maalialuetta, mutta puolustaja Deon Bush nappasi syötönkatkon ja Chiefs sai jälleen hyökkäysvuoron 17–7-johdossa. Jackson oli tilanteen jälkeen raivoissaan ja heitti kypäränsä voimalla maahan.Justin Tuckerin potkumaali ottelun lopussa oli laiha lohtu Ravensille. Chiefs eteni neljännen kerran viiden viime vuoden aikana Super Bowliin. 27-vuotias Ravens-tähti Jackson ei vieläkään saa lunastettua varauspäivänä vannomaansa lupausta mestaruuden tuomisesta Baltimoreen.Avaa kuvien katseluMorgan Moses (vas.) lohdutti Zay Flowersia hänen epäonnistuneen kiinniottonsa jälkeen päätösneljänneksellä. Kuva: Getty ImagesDetroit suli massiivisesta johtoasemastaNFC-konferenssin runkosarjavoittaja San Francisco 49ers nousi 17 pisteen tappioasemasta Super Bowliin. Detroit Lions dominoi konferenssifinaalin avauspuolikasta ja joukkue johti puoliajalla 24–7.Detroit onnistui juoksupelillään musertamaan 49ersin puolustuksen miltei täysin. Jameson Williamsin juoksema 42-jaardinen avaustouchdown sekä Jahmyr Gibbsin reilusta 20 jaardista pujottelema kolmas touchdown olivat malliesimerkkejä tästä.Kolmas jakso käänsi pelin, sillä 49ers voitti neljänneksen peräti 17–0. Puoliaikatauon jälkeen kotijoukkue teki peräti 27 pistettä peräkkäin ja otti pelin hallinnan itselleen.Kiistelty pelinrakentaja Brock Purdy petrasi avauspuolikkaan ja heittämänsä syötönkatkon jälkeen. Hän heitti lopulta touchdownin, 267 jaardia sekä eteni pallon kanssa lähes 50 jaardia.– Tehtäväni on jakaa palloa vapaille pelaajille. Joskus sellaisia ei ole ja on vain löydettävä keinot. Yritin vain pitää hyökkäyksen käynnissä ja liikuttaa palloa eteenpäin, Purdy kertasi lehdistölle.Avaa kuvien katseluBrock Purdy on pelannut NFL:ssä kaksi kautta ja nyt joukkue eteni Super Bowliin. Kuva: Getty Images49ersista tuli ensimmäinen joukkue NFL:n historiassa, joka on noussut konferenssifinaalissa 17 pisteen puoliaikatappiosta voittoon.– Tämä saattoi olla ainoa mahdollisuutemme (mestaruuteen), Detroitin päävalmentaja Dan Campbell sanoi tunteikkaana lehdistötilaisuudessa.Detroit on pelannut NFL:ssä 66 vuotta ilman mestaruutta. Lions oli ennen kuluvia pudotuspelejä voittanut pudotuspeliottelun viimeksi vuonna 1991.Joukkueen hyökkäys tyrehtyi toisella puolikkaalla lähes kokonaan. Epäonnistuneita kiinniottoja ja pelinrakentaja Jared Goffin heittoja tuli liikaa. Goffin mukaan yllättäjäjoukkueen johdon menettäminen ei mennyt konferenssifinaalin paineiden piikkiin.– Ei ottelu ollut liian iso. Emme onnistuneet toteuttamaan hyökkäystä toisella puoliskolla haluamallamme tavalla ja hävisimme ottelun. San Francisco pelasi hyvin toisella puoliskolla, Goff arvioi lehdistötilaisuudessa.Avaa kuvien katseluJared Goff (vas.) heitti 273 jaardia, mutta 49ers puolustus sai pelinrakentajan ongelmiin etenkin toisella puolikkaalla. Kuva: Getty ImagesNFL-kausi huipentuu Super Bowlissa sunnuntaina 11. helmikuuta. Suomen aikaa ottelu pelataan 12. helmikuuta aamuyöllä. Pelinrakentajien kaksintaistelu on jälleen huomion keskipisteenä, kun joukkueet kohtaavat neljän vuoden jälkeen uudestaan loppuottelussa.Chiefsin supertähti Mahomes pelaa 10 vuoden ja 450 miljoonan dollarin sopimuksella, kun Purdylla on voimassa 3,7 miljoonan dollarin tulokassopimus.Näin NFL:n pudotuspelit ovat edenneetAFC-konferenssi:Wild Card -kierros:Kansas City Chiefs – Miami Dolphins 26–7
-Buffalo Bills – Pittsburgh Steelers 31–17
-Houston Texans – Cleveland Browns 45–14Konferenssivälierät:Buffalo Bills – Kansas City Chiefs 24–27
-Baltimore Ravens – Houston Texans 34–10Konferenssifinaali:Baltimore Ravens – Kansas City Chiefs 10–17NFC-konferenssi:Wild Card -kierros:Tampa Bay Buccaneers – Philadelphia Eagles 32–9
-Detroit Lions – Los Angeles Rams 24–23
-Dallas Cowboys – Green Bay Packers 32–48Konferenssivälierät:Detroit Lions – Tampa Bay Buccaneers 31–23
-San Francisco 49ers – Green Bay Packers 24–21Konferenssifinaali:San Francisco 49ers – Detroit Lions 34–31Super Bowl LVIII:Kansas City ja San Francisco kohtaavat Super Bowlissa, joka pelataan Vegasin Allegiant Stadiumilla Suomen aikaa maanantain vastaisena yönä 12. helmikuuta.Avaa</t>
+          <t>Miksi työntekijät muun muassa päiväkodeissa, ruokakaupoissa, teollisuudessa ja kuljetusalalla ovat nyt lakossa?Työntekijöitä edustavat ammattiliitot ovat päättäneet poliittisista lakoista ja ulosmarsseista, koska ne vastustavat hallituksen työelämää koskevia muutoksia ja leikkauksia sosiaaliturvaan.Liitot toivovat hallituksen neuvottelevan muutoksista työntekijöitä ja työnantajia edustavien tahojen kanssa. Kaikki ammattiliitot eivät vastusta kaikkia suunniteltuja muutoksia.Lakko-oikeus ja irtisanominenHallitus haluaa rajoittaa juuri nyt käsillä olevia poliittisia lakkoja ja tukilakkoja. Poliittinen lakko voisi kestää korkeintaan yhden vuorokauden. Tukilakon pitäisi olla ”kohtuullinen suhteessa tavoitteisiin” ja se voisi kohdistua vain työriidan osapuoliin.Laittomaan lakkoon osallistumisesta voisi jatkossa tulla työntekijälle 200 euron sakko. Liiton lakkosakon ylärajaa nostettaisiin 150 000 euroon.Työntekijän irtisanomista, määräaikaisten työsopimusten käyttöä ja paikallista sopimista eli työehdoista sopimista esimerkiksi yritys- tai toimipistekohtaisesti halutaan helpottaa.Sairausajan palkkaLainsäädäntöä halutaan muuttaa niin, että sairausloman ensimmäiseltä päivältä ei tarvitsisi maksaa palkkaa.TyöttömyysturvaTyöttömyysturvaan ja muuhun sosiaaliturvaan on suunnitteilla useita muutoksia, jotka ovat ammattiliittojen mukaan rajuja ja kohdistuvat jo ennestään pienituloisiin. Osan arvioidaan kannustavan osa-aikatöitä tekeviä siirtyvän kokonaan työttömäksi.Osa hallituksen työttömyysturvaan suunnittelemista muutoksista on jo tullut voimaan, kuten työttömyysturvan omavastuuajan pidennys ja lomakorvausten jaksotus. Nämä muutokset pidentävät aikaa, jolta työttömäksi jäänyt ei saa työttömyyskorvausta.Lisäksi työttömyysturvasta poistetaan lapsikorotus ja niin sanottu 300 euron suojaosa, mikä tarkoittaa summaa, jonka on voinut ansaita ilman, että työttömyyskorvaus pienenee.Työttömyysturvaa kutistetaan myös pidentämällä työssäoloehtoa ja muuttamalla sen laskentatapa tuloperusteiseksi. Ansiosidonnaista työttömyysturvaa porrastetaan niin, korvaussumma laskee, kun työttömyyttä on kestänyt pidempään.Katso Ylen laskurista, miten ansiosidonnainen työttömyysturva muuttuu eri tulotasoillaLisäksi hallitus aikoo lakkauttaa vuorotteluvapaan ja aikuiskoulutustuen.Useita Kelan maksamia etuuksia, kuten työmarkkinatukea, ansiosidonnaista työttömyysturvaa, vanhempainpäivärahaa, opintorahaa ja osaa asumistuista on päätetty jättää nostamatta vuoteen 2027 saakka.Kun etuuksia ei koroteta, niiden ostovoima laskee inflaation eli yleisen hintojen nousun takia.AsumistukiAsumistukea pienennetään muun muassa korottamalla omavastuuta, alentamalla korvaustasoa sekä poistamalla 300 euron ansiotulovähennys.Lisäksi helsinkiläisten asumistukea heikennetään laskemalla asumiskustannusten enimmäismäärää muun pääkaupunkiseudun tasolle. Omistusasujat menettävät asumistuen kokonaan.Ammattiliittojen mukaan asumistuen leikkaukset lisäävät köyhyyttä ja iskevät erityisesti pienipalkkaisiin työntekijöihin.Laskuri näyttää, paljonko asumistuki putoaa – opiskelijalle ja asunnonomistajalle tulos on karuPalkatHallitus valmistelee niin sanottua vientimallia, joka sitoisi lainsäädännöllä muiden kuin vientialojen palkankorotukset enintään vientialojen korotusten tasolle.Käytännössä mallissa esimerkiksi hoitajien palkankorotukset eivät voisi ylittää vientialoilla työskentelevien työntekijöiden palkankorotuksia. Liittojen mukaan tämä voisi jättää osan aloista palkkakuoppaan.Mikä ihmeen poliittinen lakko ja miksi se saa toiset näkemään punaista?Yle Uutispodcast: Mikä ihmeen poliittinen lakko ja miksi se saa toiset näkemään punaista?Kolmiottelussa lakkokenraalit ja Helle: Kenen kanta voittaa?Politiikkaradio: Ay-liike aloittaa laajat lakot, jotta hallitus perääntyisi aikeistaan. Ovatko uhattuina naisten palkankorotukset vai Suomen talous? Kuka taipuu? Mitä pitäisi ajatella työmarkkinapomojen ristiriitaisista tavoitteista? Studiossa Tehyn puheenjohtaja Millariikka Rytkönen ja AKT:n Ismo Kokko, joista ensimmäinen sulkee päiväkoteja ja toinen satamia. Työnantajia edustaa Teknologiateollisuuden varatoimitusjohtaja Minna Helle. Toimittajana on Antti Pilke. Voit keskustella aiheesta 2.2. klo 23 saakka.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1108,43 +1087,21 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Susanna Tapani palaa Naisleijoniin, päävalmentaja avaa tähtipelaajan ratkaisua</t>
+          <t>”Kiusataan pieniä yrittäjiä” – osaa yrittäjistä lakko häiritsee, toisilla on enemmän ymmärrystä</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071898</t>
+          <t>https://yle.fi/a/74-20072539</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Tähtihyökkääjä Susanna Tapani palaa pitkästä aikaa naisten jääkiekkomaajoukkueen kokoonpanoon.Tapani oli mukana maanantaina nimetyssä joukkueessa, joka matkaa Tshekin Liberecissä 7.–11. helmikuuta pelattavaan naisten EHT-finaaliturnaukseen.– Erinomaista, että hän tulee mukaan. Meillä on ollut koko ajan avoin vuorovaikutus. Hänellä oli, omat valintansa menneen puolentoista vuoden aikana. Sopimus oli, että kun pelit jatkuvat ja hän on motivoitunut maajoukkueeseen (on paluu ajankohtainen). Nämä toteutuvat nyt, päävalmentaja Juuso Toivola kommentoi.Tapani oli Suomen mukana edellisen kerran elo-syyskuussa pelatuissa MM-kisoissa 2022. Tapani nousi otsikoihin lähdettyään kesken kisojen ystäviensä häihin. Se ei jäänyt turnauksen ainoaksi kohuksi, sillä Suomen turnaus päättyi shokkitappioon joukkueen hävittyä Japanille sijoitusottelussa, mikä pudotti Suomen B-tasolohkoon.Avaa kuvien katseluNaisleijonien MM-turnaus 2022 sujui mollivoittoisesti.  Kuva: Tomi HänninenTapani piti taukoa jääkiekosta koko viime kauden keskityessään toiseen lajiinsa ringetteen. Siitä huolimatta Tapani valittiin ensimmäisenä suomalaisena Pohjois-Amerikan uuteen jääkiekkoliiga PWHL:ään.Suomalaishyökkääjä on aloittanut kautensa hyvin. Minnesota johtaa sarjaa tasapisteissä Montrealin kanssa. Kahdeksan ottelun jälkeen Tapani on pistepörssissä kuudentenatoista tehoin 2+3=5.– Todella vauhdikkaita, hyviä pelejä. Olen seurannut todella mielenkiinnolla uutta sarjaa. Aika näyttää, varmaan pelaajaliikenne tulee Suomesta olemaan sinnepäin isompaakin, Toivola näkee.Myös PWHL:ssä vietetään helmikuun toisena viikonloppuna maajoukkuetaukoa. USA ja Kanada pelaavat tällöin toisiaan vastaan.Tapani on toistaiseksi ainoa suomalaispelaaja, joka PWHL:ssä pelaa. Myös konkaripuolustaja Minttu Tuominen varattiin sarjaan, mutta Tuominen valitsi kiinalaisen Shenzhen Kunlun Red Starin. Joukkue juhli vastikään sarjan mestaruutta.”Iso osa MM-joukkueessa”Muista konkareista varakapteeni Petra Nieminen ja kapteeni Jenni Hiirikoski palaavat maajoukkueen kokoonpanoon oltuaan sivussa joulukuun EHT-peleistä. Michelle Karvinen palasi puolestaan joukkueen vahvuuteen jo edellisessä, joulukuussa pelatussa EHT-turnauksessa.Toivolan mukaan joukkueesta moni nähtänee myös huhtikuussa Yhdysvalloissa pelattavassa MM-turnauksessa.– En lähde nyt spekuloimaan (kuinka lähellä MM-joukkuetta nimetty ryhmä on), mutta kyllähän tästä varmasti iso osa on joukkueessa, Toivola myöntää.Avaa kuvien katseluJenni Hiirikoski oli sivussa joulukuun EHT-peleistä.  Kuva: Andrea Cardin/IIHF/All Over PressSairastuvalta joukkue on saanut vahvuuteensa myös HIFK:n Julia Liikalan, joka on Naisten Liigan pistepörssin kolmantena tehoin 21+32=53.– Totta kai hänen kokemuksensa vahvistaa meidän tekemistänne. Toivon mukaan palautuminen on mennyt hyvin ja ainakin näillä tietoa hän on todella hyvässä iskussa, Toivola näkee.Naisleijonien joulukuinen EHT-turnaus poiki tappiot Ruotsille ja Sveitsille. Saksan ja Tshekin Suomi onnistui kukistamaan, mutta toisaalta marraskuussa Tshekki kaatoi Suomen 4–2.– Edelliseen turnaukseen meidän on parannettava peliä niin, että riistämme yhä tehokkaammin kun tulemme omalle alueelle, että pystymme viisikkona rakentamaan paremmin hyökkäyspeliämme, joka on ollut vahvuutemme. Pidämme sen vahvuutenamme, mutta lisäämme tehokkuutta maalinteossa, Toivola aloittaa.Avaa kuvien katseluMichelle Karvinen palasi maajoukkueen vahvuuteen joulukuussa.  Kuva: Tomi HänninenUSA ja Kanada ovat naisten jääkiekon mahtimaat, mutta syksyn EHT-turnauksessa myös Tshekki, Ruotsi ja Sveitsi ovat onnistuneet haastamaan Suomea. Toivola ei ole huolissaan Naisleijonien kehityksestä.– Se kuuluu valmennukseen ja urheiluun, että jokainen joukkue ja maa tekee töitä. On totta, että Tshekillä, Ruotsilla ja Sveitsillä on ollut todella hyvät viime tapahtumat ja nousujohteinen trendi. Me jatkamme oma pelaamistamme, siellä on hyvät perustat ja palikat tekemiselle. Hiomme vielä jäällä ja jään ulkopuolella kuviot kuntoon.Naisleijonat helmikuun EHT-finaaliturnauksessaMaalivahdit:31 Pajarinen Tiia, Kiekko-Espoo
-36 Keisala Anni, HV71 Jönköping SWEPuolustajat:2 Karjalainen Sini, Brynäs IF SWE
-5 Yrjölä Siiri, HIFK Helsinki
-6 Hiirikoski Jenni, Luleå HF SWE
-7 Rantala Sanni, KalPa Kuopio
-8 Savander Eve, Modo Hockey SWE
-11 Eronen Ada, Kiekko-Espoo
-15 Koukkula Oona, HPK Hämeenlinna
-88 Savolainen Ronja, Luleå HF SWEHyökkääjät:
-10 Holopainen Elisa, KalPa Kuopio
-12 Vanhanen Sanni, HIFK Helsinki
-16 Nieminen Petra, Luleå HF SWE
-20 Antti-Roiko Anna-Kaisa, Kärpät Oulu
-21 Täks Lisette, Kiekko-Espoo
-22 Schalin Julia, Kiekko-Espoo
-24 Vainikka Viivi, Luleå HF SWE
-25 Yrjänen Kiira, HV71 Jönköping SWE
-28 Nylund Jenniina, Brynäs IF SWE
-32 Vesa Emilia, Frölunda HC SWE
-33 Karvinen Michelle, Frölunda HC SWE
-40 Tulus Noora, Luleå HF SWE
-77 Tapani Susanna, Minnesota, PWHL
-91 Liikala Julia, HIFK Helsinki</t>
+          <t>Hallituksen esitykset ensimmäisen sairauspäivän palkattomuudesta ja lakko-oikeuden rajoittamisesta ovat vieneet sadat tuhannet suomalaiset poliittiseen lakkoon.Tilanne vetää Suomen yrittäjien puheenjohtajan Petri Salmisen mielen vakavaksi.– Työtaistelutoimenpiteet kohdistuvat nyt tahoon, joka ei ole riitelyssä millään tavalla osapuolena eli yrityksiin ja työpaikkoihin, hän sanoo.Elinkeinoelämän keskusliitto on arvioinut lakon maksavan yhteiskunnalle jopa 360 miljoonaa euroa.Salminen ei osaa sanoa, millaiset ovat pienten ja keskisuurten yritysten kustannukset.– Hintaa ei ole pystytty laskemaan, koska moni työntekijä käyttää oikeuttaan olla osallistumatta lakkoon ja tulee työpaikalle, hän sanoo.Samisen mukaan osa yrityksistä on vaikeassa tilanteessa pelkästään taloussuhdanteen takia. Näille yrityksille lakko aiheuttaa vaikeuksia ja ylimääräistä työtä.Ymmärrystäkin löytyyLaukaalainen ilmalämpöpumppuja myyvä ja asentava yrittäjä Esa Forsström kertoo, ettei lakolla ole vaikutusta hänen töihinsä.Forsström ymmärtää työntekijöiden mielenilmausta.– Yrittäjän näkökulmasta ensimmäisen sairauspäivän palkattomuus tietysti kelpaisi, mutta eihän se työntekijälle ole hyvä, hän toteaa.Avaa kuvien katselu– Olisi parempi ratkaista asiat neuvottelemalla kuin sanelemalla, sanoo yrittäjä Esa Forsström. Kuva: Riikka Pennanen / YleForsströmillä on esittää myös ratkaisuehdotus.– Voisiko uuden työntekijän koeajalla ensimmäinen sairaspäivä olla palkaton, mutta muuttua palkalliseksi koeajan jälkeen? hän pohtii.Tavarantoimitukset ovat jäissä lakon ajan, mutta siihen Forsström on varautunut etukäteen.Lakko näkyy tavallisille ihmisille etenkin kauppakeskuksissa.Osa ruokapaikoista on suljettu ja asiakkaita liikkeellä tavallista torstaita vähemmän.Avaa kuvien katseluMarkettien aukioloaikoja on tänään supistettu lakon takia.  Kuva: Petri Niemi / YleKultakauppiaana 30 vuotta toiminut yrittäjä Juha Mäntynen kertoo, että jokainen poikkeustilanne näkyy kauppojen myynnissä.– Ensin kovat pakkaset, ja nyt tämä lakko, hän sanoo.Yrittäjien lisäksi myös esimiehet hyppäävät itse puikkoihin, jos työntekijät jäävät lakon takia kotiin.Näin on tehnyt tänä aamuna myös Jyväskylän Seppälän Prisma-tavaratalon johtaja Joonas Heiskanen.– Päivän suorituksesta päätellen siinä tulee oltua ehkä vähän liian harvoin, hän naurahtaa.Lakon takia kaupan aukioloaikaa on hieman supistettu ja verkkokauppa ei toimi.– Normaalia vähemmän ihmisiä on töissä, mutta tehdään se mitä tällä porukalla voidaan. Huomenna pitäisi olla ihan normaali päivä, Heiskanen sanoo.Kello 19.02 Täsmennetty Joonas Heiskasen roolia.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1158,21 +1115,21 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Oikeus: Lääkäri aiheutti vaimonsa kuoleman Ullanlinnassa – välituomion mukaan tekoa ei kuitenkaan suunniteltu etukäteen</t>
+          <t>Itärajan tulli­vir­kailjoita on komennettu töihin satojen kilometrien päähän kotoa – työhy­vinvointi on koetuksella</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071827</t>
+          <t>https://yle.fi/a/74-20072513</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Helsingin käräjäoikeus antoi tänään maanantaina välituomion Ullanlinnan murhajutussa. Psykiatrimies on syytettynä vaimonsa murhasta.Välituomiossa käräjäoikeus on katsonut näytetyksi, että psykiatrimies on menetellyt syytteen teonkuvauksen mukaisella, rangaistavaksi säädetyllä tavalla. Hänen menettelyään ei kuitenkaan ole näytetty olleen syytteessä kerrotulla tavalla ennalta valmisteltua tai suunniteltua.Myöskään asiassa muun muassa ei ole katsottu näytetyksi, että teon motiivina olisi ollut mustasukkaisuus.Syyttäjän mukaan 49-vuotias mies murhasi vaimonsa Ullanlinnassa vuosi sitten. Mies on esitutkinnassa myöntänyt aiheuttaneensa naisen kuoleman, mutta on sanonut sen olleen tapaturma.Mielentilatutkimus aloitettu VaasassaVälituomion perusteella miehen mielentilaa on määrätty edelleen tutkittavaksi. Mielentilatutkimus oli alun perin määrätty suoritettaviksi jo esitutkinnan aikana. Mielentilatutkimus on nyt aloitettu Vaasan vanhassa sairaalassa 4. tammikuuta.Asian käsittelyä on lykätty jatkettavaksi, kunnes mielentilatutkimus on valmistunut.Välituomiossa ei ole otettu kantaa asian rikosoikeudelliseen arviointiin, toisin sanoen, mihin rikokseen mies on menettelyllään syyllistynyt ja onko teko tehty esimerkiksi vakaasti harkiten, onko teko ollut erityisen raaka ja julma ja onko teko ollut kokonaisuutena arvostellen törkeä.Välituomiossa ei myöskään ole otettu kantaa miehen tahallisuuden asteeseen. Näihin asioihin käräjäoikeus ottaa kantaa mielentilatutkimuksen valmistuttua tuomiossa.Aviomies pysyy yhä vangittunaPsykiatrimies on määrätty edelleen pidettäväksi vangittuna. Lisäksi käräjäoikeuden asettama ja jatkettavaksi määrätty vakuustakavarikko on määrätty edelleen pidettäväksi voimassa.Asianomistajien vaatimuksiin ja asian vahingonkorvausoikeudellisiin kysymyksiin käräjäoikeus ottaa kantaa vasta lopullisessa tuomiossa.Välituomio on osittain julkinen.Murhan lisäksi vuonna 1974 syntynyttä miestä syytetään henkirikoksen yhteydessä tapahtuneesta törkeästä varkaudesta.Jutussa iso osa oikeuden istunnoista ja asiakirjoista salattiin, koska ne sisälsivät oikeuden mukaan yksityis- ja perhe-elämään liittyviä salassa pidettäviä tietoja. Myös poliisin esitutkinta salattiin muutamaa sivua lukuun ottamatta.</t>
+          <t>Itärajan sulku on vaikeuttanut merkittävästi useiden Tullin työntekijöiden elämää. Työntekijöitä on komennettu töihin eri puolille maata siitä lähtien, kun raja-asemat ovat olleet suljettuina.Tullivirkamiesliiton mukaan suurin osa työntekijöistä on sopeutunut tilanteeseen hyvin, mutta epävarmuus jatkosta rasittaa kaikkia.– Ilman muuta tämä on vaikuttanut työhyvinvointiin ja jaksamiseen. Hankalinta on ollut perheellisillä ja sellaisilla, joilla on terveydellisiä rajoitteita, liiton puheenjohtaja Jari Nieminen sanoo.Itärajalla työskenteli ennen rajan sulkua noin 250 tullivirkailijaa. Viime aikoina heitä on komennettu töihin muun muassa Helsinki-Vantaan lentoasemalle ja Etelä-Suomen satamiin.Avaa kuvien katselu Kuva: Miku Huttunen / YleKäytännössä työmatkat ovat pidentyneet jopa sadoilla kilometreillä. Komennukset ovat kestäneet esimerkiksi yhden viikon kerrallaan.– On siinä ollut haasteita heillä, joiden pitäisi olla iltaisin kotona lasten luona, Nieminen kertoo.Töitä on riittänytTullin johtokeskuksen mukaan kaikille itärajan tullivirkailijoille on riittänyt töitä. Joulukuussa apuvoimia tarvittiin Pohjois-Suomen lentokentille, minkä lisäksi pääkaupunkiseudun lento- ja meritullissa on ollut jo pitkään työvoimapulaa.Myös Venäjän vastaisten pakotteiden valvonta työllistää tullivirkailijoita.– Etätöitä tai suljetuilla asemilla tehtävää työtä on onnistuttu järjestämään yksittäisille työntekijöille perustelluista syistä. Mutta kyllähän suurin osa töistämme vaatii läsnäoloa, Tullin johtokeskuksen päällikkö Linda Satola kertoo.Avaa kuvien katseluTullin tehtäviin kuuluu myös Suomeen saapuvien postilähetysten tarkastaminen. Arkistokuva. Kuva: TulliKauas kotoa komennetuille työntekijöille on järjestetty Tullin puolesta majoitus. Satolan mukaan järjestelystä on saatu positiivistakin palautetta.– Ne työntekijät, joille komennuksille lähtö on ollut helppoa, ovat kokeneet eri tehtävien tekemisen lisäävän ammattitaitoa, hän kertoo.– Mutta totta kai tästä tilanteesta palattaisiin mieluummin entiseen. Emme voi muuta kuin odottaa ja reagoida hallituksen kulloisiinkin päätöksiin, Satola lisää.Sulun syitä ymmärretäänTämänhetkisen tiedon mukaan itärajan sulku jatkuu helmikuun 11. päivään saakka. Tällä hetkellä rajan yli kulkee vain tavaraliikennettä Vainikkalan rajanylityspaikalla.Raja-asemia suljettiin ensimmäisen kerran marraskuussa. Sulkemisen syynä on Venäjän viranomaisten harjoittama välineellistetty maahantulo. Se tarkoittaa, että turvapaikanhakijoita on päästetty rajalle ilman tarvittavia matkustusasiakirjoja, vaikka aiemmin tämä on estetty.– Tullin työntekijät ymmärtävät, ettei tässä tilanteessa ole vaihtoehtoja. Töitä pitää tehdä nyt eri paikassa Venäjän hybridivaikuttamisen vuoksi, Tullivirkamiesliiton puheenjohtaja Jari Nieminen sanoo.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1186,21 +1143,21 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Helteet, rankkasateet ja pakkaset lyövät kovimmin niitä, joilla on jo valmiiksi vaikeaa</t>
+          <t>Entistä poliisia epäillään vakavista rikoksista Helsingissä – polii­si­päällikkö: ”Tieto järkyttänyt myös minua”</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071870</t>
+          <t>https://yle.fi/a/74-20072563</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Yleistyvät sään ääri-ilmiöt vaikeuttavat eniten niiden elämää, joille arjesta selviytyminen on jo nyt ongelma.Tämä käy ilmi Tampereen kaupungin selvityksestä, joka käsitteli sään ääri-ilmiöiden, kuten helteiden, myrskyjen ja pakkasten, vaikutuksia eri kaupunginosissa ja väestöryhmissä.Selvityksessä tamperelaisiin kohdistuvia ilmastoriskejä arvioitiin sen suhteen, miten alttiita ihmiset ovat myrskyjen, liukkauden ja helteen vaikutuksille ja miten hyvin he voivat sopeutua poikkeusoloihin.Äärisäiden riskien näkökulmasta haavoittuvia ihmisryhmiä ovat esimerkiksi pienet lapset, vanhukset, pienituloiset ja kielivähemmistöt.Asioiden itsenäinen hoitaminen hankaloituuMonet ilmastonmuutoksen riskit lisäävät esimerkiksi terveydenhuollon, pelastustoimen sekä tieto- ja viestintäyhteyksien kuormitusta ja heikentävät niiden toimivuutta.Se taas vaikuttaa heihin, jotka eivät voi omatoimisesti varautua häiriötilanteisiin eivätkä vähentää niiden vaikutuksia tilanteen ollessa käynnissä.Selvitystä varten haavoittuvien ryhmien edustajilta kerättiin kokemuksia siitä, miten sään ääriolosuhteet olivat vaikuttaneet.Vastausten mukaan asioiden itsenäinen hoitaminen, esimerkiksi kaupassa käyminen, vaikeutuu.Esimerkiksi vanhukselle tai apuvälineen käyttäjälle runsas lumisade tai jäinen keli voi tarkoittaa pakollista kotiin jäämistä. Jos sää jatkuu pitkään samana, se vähentää lopulta sitä, kuinka paljon ulkona voi liikkua.Avaa kuvien katseluTampereella ilmastonmuutos näkyy esimerkiksi kovina pakkasina ja lumi- ja vesisateina, liukkaiden kelien lisääntymisenä ja kesällä helleaaltoina. Kuva viime syyskuulta, jolloin rankkasade sai Tampereen kadut tulvimaan. Kuva: Kirsi Matson-Mäkelä / YleTietoa tilanteesta voi olla vaikea saada. Kuurosokea voi tarvita tulkin viittomaan tiedon kädestä käteen, mutta sää voi estää tulkin kulkemisen. Iäkkäistä kuulonäkövammaisista kaikki eivät pysty käyttämään verkkoviestintää.Suuri osa vammaisista on pienituloisia tai tulottomia. Kun kaikessa on pakko säästää, se kohdistuu harvoin tarvittaviin asioihin, kuten pakkaskelpoisiin takkeihin tai jalkineisiin.Kun asutaan tiiviisti, riskit kasvavatSelvityksessä tarkasteltiin, missä Tampereella asuu haavoittuviin ryhmiin kuuluvia ihmisiä. Tämä tieto yhdistettiin kartoille tietoon todennäköisimmistä tulva- ja lämpösaarekealueista. Lämpösaarekkeella tarkoitetaan aluetta, jonka lämpötila on korkeampi kuin sitä ympäröivien alueiden.Selvitys havaitsi, että haavoittuvuus ilmastonmuutoksen riskeille on suurin tiiviissä asutuskeskittymissä, kuten Tampereen keskustassa, Hervannassa, Lielahdessa ja kaupunginosien keskuksissa.Näin on myös alueilla, joilla on yhteiskunnan kannalta kriittisiä toimintoja, kuten useita kouluja tai päiväkoteja, ja joihin muodostuu lämpösaareke. Näitä alueita on esimerkiksi Kaarilassa, Hyhkyssä, Sairaalankadun alueella, Nekalassa ja Muotialassa.Kaupunkisuunnittelulla on mahdollista vaikuttaa tulviin ja lämpösaarekkeisiin.Tarpeen ovat ainakin lämpösaarekeilmiötä lieventävät puistot ja muut viileät paikat sekä sadevettä imevät pinnat. Tänä lumisena talvena on jälleen nähty lumen välivarastointipaikkojen merkitys.Tarkastelun toteutti Tampereen kaupungin tilauksesta Ramboll-yhtiö.Eurooppa ja muu maailma kärvistelivät viime kesänä poikkeuksellisessa kuumuudessa. Onko ilmastonmuutoksen aiheuttamiin sään ääri-ilmiöihin vain sopeuduttava, vai voiko niiden voimakkuuteen vielä vaikuttaa? Heinäkuussa 2023 kuvatussa haastattelussa Maailman ilmatieteen järjestön silloinen pääsihteeri Petteri Taalas.</t>
+          <t>Helsingin poliisilaitoksesta irtisanoutunutta poliisia epäillään vakavista rikoksista.Iltalehden mukaan poliisia epäillään lukuisista seksuaalirikoksista, muun muassa törkeästä lapsen seksuaalisesta hyväksikäytöstä. Lehden tietojen mukaan uhreja on kuusi.Poliisin torstaina lähettämän tiedotteen mukaan epäilty henkilö irtisanoutui Helsingin poliisilaitokselta ennen virkamiesoikeudellisen menettelyn alkamista.Syyttäjä johtaa poliisien tekemiksi epäiltyjen rikosten esitutkintaa ja vastaa myös tiedottamisesta.Helsingin poliisilaitos ei vahvista epäillyn nimeä tai tarkempia tietoja käynnissä olevan esitutkinnan takia.– Tieto nyt epäiltyjen rikosten vakavuudesta on järkyttänyt myös minua ja laitoksen henkilöstöä. Toivottavasti esitutkinta tuo vastauksen moniin mielessä oleviin kysymyksiin, sanoo Helsingin poliisilaitoksen poliisipäällikkö Lasse Aapio tiedotteessa.Aapion mukaan kaikki poliiseihin kohdistuvat rikosepäilyt ja muut epäselvyydet on ilmoitettu vuosien ajan valtakunnansyyttäjän toimiston poliisirikosyksikköön.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1214,21 +1171,21 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Hallitus aikoo kieltää aurauslumen kippaamiseen mereen – näin lumen­kaa­to­paikat toimivat eri puolilla Suomea</t>
+          <t>Tämä kuvapari tiivistää Euroopan tunnelmat juuri nyt – tutkija kertoo, miksi smokki­pu­kuinen Macron suututtaa</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20069320</t>
+          <t>https://yle.fi/a/74-20072437</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Joka vuosi tuhansia ruuhkaisilta ja roskaisilta kaduilta aurattuja lumikuormia kaadetaan mereen Helsingissä. Nyt hallitus aikoo puuttua peliin.Lumen mereen kaatamisen kielto on osa hallituksen esitystä, jonka esittelyn on tarkoitus tapahtua huhtikuussa.Uuden hallituksen alaisuudessa ympäristöministeriö on kääntänyt kelkkansa lumen kaatamisen osalta. Vielä vuonna 2020 ympäristöministeriön teettämän selvityksen perusteella tehtiin johtopäätös siitä, ettei auratun lumen sijoittamista mereen ole tarpeen kieltää lainsäädännössä.Ympäristöministeriön erityisasiantuntija Henna Rinne kertoo, että vesistöjen tilan parantaminen on saanut hallitusohjelmassa paljon huomiota ja tuore esitys lumen mereen kaatamisen kiellosta on osa tätä kokonaisuutta.– Lakimuutos on aika järeä keino, mutta toisaalta sillä saadaan varmistettua, että lumen mereen kaataminen loppuu.Vuoden 2020 selvityksen mukaan aurauslumen loppusijoitus mereen ei ole kovin yleistä. Sitä tehdään lähinnä Helsingin kantakaupungissa ja muutamilla satama-alueilla.Lumessa erityisesti mikromuoveja ja isompaa roskaaLumen mukana mereen päätyy paljon hiekkaa, sepeliä sekä isompaa ja pienempää roskaa, kuten tupakantumppeja. Lumen seassa on myös runsaasti esimerkiksi autojen renkaista irronnutta mikroroskaa.– Roskilla on erilaisia vaikutuksia merieläimille. Eläimet voivat takertua isompiin roskiin ja mikroroskat voivat päätyä eläinten ruuansulatukseen ja sitä kautta ravintoketjuun, Rinne sanoo.Avaa kuvien katseluYmpäristöministeriön luontoympäristöosaston erityisasiantuntija Henna Rinne kertoo, että lumen mereen kaadon kieltäminen on osa hallituksen pyskimyksiä vesistöjen tilan parantamiseen. Kuva: Rinna Härkönen / YleLumessa voi olla mukana myös erilaisia raskasmetalleja, tiesuolauksessa käytettäviä aineita ja erilaisia yhdisteitä jotka voivat olla merieläimille myrkyllisiä. Niiden pitoisuudet lumessa ovat melko pieniä, mutta kun samalta laiturilta kipataan tuhansia lumikuormia kauden aikana, voivat pienetkin pitoisuudet kuormittaa meriluontoa paikallisesti.Hiekka ja sepeli voivat samentaa merivettä hetkellisesti, mutta painuvat melko nopeasti pohjaan. Lumen mukana mereen kulkeutuu myös ravinteita, mutta Rinne arvioi typpi- ja fosforikuorman jäävän melko pieneksi.– Jos katsotaan rehevöitymisen kokonaiskuvaa, niin tällä lumen kaadolla on hyvin pieni vaikutus rehevöitymiseen.Muissa rannikkokaupungeissa lumenkaatopaikat ovat maallaYle kävi haastattelemassa Oulun ja Turun katujen kunnossapidosta vastaavia insinöörejä. Turun kaupungin katuinsinööri Heidi Jokinen kertoo, että Turussakin on vuosia sitten kaadettu aurauslumia mereen, mutta enää sitä ei tehdä ympäristösyistä.Toistaiseksi maalle sijoitetut lumensijoituspaikat ovat riittäneet hyvin.– Meillä on neljä lumensijoituspaikkaa, joista kolme on nyt käytössä. Tällä hetkellä ne riittävät hyvin: lunta on tullut maltillisesti, mutta talvi on vasta alussa, Jokinen arvioi.Avaa kuvien katseluTurussa lunta on kertynyt sijoituspaikoille vielä maltillisesti, mutta talvea on vielä jäljellä. Kuva: Jere Sanaksenaho / YleMyöskään Oulun kaupungin aurauslumia ei tarvitse kaataa mereen, ja hyvä niin. Roskaa kaupungin kaduilta tarttuu nimittäin mukaan melko runsaasti, joskus polkupyöriä tai ostoskärryjäkin.Kaupungin lupainsinööri Mika Jutila arvioi, että esimerkiksi Oritkarin lumenkaatopaikalta roskia kerätään yleensä parin autokuorman verran. Rannikkokaupungeissa on tarpeen huomioida, että lumenkaatopaikoilta sulava vesi pyrkii sekin vääjäämättä kohti merta, roskineen päivineen.Esimerkiksi Oritkarilla sulamisvedet johdetaan erillisiin saostusaltaisiin, joihin roskat ja epäpuhtaudet jäävät ennen kuin vesi johdetaan mereen.Lumi voi säilyä kaatopaikalla jopa kesän yli, kun hiekkakerroksen alle pakkautunut lumi jää eristyksiin. Usein lumenkaatopaikalla voi olla uuden kauden alkaessa pohjalla vielä edellisvuotista lunta.Helsingin kaupungilla omat suunnitelmansaLumenkaato mereen on loppumassa nyt myös Helsingissä, mutta ihan nopeasti siirtymä ei onnistu. Hernesaaren lumenkaatopaikka on tarkoitus sulkea vuoteen 2033 mennessä, mutta jos hallituksen lakiesitys menee läpi, voi se muuttaa kaupungin suunnitelmia.Hernesaaren lumenkaatopaikasta on väännetty kaupungissa kauan. Kaupunki teki jo vuonna 2019 periaatepäätöksen, että tavasta on luovuttava, mutta aluehallintoviraston kaupungille myöntämä ympäristölupa lumen kippaamiseen mereen on voimassa vuoteen 2031 saakka.Ympäristöministeriö on vuoden 2020 selvityksen jälkeen seurannut Helsingin kaupungin toimia Hernesaaressa. Kaupunki on selvittänyt, miten meren roskaantumista voitaisiin ehkäistä.Ensin alueella kokeiltiin verhopuomia, mutta se ei osoittautunut hyväksi menetelmä tuulisella rannalla. Viime talvena kaupunki testasi uutta kuplaverhoa.– Ilmakuplien avulla ohjataan roskia tiettyyn paikkaan ja sieltä ne voidaan kerätä helpommin alukseen. Jos ne pääsevät sen yli, edessä on vielä öljypuomi, joka pysäyttää isommat roskat, Henna Rinne kertoo.Mikromuovi ei kuitenkaan pysähdy kuplaverhoihin tai öljypuomeihin. Osa pohjaan vajonneesta mikroroskasta saadaan kerättyä pois, kun merenpohjaa ruopataan lumenkaatopaikan edustalla.</t>
+          <t>Ranskan presidentin Emmanuel Macronin ja tämän vaimon Brigitte Macronin valtiovierailu Ruotsiin puhuttaa sosiaalisessa mediassa.Macron osallistui keskiviikkona juhlalliseen illallisgaalaan Ruotsin kuninkaallisten kanssa samaan aikaan, kun ihmiset vastustivat dieselin ja lannoitteiden korkeita hintoja ja inflaatiota Pariisin edustalla.Avaa kuvien katseluMielenosoittajia Pariisin edustalla 30.1.2024 Kuva: EPA-EFEMitä yhteiskunnallista ilmiötä kuvapari yrittää tehdä näkyväksi?Keskiviikkoiltana Ruotsin kuningas Kaarle XVI Kustaa ja kuningatar Silvia ottivat Ranskan presidentin vastaan Tukholman linnassaan.Vastaanotto oli osa Macronin kaksipäiväistä vierailua, jota oli aiemmin lykätty.Vastaanotolle osallistuivat lisäksi kruununprinsessa Victoria, tämän puoliso prinssi Daniel, prinssi Carl Philip ja prinsessa Sofia.Keskiviikkoiltana sosiaaliseen mediaan alkoi ilmestyä kuvapareja: ensimmäisessä kuvassa näkyi Macron smokkipuvussa kristallilasien ja kuninkaallisten ympäröimänä. Toisessa kuvassa taas näkyi traktoreita, nuotioita ja ihmisiä moottoritiellä.Vaikka kuvat ovat yleensä monitulkintaisia, kuvapari Macronista ja maanviljelijöistä ei tarvitse selitystekstiä ollakseen ymmärrettävä, sanoo sosiologian professori Eeva Luhtakallio Helsingin yliopistosta.– Kuvaa voisi tulkita tietynlaisena yhteiskunnan eriarvoisuuden metaforana. Siinä pelataan erilaisuudella mahdollisimman räikeällä tavalla, Luhtakallio sanoo.Samaan aikaan, kun Macron puolisoineen nautti Tukholman kuninkaallisessa linnassa ranskalaisia klassikkoruokaruokalajeja, kuten merimiehen simpukoita, ranskalaiset mielenosoittajat paistoivat makkaraa Pariisiin edustalla moottoriteiden varressa.Sosiaalisen median päivityksissä ranskalaiset ovat ilmaisseet närkästyksensä Macroniin, joka oli matkustanut valtiovierailulle Ruotsiin Ranskan levottomuuksista huolimatta.Videolla ranskalainen maanviljelijä Bertin Moret kertoo oman näkemyksensä siitä, mitä protestiliike haluaa saavuttaa.Mikä presidentin smokissa ärsytti?Sosiaalisessa mediassa ja mielenosoitusten aikana Macronia on syytetty välinpitämättömyydestä ranskalaisten maanviljelijöiden ahdinkoa kohtaan.Ruotsissa Macron puhui lähinnä Ruotsin Nato-jäsenyyden merkityksestä, eikä ottanut kantaa kotimaansa protesteihin.Näin Macron kommentoi maatalouspolitiikkaa tiistaina tiedotustilaisuudessa Tukholmassa. Macron lupasi edistää elintarvikkeiden tuontia koskevaa sääntelyä Euroopan unionissa.Tiistaina tiedotustilaisuudessa Macron lupasi edistää elintarvikkeiden tuontia koskevaa sääntelyä Euroopan unionissa.Dieselin ja lannoitteiden hinnan lisäksi maataloutta Euroopassa rasittavat monet muutkin ongelmat, jotka ovat nakertaneet maatalouden kannattavuutta ja heikentäneet maanviljelijöiden ansioita.Esimerkiksi säiden ääri-ilmiöiden heikentämät sadot, hallitusten budjettileikkaukset ja EU:n poliittiset päätökset, kuten Ukrainan viljalle myönnetty tullivapaus vaikuttavat maanviljelijöiden palkkoihin eri puolilla Eurooppaa.Maanviljelijät ovat protestoineet Ranskan lisäksi esimerkiksi Saksassa, Belgiassa ja Puolassa.Maanviljelijät protestoivat Belgian Brysselissä 24.1.2024Luhtakallion mukaan kuvapareja poliitikoista on tehty ennenkin, mutta Macronin Ruotsin vierailu oli visuaalisesti kiinnostava ja tarjosi herkullisen asetelman.– Istuihan presidentti smokissa ja Ruotsin kuningattaren vieressä, Luhtakallio toteaa.Avaa kuvien katseluRanskan presidentti Emmanuel Macron puhui valtiovierailunsa aikana Tukholman kuninkaallisessa linnassa 30.1. Kuvassa Macronista vasemmalla kuningatar Silvia ja oikealla kruununprinsessa Victoria. Kuva: LUDOVIC MARIN -POOL/SIPA/Shutterstock/All Over PressMacronin smokki tuskin yksinään synnytti ärsytystä, vaan kuvaparit syntyivät todennäköisesti reaktiona jo aikaisempiin tapahtumiin, asiantuntija pohtii.Kuviin tiivistyy kansalaisten pitkään kytenyt turhautuminen Macroniin ja hänen suhtautumiseensa protesteihin, Luhtakallio arvioi.– Macron on kansainvälisestikin tunnettu välinpitämättömästä suhtautumisestaan kansalaistoimintaan, ja hän suhtautui halveksuvasti keltaliivien mielenosoituksiin.Vuonna 2018 syntynyt liike on vastustanut keskiluokan olojen kurjistumista sekä verojen ja elinkustannusten nousua Ranskassa.Voiko huumorin ja meemien keinoin vaikuttaa politiikkaan?Samana iltana kun Macron illallisti Ruotsin kuninkaallisten seurassa, sosiaaliseen mediaan ladattiin ranskalaisen poliittisen johdon elitismiä havainnollistavia tekoälyllä tehtyjä kuvia.Luhtakallion mukaan kasvavan eriarvoisuuden maailmassa kysymys siitä, kenen ääni tulee kuuluviin, on yhä keskeisempi.– Kuvan voiman vahvistuminen on osa nykypäivän julkisuutta, jossa algoritmien tyrannia usein hallitsee, mutta jossa viraalisuus on aina mahdollista. Kuvia käyttävät usein vähäväkisetkin toimijat, joille ne tehokas keino saada äänensä kuuluviinMyös huumorin ja meemien kautta voidaan välittää poliittista viestiä, jota ei muuten saisi läpi.Esimerkiksi oikeistopopulistit käyttävät usein kuvia, jotta eivät joutuisi sanoittamaan ideologiaansa.– Sloganeihin painetuista sanoista voi jäädä kiinni ja syyllistyä kunnianloukkaukseen, Luhtakallio selittää.Kuvat sen sijaan ovat monitulkintaisia ja niiden kohdalla kunnianloukkausta on vaikeampi todistaa.Kuvapareja voidaan tutkijan mukaan käyttää monella tavalla visuaalisen politiikan työkaluina.Esimerkiksi Suomessa Elokapina-liike on kuvapareissaan rinnastanut Kaisaniemen protestit Yhdysvalloissa UC Davisin kampuksella tapahtuneeseen poliisiväkivaltaan.Vuonna 2012 finanssikriisin näköalattomuudesta syntynyt Occupy-liike piti mielenilmauksen kalifornialaisen korkeakoulun pihalla. Protestin aikana poliisi käytti muiden muassa pippurisumutetta vaarattomia aktivisteja vastaan.Ilmastonmuutosta vastustavat liikkeet taas käyttävät usein kuvapareja, jotka havainnollistavat vaikkapa jäätiköiden tai koralliriuttojen tilannetta eri ajanjaksoilla.Politiikan ja rahan kietoutumista arvostellaan kuvien avullaAvaa kuvien katseluKuvassa kuningatar Silvia (vas.), Brigitte Macron, Emmanuel Macron ja Ruotsin kuningas Kaarle Kustaa vastaanoton aikana Tukholman kuninkaallisessa linnassa 30.1.2024 Kuva: Jacques Witt/SIPA/Shutterstock/All Over PressKuvien vaikutusvalta poliittisen vaikuttamisen keinona on viime vuosina lisääntynyt merkittävästi, koska kaikki maailman kuvat kulkevat nykyään älypuhelimessa taskussa.Luhtakallion mukaan kuvia voidaan käyttää monenlaisina argumentteina ja niiden avulla tehdään politiikkaa jopa ohi sanojen tai ilman niitä.– Kuvat muuttavat julkisen keskustelun sääntöjä ja keinovalikoimaa. Niiden merkitykset voivat olla ristiriitaisia, mutta niitä ei voi ohittaa eivätkä ne välttämättä tarvitse sanoja tukeakseen asetelmiaan.Kuvan voimasta kertoo myös se, että kuva voi levitä helposti globaalisti. Toisin kuin teksti, kuva ei vaadi kieltä ollakseen ymmärrettävä.Avaa kuvien katseluLähikuva Brigitte Macronin koruista Tukholman vierailun aikana 30.1. Daily Mailin mukaan Brigitte Macron oli pukeutunut siniseen iltapukuun ja timanttikorvakoruihin. Kuva: Patrik C. Österberg/ STELLA Pictures/All Over PressMitä ajatuksia artikkeli herätti? Voit keskustella aiheesta 2.2. klo 23.00 saakka.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1242,21 +1199,21 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Lehti: Raportin mukaan joka kymmenennellä pales­tii­na­laisia auttavan YK-järjestön työntekijällä on yhteyksiä ääri­jär­jes­töihin</t>
+          <t>Jokilaiva upposi yllättäen Turussa Aurajoen pohjamutiin – pelastustyötä tehdään yötä myöten sataman isolla kalustolla</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071891</t>
+          <t>https://yle.fi/a/74-20072532</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Israelin tiedusteluraportin mukaan kymmenellä prosentilla YK:n palestiinalaispakolaisten avustusjärjestön UNRWA:n Gazan henkilöstöstä on yhteyksiä islamistisiin ääriryhmiin. Asiasta kirjoittaa tiedusteludokumentit nähnyt amerikkalainen The Wall Street Journal -lehti.Aikaisemmin on kerrottu, että 12 UNRWA:n työntekijää olisi sekaantunut Hamasin Israeliin 7. lokakuuta tekemään terrori-iskuun. Terroristit surmasivat Israelissa noin 1 200 ihmistä. Kuuden UNRWA:n työntekijän sanotaan osallistuneen hyökkäykseen, kahden sanotaan auttaneen panttivankien sieppaamisessa ja kaksi on jäljitetty paikkoihin, joissa tapettiin israelilaisia.Raportin tiedot perustuvat muun muassa matkapuhelinten jäljittämiseen sekä vangituilta militanteilta kuulusteluissa saatuihin tietoihin. Israel on luovuttanut tiedot muun muassa Yhdysvalloille.Israel väittää, että UNRWA:n 12 000 työntekijästä 1 200:lla olisi yhteyksiä Hamasiin tai Islamistinen Jihad -ääriryhmään. Yhdysvallat ja EU pitävät molempia terroristijärjestöinä. Suurella joukolla työntekijöitä on väitetysti myös sukulaisia ääriryhmissä.Tiedusteluraportissa on tunnistettu UNRWA:n arabian kielen opettaja, joka osallistui väitetysti joukkomurhaan Be'erin kibbutsilla.UNRWA:n tiedottaja ei maanantaina kommentoinut tiedustelutietoja The Wall Street Journalille.UNRWA (The United Nations Relief and Works Agency for Palestine Refugees) on YK:n alainen humanitaarinen järjestö, jonka tehtävä on tuottaa palestiinalaispakolaisten peruspalvelut, kuten koulutus, terveydenhoito ja sosiaalipalvelut. UNRWA jakaa myös ruokaa ja avustustarvikkeita.</t>
+          <t>Turun vanhin ravintolalaiva Esposito on uponnut osittain Aurajokeen. Varsinais-Suomen pelastuslaitos sai hälytyksen laivan uppoamisesta torstaina iltapäivällä.Laivan pelastustyöt aloitettiin noin kello 17:n aikaan.Avaa kuvien katseluEsposito on vajonnut huomattavasti Aurajoen rantapenkerettä alemmas. Kuva: Heidi Akselin / Yle– Yritämme saada vettä pois, että laiva olisi vähemmän kallistunut ja se saataisiin tyhjennettyä, kertoi laivan omistaja, yrittäjä Mika Salonen illalla.Vielä kello 20 torstai-iltana ei ollut tiedossa, miten pitkään pelastustyöt jatkuvat tai mitä laivalle ylipäätään nyt tapahtuu.– Meillä on täällä nyt sataman kalustoa eli iso pumppu, joka pumppaa vettä, Salonen kertoi.Koska ruuma oli yhä täynnä vettä, ei uppoamisen syystä voitu tehdä vielä mitään arviota.Laiva eristettiin heti iltapäivälläLaiva sijaitsee Aurajoessa Läntisellä Rantakadulla ja on paikoillaan vuoden ympäri. Pelastuslaitos eristi alueen uponneen laivan ympäristöstä.– Pelastuslaitos ei voi tehdä enempää kuin nyt eristää alueen. Jokilaiva on Aurajoen pohjassa, osittain uponneena, kertoo päivystävä palomestari Petteri Broström.Broströmin mukaan Aurajoessa on niin vähän vettä, että siksi laiva on uponnut vain osittain. Pelastuslaitos sai laivan omistajan kiinni kello 16 maissa iltapäivällä.– Omistaja hoitaa laivan jatkon. Jokilaivassa ei ole polttoainetta, joten ympäristövahingon riskiä ei tapauksessa ole, päivystävä palomestari kertoo.Avaa kuvien katseluLaivan uppoamisen syistä ei vielä torstai-iltana tiedetty, koska ruuma oli täynnä vettä. Kuva: Heidi Akselin / YleJuttua on täydennetty kello 20.25 laivan omistajan kommenteilla ja täsmennetty, että kyseessä on Turun vanhin ravintolalaiva.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1270,22 +1227,21 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Näin lakot vaikuttavat työmatkoihin, päiväkoteihin ja kauppoihin – kokosimme listan</t>
+          <t>Pinkki lumi säikäytti juvalaisen talon koiran: ”Kulkee edelleen vain puhdistettua polkua pitkin”, sanoo isäntä</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071469</t>
+          <t>https://yle.fi/a/74-20072528</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Keskiviikkona alkavilla eri ammattiliittojen ja palkansaajien lakoilla on isoja vaikutuksia koko maassa. Osa päiväkodeista, julkisesta liikenteestä, kuljetuksista, ruokakaupoista ja teollisuudesta pysähtyy.Iso osa aloittaa työtaistelutoimet torstaina 1. helmikuuta. Ne kestävät yhdestä kahteen päivää. Lisäksi 6. helmikuuta on tiedossa ulosmarsseja. Osin vaikutukset näkyvät kuitenkin jo keskiviikkona 31. tammikuuta.Lakoilla ja ulosmarsseilla vastustetaan hallituksen työelämäuudistuksia ja sosiaaliturvaleikkauksia. Niiden piiriin kuuluvat useat keskusjärjestö SAK:n, STTK:n ja Akavan ammattiliitot.Katso alla olevasta videosta kootusti, miten lakko vaikuttaa arkeesi.Toimittaja Minna Matintupa selventää, mitä vaikutuksia tulevilla lakoilla on sinun arkeesi. Kuvaus ja editointi: Isto Janhunen / YleLakon vaikutukset arkeenTiedot lakon vaikutuksista löydät alta laajemmin. Voit klikata eri ammattialojen osion auki.Tietoihin voi vielä tulla useitakin muutoksia ennen työtaistelujen alkua.Bussit, junat, raitiovaunut ja metrotJulkinen liikenne pysähtyy tai harvenee lakon ajaksi monissa Suomen kaupungeissa.Pääkaupunkiseudulla paikallisjunat, metrot ja raitiovaunut eivät liikennöi perjantaina 2. helmikuuta lainkaan. Myös HSL:n bussiliikenteestä suuri osa jää ajamatta.Tampereella liikennöidään perjantaina noin puolet Nyssen bussiliikenteestä. Tampereen raitioliikenne pysähtyy perjantaina kokonaan. Vaikutuksia joukkoliikenteelle voi olla Tampereella jo torstaina.Turussa Fölin bussiliikenne jatkuu todennäköisesti kaikilla linjoilla, mutta harvennetusti. Heillä lakko kestää perjantain ajan.Kuopiossa suurin osa paikallisliikenteen bussivuoroista jää ajamatta perjantaina. Myös osa ELY-liikenteen vuoroista voi jäädä ajamatta.Lappeenrannan ja Imatran paikallisliikenne ei todennäköisesti liikennöi perjantaina lainkaan. Sama koskee seutu- ja lähiliikennelinjoja. Lappeenrannan kaupunki ei voi taata lakisääteisten koulukuljetusten toteutumista.Satakunnassa osa paikallisliikenteestä ei liikennöi perjantaina ainakaan Raumalla ja Porissa. Lakon piirissä ovat Rauman Gyyt, Porin linjat ja Satakunnan liikenne.Lakko vaikuttaa myös Onnibussin liikennöintiin perjantaina. Ajettavat vuorot on syytä tarkistaa Onnibussin verkkosivuilta ennen matkan ostoa.Koko Suomen junaliikenne seisahtuu perjantaina Pohjois-Suomen yöjunia lukuun ottamatta. Junaliikenteen lakko koskee työvuoroja, jotka alkavat 2.2. kello 00.01 ja 23.59 välillä.Lisäksi kaikki ratapihatoiminnot keskeytyvät Haminan ja Kotkan ratapihoilla torstain ajaksi.AvaaLentoliikenneSuomen lentoliikenne pysähtyy lähes kaikilla Suomen isoilla lentokentillä torstaina. Lakossa ovat mukana JHL:n jäsenet, jotka työskentelevät Finavian tai Airpron palveluksessa, sekä joitain muita ammattiliittoja.Hallin ja Utin lentokentät eivät ole lakon piirissä.Lentoyhtiö Finnair on valmis siirtämään asiakkaidensa lennot lakkopäiviltä toiseen ajankohtaan lipputyypistä huolimatta.PAMin lentoasemien kiinteistöhuollosta ja siivouksesta sekä vartioinnista vastaavat työntekijät ovat lakossa.Myös Finnairin lentäjiä edustava Liikennelentäjäliitto osallistuu poikkeuksellisesti työtaisteluun.Monet ulkomaalaiset ovat jo peruneet Lapin-matkansa lakkojen vuoksi.AvaaRuokakaupat, ravintolat ja siivousKaupan ala järjestää vuorokauden mittaisen lakon torstaina 1. helmikuuta. Mukana ovat suurimmat ketjut, eli S- ja K-ryhmät ja Lidl.Lakko voi näkyä ruokakauppojen valikoimassa.Myös hotelleja ja ravintoloita, liikenneasemia sekä kiinteistö- ja siivouspalvelualan yrityksiä on lakossa ympäri Suomea.Kaupat sekä hotellit ja ravintolat pyritään pitämään auki esimiesvoimin tai liittoon kuulumattomien työntekijöiden avulla.Suomen elintarviketyöläisten liitto (SEL) lakkoilee myös: mukana on lähes 4 500 elintarvikealan työntekijää 21 työpaikalla 1.–2. helmikuuta. Lakko pysäyttää muun muassa Saarioisten tehtaiden tuotannon ja logistiikan kahdeksi päiväksi.AvaaPäiväkodit, koulut ja terveydenhuoltoPääkaupunkiseudulla suurin osa päiväkodeista, perhepäivähoidoista ja ryhmäperhepäiväkodeista on suljettuna keskiviikkona ja torstaina. Lakko koskee kaikkia yksityisiä ja julkisia yksiköitä Helsingissä, Espoossa, Vantaalla ja Kauniaisissa. Myös puistotoiminta pysähtyy.Lakko koskee työvuoroja, jotka alkavat keskiviikon 31.1. kello 6 ja torstain 1.2. kello 21 välisenä aikana. Lakossa ovat mukana lastenhoitajat, osa varhaiskasvatuksen opettajista ja perhepäivähoitajat.Lopullinen henkilöstötilanne ja avoinna olevat päiväkodit selviävät vasta lakkoaamuna.Kerro Ylelle, miten järjestät lapsesi päivähoidon lakon aikanaLakoissa ovat mukana sosiaali-, terveys- ja kasvatusalan ammattijärjestö Tehy, lähi- ja perushoitajaliitto SuPer, julkisten ja hyvinvointialojen liitto JHL ja sosiaalialan korkeakoulutettujan ammattijärjestö Talentia.Tehy ja SuPer rajaavat lakon ulkopuolelle vain viranhaltijat. JHL:n mukaan lakko ei koske heidän osaltaan kotona tehtävää perhepäivähoitoa, ryhmäperhepäivähoitoa, ryhmäperhepäiväkoteja ja yksityistä perhepäivähoitoa.Myös Opetusalan ammattiliitto OAJ ja ammattiliitto Jyty ilmoittivat päivän mittaisesta lakosta pääkaupunkiseudun varhaiskasvatuksessa 31. tammikuuta. Jytyn lakko koskee myös perhepäivähoitoa ja puistotoimintaa.Korkeakoulutettujen keskusjärjestö Akava ilmoitti, että se järjestää ulosmarssin pääkaupunkiseudulla, Turussa ja Tampereella 6. helmikuuta kello 14–16. Marssiin osallistuvat lukuisat sote-työntekijät, insinöörit ja lääkärit.Ulosmarssit eivät koske virkasuhteisia työntekijöitä, kuten opettajia ja poliiseja. Näin ollen Akavan suurin jäsenliitto OAJ ei osallistu ulosmarssiin.AvaaPostiPostin työntekijät eivät tee työvuoroja aikavälillä 1. helmikuuta kello 0.00–2. helmikuuta kello 18. Tämä koskee noin 10 000 työntekijää.Lakon aikana kirjeposti, pakettilajittelu ja logistiikka seisoo. Tämä aiheuttaa muutamien päivien viiveitä lähetysten kulkuun. Posti neuvoo seuraamaan pakettien kulkua OmaPostissa.Postin yritysasiakkaat voivat lähettää lähetyksiä Postille normaalisti.Posti- ja logistiikka-alan unioni PAU kertoi, että lakon ulkopuolelle on rajattu terveyteen ja turvallisuuteen liittyvät työt.AvaaKuljetukset, logistiikka ja huoltoAuto- ja kuljetusalan työntekijäliitto AKT:n lakko kestää torstain ja perjantain, tosin linja-autoalan ja matkahuoltoalan osalta vain perjantain.Lakossa ovat mukana liki kaikki toimialat eli kuorma-autoala, linja-autoala, matkahuoltoala, kaupan automiehet, säiliöauto- ja öljytuoteala, matkatoimistoala, terminaalitoiminta, huolinta-ala, huoltokorjaamot, AKT:n Viking Linen työntekijät ja ahtausliikkeiden toimihenkilöt sekä ahtausala.Myös toimihenkilöliitto Erto ilmoitti lakosta autoliikenne-, huolinta- ja sosiaalialalle 1.–2. helmikuuta.AvaaRakennustyömaat, sähköt ja muu teollisuusMoni Suomen isoista teollisuusyrityksistä pysäyttää toimintansa osittain tai kokonaan torstaina ja perjantaina. Myös rakennustyömaat hiljenevät etenkin pääkaupunkiseudulla.Rakennusliiton työntekijöiden osalta hätätyö, LVI-huolto ja tienhoito jatkuvat, mutta muutoin lakon piirissä ovat kaikkien sopimusalojen työt Helsingissä, Espoossa ja Vantaalla.Rakennustyömaiden sähkötyöt sekä matkapuhelin- ja tietoliikenneverkkotyöt pysähtyvät JHL:n ja Sähköliiton työtaistelun vuoksi. Mukana on lukuisia yhtiöitä, jotka vastaavat sähköverkkojen rakentamisesta ja kunnossapidosta. Sähkön ja lämmön tuotanto ja jakelu sekä raideliikenteessä tehtävät työt ovat lakon ulkopuolella.Ammattiliitto Pron lakko laajenee koskemaan Digitaa, ICT-alaa, rahoitusalaa, vakuutusalaa sekä tiettyjä kiinteistöalan työpaikkoja. Näissä työnseisaus on 1. helmikuuta.Useat Stora Enson, UPM:n ja Huhtamäen tehtaat pysähtyvät tai vähentävät toimintaansa paperiliiton lakon ajaksi. Lakot alkavat torstain 1. helmikuuta aamuvuoroista ja päättyvät 3. helmikuuta aamuvuoroihin. Vaikutuksia on ainakin Imatralla, Oulussa, Varkaudessa, Kymissä, Pietarsaaressa ja Raumalla.Myös ruudin valmistus voi pysähtyä. Lakon piirissä on 1. ja 2. helmikuuta myös neljä ammusvalmistaja Nammon tehdasta.Kemianteollisuudessa lakko vaikuttaa ainakin Porvoon Kilpilahden ja Kokkolan teollisuusalueisiin.Lakko vaikuttaa useisiin kaivoksiin ja jalostamoihin esimerkiksi Kittilässä, Sodankylässä, Naantalissa, Kemissä, Torniossa, Raahessa, Sotkamossa ja Siilinjärvellä. Ainakin Nesteen Porvoon jalostamo jatkaa toimintaansa työtaistelusta huolimatta, vaikka on lakon piirissä.AvaaTyötaistelujen ulkopuolelle kaikilla ammattialoilla jäävät ne tehtävät, joiden tekemättä jättäminen aiheuttaisi vaaraa ihmisten hengelle, terveydelle tai omaisuudelle. 
-</t>
+          <t>Artur Särkisen vaimo huomasi heidän kotipihansa värjäytyneen pinkiksi iltapäivällä tammikuun 9. päivä. Särkinen itse palasi töistä kotiin vasta iltakahdeksan jälkeen. Hän soitti pian hätäkeskukseen.Särkinen keräsi ainetta pulloon ja epäili sitä hajun perusteella lentokerosiiniksi.Enempää hän ei suostu arvailemaan.– Spekulaatioita toki on monia, mutta niihin en lähde. Faktat ovat faktoja, Särkinen sanoo.Etelä-Savon pelastuslaitoksen teettämän analyysin perusteella aine on kaliumpermanganaattia. Se on ihmiselle ja ympäristölle vaarallinen aine, joka voi vaikeuttaa hengitystä ja aiheuttaa nieltynä pahoinvointia, oksentelua ja ripulia.Pelastuslaitoksen tiedotteen mukaan näyte sisälsi myös muita yhdisteitä, joita alustavassa analyysissa ei tunnistettu.Koira vierastaa kemikaalin tahrimaa aluetta edelleenPelastuslaitos keräsi värjäytyneen lumen Särkisen ja hänen kahden naapurinsa pihalta vielä samana iltana.Särkisen mukaan ainetta kuitenkin jäi pihalle pieniä määriä. Muutaman päivän kuluttua voimakkaan pinkki väri oli muuttunut ruskeaksi.Talon koira vierasti outoa kemikaalia.– Varmasti hajuaisti kertoi, että siellä on jotain sopimatonta.Sittemmin tahriutuneen alueen päälle on satanut uutta lunta, mutta koira ei suostu vieläkään menemään puskien juurelle.– Hän haluaa mennä vain puhdistettua polkua pitkin, Särkinen kertoo.Kaliumpermanganaatti peitti noin kolmasosan Särkisen pihasta. Hän on kiinnostunut näkemään, miten aineen jäämät vaikuttavat pihan kasveihin, kun kevät tulee.Juomavedestä Särkinen ei ole huolissaan, sillä talo on kunnan vesi- ja viemäriverkostossa. Alueella ei tiettävästi ole kaivoja.Avaa kuvien katseluKaliumpermanganaatin vesiliuokset ovat purppuransävyisiä, kertoo Pelastuslaitos tiedotteessaan.  Kuva: Asko Valtonen / Etelä-Savon pelastuslaitosPoliisi lähettää näytteen rikostekniseen laboratorioonSe, miten kaliumpermanganaatti päätyi Särkisen ja naapureiden pihoille, on edelleen täysi mysteeri. Asiaa selvittää nyt Itä-Suomen poliisi.Rikoskomisario Markku Kärpäsen mukaan asiaa tutkitaan rikosnimikkeellä ympäristön turmeleminen.Tapauksessa ei ole tällä hetkellä epäiltyjä. Poliisi aikoo lähettää Juvalta otetut näytteet rikostekniseen laboratorioon. Tavoitteena on selvittää, mitä ne sisältävät.– Sen jälkeen pohdimme, mikä laite tai kone tällaista ainetta käyttää, sanoo Kärpänen.Poliisin tiedossa ei ole, että pinkkiä lunta olisi havaittu muualla Suomessa.Voit keskustella aiheesta 2.2.2024 klo 23 saakka.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1299,22 +1255,21 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Analyysi: Yksi asia ratkaisi sen, että toisella kierroksella ovat Stubb ja Haavisto eikä Halla-aho</t>
+          <t>Puuta nakertanut majava teki kohtalokkaan arvioin­ti­virheen – autoliikenne seisahtui Polvijärvellä</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071715</t>
+          <t>https://yle.fi/a/74-20072584</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Alexander Stubb ja Pekka Haavisto etenevät presidentinvaalin toiselle kierrokselle.Viinilasit täyttyivät Pikku-Finlandiassa sitä mukaa kun tuloksia päivittyi näytöille. Kokoomuksen presidenttiehdokas Alexander Stubb oli silminnähden helpottunut, mutta pidätteli liikaa riemua kuullessaan ensimmäiset uutiset vaalin tuloksesta.Kello 21.30 Stubb oli keräämässä noin 27 prosenttia äänistä.Vastaansa hän saa odotetusti valitsijayhdistyksen Pekka Haaviston (vihr.), joka oli keräämässä reilu 25 prosenttia äänistä.– Meidän täytyy olla tästä demokratiasta äärimmäisen ylpeitä, Stubb sanoi ja laski osallistuneensa kampanjan aikana 45 paneeliin.Toisella kierroksella toisensa kohtaa kaksi entistä ulkoministeriä, joita on koeteltu politiikan syvissä vesissä. Stubb ja Haavisto pitivät piikkipaikkaa mielipidemittauksissa kisan alusta saakka.Aivan viime viikkoina perussuomalaisten Jussi Halla-ahon rivakka nousu toi kisaan uutta jännitystä, mutta hän jäi selvästi kärkikaksikon taakse. Sen verran vauhdikasta nousu kuitenkin oli, että kokoomuksen valvojaisissa muutama myönsi ehtineensä jo huolestua.Halla-aho onnistui erottumaan perussuomalaisille läheisillä yksittäisillä aiheilla, jotka nousivat otsikoihin. Näitä olivat niin tutkintapyynnön tekeminen fasistinimittelystä, vaatimus Ylen rahoituksen rajusta leikkaamisesta ja väite poliittisesta vinoumasta kuin ehdotus kansanedustajien suomalaisesta syntyperästäkin.Halla-ahon nousu herätti jonkin verran keskustelua taktisesta äänestämisestä eli siitä, äänestäisivätkö ihmiset suoraan suosituimpia ehdokkaita saadakseen heidät varmasti toiselle kierrokselle. Tämä olisi vienyt ääniä esimerkiksi Jutta Urpilaiselta (sd.), Li Anderssonilta (vas.) ja Olli Rehniltäkin (kesk.).Tuloksen perusteella näin saattaakin käyneen, sillä Urpilaisen ja Anderssonin kannatus jäi vaisuksi.Vaaleja edeltävällä viikolla varsinkin Urpilainen, Rehn ja Andersson ärhäköityivät vaalitenteissä, mutta rutistus alkoi heidän kannaltaan aivan liian myöhään.Haaviston ennakkosuosikin asema suli jo aiemminMikä sitten ratkaisi sen, että kokoomuksen Alexander Stubb ja valitsijayhdistyksen Pekka Haavisto (vihr.) pääsivät vaalien toiselle kierrokselle?Sekä Haavisto että Stubb erottuivat joukosta ulkopolitiikan kokemuksellaan. Entisinä ulkoministereinä he pystyivät vastaamaan kysymyksiin kokemuksella ja luettelemaan uskottavasti kansainvälisiä kontaktejaan.Stubb ja Haavisto ovat olleet syksystä saakka gallupien kärkipari. Vielä lokakuussa Haavisto olisi mielipidemittausten mukaan voittanut, mutta marraskuussa paikat vaihtuivat ja Stubb on siitä asti pidellyt piikkipaikkaa.Pekka Haavisto oli vaalitenteissä rauhallinen ja asioita avaava, eikä juuri lainkaan haastanut muita ehdokkaita. Oliko viilipyttymäinen esiintyminen taktikointia vai painoiko ennakkosuosikin aseman sulaminen – sen yksin Haavisto itse tietää.Vaalien ensimmäisen kierroksen kannatus on Haavistolle joka tapauksessa helpotus.Stubb esiintyi vaaliväittelyissä selkeästi. Viimeisellä viikolla vaalitenttejä oli hengästyttävä määrä, mutta siitä huolimatta Stubb onnistui tuomaan esiin useimmiten jotakin uutta. Hän ehdotti niin Naton huippukokouksen tavoittelemista Suomeen kuin piti esillä ehdotustaan 5 000 sotilaan ammattireservistä.Stubb joutuu yhä tasapainottelemaan kokemuksensa esittelyn ja vaatimattomuuden välillä.Illasta toiseen vaalien yhdeksän ehdokasta antoivat kaikkensa, kertoivat vitsejä ruotsiksi, osallistuivat lasten pistokokeisiin ja puhuivat tunteistaan.Stubbin ja Haaviston kanttia koetellaan vielä kaksi viikkoa. Virheisiin ei kummallakaan ole varaa.
-Näin Stubb ja Haavisto ennakoivat toisen kierroksen keskusteluja:Näin Stubb ja Haavisto ennakoivat toisen kierroksen keskusteluja.Lue lisää Ylen juttuja presidentinvaaleista.</t>
+          <t>Majavan nakertama puu pysäytti liikenteen Polvijärvellä torstaina.Pohjois-Karjalan pelastuslaitos sai iltapäivällä tiedon liikenteen estävästä ison puun kaatumisesta Kaavintiellä. Puuta raivattaessa syylliseksi oli osoittautunut majava.Pelastuslaitos arvelee majavan nakertaneen puusta nälissään ruokaa itselleen.Vanhemman pelastajan Pekka Kontkasen mukaan majavan osuudesta puun kaatumiseen ei voi erehtyä. Eläimen noin puolimetriseen haapaan jättämät jäljet olivat varsin tuoreet.– Ison urakan majava on tehnyt.Tapaus oli pelastuslaitoksellekin uusi.– En muista, että majavan tekosena olisi ollut tällainen liikenne-este, Kontkanen sanoo.Majavien suuntaamat kaadot ovat yleensä Kontkasen mukaan onnistuneita.– Nyt oli vain ilmeisesti yllättänyt puuskittainen tuuli, joka oli kaatanut puun tielle. Tai mistäpä minä tiedän mihin suuntaan majava on yrittänyt puuta kaataa, Kontkanen toteaa.Epäilty tekijä oli pelastuslaitoksen mukaan poistunut paikalta viereistä Saarvonjokea pitkin.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1328,38 +1283,21 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Yllättikö? Kartta näyttää, kuinka sinun kotikuntasi äänesti</t>
+          <t>Järjes­tyk­sen­val­vojille vankeutta ihmisten pahoin­pi­telyistä juna-asemilla – puolet syytetyistä selvisi ilman rangaistusta</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20069982</t>
+          <t>https://yle.fi/a/74-20072350</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Suomalaiset sen ratkaisivat: sunnuntai-iltana varmistui, että presidentinvaalien toisella kierroksella presidenttiydestä kamppailevat ehdokkaat Alexander Stubb (kok.) ja valitsijayhdistyksen Pekka Haavisto (vihr.).Äänestysdata paljastaa monia mielenkiintoisia asioita. Yksi niistä on se, kuinka Suomen eri kolkat ryhmittyivät ehdokkaiden taakse eri tavalla.Pureskelimme monimutkaisen datan yksinkertaiseen karttamuotoon. Alla olevasta interaktiivisesta karttavisualisoinnista voit vapaasti tarkastella, kuinka esimerkiksi juuri sinun kotikunnassasi äänestettiin.
-Toteutus vaatii toimiakseen JavaScriptin.
-Näissä kunnissa äänestysprosentti oli korkeinVilkkaimmin äänestäjät kävivät Luodossa. Lähes yhtä suurta innostus oli myös Kauniaisissa.Näissä kunnissa äänestysprosentti oli yli 80 %:Luoto 88,8
-Kauniainen 87,5
-Pedersöre, 85,8
-Rusko 82,1
-Inkoo 81,5
-Pirkkala 81,3
-Kustavi 81,0
-Masku 80,8
-Kruunupyy 80,6
-Taipalsaari 80,6
-Kaarina 80,5
-Naantali 80,5
-Lieto 80,4
-Vesilahti 80,3
-Mustasaari 80,2
-Korsnäs 80,1Juttua päivitetty 29.1. kello 8.55: Kartan data päivitetty tuoreimpaan, 100 prosenttia äänistä sisältäneeseen versioon.</t>
+          <t xml:space="preserve">Itä-Uudenmaan käräjäoikeus on antanut tänään keskiviikkona tuomion Avarn Securityn entisten järjestyksenvalvojien pahoinpitelyvyyhdistä.Kaksi päätekijää tuomittiin noin kolmen vuoden ehdottomiin vankeusrangaistuksiin. Kaksi muuta useissa teoissa mukana ollutta miestä tuomittiin ehdolliseen vankeuteen.Neljän muun tuomitun kohdalla osa syytteistä hylättiin. Heidät tuomittiin sakkorangaistuksiin.Seitsemän järjestyksenvalvojan syytteet hylättiin kokonaan. Hylätyt syytteet koskivat pääasiassa perusmuotoisia pahoinpitelyjä.Kaikkiaan viittätoista entistä järjestyksenvalvojaa syytettiin useista pahoinpitelyistä ja virkarikoksista. Käräjäoikeus hylkäsi kaikki virkarikossyytteet.Käräjäoikeuden mukaan yksityisistä turvallisuuspalveluista annetussa laissa ei ole riittävän selkeää viittausta rikoslain virkarikoksia koskeviin säännöksiin. Sen vuoksi rikoslain kohtaa ei voitu soveltaa järjestyksenvalvojiin.Yhden syytetyn järjestyksenvalvojan osalta syytteitä käsitellään myöhemmin. Yksi sakkoihin tuomituista ei ollut järjestyksenvalvoja, vaan hän oli myös uhri. Mies puri järjestyksenvalvojaa tämän käydessä häneen kiinni.Kuuntele, miten aluesyyttäjä Mika Lopmeri kommentoi tuomiota toimittaja Katri Kirsin haastattelussa.Syyttäjä harkitsee Avarn-tuomiosta valittamistaUhrit olivat puolustuskyvyttömiäTeot tapahtuivat pääosin Vantaan ja Helsingin juna-asemien läheisyydessä kevään 2021 ja joulun 2022 välisenä aikana.Väkivallanteot kohdistuivat tuomion mukaan pääsääntöisesti heikommassa asemassa oleviin, kuten päihtyneisiin ja puolustuskyvyttömiin ihmisiin.Uhreja on yli 20. Heistä kaksi oli tapahtumien aikaan alaikäisiä.Syytetyt pääosin kiistivät epäillyt rikokset. Heidän mielestään voimakäyttö oli tilanteissa perusteltua.Lisää: ”Kuin olisi koira, joka lopetetaan”, sanoo uhri – videot näyttävät, millaisesta väkivallasta järjestyksenvalvojia syytetäänTällaisista teoista päätekijät tuomittiinVuonna 1999 syntynyt Olli Robert Havukainen tuomittiin kolmen vuoden ja neljän kuukauden ehdottomaan vankeuteen. Lisäksi kersantin sotilasarvo tuomittiin menetetyksi.Hänen syykseen katsottiin viisi törkeää pahoinpitelyä, useita pahoinpitelyjä, kaksi vapaudenriistoa, väärä ilmianto, laiton uhkaus, huumausainerikos ja vaarallisen esineen hallussapito. Yhden haastehakemuksen syytteet hylättiin.Vuonna 2000 syntynyt Valtteri Juho Räisänen tuomittiin kolmen vuoden ehdottomaan vankeuteen.Hänen syykseen luettiin kolme törkeää pahoinpitelyä, useita pahoinpitelyjä, kaksi vapaudenriistoa, väärä ilmianto, laiton uhkaus ja huumausainerikos. Yhdessä tapauksessa hänen syytteensä hylättiin.Avaa kuvien katseluOsa uhreista jäi tunnistamatta, joten todisteena joistain teoista olivat vain haalarikameran videot.  Kuva: PoliisiVuonna 2001 syntynyt mies tuomittiin yhden vuoden ja kuuden kuukauden ehdolliseen vankeuteen.Hänen rikoksikseen katsottiin törkeä pahoinpitely, avunanto törkeään pahoinpitelyyn, kolme pahoinpitelyä, laiton uhkaus, väärä ilmianto, vapaudenriisto, huumausainerikos.Hänen syytteensä hylättiin kokonaan neljässä asiassa. Myös vaatimus sotilasarvon menettämisestä hylättiin.Lisäksi 21-vuotias mies sai viisi kuukautta ehdollista vankeutta kolmesta pahoinpitelystä, vapaudenriistosta, väärästä ilmiannosta ja huumausainerikoksesta.Tuhansien eurojen korvaukset uhreilleKaikki neljä päätekijää tuomittiin maksamaan juttujen asianomistajille vahingonkorvausta. Vahingonkorvauksen määrä vaihteli tapauksittain muutamasta sadasta eurosta 6 000 euroon.Tapauksen syyttäjät harkitsevat, ilmoittavatko he tyytymättömyyttä tuomioon.– Käräjäoikeuskin toteaa, että lainsäätäjä on tarkoittanut, että rikoslain kohtaa virkarikoksista voidaan soveltaa järjestyksenvalvojiin. Tutkimme, onko tästä syytä lähteä hakemaan ylemmän oikeusasteen ratkaisu, toteaa aluesyyttäjä Mika Lopmeri.Kovimman tuomion saaneen 24-vuotiaan tuomitun asianajajan mukaan he perehtyvät tuomioon ja harkitsevat tyytyvätkö he siihen.Vuonna 2000 syntyneen tuomitun asianajajan mukaan he aikovat ilmoittaa tyytymättömyytensä ja valittaa tuomiosta. Puolustuksen mielestä 23-vuotiaan syyksi katsotut törkeät pahoinpitelyt ovat perusmuotoisia pahoinpitelyjä.Tuomio ei ole lainvoimainen.Neljää miestä voi pitää tapauksen päätekijöinä tekojen määrän ja vakavuuden perusteella. </t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1373,21 +1311,21 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Kauhuelokuva ajoi lapsen kuukausien psykiatriseen hoito­suh­teeseen – nämä elokuvat trauma­ti­soivat suomalaisia</t>
+          <t>Kuvat kertovat, ettei poliittinen lakko täysin tehonnut</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20070055</t>
+          <t>https://yle.fi/a/74-20072369</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>”Tuntui, että kukaan perheestäni ei ymmärtänyt sitä kauhua, missä päivittäin elin.”Näin kertoo Poltergeist-elokuvan (1982) noin 12-vuotiaana nähnyt nainen Ylelle.Pelko yltyi niin kovaksi kauhuelokuvan takia, että tyttö kääntyi useaksi vuodeksi uskoon.”Supisin kuuman peiton alla isä meidän -rukouksia kuin mantraa.”Kysyimme joulukuussa Yleisradion Kulttuuricocktailin lukijoilta heidän voimallisimpia elokuvatraumojaan. Saimme yli 500 toinen toistaan kauhistuttavampaa kokemusta. Vastauksissa mainittiin yli 200 elokuvaa.Yksi oli ylitse muiden.Olin varma pirun kaappaavan minut.Manaajan nähnytWilliam Friedkinin kauhuelokuva Manaaja (1973) traumatisoi lähes kymmenesosan kyselyyn vastanneista. Mikään muu elokuva ei toistunut yhtä usein vastauksissa.Myöhemmin jutussa käydään läpi myös esimerkkejä uudemmista elokuvista.Avaa kuvien katselu”Yksi kauheimmista”, ”tuli uniin” ja ”yliluonnollisen pelottava”, vastauksissa kuvaillaan Manaaja-elokuvaa (1973). Elokuvassa nuori jesuiittapappi koettaa manata demonin pois 12-vuotiaasta lapsesta. Kuva: Universal History Archive/Shutterstock/All Over PressSuurin osa näki elokuvan alle 15-vuotiaana. Monessa kokemuksessa toistui kertomus elokuvan katsomisesta vanhemmilta salaa.En yli vuoteen uskaltanut nukkua, vaan olin varma pirun kaappaavan minut. Pelko oli niin voimakas, että perheeni pelkäsi minun sekoavan täysin. Makasin äidin sängyn vieressä lattialla Raamattu rinnan päällä. Vieläkin puistattaa.Nainen, 54, elokuvan nähdessään 12Toiselle vastaajalle kauhu ”menetti teränsä” vasta kahden vuoden kuluttua.Yksin kotona oleminen pelotti niin, että juoksin usein vähissä vaatteissa ulos. Nyt tätä kirjoittaessani minun piti käydä laittamassa huoneeseen lisää valoa, koska asian ajatteleminen toi pelon pintaan!Nainen, 34, elokuvan nähdessään 12Manaaja on ollut traumaattinen elämänkokemus monille ikäluokille. 26-vuotias vastaaja kertoi katsoneensa elokuvan vanhempiensa seurassa lapsena kauhusta jäykkänä.Pelkäsin 12-vuotiaaksi kasvamista, koska silloin elokuvan tyttö muuttui riivatuksi.Nainen, 26, elokuvan nähdessään 7Japanilainen kauhu ajoi poliklinikalleKyselyyn vastanneita pelottivat klassikot.Nämä elokuvat toistuivat eniten vastauksissa1. Manaaja (1973)2. Uinu, uinu lemmikkini (1989)3. Tappajahai (1975)4. Hohto (1980), Ring (1998) (yhtä monta vastausta)5. Psyko (1960), Kauna (2004) (yhtä monta vastausta)Suurin osa eniten pelkoa aiheuttaneista elokuvista on yhdysvaltalaisia ja tehty ennen 90-lukua, mutta mukana on kaksi japanilaistaustaista uudempaa elokuvaa: Ring ja Kauna.Molemmat elokuvat pohjaavat japanilaiseen onryō-mytologiaan, jossa kostonhimoiset, usein naispuoliset kummitukset palaavat elävien maailmaan. Kummastakin elokuvasta on olemassa japanilainen ja yhdysvaltalainen versio.Vieläkin vedän kylppärin oven perästä kiinni, jotta viemäristä ei tule Ringin tyttö.Nainen, 39, elokuvan nähdessään 1832-vuotias nainen kertoo olevansa hyvä esimerkki ihmisestä, jonka ei pitäisi katsoa kauhuelokuvia.Kaunan nähtyäni valvoin koko yön selkä seinää vasten. Pelkäsin ja säikyin kaikkea. Luottamukseni todellisuuden ennustettavuuteen horjahti. Viikon sinnittelin ennen kuin kerroin vanhemmilleni. Kävin puolen vuoden ajan nuorisopsykiatrisella poliklinikalla juttelemassa. Nukuin valot päällä monta vuotta.Nainen 32, elokuvan nähdessään 14Avaa kuvien katseluKayako Saeki (Takako Fuji) on Kauna-elokuvien kostonhimoinen haamu. Elokuvat järkyttivät monia vastaajia. Kuva: Columbia/Kobal/Shutterstock/All Over PressYleisradio on nähnyt kertojan potilasasiakirjat ja todennut tapahtumien kulun.Nykyään hän ei enää kiusaa itseään katsomalla painostavia elokuvia. ”Harry Potter vitosen jätin kesken.”Nainen työskentelee nyt muusikkona, ja hän on ollut esimerkiksi yhden kotimaisen kauhuelokuvan työryhmässä. Sen hän uskalsi katsoa elokuvateatterissa.Tappajahai vei järviuinneista ilonUseampi Steven Spielbergin Tappajahain (1975) nähnyt kertoo, että vesistöt aiheuttavat yhä pelkoa.Uiminen meressä, tai oikeastaan missä tahansa muualla kuin uima-altaassa vaatii suuria ponnistuksia. Kirkas vesi, eli jos pohja näkyy, helpottaa.Mies, 40, elokuvan nähdessään 7Avaa kuvien katseluSteven Spielbergin Tappajahai (1975) oli ilmestyessään maailman tuottoisin elokuva. Useampi suomalainen kertoo että järvissä uiminen hirvittää elokuvan katsomisen jälkeen. Kuva: World History Archive / Alamy/All Over PressYksi vastaaja kertoi kääntyneensä rentoutumiskasettien puoleen nähtyään Poltergeist-elokuvan (1982).Vedin aina peloissani peiton pään yli, ja hikoilin sitten hengitykseni lämmittämässä peittoluolassa kunnes nukahdin. Kuuntelin usein nukkumaan mennessä sen ajan rentoutumis-c-kasetteja koska yritin peittää kaikki mahdolliset huoneen ja talon äänet ja rapsahdukset etten mennyt täysin paniikkiin. Nainen, 42, elokuvan nähdessään 12Hanskapäinen pingviini kauhistuttiJoillekin elokuvat aiheuttivat poikkeuksellisen voimakkaan tunnemyrskyn, vaikka kyseessä ei olisikaan ollut kauhuteos.75-vuotias mies kertoo, ettei kykene enää katsomaan musikaaliklassikko West Side Storya (1961).Joudun tunnekuohun valtaan ja alan itkemään.Mies, 75, elokuvan nähdessään 13Parissakin vastauksessa trauman oli aloittanut brittiläinen Wallace &amp; Gromit -lastenelokuva tai -lyhytelokuva.Hanskapäinen pingviini oli niin pelottava, etten uskaltanut kulkea yöllä kotona neljään vuoteen ajattelematta ja pelkäämättä pingviiniä. Säikähdin hirveästi joka kerta kun näin DVD:n kaupassa.Nainen, 22, lyhytelokuvan nähdessään 7Myöhemmin asia on naurattanut kertojaa.Avaa kuvien katseluFeathers McGraw -pingviini ja Wallace. Vahahahmot esiintyvät Wallace ja Gromit: Väärät housut -lyhytelokuvassa (1994). Kuva: imago/United Archives/ All Over PressYksi vastaaja muistelee romanttisen draamaelokuvan William Shakespearen Romeon ja Julian (1996) näkemistä teini-ikäisenä näin:Menin lopusta niin hysteeriseksi, että vartijan piti kantaa minut ulos ennen seuraavan elokuvan alkua, koska en voinut kävellä. Itkin vielä kotona niin hysteerisesti että äiti luuli jonkun oikeasti kuolleen. En voinut vuosiin edes selittää kenellekään, miten loppu menee ilman että aloitin holtittoman itkun.Nainen, 42, elokuvan nähdessään 15Nainen kävi katsomassa elokuvan lopulta kolme kertaa teatterissa. Suuri tunnereaktio vain oli samanaikaisesti niin hirveä ja ihana.Avaa kuvien katseluJulia (Claire Danes) ja Romeo (Leonardo DiCaprio) William Shakespearen Romeo ja Julia -elokuvassa. Kuva: Photo 12 / Alamy/All Over PressLue Yle Kulttuuricocktailin aiempi kyselyjuttu: ”Pelatessa tajusin, että elämäni on lahja” – suomalaiset kertovat, miten valtavan tärkeitä videopelit ovat</t>
+          <t>Hallitusta vastustavat poliittiset lakot alkoivat Suomessa keskiviikkona. Tänään torstaina lakot laajenivat, ja muun muassa lentoliikenne tyrehtyi lähes kokonaan.Helsinki-Vantaan lentoasemalta lähti torstaina Finavian mukaan lähes 30 lentoa, muun muassa Istanbuliin, Tukholmaan, Teneriffalle ja Frankfurtiin. Saapuvia lentoja oli noin 40.Normaalisti kentältä lähtee ja sinne saapuu yhden päivän aikana noin 350 lentoa.Yle vieraili lentoasemalla keskiviikkona ja torstaina. Valokuvasimme asemalla samat paikat samaan aikaan.Avaa kuvien katseluTältä näytti Helsinki-Vantaan lentoaseman ala-aulassa keskiviikkona 31. tammikuuta kello 10.08. Asemalla työskentelevien mukaan keskiviikkona asemalla oli jo normaalia hiljaisempaa. Kuva: Silja Viitala / YleAvaa kuvien katseluTorstaina, tasan 24 tuntia myöhemmin, ala-aulassa oli silmämääräisesti saman verran ihmisiä kuin keskiviikkonakin. Kuva: Silja Viitala / YleAvaa kuvien katseluAseman Alepa keskiviikkona kello 10.10. Kuva: Silja Viitala / YleAvaa kuvien katselu... ja vuorokautta myöhemmin. Kuva: Silja Viitala / YleAvaa kuvien katseluPutkiasentajat Kimmo Virolainen ja Joni Koski olivat kahvitauolla keskiviikkona kello 10.19. Mitä mieltä olette lakosta? – Täyden kympin annan, täysin oikeutettua, vastaa Virolainen. Mikä hallituksen toimissa sitten ketuttaa eniten? – Kaikki! [Valtiovarainministeri Riikka] Purra (ps.) sanoi, että meitä ei voi kiristää. No, samat terveiset takaisin, jatkaa Virolainen. – Meitä on enemmän, täydentää Koski ja jatkaa: – Yleislakkoa odotellessa. Kuva: Silja Viitala / YleAvaa kuvien katseluPorvoolainen Jaana Järvinen nautti ystävänsä kanssa kahvilassa aamiaista torstaina kello 10.18. Ystävykset olivat palanneet Suomeen lomamatkalta edellisenä päivänä. Paluuta oli aikaistettu lakon vuoksi. Kuva: Silja Viitala / YleKlikkaa kuvia nähdäksesi ne suurempana.Avaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluReijo Kuivalainen ja Allan Saar olivat keskiviikkona lähdössä viikoksi lomalle Dubaihin. Heidät kuvattiin lähtöaulassa kello 10.28. – Jos lento olisi peruttu, olisi harmittanut, mutta ei haitannut, sanovat molemmat.  – Lakko on oikeutettu, työntekijöiden pitää pitää puoliaan, sanoo Kuivalainen. Kuva: Silja Viitala / YleAvaa kuvien katseluTorstaina kello 10.28 samassa paikassa näytti tältä. Kuva: Silja Viitala / YleYleislakkoa odotellessa.Putkiasentaja Joni KoskiAvaa kuvien katseluAseman tuloaulassa tehtiin kunnostustöitä keskiviikkona kello 10.34. Kuva: Silja Viitala / YleAvaa kuvien katseluTorstaiaamuna samaan aikaan aula oli hiljainen. Kuva: Silja Viitala / YleKlikkaa kuvia nähdäksesi ne suurempana.Avaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAseman ulkopuolella oli muutamia ihmisiä keskiviikkona kello 10.44. Kuva: Silja Viitala / YleAvaa kuvien katseluTulijoita riitti myös torstaina aamupäivällä. Kuva: Silja Viitala / YleIhmiset joutaisivat töihin.Anu PirttijärviAvaa kuvien katseluKärryjä riitti ulkona kaikille halukkaille keskiviikkona kello 10.45. Kuva: Silja Viitala / YleAvaa kuvien katseluJa samoin torstaina, 24 tuntia myöhemmin. Kuva: Silja Viitala / YleAvaa kuvien katselu– Ihmiset joutaisivat töihin, sanoi aulassa keskiviikkona kello 10.49 odotellut Anu Pirttijärvi (punainen takki). Pirttijärvi oli lähdössä äitinsä Riitta-Leena Strengin kanssa lomalle Bangkokiin. – Pakkohan se on näyttää mieltäkin, jos kiristetään. Mutta periaatteessa en kyllä kannata mitään lakkoja tässä taloustilanteessa, Streng lisää. Kuva: Silja Viitala / YleAvaa kuvien katseluTorstaina kello 10.49 paikalla olivat Helsingin ranskalais-suomalaisen koulun kahdeksasluokkalaiset. He olivat saattamassa koulussa vierailulla olleita oppilaita. Kuva: Silja Viitala / YleAvaa kuvien katseluKeskiviikkona kello 10.57 lähtöselvityskoneen vieressä odotti matkalaukku. Kuva: Silja Viitala / YleAvaa kuvien katselu... ja torstaina kello 10.57 paikalla näytti tältä. Kuva: Silja Viitala / YleAvaa kuvien katseluKeskiviikkona kello 11.02 lähtevien lentojen lista oli pitkä. Aulassa kävi tasainen kuhina. Kuva: Silja Viitala / YleAvaa kuvien katseluTasan 24 tuntia myöhemmin lähtevien lentojen lista oli lyhyt. Ranskalais-suomalaisen koulun oppilaat odottelivat aikataulunäytön luona. Kuva: Silja Viitala / Yle</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1401,21 +1339,21 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Syytetyn sarja­tu­ho­polt­tajan kännykästä löytyi muistio tulipalojen plussa­puolista</t>
+          <t>Isä on pelastanut lapsensa satoja kertoja tukeh­tu­miselta – hyvin­voin­tia­lueen mielestä lapsi ei tarvitse erityistukea</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071809</t>
+          <t>https://yle.fi/a/74-20072315</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Pirkanmaan käräjäoikeus jatkoi maanantaina laajan tuhopolttojen sarjan käsittelyä. 1990-luvulla syntynyttä nuorta tamperelaista miestä syytetään 21 rikoksesta.Syyttäjällä on todisteina esimerkiksi televalvontatietoja, bensakuitteja, valokuvia sekä jälkiä palopaikalta. Syytetyllä oli bensakanisteri samana iltana, kun hän jäi kiinni.Syytetylle vaaditaan ainakin kuuden vuoden vankeusrangaistusta. Hän kiistää kaikki syytteet.– Kiistän syyllistyneeni yhtään mihinkään ellei pyöräileminen ole laitonta, hän kertoi poliisille kuulustelussa.Tuhansia työtunteja meni hukkaanOikeudessa kuultiin maanantaina useita tuhotöiden asianomistajia. Yksi heistä kertoi vapaa-ajan talon pystyttämisestä. Rakennus paloi ennen valmistumista, asianomistajan mukaan se oli viittä vaille valmis.– Rakentamiseen on mennyt tuhansia tunteja. Se on tehty hartiapankkihommina, mies arvioi.Asianomistaja kertoi, että materiaaleja on ostettu silloin, kun on ollut mahdollista. Sen takia rakentaminen kesti kauan.– Emme ole mikään rikas perhe.Tulipalo on ottanut koville.– En ole uskaltanut käydä siellä. En tiedä, kestänkö nähdä sen.Muutkin asianomistajat kertoivat oikeudessa, miten tärkeitä asumattomilta näyttäneet vanhat rakennukset olivat heille rahallisesti ja tunnearvoltaan. Osa niistä toimi mökkeinä, yksi taloista oli peritty suvussa 1800-luvulta asti.– Talo oli 170 vuotta, ja se oli säilynyt hyvänä. Polttajalle se ei ole minkään arvoinen, yksi asianomistaja sanoi.Kännykästä löytyi lista tulipalojen plussistaSyytetyn kännykästä löytyi myös erikoinen muistio, jossa on plussia allekkain. Plussien mukaan ”palokunta sai harjoitusta, omistaja säästi purkukustannukset, omistaja saa rahaa vakuutuksestaja omistajalla menee kiinteistöveroa vähemmän”. Yhdessä plussassa arvioidaan, että palon jälkeen ilkivalta vähenee.– Tässä on etsitty syitä, miksi tulipaloja kannattaa sytytellä, aluesyyttäjä Siina Simola sanoo.Avaa kuvien katseluEsitutkinta-aineistossa on syytetyn kännykästä löytynyt muistio, jossa listataan tulipalojen hyötyjä. Kuva: poliisin esitutkinta-aineisto.  Kuva: Anu Leena Hankaniemi / Yle, editointi Matias Väänänen / YleSyytetyn mukaan hän oli vain pohtinut, mitä lähellä olevista tulipaloista voi seurata. Hänen mukaansa alueen rakennusten arvo voi nousta ja turvallisuus parantua, jos purkukuntoisia rakennuksia ei ole.Syytetty selvitti velkojen vanhentumistaSyytetty oli myös selvitellyt, milloin rikosvelka vanhenee. Hän oli syyttäjän mukaan myös etsinyt tietoa, toimitetaanko Suomeen liekinheittäjädroonia.Syytetty kävi hämmästyttävän usein hakemassa muutamia litroja 95-oktaanista bensaa eri puolelta Tamperetta huoltoasemilta. Syyttäjän mukaan syytetty liikkui palopaikoilla moottoripyörällä, pyörällä ja ainakin kahdella eri autolla. Syytetyn autot olivat dieselkäyttöisiä, ja moottoripyörään käytettiin syyttäjän mukaan 98-oktaanista.Syytetyn mukaan hän tankkasi joskus moottoripyörään 95-bensaa. Puolustuksen mukaan syytetty haki bensaa auton vanteiden puhdistamiseksi.Breitensteinin huvila paloi Tampereella viime toukokuussa. Savua levisi laajalle alueelle Santalahdesta itään.Seurasi tarkkaan uutisointiaEnsimmäiset epäillyt tuhotyöt tehtiin jo edellisen vuoden syksyllä, mutta tapausten määrä kiihtyi viime vuoden keväällä. Esimerkiksi Tampereen keskustan lähellä Hipposkylässä paloi kaksi puista asumatonta kerrostaloa.Syytetyn kännykästä löytyi koostesivusto esimerkiksi tästä Hipposkylän palosta. Syytetyllä oli kuvakaappauksia esimerkiksi Ylen teksti-tv:n sivusta, tulipalouutisia monesta eri mediasta ja vielä valokuva Aamulehden printistä. Syytetyltä löytyi myös useita kuvakaappauksia Tilannehuoneessa olevista hälytyksistä.Syytetty seurasi tarkkaan esimerkiksi Aamulehden ja Ylen uutisointia.– Hän oli kiinnostunut siitä, missä palaa, syyttäjä havainnollistaa valokuvilla.Kuvia tuntemattomista autiotaloistaYhteen valokuvaan syytetty on kirjoittanut kellonaikoja, milloin hälytys tuli ja milloin uutiset.– Hän on kirjoittanut 15.10 on, onko se tulipalon sytyttämisaika? syyttäjä kysyy.Kännykästä löytyi myös lukuisia kuvia tuntemattomista autiotaloista. Syyttäjän mukaan ne saattoivat olla tulevia kohteita.Puolustus kiistää kulujaPuolustuksen mukaan paloista ei tullut taloudellista haittaa ainakaan osalle kohteista, sillä talot haluttiin purkaa huonokuntoisina.Puolustus kiistää useita kustannuksia ja vaatimuksia, joita syytetyistä tuhotöistä on kertynyt.Oikeudenkäynti jatkuu keskiviikkona syytetyn ja todistajien kuulemisella. Silloin kuullaan myös loppulausunnot.</t>
+          <t>Ennen kuin pohjoispohjalaiselle äidille selvisi, että hänellä on kaksi erityislasta, hän kuvitteli tuen saannista hyvinvointivaltiossa toisin. Hän ajatteli, että yhteiskunta rientäisi apuun, jos lasten kanssa tulisi tarvetta.Nyt hänestä tuntuu, että luottamus hyvinvointivaltioon on mennyt, kun kaikesta on saanut taistella: omaishoitajuudesta, omaishoitajan vapaista, lasten tukihenkilöistä, kuntouttavasta päivähoidosta, iltapäivähoidosta.Parhaillaan hän odottaa seuraavaa oikeudenkäyntiä. Aluehallintovirasto ja hallinto-oikeus ovat linjanneet, että perheen nuoremmalle lapselle kuuluu kuntouttava päivähoito, mutta tämä ei riitä hyvinvointialueelle. Se haluaa jatkaa asian käsittelyä vielä korkeimmassa hallinto-oikeudessa ja on hakenut sieltä valituslupaa.Koska prosessissa on kestänyt, kouluikäinen lapsi ei enää ehdi saamaan päivähoitoa. Oikeudenkäynti on muuttunut periaatekysymykseksi.Avaa kuvien katseluPerheen nuorempi lapsi käy erilaisissa terapioissa.  Kuva: Rami Moilanen / YleÄiti on koulutukseltaan erityisopettaja ja isä työskentelee vammaisten parissa. He ovat myös luoneet laajat vertaistukiverkostot ja hankkineet tietoa muun muassa eri järjestöjen kursseilta.– Luulen, että hirveän moni luovuttaa taistelun jo alussa heti ensimmäiseen hylkäyspäätökseen eivätkä he ymmärrä olla kovana ja vaatia oikeuksiaan, isä sanoo.Perheen henkilöllisyys on Ylen tiedossa, mutta lasten yksityisyyden suojelemiseksi heidän nimiään ei kerrota.Tilanteen pelätään pahenevanVastaava kokemus siitä, että palveluja on vaikea saada, on tutkimusten mukaan monilla vammaispalvelujen asiakkailla.Kehitysvammaisten tukiliitto sekä vammaispalveluja tutkinut Lapin yliopiston sosiaalityön yliopistonlehtori Jari Lindh ovat huolissaan siitä, mihin suuntaan tilanne on menossa vuonna 2023 aloittaneiden hyvinvointialueiden aikana. Nyt nimittäin näyttää, ettei ainakaan parempaan.Tukiliiton tuoreen kyselyn perusteella sen alueellisissa vaikuttamisryhmissä ollaan huolissaan palveluiden saatavuudesta, riittävyydestä ja jatkuvuudesta. Esimerkiksi lapsiperheiden palveluista oli huolissaan yli puolet vastaajista.Tukiliiton huolena on, että hyvinvointialueiden säästöpaine ajaa ne karsimaan kaikki palvelut minimiin. Silloin asiakkaan yksilöllisiä tarpeita ei huomioida riittävästi, vaan etsitään pienintä mahdollista panosta palvelun järjestäjän näkökulmasta.Myös Lindhin mukaan riskinä on, että vammaiset joutuvat hakemaan oikeuksiaan esimerkiksi valitusten, kanteluiden ja oikeustapausten kautta. Se eriarvoistaa. Kaikilla ei ole samalla tavalla osaamista, jaksamista tai kykyä edes hakea palveluita, saati valittaa päätöksistä tai käydä oikeutta.Hyvinvointialueet säästävät ja yhtenäistävätYle kysyi kaikilta hyvinvointialueilta, millaisia muutoksia ne ovat tehneet esimerkiksi kehitysvammaisten palveluihin. Vastauksissa nousi esiin toistuva sana: yhtenäistäminen. Ennen samoja palveluita järjestivät lukuisat kunnat, ja käytännöt ja hinnastot vaihtelivat.Vaikka tasa-arvo lisääntyy, yksittäisille ihmisille muutokset voivat olla isoja. Esimerkiksi Siun soten alueella kehitysvammaisten päivä- ja työtoiminnan ja asumispalvelujen ruokamaksuista osa on noussut yli 50 prosenttia kahtena vuonna peräkkäin.Pohjois-Pohjanmaan hyvinvointialueen Pohteen vammaispalvelujen palvelualuejohtaja Marja Salo sanoo, että alueen kunnissa on myönnetty myös palveluita, joita laki ei vaadi. Hänen mukaansa niitä on karsittu ennen kaikkea yhdenvertaisuuden takia, ei niinkään säästöjen.Kehitysvammapalveluissa on paljon lakisääteisiä palveluita, joita ei voi evätä keneltäkään säästöihin vedoten, vaan ne on pakko järjestää, Salo toteaa. Perheen tai hoitavien tahojen mielipidettä kuunnellaan, mutta lopulta laki määrittelee, syntyykö oikeutta palveluun vai ei, hän sanoo.Kehitysvammaisten tukiliitto näkee hyvinvointialueiden yhtenäistämisen ja joustamattomat palvelukriteerit riskialttiina. Samoin ajattelee Lindh.– Vammaispalveluissa lähtökohtana ovat asiakkaan yksilölliset tarpeet, joihin palvelujärjestelmien pitäisi vastata.Pohteen alueella yksi esimerkki palvelujen muutoksesta on esimerkiksi kehitysvammaisille suunnatun iltapäivätoiminnan muuttuminen. Hyvinvointialue on tulkinnut, että kehitysvammaiset ja erityislapset voivat lähtökohtaisesti olla muiden mukana perusopetuslain mukaisessa maksullisessa iltapäivätoiminnassa.Vastaavia suunnitelmia on ainakin Lapissa ja Päijät-Hämeessä. Tukiliitto on jyrkästi laintulkintaa vastaan. Se muistuttaa, että etenkin vanhemmilla lapsilla palvelun tarve perustuu vammaisuuteen ja jatkuu muita lapsia pidempään, jolloin tuen pitäisi olla maksutonta.Videolla Pohteen palvelupäällikkö kertoo näkemyksensä siitä, miksi osa asiakkaista on ollut tyytymättömiä.Marja Salon mukaan iltapäivätoiminnan muutoksesta on tullut paljon palautetta. Video: Paulus Markkula / Yle, Anna Polo / YleOikeudessa väännetään siitä, voiko palveluita tarjota vain määräajaksiPohjoispohjalaisessa perheessä taistelua aiotaan jatkaa, vaikka voimat ovat jo vähissä.Oikeustapauksessa on kyse siitä, onko nuoremmalla lapsella sellainen kehityshäiriö, että erityishuolto-ohjelmaan olisi oikeus, sekä siitä, onko kehityksessä tapahtunut muutosta, jonka perusteella aikaisemmin tarjottuja palveluita voi lakkauttaa. Hyvinvointialueen mukaan vastaavissa tapauksissa päätöksiä voi tehdä määräaikaisina, kuten alun perin lapselle tehtiin. Hallinto-oikeuden mukaan se oli vastoin hallintolakia.Hyvinvointialue on hakenut valituslupaa KHO:sta. Sen ratkaisulla on merkitystä sille, voidaanko lasten kohdalla tehdä päätöksiä määräaikaisina kuten Pohde toivoo.Perheen mielestä on raskasta joutua jatkuvasti perustelemaan, miksi he tarvitsevat apua: mitä lapsi ei osaa ja missä asioissa hän ei ole tarpeeksi kehittynyt.Arki on muutenkin kuormittavaa: isä kertoo muun muassa pelastaneensa nuoremman lapsen satoja kertoja tukehtumiselta, koska tällä on synnynnäisiä vaikeuksia syömisessä. Kahdella erityislapsella riittää virtaa.Avaa kuvien katseluNuorempi lapsi pureskelee paitansa rikki usein jo päivässä. Perhe on hakenut mutta ei ole saanut vaaterahaa. Kuva: Rami Moilanen / Yle– Me elämme tätä arkea ja sitten meille lyödään päälle oikeusjutut. Meillä ei ole vastaavaa luksusta (kuin virkahenkilöillä) kuin vapaapäivät ja lomat. Kuinka helkkarin uuvuttavaa se on. Ja vielä moneen kertaan ja vielä kahdesta lapsesta.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1429,21 +1367,21 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Nuorten olympia­kilpailu oli Minja Korhosen ylivoimaa: ”Aika rauhassahan siinä sai hiihtää”</t>
+          <t>4 000-vuotias hirven­pää­kirves hämmästyttää tutkijaa – Kuusamosta löytynyt esine kertoo varsin kehittyneestä kulttuurista</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071868</t>
+          <t>https://yle.fi/a/74-20072459</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Yhdistetyn suomalaiskomeetta Minja Korhonen saavutti maanantaina suvereeniin tyyliin arvokisakultaa Ganwonissa, Etelä-Koreassa järjestettävissä nuorten talviolympialaisissa.Korhosen vire oli Pyeongchangin olympiamaisemissa kohdallaan niin normaalimäessä kuin hiihtoladulla. Mäkikierroksen pisin hyppy 103,5 metriä takasi Korhoselle turvallisen kärkipaikan hiihtobaanalle, ja neljän kilometrin matkalla siilinjärveläinen venytti eron Slovenian hopeamitalistiin Teja Paveciin liki 50 sekuntiin.– Mäessä sain tosi hyvän hypyn, ja luottavaisella fiiliksellä pääsi lähtemään hiihto-osuudelle. Siinä pääsi oman rennon hiihdon hiihtämään ja aika rauhassahan siinä sai sinänsä hiihtää, ei tarvinnut hirveästi takaa tulevista murehtia. Tosi hieno kisapäivä tänään, Korhonen iloitsi Olympiakomitean tiedotteessa.Korhosen kultamitali oli odotettavissa, sillä 16-vuotias savolainen on noussut tällä kaudella naisten maailmancupin kärkikahinoihin. Korhonen kipusi joulukuun puolivälissä Ramsaussa ensimmäistä kertaa maailmancupin palkintokorokkeelle olemalla kolmas.Maailmancupissa Korhosen tavoin kilpaillut Heta Hirvonen taipui maanantain olympiakilpailussa karvaasti neljännelle sijalle, kun Slovenian Tia Malovrh nousi hiihdossa pronssimitaliin kiinni.Korhosella ja 15-vuotiaalla Hirvosella on edessään pidempi tauko maailmancupin ympyröistä, sillä ensi viikolla Slovenian Planicassa järjestetään hiihtolajien nuorten MM-kilpailut. Pyeongchangissa ohjelmassa on vielä keskiviikon sekajoukkuekilpailu.Karppelin kiri pronssillePyeongchangissa juhlittiin maanantaina myös suomalaista maastohiihtomitalia, kun Nelli-Lotta Karppelin ylsi pronssille naisten vapaan hiihtotavan sprinttikilpailussa. Limingasta kotoisin oleva Karppelin taipui loppukirissä ruotsalaisvoittajalle Elsa Tänglanderille vain vajaalla puolella sekunnilla.– Oli tosi kiva hiihtää täällä: oli sellainen rata, joka sopi minulle. Siinä oli pitkä työpätkä ja (rata) oli aika pitkä sprintiksi, 17-vuotias Karppelin kertasi.Suomen joukkue on saavuttanut Etelä-Korean kisoista yhteensä neljä mitalia (kulta ja kolme pronssia).</t>
+          <t>Kuusamosta viime vuoden toukokuussa löydetty kivikautinen hirvenpääkirves on mitä todennäköisimmin tehty Kuusamon seudulla yli 4 000 vuotta sitten.Museoviraston amanuenssi Sami Raninen kertoo, että kirves on GTK:n tutkimusten mukaan kvartsiittia. Sitä esiintyy Kuusamon seudulla. Alkuperäinen oletus oli, että kirves olisi ollut samaa kivilajia kuin Säkkijärveltä 1900-luvun alussa löydetty metatuffiittinen kirves.Ranisen mukaan kirves osoittaa, että Kuusamossa eli yli 4 000 vuotta sitten hyvin taitavia kiven työstäjiä. Kvartsiitti on kova kivilaji, jonka työstäminen ei ole helppoa.– Se kertoo kivikauden ihmisen hämmästyttävistä kädentaidoista ja esteettisestä silmästä. Ja laajemmin siitä, että kulttuuri on ollut sellainen, että on ollut kiinnostusta näyttäviä esineitä kohtaan, Raninen kuvaa.– Esine on vaikuttava, sitä voi pitää taideteoksena.Voit tutkia hirvenpääveistosta Oulun Tietomaan 3D-mallinnuksesta.Avaa kuvien katseluKuusamon hirvenpää on rituaali- tai statusesineenä käytetyn kivikirveen hamarapuoli. Kuva: Museovirasto / Matti Kilponen, HelsinkiRanisen mukaan sinänsä ei ole yllättävää, että Pohjois-Suomessa on ollut varsin kehittynyt yhteiskunta jo 4 000 vuotta sitten.– Tällainen ajattelutapa, että pohjoinen olisi ollut periferiaa ja kaikki näyttävä olisi Etelä-Suomesta, ei esihistorian tutkimuksessa päde lainkaan.Kuuntele, kuinka kirveen löytänyt Raimo Virpi kertoi löytämästään kivikautisesta hirvenpääkirveestä viime kesänä.Raimo Virpi kertoo löytämästään kivikautisesta hirvenpääkirveestä</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1457,21 +1395,21 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Hallinto-oikeus kumosi Helsingin poliisin päätökset kieltää Elokapinan rahan­ke­räykset</t>
+          <t>Erosor­muksista ei aina luovuta – asiantuntijan mukaan katkeria tuntemuksia saatetaan vaalia maso­kis­tisesti</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071853</t>
+          <t>https://yle.fi/a/74-20067812</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Ympäristöliike Elokapinan aktivistit ovat voittaneet Helsingin poliisin hallinto-oikeudessa kiistassa rahankeräyksistä.Helsingin poliisi oli kieltänyt kaksi pienkeräystä, joilla oli tarkoitus kerätä rahaa Elokapinan aktivistien oikeudenkäyntikuluihin. Poliisi vetosi rahankeräyslain kohtaan, jonka mukaan keräystä ei saa järjestää selvästi yleistä järjestystä tai turvallisuutta vaarantavan tai lainvastaisen toiminnan rahoittamiseksi.Hallinto-oikeus katsoi, että keräysten ensisijainen tarkoitus oli kerätä rahaa yksityishenkilöiden oikeudenkäyntikuluihin, ei Elokapina-liikkeen toimintaan. Näin ollen se kumosi poliisin päätökset.</t>
+          <t>Kunnes kuolema meidät erottaa.Tilastot kuitenkin osoittavat, että Suomessa puolet avioliitoista päättyy kuoleman sijasta avioeroon.Kumppanuuden ja ikuisen liiton symboli, vihkisormus, voi eron jälkeen olla muisto kauniista ajoista tai karvas vertauskuva pettymykselle ja sirpaloituneille unelmille.– Esineisiin varastoituu muistia, vihkisormukseen erityisesti tunnemuistia, kertoo psykoterapeutti Marja Saarenheimo.Avaa kuvien katseluPsykoterapeutti Marja Saarenheimo on tutkinut ihmisen suhdetta esineisiin. Kuva: Jari Pussinen / YleAjan saatossa moni sormus unohtuu piirongin perälle, mutta säilytyspäätös voi olla myös aktiivista sorttia.– Jos ero on ollut sopuisa, voi haluta säilyttää sormuksen, koska siihen liittyy hyviä muistoja, Saarenheimo toteaa.Katkeran eron myötä sormus latautuu negatiivisilla tunteilla, mutta sekään ei automaattisesti ole syy hankkiutua siitä eroon.Saarenheimon mukaan jotkut haluavat kaikesta huolimatta pitää sormuksesta kiinni ja masokistisesti vaalia katkeria tuntemuksiaan.– Me ihmiset ollaan tällaisia. Ei me välttämättä haluta luopua jostain, joka herättää meissä paljon negatiivisia tunteita, vaan me ryvetään siinä.Moni vihkisormus päätyy panttilainaamoon tai romukullaksi.Erosormuksia kiikutetaan myös panttilainaamoihin, kertoo Helsingin Pantin konttorinjohtaja Roope Sipilä.– Kyllä niitä useita tulee ihan päivittäin.Myös koruseppä Tom Antell kertoo ostavansa vihkisormuksia asiakkailtaan.Sormuksen myyminen voi olla kylmän laskelmoitu vihanpurkaus, psykoterapeutti Marja Saarenheimo arvioi.– Ainakin siitä saa rahaa, vaikka mitään muuta ei jäisikään.Paljonko?Panttilainaamo maksaa sormuksista oman arvionsa mukaan, koruseppä Tom Antell jalometallin markkina-arvon perusteella. Jalokivistä maksetaan erikseen.Helsingin Pantin Roope Sipilä arvioi heille saapuvien sormusten keskiarvoksi 150–500 euroa. Antell kertoo, että hänen ostamissa sormuksissa liikutaan 1000–1500 euron haitarissa.Silloin tällöin myytäväksi tuodaan myös poikkeuksellisen arvokkaita erosormuksia.– Joskus sanotaan suoraan, että ero tuli, toteaa kultaseppä Tom Antell.Jokainen sormus kantaa tarinaaVihkisormus on enemmän kuin pelkkä esine.Sillä on paitsi valtava vaikutus identiteettiin, se on myös muistojen tallentaja ja tarinoiden kantaja.Toisinaan ihmisillä on tarve jakaa oman erosormuksensa tarina.– Kaikkiin koruihin liittyy tunnetiloja. Joskus ne on positiivisia, joskus ei niin positiivisia, mutta kyllä niitä meille välillä kerrotaan, toteaa Roope Sipilä Helsingin Pantista.Kultaseppä Tom Antell vahvistaa, että osa ihmisistä haluaa kertoa myyntipäätöksen taustat.– Joskus sanotaan suoraan, että ero tuli.Tapa, jolla sormuksesta luovutaan, voi kuvastaa luopujan persoonallisuutta.Luopuminen voi olla myös rituaaliTemperamenttiselle ihmiselle myyminen ei välttämättä tuo riittävää tyydytystä. Silloin sormuksen voi tuhota tai hävittää rituaalinomaisesti.– Kiivasluontoinen ihminen saattaa haluta päästä sormuksesta eroon hyvin dramaattisella tavalla, vaikka heittämällä sen järveen. Se on myymistä impulsiivisempi teko ja kuvastaa luopujan persoonallisuutta, psykoterapeutti Marja Saarenheimo toteaa.Järveäkin dramaattisempi vesistö löytyy lähes jokaisesta kodista.Helsingin seudun ympäristöpalveluista vahvistetaan, että jotkut hävittävät sormuksen wc-pönttöön.– Kyllä on tullut puhelinsoitto tai ehkä jokunen. On ollut riitaa henkilöiden välillä, sitten on sormus heitetty vessanpönttöön ja seuraavana päivänä on harmittanut, kertoo HSY:n tuotantopäällikkö Marina Graan.Viikinmäen jätevedenpuhdistamon ”leluhyllyyn” on kerätty jäteveden seasta paitsi purukalustoa......myös peräkalustoa.Jäteveden seasta löytyy kaikenlaista pikkutavaraa kännyköistä tekohampaisiin ja lasten leluista aikuisten leluihin, joista osa on päätynyt Viikinmäen jätevedenpuhdistamon vitriiniin näytille.Sormuksia jäteveden seasta ei ole löytynyt.– Meillähän on isot viemäritunnelit. Ne on monta metriä leveät, niin niihin johonkin rakosiin on varmaan jäänyt. Tai sitten sormus on päätynyt tämän trasselimönjän joukkoon, ja sitten se menee tuonne voimalaitokselle polttoon, Graan avaa.Katso Puoli seiskan tv-juttu erosormusten erilaisista kohtaloista.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1485,571 +1423,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Histo­rial­linen hetki: Suomessa tehtiin aamulla tuuli­voi­maen­nätys</t>
+          <t>Juha Kauppisen kolumni: Jos luontokato on vakava asia, miksi eliitti keskustelee siitä vain ylätasolla?</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071820</t>
+          <t>https://yle.fi/a/74-20070391</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Kantaverkkoyhtiö Fingrid kertoi aamulla historiallisesta hetkestä: tuulivoima saavutti maanantaina klo 7.14 ensimmäistä kertaa yli 6 000 megawatin tehon.Ennätysmäärää eli 6070 megawatin tehoa tuli tosin vain hetken. Klo 7-8 välisen tunnin keskiarvo oli silti kova eli 5940 megawattia.– Kyllä, ennätys tuli. Koko maassa tuulee nyt aika kovaa ja se on saatu hyvin käyttöön. Enää eivät ole vaivanneet jäätymisongelmat kuin vielä viikonloppuna, sanoo valvomopäällikkö Arto Pahkin Fingridiltä.Tuulivoima on ylittänyt aamupäivällä selvästi ydinvoiman tuotannon, joka on ollut noin 4370 megawattia.Suomessa on myös tuotettu sähköä selvästi enemmän kuin kulutetaan. Esimerkiksi klo 10.23 Suomen kulutus oli noin 11 800 megawattia ja tuotanto runsaat 13 000 megawattia.Sähköä on viety naapurimaihin kuten Viroon, mutta olisi viety enemmänkin. Virossa sähkön hinta on nimittäin nyt selvästi korkeampi kuin Suomessa. Se olisi alhaisempi, jos vikaantunut sähkökaapeli Estlink 2:n olisi käytössä.– Onhan se harmi, kun eurooppalaisessa sähkömarkkinassa ollaan. Saataisi vietyä sähköä sinne missä se on kalleinta ja tasattua näin hintapiikkejä. Estlink 2:n vikaantumisen takia vientimahdollisuudesta puuttuu 650 megawattia Viron suuntaan, sanoo Pahkin.Maanantain ennätystuotannosta huolimatta uusiakin tuotantoennätyksiä voi vielä tulla. Suomen Tuulivoimayhdistyksen mukaan Suomessa on nyt 1601 tuulivoimalaa, joiden yhteenlaskettu teho on 6 946 megawattia (MW).</t>
+          <t>KolumniKolumneja kirjoittaa laaja joukko Ylen ulkopuolisia tekijöitä.Lue kolumneja
+Kuuntele kolumneja Yle AreenassaOsallistuin äskettäin finanssialan luontohuippukokoukseen Helsingissä. Oli hienoa kuulla eliitin puhuvan luonnon puolesta.Pääministeri Petteri Orpo (kok.) avasi tilaisuuden. Yhdysvaltalaisen jättipankki JPMorgan Chasen asiantuntijan johdolla todettiin, että luontokato on vakava uhka taloudelle. Asian kiteyttivät kokouksen jälkeen Helsingin Sanomien vieraskynäkirjoituksessa finanssialan ja elinkeinoelämän nokkamiehet: ”Taloutemme on täysin riippuvainen luonnosta.”Luonnon tuhlaamista pitäisi suitsia. Ekosysteemien hävittämisen pitäisi olla niin kallista, että siitä tulisi kannattamatonta. Mutta mikä on luonnon tuhlaamista? Kunnolliset mittarit puuttuvat, kokouksessa todettiin.Tämä on osin totta. Ilmaston kuumenemisen ongelma on paperilla helpompi: tiedetään tarkkaan, paljonko päästöjä pitää leikata, jotta pysytään alle 1,5 asteessa. Luonnon näivettämiselle tällaista yhtä lukua ei ole. Mittareita toki on, jos niitä haluaa lukea.Luontokato on paikallinen ilmiö. Se on ratkaistava siellä, missä se aiheutetaan. Luontokato, monimuotoisuuden katoaminen, aiheutuu globaalisti pääosin ekosysteemien raivaamisesta ja luonnonvarojen intensiivisestä käytöstä, kertovat YK, kansainvälinen Luontopaneeli ja vertaisarvioidut tutkimukset.Luontokato on paikallinen ilmiö. Se on ratkaistava siellä, missä se aiheutetaan. Suomi on metsien maa. Täällä merkittävä osa luontokadosta tapahtuu metsissä isoin hakkuin.Puolet Suomen maapinta-alasta on metsiä, lajistosta puolet metsälajeja. Eniten lajien uhanalaisuutta on synnyttänyt avohakkuumetsätalous muokkaamalla metsiä. Tämä on heikentänyt metsäekosysteemien toimintaa.Ekosysteemit kierrättävät ravinteita, varastoivat hiiltä ja puhdistavat vettä. Niiden toiminta perustuu lajien vuorovaikutussuhteille. Monimuotoinen ekosysteemi toimii tehokkaasti. Suuri määrä vuorovaikutussuhteita tuo vakautta. Rikkaat ekosysteemit syntyvät usein hitaasti.Istutusmetsät ovat köyhdytettyjä, heikennettyjä ekosysteemejä, epävakaampia kuin luonnonmetsät. Istutusmetsästä puuttuu luonnonmetsän olemus, esimerkiksi eri-ikäisten elävien ja kuolleiden puiden jatkumo, puuston keskeinen piirre. Sen myötä puuttuu suuri joukko muita lajeja. Istutusmetsät ovat köyhdytettyjä, heikennettyjä ekosysteemejä, epävakaampia kuin luonnonmetsät. Elämämme niiden katveessa on epävarmempaa.Paitsi meidän ”kotiekosysteemimme”, Suomen metsät ovat tulonlähde sadoilletuhansille metsänomistajille ja osa kansantaloutta.Siksi syntyy kiistoja. Suojelu törmää talouteen. Leivotaan kompromisseja. Tappiolle jää se, joka ei osaa puhua: luonto. Metsäekosysteemien heikkeneminen jatkuu.Yksityismetsissä koko luontokadon katkaisemisen työkalu on eräänlainen kompromissi: omistajat tarjoavat metsiä METSO-ohjelmaan, jos huvittaa. Ei siis suojella ekologisesti arvokkaimpia metsiä ja korvata niitä metsänomistajille, vaan suojelu on vapaaehtoista.Siksi METSO:lla on kyllä hyvä maine, mutta iso tavoite, metsälajiston ja luontotyyppien taantumisen katkaiseminen, ei ole lähelläkään toteutumista. Ohjelma tarvitsisi lisärahaa, mutta rahoitusta leikataan.Valtion metsissä luontokadon katkaiseminen on asemasotaa. Nyt, kun vanhat metsät pitää suojella EU:n biodiversiteettistrategian myötä, laaditaan kriteereitä sille, mikä on vanha metsä.Arviointityöhön osallistuva Suomen ympäristökeskuksen biologi kertoi äskettäin Helsingin Sanomissa poliittisen paineen olevan ”yllättävän kova”. ”Tietyt tahot” haluavat kriteereistä mahdollisimman tiukat.Nurin päätyisi metsiä, joissa on vielä rikas metsäekosysteemi.Näin mahdollisimman suuri osa metsistä määriteltäisiin joksikin muuksi kuin vanhoiksi ja ne voitaisiin hakata. Nurin päätyisi metsiä, joissa on vielä rikas metsäekosysteemi.Luontokato jatkuisi.Ei ole yhdentekevää, mitä talouseliitti sanoo luonnosta. Eliitti vaikuttaa siihen, kuinka tärkeänä luonto nähdään.Asioita on monenlaisia. Liikuntaa pitää harrastaa ja vihanneksia syödä. Nämä ovat suosituksia. Orjatyövoimaa ei saa käyttää, eikä ketään murhata. Nämä ovat määräyksiä.Mihin luontokadon katkaiseminen asettuu? Suositeltavaa vai välttämätöntä?”Taloutemme on täysin riippuvainen luonnosta”, kirjoittivat talousmiehet.Kuulostaa tärkeältä. Ja hyvä, että luontokadon katkaisemista vaaditaan ylätasolla. Mutta se ei riitä. Tarvitaan konkretiaa, esimerkiksi painokasta puhetta metsien suojelun tärkeydestä. Se olisi luontevaa, kun kerran luontokato on vakava uhka.Valta on koko ajan kaikkialla. Keskustelukenttä on auki! Jos vaikka joku haluaisi vaikuttaa historian kulkuun. Valta on koko ajan kaikkialla. Konttoreissa on ihmisiä, jotka etsivät rohkeutta tehdä kirjauksia, joilla luontokato katkaistaisiin. He arvostaisivat tukeasi.Juha KauppinenKirjoittaja on kirjailija ja biologi.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
-        <is>
-          <t>Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>40</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Grafiikka näyttää, miksi Haaviston nousu kakkossijalta presidentiksi olisi histo­rial­linen</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20071779</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>
-</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>41</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Tulevan presidentin puoliso on ensimmäistä kertaa ulko­maa­lais­taus­tainen</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20071782</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Suomen seuraavan presidentin puoliso on ensimmäistä kertaa ulkomaalaistaustainen.Toiselle kierrokselle nousseiden kokoomuksen ehdokkaan Alexander Stubbin sekä kansalaisliikkeen ja vihreiden tukeman Pekka Haaviston puolisot ovat molemmat syntyneet ulkomailla.Stubbin puoliso Suzanne Innes-Stubb on englantilainen. Hän on syntynyt Solihullissa. Haaviston puoliso Antonio Flores on ecuadorilainen. Hän on syntynyt Esmeraldasissa.Puolisoilla voi olla merkitystä toisella kierroksellaToisen kierroksen äänestyspäätöksissä myös puolisot voivat olla ratkaisevassa roolissa, pohdittiin illan vaalilähetyksessä.Puolisolla ei ole lakiin kirjoitettua virallista roolia, mutta hänellä on paljon edustustehtäviä. Molempien kärkiehdokkaiden puolisot ovat todenneet pohtineensa, millaisen roolin ottaisivat tulevassa asemassaan valtionjohtajan rinnalla ja maan ykköspuolisona.– Osalla voi nousta harkintaan, voiko puolisona olla homoseksuaali. Voiko presidenttipari olla homopari heteroparin sijaan. Tämä ei ollut kampanjoinnin keskiössä, mutta tätäkin asiaa saattaa moni äänestäjä miettiä, totesi Ylen politiikka- ja yhteiskuntatoimituksen päällikkö Paula Pokkinen.Toisaalta Pokkinen katsoo, että Haaviston etuna saatetaan pitää myös sitä, että hän uskaltaa olla oma itsensä. Se voi olla myös etu Suomen maakuvalle joissakin asioissa.Vaalikampanjoinnin uskotaan kuitenkin säilyvän maltillisina ja kaikkia osapuolia kunnioittavana myös toisella kierroksella.Molemmat pitäisivät esillä perheiden asioitaEnnen vaaleja Suzanne Innes-Stubb toivoi, että hän voisi presidentin puolisona näyttää, kuinka paljon Suomi hänelle merkitsee.Erityisesti hän haluaisi puolisona edistää perheiden hyvinvointia, ehkäistä syrjäytymistä ja tuoda ihmisiä yhteen musiikin ja urheilun avulla.– Lisäksi haluaisin osallistua lähisuhdeväkivallan vastaiseen työhön, Innes-Stubb sanoi.Antonio Flores puolestaan kertoi ennen vaaleja haluavansa presidentin puolisona edistää lasten ja nuorten asiaa.– Suomessa on paljon apua tarvitsevia lapsia ja nuoria. On tärkeää, että lapset saavat koulutusta, heillä on koti ja rakkautta, Flores totesi.</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>42</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Vaalien tulos kertoo ainakin neljästä ilmiöstä</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20071725</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Presidentinvaalien ensimmäinen kierros päättyi ennakko-odotusten mukaisesti. Gallupkyselyiden kärjessä keikkuneet kokoomuksen ehdokas Alexander Stubb ja valitsijayhdistyksen ehdokas, vihreiden Pekka Haavisto jatkavat rinta rinnan vaalien toiselle kierrokselle. Heistä toinen saa täyttääkseen kaksi kautta istuneen tasavallan presidentti Sauli Niinistön saappaat.Vaikka vaalien ensimmäisen kierroksen lopputulos ei tuonut merkittäviä yllätyksiä, vaalitulos kertoo kuitenkin ainakin neljästä asiasta.1. Äänet keskittyvät kärkiehdokkaillePresidentinvaaleissa gallupkyselyt ovat yleensä pitäneet hyvin kutinsa. Vaaliasetelma muotoutui jo varsin varhaisessa vaiheessa kahden kamppailuksi.Ilmiö ruokkii itseään. Puhutaan niin sanotusta voittajan vankkurit -ilmiöstä, jossa kannatusmittaukset ohjaavat äänestäjien käyttäytymistä.Ylen kannatuskyselyissä Stubb ja Haavisto ovat pitäneet lokakuusta alkaen tiukasti kiinni kärkipaikoista.Lokakuussa Stubbia kannatti kantansa ilmoittaneista 22 prosenttia ja Haavistoa 29 prosenttia. Sittemmin Stubb paahtoi Haaviston ohi. Tuoreimmassa kannatuskyselyssä Stubbin kannatus oli 27 prosenttia ja Haaviston 23 prosenttia.Vaaleissa Haavisto keräsi Ylen kyselyä kovemman kannatuksen.
-Ainoastaan perussuomalaisten Jussi Halla-aho onnistui viime metreillä kirimään kärkeä kiinni. Halla-ahon kannatus nousi lokakuun kahdeksasta prosentista tuoreimman kannatusmittauksen 18 prosenttiin. Noste ei kuitenkaan riittänyt siivittämään Halla-ahoa kisassa toiselle kierrokselle.Presidentinvaaleissa tulos oli kuitenkin perussuomalaisille puolueen historian paras.
-2. Taktinen äänestäminenTiiviisti äänten keskittymiseen kytkeytyvä ilmiö on niin sanottu taktinen äänestäminen. Ilmiö on varmasti heijastunut presidentinvaalien tulokseen.Taktikointia voidaan käyttää siten, että omaa ääntä ei anneta ensisijaiselle ehdokkaalle vaan jollekin kärkiehdokkaista. Tavoitteena on estää jonkin tietyn ehdokkaan pääsy toiselle kierrokselle. Asiantuntijat ovat painottaneet, että taktisessa äänestämisessä ei ole mitään väärää, vaan oikeus äänestää myös jotakin vastaan kuuluu demokratiaan.Voimakkaimmin tämä näkyy vasemmiston kannattajien järjestäytymisestä Haaviston taakse. Haaviston taakse asettui paljon vasemmistoliiton ja SDP:n kannattajia. Vasemmistoliiton ehdokkaan Li Anderssonin ja SDP:n ehdokkaan Jutta Urpilaisen yhteenlaskettu kannatus jäi alle kymmeneen prosenttiin.3. Suomalaiset lähtivät uurnille – laiskasti alkaneesta vaalitaistosta huolimattaVaalikampanjoinnin aikana etenkin kärkiehdokkaiden välisiä eroja sai etsiä suurennuslasin kanssa. Tämä ei kuitenkaan syönyt kansalaisten äänestysintoa. Ennakkoäänestys oli ennätysvilkasta, ja äänensä kävi antamassa ennakkoon 44,6 prosenttia äänioikeutetuista.Esimerkiksi tiukan ehdokasasetelman on arvioitu voineen vaikuttaa äänestyshaluihin.Suomalaisten äänestysaktiivisuus kipusi vaalien ensimmäisellä kierroksella 74,9 prosenttiin. Aktiivisimmin äänioikeutetut äänestivät Helsingin vaalipiirissä, jossa äänestysprosentti oli 78,5. Manner-Suomen matalin äänestysaktiivisuus oli Savo-Karjalan vaalipiirissä, 71,8 prosenttia.Äänestysaktiivisuus oli kuitenkin kaikissa vaalipiireissä korkeampi kuin viime presidentinvaalissa. Vuoden 2018 vaalissa kotimaan äänestysprosentti jäi 69,9 prosenttiin.4. Toisesta kierroksesta voi tulla tiukkaEnsimmäisellä kierroksella Stubbin ja Haaviston äänisaaliiden ero oli pieni, alle 50 000 ääntä. Haavisto lähtee vaalien toiselle kierrokselle altavastaajan asemasta.Kärkiehdokkailla on nyt täysi työ houkutella taakseen niitä äänestäjiä, jotka eivät äänestäneet heitä ensimmäisellä kierroksella.Esimerkiksi valitsijayhdistyksen ja keskustan ehdokkaan Olli Rehnin äänipotin jakautuminen toisella kierroksella on kiinnostavaa. Sama pätee myös muun muassa perussuomalaisten Halla-ahon kannattajien äänten jakautumiseen. Rehn ja Halla-aho kahmaisivat vaalien ensimmäisellä kierroksella annetuista äänistä yli kolmanneksen.Stubb ja Haavisto eivät ole kampanjoinnissaan tuoneet esiin merkittäviä linjaeroja esimerkiksi ulko- ja turvallisuuspolitiikassa. Kyseessä on kuitenkin henkilövaali, joten presidenttiehdokkaan persoonallakin on merkitystä.Vaalien toisella kierroksella ehdokkaiden täytyy pystyä vakuuttamaan äänestäjät omasta paremmuudesta presidentin pestiin.Pian nähdään, kuinka he siinä onnistuvat.
-Presidentinvaalien toisen kierroksen ennakkoäänestys alkaa ensi keskiviikkona. Ennakkoäänestysaika päättyy 6. helmikuuta. Vaalipäivä on sunnuntai 11. helmikuuta.Korjattu 29.1. klo 8.14: Manner-Suomen matalin äänestysaktiivisuus oli Savo-Karjalan vaalipiirissä, ei Lapin vaalipiirissä.</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>43</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Jukka Jalonen arvostaa Patrik Laineen ratkaisua: ”Silloin on tosi kyseessä”</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20071906</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Columbus Blue Jacketsin suomalaishyökkääjä Patrik Laine kertoi Instagram-tilillään hakeutuneensa NHL-pelaajien tukiohjelmaan mielenterveyteen liittyvien syiden takia.– Jääkiekko on ollut intohimoni ja elämäni, mutta pystyäkseni pelaamaan parhaalla tasollani minun on otettava aikaa itselleni, Laine muun muassa totesi.Laineen kahdeksan vuoden takaisten nuorten MM-kisojen kautta tunteva Suomen miesten jääkiekkomaajoukkueen päävalmentaja Jukka Jalonen antaa arvoa suomalaispelaajan rohkeudelle hakea apua.– Jos lähtee hoito-ohjelmaan mukaan, silloin ollaan oikeilla jäljillä ja on tosi kyseessä. Hieno homma, että hän on tällaiseen ratkaisuun päätynyt. Jos on kokenut, että on jotain ongelmia, on hyvä laittaa ne kuntoon.– Jääkiekko on vain jääkiekkoa. Muu elämä on kuitenkin tärkeämpää, Jalonen lisää.Viime vuosina monet huippu-urheilijat ovat kertoneet avoimesti mielenterveydellisistä haasteistaan. Niin myös jääkiekkoilijat.Jalonen on mielissään suuntauksesta.– Erittäin tärkeä asia, sillä ongelmia on mielenterveyspuolellakin. Niitä voi olla ihan kaikilla ihmisillä riippumatta siitä, mitä tekee toimeentulonsa eteen.– Se vaatii rohkeutta, mutta uskon, että se antaa myös mahdollisuuden olla rohkea ja mennä esimerkiksi rohkeasti hoitoon. Se varmasti auttaa sitten siviilielämässä ja omassa ammatissa jatkossakin.Tukiohjelmassa olevat pelaajat saavat palkkaa tavalliseen tapaan. Sinne on ohjattu esimerkiksi erilaisista riippuvuksista tai mielenterveysongelmista kärsiviä pelaajia.Laine on pelannut viimeksi puolitoista kuukautta sitten.Mikä on NHL:n pelaajien tukiohjelma?NHL:n ja sen pelaajayhdistyksen NHLPA:n tukiohjelma on tarkoitettu pelaajille ja heidän perheilleen, jotka kamppailevat esimerkiksi päihde- tai mielenterveysongelmien kanssa.Ohjelma antaa pelaajille esimerkiksi luottamuksellisen puhelinsoittolinjan ja tukiohjelman ohjaajia on jokaisessa liigakaupungissa.Pelaajalle ei ole asetettu aikaa, joka hänen tulee viettää ohjelmassa. Pelaaja ei kuitenkaan voi poistua ohjelmasta ennen kuin sitä vetävät ihmiset ovat antaneet siihen luvan.Pelaajien yksityisyys on ohjelman ydin, joten tapahtumista tai syistä liittyä ohjelmaan ei kerrota julkisuuteen. Urheilijat voivat kuitenkin itse halutessaan kertoa asiasta.Tukiohjelma perustettiin vuonna 1996.</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>44</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Patrik Laine kertoi syyn NHL:n tukiohjelmaan hakeu­tu­miselle: ”Minun on laitettava mielen­ter­veyteni etusijalle”</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20071795</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Eilen uutisoitiin Patrik Laineen hakeutuneen NHL-pelaajien tukiohjelmaan. Suomen aikaa viime yönä Laine kertoi Instagram-tilinsä stories-osiossa syyn ratkaisulleen. Hän sanoi tarvitsevansa tauon jääkiekosta.– Tarkan harkinnan ja joukkueen sekä tukiverkostoni kanssa käymien keskustelujen jälkeen, olen ymmärtänyt, että minun on laitettava mielenterveyteni sekä hyvinvointini etusijalle, Laine kirjoitti.– Jääkiekko on ollut intohimoni ja elämäni, mutta pystyäkseni pelaamaan parhaalla tasollani minun on otettava aikaa itselleni.Laine on pelannut tällä kaudella 18 ottelua ja tehnyt tehopisteet 6+3. Laitahyökkääjä on edustanut Columbusta vuodesta 2020 saakka ja tehnyt 174 ottelussa 138 tehopistettä.Tehopisteiden valossa Laineen paras kausi on hänen toinen NHL-kautensa Winnipegissä, jolloin hän laukoi 44 maalia ja keräsi 26 pistettä.Avaa kuvien katseluLaine (vas.) loukkasi solisluunsa tässä tilanteessa joulukuussa. Kuva: John E. Sokolowski-USA Today Sports/All Over PressLaine ei kertonut tarkempaa aikataulua prosessilleen. Hän kiitti seurayhteisöä ymmärryksestä.– Olen kiitollinen ymmärryksestä ja tuesta liigalle, seuralle sekä faneillemme. Odotan paluuta jäälle kirkkaalla mielellä ja uudella energialla, Laine totesi tilillään.– Kiitos, että kunnioitatte yksityisyyttäni tänä aikana ja tuette minua, Laine päätti.Tukiohjelmassa mukana olevat pelaajat saavat palkkaa tavalliseen tapaan. NHL:n ja pelaajayhdistyksen tukiohjelmaan on ohjattu esimerkiksi erilaisista riippuvuuksista tai mielenterveysongelmista kärsiviä pelaajia.Mikä on NHL:n pelaajien tukiohjelma?NHL:n ja sen pelaajayhdistyksen NHLPA:n tukiohjelma on tarkoitettu pelaajille ja heidän perheilleen, jotka kamppailevat esimerkiksi päihde- tai mielenterveysongelmien kanssa.Ohjelma antaa pelaajille esimerkiksi luottamuksellisen puhelinsoittolinjan ja tukiohjelman ohjaajia on jokaisessa liigakaupungissa.Pelaajalle ei ole asetettu aikaa, joka hänen tulee viettää ohjelmassa. Pelaaja ei kuitenkaan voi poistua ohjelmasta ennen kuin sitä vetävät ihmiset ovat antaneet siihen luvan.Pelaajien yksityisyys on ohjelman ydin, joten tapahtumista tai syistä liittyä ohjelmaan ei kerrota julkisuuteen. Urheilijat voivat kuitenkin itse halutessaan kertoa asiasta.Tukiohjelma perustettiin vuonna 1996.AvaaLaineen kausi on ollut tynkä, sillä hän sai solisluuvamman 14. joulukuuta ottelussa Torontoa vastaan. Hän palasi joukkueen harjoituksiin 19. tammikuuta. Päävalmentaja Pascal Vincent paljasti ennen sunnuntain Vancouver-ottelua, että Laineen solisluuvamman kanssa on tullut takapakkia eikä hän pysty vielä pelaamaan.Laine on pelannut viimeksi joulukuun puolivälissä.</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>45</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Lehti: EU uhkaa iskeä Unkarin talouteen, jos Orbán estää avun Ukrainalle</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20071814</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>EU:ssa on laadittu suunnitelma Unkarin talouteen iskemisestä, jos maa estää avun Ukrainalle tällä viikolla järjestettävässä huippukokouksessa. Salaisesta suunnitelmasta kirjoittaa The Financial Times -lehti.Lehden näkemissä dokumenteissa EU:n virkamiehet ovat hahmotelleet, miten Unkarin taloudellisiin heikkouksiin iskettäisiin. Tarkoituksena on muun muassa viedä sijoittajien luottamus ja näin heikentää Unkarin valuuttaa, työllisyyttä ja kasvua. Suunnitelma pantaisiin täytäntöön, jos Unkari edelleen estää Ukrainan tukemisen.Unkarin itsevaltainen pääministeri Viktor Orbán esti EU:n 50 miljardin euron tukipaketin Ukrainalle joulukuussa. Muut maat olisivat hyväksyneet tukipaketin, mutta paketin hyväksyminen olisi vaatinut yksimielisyyden.Jos Orbán ei peräänny tämän viikon huippukokouksessa asiassa, suunnittelee EU Unkarin rahoittamisen keskeyttämistä. EU ei kommentoinut vuotoa The Financial Timesille.Taipuuko Unkari?Ilman rahoitusta finanssimarkkinat ja kansainväliset yhtiöt voisivat menettää kiinnostustaan sijoittaa Unkariin, suunnitelmassa todetaan. Dokumentin mukaan Unkarin julkinen talous on erittäin alijäämäinen, inflaatio on korkea ja valuutta heikko. Myös maan lainanhoitokulut ovat EU:n korkeimmat.Unkarin EU-ministeri János Bóka sanoi The Financial Timesille, ettei Unkari ole tietoinen EU:n talousuhkasta, mutta että maa ei aio antaa periksi.Bókan mukaan Ukrainan tukemisella ja Unkarin saamalla EU-rahoituksella ei ole yhteyttä.Unkari on kuitenkin lähettänyt kompromissiesityksen Brysseliin lauantaina, jonka mukaan se olisi nyt valmis käyttämään varoja EU:n budjetista Ukrainan tukemiseen.</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>46</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Mikael Lahtinen kuntoilee työajalla tunnin joka päivä – sairaus­lomalla hän ei ole ollut kohta kolmeen vuoteen</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20071078</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Punaiset köydet viuhuvat kuin piiskat.Mikael Lahtinen, 26, tiristää vielä muutaman vedon ja hengähtää. Kesken työpäivän tehdyn salitreenin jälkeen työpöydän ääreen palaa mies, jolla on tuoreita ideoita.– On taas tarmoa tehdä asioita. Sellainen hyvällä tavalla kaoottinen olo, Lahtinen toteaa hymyillen.Turkulainen mainostoimisto Tagomo tarjoaa työntekijöilleen mahdollisuuden liikuntaan jokaisena työpäivänä. Työajalla saa liikkua päivittäin tunnin ajan.Mainostoimiston tarkoituksena on muuttaa työntekokulttuuria.– Uskon, että suomalaisilla yrittäjillä on mahdollisuus ottaa haaste harteilleen. Yhteiskunta voi huonommin kuin koskaan. Siitä puhutaan paljon. Puheiden aika on ohi, nyt tarvitaan tekoja, sanoo yrittäjä Petri Elovaara.Elovaara voi seistä ryhdikkäänä sanojensa takana, sillä liikuntaetu on ollut osana hänen yrityksensä arkea jo viiden vuoden ajan. Tulokset puhuvat puolestaan.Tunti liikkumista lisäsi työtehoa hurjastiYrittäjä Petri Elovaara rämpi läpi loppuunpalamisen vajaa kymmenen vuotta sitten. Liiallinen työnteko ja liikkumisen vähyys johtivat tilanteeseen, jossa oli pakko havahtua hyvinvoinnin tärkeyteen.– Vuonna 2018 päätimme kokeilla liikunnan merkitystä. Jotkut olivat innoissaan, toiset sanoivat, ettei kiinnosta. Pidimme päämme siinä, että testataan kolme kuukautta ja tarvitsemme kaikkia, jotta saamme relevanttia dataa.Oli ohjattua liikuntaa, hikiliikuntaa ja steppaamista portailla.Kun oli liikuttu joka keskiviikko kolmen kuukauden ajan, mainostoimistossa mitattiin vaikutuksia seuraamalla työmääriä, myyntilukuja, tuotannon tehokkuutta ja sisällöntuotantoa.– Keskiviikkopäivät, vaikka olivat tunnin lyhyempiä, olivat 152 prosenttia tehokkaampia. Se on valtava lukema. Totesimme, että tämä on vain kotiinpäin. Annoimme ihmisten harrastaa liikuntaa joka työpäivä.Nyt liikuntaetua käyttää yrityksen työntekijöistä aktiivisesti alle puolet. Osa liikkuu silloin tällöin.Yrittäjä Petri Elovaara uskoo, että työntekijöiden hyvinvointiin satsaaminen maksaa jokaisen euron takaisin moninkertaisesti. Liikunnalliselle Mikael Lahtiselle kuntoilu työpäivän aikana on isompi juttu henkisesti kuin fyysisesti.– Sairauspoissaoloja on kahden ja puolen vuoden ajalta nolla. Omasta näkökulmastani tämä on työnantajalle hyvä investointi.Lahtinen pohtii työnantajan saavan paljon sitoutuneemman, hyvinvoivemman ja terveemmän työntekijän. Samalla hän itse palautuu ja jaksaa paremmin.Mikael Lahtinen yrittää ajoittaa liikunnan ennen lounasta tai heti sen perään. Tiiminjohtajana hän haluaa olla roolimalli ja ilahtuu saadessaan työkavereista seuraa lenkille tai salille.– Kävelylenkit tekevät myös hyvää. Etätöissä, kun pää jumittaa, koiran kanssa ulkoilu tekee ihmeitä.Avaa kuvien katseluRauta nousee ja pää nollaantuu, kun Mikael Lahtinen käy kuntosalilla kesken työpäivän.  Kuva: Arttu Kuivanen / YleAjattelutapa vaatii muutostaJopa 95 prosenttia työnantajista tukee työntekijöidensä liikkumista, selviää työikäisten liikkumista tukevan Liikkuva aikuinen -ohjelman tekemästä tutkimuksesta.Tutkimuksen mukaan työnantajan tarjoamat liikuntasetelit ja kuntosalikortit lisäävät työhyvinvointia, mutta rahallinen liikuntaetu jää käyttämättä kolmasosalta palkansaajista.Liikuntalääketieteen erikoislääkäri Harri Helajärvi Paavo Nurmi -keskuksesta ei pidä liikuntaseteleitä tai kuntosalikortin tarjoamista vääränä tapana lisätä liikkumista. Aina se ei kuitenkaan riitä.– Tätä pitäisi ajatella perinteisen lähestymistavan ulkopuolelta. Olisi mietittävä, mikä toimii juuri meidän työyhteisössämme ja mikä olisi erilaisille työntekijöille sopivaa ja innostavaa liikkumista, Helajärvi sanoo.Liian vähäisen liikunnan terveyshaitoista on puhuttu pitkään. Sen sijaan vaikutukset pitkällä aikavälillä voivat yllättää.Ennusteen mukaan 2040-luvulla 50-vuotiaista miehistä vain kaksi prosenttia on hyvässä kunnossa, jos nykyinen kehitys jatkuu.Työpaikalla on suuri rooli siinä, miten ihmiset saadaan liikkumaan.– Liikuntaa ja liikettä tukevan kulttuurin lisääminen työpaikalla kasvattaa usein työntekijän liikuntaa myös vapaa-aikana. Oikein toteutettuna se voi motivoida ja sitouttaa työntekijöitä, Helajärvi toteaa.Suomessa ollaan kuitenkin jo nyt muuta maailmaa edellä.– Se, että työajalla voi liikkua, on vielä hyvin erikoista muualla Euroopassa, toteaa liikunnan aluejärjestö LiikUn aluejohtaja Jukka Läärä.</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>47</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Suomen hiihtäjien surkeus hämmästyttää – Aino-Kaisa Saarinen tarjosi loogisen syyn ja ihmetteli tähden kommentteja</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20071738</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Mikä puhuttaa?Suomalaisten huonous vapaalla hiihtotavalla nousi taas esiin, kun hiihdon maailmancupissa Gomsissa kilpailtiin suomalaisittain heikommalla tavalla viikonloppuna.Yle Urheilun asiantuntija Aino-Kaisa Saarinen joutui jatkuvasti sunnuntaina selittämään Urheilustudion chatissa katsojille suomalaisten surkeutta.Saarinen näkee asian monisyisenä, mutta nostaa esiin yhden asian.– Vapaa hiihtotapa vaatii jalkojen lihaskestävyydeltä todella paljon. Sen kanssa pitäisi varmasti tehdä töitä todella rajusti. On varmasti tehtykin, mutta jotain siihen pitäisi keksiä, Saarinen sanoo.Toisaalta jalkojen lihaskestävyys kuulostaa maallikon korviin aika yksinkertaiselta asialta korjata. Saarinen muistuttaa, että näin ei välttämättä ole isossa kuvassa.– Ruotsista, Norjasta ja Keski-Euroopasta löytyy vuoria ja etenkin pitkiä nousuja. Kyseisten maiden hiihtäjät ovat nuoresta pitäen nousseet sellaisia, Saarinen arvioi.15-kertainen arvokisamitalisti muistuttaa, että kyseessä on silti vain hänen spekulaationsa.– Maajoukkueurheilijat pääsevät Keski-Eurooppaan ja pitkiin nousuihin, mutta onko kyse jo nuoruuden ajan ongelmista? Lapsena ja nuorena ei ole mahdollista päästä kehittämään samalla lailla lihaskestävyyttä, kun Suomessa ei ole vuoria, Saarinen havainnollistaa.Norjan Johannes Hösflot Kläbo otti viikonloppuna kaksi kirivoittoa. Sunnuntaina  Kläbo ei antanut Simen Hegstad Krügerin yllättää häntä loppukirissä.Kuka yllätti?Urheilustudio-viikonlopun suurin yllättäjä oli mäkihyppääjä Niko Kytösaho. Hän oli peräti seitsemäs lentomäen MM-kisoissa.Kytösaho ei ole edes ollut koskaan maailmancupissa kymmenen parhaan joukossa. Viimeksi kovempaa suomalaismenestystä lentomäen MM-kisoissa on nähty 16 vuotta sitten. Tuolloin oli kolme suomalaista kymmenen joukossa, Janne Ahonen oli heistä paras kisan kolmantena.Niko Kytösaho upeasti seitsemänneksi lentomäen MM-kisoissa Ahonen taustoitti jo aiemmin Kytösahon yllätyksen syitä, mutta palasi myöhemmin Urheilustudiossa myös 16 vuoden takaisiin tunnelmiin. Vuoden 2008 lentomäen MM-kisat olivat viimeiset, mistä Ahonen sai mitaleita urallaan. Sen kevään jälkeen hän lopetti, mutta palasi vielä takaisin kilpailemaan.Ahonen paljasti Urheilustudiossa katuneensa ensimmäistä lopettamisratkaisua.– Tietysti ei sille mitään voi. Se on elämää. Sillä hetkellä tuntui siltä. Kadun lopettamispäätöstä, koska lopetin vääristä syistä. Halua hypätä olisi oikeasti ollut. Huomasin sen myöhemmin. Tuli vähän painostusta, että huipulla on hyvä lopettaa ja sille olisi nyt hyvä aika. Kompastuin enemmän muiden mielipiteisiin kuin olisin miettinyt omiani, Ahonen kuvaili.Mitä ihmettä?Suomalainen penkkiurheilukansa on toistuvasti toivonut, että Urheilstudion asiantuntijakaarti haastaisi toisiaan ja tekisivät mitä eriskummallisia haasteita. Nyt toiveeseen on vastattu.Viikonloppuna alkoi uusi Urheilustudion Tehtävä. Janne Ahonen ja Kalle Palander haastettiin opettelemaan breakdancea viikon ajan.Ahonen oli vielä sunnuntaina mielikuvaharjoittelun parissa.– Tavoitteena on, että olisimme uskottavia breikkaajia. Uskon, että meistä tulee uskomattomia breikkaajia, Ahonen kuvaili.Urheilustudion Tehtävän breakdancehaaste on käynnissä – äänestä suosikkiasi ja voita Urheilustudion pinkki pipo!26.1.Kuka floppasi?Aino-Kaisa Saarinen nostaa viikonlopun flopiksi kokonaisuudessaan Suomen hiihtomaajoukkueen. Suomella kulki asiantuntijan mielestä maltillisiakin odotuksia mollivoittoisemmin.Suomen joukkueesta paistoi silmään etenkin Krista Pärmäkoski. Vuosikausia Suomen kärkihiihtäjiin kuulunut Pärmäkoski oli 20 kilometrin kisassa vasta 38:s.Pärmäkoski jäi yli kolme minuuttia kärjestä. Hän on viimeksi ollut normaalimatkan kilpailussa yhtä heikko yli 15 vuotta sitten. Joulukuussa 2008 Davosissa Pärmäkoski oli myös 38:s. Tuo kilpailu oli hänen uransa kolmas maailmancupissa.Avaa kuvien katseluKrista Pärmäkosken tilanne on tällä hetkellä kysymysmerkki. Kuva: Kimmo Brandt / All Over PressPärmäkoski antoi kilpailun jälkeen mystisiä kommentteja tilanteestaan. Hän kertoi tietävänsä syyt heikommalle menolleen, mutta ei halunnut avata niitä. Kalustopuolesta ei ollut kuitenkaan Pärmäkosken mukaan kyse.– Oli kyllä mystiset kommentit. Kun hän on lähtenyt kilpailemaan, ei voi olla vakavampaa syytä, Saarinen hämmästeli.Mitä seuraavaksi?Seuraavaksi Suomen parhaat hiihtäjät nähdään loppuviikosta Vantaan SM-kisoissa. Aino-Kaisa Saarinen odottaa innolla etenkin Iivo Niskasen kisaamista. Suomen ykköstähti on kilpaillut tällä kaudella säästeliäästi, mutta hänen on tarkoitus kilpailla Vantaalla kaikilla matkoilla.Maailmancup-kiertue jatkuu sen jälkeen Pohjois-Amerikassa. Ensiksi kilpaillaan Kanadan Canmoressa ja sitten siirrytään seuraavaksi Yhdysvaltoihin Minnesotaan. Maajoukkueen viime vuosien vakiohiihtäjistä Johanna Matintalo avautui sunnuntaina Yle Urheilun haastattelussa, kuinka kaikki eivät pääse lähtemään Pohjois-Amerikkaan Hiihtoliiton talousvaikeuksien takia.Aino-Kaisa Saarinen muistuttaa, että tilanne ei ole uusi. Vuoden 2001 Lahden dopingskandaalin jälkimainingeissa Hiihtoliiton taloustilanne ei ollut myöskään hirveän hyvä.Hiihtoliitto päätti loppuvuodesta 2005, että Suomi ei lähde lainkaan rapakon taakse maailmancup-kilpailuihin. Silloiset Suomen kärkinimet, kuten Saarinen, Virpi Sarasvuo ja Riitta-Liisa Roponen päättivät lähteä omalla kustannuksella alemman tason Alpen Cupin kilpailuihin Keski-Eurooppaan.– Eihän tilanne ole missään nimessä hyvä. Urheilijoilta nipistetään koko ajan, mutta minkäs teet. Ymmärrän, että lennot rapakon taakse maksavat aika paljon, Saarinen sanoi.Avaa kuvien katseluTiril Udnes Weng tuuletti viime kaudella Lahdessa maailmancupin voittoa. Tällä kaudella avaus viivästyi sairastelujen jälkeen. Hänkin kärsii Norjan liiton ratkaisusta säästää rahaa. Kuva: EPA-EFESuomi ei ole ainoa maa, joka tiivistää joukkojaan Pohjois-Amerikkaan lähtiessä. Mahtimaa Norjastakin Pohjois-Amerikkaan pääsevät vain niin sanotut punaisen ryhmän urheilijat. Se tarkoittaa, että moni huippunimi ei pääse kisoihin. Esimerkiksi kesken kauden maailmancupiin palannut kokonaiscupin hallitseva voittaja Tiril Udnes Weng tai tänä vuonna normaalimatkoilla kovia tuloksia takonut Jan Thomas Jenssen.Aino-Kaisa Saarinen näkee asian kaksipiippuisena.– Reissu on hirmukallis ja maastohiihto on pieni laji Yhdysvalloissa. Yhdysvaltojen markkinat ovat kuitenkin kokonaisuudessaan valtavat. Maastohiihtoa pitää tuoda siellä esiin. Jos sitä ei tuoda esiin, laji hukkuu Yhdysvaltojen lajipaljoudessa, Saarinen sanoo.Hän muistuttaa, että Pohjois-Amerikan kilpailut ovat nyt erityisen tärkeät, koska yhdysvaltalainen Jessie Diggins johtaa naisten kokonaiskilpailua.– Maastohiihto tulee varmasti saamaan huomiota nyt siellä. Nyt on todella tärkeä näyteikkuna maastohiihdolle. Kun hiihtourheilu kasvaisi siellä, raha valuisi jossain vaiheessa urheilijoillekin, Saarnen alleviivaa.</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>48</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Tutkijat kritisoivat Lapin oikeusasteita Kittilä-päätöksistä ‒ ”Lain tulkintaoppia on ehkä syytä kerrata pohjoisessa”</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20071751</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Kunnallisalan kehittämissäätiö KAKS on julkaissut Kittilän laajaa rikosvyyhtiä avaavan kirjan Kittilän opetukset. Siinä kritisoidaan varsin voimakkaasti Lapin tuomioistuinten Kittilä-tuomioissaan käyttämiä perusteluja, mutta ei oteta kantaa tuomioihin sinänsä.Polemia-sarjassa julkaistun kirjan ovat kirjoittaneet virkarikosasiantuntijana tunnettu emeritusprofessori Pekka Viljanen sekä kunta-asioita pitkään seurannut toimittaja Eeva-Liisa Hynynen.Tässä artikkelissa käydään läpi viisi keskeistä kommenttia kirjasta. Niitä kommentoi myös oikeustieteen ja hallintotieteiden tohtori Matti Muukkonen.Muukkonen toimii muun muassa dosenttina Lapin yliopistossa. Hänen erikoisalaansa ovat muun muassa kuntien talous ja toiminta.Avaa kuvien katseluMatti Muukkosen mukaan Kittilän opetukset -kirja on tarpeellinen puheenvuoro, sillä järjestelmä ei toimi tällä hetkellä. Kuva: Varpu Heiskanen / Itä-Suomen yliopisto                                              Lapin käräjäoikeus ja Rovaniemen hovioikeus eivät tässä vaiheessa kommentoineet kirjan väitteitä, sillä niillä on yhä käsittelyssä tai tulossa käsittelyyn samaan kokonaisuuteen kuuluvia juttuja – yli 10 vuotta vyyhdin aloittaneiden tapahtumien jälkeen.1. Lapin tuomioistuinten linjaukset mitätöisivät luottamushenkilöiden virkavastuunMatti Muukkonen sanoo, että hän ei itse käyttäisi Lapin tuomioistuimet -käsitettä. Hänen mukaansa jokainen tuomioistuin on itsenäinen ja jokainen tuomari toimii itsenäisesti virkavastuulla.‒ Mutta jos Lapin käräjäoikeus ja Rovaniemen hovioikeus olisivat olleet ne, jotka olisivat korkeimman oikeuden tasolla päättäneet näistä asioista, niin kovin erilaiselta virkavastuujärjestelmä näyttäisi, kuin mitä se perinteisesti on esimerkiksi kirjallisuudessa.2. Suomessa ei haluta tunnustaa korruptiota julkisen hallinnon ongelmaksiKittilän virkarikosjutuissa toimineet syyttäjät ovat todenneet, että päätösten taustalla on vaikuttanut rakenteellinen korruptio eli muut tarkoitusperät kuin kunnan edun ajaminen. Muukkonen kommentoi tätä kahdella eri tasoilla.‒ Ensinnäkin pitää muistaa, että Suomessakin korruptiotutkijat, erityisesti Vaasan yliopiston emeritusprofessori Ari Salminen, on jo vuosia kirjoittanut, että Suomen ongelma on piilo- ja rakenteellinen korruptio. Se on hyvin erilaista, kuin mitä esimerkiksi Transparency Internationalin CPI-indeksi mittaa.Muukkosen mukaan CPI-indeksi mittaa perinteisen ”katukorruption” tyyppisiä ilmiöitä, jotka eivät ole Suomelle tyypillistä. Meillä ongelmat liittyvät esimerkiksi viran täyttöön ja hankintoihin.‒ Kun olen kunnanjohtajanakin toiminut, niin siellä on erilaisia paikallisyhteisön paineita, että asioita pitäisi ajatella aina sen paikallisen hyvinvoinnin ja edun näkökulmasta.Viljanen ja Hynynen nostavat kirjassaan esiin ongelman, miten määritellään ”kunnan etu”. Muukkosen mukaan Kittilän virkarikosoikeudenkäynneissä käräjä- ja hovioikeuden näkemyksen mukaan kunnan etu oli paikallisuuden ajattelua, eli että kaikki menee kivasti kunnassa.‒ Oikeusvaltiossa kunnan edun pitäisi olla objektiivisempaa. Erityisesti, jos hallinnon oikeusperiaatteista nostetaan tarkoitussidonnaisuuden periaate ja puolueettomuusperiaate, eivät viranomaiset voi käyttää toimivaltaa muihin tarkoituksiin kuin mihin se niille on myönnetty.3. Lapin rikostuomioistuimet eivät huomioineet hallintotuomioistuinten päätöksiäKorkein hallinto-oikeus on periaatteessa kunta- ja hallintolakien ylin tulkitsija, mutta muun muassa Kittilää koskevien virkarikosjuttujen tuomioissa sen perusteluille tai päätöksille ei ole annettu käytännössä juurikaan painoarvoa.Muukkosenkin mukaan tuomioistuinten yhteistoimintaa tulisi parantaa silloin, kun käsitellään ilmiöitä, jotka selkeästi ketjuuntuvat toisiin.‒ Jos kunnassa tehdään päätös, jonka hallinto-oikeus kumoaa, niin siinä vaiheessa pitäisi arvioida sitä, että onko joku tehnyt virheen, josta pitää tulla jonkinlainen seuraamus. Sitä meillä harvemmin näkee tehtävän, ja se on tässä aidosti iso ongelma.Muukkosen mukaan oikeuslähdeopin perusteisiin kuuluu, että siviili- ja rikosasioissa pitäisi huomioida hallintolain käytössä annetut ratkaisut, mutta näin ei ole.‒ Meillä kerran meni sama asia sekä korkeimpaan hallinto-oikeuteen että korkeimpaan oikeuteen, jotka olivat eri mieltä keskenään siitä, miten tasa-arvolakia pitää tulkita. Niillä on siihen perustellusti mahdollisuus, mutta tietenkin oikeusvarmuuden ja oikeuden ennakoitavuuden näkökulmasta voisi olla parempi, että tulkinnat olisivat yhtenäisiä.4. Tuomioistuimet eivät saa olla heikoin lenkki, kun puututaan rakenteelliseen korruptioonPerustuslaki säätää, että kaikessa julkisessa toiminnassa on noudatettava tarkoin lakia. Muukkosen mukaan se koskee kaikkia, niin lainsäätämistä, tuomioistuinten toimintaa kuin hallintoakin.Muukkonen toivoo, että kaikki ottaisivat tämän tarkempaan kontrolliin toiminnassaan, myös Lapin tuomioistuimet.‒ Jotain kertoo se, että aika moni asia on joko kääntynyt tai mahdollisesti kääntymässä korkeimmassa oikeudessa toiseen suuntaan. Siinä mielessä lain tulkintaoppia on ehkä syytä kerrata myös siellä pohjoisessa.5. Kuntalakiin tulee lisätä kunnille velvollisuus torjua rakenteellista korruptiotaKirjan esitys kuntien velvollisuudesta torjua rakenteellista korruptiota on Muukkosen mukaan sinänsä hyvä ajatus. Eri asia on se, miten asia istuu kuntalakiin.‒ Kuntalain systematiikan kannalta se voisi olla vähän hankalaa. Pitäisi miettiä jotain muuta selkeää sääntelyä, jossa kuntien viranomaiset on osallistettu korruption torjuntaan.Itä-Suomen yliopistossa on käynnissä professori Emilia Korkea-ahon johtama hanke, jossa tutkitaan lobbausta ja sen aiheuttamia sokeita pisteitä kunnissa. Muukkonen odottaa innolla sen tuloksia.‒ On mielenkiintoista, jos päästäisiin pikkaisen enemmän sisään siihen, minkälainen oikeasti kuntien korruptiotilanne on, Muukkonen sanoo.Muukkonen tutkii itsekin kuntien virkarikoksia. Hänen mukaansa esimerkiksi ennen soteuudistusta kunnissa työskenteli noin 3/4 julkisesta sektorista. Viimeisen 10 vuoden aikana käräjäoikeuksissa on käsitelty hiukan toistasataa tapausta, jotka liittyvät kuntien toimintaan.‒ Se on vain neljäsosa tai viidesosa siitä, mitä tuomioistuimissa on käsitelty virkarikoksia. En usko, että kunnissa oikeasti olisi näin vähän tekoja suhteessa valtioon.Oikeusistuimet eivät kommentoiYle antoi Lapin käräjäoikeudelle ja Rovaniemen hovioikeudelle mahdollisuuden kommentoida kirjan sisältöä, mutta ne kieltäytyivät siitä.Lapin käräjäoikeuden laamanni Janika Kaski ja Rovaniemen hovioikeuden presidentti Jyrki Kiviniemi perustelivat asiaa sähköpostiviesteissä sillä, että Kittilän virkarikosvyyhtiin kuuluvia juttuja on edelleen kesken oikeuskäsittelyissä.KAKSin julkaisun Kittilän opetukset (Viljanen, Pekka ja Hynynen, Eeva-Liisa) voi ladata ilmaiseksi TÄÄLTÄ.KORJATTU 29.1. klo 17:14 Professori Emilia Korkea-ahon johtamassa hankkeessa tutkitaan lobbausta eikä korruptiota, kuten jutussa aiemmin väitettiin.</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>49</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Ylen tulosilta keräsi miljoo­nay­leisöt ruutujen äärelle</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20071805</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Ylen tulosilta houkutteli valtavan määrä suomalaisia televisioiden ja muiden ruutujen äärelle sunnuntaina.Presidentinvaalien ensimmäisen kierroksen ääntenlaskennan etenemistä seurasi TV1:ltä alkuillasta keskimäärin 1,4 miljoonaa katsojaa. Isoin kiinnostus osui iltayhdeksään, jolloin tulosiltaa tapitti lähes 1,9 miljoonaa silmäparia. Kaikkiaan tulosilta tavoitti 2,6 miljoonaa suomalaista jossain vaiheessa lähetystä.Loppuiltaa kohti katsojien joukko harveni sitä mukaa kuin jännitys toiselle kierrokselle menijöistä alkoi hellittää. Kokonaisuutena television katsojamäärät olivat nyt pitkälti samat kuin kuusi vuotta sitten.Yle Areenassa tulosillan lähetys käynnistettiin 745 000 kertaa. Eniten klikkauksia kertyi iltakahdeksan ja -yhdeksän välillä.Ylen verkkosivuilta löytyneen tulospalvelun etusivulla kävi sunnuntaina 237 000 eri selainta. Sivunäyttöjä kertyi yli 1,3 miljoonaa kappaletta. Tulosillan chatissa oli 164 000 kävijää ja 6 600 kirjoittajaa. Viestijä tuli yhteensä 18 000 kappaletta.Televisiolähetyksen tiedot perustuvat Finnpanelin TV-mittaritutkimukseen. Verkkoluvut on koostettu Adobe Analytics -työkalun ja Ylen datapilven tietojen avulla.Korjattu kello 16.07: Yle Areenassa tulosiltaa ei käynnistetty yli miljoonaa kertaa. Miljoona ylittyi, jos mukaan lasketaan Ylen verkkosivuille upotetun lähetyksen luvut. Lisäksi juttuun päivitetty tietoja lähetyksen kokonaiskattavuudesta ja verkkopalveluiden käyttäjämääristä.</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>50</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Voittajat esiintyivät omilleen presi­dent­ti­parin elkein – tässä vaali-illan tärkeimmät kuvat</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20071745</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Koostimme tähän artikkeliin kuvat vaali-illan tunteikkaimmista käänteistä ja kiinnostavimmista yksityiskohdista.Voit hyppiä eri osioiden välillä sisällysluettelon avulla.Ensimmäisen kierroksen äänet saatiin laskettua sunnuntaina kello 23.34. Alexander Stubb (kok.) ja Pekka Haavisto (vihr.) jatkavat toiselle kierrokselle. Stubb sai äänistä 27,2 prosenttia. Haavisto keräsi 25,8 prosenttia äänistä.Vaalien toinen kierros huipentuu kahden viikon kuluttua.
-Toteutus vaati toimiakseen JavaScriptin.Stubb omilleen: ”Se kisa alkaa vasta nyt”Kiitospuheessaan Stubb sanoo pyytävänsä kannattajiltaan kolmea asiaa.Ensimmäiseksi hän sanoo, että seuraavat 13 päivää ”paiskitaan töitä ihan hulluna”. Toisekseen töitä tehdään nöyrästi. Kolmantena hän sanoo, että kampanja kunnioittaa ja arvostaa kilpailijaa ja käy rehdin kisan.Avaa kuvien katseluAlexander ja Suzanne Innes-Stubb esiintyivät kampanjaväelle kuin uusi presidenttipari.  Kuva: Silja Viitala / YleAvaa kuvien katseluMedia piiritti ensimmäisen kierroksen voittajan vaalivalvojaisissa.  Kuva: Silja Viitala / YleAvaa kuvien katseluStubbien hymyt toimivat täydellisessä synkronissa.  Kuva: Silja Viitala / Yle
-Toteutus vaati toimiakseen JavaScriptin.Haavisto kampanjaväelle: ”On tuhlattu kaikki rahat”Haavisto iloitsi siitä, että hän voitti gallupit ykköskierroksella. Kiitospuheessaan hän sanoi myös suoraan, että kampanja tarvitsee lisää rahaa.Lopuksi hän muistutti siitä, että kampanjan pitää tehdä töitä muiden puolueiden äänestäjien tavoittamiseksi.Avaa kuvien katseluHaavisto juhli paikkaansa kakkoskierroksella puolisonsa Antonio Floresin kanssa.  Kuva: Tuomo Björksten / YleAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluKaikki halusivat osansa gallupit peitonneesta presidenttiehdokkaasta. Kuva: Tuomo Björksten / Yle
-Toteutus vaati toimiakseen JavaScriptin.Tulos selvilläYksi kuva paljastaa Olli Rehnin tunteet vaalituloksesta.Avaa kuvien katseluOlli Rehn sanoi olevansa iloinen siitä, että hänen kannatuksensa peittosi gallupit, mutta hymy näytti kuitenkin olevan tiukassa.  Kuva: Tiina Jutila / YleAvaa kuvien katseluKipakoissa väittelyissä viime viikkona kohdannut porukka rentoutui vaalien ensimmäisen kierroksen tuloksen ollessa selvä.  Kuva: Tiina Jutila / YleAvaa kuvien katseluStubb lähti Helsingin kaupungintalolta tervehtimään kannattajiaan Pikku-Finlandiaan.  Kuva: Silja Viitala / YleAvaa kuvien katseluHalla-ahon loppukiri ei riittänyt toiselle kierrokselle. Kannatus oli kuitenkin kaksinkertainen perussuomalaisten edelliseen presidentinvaalitulokseen verrattuna.  Kuva: Benjamin Suomela / Yle
-Toteutus vaati toimiakseen JavaScriptin.Tunnelma tiivistyi kaupungintalollaAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluHarkimo, Aaltola ja Essayah eivät ainakaan vielä kertoneet, ketä äänestävät toisella kierroksella. Kuva: Silja Viitala / Yle
-Toteutus vaati toimiakseen JavaScriptin.Ylen ennuste saatiin kello 21Ehdokkaat vastaanottivat Ylen ennusteen Kaupungintalolla.Avaa kuvien katseluVaalien kolmen kärki kommentoi tilannetta ennakkoäänten jälkeen yhteishaastattelussa Helsingin kaupungintalolla. Kuva: Tiina Jutila / YleAvaa kuvien katseluJutta Urpilainen, Olli Rehn ja Li Andersson näyttivät voipuneilta yhteishaastattelussa. Olli Rehn myönsi pettymyksen, kun ei päässyt toiselle kierrokselle. Kuva: Silja Viitala / YleAvaa kuvien katseluMika Aaltola arvioi, että tulevat vaalit ”saavat nyt jäädä”. Kuva: Tiina Jutila / YleAvaa kuvien katseluHalla-aho skoolasi Stubbin kanssa: “kilpakumppanit saivat enemmän ääniä, näin tämä demokratia toimii”, hän sanoi Ylelle.  Kuva: Silja Viitala / Yle
-Toteutus vaati toimiakseen JavaScriptin.Ehdokkaat reagoivat ennakkoäänten tulokseenEnnakkoäänten tulos julkistettiin kello 20. Yhdet riemuitsevat, kun toisten naamat valahtavat.Ennakkoäänissä johdossa oli Alexander Stubb 28,3 prosentilla, toisena Pekka Haavisto (vihr.) 25,8 prosentilla, kolmantena Jussi Halla-aho (ps.) 16,1 prosentilla ja neljäntenä Olli Rehn (kesk.) 15,5 prosentilla.Avaa kuvien katseluAlexander Stubb ja Suzanne Innes-Stubb suutelivat, kun ennakkoäänien tulos oli selvinnyt. Kuva: Silja Viitala / YleAvaa kuvien katseluPekka Haavisto hymyili leveästi saatuaan ennakkoäänten tuloksen selville. Hänen vierellään olivat  Maria Ohisalo, Antonio Flores, Sofia Virta. Takana nyrkkiään nosti Panu Laturi. Kuva: Tuomo Björksten / Yle Avaa kuvien katseluRiikka Purra antoi Halla-ahon äänisaaliille aplodit. Kuva: Benjamin Suomela / YleAvaa kuvien katseluOlli Rehn ja vaimonsa Merja Rehn odottivat Anu Vehviläisen kanssa jännittyneenä ennakkoäänten tulosta keskustan puoluetoimistolla. Kuva: Tiina Jutila / YleAvaa kuvien katseluLi Andersson vaikutti tyytyväiseltä ennakkoäänten saaliiseen. Kuva: Mimmi Nietula / Yle
-Toteutus vaati toimiakseen JavaScriptin.Vaalivalvojaisten valmistelutPresidenttiehdokas Alexander Stubbin vaalivalvojaiset järjestettiin Pikku-Finlandiassa Helsingissä 28. tammikuuta 2024.Avaa kuvien katseluTuija Virtanen vaihtoi pikkukengät jalkaan saapuessaan Pikku-Finlandiaan. Kuva: Silja Viitala / YleAvaa kuvien katseluYlen tietojen mukaan Elina Valtonen sijaisti vatsatautiin sairastunutta puolueen puheenjohtajaa Petteri Orpoa.  Kuva: Silja Viitala / YleAvaa kuvien katseluStubb hymyili leveästi jo ennen ennakkoäänten julkistusta. Kuva: Silja Viitala / YlePekka Haaviston vaalivalvojaiset järjestettiin Kulttuuritehdas Korjaamolla Töölössä.Avaa kuvien katseluPekka Haavisto näytti peukkua kannattajilleen. Kuva: Tuomo Björksten / YleAvaa kuvien katseluEntinen puolustusministeri Elisabeth Rehn (r.) liittyi Haaviston tukijoihin.  Kuva: Tuomo Bjorksten / YleAvaa kuvien katseluVihreiden puheenjohtaja Sofia Virran hymy oli herkässä vaalivalvojaisten alussa. Kuva: Tuomo Björksten / YleJussi Halla-ahon vaalivalvojaiset pidettiin Apollo-klubilla Helsingissä.Avaa kuvien katseluFred Koroleff (oik.), Leena Kurikka(vas), Matti Putkonen, Markku Rissanen takana ja perällä Kalevi Tylli. Kuva: Benjamin Suomela / YleAvaa kuvien katseluToni Paussu, Helsingistä, Kike Elomaa ja Arto Luukkanen (oik.) tuulettaa. Kuva: Benjamin Suomela / YlePresidenttiehdokas Olli Rehnin vaalivalvojaisia vietiettiin keskustan puoluetoimistolla Helsingissä.Avaa kuvien katseluMaija Kymäläinen keskustanuorten varapuheenjohtaja asettelee Rehnin vaalipaitoja pöydälle vaalivalvojaisissa. Kuva: Tiina Jutila / YleAvaa kuvien katseluOlli Rehn vaimonsa Merja Rehnin kanssa keskustan puoluetoimistolla. Kuva: Tiina Jutila / YleAvaa kuvien katseluOlli Rehnin kannattajat ottavat ehdokkaan vastaan. Kuva: Tiina Jutila / YleLi Anderssonin vaalivalvojaisia vietetään yökerho Butchersissa Helsingissä.Avaa kuvien katseluLi Andersson ja Silvia Modig ottamassa selfietä vaalivalvojaisissa. Kuva: Mimmi Nietula / YlePresidenttiehdokas Jutta Urpilaisen (sd.) vaalivalvojaisia vietettiin ravintola Maxinessa Helsingissä.Avaa kuvien katseluDemarinuorten Ilona Rantala (vas) ja Sara Salonen vaalivalvojaisten glitterpisteellä. Kuva: Tiina Jutila / YleAvaa kuvien katseluTässä sai somistautua saapuessaan Urpilaisen juhliin.  Kuva: Tiina Jutila / YleAvaa kuvien katseluDemarinuorten Etta Melander ja Eero Toivonen pystyttivät Jutta-lakanan SDP:n vaalivalvojaispaikka ravintola Maximiin vievien hissien edustalle Helsingin Narinkkatorilla Kuva: Tiina Jutila / YleValitsijayhdistyksen ehdokas Mika Aaltolan vaalivalvojaiset järjestettiin ravintola Kappelin kellarissa Helsingin Esplanadilla.Avaa kuvien katseluMika Aaltolan koira haukkui innostuneesti ehdokkaan henkilöauton etupenkillä sateen kasteleman lasin takaa.  Kuva: Jani Saikko / YleAvaa kuvien katseluAaltola puhui kannattajilleen jo ennen ennakkoäänten julkistusta.  Kuva: Mimmi Nietula / Yle
-Toteutus vaati toimiakseen JavaScriptin.Suomi äänestiAvaa kuvien katseluJasper Tommila äänesti ensi kertaa presidentinvaaleissa.  Kuva: Silja Viitala / YleAvaa kuvien katseluMikko Karppanen äänesti Helsingin yliopistolla mukanaan tyttärensä Aino Karppanen. Kuva: Silja Viitala / YleAvaa kuvien katseluVarsinaisena vaalipäivänä äänet pudotettiin suoraan uurnaan. Kuva: Silja Viitala / YleAvaa kuvien katseluKuopion kaupungintalolle kertyi sunnuntaina jonoksi asti äänestäjiä.  Kuva: Sami Takkinen / Yle Presidenttiehdokkaita Alexander Stubb, Jussi Halla-aho, Olli Rehn ja Harry Harkimo (liik.) tallentuivat kuviin käydessään äänestämässä sunnuntaina.Avaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluTasavallan presidentti Sauli Niinistä äänesti Espoon Lähderannan koululla. Kuva: Markku Rantala / YleAvaa kuvien katseluAino ja Teemu Tuulari tulivat äänestämään lastensa Teon ja Tildan kanssa. Kuva: Silja Viitala / Yle
-Toteutus vaati toimiakseen JavaScriptin.</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>51</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Miten käy Halla-ahon äänten toisella kierroksella? Purra: Perus­suo­ma­laisille vaikea päätös</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20071773</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Perussuomalaisten presidenttiehdokas Jussi Halla-aho jää ulos toiselta kierrokselta 19 prosentin kannatuksellaan.Hän on kolmantena ensimmäisen kierroksen voittaneen kokoomuksen Alexander Stubbin ja valitsijayhdistyksen sekä vihreiden Pekka Haaviston jälkeen.
-Puheenjohtaja Riikka Purra (ps.) piti Halla-ahon tulosta hyvänä, vaikka toinen kierros jäi haaveeksi. Purra ei suostunut tukemaan haastattelussa kumpaakaan toiselle kierrokselle menevistä ehdokkaista. Hän ennakoi, että toisen kierroksen valinta on vaikea monelle perussuomalaisten kannattajalle.– Näyttää siltä, että on punavihreä vastaan liberaali oikeisto, joten on hyvin mielenkiintoista. Otaksun esimerkiksi, että monella perussuomalaisella on vaikea tehdä äänestyspäätöstä.Avaa kuvien katseluJussi Halla-ahon vaalivalvojaiset järjestettiin Apollo-klubilla Helsingissä. Kuva: Benjamin Suomela / YleAvaa kuvien katseluRiikka Purra juhli Halla-ahon ennakkoääniä vaali-iltana. Kuva: Benjamin Suomela / Yle
-</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>63</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Veera Kivirinnan uintiura uuteen nousuun poliisina – saavuttamaton unelma vetää yhä altaaseen: ”Kyllähän se kutkuttelee”</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20068958</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Veera Kivirinta saapuu Helsingin Mäkelänrinteen uimahallin pääovelle täsmällisesti sovittuna aikana kello 6.45.Normaalisti hän ilmaantuu aamuharjoituksiin viittä vaille seitsemän, mutta toimittajan pyynnöstä hän oli valmis heräämään hieman aiemmin kuvausten takia.Jokainen minuutti lepoa ja palautumista on tärkeää Kivirinnalle, joka kilpailee Euroopan huipputasolla rintauinnin sprinttimatkalla ja työskentelee samalla täysipäiväisesti vanhempana konstaapelina Helsingin poliisissa.Haastattelupäivänä Kivirinnan työpäivä poliisina alkaa uinti- ja kuntosaliharjoitusten jälkeen kello 13.00 käskynjaolla ja päättyy iltamyöhään partiovuoron jälkeen.– Ei ihan hirveästi jää aikaa mihinkään ylimääräiseen, Kivirinta naurahtaa.Kivirinnan arki kuluu pitkälti uima-altaassa ja partioautossa. Video: Kimmo Hiltunen / YleKivirinta harkitsi lopettamista jo 2020Kivirinnan poliisiuran alku osui vuoteen 2020, jolloin hänen tulostasonsa junnasi ja usko tekemiseen hiipunut.Lontoon vuoden 2016 pitkän radan EM-kisojen viidennestä sijasta oli ehtinyt kulua jo useampi vuosi, ja Lontoota seuranneissa arvokisoissa Kivirinnan kohtalona oli useimmiten karsiutua jatkouinneista maakiintiön takia, Jenna Laukkasen ja Ida Hulkon oltua nopeampia.Kun opinnot alkoivat Poliisiammattikorkeakoulussa lokakuussa 2020, kilpauransa lopettamista vakavasti harkinnut Kivirinta muutti Tampereelle ja antoi uinnille vielä yhden mahdollisuuden TaTU:n riveissä, Jere Jänneksen valmennuksessa.– Sitten se uinti lähtikin niin hirveään nousuun, että tässä sitä näköjään vielä ollaan, Kivirinta toteaa.Avaa kuvien katseluIso osa Kivirinnan arjesta kuluu Mäkelänrinteen uimahallissa Helsingissä. Kuva: Kimmo Hiltunen / YleNousu Euroopan kärkikahinoihinOpintojen ja työn alkamisen jälkeen Kivirinta on yltänyt uransa parhaimpiin sijoituksiin ja parantanut omia ennätyksiään, mikä on ruokkinut motivaatiota jatkaa.Vuoden 2020 jälkeen hän on ollut EM-kisoissa viides sekä pitkällä että lyhyellä radalla, uinut kaksi kertaa lyhyen radan MM-kisojen finaaleissa ja kahdesti MM-semifinaaleissa pitkällä radalla.Kehitysloikan takana on monta yksittäistä tekijää, joista moni liittyy uinnin ja opiskelun värittämään arkeen Tampereella.– Sun ei tarvitse miettiä uintia koko ajan. Mä uskon, että kun on joku toinen tärkeä asia elämässä urheilun lisäksi, se vaikuttaa siihen uimiseen ja urheiluun tosi paljon, Kivirinta avaa.Opiskelurytmiä pystyi muokkaamaan harjoitusten, leirien ja kisojen mukaan. Tampereelta löytyi uusia ystäviä, samanhenkistä uintiseuraa ja harjoituksista uutta ärsykettä Jänneksen johdolla.Lisäksi opinnot ja valmistumisen jälkeen työ toivat taloudellista turvaa urheilijalle, joka ei ole saanut kertaakaan urallaan suoraa rahallista tukea Suomen olympiakomitealta.Vaativa kaksoisura verottaaAvaa kuvien katseluMatti Mäki kantaa päävastuuta Kivirinnan valmennuksesta Helsingissä. Kuva: Kimmo Hiltunen / YleMäkelänrinteen uimahalli on tullut Kivirinnalle tutuksi sen jälkeen, kun hän muutti Helsinkiin työharjoittelun perässä vuonna 2022. Valmistumisen jälkeen hän jäi Helsinkiin, sillä hän sai vakituisen Helsingin poliisista.Tätä nykyä harjoitussuunnitelmat hallilla piirtää taululle Matti Mäki, mutta Kivirinta itse kantaa suurimman vastuun kokonaisuudesta.Henkistä ja fyysistä kuormitusta kertyy molemmista päivätöistä, mikä ei ole helppo yhtälö.– Mua on väsyttänyt viimeisen vuoden aikana enemmän kuin koskaan. Vaikka reenit ovat määrällisesti vähentyneet töiden takia, olen joutunut tekemään paljon töitä oman pään sisällä. On ollut raskasta ja rankkaa, mutta toisaalta myös palkitsevaa. Ja kyllä se tuloksissakin näkyy, että tämä on ollut ihan hyväksi, vaikka välillä tuntuu, että ei oikein jaksaisikaan.Avaa kuvien katseluKivirinnan päivät jatkuvat uimaharjoitusten jälkeen usein Urhean kuntosalilla. Kuva: Kimmo Hiltunen / YleKivirinnan haastattelupäivään mahtuu aamu-uintien lisäksi tunnin kuntosaliharjoittelu ja iltavuoro partioautossa. Seuraavana päivänä sama kaava toistuu. Vuorotyö määrittää sen, milloin Kivirinta voi harjoitella ja levätä.– Palautuminen on se mistä joutuu karsimaan kaikista eniten. Jos mulla on sitä vapaa-aikaa, käytän sen itselleni tärkeisiin asioihin ja lepoon, mikä on sitten myös lähipiiriltä pois.Ura jatkuu ainakin kesään – mitalihaave motivoiAvaa kuvien katseluKivirinta valmistui poliisiksi loppuvuodesta 2023. Kuva: Kimmo Hiltunen / YleKivirinta tietää, että hän ei pysty keskittymään kahteen uraan sataprosenttisesti kovin pitkään.Toistaiseksi se on onnistunut, työnantajan joustaessa ja harjoitussuunnitelmaa muokatessa, mutta uintiuran päätepiste lähestyy.Vähentynyt harjoitusmäärä on tarkoittanut aiempaakin selkeämmin keskittymistä 50 metrin matkalle, mikä on merkinnyt Kivirinnan olympiahaaveen hautaamista.Vuoden 2024 pitkän radan kaudelle mahtuu kuitenkin kahdet muut arvokisat: MM-kisat Dohassa helmikuussa ja EM-kisat Serbiassa kesällä.Ne saattavat jäädä Kivirinnan uran viimeisiksi, mutta lopullista päätöstä hän ei ole tehnyt. Yksi iso motivaattori on arvokisamitali, joka palkintokaapista vielä puuttuu. Viimeisin yritys päättyi uimarille jo tutuksi tulleeseen viidenteen sijaan lyhyen radan EM-kisoissa Romaniassa joulukuussa.– Kyllähän se mua kutkuttelee. Mä en varmaan mitään muuta haluakaan kuin sen mitalin, Kivirinta paljastaa naurahtaen.– Olen toisaalta kuitenkin 28-vuotias ja haaveilen myös niistä muista asioista elämässä. Olisi lisäksi kivaa saada keskittyä poliisin töihin enemmän kuin nyt. Saa nähdä, loppuuko uintiura kesällä. Isoja päätöksiä pitäisi tehdä, Kivirinta päättää.</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>64</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>”Ei tullut seka­me­te­li­soppaa” – asiantuntijan mukaan parjattu pisteuudistus toimi Monte Carlon MM-rallissa</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20071760</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Hyundain asfalttispesialisti Thierry Neuville hallitsi Monte Carlon vuoristopätkät ja voitti MM-sarjan avausrallin ennen kahdeksankertaista maailmanmestaria Sebastien Ogieria.Yle Urheilun ralliasiantuntija Henri Haapamäki piti Neuvillen suoritusta tyylikkäänä. Kotirallissaan ajanutta Ogieria ja alkurallista kovassa vauhdissa ollutta Elfyn Evansia ei tuosta vain päihitetä.– Ei ole ihan helppoa ajaa heitä polvilleen. Kyllä Neuville sai autonsa viimeisen päälle säätöihin ja ajoi kokolailla virheettömän kilpailun. Todella hyvää suorituskykyä.– Hänellä on tosipaikan tullen usein alkanut tulla pieniä virheitä, mutta nyt vauhti vain yltyi loppua kohti, Haapamäki sanoo.MM-sarjan mestarikandidaatteihin ennakolta lukeutuneiden Evansin ja Ott Tänakin suoritukset olivat Haapamäen mukaan pettymyksiä.Evans hyytyi hyvän alun jälkeen ja valitteli, että rytmin ja ajotuntuman löytäminen oli hankalaa. Tänak tuskaili haastatteluissa autonsa ongelmia.Haapamäen mukaan kuljettajan on pystyttävä luottamaan autoonsa etenkin Monte Carlon tapaisessa kisassa, jossa olosuhteet ovat todella hankalat.– Jos yliyrittää jatkuvasti ja menee oman kynnyksen yli, jossain kohtaa tulee ulosajo tai muita ongelmia. Väkisin ei pysty ajamaan pohja-aikoja, Haapamäki sanoo.– Toki tässä on vielä paljon ralleja jäljellä. Monte on kuitenkin niin erikoinen kilpailu olosuhteiden puolesta, että on se sitten auto tai kuljettaja, niin ei sieltä ihan koko totuutta kovimpaan nopeuteen saada, mutta tämäkin pitää huippukuljettajan pystyä voittamaan.Avaa kuvien katseluOtt Tänakin ralli oli vaikea. Kuva: EPA-EFEMonte Carlossa uusi pistelasku toimiMM-sarjan pisteidenlaskusysteemi uudistui tälle kaudelle.Aiemmin täyden 30 pisteen potin saavuttaminen vaati osakilpailun voittamisen lisäksi rallin päättävän erikoiskokeen eli Power Stagen voittoa. Yleiskilpailun voittamisesta sai 25 pistettä ja päätöspätkältä viisi pistettä.Tänä vuonna 30 pisteen keräämiseen on voitettava kolme erillistä pistekategoriaa: kokonaistilanne lauantain jälkeen (18 pistettä), sunnuntain kokonaisaika (7 pistettä) ja Power Stage (5 pistettä).
-Viikonlopun kokonaiskisan voitosta ei siis saa pisteitä. Sekavaksi arvosteltua uudistusta on perusteltu sillä, että aiemmin kuskit usein säästelivät autojaan sunnuntaina, kun erot olivat jo selviä.Neuville keräsi Monte Carlosta täyden pistepotin, joten pistelasku oli helppoa.– Vielä ei saatu sekametelisoppaa aikaan, eikä vielä voi sanoa mitään kielteistä. Eikä varmasti tulekaan kauden aikana. Se on vain vähän haasteellisempi rallifaneille seurata, Haapamäki sanoo.– Varsinkin sunnuntai on tosi hankala, kun siinä alkaa vallan toinen kilpailu peruskisan rinnalle. Joutuu pitämään omaa ruutupaperikirjanpitoa, jos oikeasti haluaa sekunnilleen pysyä kärryillä koko ajan.Haapamäen mukaan uudistuksen hyvä puoli on se, että sunnuntai ei ole enää ”köröttelypäivä”.– Jos kuvitellaan vaikka kahden minuutin johtomarginaali lauantai-iltaan, niin uudella systeemillä sunnuntaina alkaa uusi kilpailu. Ei voi vain varmistella ja antaa eron kaventua.Sunnuntain sijaan kuljettajat saattavat himmailla nyt lauantaina, jos alkukisa menee penkin alle.– Hyvä asia alussa keskeyttäneille on, että sunnuntaina on 12 pistettä tarjolla. Se on todella merkittävä. Ennen se oli vain viisi pistettä Power Stagelta. Nyt käytännössä melkein puolet koko pistepotista pystyy saamaan sunnuntaina.Avaa kuvien katseluThierry Neuville voitti Monte Carlon MM-rallin myös vuonna 2020. Kuva: Getty ImagesHaastaako Neuville Rovanperän?Rallin MM-sarja jatkuu helmikuun puolessa välissä Ruotsissa. Silloin kautensa avaa hallitseva maailmanmestari Kalle Rovanperä, joka ajaa tällä kaudella vain osan kisoista.Haapamäki arvioi, että Monte Carlon voittaja Thierry Neuville saa kisaan hyvät lähtökohdat, vaikkei häntä tunneta lumiolojen erikoismiehenä.– Totta kai voitosta saa tosi hyvän buustin koko kauteen ja tekemiseen. Eihän tuon parempaa aloitusta kaudelle voi olla. Jos miettii, että asia olisi toisin päin, että on poljettu lattianrakoon ja mistään ei tule mitään, siitä on aina hankalampi jatkaa.– Jos auto on oikeasti noin hyvä kuin Montessa, ja sillä pystyy ajamaan todella hyvin ja virheettömästi, niin eihän sitä tiedä, vaikka Ruotsissakin päästäisi ihan kunnon kyytiin.MONTE CARLON MM-RALLI1. Thierry Neuville, Hyundai 3.09.30,9
-2. Sebastien Ogier, Toyota +16,1
-3. Elfyn Evans, Toyota +45,2
-4. Ott Tänak, Hyundai +1.59,8
-5. Adrien Fourmaux, Ford +3.36,9
-6. Andreas Mikkelsen, Hyundai +5.34,6
-7. Takamoto Katsuta, Toyota +8.28,5
-8. Yohan Rossel, Citroen/Rally2 +10.29,8
-9. Pepe Lopez, Skoda/Rally2 +10.33,8
-10. Nikolai Grjazin, Citroen/Rally2 +10.45,2
-11. Nicolas Ciamin, Hyundai/Rally2 +14.44,1
-12. Sami Pajari, Toyota/Rally2 +15.16,3SUNNUNTAIN TULOKSET1. Thierry Neuville 31.21,4
-2. Elfyn Evans +10,3
-3. Sebastien Ogier +12,8
-4. Ott Tänak +12,9
-5. Adrien Fourmaux +42,9
-6. Takamoto Katsuta +54,5
-7. Gregoire Munster +1.09,4POWER STAGEN NOPEIMMAT1. Thierry Neuville 9.50,4
-2. Sebastien Ogier +2,6
-3. Takamoto Katsuta +2,8
-4. Elfyn Evans +3,2
-5. Ott Tänak +5,1MM-SARJAN TILANNE (1/13)1. Thierry Neuville 30 (18+7+5)
-2. Sebastien Ogier 24 (15+5+4)
-3. Elfyn Evans 21 (13+6+2)
-4. Ott Tänak 15 (10+4+1)
-5. Adrien Fourmaux 11 (8+3+0)
-6. Takamoto Katsuta 9 (4+2+3)
-7. Andreas Mikkelsen 6 (6+0+0)</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>65</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Saksan valtio­va­rain­mi­nisteri sättii muita Euroopan maita Ukraina-tuen niukkuudesta</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20071785</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Saksan valtiovarainministerin Christian Lindnerin mukaan maan eurooppalaisten kumppanien on tehtävä ryhtiliike tuen tarjoamisessa Ukrainalle.Tilanne ei Lindnerin mielestä voi olla sellainen, että Saksa lisää omia menojaan ja maksaa toisten puolesta Ukrainalle ja samaan aikaan Saksan eurooppalaiset kumppanit eivät tee tarpeeksi.Puoluetilaisuudessa Berliinissä lauantaina puhunut Lindner muistutti, että Saksan osuus on tällä hetkellä jo puolet kaikesta siitä tuesta, mitä Ukraina saa Euroopasta.– Emme aio luopua sitoumuksistamme, hän vakuutti.Erityisesti Venäjän hyökkäyssodan alussa Saksaa arvosteltiin siitä, että se epäröi ja viivytteli aseavun lähettmäistä Ukrainaan. Tätä nykyä Saksa tukee Ukrainaa enemmän kuin yksikään Euroopan maa. Eri maiden tukia Ukrainalle seuraavan Kiel-instituutin mukaan Saksa oli antanut yli 17,1 miljardia euroa sotilaallista apua Ukrainalle tammikuun 2022 ja lokakuun 2023 välisenä aikana.Trumpin mahdollinen valtaannousu huolettaaMyös Saksan liittokansleri Olaf Scholz painotti viime viikolla, että Euroopan on panostettava enemmän Ukrainaan. Aseavun lisääminen Ukrainalle on kriittisen tärkeää erityisesti siksi, että Yhdysvalloissa Ukrainan tukeminen on ajautunut sisäpoliittisen kiistan välikappaleeksi.Niin ikään Ukrainan presidentti Volodymyr Zelenskyi sanoi sunnuntaina Saksan yleisradioyhtiö ARD:n haastattelussa, että Yhdysvaltojen passiivinen suhtautuminen tai tuen väheneminen olisivat huono signaali.Zelenskyi vetosi Saksaan, että se käyttäisi taloudellista painoarvoaan lujittaakseen muiden EU-maiden tukea Ukrainalle.Yhdysvaltain entinen presidentti ja republikaanien todennäköinen presidenttiehdokas Donald Trump on puheillaan aiheuttanut hermostuneisuutta maan Ukraina-tuen jatkosta. Moni pelkää, että mikäli Trump valittaisiin marraskuussa presidentiksi, hän saattaisi vetää Yhdysvaltain sotilaallisen tuen Ukrainalta ajatellen, että Yhdysvallat jättää Ukrainan eurooppalaisten huoleksi.</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>66</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Tiktok kiilasi ilta­päi­vä­lehtien ohi nuorten tärkeimmäksi uutis­ka­navaksi – lue viisi vinkkiä uutisten seuraamiseen somessa</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20071681</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Tiktok on nuorten tärkein uutiskanava. Sen kautta uutisia seuraa 49 prosenttia 13-18-vuotiaista. Asia selviää Uutismedian liiton teettämästä tutkimuksesta.Vielä vuosi sitten ykkössijaa pitivät iltapäivälehdet. Nyt Tiktok on kiilannut selvästi ohi. Iltapäivälehtien verkkosivuilta uutisia seuraa 37 prosenttia nuorista.– Yllätti, että Tiktok oli vuodessa harpannut niin isosti ja oli kirkkaasti edellä, sanoo Uutismedian liiton mediakasvatusasintuntija Hanna Romppainen.Tiktokin nousu on ollut huima vuodesta 2020, jolloin sitä käytti uutislähteenä vain neljännes samanikäisistä nuorista.Yhtenä syynä suosion kasvuun Romppainen pitää algoritmeja, jotka on tehty koukuttamaan. Niiden vuoksi kanavalla vietetään paljon aikaa, mutta ei enää vain viihtymistarkoituksessa. Tiktokista on tullut nuorille merkittävä uutis- ja ajankohtaistiedon lähde.Nuorten suosimassa kärkiviisikossa oli myös kaksi muuta sosiaalisen median kanavaa, Instagram ja Snapchat.– Tämä on tärkeä tunnistaa. Emme voi puhua journalismista irrallaan somekontekstista, koska silloin on riskinä, että se jää kauaksi nuorten arjesta, Romppainen sanoo.Yle listalla kuudentenaPerinteisistä uutismedioista suosituimpia olivat Iltapäivälehdet ja sen jälkeen Ylen verkkosivut, joita 22 prosenttia kyselyyn vastanneista nuorista kertoi seuraavansa.Romppainen muistuttaa, että myös sosiaalisessa mediassa tulee vastaan perinteisten uutismedioiden tuottamaa sisältöä.– Mutta sen tunnistaminen journalistiseksi sisällöksi vaatii aika paljon. On entistäkin tärkeämpi puhua siitä, mitä journalismi on ja mitä journalistiset mediat tekevät, jotta ne erottautuisivat somessa.Kyselyyn vastanneista 69 prosenttia sanoi tunnistavansa Tiktokissa uutismedioiden tekemät sisällöt muista.– En kuitenkaan tuudittautuisi tähän. Journalismin tunnistaminen somessa on todella hankalaa, koska sen joutuu tekemään nopeassa virrassa. Tämä on vakava paikka. Me emme voi jättää nuoria yksin someen tai Tiktokiin.Avaa kuvien katseluToiseksi suosituin uutiskanava olivat nuorilla iltapäivälehtien verkkosivut. Kuva: Henrietta Hassinen / YleHanna Romppainen antaakin viiden kohdan vinkkilistan Tiktokin käyttöön uutiskanavana:1. Muista kuplat”Muista, että se, mitä omalla sivulla tai feedillä näkyy, ei ole koko totuus. Voi kysyä, mitkä näkökulmat omassa feedissä painottuvat? Miten oma feedi erottuu kaverin vastaavasta? Mikä fiideissä on jaettua?”2. Miksi näen tämän?”Algoritmi ohjaa Tiktokissa niin vahvasti sisältöjä, että on olennaista olla algoritmikriittinen. Edellisen kohdan lisäksi voisi miettiä, miten näkemäänsä voisi vaikuttaa. Ettei oltaisi algoritmin armoilla, vaan aktiivisia sen suhteen, mitä sisältöjä tulee nähtäväksi.”3. Kuka sen on tehnyt?”On tärkeää erottaa erilaiset sisällöt toisistaan ja huomata, ovatko ne journalismia, mainontaa vai poliittinen viesti. Silloin voi kysyä, kuka sisällöt on julkaissut, mikä niiden tarkoitus on ja voiko niihin luottaa.”4. Tutustu journalismiin”Seuraa uutismedioita. Jounalismia ei erota, jos sitä ei tee itselleen tutuksi. Ota Tiktokissa kotimaisia uutismedioita seurantaan. Katso, millaista journalistista sisältöä ne someen tuottavat. Tiktok voi pahimmillaan luoda yleiskriittisen asenteen, mutta harjoittele luottamista.”5. Haasta itsesi”Seuraa uutismedioita myös Tiktokin ulkopuolella. Jos löydät kiinnostavan videon Tiktokissa, kokeile seurata myös sen tuottaneen uutismedian omia verkkosivuja.”Videot kiinnostavat enitenKyselyyn vastanneista nuorista päivittäin uutisia seurasi 36 prosenttia. Eniten heitä kiinnostivat omaan elämään liittyvät uutiset, joita kulutettiin mieluiten lyhyinä uutisvideoina. Videot olivat suositumpia kuin teksti, kuvat tai äänet. Sisällön lyhyys suositumpaa kuin syvällisyys tai pituus.Nuoret ja uutismediasuhde -tutkimuksen toteutti Kantar Media Uutismedian liiton toimeksiannosta. Tutkimukseen vastasi 755 nuorta. Tutkimus on osa koulujen ja uutismedian Uutisten viikkoa, jota vietetään 29.1.–2.2.Myös Yle Uutiset on Tiktokissa. Voit seurata Ylen uutisia täällä.Toimittaja Antti Kurra kertoo videolla Tiktokin tulevaisuuden suunnitelmista. Sovelluksen emoyhtiö suunnittelee lukuisia uusia ominaisuuksia.</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>68</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Olo oli surkea, vaikka Hanna-Leena Kuisma oli dieeteillä ja treenasi – verikoe muutti kaiken</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20071355</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Olo 2.0 – tästä tulee tapaTammikuussa etsimme parempaa oloa yhdessä.Liity porukkaanOnneksi homma räjähti käsiin. Niin nokialainen Hanna-Leena Kuisma, 38, ajattelee nyt, kuusi vuotta burnoutin jälkeen.– Olen aina ollut kiltti ja joustava, enkä ole osannut suojella itseäni. Töissä olin aina valmis mihin tahansa, Hanna-Leena kertoo.Hän oli työskennellyt julkisessa terveyskeskuksessa viisi vuotta pääasiassa hammashoitajana. Hoitotyötä mieluisampia Hanna-Leenalle olivat toimistohommat, joita hän sai tehdä itsenäisesti. Työtehtävät vaihtuivat usein yllättäen kesken päivän.– Hoitotyössä raskainta oli se, etten pystynyt hallitsemaan sitä. Ruokatauot jäivät usein pitämättä, ja jos hammaslääkäri oli myöhässä, asiakkaat kiukuttelivat minulle.Eräänä päivänä helmikuussa 2017 Hanna-Leena oli väsynyt ja uskoi olevansa tulossa kipeäksi. Päivästä tuli taas kerran kiireinen, ja taukoja jäi pitämättä.Hanna-Leenan olo huononi, ja hän hakeutui terveydenhoitajalle. Hän istui alas ja purskahti heti itkuun. Uupunut Hanna-Leena jäi sairauslomalle, joka kesti lopulta kolme kuukautta.– Kun sain vihdoinkin luovuttaa ja levätä, jämähdin kotiin makaamaan. Ensimmäisen kuukauden elin sumussa.Paino nousi 25 kiloa vuodessaHanna-Leena ei jaksanut enää harrastaa mitään. Roskaruoka ja herkut maistuivat. Hanna-Leenalla todettiin lievä masennus, ja hän aloitti masennuslääkityksen.– Sanotaan, että lääke ei vaikuta painonnousuun, mutta varmasti vaikutti, koska se lisäsi ruokahalua. Lihoin vuodessa 25 kiloa.Oltuaan kolme kuukautta sairauslomalla Hanna-Leena yritti palata osa-aikaisesti töihin. Hänelle mieluisat toimistotyöt otettiin pois. Jäljelle jäi hoitotyö, jossa hän joutui venymään kuten ennenkin.Avaa kuvien katseluHoitotyössä on raskainta se, ettei työtä pysty hallitsemaan itse, sanoo Hanna-Leena Kuisma. Kuva: Jani Aarnio / YleKesälomalla Hanna-Leena ymmärsi, ettei voisi enää palata samaan työhön. Hän haki opiskelemaan tradenomiksi Tampereen ammattikorkeakouluun. Syksyllä alkoivat opinnot ja uusi työ asiakaspalveluneuvojana puhelinoperaattorilla.– Toivuin edelleen uupumuksesta, mutta olin iloinen, että sain päiviini täytettä ja uutta opittavaa. Se auttoi pääsemään eteenpäin.Elämänmuutos kesti aina pari viikkoaHanna-Leena yritti pudottaa painoaan pikadieeteillä ja rankoilla treeniohjelmilla. Hän ei jaksanut noudattaa niitä paria viikkoa kauempaa. Paino ei pudonnut, ja olo oli surkea.– Vanhat vaatteet eivät menneet päälle, enkä tunnistanut itseäni peilistä. Silti minulla ei ollut fyysisiä eikä henkisiä voimavaroja rajuihin kunto-ohjelmiin.Vanhat vaatteet eivät menneet päälle, enkä tunnistanut itseäni peilistä.Hanna-Leena KuismaHanna-Leena jätti painonpudotuksen sikseen. Kolmen vuoden ajan hän keskittyi ainoastaan opintoihin ja työntekoon. Kun opinnot alkoivat olla loppusuoralla, hän päätti käydä verikokeissa.– Tulokset olivat karmaisevat: kaikki arvot viittasivat kakkostyypin diabetekseen. Tajusin, että jotain pitää tehdä.Hän päätti muuttaa ruokailutapansa, kun opinnäytetyö olisi hyväksytty ja hänellä riittäisi energiaa muuhunkin. Hanna-Leena halusi ennen kaikkea veriarvonsa kuntoon ja lähti siksi liikkeelle ruoasta.– Olen aina ollut perso suklaalle ja käynyt usein väsyneenä ostamassa kaupasta suklaalevyn. Olen vetänyt sen sitten jo autossa tai viimeistään kotimatkalla.Uudet rutiinit ja uusi työKesän korvalla Hanna-Leena jätti pois muut herkut paitsi jäätelön ja alkoi syödä iltapäivisin terveellistä välipalaa: rahkan, omenan ja kourallisen manteleita. Lisäksi hän alkoi käydä rauhallisilla kävelylenkeillä. Pois jäi myös alkoholi, jonka Hanna-Leena oli huomannut huonontavan paitsi veriarvoja myös unen laatua.Avaa kuvien katseluPitkän tauon jälkeen Hanna-Leena Kuisma aloitti liikunnan rauhallisilla kävelylenkeillä. Kuva: Jani Aarnio / YleKun välipalan syömisestä tuli rutiini, Hanna-Leena alkoi syödä myös aamupalaa ja myöhemmin viisi ateriaa päivässä. Sitten hän alkoi syödä enemmän kasviksia lounaalla ja päivällisellä.– En odottanut radikaaleja muutoksia tai pyrkinyt pudottamaan painoani tietyssä ajassa. Tärkeintä oli saada oma pääni kuntoon ja olla itseäni kohtaan armollinen, Hanna-Leena sanoo.Vuoden aikana paino putosi 15 kiloa, ja samalla veriarvotkin paranivat.Syksyllä Hanna-Leena aloitti palveluneuvojan työn terveydenhuoltoalan yhtiössä Mehiläisessä. Hän piti yhä kiinni säännöllisestä ruokarytmistä ja kävelylenkeistä.– Lopetin vaa’an kyttäämisen ja itseni kiusaamisen. Annoin kropalleni ja mielelleni aikaa keskittyä uusien asioiden oppimiseen.Hanna-Leenan toipuminen uupumuksestaan oli edelleen kesken. Hän kertoi siitä avoimesti työnantajalleen.– Kun kuormituin liikaa, se otettiin huomioon ja työtäni kevennettiin hetkeksi.Korkea kynnys lähteä salilleAvaa kuvien katseluHanna-Leena Kuisma pelkäsi, että kuntosalilla muut katsovat häntä ylipainon vuoksi. Kuva: Jani Aarnio / YleKun uusi työ oli tullut tutuksi, Hanna-Leena halusi alkaa käydä taas kuntosalilla. Tuttu personal trainer teki hänelle helpon aloitusohjelman, johon kuului muutama liike kerran viikossa.– Oli iso kynnys lähteä salille, vaikka polte oli kova. Vanhat salivaatteeni eivät enää mahtuneet päälle ja pelkäsin, että kaikki katsovat minua, kun olen niin lihava, Hanna-Leena kertoo.Treenaaminen tuntui hyvältä, ja kahden kuukauden jälkeen hän alkoi tehdä pidemmän treeniohjelman kahdesti viikossa. Nykyään salitreenejä on kolmesti viikossa. Lisäksi Hanna-Leena käy avantouimassa ja harrastaa kali-kamppailulajia.Yksi muutos kerrallaanTerveyden ja hyvinvoinnin laitoksen THL:n tutkimuspäällikön Susanna Raulion mukaan moni epäonnistuu muuttamaan elämäntapojaan, koska yrittää muuttaa liian monta asiaa kerralla.– Paino voi pudota tiukalla dieetillä, mutta kukaan ei pysty elämään niin koko loppuelämäänsä. Syömistä ja esimerkiksi välipaloja ei pidä pelätä, Raulio kertoo.Paino voi pudota tiukalla dieetillä, mutta kukaan ei pysty elämään niin koko loppuelämäänsä.Susanna RaulioHän kannustaa aloittamaan itselle helpoimmasta asiasta. Se voi olla vaikka säännöllinen syöminen tai kasvisten lisääminen ruokavalioon.– Elämäntapamuutosta ei kannata edes yrittää silloin kun on esimerkiksi uupunut tai elämä on hyvin hektistä, Raulio sanoo.”Peikko tulee välillä olkapäälle”Nykyisin Hanna-Leena on Mehiläisen suun terveyden myyntipäällikkö ja nauttii työstään.– Tämä työ on kuin minulle tehty. Pidän ongelmanratkaisusta ja siitä, että olen saanut lisää vastuuta, hän kiittelee.Työ ja vapaa-aika ovat nyt tasapainossa. Ja jos ne eivät joskus ole, Hanna-Leena tunnistaa uupumuksen merkit. Ensin kärsii uni, sitten liikunta ja lopulta hän haluaa vain käpertyä iltaisin peiton alle syömään suklaata.– Uupua voi niin työssä kuin vapaa-ajallakin, jos tekemistä on liikaa. Tarvittaessa jätän pois yhdistystoiminnan ja salitreenit. Käyn vain kävelyllä.Avaa kuvien katseluJos Hanna-Leena Kuisma uupuu liikaa, hän jättää salitreenit väliin. Kuva: Jani Aarnio / YleHanna-Leena on pudottanut painonsa samaan lukemaan kuin ennen uupumistaan. Hän huolehtii edelleen säännöllisestä syömisestä ja liikunnasta – eikä unohda myöskään herkuttelua. Hän on nyt paremmassa kunnossa kuin koskaan.– Silti peikko tulee silti välillä olkapäälle sanomaan, että nyt pitää äkkiä laihduttaa. Osaan nykyisin hiljentää sen. Ulkonäössäni ei ole virheitä, ei kenenkään ulkonäössä ole.Kolme vinkkiä – tee ainakin nämä1. Aloita pienestäAla käydä vaikka kävelyllä kerran viikossa. Yritä iltapäiväväsymyksen aikaan syödä välipala karkkipussin sijaan.2. Älä jätä kaikkia herkkuja poisJos olet perso suklaalle, jätä se pois, mutta ota tilalle jokin vähemmän houkutteleva herkku, jota sinun ei tee mieli syödä joka päivä.3. Jos et jaksa, lepääJos olet uupunut henkisesti, sinun ei kannata rääkätä itseäsi rankalla jumpalla. Mene mieluummin vaikka kävelylle.Ladataan lomaketta...Olo 2.0 on sisältökokonaisuus unesta, ravinnosta ja liikunnasta. Tammikuussa etsimme parempaa elämää yhdessä toimittaja Inkeri Alatalon kanssa. Katso Olo 2.0:n jakso 8: Kuva musta itestä on muuttunu.</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>69</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Essee: Uutuuselokuva näyttää natsit tavallisina ihmisinä, ja sen katsominen on musertava kokemus</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20071369</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Rudolf Höss tuijottaa pimeään. Hänen ilmeensä ei värähdä. Hän ei uskalla liikkua. Pimeyden edessä myös Auschwitzin keskitysleirin johtaja on pieni ja yksin.Olen nähnyt brittiohjaaja Jonathan Glazerin uuden elokuvan The Zone of Interest jo kaksi kertaa. Kummallakin kerralla olen tuijottanut valkokangasta lamaantuneena.En pidä natseista enkä natsielokuvista. Miksi elokuva natsijohtajan perhe-elämästä sitten puhuttelee minua?Vielä kuukausia elokuvan näkemisen jälkeen havahdun ajattelemasta sitä eri yhteyksissä: holokaustia taiteessa ja historiassa, ihmisen kykyä pahaan.Joka kerta palaan tähän elokuvan loppupuolella esiintyvään kuvaan:Rudolf Höss yksin pimeyden edessä.Kuvassa ei ole paljon mitään, ja samalla se tuntuu sisältävä kaiken. Uskon, että me kaikki voimme nähdä kohtauksessa itsemme – jos vain uskallamme katsoa.Mikä natseissa kiinnostaa?Olen kyllästynyt natseihin. Heihin liittyvät elokuvat, kirjat ja näytelmät ovat Suomessa todella suosittuja. Olen joskus todennut happamasti, että mistä tahansa teoksesta voi tehdä menestyksen laittamalla sen mainokseen hakaristin.Suomessa yksi syy natsien tenhoon on vaikea suhde omaan sotahistoriaamme. Toisin kuin sotaa, sen jättämiä haavoja on käsitelty taiteessamme liian vähän.Avaa kuvien katseluHollywood harvoin onnistuu kuvaamaan holokaustia. Schindlerin lista (1993) on todennäkösesti onnistunein holokaustista kertova Hollywood-elokuva, sillä se ei päästä katsojaansa helpolla. Sekin on parhaimmillaan keskittyessään johonkin muuhun kuin sankaritarinansa juoneen. Kuva: Wikimedia commons.Uskon natsitarinoiden tulvan johtuvan ennen muuta siitä, että haluamme selityksen asioille, joita emme osaa selittää. Haluaisimme ymmärtää pahuutta, jotta meidän ei tarvitsisi pelätä sitä.Elokuvien ja kirjojen natsihahmot ovat kuitenkin lähes aina pelkkää pop-kulttuurikuvastoa: fetisoituja ja demonisoituja epäihmisiä, jotka haukahtelevat komentosanoja saksaksi.Natsien kuvaamiseen liittyy toinenkin ongelma. Rehellinen pahuuden käsittely vaatisi holokaustin kuvaamista. On kuitenkin väitetty, että holokaustia ei voi kuvata.Kauhuja ei näytetä. Silti ne ovat läsnä koko ajan.Väitteessä on vissi perä. Kuuden miljoonan juutalaisen ja miljoonien muiden ihmisten murhaaminen on niin massiivinen tragedia, että sitä on vaikea edes käsittää. Saati sitten kuvata.Elokuvantekijöitä ja kirjailijoita ei voi syyttää yrityksen puutteesta. Holokausti on erittäin suosittu elokuvien ja kirjojen elementti.Pahimmillaan sitä käytetään aiheen sijasta miljöönä tai yleistunnelmana. Esimerkiksi Heather Morrisin bestseller-romaanissa Auschwitzin tatuoija keskitysleirin kamaluudet ovat vain jännittävä taustakangas, jota vasten teoksen rakkaustarina piirtyy.Tällaisissa teoksissa holokaustin massiivinen ja käsittämätön kauheus katoaa näkyvistä itse tarinan taakse. Katsoja tai lukija pääsee liian helpolla.Avaa kuvien katseluKolmentoista tunnin mittainen dokumenttielokuva Shoah (1985) toimii lukuohjeena The Zone of Interestille. Se luo katsojalle käsitystä holokaustista hitaalla kerronnalla, jossa haastateltujen pitämät tauot ja keskitysleirien metsittyneet rauniot ovat merkittävämpiä kuin se mitä sanotaan tai nähdään. Shoah luottaa katsojan kykyyn täydentää mielessään se, mitä elokuva ei sano tai näytä. Kuva: Les Aleph/Historia/Kobal/Shutterstock/All Over PressThe Zone of Interest kertoo holokaustista vain rivien välissä. Uhrien tarinoiden sijaan se kuvaa kansanmurhan toteuttajia. Sitä, miten pahuus on osa heidän arkeaan.Elokuva näyttää sen, minkä tiedämme, mutta mitä emme halua ajatella:Holokaustin toteuttajat olivat tavallisia ihmisiä. Sellaisia kuin sinä ja minä.Kauhu kuvien takanaElokuvassa ei tapahdu melkein mitään. Enimmäkseen se kuvaa, miten viiden lapsen äiti Hedwig Höss (Sandra Hüller) häärää pyörittämässä taloutta, juoruaa naisseurassa ja esittelee kaunista puutarhaansa Auschwitziin kylään tulleelle äidilleen.Isä-Rudolf ulkoilee luonnossa lasten kanssa ja hoitaa työasioita. Lapset leikkivät.Osa kriitikoista on syyttänyt The Zone of Interestiä ontoksi. Mielestäni se ei ole ontto. Päin vastoin. Elokuva on mykistävä. Sen tunnelma on niin voimakas, että kokemusta on vaikea pukea sanoiksi.Kauhuja ei näytetä. Silti ne ovat läsnä koko ajan.Avaa kuvien katseluThe Zone of Interest on pelkkiä kuvia katsoen kevyt ja pieni elokuva, mutta sen pinnan alla myllertää isoja ja vaikeita kysymyksiä. Kuva: Courtesy of A24Auschwitzin taukoamatta toiminnassa olevista krematorioista syntyvä haju on hallitseva elementti Martin Amisin romaanissa, johon The Zone of Interest perustuu. Elokuvassa ymmärrys tapahtumien taustalla käynnissä olevasta joukkomurhasta välittyy toisella tavalla.Se on läsnä äänimaisemassa, dialogin rivien välissä, näennäisen viattomissa yksityiskohdissa niin kuin puutarhan lannoittamisessa tuhkalla.Kuvaamalla Hössin arkista perhe-elämää ja keskitysleirityön byrokraattista puolta Auschwitzissa kuvattu elokuva herkistää katsojan kaikelle sille, mitä tapahtuu kohtauksien laidoilla ja kuvan ulkopuolella:Öisin taivaalla hohkaavaan krematorion infernaaliseen kajoon. Taustalla tauotta jatkuvaan tuhoamisleirin äänimaisemaan.Emme katso, mutta katsomme kuitenkin.Kehoon siirretty syyllisyys”Meillä on täällä kaikki mitä olemme halunneet.”Näin kuvailee Auschwitzia keskitysleirin johtajan vaimo Hedwig Höss. Repliikki tuntuu yhtä aikaa vilpittömältä ja valheelliselta.Sandra Hüllerin näyttelijäntyössä rouva Hössin ilmeetön ja kulmikas tapa kävellä ja olla viestivät hänen kantavan syyllisyyttä, jota hän ei kykene myöntämään edes itselleen.Avaa kuvien katseluNäyttelijä Sandra Hüller on kertonut haastatteluissa, miten kammottavalta hänestä tuntui mennä saksalaisena Auschwitziin kuvaamaan The Zone of Interestiä. Hän ei halunnut inhimillistää rooliaan, koska ei kokenut Hedwig Hössin ansaitsevan minkäänlaista anteeksiantoa. Kuva: LANDMARK MEDIA / Alamy/All Over PressThe Zone of Interestin henkilöt tietävät tarkalleen, mitä muurin toisella puolella tapahtuu. Se on selvää heidän puheissaan ja kaikessa heidän olemisessaan.Näyttelijöiden työskentely kuvastaa sitä syyllisyyttä, joka iski sodan loputtua saksalaisiin ja isoon osaan muitakin eurooppalaisia. Yhtäkkiä kaikki esittivät, että eivät olleet tienneet mitään siitä, mitä juutalaisille tehtiin.”Opa war kein Nazi”, minun isoisäni ei ollut natsi, on sukupolvelleni yleinen saksalainen hokema. Jos kaikki tällaiset väitteet pitäisivät paikkansa, oli koko natsi-Saksassa vain kourallinen natseja.Nurin käännetty maailmaThe Zone of Interest kuvaa maailmaa, jossa kuolemantehtaat ovat arkipäiväistä byrokratiaa ja kuolevilta ryöstäminen kahvipöytäkeskustelun aihe. Se kysyy samaa kysymystä, jota eurooppalaiset ovat toistaneet itselleen lähes 80 vuotta. Miten se oli mahdollista?Holokausti edellytti saksalaisen yhteiskunnan muutoksen. Maata hallinnut natsipuolue ajoi väkivaltaisen antisemitisminsa läpi 1930-luvulla askel askeleelta.Avaa kuvien katseluEhkä onnistunein fiktioelokuva holokaustista on unkarilaisen László Nemesin Son of Saul (2015). Yhtä keskitysleirin vankia seuraava elokuva pitää kameran niin tiiviisti päähenkilössään sonderkommando Saulissa, että kaasukammiot, teloitukset ja muut Auschwitzin kauhut nähdään vain taustalla. Katsoja ymmärtää näkevänsä vain pienen osan totuutta. Kuva: Photo 12 / Alamy/All Over PressEnsin muuttui kieli, sitten lait ja lopulta ihmisten käyttäytyminen. Lähes huomaamatta moraali oli kääntynyt ympäri ja ihmisten murhaamisesta oli tullut normaali ja hyväksyttävä, jopa välttämättömänä pidetty, asia.Kaiken läpäisseestä asennemuutoksesta huolimatta ajatusta kuolemanleireistä pidettiin Euroopassa liian kamalana. Todisteista huolimatta ihmiset käänsivät selkänsä, kun heidän naapurinsa ajettiin pois kotoaan.On tärkeää, ettei historia unohdu. Vain jos tiedämme, mihin ihmiset kykenevät, voimme estää sitä tapahtumasta uudestaan.Tästä syystä holokaustia on kuvattava. Vaikka sitä ei voi kuvata, on sen yrittäminen välttämätöntä.Holokaustia kuvaavat teokset kysyvät:Mitä sinä tekisit?Pimeys katsoo takaisinMielessäni Rudolf Höss tuijottaa yhä pimeään. Uskon tämän kuvan kulkevan mukanani niin kauan kuin elän.Ainakin toivon niin. Se muistuttaa minua siitä, että meistä jokaisen sisällä on oma pimeytemme.Avaa kuvien katseluRudolf Höss (Christian Friedel) on elokuvassa tehokkuuteen pyrkivä työnarkomaani, jonka työhön kuuluu muun muassa neuvotella IG-Farben-yhtiön edustajien kanssa kaasukammioiden tehoa parantavista uudistuksista. Kuva: Courtesy of A24Me kaikki kannamme syyllisyyttä asioista, joita teemme vaikka tiedämme niiden olevan väärin tai haitallisia.Käännämme nytkin selkämme sodille, joissa siviilejä ja lapsia tapetaan julmasti ja syyttä.Ostamme parin vuoden välein uuden kännykän vaikka tiedämme, että lapsia kuolee kaivoksissa teknologiaame käytettävien mineraalien takia.Saastutamme ainoaa kodiksemme soveltuvaa planeettaa, koska emme kykene hillitsemään päästöjä aiheuttavia tottumuksiamme.Nämä kauhdeudet ja holokausti eivät ole sama asia. Se ei tee meistä vähemmän syyllisiä.Huomaan, että holokaustitarinoille altistuminen on saanut minut epäilemään ihmisen hyvyyttä.Elokuvassa Rudolf Höss voi pienen hetken huonosti, ehkä tekojensa takia. Tapahtuiko niin koskaan todella?Onko natsivaimon kehossaan kantama syyllisyys vain elokuvantekijän romantisoitu käsitys siitä, että ihminen on pohjimmiltaan hyvä?Rinnastaen aiempiin esimerkkeihin nykyajasta: voivatko kännykkäfirmojen toimitusjohtajat koskaan pahoin Kongon kaivoksissa kuolevien lasten takia?Askel pois pimeästäYksi vastaus löytyy dokumenttielokuvasta The Act of Killing (2012), johon The Zone of Interestin loppukohtausta on verrattu.Se seuraa Indonesian kommunistivainoissa ihmisiä raa’asti teloittanutta Anwar Congoa, joka esittää kameran edessä ylpeillen millaisia murhia on tehnyt 40 vuotta aiemmin.Avaa kuvien katseluIndonesian kommunistivainoista kertova The Act of Killing (2012) kysyy samoja kysymyksiä kuin The Zone of Interest. Keskellä kuvassa elokuvan päähenkilö, kuolemanpartioihin osallistunut Anwar Congo. Kuva: The Act Of KillingElokuvan alussa Congo ei tunne syyllisyyttä. Miksi tuntisikaan? Hänhän on Indonesiassa lähes kansallissankari.Loppupuolella, käytyään murhiaan läpi yhä uudestaan ja uudestaan elokuvan tekijöiden kanssa, vanha teloittaja alkaa äkillisesti voida pahoin. Hänen kehonsa tuntuu näyttävän, että jollakin syvemmällä tasolla ihminen tietää tehneensä väärin vaikka kieltäisi sen itseltään.Tarkoittaako se, että toivoa on?</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
         <is>
           <t>Yle</t>
         </is>

--- a/dynamic-datasets/articles_excel.xlsx
+++ b/dynamic-datasets/articles_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,17 +469,21 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Analyysi: Pekka Haavisto kehui Olli Rehniä – Alexander Stubb toivoi Riikka Purralle talousonnea</t>
+          <t>Halla-aho ja Rehn olivat suosittuja idässä ja pohjoisessa, mutta Stubb ja Haavisto eivät aio niissä käydä – tässä syyt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072585</t>
+          <t>https://yle.fi/a/74-20072456</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Presidentinvaalien toisen kierroksen ehdokkaat kohtasivat torstai-iltana Ylen presidenttiväittelyssä.Valitsijayhdistyksen ja vihreiden presidenttiehdokas Pekka Haavisto ja kokoomuksen presidenttiehdokas Alexander Stubb tavoittelevat lisää ääniä ensimmäisellä kierroksella presidenttikisasta pudonneiden kannattajajoukoista.Ylen presidenttiväittelyssä Pekka Haavisto heitti verkkojaan erityisesti valitsijayhdistyksen ja keskustan ehdokkaana presidentiksi pyrkineen Olli Rehnin äänestäjille.– No tuolla on ollut erittäin hyviä ehdokkaita ensimmäisellä kierroksella ja taisin jossain sanoa, että nukkuisin yöni ihan hyvin, vaikka Olli Rehnin hallitsemassa tasavallassa, Haavisto sanoi.– Totta kai minä tuon Pekan ottaisin, naurahti Alexander Stubb kysymykseen, kenet ensimmäisen kierroksen ehdokkaista hän ottaisi varapresidentiksi, jos sellainen Suomessa olisi.Ehdokkaat kosivat maaseudun äänestäjiäHaavistolla ja Stubbilla on haasteita myös maaseudun äänestäjien tavoittelemisessa.Haavisto kiinnitti huomiota maanviljelijöiden talousvaikeuksiin, kun kustannukset ovat nousseet. Stubb kertoi, että hän on menossa maatilalle perjantaina.Suurin potti kodittomia äänestäjiä on perussuomalaisten ehdokkaana kampanjoineen Jussi Halla-ahon tukijoukoissa.Stubb on pääministeripuolue kokoomuksen ehdokas, mutta hän on varonut leimautumista hallituksen ehdokkaaksi.Ylen presidenttiväittelyssä Stubb toivotti kuitenkin valtiovarainministeri Riikka Purralle (ps.) menestystä talouspolitiikan hoidossa.Erilaisia näkemyksiä Nato-politiikastaPresidenttiväittelyn ensimmäisenä aiheena oli ulko- ja turvallisuuspolitiikka.Haavistolla ja Stubbilla on entisinä ulkoministerinä vahvaa käytännön kokemusta ulkopolitiikan hoitamisesta.Kokemus näkyi ja kuului ehdokkaiden linjauksissa. Vastaukset tulivat nopeasti ja sujuvasti. Näkemyksistä löytyi myös eroja äänestäjien arvioitavaksi.Alexander Stubb edustaa ulko- ja turvallisuuspolitiikassa suoraviivaisempaa linjaa kuin ainakin sanoissaan hieman varovaisempi Haavisto.Presidenttiehdokkaat Alexander Stubb ja Pekka Haavisto sanailivat Suomen Nato-politiikasta Ylen presidenttiväittelyssä 1. helmikuuta 2024.Ydinasepolitiikassa Stubb haluaa viestittää Nato-liittolaisille ja myös Venäjälle, että Suomella ei ole rajoitteita ydinaseiden liikuttelussa tai sijoittamisessa Suomeen.Haavisto muistutti, että ydinenergialaki kieltää ydinaseiden sijoittamisen Suomeen. Stubb vastasi, että lakia voidaan muuttaa.Stubb toivoi, että Suomeen sijoitettaisiin pysyvästi esikuntatehtäviin 40–50 Nato-upseeria.Haaviston mielestä harjoitusyhteistyö riittää, eikä Suomeen tarvita pysyviä Nato-joukkoja.Ehdokkaat säilyttivät malttinsa väittelyssäYlen ensimmäinen presidenttiväittely ei presidenttikisaa vielä ratkaissut.Haavisto ja Stubb säilyttivät hyvin malttinsa väittelyssä.Nopeassa sanailussa äänestäjillä saattoi olla välillä hieman vaikeuksia pysyä mukana, mutta koko väittelyn voi katsoa uudelleen Yle Areenasta.Katso koko presidenttiväittely.Presidentinvaalien toisen kierroksen ehdokkaat Pekka Haavisto ja Alexander Stubb kohtasivat Ylen presidenttiväittelyssä 1. helmikuuta 2024.</t>
+          <t xml:space="preserve">Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Toisen kierroksen kampanjointi käynnistyi maanantaina kiivaana.Jatkoon päässeet kokoomuksen Alexander Stubb sekä valitsijayhdistyksen Pekka Haavisto (vihr.) yrittävät houkutella taakseen niitä 1,5 miljoonaa suomalaista, jotka äänestivät ensimmäisellä kierroksella karsiutuneita ehdokkaita. Lisäksi ääniä hamutaan niiltä 1,3 miljoonalta, jotka jättivät kokonaan äänestämättä.Etenkin pohjoisessa, idässä ja Pohjanmaalla äänestettiin ahkeraasti kisasta karsiutuneita perussuomalaisten Jussi Halla-ahoa ja valitsijayhdistyksen ja keskustan Olli Rehniä. Siellä on siis paljon äänestäjiä, jotka etsivät itselleen uutta ehdokasta.
+Toteutus vaatii toimiakseen JavaScriptin.
+Keiden tavoittamiseen kampanjoissa erityisesti panostetaan? Selvitimme, minne kakkoskierroksen ehdokkaat kampanjakiertueillaan suuntaavat ja missä he aikovat kohdata äänestäjiä kasvokkain.Reissujen kohteena ovat etenkin suuret kaupungit, joissa Stubb ja Haavisto veivät ensimmäisellä kierroksella ykkös- ja kakkossijat. Kovin itään tai pohjoiseen kampanjabussit eivät suuntaa.
+Alla oleva grafiikka selittää reittivalintoja.Maantieteeseen perustuvat tuloskartat eivät huomioi asutuksen jakaumista. Määrällisesti selvästi eniten potentiaalisia äänestäjiä on suurissa kaupungeissa ja etelässä. Kun aikaa on käytettävissä rajallisesti, on reissukohteet valittava harkiten.
+</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -497,17 +501,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Neljä huippukohtaa Stubbin ja Haaviston presi­dent­ti­väit­telystä</t>
+          <t>Kotiäänestys noussut ennä­tys­lu­kemiin – osuus on silti vielä pieni</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072600</t>
+          <t>https://yle.fi/a/74-20072160</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Presidentinvaalien toisen kierroksen ehdokkaat, kokoomuksen Alexander Stubb ja vihreiden tukema, valitsijayhdistyksen Pekka Haavisto kohtasivat Ylen presidenttiväittelyssä torstaina. Katso alta neljä huippukohtaa.Alexander Stubb ehdottaa Suomeen jonkinlaista Naton alaesikuntaa, jossa ei olisi kysymys tukikohdasta vaan muutamasta kymmenestä upseerista. Haaviston mukaan Suomen puolustus nojaa suomalaisiin eikä turvallisuustilanne ole sellainen, että Nato-joukkoja tarvittaisiin.Pekka Haavisto ei halua Suomen liikuttavan ydinaseita konkreettisesti. Alexander Stubbin mukaan Suomella on nyt mahdollisuus saada ydinasepelotin. Hänen mukaansa on kyse siitä, että Suomi viestittää muulle maailmalle, ettei sillä ole rajoitteita Nato-jäsenyytensä suhteen.Haavisto voisi presidenttinä ottaa kantaan työmarkkina-asioihin kulisseissa. Hän suosittelisi sopimusyhteiskunnassa pysymistä eikä rajujen selkävoittojen ottamista.Alexander Stubbin mukaan presidentin tehtävä ei ole tukea hallituksen politiikkaa. Hän sanoo olevansa asian kanssa varovainen, koska on ollut itsekin hallitusvastuussa, joissa päätökset ovat olleet hankalia.Yle näyttää vielä ensi viikon torstaina 8. helmikuuta toisen presidenttiväittelyn, jolloin teemana on erityisesti ulkopolitiikka.</t>
+          <t>Presidentinvaalien ensimmäisellä kierroksella kotiäänestäjiä oli lähes 17 000.Luku yllätti jossain määrin oikeusministeriön vaalijohtaja Arto Jääskeläisen. Tilastot osoittavat kuitenkin, että melko lähelle tuota lukua on päästy aiemminkin.– 17 000 on lukuna kieltämättä korkein. Presidentinvaalien toisella kierroksella vuonna 2000 ja 2006 on päästy jo lähelle, kun määrät olivat 14 000 ja 15 000, Jääskeläinen kertoo.Koska suuret ikäpolvet vanhenevat, olisi luontevaa ajatella, että kotiäänestysten määrä jatkaa kasvuaan.Arto Jääskeläisen mukaan ennätysluvusta voi kuitenkin tehdä ennen kaikkea yhden johtopäätöksen.– Kotiäänestysten lukumäärä korreloi aika hyvin sitä, miten kiinnostavat vaalit ovat kyseessä ja missä vaalityypissä on paras äänestysaktiivisuus. Presidentinvaaleissa se on tyypillisesti ollut juuri näin, Jääskeläinen kuvaa.Kotona saa äänestää ennakkoon äänioikeutettu henkilö, jonka kyky liikkua tai toimia on rajoittunut eikä hän pääse äänestyspaikkaan ilman kohtuuttomia vaikeuksia.Kotiäänestykseen pitää ilmoittautua erikseen oman paikkakunnan keskusvaalilautakuntaan, mutta syitä kotiäänestämisen tarpeelle ei tarvitse erikseen perustella.Kotiäänestysten määrä on kuitenkin edelleen kokonaisuuteen nähden hyvin marginaalinen, Arto Jääskeläinen muistuttaa.Jääskeläisen mukaan näin myös ajateltiin vuonna 1988, kun kotiäänestys otettiin käyttöön. Kotiäänestysten määrä voi kuitenkin jatkossa jonkin verran kasvaa, kun entistä useampi esimerkiksi ikäihmisistä asuu kotonaan pidempään.Tasaista kasvua joissakin kunnissa - resurssit tiukillaEnsimmäisellä kierroksella jopa kolme neljästä äänioikeutetusta käytti äänioikeuttaan.Kotiäänestysten lukumäärä on aina suhteessa muuhun äänestysvilkkauteen, sanoo vaalijohtaja Arto Jääskeläinen.Tasaista kasvua on kuitenkin havaittu esimerkiksi Seinäjoella ja Kokkolassa.Kokkolassa presidentinvaalin ensimmäisellä kierroksella kotiäänestyksiä oli 206 kappaletta, kun viime kevään 2023 eduskuntavaaleissa niitä annettiin 109.Seinäjoen kaupungin hallintojohtaja Jari Jokinen kertoo kotiäänestysmäärän kasvaneen tasaisesti.– Syinä ovat kaupungin asukasluvun kasvu, väestön ikääntyminen ja näissä vaaleissa myös äänestysprosentin nousu muutoinkin.Kotiäänestysten lisääntyminen vaikuttaa myös vaalitoimitsijoiden tarpeeseen. Jokisen mukaan kotiäänestysten määrä on lisääntynyt Seinäjoella nyt myös vaalien toisella kierroksella ja resurssit ovatkin tiukassa.Lisää: Tästä pääset Ylen vaalikoneeseen.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -525,17 +529,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Kuvat ja videot näyttävät, kuinka suomalaiset viettivät lakkopäivää</t>
+          <t>Katso lakon vaikutukset busseihin, juniin ja ratikoihin</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072567</t>
+          <t>https://yle.fi/a/74-20072444</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Useat SAK:n, STTK:n ja Akavan ammattiliitot protestoivat hallituksen työelämäuudistuksia ja sosiaaliturvaleikkauksia vastaan poliittisilla lakoilla.Lakossa on arviolta 200 000–300 000 ihmistä keskiviikon, torstain ja perjantain aikana.Lakot olivat poikkeuksellisen laajoja torstaina. Ne näkyivät esimerkiksi päiväkodeissa, lentoliikenteessä, tuotantolaitoksissa ja kaupoissa.Torstaina järjestetyssä SAK:n ja STTK:n mielenosoituksessa Helsingin Senaatintorilla oli poliisin arvion mukaan noin 13 000 mielenosoittajaa.Tästä jutusta näet kuvina ja videoina, miten päivä eri puolilla Suomea eteni.Aikaisin aamulla liikkelleLakkovahdit seisoivat torstaiaamuna Škoda Transtechin Otanmäen tehtaan portilla Kajaanissa. Avaa kuvien katseluSAK:n ja STTK:n mielenosoitukseen Helsingin Senaatintorille lähti Turusta aamulla ykstoista bussillista ammattiyhdistysliikkeen jäseniä.  Kuva: Tarja Hiltunen / YleRanja Pelttari ja Marko Ketolainen lähtivät aikaisin aamulla Kokkolan rautatieasemalta kohti Helsinkiä.Eilen keskiviikkona Senaatintorilla oli puolenpäivän aikaan hiljaista ja sää oli sumuinen.24 tuntia myöhemmin aurinkoisella torilla oli tuhansia ihmisiä.Monenlaista kannanottoaAvaa kuvien katseluPääministeri Petteri Orpo (kok.) on sanonut pitävänsä työtaistelutoimia ylimitoitettuina. Hänkin sai osansa mielenosoittajien kylteistä. Kuva: Vesa Moilanen / LehtikuvaAvaa kuvien katseluPääoppositiopuolue SDP:n puheenjohtaja Antti Lindtman piti puheen Senaatintorilla. Kuva: benjamin Suomela / YleMyös työministeri Arto Satonen (kok.) saapui Senaatintorille huutojen säestyksellä.Avaa kuvien katseluHelsingin poliisi arvioi osallistujamääräksi 13 000 ihmistä.  Kuva: Benjamin Suomela / YleAvaa kuvien katseluJärjestäjien arvion mukaan noin 7 000 ihmistä saapui Helsingin ulkopuolelta.  Kuva: Benjamin Suomela / YleYrittäjille vaikeuksia ja ylimääräistä työtäPoliittisilla lakoilla on monenlaisia vaikutuksia yrityksiin. Näin jyväskyläläiset yrittäjät kertoivat lakon vaikutuksista.Avaa kuvien katseluRuokakauppojen aukioloajoissa oli isoa vaihtelua. Tämä kuva on S-market Pasaatista Kotkasta. Kuva: Mari Siltanen / YleAvaa kuvien katseluTurun K-Citymarket Kupittaan kauppias Hannu Aaltosen mukaan noin 80 prosenttia henkilökunnasta tuli torstaina töihin. Hän itse työskenteli kärrypoikana. Kuva: Tarja Hiltunen / YleLappeenrantalainen Miro Kangas sai viettää torstaina vapaapäivää päiväkodista. Hän vietti päivän isänsä kanssa, koska päiväkoti oli kiinni. He kävivät yhdessä ostoksilla.Avaa kuvien katseluKoneen osallistuminen lakkoon pysäytti hissihuoltoa Suomessa. Kuopion kauppakeskus Sektorissa rikkinäisen hissin korjaus viivästyy. Kuva: Petri JulkunenLakko näkyi vahvasti myös muun muassa lentoliikenteessä. Katso Silja Viitalan kuvareportaasista, miltä Helsinki-Vantaan lentoasemalla torstaina näytti.Avaa kuvien katseluSenaatintorilla nähtiin myös toiveikkaita ilmeitä. Kuva: Silja Viitala / YleYle jatkaa lakkojen seurantaa myös perjantaina tässä artikkelissa.</t>
+          <t>Julkinen liike pysähtyy tai harvenee perjantaina lakkojen takia lähes koko Suomessa.Julkisten ja hyvinvointialojen liitto JHL:n lakko pysäyttää matkustajajunaliikenteen koko maassa Pohjois-Suomen yöjunia lukuun ottamatta. Junaliikenteen lakko koskee työvuoroja, jotka alkavat 2. helmikuuta kello 00.01 ja 23.59 välillä. Lauantain junaliikenne kulkee normaalisti.VR:n kaukoliikenteen kertalipun voi muuttaa halutessaan toiseen ajankohtaan maksutta. Jos matkan ajankohtaa ei vaihda, VR palauttaa rahat automaattisesti takaisin lakon ajalle ostetuista junalipuista.Osa kaukoliikenteen busseista ei liikennöiAuto- ja kuljetusalan työntekijäjärjestö AKT:n lakko vaikuttaa kaukoliikenteen linja-autoihin.Osa Matkahuollon vuoroista jää liikennöimättä. Matkahuollon verkkosivujen aikatauluhaussa ja nettilipunmyynnissä on ajantasainen tieto mahdollisen lakonkin aikana.Onnibus pyrkii ajamaan suurimman osan vuoroista. Lipunmyynnissä voi olla peruttuja vuoroja, mutta lista ajettavista vuoroista päivittyy Onnibusin nettisivuille. Lauantaina Onnibus ajaa vuorot normaalisti lukuun ottamatta klo 1.30 Tampereelta lentokentälle lähtevää vuoroa.Vuoroihin voi tulla muutoksia lyhyellä varoitusajalla. Sekä Onnibus että Matkahuolto hyvittävät perutuille vuoroille ostetut liput.Toimittaja Juha Kokkala kyseli Tampereen rautatieasemalle, että vieläkö matkustajilla riittää lakkolaisille ymmärrystä.Paikallisliikenteen vuoroja peruttu ympäri SuomeaAKT:n ja JHL:n lakot iskevät myös paikallisliikenteeseen. Selvitimme, miten lakon vaikutukset näkyvät eri puolilla Suomea.PääkaupunkiseutuPääkaupunkiseudulla paikallisjunat, metrot ja raitiovaunut eivät liikennöi tänään lainkaan. Myös suuri osa HSL:n bussiliikenteestä jää ajamatta.Torstain ja perjantain välisenä yönä bussit ja raitiovaunut kulkevat noin kello kahteen. Sen jälkeen liikenne on lähes kokonaan seisahduksissa ja alkaa uudelleen lauantaiaamuna.Osa busseista kuitenkin kulkee myös perjantaina.HSL päivittää sivuilleen ajantasaista tietoa lakon vaikutuksista liikennöintiin.AvaaTampereBussit, ratikat ja lähijunat eivät kulje perjantaina Tampereen seudulla. Torstain ja perjantain välisenä yönä ratikat ja bussit liikennöivät työvuorot loppuun eli noin kello kahteen.Joitain yksittäisiä bussivuoroja saatetaan ajaa perjantain aikana. Vain neljä linjaa liikennöi perjantaina normaalisti aikataulun mukaan. Ajantasaisen tiedon liikennöivistä linjoista voi tarkistaa Nyssen reittioppaasta.Lauantaina bussiliikenne palaa normaaliksi lauantaiaamuna noin neljän ja viiden välillä. Ratikkaliikenne käynnistyy viiden jälkeen lauantaiaamuna.AvaaTurkuLakko pysäyttää ainakin osan Fölin bussiliikenteestä perjantaina, mutta ajettavia vuoroja on lähes kaikilla linjoilla.Ajettavat vuorot selviävät vasta, kun tiedetään lakkoon osallistuvien kuljettajien määrä. Ajantasainen tieto ajettavista vuoroista löytyy Fölin verkkosivuilta.Fölin reittiopas ei päivity lakon aikana, mutta peruutetut vuorot ovat nähtävissä reittioppaan pysäkkiaikatauluista.AvaaLahtiLahden seudun liikenteessä suurinta osaa vuoroista ei ajeta perjantaina. Lakkopäivänä ajettavat vuorot löytyvät LSL:n verkkosivuilta.Ajettavat linjat kulkevat pääsääntöisesti vain perjantai-iltapäivään saakka.AvaaHämeenlinnaOsa Hämeenlinnan seudun bussivuoroista jää ajamatta perjantaina. Pekolan Liikenteen ja Mikkolan Liikenteen seutulinjat sekä Lehdon liikenteen vuorot kulkevat normaalisti.Esimerkiksi kaikkia Länsilinjojen liikennöimiä linjoja ei ajeta. Myös osa koulukuljetuksista voi jäädä ajamatta.Tiedot päivitetään reittioppaaseen sekä Hämeenlinnan kaupungin verkkosivuille.AvaaJyväskyläUseimmat Linkki-linjat jäävät ajamatta Jyväskylässä, Laukaassa ja Muuramessa. Muutamat linjat kuitenkin liikennöivät normaalisti. Kokonaan ajamatta jäävät Koiviston Auto Jyväskylän vuorot.Linkin aikataulu- ja reittioppaasta näkee, mitkä vuorot liikennöivät lakon aikana.AvaaItä-SuomiLakon takia Itä-Suomessa jää ajamatta osa Koiviston auto Kuopion, Pohjolan matkan, Savonlinjan, Savo-Karjalan linjan ja Soisalon liikenteen vuoroista.Kuopiossa suurin osa paikallisliikenteen bussivuoroista jää ajamatta, mutta muutamia yksittäisiä linjoja ja vuoroja liikennöi normaalisti.Myös osa ely-keskuksen järjestämän liikenteen vuoroista voi jäädä ajamatta. Lakon aikaisen liikennöinnin tietoja päivitetään ely-keskuksen verkkosivuille ja aluekohtaisiin reittioppaisiin.AvaaKaakkois-SuomiPerjantain lakko peruuttaa suuren osan paikallisliikenteen bussivuoroista Kaakkois-Suomessa. Lauantaina liikenne ajetaan normaalisti aamukolmesta alkaen.Katso täältä tarkemmat tiedot Lappeenrannan, Kouvolan ja Kotkan seudun paikallisliikenteestä.AvaaSatakuntaSatakunnassa osa paikallisliikenteestä ei liikennöi perjantaina Raumalla ja Porissa. Lakon piirissä ovat Rauman Gyyt, Porin Linjat ja Satakunnan Liikenne.AvaaVaasaVaasassa suurin osa bussiliikenteen vuoroista jää ajamatta. Kaupunki pyrkii pitämään Liftin reittioppaan aikataulutiedot ajan tasalla.Lakon aikana Vaasan kaupunki tarjoaa bussimatkat ilmaiseksi Vekan ja Oravaisten Liikenteen liikennöimillä linjoilla.AvaaRovaniemiRovaniemellä osa paikallisliikenne Linkkarin bussivuoroista jää ajamatta perjantaina. Myös koulukuljetuksissa on muutoksia.Ajantasainen tieto lakon aiheuttamista muutoksista löytyy Linkkarin sivuilta.Avaa</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -553,17 +557,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Analyysi: Ministerin torilla saama vastaanotto paljasti, ettei helppoja aikoja ole edessä</t>
+          <t>Mobilepay ei peräänny runsaasta palautteesta huolimatta – kaikki nimet näkyvät käyttäjälle jatkossakin</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072566</t>
+          <t>https://yle.fi/a/74-20072568</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Työministeri Arto Satonen (kok.) nousi buuausten saattelemana torstaina Senaatintorin lavalle toistamaan tuttua viestiä. Hallituksen ajamat muutokset ovat välttämättömiä kansantalouden tasapainottamiseksi, kilpailukyvyn parantamiseksi ja työllisyyden lisäämiseksi.Satosen puhe ei varsinaisesti uponnut mielenosoittajiin kuin veitsi sulaan voihin.Ay-liikkeen nyt nähtävät ponnistukset ovat jatkoa jo viime syksyllä alkaneille toimille.Kaava vaikuttaa selkeältä.Siinä missä joulukuiset lakot olivat vuorokauden mittaisia, tämänhetkiset toimet kestävät enintään kaksi päivää.Laajuus on myös paisunut. Nyt kolmen päivän ajalle ulottuvien, erimittaisten lakkojen piirissä on ammattiliittojen mukaan jopa 300 000 työntekijää.Ylen tietojen mukaan SAK:n työvaliokunta kokoontuu huomenna perjantaina ja luvassa on lisää työtaisteluilmoituksia.Jatkoa voi siis seurata jo ennen kuin viimeisetkin keiton jämät on kaavittu soppatykkien pohjilta.Seuraavat toimet tuskin poikkeavat linjasta. Vaikka työntekijäleiri toistelee toivovansa hallitukselta vastaantuloa, siitä ei ainakaan vielä näy merkkejä. Toki siitä ei myöskään ole varmuutta, millainen vastaantulo olisi riittävä.Suurin työntekijäkenttää hiertävä kysymys on varmasti kokemus siitä, että neuvottelut työelämämuutoksista eivät ole aitoja. Työntekijäleiri katsoo elinkeinoelämän kädenjäljen näkyvän niin voimakkaasti hallitusohjelmassa, että työnantajaleirillä ei ole motivaatiota tulla piiruakaan vastaan.Työministeri Satonen heitti jälleen Senaatintorilla palloa palkansaajapuolelle.Hän toivoi, että työntekijäkeskusjärjestö SAK palaa takaisin neuvottelemaan vientivetoisesta palkkamallista. SAK keskeytti neuvottelut joulukuussa, kun asialistaa ei suostuttu laajentamaan koskemaan muita hallituksen ajamia työelämämuutoksia.Perinteisesti merkittävistä työelämämuutoksista on neuvoteltu työmarkkinaosapuolten kanssa. Nyt työ kolmikannoissa on takunnut, ja esimerkiksi poliittisten lakkojen rajaamista pohtineen työryhmän työ päättyi erimielisenä.Osa hallituksen ajamista muutoksista on ay-liikkeelle hyvin periaatteellisia.Esimerkiksi paikallisen sopimisen laajentamisen järjestäytymättömiin yrityksiin pelätään romuttavan koko työehtosopimusten yleissitovuuden.Onko tilanteesta ulospääsyä?Vaikka työnantajat eivät ole nyt nähtävän kiistan suora osapuoli, lakoilla pyritään vaikuttamaan myös työnantajalinnakkeen, Eteläranta 10:n, joukkoihin. Hallitus kuuntelee työnantajaleiriä hyvin herkällä korvalla, palkansaajajärjestöissä nähdään.Työnantajaleirissä katsotaan, että hallitusohjelmakirjauksilla saavutetaan isommat hyödyt kuin mitä haittoja työtaisteluista aiheutuu.Elinkeinoelämän keskusliitto arvioi, että nyt käynnissä olevien lakkotoimien tekemä lovi bruttokansantuotteeseen on 360 miljoonaa euroa. Kipurajan sijaintia voi vain arvailla.Työnantajaleirissä luotetaan eduskunnan kokoonpanon pysyvän vastaisuudessakin heille niin suotuisana, että kerran läpi saatuja poliittisia päätöksiä tuskin tullaan lähitulevaisuudessa purkamaan.Senaatintorille kokoontuneet työntekijät olivat täynnä taistelutahtoa. Ilmassa oli tyytymättömyyttä, vihaakin. Osalle taas tapahtuma saattoi olla toivottu lisävapaapäivä, jolloin saa viettää vapaa-aikaa kollegoiden kanssa.Osassa ammattiliitoista poliittisiin työtaisteluihin osallistuminen jakaa jäsenistöä. Jäsenistöstä iso osa voi olla hallituspuolueiden kannattajia, ja se näkyy muun muassa monessa korkeakoulutettujen keskusjärjestö Akavan jäsenliitossa.Akavalaiset liitot laajemmin eivät olekaan yhtyneet työntekijäkeskusjärjestö SAK:n johtamaan ja STTK:n peesaamaan lakkorintamaan. Ensi viikolla Akavakin kuitenkin järjestää kahden tunnin mielenilmauksen vastalauseena hallituksen toimille. Aika näyttää, meneekö viesti akavalaisten kautta paremmin perille.Kannatus pysynytHallituspuolueiden kannatus on pitänyt pintansa kovista toimista huolimatta.Jos jonkun hallituspuolueen kannatus kääntyisi kovaan laskuun hallituksen työpolitiikan vuoksi, se voisi lisätä soraääniä hallituksen sisällä ja edesauttaa vastaantuloa työntekijäleirin suuntaan.Katse on kohdistunut etenkin perussuomalaisiin. Pettymistä puolueeseen oli ilmassa ainakin Senaatintorilla, kun lakkoilijoita epäisänmaallisuudesta syyttänyt perussuomalaisten kansanedustaja Miko Bergbom piti puheen mielenosoitusväelle.Omaa tarinaansa kertoi yhden mielenosoittajan kantama kyltti, joka julisti tutunkuuloista fraasia mukaillen: ”Perussuomalaiset pettävät aina”.Edessä häämöttää myös huhtikuinen kehysriihi, josta valtiovarainministeri Riikka Purra (ps.) on ennakoinut jopa kahden miljardin lisäleikkauksia.Palkansaajajärjestöt vakuuttavat keinovalikoimaa vielä riittävän. Vaikka Teollisuusliiton ja AKT:n kaltaisia voimaliittoja seurataan tarkasti, esimerkiksi naisvaltaisten matalapalkka-alojen pidemmillä lakoilla voisi olla merkittäviä vaikutuksia ihmisten arkeen.Ammattiyhdistyksiin kuuluu yhä pienempi osa työvoimasta. Tämä voi vaikuttaa ay-liikkeen iskuvoimaan.Nyt nähtävä ponnistus ei kuitenkaan ole viimeinen laatuaan.</t>
+          <t>Mobilepay uudisti 23. tammikuuta sovellustaan, minkä takia käyttäjänimen tai keksityn nimen käyttäminen ei enää ole sovelluksessa mahdollista.Niiden sijaan sovelluksessa näkyvät nyt etu- ja sukunimen lisäksi ihmisten toiset ja kolmannetkin nimet.Sovelluksesta on myös mahdollista saada selville puhelinnumerolla tai nimellä hakemalla ihmisen koko nimi tai puhelinnumero, vaikka kyseessä olisi salattu numero.Tämä tosin edellyttää, että numeron haltija on rekisteröitynyt Mobilepayn käyttäjäksi.Mobilepay on saanut kymmeniä palautteita sekä nimimerkkien poistamisesta että puhelinnumerolla tehtävistä hauista, kertoo Vipps Mobilepayn maajohtaja Perttu Kröger.Ilta-Sanomien mukaan tietosuojavaltuutetun toimisto on saanut muutaman kantelun liittyen Mobilepayn uudistukseen. Krögerin mukaan Mobilepaylla ei ole tiedossa, että uudistukseen liittyisi ongelmia tietosuojalain suhteen.Palautteista huolimatta Mobilepay ei ole palauttamassa mahdollisuutta käyttää sovelluksessa pelkkää nimimerkkiä tai vain etu- tai sukunimeä.– Voin aika suoraviivaisesti sanoa, että emme tule palaamaan aliaksen mahdollistamiseen, keksittyyn nimeen tai sallimaan yksittäistä etu- tai sukunimen käyttöä​, Kröger toteaa.Muutoksen taustalla väärinkäytökset Norjassa ja TanskassaMuutosta perustellaan käyttäjämäärän kasvulla Suomessa sekä turvallisuuden parantamisella.– Tanskassa ja Norjassa olemme lähes kaikkien kuluttajien puhelimessa, ja nähneet väärinkäytösten määrän kasvun näillä markkinoilla ja siitä syystä haluamme muuttaa Suomessa toimintalogiikkaa niin, että voimme ennaltaehkäistä väärinkäytöksiä ja olla turvallinen ratkaisu käyttäjillemme, Kröger sanoo.Mobilepayssa on tällä hetkellä käynnissä selvitys siitä, onnistuisiko sovelluksessa pelkän etu- ja sukunimen näyttäminen asiakkaan koko nimen sijaan.Se, miksi koko nimi on ylipäätään uudistuksessa näkynyt, liittyy Krögerin mukaan tapaan, jolla yritys käyttää nimitietoja.– Osittain se (koko nimen käyttäminen) liittyy siihen, miten käytämme virallisia rekisterejä. Käytämme koko nimen tietoja muissakin yhteyksissä kuten erinäisissä turvallisuuteen liittyvissä tarkistuksissa. Varmistamme esimerkiksi, että siirrot eivät liity rahanpesuun, Kröger sanoo.Uudistuksen aiheuttamasta ärtymyksestä huolimatta Mobilepayn aktiivisten käyttäjien määrä on Krögerin mukaan pysynyt samana.Applikaatiota myös ladataan sovelluskaupoista edelleen päivittäin samoja määriä kuin ennen, eikä Kröger ei usko muutoksesta aiheutuvan mainehaittaa Mobilepaylle.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -581,17 +585,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Puolus­tus­mi­nisteri Antti Häkkänen aikoo estää reservistä eroamisen, kertoo Kyrönmaa-lehti</t>
+          <t>Martti Ahtisaaren hauta­muis­to­merkin suunnit­te­lu­kilpailu avataan</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072595</t>
+          <t>https://yle.fi/a/74-20072619</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Puolustusministeri Antti Häkkänen (kok.) suunnittelee estävänsä reservistä eroamisen.Näin hän kertoi Laihialla ilmestyvälle Kyrönmaa-lehdelle torstaina.Häkkänen aikoo etsiä keinot, ettei reservistä eroaminen olisi enää jatkossa mahdollista.Haastattelussa hän kertoo pitävänsä epäisänmaallisena sitä, että reservistä erotaan.Yhä useampi armeijan käynyt reserviläinen on siirtynyt siviilipalvelukseenVuoden 2022 lopulla Ylelläkin uutisoitiin, että reservistä siviilipalvelukseen siirtyvien määrä on moninkertaistunut Ukrainan sodan alkamisen jälkeen.Vaikka tarkkoja syitä reserviläisten siviilipalveluksen suosion rajuun kasvuun ei kuitenkaan tiedetä, arvioi siviilipalvelusjohtaja Mikko Reijonen siviilipalveluskeskuksesta, että Ukrainan sodan vaikutus oli ilmeinen.Puolustusvoimissa ei oltu kuitenkaan huolissaan lukujen kasvusta.</t>
+          <t>Presidentti Martti Ahtisaaren hautamuistomerkin suunnittelukilpailusta on kerrottu lisää tietoja.Muistomerkin suunnitteluun kutsutaan osallistumaan suomalaisia ja Suomessa pysyvästi asuvia ammattitaiteilijoita. Ehdotuksia voi jättää 12.2.–15.4.Kilpailun järjestää valtioneuvoston kanslian asettama toimikunta. Kilpailun tuloksista päättää palkintolautakunta, johon kuuluu yhdeksän muistomerkkitoimikunnan jäsentä sekä kaksi Suomen taiteilijaseuran nimeämää jäsentä.Kilpailun tulokset julkistetaan 13. toukokuuta. Palkintorahaa on varattu yhteensä 24 000 euroa. Muistomerkki on tarkoitus toteuttaa voittavan ehdotuksen pohjalta.Valtioneuvoston kanslian tiedotteessa sanotaan, että muistomerkin pitää olla aikaa ja luonnonolosuhteita kestävä. Sen luokse pitää voida tulla, ja sen läheisyyteen, viereen ja sitä vasten voi asettaa kukkalaitteen.Presidentti Martti Ahtisaari kuoli 16. lokakuuta. Hänet haudattiin Helsingin Hietaniemen hautausmaalle 10. marraskuuta 2023. Ahtisaaren hautamuistomerkki on määrä paljastaa tämän vuoden marraskuun 10. päivä, eli tasan vuosi hautajaisten jälkeen.Myös edellisten tasavallan presidenttien haudoille on tehty muistomerkit. Mauno Koiviston haudan hautamuistomerkin suunnitteli Perttu Saksa, ja se paljastettiin vuonna 2018.Avaa kuvien katseluPerttu Saksa suunnittelemansa Kartta-muistomerkin äärellä. Teoksen koko on 2,5x1,6 metriä. Kuva: Jari Kovalainen / Yle</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -605,21 +609,21 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Kommentti: Kimi Räikkösen jälkeinen kuiva putki vihdoin katki? Unelma­liitosta jättipotti tylsäksi haukutulle F1-sarjalle</t>
+          <t>Puolus­tus­mi­nisteri Antti Häkkänen aikoo estää reservistä eroamisen, kertoo Kyrönmaa-lehti</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072549</t>
+          <t>https://yle.fi/a/74-20072595</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Formula 1 -maailma hätkähti oikein kunnolla perjantaina. ”Lewis Hamilton on siirtymässä Ferrarille”, raportoi muun muassa erittäin luotettu ja perinteikäs moottoriurheilumedia Autosport.Sitä ennen italialainen Corriere della Sera oli aamulla spekuloinut siirrolla ja saanut F1-fanit hämmästelemään. Voiko tämä olla totta? Voiko tähän uskoa, vaikka Autosport erittäin harvoin tekee huteja?Autosportin ja Sky Sportsin perään moni muu alkoi myös uutisoida samaa asiaa. Britannin yleisradioyhtiö BBC kertoi myös Mercedeksen reaktiosta. Kokoon oli kutsuttu koko tiimi palaveriin torstai-iltapäiväksi.Italialaisen Gazzetta dello Sportin mukaan ratkaisu oli niin pikainen, että Mercedes-pomo Toto Wolff johti puhetta ja kertoi Hamiltonin yllätysratkaisusta etäyhteydellä ulkomailta. Sky Sports näytti, kuinka Mercedeksen väki tuli paikalle ja sitten poistui nopeasti tehtaalta palaverin jälkeen. Tilanne alleviivasi koko asian yllätyksellisyyttä.Lewis Hamiltonin siirtymisestä Ferrarille on puhuttu jo monena vuotena aikaisemminkin. Ei ole oikeastaan ollut silly seasonia, F1-kuljettajien siirtoaikaa, jolloin tätä liittoa ei olisi nostettu esiin.Nyt kuitenkin tärähti voimalla ja oikein kunnolla. Tavalla, jota ei koskaan aiemmin Hamiltonin Ferrari-huhuissa nähty. Normaalisti silly season ei ole käynnissä ainakaan helmikuun alussa, vaan kesähelteillä ja alkusyksystä.Šokkisiirto sai sinettinsä torstaina noin kello 21 Suomen aikaa. Ensin Mercedes kertoi, että Hamilton on hyödyntänyt sopimuksessaan ollutta purkupykälää ja siirtyy toisaalle kauden 2024 jälkeen.Ferrari tiedotti perään, että Hamilton siirtyy kaudeksi 2025 Ferrarille monivuotisella sopimuksella.Lue lisää: F1-jättipaukulle vahvistus! Näin Lewis Hamilton selittää lähtöään FerrarilleAvaa kuvien katseluLewis Hamilton jättää Mercedeksen historiallisena menestyneenä F1-kuskina. Kuva: NurPhoto / Getty ImagesKaikkein aikojen menestyneimmän F1-kuljettajan siirtyminen kaikkein perinteikkäämpään formulatalliin on järisyttävä uutinen.Hamiltonin ja Ferrarin sopimus on unelmaliitto, jota F1-sarjan omistaja Liberty Media ei varmasti edes villeimmissä unelmissaan uskonut. Hamiltonin ja Ferrarin toiminta avaa valtavia kaupallisia mahdollisuuksia. Ei vain Hamiltonille ja Ferrarille, mutta myös koko sarjalle.F1-sarja oli jo ehtinyt kitua kiinnostavuusongelman kanssa, kun Red Bullista ja Max Verstappenista tuli jopa historiallisen ylivoimaisia. Suurin osa kilpailuista on ollut viime vuosina todella ennalta-arvattavia.Vaikka F1-sarja on kasvanut kasvamistaan, Red Bullin ja Max Verstappenin ylivoimasta olisi tullut varmasti tulevina vuosina iso uhka kuninkuusluokan kiinnostavuudelle globaalisti.Nyt Hamiltonin sopimus Ferrarin kanssa luo ihan uutta kiinnostavuutta sarjaan.Netflixin F1-dokumenttisarjan Drive to Surviven tekijät varmasti hierovat käsiään. Miten Hamilton ajaa tällä kaudella kaikki 24 kilpailua Mercedeksellä, kun hän siirtyy kuitenkin seuraavaksi vuodeksi kilpailijan riveihin? Mitä tapahtuu kulisseissa? Puheenaiheita varmasti riittää.Kimi Räikkösen haamu poistuu?Ferrarin takamatka Red Bulliin on toki vielä melkoinen, mutta nyt on monen mielestä käsillä kaikkien aikojen kovimman kuljettajan viimeinen tanssi. Hamiltonin himoa ei pidä aliarvioida. Brittimestarin kohdalla 40 vuotta ei ole ikä, joka estäisi voittamista.Asetelmat ovat mielenkiintoiset. Vuonna 2025 valmistaudutaan sääntömuutoksiin ja uusiin autoihin. Vuonna 2026 historiallinen kahdeksas kuljettajien mestaruus. Viimeinen niitti ohi Michael Schumacherin kaikkien aikojen ykkösenä. Tällainen elokuvamainen tarina on varmasti monen mielessä.Toisella puolella kolikkoa on sitten Sebastian Vettelin tarina. Saksalainen saapui Ferrarille neljän mestaruuden ja yhden heikomman kauden jälkeen Red Bullilta 2010-luvun puolivälissä. Ferrari ei kuitenkaan siivittänyt Vetteliä enää mestariksi, kun Hamilton ja Mercedes olivat vahvempia.Maranellossa odotukset ovat myös varmasti korkealla. On suorastaan käsittämätön ja monelle Ferrari-fanille, tifosolle, kiusallinen fakta, että Kimi Räikkönen on yhä Ferrarin viimeisen kuljettajien maailmanmestari vuodelta 2007. Sen jälkeen tuli vielä yksi tiimien mestaruus, mutta muuten mahtitallissa on vietetty todella kuivaa putkea.Avaa kuvien katseluJoko joku muukin Ferrari-kuski pääsee vihdoin Kimi Räikkösen jalanjäljissä juhlimaan F1-mestaruutta? Kuva: Getty ImagesNyt jos koskaan Ferrarin kuljettajan pitäisi nousta kuljettajien maailmanmestariksi. Pitkään aikaan ei ole nähty formula ykkösissä kovempaa kuljettajakaksikkoa kuin Lewis Hamilton ja Charles Leclerc. Jälkimmäinen ei varmasti tule myöskään helpolla luovuttamaan valtikkaansa Hamiltonille.Ferrarin oma poika, akatemiasta kasvatettu Leclerc himoinnee varmasti Hamiltonin päänahkaa ja sitä, että hän toisi pitkään odotetun mestaruuden Maranelloon. Ferrarin toimintaan olennaisesti kuuluvaa sisäpolitiikkaa nähdään varmasti.Italialaismedia pääsee takomaan herkullisia otsikoita. Kehutun ranskalaispomon ja Lewis Hamiltonin siirron takapiruna pidetyn Frederic Vasseurin taidot päästään mittaamaan kunnolla.Kaiken kaikkiaan Lewis Hamiltonin šokkipäätös tuo autourheilun kuninkuusluokkaan sähinää, jota se on kaikkien tylsien kisojen jälkeen tarvinnut.Tätä F1-herkkua tuskin malttaa odottaa. Melkoinen täyskäännös viime vuosien tunnelmiin.</t>
+          <t>Puolustusministeri Antti Häkkänen (kok.) suunnittelee estävänsä reservistä eroamisen.Näin hän kertoi Laihialla ilmestyvälle Kyrönmaa-lehdelle torstaina.Häkkänen aikoo etsiä keinot, ettei reservistä eroaminen olisi enää jatkossa mahdollista.Haastattelussa hän kertoo pitävänsä epäisänmaallisena sitä, että reservistä erotaan.Yhä useampi armeijan käynyt reserviläinen on siirtynyt siviilipalvelukseenVuoden 2022 lopulla Ylelläkin uutisoitiin, että reservistä siviilipalvelukseen siirtyvien määrä on moninkertaistunut Ukrainan sodan alkamisen jälkeen.Vaikka tarkkoja syitä reserviläisten siviilipalveluksen suosion rajuun kasvuun ei kuitenkaan tiedetä, arvioi siviilipalvelusjohtaja Mikko Reijonen siviilipalveluskeskuksesta, että Ukrainan sodan vaikutus oli ilmeinen.Puolustusvoimissa ei oltu kuitenkaan huolissaan lukujen kasvusta.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -633,21 +637,24 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>F1-jättipaukulle vahvistus! Näin Lewis Hamilton selittää lähtöään Ferrarille</t>
+          <t>Jarkko Nieminen rakennutti kauhukentän – tästä syystä 396 vaneripalaa siivittivät Suomen sensaatiota</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072598</t>
+          <t>https://yle.fi/a/74-20072542</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Mercedeksen F1-talli vahvisti tiedotteessaan, että seitsemänkertainen mestari Lewis Hamilton siirtyy muualle tallista tämän kauden jälkeen. Tiedotteen mukaan Hamilton on hyödyntänyt sopimuksessaan ollutta purkupykälää. Vielä viime elokuussa Hamilton oli tehnyt Mercedeksen kanssa sopimuksen tästä ja ensi kaudesta.Ferrari tiedotti perään, että Hamilton siirtyy kaudeksi 2025 Ferrarille monivuotisella sopimuksella.– Minulla on ollut 11 uskomatonta vuotta tiimissä. Olen ylpeä siitä, mitä saavutimme yhdessä. Mercedes on ollut osa elämääni 13-vuotiaasta asti. Olen kasvanut Mercedeksen mukana. Tämä oli yksi vaikeimmista päätöksistäni elämässäni. Nyt on kuitenkin oikea aika ottaa tämä askel. Olen innoissani uudesta haasteesta, Hamilton sanoi tiedotteessa ja kiitteli tallipäällikkö Toto Wolffia.Hamilton vakuuttaa antavansa vielä alkavalla kaudella kaikkensa Mercedeksellä.– Suhteemme Lewisin kanssa on ollut historian menestyksekkäin, kun katsotaan tiimiä ja kuljettajaa. Lewis tulee olemaan tärkeä osa Mercedeksen moottoriurheiluhistoriaa. Tiesimme, että yhteistyömme tulee luonnolliseen loppuun jossain vaiheessa. Nyt se päivä on tullut. Hyväksymme Lewisin päätöksen hakea uusia haasteita, Wolff sanoi.Avaa kuvien katseluTästä se kaikki lähti. Lewis Hamilton ja Toto Wolff juhlivat ensimmäistä F1-mestaruuttaan vuonna 2014. Kuva: Getty ImagesHamilton siirtyi Mercedekselle vuodeksi 2013 McLarenilta. Hän voitti Mercedeksellä kuusi kuljettajien mestaruutta. Vuonna 2016 tuli tappio Nico Rosbergille, mutta muuten britti dominoi Mercedeksen kanssa F1-sarjaa.Jo McLarenilla Hamilton ajoi Mercedeksen moottoreilla F1-uransa alusta asti eli nyt Hamiltonilla katkeaa pitkä 17 vuoden ajanjakso saksalaisen autonvalmistajan kanssa. Jo sitä ennenkin Hamilton teki yhteistyötä Mercedeksen kanssa.Viime vuodet ovat olleet hankalia Hamiltonille ja Mercedekselle. Viimeksi britti on voittanut F1-kilpailun joulukuussa 2021. Kaikkien aikojen eniten F1-kilpailuja voittanut kuljettaja ei ole siis kahdella edellisellä kaudella noussut kertaakaan korkeimmalle korokkeelle.39-vuotias Hamilton on napannut myös kaikkien aikojen eniten paalupaikkoja. Michael Schumacher on ainoa, joka on Lewis Hamiltonin tavoin yltänyt seitsemään mestaruuteen.Siirto tarkoittaa sitä, että Carlos Sainz ei jatka enää alkavan kauden jälkeen Ferrarilla. Lewis Hamiltonin tallitoveriksi jää Charles Leclerc kaudelle 2025.– Meillä on pitkä kausi edessämme. Kuten aina, tulen tekemään parhaani tiimilleni ja tifosoille (Ferrari-faneille) ympäri maailmaa, Sainz kirjoitti X-tilillään.Sainz kertoo, että hänen oma F1-tulevaisuutensa ratkeaa aikanaan.F1-kausi alkaa kolmen viikon päästä testeillä Bahrainissa. Kauden ensimmäinen kilpailu on luvassa Bahrainissa 2. maaliskuuta.</t>
+          <t>Suomen joukkueen Davis Cup -karsinnat alkavat Turusta 2.–3. helmikuuta, kun Suomi kohtaa Portugalin. Yle näyttää kaikki Suomen joukkueen Davis Cup 2024 -ottelut kanavillaan.Urheilussa puhutaan usein kotikenttäedusta. Tenniksessä, etenkin Davis Cupissa, kentällä on hyvinkin konkreettinen vaikutus.Turnaukseen sisältyy vahva taktinen elementti, sillä kotijoukkue saa valita, millä alustalla pelataan. Päätökseen vaikuttavat ennen kaikkea omien pelaajien vahvuudet, mutta mahdollisesti myös vastustajan heikkoudet.Alustalla on valtava vaikutus pallon käyttäytymiseen. Massalla pallo pomppaa hitaammin ja korkeammalle kuin kovilla kentillä, joilla pallon pomppu on nopea ja matala. Nurmikentät ovat pääsääntöisesti kaikista nopeimpia, mutta niillä pelataan harvoin.Massakentät suosivat pelaajia, jotka tuottavat lyönneillään palloon voimakkaan kierteen. Kovat kentät taas suosivat pelaajia, jotka syöttävät ja lyövät kovaa.Suomen Davis Cup -joukkueen pelaajat kuuluvat jälkimmäiseen kategoriaan.Avaa kuvien katseluJarkko Niemisen mukaan pelialustan nopeus ja matala, eteenpäin vievä pomppu suosivat Suomen joukkuetta. Kuva: Minna Rosvall / YleTäällä pohjoisessa tennistä pelataan sääolojen takia pääsääntöisesti kovilla sisäkentillä. Länsi-Euroopassa ja Etelä-Amerikassa on perinteisesti viihdytty paremmin massakentillä.Tenniskentät jaetaan karkeasti kolmeen eri nopeusluokkaan: hidas, keskinopea ja nopea.Ammattipiireissä nopeutta mitataan 50 yksikön tarkkuudella, jossa 50 on nopein. Kenttien nopeuksista on yleisölle harvoin tarjolla virallisia lukemia.Suomen Davis Cup -joukkueen kapteenin Jarkko Niemisen mukaan Portugalia vastaan käytössä olevan kentän nopeusindeksi on 41. Se rakennettiin sellaiseksi viime vuoden Argentiina-ottelua varten.Argentiinalaiset joutuivat matalapomppuisella alustalla epämukavuusalueelleen, ja Suomi eteni historiallisesti Davis Cupin 16 parhaan joukkoon.– Koin silloin, että me hyödymme alustasta suhteessa enemmän kuin vastustajat. Meidän pelaajamme pääsevät pelaamaan enemmän omilla vahvuuksillaan, kun on tällainen eteenpäinvievä matalahko pomppu.Vaikka kenttä onkin nopea, oli Nieminen alun perin kaavaillut vielä nopeampaa alustaa. Kapteenin toive oli, että nopeusindeksi olisi ollut 43–44.– Aika lähelle päästiin kuitenkin. Argentiina-ottelu meni hienosti, ja haluttiin pitää ihan konkreettisesti sama kenttä nyt Portugalia vastaan.Suomen ja Portugalin kohtaamisen ohjelmaPe 2.2. klo 17.30 alkaenOtto Virtanen (ATP-166) – Nuno Borges (ATP-47)
+Emil Ruusuvuori (ATP-55) – Joao Sousa (ATP-245)La 3.2. klo 15.00 alkaenHarri Heliövaara / Patrik Niklas-Salminen – Francisco Cabral / Nuno Borges
+Emil Ruusuvuori – Nuno Borges
+Otto Virtanen – Joao SousaAvaaKatso tästä, miten Jarkko Nieminen esitteli kenttää aiemmin Urheiluruudussa.396 palan palapeli odotti vuoden varastossaSuomen käyttämä kenttä koostuu 396 vaneripalasta. Se on tanskalaisen firman valmistama. Kentän pinnassa on muutama maalikerros. Alustan nopeutta säädetään lisäämällä maalin sekaan hiekkaa. Maalipinnan kuluessa kenttä nopeutuu.Argentiina-ottelun jälkeen se oli vuoden ajan varastoituna Saksassa ja Tanskassa, ja täksi viikoksi se rahdattiin Turkuun.Kenttä ei ole Suomen Tennisliiton omistama, vaan Suomi on sitoutunut vuokraamaan sitä tietyn ottelumäärän verran. Toimitusjohtaja Teemu Purhon mukaan liitto maksaa kentästä 20 000–30 000 euron viikkovuokraa.Avaa kuvien katseluSuomi pääsee haastamaan Portugalia jo tutuksi tulleella pelialustalla. Kuva: Kimmo Hiltunen / YleAvaa kuvien katseluTurun areenaan on saapumassa suomalaistenniksen ennätysyleisö. Kuva: Kimmo Hiltunen / YlePortugalia vastaan pelialusta ei välttämättä tarjoa aivan samanlaista etua kuin Argentiinaa vastaan.Portugalin ykköspelaaja Nuno Borges eteni viime viikolla päättyneissä kovien kenttien Australian avoimissa aina neljännelle kierrokselle asti, ja nousi rankingissa Emil Ruusuvuoren ohi sijalle 47.Australiassa Borges kaatoi muun muassa kovassa vireessä olleen Grigor Dimitrovin, joka on rankingin 13:s.– Portugalilaiset pelaavat varmasti hyvin tällä alustalla, mutta jos oltaisiin vieraskentällä, niin uskon, että vastustaja olisi valinnut hitaamman alustan, jossa on korkeampi pomppu, Nieminen arvelee.Avaa kuvien katseluOtto Virtanen ja Nuno Borges aloittavat Suomen ja Portugalin välisen Davis Cupin karsintaottelun perjantaina Turussa.  Kuva: Suomen tennisliittoAlustan lisäksi Nieminen uskoo Suomen hyötyvän ennen kaikkea kotiyleisön edessä pelaamisesta. Turun areenaan on kahden päivän tapahtumaan myyty jo yli 13 000 lippua – perjantaiksi 6 100 ja lauantaiksi 7 200.Yleisöennätykset menevät siis komeasti uusiksi. Tennismaajoukkueiden edellinen yleisöennätys on viime vuoden helmikuulta, kun Espoossa Argentiina-ottelussa kahden päivän aikana oli 9 500 katsojaa. Samalla joukkue kirjasi päiväkohtaisen ennätyksensä 5 200 katsojaa.Suomi kohtaa Portugalin tenniksen Davis Cupissa. Yle näyttää ottelut TV2:ssa ja Yle Areenassa. Perjantain ensimmäinen ottelu alkaa klo 17.30. Lauantaina lähetys alkaa Areenassa klo 15.00 ja TV2:ssa klo 15.20.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -661,21 +668,21 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Näin Suomen julkinen liikenne pysähtyy – katso lakon vaikutukset busseihin, juniin ja ratikoihin</t>
+          <t>Analyysi: Pekka Haavisto kehui Olli Rehniä – Alexander Stubb toivoi Riikka Purralle talousonnea</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072444</t>
+          <t>https://yle.fi/a/74-20072585</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Julkinen liike pysähtyy tai harvenee perjantaina lakkojen takia lähes koko Suomessa.Julkisten ja hyvinvointialojen liitto JHL:n lakko pysäyttää matkustajajunaliikenteen koko maassa Pohjois-Suomen yöjunia lukuun ottamatta. Junaliikenteen lakko koskee työvuoroja, jotka alkavat 2. helmikuuta kello 00.01 ja 23.59 välillä. Lauantain junaliikenne kulkee normaalisti.VR:n kaukoliikenteen kertalipun voi muuttaa halutessaan toiseen ajankohtaan maksutta. Jos matkan ajankohtaa ei vaihda, VR palauttaa rahat automaattisesti takaisin lakon ajalle ostetuista junalipuista.Osa kaukoliikenteen busseista ei liikennöiAuto- ja kuljetusalan työntekijäjärjestö AKT:n lakko vaikuttaa kaukoliikenteen linja-autoihin.Osa Matkahuollon vuoroista jää liikennöimättä. Matkahuollon verkkosivujen aikatauluhaussa ja nettilipunmyynnissä on ajantasainen tieto mahdollisen lakonkin aikana.Onnibus pyrkii ajamaan suurimman osan vuoroista. Lipunmyynnissä voi olla peruttuja vuoroja, mutta lista ajettavista vuoroista päivittyy Onnibusin nettisivuille. Lauantaina Onnibus ajaa vuorot normaalisti lukuun ottamatta klo 1.30 Tampereelta lentokentälle lähtevää vuoroa.Vuoroihin voi tulla muutoksia lyhyellä varoitusajalla. Sekä Onnibus että Matkahuolto hyvittävät perutuille vuoroille ostetut liput.Toimittaja Juha Kokkala kyseli Tampereen rautatieasemalle, että vieläkö matkustajilla riittää lakkolaisille ymmärrystä.Paikallisliikenteen vuoroja peruttu ympäri SuomeaAKT:n ja JHL:n lakot iskevät myös paikallisliikenteeseen. Selvitimme, miten lakon vaikutukset näkyvät eri puolilla Suomea.PääkaupunkiseutuPääkaupunkiseudulla paikallisjunat, metrot ja raitiovaunut eivät liikennöi tänään lainkaan. Myös suuri osa HSL:n bussiliikenteestä jää ajamatta.Torstain ja perjantain välisenä yönä bussit ja raitiovaunut kulkevat noin kello kahteen. Sen jälkeen liikenne on lähes kokonaan seisahduksissa ja alkaa uudelleen lauantaiaamuna.Osa busseista kuitenkin kulkee myös perjantaina.HSL päivittää sivuilleen ajantasaista tietoa lakon vaikutuksista liikennöintiin.AvaaTampereBussit, ratikat ja lähijunat eivät kulje perjantaina Tampereen seudulla. Torstain ja perjantain välisenä yönä ratikat ja bussit liikennöivät työvuorot loppuun eli noin kello kahteen.Joitain yksittäisiä bussivuoroja saatetaan ajaa perjantain aikana. Vain neljä linjaa liikennöi perjantaina normaalisti aikataulun mukaan. Ajantasaisen tiedon liikennöivistä linjoista voi tarkistaa Nyssen reittioppaasta.Lauantaina bussiliikenne palaa normaaliksi lauantaiaamuna noin neljän ja viiden välillä. Ratikkaliikenne käynnistyy viiden jälkeen lauantaiaamuna.AvaaTurkuLakko pysäyttää ainakin osan Fölin bussiliikenteestä perjantaina, mutta ajettavia vuoroja on lähes kaikilla linjoilla.Ajettavat vuorot selviävät vasta, kun tiedetään lakkoon osallistuvien kuljettajien määrä. Ajantasainen tieto ajettavista vuoroista löytyy Fölin verkkosivuilta.Fölin reittiopas ei päivity lakon aikana, mutta peruutetut vuorot ovat nähtävissä reittioppaan pysäkkiaikatauluista.AvaaLahtiLahden seudun liikenteessä suurinta osaa vuoroista ei ajeta perjantaina. Lakkopäivänä ajettavat vuorot löytyvät LSL:n verkkosivuilta.Ajettavat linjat kulkevat pääsääntöisesti vain perjantai-iltapäivään saakka.AvaaHämeenlinnaOsa Hämeenlinnan seudun bussivuoroista jää ajamatta perjantaina. Pekolan Liikenteen ja Mikkolan Liikenteen seutulinjat sekä Lehdon liikenteen vuorot kulkevat normaalisti.Esimerkiksi kaikkia Länsilinjojen liikennöimiä linjoja ei ajeta. Myös osa koulukuljetuksista voi jäädä ajamatta.Tiedot päivitetään reittioppaaseen sekä Hämeenlinnan kaupungin verkkosivuille.AvaaJyväskyläUseimmat Linkki-linjat jäävät ajamatta Jyväskylässä, Laukaassa ja Muuramessa. Muutamat linjat kuitenkin liikennöivät normaalisti. Kokonaan ajamatta jäävät Koiviston Auto Jyväskylän vuorot.Linkin aikataulu- ja reittioppaasta näkee, mitkä vuorot liikennöivät lakon aikana.AvaaItä-SuomiLakon takia Itä-Suomessa jää ajamatta osa Koiviston auto Kuopion, Pohjolan matkan, Savonlinjan, Savo-Karjalan linjan ja Soisalon liikenteen vuoroista.Kuopiossa suurin osa paikallisliikenteen bussivuoroista jää ajamatta, mutta muutamia yksittäisiä linjoja ja vuoroja liikennöi normaalisti.Myös osa ely-keskuksen järjestämän liikenteen vuoroista voi jäädä ajamatta. Lakon aikaisen liikennöinnin tietoja päivitetään ely-keskuksen verkkosivuille ja aluekohtaisiin reittioppaisiin.AvaaKaakkois-SuomiPerjantain lakko peruuttaa suuren osan paikallisliikenteen bussivuoroista Kaakkois-Suomessa. Lauantaina liikenne ajetaan normaalisti aamukolmesta alkaen.Katso täältä tarkemmat tiedot Lappeenrannan, Kouvolan ja Kotkan seudun paikallisliikenteestä.AvaaSatakuntaSatakunnassa osa paikallisliikenteestä ei liikennöi perjantaina Raumalla ja Porissa. Lakon piirissä ovat Rauman Gyyt, Porin Linjat ja Satakunnan Liikenne.AvaaVaasaVaasassa suurin osa bussiliikenteen vuoroista jää ajamatta. Kaupunki pyrkii pitämään Liftin reittioppaan aikataulutiedot ajan tasalla.Lakon aikana Vaasan kaupunki tarjoaa bussimatkat ilmaiseksi Vekan ja Oravaisten Liikenteen liikennöimillä linjoilla.AvaaRovaniemiRovaniemellä osa paikallisliikenne Linkkarin bussivuoroista jää ajamatta perjantaina. Myös koulukuljetuksissa on muutoksia.Ajantasainen tieto lakon aiheuttamista muutoksista löytyy Linkkarin sivuilta.Avaa</t>
+          <t>Presidentinvaalien toisen kierroksen ehdokkaat kohtasivat torstai-iltana Ylen presidenttiväittelyssä.Valitsijayhdistyksen ja vihreiden presidenttiehdokas Pekka Haavisto ja kokoomuksen presidenttiehdokas Alexander Stubb tavoittelevat lisää ääniä ensimmäisellä kierroksella presidenttikisasta pudonneiden kannattajajoukoista.Ylen presidenttiväittelyssä Pekka Haavisto heitti verkkojaan erityisesti valitsijayhdistyksen ja keskustan ehdokkaana presidentiksi pyrkineen Olli Rehnin äänestäjille.– No tuolla on ollut erittäin hyviä ehdokkaita ensimmäisellä kierroksella ja taisin jossain sanoa, että nukkuisin yöni ihan hyvin, vaikka Olli Rehnin hallitsemassa tasavallassa, Haavisto sanoi.– Totta kai minä tuon Pekan ottaisin, naurahti Alexander Stubb kysymykseen, kenet ensimmäisen kierroksen ehdokkaista hän ottaisi varapresidentiksi, jos sellainen Suomessa olisi.Ehdokkaat kosivat maaseudun äänestäjiäHaavistolla ja Stubbilla on haasteita myös maaseudun äänestäjien tavoittelemisessa.Haavisto kiinnitti huomiota maanviljelijöiden talousvaikeuksiin, kun kustannukset ovat nousseet. Stubb kertoi, että hän on menossa maatilalle perjantaina.Suurin potti kodittomia äänestäjiä on perussuomalaisten ehdokkaana kampanjoineen Jussi Halla-ahon tukijoukoissa.Stubb on pääministeripuolue kokoomuksen ehdokas, mutta hän on varonut leimautumista hallituksen ehdokkaaksi.Ylen presidenttiväittelyssä Stubb toivotti kuitenkin valtiovarainministeri Riikka Purralle (ps.) menestystä talouspolitiikan hoidossa.Erilaisia näkemyksiä Nato-politiikastaPresidenttiväittelyn ensimmäisenä aiheena oli ulko- ja turvallisuuspolitiikka.Haavistolla ja Stubbilla on entisinä ulkoministerinä vahvaa käytännön kokemusta ulkopolitiikan hoitamisesta.Kokemus näkyi ja kuului ehdokkaiden linjauksissa. Vastaukset tulivat nopeasti ja sujuvasti. Näkemyksistä löytyi myös eroja äänestäjien arvioitavaksi.Alexander Stubb edustaa ulko- ja turvallisuuspolitiikassa suoraviivaisempaa linjaa kuin ainakin sanoissaan hieman varovaisempi Haavisto.Presidenttiehdokkaat Alexander Stubb ja Pekka Haavisto sanailivat Suomen Nato-politiikasta Ylen presidenttiväittelyssä 1. helmikuuta 2024.Ydinasepolitiikassa Stubb haluaa viestittää Nato-liittolaisille ja myös Venäjälle, että Suomella ei ole rajoitteita ydinaseiden liikuttelussa tai sijoittamisessa Suomeen.Haavisto muistutti, että ydinenergialaki kieltää ydinaseiden sijoittamisen Suomeen. Stubb vastasi, että lakia voidaan muuttaa.Stubb toivoi, että Suomeen sijoitettaisiin pysyvästi esikuntatehtäviin 40–50 Nato-upseeria.Haaviston mielestä harjoitusyhteistyö riittää, eikä Suomeen tarvita pysyviä Nato-joukkoja.Ehdokkaat säilyttivät malttinsa väittelyssäYlen ensimmäinen presidenttiväittely ei presidenttikisaa vielä ratkaissut.Haavisto ja Stubb säilyttivät hyvin malttinsa väittelyssä.Nopeassa sanailussa äänestäjillä saattoi olla välillä hieman vaikeuksia pysyä mukana, mutta koko väittelyn voi katsoa uudelleen Yle Areenasta.Katso koko presidenttiväittely.Presidentinvaalien toisen kierroksen ehdokkaat Pekka Haavisto ja Alexander Stubb kohtasivat Ylen presidenttiväittelyssä 1. helmikuuta 2024.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -689,21 +696,21 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Näin lakot vaikuttavat tänään eri puolilla Suomea – katso lista kaikilta päiviltä</t>
+          <t>Neljä huippukohtaa Stubbin ja Haaviston presi­dent­ti­väit­telystä</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071469</t>
+          <t>https://yle.fi/a/74-20072600</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Osa päiväkodeista, julkisesta liikenteestä, kuljetuksista, ruokakaupoista ja teollisuudesta pysähtyi, kun ammattiliittojen lakot alkoivat.Ensimmäiset lakot alkoivat eilen keskiviikkona, mutta suurempi vaikutus nähdään tänään torstaina 1. helmikuuta. Lakkojen kesto vaihtelee aloittain yhdestä päivästä kahteen. Lisäksi 6. helmikuuta on tiedossa ulosmarsseja.Lisää: Li Andersson syyttää pääministeri Orpoa valehtelusta – Yle seuraa poikkeuksellista jättilakkoaLakoilla ja ulosmarsseilla vastustetaan hallituksen työelämäuudistuksia ja sosiaaliturvaleikkauksia. Niiden piiriin kuuluvat useat keskusjärjestö SAK:n, STTK:n ja Akavan ammattiliitot.Keskusjärjestöt järjestävät laajan mielenilmauksen Helsingin Senaatintorilla tänään torstaina kello 12 alkaen.Lakon vaikutukset keskiviikkona, torstaina ja perjantainaEilen keskiviikkona lakko vaikutti etenkin varhaiskasvatukseen, päiväkoteihin, esiopetukseen, perhepäivätoimintaan ja puistotoimintaan. Vaikutukset jatkuvat torstaihin.Tänään torstaina lakko vaikuttaa lentoliikenteeseen, ruokakauppojen aukioloihin ja valikoimaan, hotelleihin ja ravintoloihin, postin jakeluun, pankkien ja vakuutusyhtiöiden konttoreihin, logistiikkaan ja kuljetuksiin sekä laajasti teollisuuteen. Torstaina alkavat työtaistelutoimet kestävät perjantaihin asti.Perjantaina lakko vaikuttaa torstain osalta mainittujen lisäksi julkiseen liikenteeseen, kun junat, raitiovaunut ja metrot pysähtyvät ja bussit kulkevat harvennetusti tai eivät lainkaan.Lakon vaikutukset ammattialoittainTiedot lakon vaikutuksista löydät alta laajemmin.Päivitämme tähän tuoreimmat tiedot lakon vaikutuksista eri puolilla Suomea.Bussit, junat, raitiovaunut ja metrotJulkinen liikenne pysähtyy tai harvenee lakon ajaksi monissa Suomen kaupungeissa.Pääkaupunkiseudulla paikallisjunat, metrot ja raitiovaunut eivät liikennöi perjantaina 2. helmikuuta lainkaan. Myös HSL:n bussiliikenteestä suuri osa jää ajamatta.Katso lista HSL:n ajettavista bussivuoroista.Tampereen seudulla lakot pysäyttävät käytännössä koko Nysse-liikenteen perjantaina. Ratikat ja bussit liikennöivät noin kello kahteen perjantaina aamuyöllä. Torstaina joukkoliikenne sujuu normaalisti.Turussa Fölin bussiliikenne jatkuu todennäköisesti kaikilla linjoilla, mutta harvennetusti. Heillä lakko kestää perjantain ajan.Kuopiossa suurin osa paikallisliikenteen bussivuoroista jää ajamatta perjantaina. Myös osa ELY-liikenteen vuoroista ja PALI-kyydeistä voi jäädä ajamatta.Jyväskylän alueella linja-autot eivät kulje perjantaina Jyväskylässä, Laukaassa ja Muuramessa. Koulumatkoja ei perjantaina ajeta, pois lukien taksikuljetusoppilaiden koulukuljetukset.Itä-Suomessa lakko koskee perjantaina Koiviston auto Kuopion, Pohjolan matkan, Savonlinjan, Savo-Karjalan linjan ja Soisalon liikenteen vuoroja. Osa näiden vuoroista jää ajamatta.Lappeenrannan ja Imatran paikallisliikenne ei todennäköisesti liikennöi perjantaina lainkaan. Sama koskee seutu- ja lähiliikennelinjoja. Lappeenrannan kaupunki ei voi taata lakisääteisten koulukuljetusten toteutumista.Satakunnassa osa paikallisliikenteestä ei liikennöi perjantaina ainakaan Raumalla ja Porissa. Lakon piirissä ovat Rauman Gyyt, Porin linjat ja Satakunnan liikenne.Rovaniemellä vaikutuksia on bussiliikenteeseen ja osa koulukuljetuksista jää perjantaina ajamatta.Lakko vaikuttaa myös Onnibussin liikennöintiin perjantaina. Ajettavat vuorot on syytä tarkistaa Onnibussin verkkosivuilta ennen matkan ostoa.Koko Suomen matkustajajunaliikenne seisahtuu perjantaina Pohjois-Suomen yöjunia lukuun ottamatta. Junaliikenteen lakko koskee työvuoroja, jotka alkavat 2.2. kello 00.01 ja 23.59 välillä.Radan kunnossapito- ja ratatyökalustoa liikkuu rataverkolla normaalisti.Kaikki ratapihatoiminnot keskeytyvät Haminan ja Kotkan ratapihoilla torstain ajaksi.AvaaLentoliikenneSuomen kaupallinen matkustaja- ja rahtilentoliikenne pysähtyy lähes kaikilla Suomen isoilla lentokentillä torstaina.Lentokenttiä hallinnoivan Finavian mukaan kapasiteettirajoituksia kaupalliselle matkustaja- ja rahtilentoliikenteelle aikavälille 1.–2. helmikuuta on tiedossa Helsinki-Vantaan, Ivalon, Jyväskylän, Kittilän, Kuopion, Kuusamon, Oulun, Rovaniemen, Tampere-Pirkkalan, Turun ja Vaasan lentokentille.Kaupallinen matkustaja- ja rahtilentoliikenne pysähtyy kokonaan aikavälillä 1.2. kello 0.00–2.2. kello 24.00 Joensuun, Kajaanin, Kemi-Tornion, Kokkola-Pietarsaaren, Porin ja Savonlinnan lentokentillä.Puolustusvoimien käytössä olevat Utin ja Hallin sotilaslentokentät sekä Maarianhaminan lentoasema eivät ole lakon piirissä. Myös jotkut Finavian ulkopuoliset kentät voivat olla käytössä.Lentoyhtiö Finnair joutuu perumaan noin 550 lentoa. Yhtiö on valmis siirtämään asiakkaidensa lennot lakkopäiviltä toiseen ajankohtaan lipputyypistä huolimatta. Muille tehdään lentojen uudelleenreititys.Finnair lentää torstain aikana noin kymmenen lentoa. Näistä on tiedotettu asiakkaille.Lentoasemien muista palveluista, kuten kaupoista ja ravintoloista, osa pyritään pitämään auki.Lakon vuoksi lentoasemilla voi olla ruuhkaa lakkoa ennen ja sen jälkeen.Lakoissa ovat mukana ainakin Finavian tai Airpron palveluksessa työskentelevät JHL:n jäsenet, PAMin lentoasemien kiinteistöhuollosta, siivouksesta ja vartioinnista vastaavat työntekijät sekä Finnairin lentäjiä edustava Liikennelentäjäliitto.Monet ulkomaalaiset ovat jo peruneet Lapin-matkansa lakkojen vuoksi.AvaaRuokakaupat, ravintolat ja muut palvelutKaupan ala järjestää vuorokauden mittaisen lakon torstaina 1. helmikuuta. Mukana ovat suurimmat ketjut, eli S- ja K-ryhmät ja Lidl sekä Tokmanni.Lakko voi näkyä ruokakauppojen valikoimassa sekä kauppojen aukioloajoissa. Useat ympärivuorokautiset kaupat sulkeutuvat yöksi. Monet keskikokoiset kaupat sulkeutuvat etuajassa. Osa maan isoista Prismoista on torstaina suljettuna.Alko on auki normaalisti. Verkkotilauksissa voi ilmetä viiveitä.Myös osuuskauppojen pankki- ja parturi-kampaamoiden palvelut saattavat olla kiinni.Myös hotellien, ravintoloiden, liikenneasemien sekä kiinteistö- ja siivouspalvelualan yritysten työntekijöitä on lakossa ympäri Suomea.Hotellit ja ravintolat pyritään pitämään auki esimiesvoimin tai liittoon kuulumattomien työntekijöiden avulla.Jätteenlajittelussa voi 1. ja 2. helmikuuta olla viiveitä. Ainakin Rinki-ekopisteissä tähän varaudutaan.Lakko vaikuttaa torstaina myös pankkien ja vakuutusyhtiöiden palveluihin. Useat konttorit ovat kiinni ja puhelinpalvelut ovat ruuhkaisia. Pankkiautomaatit toimivat näillä näkymin normaalisti.Suomen elintarviketyöläisten liitto (SEL) lakkoilee myös: mukana on lähes 4 500 elintarvikealan työntekijää 21 työpaikalla 1.–2. helmikuuta. Lakko pysäyttää muun muassa Saarioisten tehtaiden tuotannon ja logistiikan kahdeksi päiväksi.AvaaPäiväkodit, koulut ja kirjastotPääkaupunkiseudulla suurin osa päiväkodeista, perhepäivähoidoista ja ryhmäperhepäiväkodeista on suljettuna keskiviikkona ja torstaina. Lakko koskee kaikkia yksityisiä ja julkisia yksiköitä Helsingissä, Espoossa, Vantaalla ja Kauniaisissa. Myös puistotoiminta pysähtyy.Lakko koskee työvuoroja, jotka alkoivat tämän keskiviikon 31.1. kello 6 ja huomisen torstain 1.2. kello 21 välisenä aikana. Lakossa ovat mukana lastenhoitajat, osa varhaiskasvatuksen opettajista ja perhepäivähoitajat.Lopullinen henkilöstötilanne ja torstaina avoinna olevat päiväkodit selviävät vasta huomenna aamulla.Lakon aikaan päiväkoteja on auki Helsingissä 59, Vantaalla 20–30, Espoossa noin 40 ja Kauniaisissa kaksi.Katso täältä lista auki olevista päiväkodeista pääkaupunkiseudullaLakko voi torstaina vaikuttaa myös joidenkin nuorisotilojen, kirjastojen ja liikuntapaikkojen aukioloaikoihin. Näin on esimerkiksi Jyväskylässä.Lakoissa ovat mukana sosiaali-, terveys- ja kasvatusalan ammattijärjestö Tehy, lähi- ja perushoitajaliitto SuPer, julkisten ja hyvinvointialojen liitto JHL ja sosiaalialan korkeakoulutettujan ammattijärjestö Talentia.Tehy ja SuPer rajaavat lakon ulkopuolelle vain viranhaltijat. JHL:n mukaan lakko ei koske heidän osaltaan kotona tehtävää perhepäivähoitoa, ryhmäperhepäivähoitoa, ryhmäperhepäiväkoteja ja yksityistä perhepäivähoitoa.Myös Opetusalan ammattiliitto OAJ ja ammattiliitto Jyty ilmoittivat päivän mittaisesta lakosta pääkaupunkiseudun varhaiskasvatuksessa 31. tammikuuta. Jytyn lakko koskee myös perhepäivähoitoa ja puistotoimintaa.Korkeakoulutettujen keskusjärjestö Akava ilmoitti, että se järjestää ulosmarssin pääkaupunkiseudulla, Turussa ja Tampereella 6. helmikuuta kello 14–16. Marssiin osallistuvat lukuisat sote-työntekijät, insinöörit ja lääkärit.Ulosmarssit eivät koske virkasuhteisia työntekijöitä, kuten opettajia ja poliiseja. Näin ollen Akavan suurin jäsenliitto OAJ ei osallistu ulosmarssiin.AvaaPostiPostin työntekijät eivät tee työvuoroja aikavälillä 1. helmikuuta kello 0.00–2. helmikuuta kello 18. Tämä koskee noin 10 000 työntekijää.Lakon aikana kirjeposti, pakettilajittelu ja logistiikka seisoo. Tämä aiheuttaa muutamien päivien viiveitä lähetysten kulkuun. Posti neuvoo seuraamaan pakettien kulkua OmaPostissa.Postin yritysasiakkaat voivat lähettää lähetyksiä Postille normaalisti.Posti- ja logistiikka-alan unioni PAU kertoi, että lakon ulkopuolelle on rajattu terveyteen ja turvallisuuteen liittyvät työt.AvaaKuljetukset, logistiikka ja huoltoAuto- ja kuljetusalan työntekijäliitto AKT:n lakko kestää torstain ja perjantain, tosin linja-autoalan ja matkahuoltoalan osalta vain perjantain.Lakossa ovat mukana liki kaikki toimialat eli kuorma-autoala, linja-autoala, matkahuoltoala, kaupan automiehet, säiliöauto- ja öljytuoteala, matkatoimistoala, terminaalitoiminta, huolinta-ala, huoltokorjaamot, AKT:n Viking Linen työntekijät ja ahtausliikkeiden toimihenkilöt sekä ahtausala.Myös toimihenkilöliitto Erto ilmoitti lakosta autoliikenne-, huolinta- ja sosiaalialalle 1.–2. helmikuuta.AvaaRakennustyömaat, sähköt, satamat ja muu teollisuusMoni Suomen isoista teollisuusyrityksistä pysäyttää toimintansa osittain tai kokonaan torstaina ja perjantaina. Myös rakennustyömaat hiljenevät etenkin pääkaupunkiseudulla.Rakennusliiton työntekijöiden osalta hätätyö, LVI-huolto ja tienhoito jatkuvat, mutta muutoin lakon piirissä ovat kaikkien sopimusalojen työt Helsingissä, Espoossa ja Vantaalla.Rakennustyömaiden sähkötyöt sekä matkapuhelin- ja tietoliikenneverkkotyöt pysähtyvät JHL:n ja Sähköliiton työtaistelun vuoksi. Mukana on lukuisia yhtiöitä, jotka vastaavat sähköverkkojen rakentamisesta ja kunnossapidosta. Sähkön ja lämmön tuotanto ja jakelu sekä raideliikenteessä tehtävät työt ovat lakon ulkopuolella.Ammattiliitto Pron lakko laajenee koskemaan Digitaa, ICT-alaa, rahoitusalaa, vakuutusalaa sekä tiettyjä kiinteistöalan työpaikkoja. Näissä työnseisaus on 1. helmikuuta.Suomen suurin yleissatama, Haminan-Kotkan satama, on pysähdyksissä torstain ja perjantain. Tämä aiheuttaa todennäköisesti useiden vuorokausien purkutarpeen suman.Useat Stora Enson, UPM:n ja Huhtamäen tehtaat pysähtyvät tai vähentävät toimintaansa paperiliiton lakon ajaksi. Lakot alkavat torstain 1. helmikuuta aamuvuoroista ja päättyvät 3. helmikuuta aamuvuoroihin. Vaikutuksia on ainakin Imatralla, Oulussa, Varkaudessa, Kymissä, Pietarsaaressa ja Raumalla.Myös ruudin valmistus voi pysähtyä. Lakon piirissä on 1. ja 2. helmikuuta myös neljä ammusvalmistaja Nammon tehdasta.Kemianteollisuudessa lakko vaikuttaa ainakin Porvoon Kilpilahden ja Kokkolan teollisuusalueisiin.Lakko vaikuttaa useisiin kaivoksiin ja jalostamoihin esimerkiksi Kittilässä, Sodankylässä, Naantalissa, Kemissä, Torniossa, Raahessa, Sotkamossa ja Siilinjärvellä. Ainakin Nesteen Porvoon jalostamo jatkaa toimintaansa työtaistelusta huolimatta, vaikka on lakon piirissä.AvaaTyötaistelujen ulkopuolelle kaikilla ammattialoilla jäävät ne tehtävät, joiden tekemättä jättäminen aiheuttaisi vaaraa ihmisten hengelle, terveydelle tai omaisuudelle.Katso alla olevasta videosta kootusti, miten lakko vaikuttaa arkeesi.Toimittaja Minna Matintupa selventää, mitä vaikutuksia tulevilla lakoilla on sinun arkeesi. Kuvaus ja editointi: Isto Janhunen / Yle</t>
+          <t>Presidentinvaalien toisen kierroksen ehdokkaat, kokoomuksen Alexander Stubb ja vihreiden tukema, valitsijayhdistyksen Pekka Haavisto kohtasivat Ylen presidenttiväittelyssä torstaina. Katso alta neljä huippukohtaa.Alexander Stubb ehdottaa Suomeen jonkinlaista Naton alaesikuntaa, jossa ei olisi kysymys tukikohdasta vaan muutamasta kymmenestä upseerista. Haaviston mukaan Suomen puolustus nojaa suomalaisiin eikä turvallisuustilanne ole sellainen, että Nato-joukkoja tarvittaisiin.Pekka Haavisto ei halua Suomen liikuttavan ydinaseita konkreettisesti. Alexander Stubbin mukaan Suomella on nyt mahdollisuus saada ydinasepelote. Hänen mukaansa on kyse siitä, että Suomi viestittää muulle maailmalle, ettei sillä ole rajoitteita Nato-jäsenyytensä suhteen.Haavisto voisi presidenttinä ottaa kantaan työmarkkina-asioihin kulisseissa. Hän suosittelisi sopimusyhteiskunnassa pysymistä eikä rajujen selkävoittojen ottamista.Alexander Stubbin mukaan presidentin tehtävä ei ole tukea hallituksen politiikkaa. Hän sanoo olevansa asian kanssa varovainen, koska on ollut itsekin hallitusvastuussa, joissa päätökset ovat olleet hankalia.Yle näyttää vielä ensi viikon torstaina 8. helmikuuta toisen presidenttiväittelyn, jolloin teemana on erityisesti ulkopolitiikka.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -717,21 +724,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Käsivarren Lapissa lumikaaos</t>
+          <t>Lauri Kontron kolumni: Vero­kes­kus­telussa hämärtyy metsä puilta</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072577</t>
+          <t>https://yle.fi/a/74-20072481</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Voimakkaat myrskypuuskat ovat ravistelleet Lappia torstaina.Ajokeli on erittäin huono Käsivarren Lapissa. Enontekiöläinen taksiautoilija Elli-Maria Kultima kertoi alkuillasta jääneensä jumiin autollaan tien syrjään Muotkatakan kohdalla, vaikka vauhtia oli vain vähän. Lunta oli kertymässä tielle, ja näkyvyyttä oli iltapäivällä vain muutamia metrejä.– Ylämäkeen täytyy pikkuisen vauhtia pitää, Kultima sanoo.Avaa kuvien katseluNäkyvyyttä muutamia metrejä. Tältä näytti torstai-iltapäivänä Valtatie 21 Enontekiöllä.  Kuva: Elli-Maria Kultima Ylämäkeä seudulla riittää, sillä Muotkatakassa sijaitsee Suomen maanteiden korkein kohta. Autossa oli onneksi lämmin, ja puoli kahdeksan aikaan illalla Kultima kertookin jo päässeensä pinteestä, sillä hänen sukulaisensa saapuivat apuun.– Älä lähde ajamaan, jos ei ole pakko, kuuluu Elli-Maria Kultiman neuvo.Kymmeniä vuosia ajanut Kultima ei muista, milloin viimeksi ajokeli olisi ollut yhtä huono. Kultiman mukaan myös muita autoja on jäänyt kiinni tiellä.Finntrafficin mukaan huono sää jatkuu maan pohjoisosassa puoleen yöhön saakka. Ajokeli on huono lumi- ja räntäsateen vuoksi. Paikoin kova tuuli kinostaa lunta.Norjassa Ingunn-myrskyn tuulet raivosivat torstain vastaisena yönä hirmumyrskylukemissa.Avaa kuvien katseluPohjois-Norjan Tromssan myrskyä kuvattuna torstaina. Norjan myrskylle on annettu nimeksi Ingunn. Kuva: Seija TuulentieReittilennoilla vaikeuksia RovaniemelläUseat ulkomaiset reittilennot eivät päässeet laskeutumaan aikataulussa Rovaniemen lentokentälle torstaina myräkän vuoksi.Rovaniemelle oli tarkoitus torstaina laskeutua kuusi lentoa, mutta lentoaseman päällikkö Johan Juujärven mukaan vain kaksi niistä pääsi laskeutumaan normaaliajassa.Kaksi Ryanairin lentoa ja yksi Transavia Francen lento joutuivat ensi lentämään Luulajaan. Myöhemmin torstaina ne pääsivät hakemaan matkustajansa sään parannuttua.Eurowingsin lento sen sijaan lensi Luulajaan tankkaamaan, ja palasi Saksaan. Se palaa perjantaina hakemaan matkustajansa.Normaalisti pääsivät laskeutumaan Turkish Airlines sekä charter-lento Freebird.</t>
+          <t>KolumniKolumneja kirjoittaa laaja joukko Ylen ulkopuolisia tekijöitä.Lue kolumneja
+Kuuntele kolumneja Yle AreenassaMuistatteko tarinan norsusta ja viidestä miehestä. Kertomus voisi kuvata myös suomalaista verokeskustelua.Miesjoukko hapuili savannilla ja törmäsi norsuun pimeässä. Estettä ryhdyttiin tunnistamaan käsikopelolla.Miehistä ensimmäinen sanoi: olemme törmänneet letkuun. Se on joustava ja sitä on helppo taivutella.Toinen oli eri mieltä. Tämähän on keihäs, terävä keihäs.Kolmannella oli ihan toinen käsitys. Kyllä tämä on iso puu, akaasiapuu.Ei ole, neljäs sanoi. Tämä on köysi.Viidennen mielestä edessä oli suuri muuri. Sen yli ei päästäisi.Jokainen oli oikeassa, omasta näkökulmastaan. Kaikki nuo yksityiskohdat löytyivät elefantista. Silti kukaan ei hahmottanut kokonaisuutta.Sama koskee verotusta: katsomme yksityiskohtia – emme kokonaisuutta.Suurin osa noin 115 miljardin euron veropotista kerätään kansalaisten ja yritysten tuloista. Silti yksi erityisen hiertävä vero on perintövero. Sen poistamista vaaditaan usein.Kuitenkin juuri perintövero on Suomessa varsin matala - joitakin suuria perintöjä lukuun ottamatta. Perintöveron poistaminen, Ruotsin tapaan, voisi johtaa kuitenkin jopa perinnönsaajan lopullisen verotuksen kiristymiseen.Suurin osa veropotista kerätään tuloista. Silti yksi erityisen hiertävä vero on perintövero.Veroja voi tietysti myös vältellä, esimerkiksi muuttamalla kirjansa ulkomaille, kuten vaikkapa Björn Wahlroos on tehnyt. Syyksi veropakolaisuuten mainitaan usein Suomen korkea verotus. Ehkä muitakin syitä kuitenkin löytyy. Todella isoista pääomatuloista kun maksetaan veroja paljon vähemmän kuin vastaavista palkkatuloista – ja pääomatulojahan suuret tulot yleensä ovat.Jotkut miljonääreistä, kuten vaikkapa Supercellin Ilkka Paananen sanovat kuitenkin maksavansa veronsa mielellään Suomeen: ovathan he saaneet tästä maasta koulutuksen, hyvän elämän ja sosiaaliturvan. Mielenkiintoista on myös se, että varsinaiset superrikkaat, miljardöörit, suorastaan vaativat, että heidän verotustaan kiristettäisiin.Järjestelmän uudistamisen estää etujärjestöjen paine.Valtio kerää suuren potin verottaessaan kaupantekoa. Arvonlisäverokantoja on neljä, nollasta 24 prosenttiin. Voidaan kysyä, miksi näin on, kun vähempikin riittäisi?Jos prosentti olisi kaikille sama, korkein prosentti alenisi ja alimmat nousisivat. Todennäköisesti sekä talous että kuluttajat hyötyisivät. Mutta tässä järjestelmän uudistamisen estää etujärjestöjen paine.Ja on verotuksessa muutakin mahdotonta muuttaa. Sekä ammattiyhdistykset että työnantajat valvovat silmä kovana omia etuoikeuksiaan. Järjestöt saavat kuitata pörssiosinkonsa verovapaasti – tavalliset kansalaiset sen sijaan maksavat pienistä osinkotuloistaan veron. Ay-liikkeen ja työnantajaleirin järjestöjä nimitetäänkin usein Hakaniemen ja Etelärannan veroparatiiseiksi.Verotus ei siis ole aina loogista, eikä ole koskaan ollutkaan.On suosittua vaatia verohelpotuksia pienituloisille, kukapa sitä vastustaisi. Eikä tarvitsekaan vastustaa, sillä pienituloiset eivät todellisuudessa maksa paljoa veroja. Esimerkiksi veroista vähäisintä, Yle-veroa, ei maksa kuin kaksi kolmasosaa verovelvollisista. Silti juuri tämä vero tuntuu ärsyttävän erityisesti, vaikka se kustantaa enimmilläänkin kuukaudessa saman verran kuin kaksi tuoppia kaljaa.Jokaisella on mielipide myös auto- ja bensaverosta. Ei ihme, sillä kyseessä ei ole yksinkertainen juttu. Autovero on sidottu auton tuottamiin haitallisiin päästöihin, saastuttaja maksaa enemmän, mutta haitoista lasketaan mukaan vain osa. Sähköautot, jotka eivät tuota pakokaasuja, tuottavat auton valmistusprosessissa enemmän päästöjä kuin perinteiset autot. Tätä verotuksessa ei taas oteta huomioon.Tupakkaa ja viinaa verotetaan terveyssyistä. Jostain syystä rasvan ja sokerin verotusta ei saada millään aikaan.Verotus ei siis ole aina loogista, eikä ole koskaan ollutkaan. Kautta aikain on keksitty luovasti veroja kuten ikkunavero, partavero, koiravero, vanhanpiianvero, huvivero, pelikorttivero, somevero – ja autojen peräkoukkuvero.Veroja tietysti tarvitaan, koska valtio tarvitsee rahaa. Tupakkaa ja viinaakin verotetaan, mikä on järkevää, ovathan ne epäterveellisiä aineita. Terveyden kannalta olisi hyviä verottaa myös sokeria ja rasvaa. Jostain syystä sitä ei saada millään aikaan.Veronurinoistamme huolimatta olemme kuitenkin hyviä veronmaksajia. Gallupien mukaan korkeat verot myös hyväksytään – varsinkin naapurin korkeat verot. Omista ei ole niin suurta väliä.Lauri KontroKirjoittaja on vapaa toimittaja.Kirjoittajalle voi lähettää suoraan palautetta osoitteeseen lauri.kontro@gmail.com</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -745,22 +753,21 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yhdysvallat keksi luovan keinon jatkaa Ukrainan sotilasapua – alkaa kierrättää kalustoa Kreikan välityksellä</t>
+          <t>Käsivarren Lapissa lumikaaos – katso taksin­kul­jet­tajan ottamat kuvat</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072570</t>
+          <t>https://yle.fi/a/74-20072577</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Kreikan hallitus on alkanut pikaisesti valmistella kahdenvälistä, sotilaallista tukipakettia Ukrainalle. Kreikka panee kasaan paketin, johon kuuluu muun muassa aseistusta ja tarvikkeita.Itsestään Kreikka ei apupakettia keksinyt vaan pyyntö tuli suoraan Yhdysvalloilta, joka ei viime vuoden lopun jälkeen ole pystynyt sopimaan Ukrainan tuen jatkosta.Yllättävintä Kreikan apupaketissa on se, että myös Ukrainalle luovuttava kalusto tulee Yhdysvalloilta. Asiasta ovet kertoneet kreikkalaiset tiedotusvälineet.– Kun rahat ovat nyt loppu, tehdään luovia ratkaisuja, sanoo Ruotsin maanpuolustuskorkeakoulun sotatieteiden dosentti Ilmari Käihkö.Homma toimii näin.Yhdysvallat lahjoittaa Kreikalle muun muassa partiointiveneitä, kuljetuskoneita ja panssariajoneuvoja, joita se ei itse tarvitse.Avaa kuvien katseluYhdysvallat kierrättää Ukrainaan Kreikan kautta muun muassa kaksi ilmavoimien Hercules C-130H-kuljetuskonetta. Kuva: Alireza Boeini/AOPPresidentillä on oikeus määrätä lahjoitukselle hinta, nolla dollaria, kunhan Kreikka huolehtii kaluston siirtämisestä. Lupaa kongressilta ei tarvitse kysyä.Yhdysvallat on liittänyt lahjoitukset ja niiden toimitukset Ukrainaan osaksi samaa sopimusta, jolla se myy Kreikalle 40 F-35-hävittäjää.– Kyllä Yhdysvaltain hallinnossa ja tiedustelupalveluissa ymmärretään, että jos Ukrainaa ei tueta nyt ja Venäjä pääsee tavoitteeseensa, siitä tulee valtavia seurauksia kansainväliselle turvallisuudelle, Käihkö sanoo.Kilpajuoksu aikaa vastaanYhdysvaltain keskustiedustelupalvelun CIA:n johtaja William Burns kirjoitti tällä viikolla Foreign Affairs -lehdessä, että tuen vetäminen Ukrainalta olisi Yhdysvalloilta ”kaikkien aikojen oma maali”.Republikaanienemmistöinen edustajainhuone on estänyt rahoituspäätöksen teon kongressissa viime vuoden lopulta lähtien.Käihkö sanoo, että Yhdysvaltain tuen jumiutuminen jo tässä vaiheessa on tullut yllätyksenä.– Uskottiin, että Ukraina-tuki jatkuisi ainakin tämän vuoden loppuun asti, Käihkö sanoo viitaten Yhdysvaltain presidentinvaaleihin marraskuussa.Yhdysvaltain sisäpoliittinen vääntö on osoittanut, että Ukrainan tukijoilla onkin yhtäkkiä vuosi vähemmän aikaan saada korvaavaa tukea kuntoon.Kilpajuoksu aikaa vastaan on käynnissä.– Euroopan pitäisi päättää, mitä haluamme Ukrainassa tapahtuvan ja toimia sitten sen mukaan. Tästä Euroopassa ei ole yhteistä näkemystä, Käihkö sanoo.Torstaina Euroopan unioni sopi huippukokouksessa neljän vuoden aikana Ukrainalle annettavasta 50 miljardin euron talousavusta kotirintaman tukemiseen.Alla olevalla videolla Ukrainan presidentti Volodymyr Zelenskyi kiittää päätöksestä.Ukrainan presidentti Volodymyr Zelenskyi kiitti EU-johtajia tukipäätöksestä.Valmisteilla on lisäksi päätös seuraavasta 5 miljardin euron sotilasavusta rauhanrahaston kautta.Euroopalta kysytään riskinottokykyäKäihkö muistuttaa, että kahdenvälinen tuki Ukrainalle on kasvanut. Saksa on luvannut kaksinkertaistaa tukensa kahdeksaan miljardiin euroon tänä vuonna.Suuri kysymys Yhdysvaltain tuen jumiutuessa on se, että vaikka tahtoa Euroopassa Ukrainan tukemiseen löytyisi, onko siihen kykyä.– Tähän vaikuttaa eurooppalaisten oma riskinottokyky eli kuinka paljon on halua ja uskallusta siirtää materiaalia Ukrainaan, Käihkö sanoo.Avaa kuvien katseluIlmari Käihkö sanoo, että Ukrainan tukeminen testaa Euroopan riskinottokykyä. Kuva: Berislav Jurišić / YleEsimerkiksi jatkuva ammuslupauksista lipsuminen on osoittanut, että sotamateriaalin tuottaminen vie aikaa ja tuki tässä vaiheessa on nimenomaan pois maiden omista varastoista.– Ukrainan tuen varmistamisessa on kyse kolmesta asiasta: poliittisesta tahdosta, kyvyistä ja halusta kantaa riskiä, Käihkö summaa.Tällä hetkellä Ukrainaa ei tueta tarpeeksi verrattuna sen omiin tavoitteisiin palauttaa vuoden 1991 rajat.Menossa ”rakennusvuosi”Viime viikonloppuna The Washington Post -lehti kirjoitti, että Valkoinen talo muuttaa tänä vuonna Ukraina-strategiaansa.Ukraina ei pysty tänä vuonna valtaamaan menettämiään alueita takaisin. Niinpä Ukrainaa tuetaan vahvistamalla sen puolustusvoimaa ja taloutta.– Ukrainalla ei tällä hetkellä ei ole resursseja laajamittaiseen hyökkäykseen, Käihkö toteaa.Rintamalla tämä näkyy.Kesällä Ukraina ampui hyökkäysvaiheessaan päivittäin arviolta 7 000 ammusta ja Venäjä ampui 5 000.Nyt Ukraina ampuu päivässä 2 000 kranaattia, Venäjä 10 000.– Tästä vuodesta on puhuttu rakennusvuotena, jolloin Ukrainaa valmistellaan siihen, että hyökkäyskyky löytyisi vuonna 2025, Käihkö sanoo.Ukrainaa tuetaan muun muassa rakentamaan omaa puolustusteollisuutta, jolloin sen riippuuvuus epävarmasta, ulkopuolisesta tuesta vähenisi.Venäjäkin tietää tämän. Käihkö huomauttaa, että Venäjä on kohdistanut tänä talvena ilmaiskujaan juuri puolustusteollisuuteen eikä esimerkiksi sähkövoimaloiden kaltaisiin infrakohteisiin.Hyviä uutisia rintamalta ei ole tiedossaKäihkö muistuttaa, että rintama ei ole juurikaan liikkunut yli vuoteen. Venäjän vähimmäistavoite on kuitenkin edelleen liittää ainakin Itä-Ukrainan Donbas pysyvästi itseensä.– Venäjä jatkaa hyökkäyksiään ja sen olisi varmaan hyvä saada jotain aikaiseksi ennen [maaliskuun] presidentinvaaleja.Avaa kuvien katseluVenäjän ohjusisku teki 23. tammikuuta tuhoa Kiovan lähellä. Kuva: Aleksandr Gusev/AOPKäihkö harmittelee, että usein Ukraina-keskustelussa unohtuu vastapuoli eli Venäjä.– Venäjällä varmasti myös ajatellaan, että Ukraina on nyt heikko ja kannattaa käyttää tilaisuus hyväkseen, Käihkö sanoo.
-Aloite on ainakin väliaikaisesti enemmän Venäjän käsissä. Käihkön mukaan nykytietojen valossa ei kuitenkaan ole syytä odottaa Ukrainan suurta romahdusta.– Hyviä uutisia ei Ukrainan puolelta kannata hirveästi tänä vuonna odottaa, Käihkö sanoo.</t>
+          <t>Voimakkaat myrskypuuskat ovat ravistelleet Lappia torstaina.Ajokeli on erittäin huono Käsivarren Lapissa. Enontekiöläinen taksiautoilija Elli-Maria Kultima kertoi alkuillasta jääneensä jumiin autollaan tien syrjään Muotkatakan kohdalla, vaikka vauhtia oli vain vähän. Lunta oli kertymässä tielle, ja näkyvyyttä oli iltapäivällä vain muutamia metrejä.– Ylämäkeen täytyy pikkuisen vauhtia pitää, Kultima sanoo.Avaa kuvien katseluNäkyvyyttä muutamia metrejä. Tältä näytti torstai-iltapäivänä Valtatie 21 Enontekiöllä.  Kuva: Elli-Maria Kultima Ylämäkeä seudulla riittää, sillä Muotkatakassa sijaitsee Suomen maanteiden korkein kohta. Autossa oli onneksi lämmin, ja puoli kahdeksan aikaan illalla Kultima kertookin jo päässeensä pinteestä, sillä hänen sukulaisensa saapuivat apuun.– Älä lähde ajamaan, jos ei ole pakko, kuuluu Elli-Maria Kultiman neuvo.Kymmeniä vuosia ajanut Kultima ei muista, milloin viimeksi ajokeli olisi ollut yhtä huono. Kultiman mukaan myös muita autoja on jäänyt kiinni tiellä.Finntrafficin mukaan huono sää jatkuu maan pohjoisosassa puoleen yöhön saakka. Ajokeli on huono lumi- ja räntäsateen vuoksi. Paikoin kova tuuli kinostaa lunta.Norjassa Ingunn-myrskyn tuulet raivosivat torstain vastaisena yönä hirmumyrskylukemissa.Avaa kuvien katseluPohjois-Norjan Tromssan myrskyä kuvattuna torstaina. Norjan myrskylle on annettu nimeksi Ingunn. Kuva: Seija TuulentieReittilennoilla vaikeuksia RovaniemelläUseat ulkomaiset reittilennot eivät päässeet laskeutumaan aikataulussa Rovaniemen lentokentälle torstaina myräkän vuoksi.Rovaniemelle oli tarkoitus torstaina laskeutua kuusi lentoa, mutta lentoaseman päällikkö Johan Juujärven mukaan vain kaksi niistä pääsi laskeutumaan normaaliajassa.Kaksi Ryanairin lentoa ja yksi Transavia Francen lento joutuivat ensi lentämään Luulajaan. Myöhemmin torstaina ne pääsivät hakemaan matkustajansa sään parannuttua.Eurowingsin lento sen sijaan lensi Luulajaan tankkaamaan, ja palasi Saksaan. Se palaa perjantaina hakemaan matkustajansa.Normaalisti pääsivät laskeutumaan Turkish Airlines sekä charter-lento Freebird.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -774,21 +781,21 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Venäjän Mustanmeren laivasto pieneni jälleen? Ukraina kertoo upottaneensa korvetin</t>
+          <t>Miljar­di­bisnes ulkomerellä odottaa pelisääntöjä – tuuli­voi­mayhtiöt haluavat yksi­noi­keuksia merialueiden käyttöön</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072569</t>
+          <t>https://yle.fi/a/74-20072461</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ukraina sanoo upottaneensa venäläisen korvetin, Ivanovetsin.Reuters julkaisi videon, jolla väitetty meridroonihyökkäys näkyy. Ivanovetsiin osuu videon perusteella ainakin kolme meridroonia. Alukselta yritetään tulittaa drooneja, mutta ne onnistuvat tehtävässään ja räjähtävät tuhoisin seurauksin.Videon väitetään olevan keskiviikon ja torstain väliseltä yöltä.Kyse on vuonna 1988 valmistuneesta kevyestä Molnija-luokan ohjuskorvetista. Alus kuului 41. ohjusveneprikaatin 298. ohjusvenelaivueeseen, vahvistaa Ylen asiantuntija Marko Eklund.– Se on suhteellisen pieni, 56-metrinen alus. Kyseisen alusluokan miehistöön kuuluu noin 40 henkeä, Eklund kertoo.Pääaseena aluksella on neljä P-270 ”Moskit” -merimaaliohjusta, joiden kantaman arvioidaan olevan versiosta riippuen 120–250 kilometriä. Ohjus lentää yli kaksinkertaisella äänennopeudella ja siitä on ollut käytössä myös lentokoneesta laukaistava versio.Ukrainan sotilastiedustelupalvelun mukaan alus oli partioimassa Krimin niemimaan edustalla.Turvallisuusyhtiö Ambreyn mukaan Ukraina käytti iskussa todennäköisesti kuutta meridroonia. Kukin sisältää noin 300 kiloa räjähteitä. Asiasta kertoo uutistoimisto AP.Avaa kuvien katseluIvanovets (oik.) osallistui Mustanmeren laivastopäivään Krimin Sevastopolissa toisen korvetin kanssa vuonna 2019. Kuva: EPA-EFEVenäjä ei ole kommentoinut upottamista, mutta Venäjän armeijaan kytköksissä olevalla Telegram-kanavalla kerrottiin Ukrainan hyökänneen yhdeksällä meridroonilla alueelle yöllä. Kanavan mukaan neljä drooneista havaittiin ja niitä kohti avattiin tuli.Kanavan mukaan yksi kohteena ollut alus ”vaurioitui”.Lähteet: AP, AFP, STT</t>
+          <t>Merituulivoiman rakentaminen on Suomelle ja maan teollisuudelle valtava mahdollisuus.Tutkimuslupia tuulivoimayhtiöille on Suomen läntisen merialueen talousvyöhykkeelle myönnetty toistakymmentä, ja osa hankkeista on edennyt jo ympäristövaikutusten arviontimenettelyyn saakka.Tuulivoima-ala haluaisi nopeasti saada tarkat pelisäännöt siihen, ketkä lopulta saavat oikeuksia rakentaa merituulivoimaa talousvyöhykkeelle. Tähtäimessä on malli, jossa yhtiölle myönnettäisiin jo varsin varhaisessa vaiheessa yksinoikeus tietylle alueelle.Talousvyöhykkeellä tarkoitetaan aluevesien ulkopuolista merialuetta, jossa Suomella on oikeus tutkia ja hyödyntää luonnonvaroja.Avaa kuvien katseluSuomen tuulivoimayhdistyksen toiminnanjohtaja Anni Mikkonen korostaa yrityslähtöisyyttä merituulivoimahankkeissa. Kuva: Esa Syväkuru / YleTällä hetkellä uusia merialueita pääsee kyllä tutkimaan, mutta jatko tästä eteenpäin onkin pitkälti hämärän peitossa. Kiirekin olisi, sillä ensimmäiset investointipäätökset aiotaan tehdä lähivuosina.Esimerkiksi kolmea jättikokoista merituulipuistoa suunnitteleva OX2-yhtiö arvioi, että luvitusprosessin sujuessa liukkaasti sähköntuotanto voisi alkaa jo vuonna 2030.Anomuksia yksinoikeuksista on jo tehty työ- ja elinkeinoministeriölle, vaikka itse lainsäädäntöhanke on vielä kesken.Toistaiseksi Suomessa on vasta yksi merellä toimiva tuulipuisto. Porin edustalla sähköä tuottava Tahkoluodon merituulipuisto on sekin laajenemassa.Tavoitteena on saada merituulivoimaa koskeva talousvyöhykelaki lausuntokierrokselle tänä keväänä ja eduskuntaan syksyllä.– Keskeistä uudessa laissa olisi se, että yritys voisi saada yksinoikeuden haluamalleen merialueelle. Malli voisi olla sellainen, että alustavien tutkimusten jälkeen valtio kilpailuttaisi alueen siitä kiinnostuneille, kiteyttää Suomen tuulivoimayhdistyksen toiminnanjohtaja Anni Mikkonen.Ministeri: Sääntöjen oltavat selkeätYmpäristö- ja ilmastoministeri Kai Mykkänen (kok.) puolestaan korostaa, että kyse on ainutlaatuisista alueista, joita on olemassa rajallinen määrä.Hallitusohjelmaan on kirjattu tavoitteeksi pelisääntöjen lisäksi edistää kunnianhimoisesti merituulivoiman rakentamista.Avaa kuvien katseluYmpäristö- ja ilmastoministeri Kai Mykkänen (kok.) haluaa merituulivoimalle kestävät ja kilpailukykyiset pelisäännöt. Kuva: Tiina Jutila / Yle– Meidän täytyy löytää oikeudenmukainen ja suomalaisen veronmaksajan kannalta järkevä tapa kaupata oikeuksia merituulivoiman tuotantoon, Mykkänen toteaa.Hän pitää tärkeänä, että pelisäännöistä tehdään riittävän selkeät, jotta Suomi pystyy kilpailemaan miljardiluokan hankkeista esimerkiksi Ruotsin, Tanskan tai Saksan kanssa.– Tavoite on, että merituulivoima ei kohtuuttomasti häiritse muuta toimintaa ja toisaalta pelisääntöjen pitää viestittää tuulivoimayhtiöille, että Suomeen kannattaa panostaa, Mykkänen sanoo.Tuulivoimayhtiöiden halu saada varhaisessa vaiheessa yksinoikeuksia parhaille merituulivoima-alueille on ymmärrettävää.Kuuntele, millaisia ajatuksia ministeri Kai Mykkäsellä on merituulivoiman pelisäännöistäSopivan alueen tutkimiseen ja ympäristövaikutusten arviointiin uppoaa iso säkillinen miljoonia, eivätkä yhtiöt nykytilanteessa voi olla varmoja siitä, kuka lopulta saa ja millaisin ehdoin oikeuden merituulivoiman rakentamiseen tietylle alueelle.Miljardeja euroja verotuloja?Varsin kriittinen asia merituulivoimaa koskevan talousvyöhykelain valmistelussa on se, miten merituulivoimaa tulevaisuudessa verotetaan. Se on olennainen kysymys, kun nyt hankkeitaan valmistelevat tuulivoimayhtiöt tekevät kannattavuuslaskelmiaan.Alan toimijat ovat viestineet julkisuuteen toiveen, että valtio ei rahastaisi tuulivoimayhtiöitä siinä vaiheessa, kun merialueiden käyttöoikeuksia kilpailutetaan.Toiveena on, että valtion kassa saisi täytettä esimerkiksi kohtuullisen kiinteistöverotuksen ja käyttöoikeusmaksujen muodossa. Iso hyöty yhteiskunnalle tulee jo siitä, jos arviot voimaloiden rakentamisen ja ylläpidon työllisyysvaikutuksista pitävät. Toimitusjohtaja Anni Mikkonen valottaa tuulivoimayhtiöiden toiveita merituulivoiman verottamisestaJos kaikki vireillä olevat merituulivoimahankkeet toteutuisivat, tuottaisi se viime keväänä tehdyn arvion mukaan Suomelle usean miljardin euron verohyödyn ja työtä lähes 150 000 henkilötyövuoden edestä.Suomen tuulivoimayhdistyksen toimitusjohtaja Anni Mikkonen muistuttaa, että tuulivoimaloiden rakentaminen jopa sadan kilometrin päähän Suomen rantaviivasta on kallista puuhaa.– Rakentamisen kalleus pitäisi huomioida tulevaisuuden verotuksessa, ettei lisätä sitä kustannusrasitetta kohtuuttomasti talousvyöhykkeelle, Mikkonen tiivistää.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -802,21 +809,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>EU:n ydinjoukko laittoi Unkarin ruotuun huippu­ko­kouksen aamuna</t>
+          <t>Kammokeli iski, mutta kokenut ratamestari ei hätkähtänyt – histo­rial­linen jättihankinta takaa lumiset ladut</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072530</t>
+          <t>https://yle.fi/a/74-20072582</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Unkarin pääministeri Viktor Orbán suostui Ukrainalle maksettavaan tukeen EU:n ydinjoukon kurinpalautuksessa, joka edelsi varsinaista huippukokousta.Paikalla olivat Ranskan presidentti Emmanuel Macron, Saksan pääministeri Olaf Scholz ja Italian pääministeri Giorgia Meloni sekä EU-komission puheenjohtaja Ursula von der Leyen.EU-päättäjät olivat kokoontuneet Brysseliin ylimääräiseen huippukokoukseen siksi, että Unkari torppasi joulukuun kokouksessa Ukrainalle maksettavan tuen.Orbán toisti tiettävästi kokouksessa vaatimuksiaan muun muassa veto-oikeudesta. Hän halusi, että tukea myönnettäisiin Ukrainalle vain vuodeksi, minkä jälkeen siitä pitäisi taas päättää yksimielisesti.Kokouslähde arvioi, että Orbánin piti kuulla kasvotusten EU-johtajilta, että he ovat tosissaan eikä vastaantuloa ole odotettavissa. Orbán ei luottanut pääministerien lähimpien neuvonantajien viesteihin, vaikka kannat ovat olleet samat viikkojen ajan.Orbánin pelimerkit alkoivat olla vähissä.Varsinainen huippukokous ehti kestää vain muutaman minuutin, kun Eurooppa-neuvoston puheenjohtaja Charles Michel ilmoitti, että Unkari hyväksyy Ukrainan tukipaketin.Pieninä myönnytyksinä sopimukseen kirjattiin, että tuesta keskustellaan vuosittain ja tarvittaessa voidaan tehdä arvio kahden vuoden kuluttua. Tämä on kaukana Unkarin vaatimasta veto-oikeudesta.Nämäkin lauseet olisi voitu kirjata sopimukseen jo joulukuun huippukokouksessa, yksi virkamies totesi.Orbán selitti asiaa tviitissään parhain päin: ”Tehtävä suoritettu. Unkarin rahoja ei päädy Ukrainaan, ja meillä on kontrollimekanismi.”Unkarilta jäädytettyjä varoja ei ole ollut tarkoituskaan käyttää Ukrainan tukemiseen. Tuki maksetaan EU-budjetista, jonka maksajia ovat jäsenmaat.Unkarin päätökseen saattoi vaikuttaa myös aiemmin viikolla Financial Timesiin vuodettu asiakirja, jonka mukaan Unkarin tukemista aiottiin rajoittaa, niin että maan talous ajautuu entistä pahempaan alamäkeen ja sijoittajat menettävät luottamuksensa.EU-johtajat pohjustivat päätöstä edellispäivän illallisella. Pääministeri Petteri Orpon (kok.) mukaan siellä vahvistui, ettei kukaan lipeä Unkarin puolelle. Orbán ei ollut illallisella.Moni tympääntyi Unkariin tukiriidan kestäessä. Orpon mukaan Unkari ei päätöksen jälkeen saanut muilta arvostelua mutta ei kehujakaan.Esimerkiksi Puolen pääministeri Donald Tusk totesi Reutersin mukaan, ettei hän luottaisi siihen, että Orbán jatkossa pelaa joukkueessa.Unkari on harannut EU:ssa vastaan jo monissa päätöksissä, esimerkiksi Venäjän-vastaisissa sanktioissa.</t>
+          <t>Tänä viikonloppuna Vantaalla ratkotaan hiihdon Suomen mestaruudet vapaan hiihtotavan sprinteissä, perinteisen hiihtotavan 20 kilometrillä ja perinteisen hiihtotavan parisprintissä.Eteläisessä Suomessa on viime päivinä satanut ja lämpötila on ollut päivisin plussalla. Hakunilan SM-kisojen ratamestarin Juha Savolaisen puhelimet ovat käyneet kuumina, mutta hän ei ole kuitenkaan menettänyt yöuniaan kisapaikkakunnan olosuhteiden takia. Tilanne on hänen mukaansa normaali.– Talven säätiedotuksessa on normaalisti pakkasta ja hyvä keli, mutta kun vesisadetta rupeaa tulemaan, se tarkoittaa, että hiihtokisat Vantaalla lähestyvät, hän naurahtaa.– Tämän kanssa on totuttu elämään. Radat ovat hyvässä kunnossa, ja ihan hyvää palautetta tullut.Säälle ei anneta periksi – ainakaan helpollaTorstain iltapäivän auringonpaisteessa Savolainen katsoo tyytyväisenä Hakunilan hiihtostadionia.Radat ovat hyvässä kunnossa, ne on ajettu paksusti tykkilumella, ja vaikka vielä torstaiaamulla satoi rankasti, ei sitä huomaa radoilla. Viileä tuuli auttaa tilanteessa, sillä se vie hautovan lämmön pois.– Plussakelillä vettä tulee paljon pelto-osuuksille, joten laitamme sinne putkia ja lisäksi ajamme sinne lunta yöllä.Avaa kuvien katseluJuha Savolainen oli tyytyväinen näkemäänsä, kun hän tarkasteli Hakunilan SM-kisojen radan pintaa torstaina. Kuva: Kimmo Hiltunen / YleSavolainen ei halua miettiä liiaksi viikonlopun sääennusteita. Ne lupaavat lauhan sään jatkuvan, mutta yöllä pitäisi kuitenkin pakastaa.Vantaan Hiihtoseura on järjestänyt Suomen cupin osakilpailuja ja SM-hiihtoja useasti, ja onpa Hakunilassa kisattu parisprintin maailmancupiakin vuonna 1999.Savolainen on ollut mukana vuodesta 1990 lähtien, ja hänen tiiminsä on halunnut huoltaa radat aina huippukuntoon, ovat olosuhteet olleet minkälaiset tahansa.– Emme anna periksi säälle, ainakaan kovin helpolla. Minun aikanani ei ole kertaakaan kisoja peruttu tai siirretty. Kerran yhtä matkaa tosin piti lyhentää sään takia, Savolainen sanoo.Uusi lumetusjärjestelmä auttaa leutoihin talviinVantaa on myös saanut uuden lumetusjärjestelmän, joka ei vaadi pakkasta lumen tekemiseen, kuten lumitykit vaativat.Normaalisti lumitykkien lunta on säilötty sahanpurupeitteen alla, mutta koska Vantaalla lumikuormalle on vaikea löytää paikkaa kesäksi, on paikkakunnalla turvauduttu toisenlaiseen ratkaisuun.Uusi lumetusjärjestelmä on kahden teräskontin muodostama rakennelma, jonka päälle on asennettu lauhduttimet ja joka on kytketty tekojään kylmälaitteisiin. Sen avulla pystytään tekemään arviolta 200 metriä latua päivässä tekojään synnyttämien hiutaleiden avulla.Tältä näyttää Vantaan Hakunilan hiihtostadionilla.– Saamme tekojäästä hilettä ja lunta koko ajan, ja sitä voidaan hyödyntää hiihdossa. Lunta on niin paljon, että pystyisimme varmaan levittämään sillä ladut uudelleen, Savolainen kertoo.– Tällainen talvi, jossa marraskuussa tulee pysyvät lumet ja pakkasta, valehtelee. Pystymme tällä kuitenkin lauhoina talvina turvaamaan kilpailut ja ylipäätään hiihto-olosuhteet vantaalaisille.Vantaan liikuntajohtaja Veli-Matti Kallislahti naureskeli Helsingin Sanomille, että uuden lumetusjärjestelmän takia Vantaa on Suomen lumivarmin paikkakunta, vaikka se kuulostaakin ehkä vähän mahtipontiselta ja hassulta.Lumetuskontti on italialaisen TechnoAlpin-yhtiön valmistama ja hintaa sillä on noin 800 000 euroa. Valtio tuki vantaalaisten hankintaa 150 000 eurolla.– Se oli iso kädenojennus valtion puolelta. Sielläkin oli haluja nähdä, miten tuommoinen systeemi toimii. Olemme tässä tietyllä tavalla vähän uranuurtajia, Kallislahti kehui HS:lle.Avaa kuvien katseluTältä näyttää Suomen ensimmäinen lumetuskontti Hakunilan urheilupuistossa Vantaalla. Kuva: Markku Ulander / LehtikuvaRatamestarina Savolainen odottaa mielenkiintoista kisaviikonloppua. Perjantain sprintti hiihdetään uusitulla sprinttiradalla, joka on vähän pidempi ja vaativampi kuin aiempi, ja se antaa osviittaa sunnuntain parisprinttiin.Lauantaina ”Vantaan Holmenkollenilla” hiihdetään 20 kilometrin kilpailut neljän kilometrin pituisella radalla.– Meillä ei ole ollut pitkiä matkoja täällä ohjelmassa, ja nyt mennään vielä perinteisellä. Veikkaan, että hyvät kisat tulee, mutta se on rankka reitti kaikille, Savolainen muistuttaa.Vantaan SM-hiihdotPerjantai 2.2. (TV2 kello 12.30)kello 10 sprintti (v), karsinta
+kello 12.45 sprintti (v), erävaiheLauantai 3.2. (Yle Areena kello 10.40, TV2 kello 11.25 ja kello 13.10)kello 10.45 20 km (p), miehet
+kello 13.15 20 km (p), naisetSunnuntai (TV2 kello 11.55)kello 10 parisprintti (p), karsinta
+kello 12 parisprintti (p), finaali, naiset
+kello 12.30 parisprintti (p), finaali, miehet</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -830,21 +841,21 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>50 miljardin Ukraina-tuesta sopu EU-huippu­ko­kouksessa</t>
+          <t>Lauri Markkanen kovassa iskussa ratkai­su­hetkillä, tähdis­tö­ottelu jäi nyt haaveeksi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072489</t>
+          <t>https://yle.fi/a/74-20072607</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>EU on päässyt sopuun Ukrainalle annettavasta 50:n miljardin euron tukipaketista. Kaikki 27 jäsenmaata hyväksyivät tukipaketin ylimääräisessä huippukokouksessa Brysselissä.– Näin varmistetaan vakaa, pitkäaikainen ja ennustettava rahoitus Ukrainalle, Eurooppa-neuvoston puheenjohtaja Charles Michel kirjoitti viestipalvelu X:ssä.Sopimuksen syntymisestä ilmoitettiin heti kokouksen alettua.Vielä joulukuussa Unkari vastusti tukea eikä päätöstä Ukrainan tukemisesta saatu silloin aikaan. Sen jälkeen Unkarin kanssa on käyty neuvotteluja asian ratkaisemiseksi. Kuitenkin vielä ennen ylimääräistä huippukokousta oli epäselvää, miten Unkari nyt asian kanssa toimii.Ukrainan pääministeri Denys Šmyhal kiitteli tuoreeltaan päätöksen syntymistä.– EU-maat osoittivat solidaarisuutensa ja yhtenäisyytensä Ukrainaa kohtaan, hän sanoi.Myös presidentti Volodymyr Zelenskyi kehui päätöstä ja sanoi sen vahvistavan Ukrainan pitkän ajan taloustilannetta. Zelenskyi piti erittäin tärkeänä, että kaikki EU:n jäsenmaat hyväksyivät tukipaketin.Neljän vuoden aikana maksettava 50 miljardin euron tukipaketti ei ole sotilaallista tukea. Paketilla tuetaan Ukrainan jälleenrakentamista ja sodasta toipumista.Ukraina odotaa saavansa paketin ensimmäisen osan, 4,5 miljardia euroa, maaliskuussa.Reutersin lähde: Unkarin tuet pysyvät jäädytettynäVälittömästi ratkaisun jälkeen ei ole selvää tekivätkö muut EU-maat Unkarille myönnytyksiä.Sopimuksessa tukipaketista on kirjattu, että siitä keskustallaan vuosittain. Pakettia arvioitaisiin tarvittaessa kahden vuoden välein.Uutistoimisto Reutersille puhuneen EU-lähteen mukaan Unkarilta jäädytetyt varat pysyvät sopimuksesta huolimatta jäädytettynä. EU-lähde sanoi, että Unkarin on edelleen täytettävä vaadittavat ehdot, jotta tuet vapautetaan.Unkarilta on jäädytetty tukia oikeusvaltioperiaatteen rikkomisen takia. Joulukuussa komissio vapautti Unkarille 10 miljardia euroa, koska maa oli komission mukaan edennyt vaadituissa uudistuksissa. Jäissä on yhä 20 miljardia euroa.EU-maat ovat syyttäneet Unkarin itsevaltaista pääministeriä Viktor Orbánia kiristämisestä tukipakettiasialla. Orbán on ylläpitänyt läheisiä suhteita Vladimir Putiniin Venäjän Ukrainaan hyökkäämisestä huolimatta.Orbán ei ole kommentoinut tukipaketin syntymistä. Kokouspaikalla olevien delegaattien mukaan hän ei olisi saanut mitään myönnytyksiä, kertoo brittiläinen The Guardian-lehti.</t>
+          <t>Lauri Markkasen Utah Jazz taipui Philadelphia 76ersille koripallon NBA:ssa. Philadelphia vei tasaisen kamppailun 127–124. Tappio oli Jazzille kolmas peräkkäinen.Utahin tehokkain pelaaja Markkanen heitti 28 pistettä ja hankki 10 levypalloa. Markkanen heitti peräti 14 pistettä ottelun viimeisellä neljänneksellä. Jazzin pelaajista Collin Sexton heitti 22 pistettä ja Jordan Clarkson upotti 16 pistettä.Kentän ylivoimainen ykkönen oli Philadelphian Tyrese Maxey, joka kuritti isäntiä heittämällä peräti 51 pistettä. Maxey pääsee ensimmäistä kertaa urallaan tähdistöotteluun. Vieraiden suurin tähti Joel Embiid ei pelannut ottelussa.Utah kamppailee länsilohkossa pääsystä pudotuspelikarsintoihin. Lännessä kymmenentenä oleva Jazz on voittanut 24 ottelua ja hävinnyt 26.Jazzin kausi jatkuu varhain maanantaina Suomen aikaa kotiottelulla Milwaukee Bucksia vastaan.Videokooste Lauri Markkasen illasta Philadelphiaa vastaan.  Markkanen jäi rannalle tähdistöottelustaPerjantaina varmistui, ettei Markkanen ole mukana NBA:n tähdistöottelussa. NBA kertoi tulevan tähdistöottelun loput pelaajat varhain perjantaina Suomen aikaa.Nyt kerrotut 14 pelaajaa valittiin NBA-joukkueiden päävalmentajien äänillä. Markkanen oli havitellut paikkaa länsilohkon joukkueessa.Länsilohkosta tulevat pelaamaan Kawhi Leonard, Anthony Davis, Devin Booker, Anthony Edwards, Stephen Curry, Paul George ja Karl-Anthony Towns.Itälohkoa puolestaan edustavat Jaylen Brown, Donovan Mitchell, Jalen Brunson, Bam Adebayo, Julius Randle, Tyrese Maxey ja Paolo Banchero.Tähdistöottelun avausviisikot ilmoitettiin jo viime viikolla. Avausviisikot valittiin fanien, NBA-pelaajien ja median muodostaman paneelin tulosten perusteella.Länsilohkon avausviisikossa ovat LeBron James, Kevin Durant, Nikola Jokic, Luka Doncic ja Shai Gilgeous-Alexander. Itälohkon avausviisikkoon taas valittiin Giannis Antetokounmpo, Joel Embiid, Jayson Tatum, Tyrese Haliburton ja Damian Lillard.Markkanen teki historiaa viime vuonna, kun hänestä tuli ensimmäinen pohjoismainen pelaaja NBA:ssa, joka valittiin mukaan tähdistöotteluun.Tämän vuoden ottelu pelataan 18. helmikuuta Indianapolisissa.Päivitetty kello 8.35: Utahin ja Philadelphian ottelu täydennetty uutiseen.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -858,21 +869,24 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Tammikuu tarjosi kaikkea paukku­pak­kasista vesisateisiin – katso kuukauden parhaat sääkuvat</t>
+          <t>Kun työ on merki­tyk­sellistä, ei sitä halua lopettaa eläkeiässä – Helmi Hannunkari ei aio eläkkeelle</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20070418</t>
+          <t>https://yle.fi/a/74-20072045</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Avaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katselu</t>
+          <t xml:space="preserve">Espoossa Laaksolahdessa fysioterapeuttina toimiva Helmi Hannunkari on ohittanut eläkeiän, mutta ei edes harkitse töiden lopettamista.Hänelle työ tuo merkitystä elämään.– Siinä on todella tuntee tekevänsä merkityksellistä työtä, kun pystyy auttamaan ihmisiä kivuissa ja säryissä ja ohjaamaan liikkumaan, Hannunkari sanoo.Hannunkari innostui fysioterapiasta jo lukion jälkeen. Välillä hän työskenteli Yhdysvalloissa, sitten suomalaisissa yrityksissä. Yrittäjä hän on ollut viimeiset 20 vuotta.Töitä voi muokata omien menojen mukaan. Työ on palkitsevaa ja asiakkaista on monista tullut ystäviä. Hannunkarin mukaan työskentely pitää hänet myös fyysisesti kunnossa. Kokemus on tuonut viisautta ja taitoa hänen työhönsä. Sen ansiosta hän näkee nopeasti, miten toimia potilaiden kanssa.Hannunkari ei ole asettanut päättymispäivää työurallensa, vaan sanoo jatkavansa sitä päivä kerrallaan.Töissä jatketaan aina vain pidempäänYhä useampi suomalainen jatkaa työuraansa eläkeiän ohi. Etenkin viimeisen kymmenen vuoden aikana yli 65-vuotiaiden työskentely on lisääntynyt huimasti.Syitä on monia. Yksi niistä on politiikka: työuria on pidennetty eläkeikää nostamalla.Eläkeuudistuksia on tehty tietoisesti, koska hallitus toisensa jälkeen on halunnut ihmisten jäävän eläkkeelle myöhemmin, jotta veronmaksajia ja eläkkeenmaksajia olisi enemmän.Toinen syy on ihmisten eliniän piteneminen viime vuosikymmeninä.– Lisää elinaikaa ei ole tullut sinne terminaalivaiheeseen elämän loppuun, vaan ihmisille on tullut toimintakykyisiä terveitä elinvuosia lisää, sanoo Eläketurvakeskuksen kehityspäällikkö, tilastoasiantuntija Jari Kannasto.Nyt eläkeikään tulevat ovat yhä paremmassa kunnossa. Siksi töitä jaksetaan ja halutaan tehdä. Kannasto sanoo, että erityisesti monet yrittäjät työskentelevät aivan siihen asti, kunnes ovat lähellä toimintakyvyttömyyttä. Mutta myös tuiki tavalliset työntekijät jatkavat uraansa entistä pidempään.– Tietysti tämä meidän väestörakenne on johtanut siihen, että meillä ikääntyneelle työvoimalle on yhä enemmän kysyntää, Kannasto sanoo.Niin, tämä väestörakenne.Suomessa syntyi ennakkotilaston mukaan 43 320 lasta viime vuonna. Viimeksi näin vähän lapsia syntyi 187 vuotta sitten, jolloin Suomen väkiluku oli noin 1,4 miljoonaa.Avaa kuvien katseluEläkeikä ei nykyään tarkoita kiikkustuolin hankkimista. Kuva: Kati M. RantalaUutta työvoimaa ei ole entiseen tapaan saatavilla, joten työnantajilla on tarve pitää työvoimasta kiinni. Siksi ikääntyneitä työntekijöitä arvostetaan yhä enemmän. Kannaston mukaan tämä käy ilmi tutkimuksista.Toki edelleen puolet kaikista eläkkeelle jääneistä ei ole tennyt enää töitä eikä halua tehdä.
+Jopa puolet vanhuuseläkkeelle jääneistä haluaa tehdä töitäTilastot ja tutkimukset tosiaan kertovat, että työ kiinnostaa ikääntyviäkin. Puolet työstä vastikään vanhuuseläkkeelle siirtyneistä on kiinnostunut työskentelemään. Kolmasosa vuosina 2019–2021 palkkatyöstä vanhuuseläkkeelle siirtyneistä työskentelee tai on työskennellyt eläkkeellä. Näin kertoo Eläketurvakeskuksen kyselytutkimus.Useimmat töissä jatkavat pysyvät samalla työnantajalla samanlaisissa tehtävissä kuin ennen eläkeikää. Työskentely on yleensä epäsäännöllistä ja satunnaista.Tilastokeskuksen yliaktuaari Pertti Taskinen toteaa, että eläkeikäisten työllisyys on kasvanut viimeisen kymmenen vuoden aikana, erityisesti 65–69-vuotiaiden ryhmässä.– Vuonna 2013 työllisyysaste oli noin 12 prosenttia, kun se viime vuonna oli jo 19 prosentin tuntumassa. Tämä nousu on tapahtunut erityisesti koronapandemian jälkeisenä aikana, jolloin työllisyysaste kasvoi 16 prosentista yli 19 prosenttiin.Taskinenkin muistuttaa, että eläkeiän asteittainen nousu on vaikuttanut tähän.Myös 70–74-vuotiaiden ikäryhmässä työllisyysaste on noussut, mutta kasvu on ollut pienempää verrattuna nuorempiin ikäryhmiin.Eläketurvakeskuksen Jari Kannasto toteaa, että työntekijäammateissa tyypillisesti jäädään eläkkeelle, kun vanhuseläkkeen alaikäraja täyttyy, ja sitten tehdään töitä sen verran kuin on mahdollista. Asiantuntija-ammateissa taas tyypillisesti jatketaan työssä yli vanhuseläkkeen alaikärajan ilman eläkettä.– Ja yhä useampi suomalainen on nykyään asiantuntija-ammatissa.Naiset jatkavat pidempään kuin miehetSuomalaisten naisten työnteko 60 vuoden iän täyttämisen jälkeen on jonkin verran yleisempää kuin miesten. Tosin vertailussa suomalaiset jäävät esimerkiksi muista pohjoismaista jälkeen.
+Eläketurvakeskuksen Jari Kannasto sanoo, että eläkeikään lähestyvien ihmisten työllisyysaste on korkea, mikä on ristiriidassa yleisen käsityksen kanssa, että yli viisikymppiset eivät työllisty yhtä hyvin.Ikäsyrjintää kokevatkin usein yli 50-vuotiaana työttömäksi jäävät. Heidän on vaikeampi löytää uutta työtä. Työssä olevien keskuudessa ikäsyrjintä ei välttämättä ole yhtä yleistä, muistuttaa puolestaan Mervi Ruokolainen.– Työssä jatkamista eläkkeellä voi vähentää myös kokemus siitä, ettei työmarkkinoilla ole tarjolla sopivia tehtäviä tai joustoja heidän tilanteeseensa.Työpaikan tasolla pitäisi Ruokolaisen mukaan pyrkiä työroolien ja työaikojen muokkaamiseen.Milloin jäädä eläkkeelle ja miten tasapainottaa harrastukset ja työ?Matti Lappalainen on 63-vuotias. Eläkeiän lähestyessä hän jo pohtii sitä, milloin olisi hyvä hetki jäädä eläkkeelle.Asia tuli erityisen ajankohtaiseksi, kun hänen työpaikkansa jokin aika sitten lakkautettiin. Hän joutui harkitsemaan vakavasti, mitä seuraavaksi. Hän teki 34 vuotta uraa samalla työnantajalla, koulutusalalla ja virassa. Siis asiantuntijana.Mutta nyt hän on juuri aloittamassa uudessa työpaikassa. Lappalainen sanoo, ettei tiedä, milloin hän haluaa jäädä eläkkeelle. Kuntoa ja energiaa riittää, ainakin toistaiseksi.– Jos jatkan töitä yli eläkeiän, pitää jäädä energiaa myös harrastuksille ja muulle elämälle.Lappalaisen vaimo on samassa iässä. Harkinta eläkkeellejäämisestä on yhteinen.– Työn mielekkyyden pohtiminen, se että ihmiset aidosti otetaan mukaan, on tärkeää.
+</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -886,420 +900,420 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>18</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Osa oppi­lai­toksista palaa tänään etäopetukseen – yhdeksi päiväksi: ”Toimimme opiskelijan parhaaksi”</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20072450</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Osa pääkaupunkiseudun oppilaitoksista järjestää tänään perjantaina opetuksen etänä joukkoliikenteen lakon vuoksi.Osassa lukioista on kuitenkin meneillään koeviikko, jonka vuoksi opetus järjestetään pääosin lähiopetuksena.Helsingissä kaupungin ylläpitämät lukiot saavat itse päättää perjantain opetustavasta oppilaitoskohtaisesti. Opetus järjestetään etä- tai lähiopetuksena tai näiden yhdistelmänä.– Tämä on yksittäinen tilanne. Kun toimimme opiskelijan parhaaksi, silloin päätäntävalta on parasta antaa lukioille, sanoo lukiokoulutuksen päällikkö Tarja Aro-Kuuskoski Helsingin kaupungilta.Opiskelijat matkustavat Helsingin lukioihin myös toiselta puolelta kaupunkia tai pidempiä matkoja naapurikaupungeista ja -kunnista.Pari kaupungin lukiota tarjoaa pelkästään lähiopetusta, koska oppilaat tulevat lähialueelta.Kaikissa kaupungin 12 lukiossa ovet ovat kuitenkin auki ja lounasta on tarjolla.– Lähettäisin lakkoilijoille sellaisen pyynnön, että tällaista lakkoa ei järjestettäisi ylioppilaskirjoituspäivinä. Opiskelijat olisivat pulassa, ja he eivät ole aiheuttaneet tätä lakkoilun syytä millään tavalla, Aro-Kuuskoski vetoaa.Helsingissä on myös yksityisiä lukioita. Niissäkin toimitaan koulukohtaisesti.Lukioiden annettiin päättää Helsingissä perjantain opetusjärjestelyistä itseHelsingin kaupungin lukiokoulutuksen päällikkö Tarja Aro-Kuuskosken mukaan lukioille annettiin mahdollisuus päättää opetusjärjestelyistä itse, koska se on oppilaiden edun mukaista. Metropoliassa ja Haaga-Heliassa yksikkökohtaisia ratkaisujaMetropolia ammattikorkeakoulussa opetus toteutuu pääosin suunnitellun mukaisesti. Joillekin opiskelijoille on annettu kotitehtäviä etukäteen, eikä lähiopetusta ole perjantaina.– Opetusjärjestelyihin liittyvät käytännön ratkaisut tehdään tutkinto-ohjelmissa, ja sovituista ratkaisuista viestitään opiskelijoille, Metropolian viestintäpäällikkö Liisa Salo kertoo.Haaga-Helia ammattikorkeakoulussa opettajia ja opiskelijoita on ohjeistettu, että opetus järjestetään ja opetukseen osallistutaan normaalisti joukkoliikenteen lakosta huolimatta.– Kampuksella toteutettavan opetuksen voi siirtää verkkoon, jos se on mielekkäästi järjestettävissä. Opettajat sopivat suoraan opiskelijoiden kanssa, Haaga-Helian viestintäpäällikkö Ari Nevalainen sanoo.Vantaalla lukiot auki, joissakin etäopiskelumahdollisuusVantaalla odotetaan, että lukioiden ja Vantaan ammattiopisto Varian opiskelijat saapuvat oppilaitoksiin. Jos opiskelija ei pääse tulemaan paikalle joukkoliikenteen lakon vuoksi, opettaja voi mahdollisuuksien mukaan avata tunnillaan etäyhteyden.Rehtorit viestivät oppilaitoskohtaisesti perjantain käytännön järjestelyistä. Esimerkiksi Martinlaakson ja Helsinge gymnasiumin rehtorit ilmoittavat, ettei lukioilla ole etäopetusta.Vantaalla on viisi suomenkielistä ja yksi ruotsinkielinen lukio.Espoon lukioissa koeviikon vuoksi lähiopetusEspoon lukioissa on tällä viikolla arviointiviikko eli runsaasti kokeita ja muita arviointeja.Kokeissa on läsnäolovelvollisuus.– Opetus järjestetään normaalisti lähiopetuksena arviointiviikon vuoksi. Meillä ei ole etäopetusta, sanoo toisen asteen koulutuksen johtaja Tapio Erma Espoon kaupungilta.Espoossa on kymmenen suomenkielistä ja yksi ruotsinkielinen lukio.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>19</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Hallitus yrittää tukkia porsaanreiän: poliittinen lakko saisi kestää 24 tuntia</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20072525</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Hallitus aikoo rajoittaa poliittiset työtaistelut vuorokauden mittaisiksi. Samalla laissa on tarkoitus määritellä sitä, miten pian työtaistelun saa toistaa.Kysymys on esimerkiksi siitä, voisiko ensin järjestää poliittisen lakon vaikkapa palkattoman sairauslomapäivän vastustamiseksi ja heti seuraavana päivänä työttömyysturvan heikentämistä vastaan. Työtaistelu kestäisi kaksi vuorokautta, mutta kohde vaihtuisi puolessa välissä.Lopullista vastausta ei vielä voi antaa, koska lain jatkovalmistelu on kesken. Jotain osviittaa asiasta antaa viime syksynä lausuntokierroksella ollut luonnos hallituksen esitykseksi.Ei peräkkäisiä lakkoja samaa asiaa vastaanEsitysluonnoksessa sanotaan, että poliittista työtaistelua samaan asiaan vaikuttamiseksi ei saisi toistaa. Tarkoituksena on estää se, että enimmäiskestoa voisi kiertää.Työtaistelun kielletystä toistamisesta voisi olla kyse erityisesti silloin, jos sama järjestö järjestää lyhyellä aikavälillä toistuvia poliittisia työnseisauksia.Sallittua uuden työtaistelun järjestäminen olisi, jos aikaa on kulunut enemmän tai työtaistelu liittyy ajallisesti jonkin uuden poliittisen päätöksen tekemiseen.Jokainen tapaus pitäisi kuitenkin aina harkita erikseen.Lisää: EK rajaisi lakot muutamaan tuntiin – näin kaukana työnantajat ja työntekijät ovatUusi lakko sallittu, jos hallitus vaihtuuPoliittisen työtaistelun saisi toistaa myös, jos se kohdistuu esimerkiksi eri hallitusohjelmiin. Uuden työtaistelun voisi järjestää, jos vaikkapa hallitus tai kunnanvaltuusto on vaihtunut.Arvioinnissa pitää luonnoksen mukaan huomioida myös poliittisen työtaistelun järjestäjän tosiasiallinen mahdollisuus vaikuttaa poliittisen päätöksentekoon.Esimerkiksi hallitusohjelman työelämähankkeisiin vaikuttamiseksi järjestettävä poliittinen työtaistelu ei vielä sinänsä poistaisi oikeutta järjestää myöhemmin hallituskaudella toista poliittista työtaistelua, jonka tavoite on vaikuttaa työntekijöiden oikeuksiin.Poliittisen työtaistelun voisi esimerkiksi toistaa, jos hallitusohjelman kirjauksen tavoite ja sen toteuttamistapa muuttuvat valmistelun aikana niin paljon, etteivät ne enää vastaa hallitusohjelman kirjauksen sisältöä.Esitysluonnos sai kritiikkiä epäselvyydestäSekä työnantaja- että työntekijäpuoli jättivät syksyllä eriävän mielipiteen työryhmän mietintöön, johon luonnos hallituksen esitykseksi sisältyy. Ne ottivat lyhyesti kantaa myös työtaistelun toistamista koskevaan kysymykseen.Työnantajapuoli korosti, että lailla pitää pystyä estämään poliittisten työtaisteluiden enimmäiskestoa koskevien rajoitusten kiertäminen. Sen mukaan työtaistelutoimia ei pitäisi voida pilkkoa näennäisesti eri asioita koskeviin poliittisiin työtaisteluihin tai eri ryhmien toimeenpanemiin samaa asiaa koskeviin työtaisteluihin.Työntekijäpuoli sanoi eriävässä mielipiteessään, että esitetty kielto toistaa poliittinen työtaistelu samaan asiaan vaikuttamiseksi on epäselvä, eikä täytä perusoikeuksien rajoitusedellytysten tarkkarajaisuuden ja täsmällisyyden vaatimuksia.Myös lausuntokierroksella esitysluonnokseen tuli työtaistelujen toistamista koskevia kommentteja. Ne on tarkoitus ottaa huomioon jatkovalmistelussa.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
         <v>20</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Näin lakot vaikuttavat tänään eri puolilla Suomea – katso lista kaikilta päiviltä</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20071469</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Osa päiväkodeista, julkisesta liikenteestä, kuljetuksista, ruokakaupoista ja teollisuudesta pysähtyi, kun ammattiliittojen lakot alkoivat.Ensimmäiset lakot alkoivat keskiviikkona, mutta suurimmat vaikutukset nähdään eilen torstaina ja tänään perjantaina. Lakkojen kesto vaihtelee aloittain yhdestä päivästä kahteen. Lisäksi 6. helmikuuta on tiedossa ulosmarsseja.Lisää: Lakko pakotti turkulaisen Anu Kankareen töihin puolitoista tuntia etuajassa – Yle seuraa poikkeuksellista jättilakkoaPoliittisilla lakoilla ja ulosmarsseilla vastustetaan hallituksen työelämäuudistuksia ja sosiaaliturvaleikkauksia. Niiden piiriin kuuluvat useat keskusjärjestö SAK:n, STTK:n ja Akavan ammattiliitot.Lakon vaikutukset keskiviikkona, torstaina ja perjantainaKeskiviikkona lakko vaikutti etenkin varhaiskasvatukseen, päiväkoteihin, esiopetukseen, perhepäivätoimintaan ja puistotoimintaan. Vaikutukset jatkuvat torstaihin.Eilen torstaina lakko vaikutti lentoliikenteeseen, ruokakauppojen aukioloihin ja valikoimaan, hotelleihin ja ravintoloihin, postin jakeluun, pankkien ja vakuutusyhtiöiden konttoreihin, logistiikkaan ja kuljetuksiin sekä laajasti teollisuuteen. Torstaina alkaneet työtaistelutoimet kestävät perjantaihin asti.Tänään perjantaina lakko vaikuttaa torstain osalta mainittujen lisäksi julkiseen liikenteeseen, kun junat, raitiovaunut ja metrot pysähtyvät ja bussit kulkevat harvennetusti tai eivät lainkaan.Lakon vaikutukset ammattialoittainTiedot lakon vaikutuksista löydät alta laajemmin.Päivitämme tähän tuoreimmat tiedot lakon vaikutuksista eri puolilla Suomea.Bussit, junat, raitiovaunut ja metrotJulkinen liikenne pysähtyy tai harvenee lakon ajaksi monissa Suomen kaupungeissa.Pääkaupunkiseudulla paikallisjunat, metrot ja raitiovaunut eivät liikennöi perjantaina 2. helmikuuta lainkaan. Myös HSL:n bussiliikenteestä suuri osa jää ajamatta.Katso lista HSL:n ajettavista bussivuoroista.Tampereen seudulla lakot pysäyttävät käytännössä koko Nysse-liikenteen perjantaina. Ratikat ja bussit liikennöivät noin kello kahteen perjantaina aamuyöllä. Torstaina joukkoliikenne sujuu normaalisti.Turussa Fölin bussiliikenne jatkuu todennäköisesti kaikilla linjoilla, mutta harvennetusti. Heillä lakko kestää perjantain ajan.Kuopiossa suurin osa paikallisliikenteen bussivuoroista jää ajamatta perjantaina. Myös osa ELY-liikenteen vuoroista ja PALI-kyydeistä voi jäädä ajamatta.Jyväskylän alueella linja-autot eivät kulje perjantaina Jyväskylässä, Laukaassa ja Muuramessa. Koulumatkoja ei perjantaina ajeta, pois lukien taksikuljetusoppilaiden koulukuljetukset.Itä-Suomessa lakko koskee perjantaina Koiviston auto Kuopion, Pohjolan matkan, Savonlinjan, Savo-Karjalan linjan ja Soisalon liikenteen vuoroja. Osa näiden vuoroista jää ajamatta.Lappeenrannan ja Imatran paikallisliikenne ei todennäköisesti liikennöi perjantaina lainkaan. Sama koskee seutu- ja lähiliikennelinjoja. Lappeenrannan kaupunki ei voi taata lakisääteisten koulukuljetusten toteutumista.Satakunnassa osa paikallisliikenteestä ei liikennöi perjantaina ainakaan Raumalla ja Porissa. Lakon piirissä ovat Rauman Gyyt, Porin linjat ja Satakunnan liikenne.Rovaniemellä vaikutuksia on bussiliikenteeseen ja osa koulukuljetuksista jää perjantaina ajamatta.Lakko vaikuttaa myös Onnibussin liikennöintiin perjantaina. Ajettavat vuorot on syytä tarkistaa Onnibussin verkkosivuilta ennen matkan ostoa.Koko Suomen matkustajajunaliikenne seisahtuu perjantaina Pohjois-Suomen yöjunia lukuun ottamatta. Junaliikenteen lakko koskee työvuoroja, jotka alkavat 2.2. kello 00.01 ja 23.59 välillä.Radan kunnossapito- ja ratatyökalustoa liikkuu rataverkolla normaalisti.Kaikki ratapihatoiminnot keskeytyvät Haminan ja Kotkan ratapihoilla torstain ajaksi.AvaaLentoliikenneSuomen kaupallinen matkustaja- ja rahtilentoliikenne pysähtyy lähes kaikilla Suomen isoilla lentokentillä torstaina.Lentokenttiä hallinnoivan Finavian mukaan kapasiteettirajoituksia kaupalliselle matkustaja- ja rahtilentoliikenteelle aikavälille 1.–2. helmikuuta on tiedossa Helsinki-Vantaan, Ivalon, Jyväskylän, Kittilän, Kuopion, Kuusamon, Oulun, Rovaniemen, Tampere-Pirkkalan, Turun ja Vaasan lentokentille.Kaupallinen matkustaja- ja rahtilentoliikenne pysähtyy kokonaan aikavälillä 1.2. kello 0.00–2.2. kello 24.00 Joensuun, Kajaanin, Kemi-Tornion, Kokkola-Pietarsaaren, Porin ja Savonlinnan lentokentillä.Puolustusvoimien käytössä olevat Utin ja Hallin sotilaslentokentät sekä Maarianhaminan lentoasema eivät ole lakon piirissä. Myös jotkut Finavian ulkopuoliset kentät voivat olla käytössä.Lentoyhtiö Finnair joutuu perumaan noin 550 lentoa. Yhtiö on valmis siirtämään asiakkaidensa lennot lakkopäiviltä toiseen ajankohtaan lipputyypistä huolimatta. Muille tehdään lentojen uudelleenreititys.Finnair lentää torstain aikana noin kymmenen lentoa. Näistä on tiedotettu asiakkaille.Lentoasemien muista palveluista, kuten kaupoista ja ravintoloista, osa pyritään pitämään auki.Lakon vuoksi lentoasemilla voi olla ruuhkaa lakkoa ennen ja sen jälkeen.Lakoissa ovat mukana ainakin Finavian tai Airpron palveluksessa työskentelevät JHL:n jäsenet, PAMin lentoasemien kiinteistöhuollosta, siivouksesta ja vartioinnista vastaavat työntekijät sekä Finnairin lentäjiä edustava Liikennelentäjäliitto.Monet ulkomaalaiset ovat jo peruneet Lapin-matkansa lakkojen vuoksi.AvaaRuokakaupat, ravintolat ja muut palvelutKaupan ala järjestää vuorokauden mittaisen lakon torstaina 1. helmikuuta. Mukana ovat suurimmat ketjut, eli S- ja K-ryhmät ja Lidl sekä Tokmanni.Lakko voi näkyä ruokakauppojen valikoimassa sekä kauppojen aukioloajoissa. Useat ympärivuorokautiset kaupat sulkeutuvat yöksi. Monet keskikokoiset kaupat sulkeutuvat etuajassa. Osa maan isoista Prismoista on torstaina suljettuna.Alko on auki normaalisti. Verkkotilauksissa voi ilmetä viiveitä.Myös osuuskauppojen pankki- ja parturi-kampaamoiden palvelut saattavat olla kiinni.Myös hotellien, ravintoloiden, liikenneasemien sekä kiinteistö- ja siivouspalvelualan yritysten työntekijöitä on lakossa ympäri Suomea.Hotellit ja ravintolat pyritään pitämään auki esimiesvoimin tai liittoon kuulumattomien työntekijöiden avulla.Jätteenlajittelussa voi 1. ja 2. helmikuuta olla viiveitä. Ainakin Rinki-ekopisteissä tähän varaudutaan.Lakko vaikuttaa torstaina myös pankkien ja vakuutusyhtiöiden palveluihin. Useat konttorit ovat kiinni ja puhelinpalvelut ovat ruuhkaisia. Pankkiautomaatit toimivat näillä näkymin normaalisti.Suomen elintarviketyöläisten liitto (SEL) lakkoilee myös: mukana on lähes 4 500 elintarvikealan työntekijää 21 työpaikalla 1.–2. helmikuuta. Lakko pysäyttää muun muassa Saarioisten tehtaiden tuotannon ja logistiikan kahdeksi päiväksi.AvaaPäiväkodit, koulut ja kirjastotPääkaupunkiseudulla suurin osa päiväkodeista, perhepäivähoidoista ja ryhmäperhepäiväkodeista on suljettuna keskiviikkona ja torstaina. Lakko koskee kaikkia yksityisiä ja julkisia yksiköitä Helsingissä, Espoossa, Vantaalla ja Kauniaisissa. Myös puistotoiminta pysähtyy.Lakko koskee työvuoroja, jotka alkoivat tämän keskiviikon 31.1. kello 6 ja huomisen torstain 1.2. kello 21 välisenä aikana. Lakossa ovat mukana lastenhoitajat, osa varhaiskasvatuksen opettajista ja perhepäivähoitajat.Lopullinen henkilöstötilanne ja torstaina avoinna olevat päiväkodit selviävät vasta huomenna aamulla.Lakon aikaan päiväkoteja on auki Helsingissä 59, Vantaalla 20–30, Espoossa noin 40 ja Kauniaisissa kaksi.Katso täältä lista auki olevista päiväkodeista pääkaupunkiseudullaLakko voi torstaina vaikuttaa myös joidenkin nuorisotilojen, kirjastojen ja liikuntapaikkojen aukioloaikoihin. Näin on esimerkiksi Jyväskylässä.Lakoissa ovat mukana sosiaali-, terveys- ja kasvatusalan ammattijärjestö Tehy, lähi- ja perushoitajaliitto SuPer, julkisten ja hyvinvointialojen liitto JHL ja sosiaalialan korkeakoulutettujan ammattijärjestö Talentia.Tehy ja SuPer rajaavat lakon ulkopuolelle vain viranhaltijat. JHL:n mukaan lakko ei koske heidän osaltaan kotona tehtävää perhepäivähoitoa, ryhmäperhepäivähoitoa, ryhmäperhepäiväkoteja ja yksityistä perhepäivähoitoa.Myös Opetusalan ammattiliitto OAJ ja ammattiliitto Jyty ilmoittivat päivän mittaisesta lakosta pääkaupunkiseudun varhaiskasvatuksessa 31. tammikuuta. Jytyn lakko koskee myös perhepäivähoitoa ja puistotoimintaa.Korkeakoulutettujen keskusjärjestö Akava ilmoitti, että se järjestää ulosmarssin pääkaupunkiseudulla, Turussa ja Tampereella 6. helmikuuta kello 14–16. Marssiin osallistuvat lukuisat sote-työntekijät, insinöörit ja lääkärit.Ulosmarssit eivät koske virkasuhteisia työntekijöitä, kuten opettajia ja poliiseja. Näin ollen Akavan suurin jäsenliitto OAJ ei osallistu ulosmarssiin.AvaaPostiPostin työntekijät eivät tee työvuoroja aikavälillä 1. helmikuuta kello 0.00–2. helmikuuta kello 18. Tämä koskee noin 10 000 työntekijää.Lakon aikana kirjeposti, pakettilajittelu ja logistiikka seisoo. Tämä aiheuttaa muutamien päivien viiveitä lähetysten kulkuun. Posti neuvoo seuraamaan pakettien kulkua OmaPostissa.Postin yritysasiakkaat voivat lähettää lähetyksiä Postille normaalisti.Posti- ja logistiikka-alan unioni PAU kertoi, että lakon ulkopuolelle on rajattu terveyteen ja turvallisuuteen liittyvät työt.AvaaKuljetukset, logistiikka ja huoltoAuto- ja kuljetusalan työntekijäliitto AKT:n lakko kestää torstain ja perjantain, tosin linja-autoalan ja matkahuoltoalan osalta vain perjantain.Lakossa ovat mukana liki kaikki toimialat eli kuorma-autoala, linja-autoala, matkahuoltoala, kaupan automiehet, säiliöauto- ja öljytuoteala, matkatoimistoala, terminaalitoiminta, huolinta-ala, huoltokorjaamot, AKT:n Viking Linen työntekijät ja ahtausliikkeiden toimihenkilöt sekä ahtausala.Myös toimihenkilöliitto Erto ilmoitti lakosta autoliikenne-, huolinta- ja sosiaalialalle 1.–2. helmikuuta.AvaaRakennustyömaat, sähköt, satamat ja muu teollisuusMoni Suomen isoista teollisuusyrityksistä pysäyttää toimintansa osittain tai kokonaan torstaina ja perjantaina. Myös rakennustyömaat hiljenevät etenkin pääkaupunkiseudulla.Rakennusliiton työntekijöiden osalta hätätyö, LVI-huolto ja tienhoito jatkuvat, mutta muutoin lakon piirissä ovat kaikkien sopimusalojen työt Helsingissä, Espoossa ja Vantaalla.Rakennustyömaiden sähkötyöt sekä matkapuhelin- ja tietoliikenneverkkotyöt pysähtyvät JHL:n ja Sähköliiton työtaistelun vuoksi. Mukana on lukuisia yhtiöitä, jotka vastaavat sähköverkkojen rakentamisesta ja kunnossapidosta. Sähkön ja lämmön tuotanto ja jakelu sekä raideliikenteessä tehtävät työt ovat lakon ulkopuolella.Ammattiliitto Pron lakko laajenee koskemaan Digitaa, ICT-alaa, rahoitusalaa, vakuutusalaa sekä tiettyjä kiinteistöalan työpaikkoja. Näissä työnseisaus on 1. helmikuuta.Suomen suurin yleissatama, Haminan-Kotkan satama, on pysähdyksissä torstain ja perjantain. Tämä aiheuttaa todennäköisesti useiden vuorokausien purkutarpeen suman.Useat Stora Enson, UPM:n ja Huhtamäen tehtaat pysähtyvät tai vähentävät toimintaansa paperiliiton lakon ajaksi. Lakot alkavat torstain 1. helmikuuta aamuvuoroista ja päättyvät 3. helmikuuta aamuvuoroihin. Vaikutuksia on ainakin Imatralla, Oulussa, Varkaudessa, Kymissä, Pietarsaaressa ja Raumalla.Myös ruudin valmistus voi pysähtyä. Lakon piirissä on 1. ja 2. helmikuuta myös neljä ammusvalmistaja Nammon tehdasta.Kemianteollisuudessa lakko vaikuttaa ainakin Porvoon Kilpilahden ja Kokkolan teollisuusalueisiin.Lakko vaikuttaa useisiin kaivoksiin ja jalostamoihin esimerkiksi Kittilässä, Sodankylässä, Naantalissa, Kemissä, Torniossa, Raahessa, Sotkamossa ja Siilinjärvellä. Ainakin Nesteen Porvoon jalostamo jatkaa toimintaansa työtaistelusta huolimatta, vaikka on lakon piirissä.AvaaTyötaistelujen ulkopuolelle kaikilla ammattialoilla jäävät ne tehtävät, joiden tekemättä jättäminen aiheuttaisi vaaraa ihmisten hengelle, terveydelle tai omaisuudelle.Katso alla olevasta videosta kootusti, miten lakko vaikuttaa arkeesi.Toimittaja Minna Matintupa selventää, mitä vaikutuksia tulevilla lakoilla on sinun arkeesi. Kuvaus ja editointi: Isto Janhunen / Yle</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>21</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Brittilehti: YK:n rahaston työntekijät ovat ottaneet lahjuksia Irakissa – Suomi on yksi rahaston maksajista</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20072127</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>YK:n työntekijöitä Irakissa epäillään lahjuksien ottamisesta. Asiasta kertoo brittilehti The Guardian oman selvityksensä perusteella.Epäselvyydet koskevat YK:n kehitysrahaston UNDP:n Irakin vakauttamisrahastoa, johon Suomikin osallistuu. Vakauttamisrahastoon on maksettu yhteensä noin 1,4 miljardia euroa vuodesta 2015 lähtien. Suomen osuus tästä on 12,5 miljoonaa euroa.Irakin vakauttamisrahasto perustettiin tukemaan terroristijärjestö Isisiltä vapautettujen alueiden jälleenrakennusta ja vakauttamista. Tavoitteena oli mahdollistaa paikallisväestön paluu koteihinsa.”Tässä maassa ei saa mitään, ellei maksa”The Guardianin mukaan UNDP:n Irakin-henkilöstö on vaatinut urakoitsijoilta lahjuksia vastineeksi avusta tarjouskilpailussa. Lahjusten suuruus on ollut jopa 15 prosenttia urakan arvosta.Lahjotut työntekijät ovat auttaneet urakoitsijoita luovimaan YK:n monimutkaisessa tarjousjärjestelmässä, jotta nämä voittaisivat tavoittelemansa urakan.– Kukaan ei voi saada sopimusta maksamatta. Tässä maassa ei saa mitään ellei maksa, ei hallitukselta eikä UNDP:ltä, nimettömänä esiintyvä urakoitsija sanoo The Guardianille.The Guardian on haastatellut noin 30:tä nykyistä ja entistä UNDP:n Irakin-työntekijää, irakilaista urakoitsijaa sekä länsimaista että irakilaista virkamiestä. Heidän mukaansa YK on osa paikallista lahjuskulttuuria.Lehti ei esitä jutussaan arviota siitä, kuinka suuri osuus rahastolle maksetuista avustuksista olisi voinut kulua lahjuksiin. Jutussa ei ole arvioita myöskään siitä, kuinka suuressa osassa vakauttamisrahaston hankkeista epäselvyyksiä olisi ilmennyt.YK:n kehitysrahasto kertoo toteuttaneensa Irakin vakauttamisrahastosta kaikkiaan 3 600 projektia. Rahaston tuella on jälleenrakennettu kouluja, sairaaloita, vesi- ja sähköverkkoja, asuintaloja ja teitä.Alla olevalla videolla kerrotaan Mosulin vedenpuhdistamon korjaamisesta vuonna 2017. Korjaukset maksettiin Irakin vakauttamisrahastosta.Mosulin vedenpuhdistuslaitos korjattiin YK:n kehitysohjelman rahoilla vuonna 2017.Suomi ollut lopettamassa rahoitustaSuomi on osallistunut Irakin vakauttamisrahastoon vuodesta 2016. Viimeisin maksatus rahastoon tehtiin vuonna 2021. Suomi on ollut lopettamassa Irakin vakauttamisrahaston rahoitusta jo ennen tietoa lahjusepäilyistä.Ulkoministeriön Lähi-idän yksikön päällikön Riikka Eelan mukaan uusia maksatuksia ei ole ollut, eikä ole suunnitteilla. UNDP on The Guardianin paljastuksen jälkeen ottanut yhteyttä rahoittajayhteisöön, myös Suomeen.– Kaikki väärinkäyttösyytökset ovat hirveän valitettavia, Eela toteaa Ylelle puhelimitse.Hän on kuitenkin tyytyväinen siihen, että UNDP on ollut aktiivisesti yhteydessä rahoittajiin ja kertonut selvittävänsä epäilyt. Selvitys on vasta alussa, joten Suomen rahoituksen päätymisestä mahdollisesti vääriin käsiin ei ole tietoa.Eela toteaa, että Suomi on maksanut rahastoon könttäsumman, eikä ole korvamerkinnyt Irakin vakauttamisrahaston kautta antamaansa tukea millekään tietylle hankkeelle.– Rahaston hankkeita on valtavan paljon, ja ne ovat aika pieniä, Eela huomauttaa.– The Guardianin jutun väitteet pitää selvittää yksi kerrallaan, ja ne olivat rakenteellisia asioita. Ne tuskin selviävät kovin nopeasti.Eela huomauttaa, että kansainvälinen yhteisö toimii Irakissa juuri sen vuoksi, että valtio on hauras. Valtion toiminnot romahtivat suuressa osassa maata islamistisen terroristijärjestö Isisin hyökkäyksen ja valtakauden aikana 2014–2017.Eela korostaa, että Suomelle on turvallisempaa toimia tällaisessa ympäristössä isojen kansainvälisten järjestöjen, kuten YK:n kautta. YK:lla on kyky hallita riskejä ja arvioida niitä.– Heillä on hyvä rutiini tutkia niitä. He osaavat sen kyllä.Irakin vakauttamisrahastoon on kohdistunut vuosina 2015–2023 kaikkiaan 130 epäilyä korruptiosta tai muista epäselvyyksistä. Noin 50:ssä tapauksessa ilmoitukset on todettu aiheellisiksi.UNDP: Väitteet tutkitaanYK:n kehitysohjelma UNDP on julkisessa lausunnossaan sanonut ottavansa väitteet vakavasti ja tutkivansa ne kiireellisesti.UNDP:n mukaan kaikki väitteet lahjuksista, korruptiosta tai petoksista arvioidaan ja UNDP:n riippumaton tarkastus- ja tutkintavirasto tutkii ne tarvittaessa. Se vakuuttaa nollatoleranssia korruptioon.UNDP sanoo, että Irakin vakauttamisrahaston toimintaa on valvottu tavanomaista tarkemmin, koska se on monimutkainen ja kattava.UNDP on raportoinut parantaneensa Irakin vakauttamisrahaston kautta lähes yhdeksän miljoonan irakilaisen elämää.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>22</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Selvitimme: nämä neljä asiaa ratkaisevat, kuinka paljon kaupungit sakottavat</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20071340</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Parkkisakkoja lätkäistiin autoihin viime vuonna ylivoimaisesti eniten Tampereella ja Helsingissä.Vaikka laki on kaikille sama, sakkomäärät kaupunkien välillä eroavat toisistaan suuresti.Tässä jutussa avaamme, mitkä neljä seikkaa selittävät valtavia eroja kymmenen suurimman kaupungin välillä.
+Tilastossa oleva suhdeluku kertoo, kuinka monta parkkisakkoa kaupungissa on kirjattu rekisterissä oleviin ja liikennekäyttöisiin henkilöautoihin verrattuna.1. Tiheän kaupunkialueen suuruusKovin sakottaja oli Helsingin kaupunki. Se kirjasi kymmenestä suurimmasta kaupungista eniten pysäköintisakkoja niin kappalemäärässä, tuloeuroina kuin henkilöautojen määrään suhteutettuna.Viime vuonna Helsingin kaupunki määräsi yli 24 000 pysäköintivirhemaksua enemmän kuin vuonna 2022, yhteensä siis 159 414 kappaletta.Helsingin pysäköintivirhemaksuista saamat tulot olivat viime vuonna hiukan alle 11 miljoonaa euroa.Helsingin kunnallinen pysäköinninvalvoja Kaija Kossila sanoo, että harppaus ylöspäin selittyy liikenteen reippaalla vilkastumisella koronavuosien jäljiltä.Ero parkkisakkojen määrässä on suuri pääkaupungin naapuripitäjiin verrattuna. Se selittyy erityisesti erilaisella kaupunkirakenteella.Suuriin eroihin kaupunkien välillä vaikuttaa pääosin se, kuinka paljon paikkakunnalla on tiheästi rakennettua kaupunkialuetta sekä se, kuinka paljon liikennettä ja pysäköintiä tällaisella alueella on.– Kantakaupunki on tiheästi liikennöity ja parkkitilasta on pulaa, jolloin tehdään helpommin vääriä ratkaisuja ja virheitä voi tulla enemmän, Kossila sanoo.Tiheään rakennetulla ruutukaava-alueella myös valvonta on tehokkaampaa, kun sitä voidaan tehdä jalan.Esimerkiksi Tampereella 17 pysäköinnintarkastajalla on käytössään vain kaksi autoa. Espoossa etäisyydet ovat suuremmat ja auton käyttö korostuu.Avaa kuvien katseluKeväällä 2022 Helsingin kaupungin pysäköinnintarkastajia siirtyi pandemian vaikutuksesta väliaikaisesti muihin tehtäviin. Tämä vähensi valvontaresursseja, Kaija Kossila selittää. Se korostaa eroa edellisten vuosien välillä parkkisakkojen määrässä. Kuva: Antti Kolppo / Yle2. Pysäköinnintarkastajien määräPysäköintivirheitä tulee aina enemmän kuin niistä määrättäviä seuraamuksia. Seuraamusten määrä on taas riippuvainen pysäköinnintarkastajien määrästä.Espoossa pysäköintivirhemaksujen määrä on neljän edellisen vuoden aikana vähentynyt.Espoon pysäköinninvalvonnasta vastaavan juristin Petteri Aumalan mukaan laskusuunta johtuu siitä, että kenttätyötä tekevistä pysäköinnintarkastajista on ollut vajausta, erityisesti viime vuonna.– On ollut aika paljon sairastapauksia ja osa nuoremmista tarkastajista on lähtenyt koulunpenkille ja osa lopettanut muuten.Aumala laskee, että mikäli virkapaikat olisivat täynnä, normaalissa tilanteessa kaupunki kirjaisi vuositasolla noin 50 000 seuraamusta pysäköintivirheestä. Viime vuonna lukema oli 41 000.Avaa kuvien katseluOulussa valvonnasta vastasi viime vuonna 6–7 pysäköinnintarkastajaa, Tampereella vuoden lopussa tarkastajia oli 17. Kuvassa Helsingin kaupungin vastaava pysäköinnintarkastaja Väinö Palva. Kuva: Antti Kolppo / Yle3. Valvonnan ohjaaminenToiseksi kovin sakottaja viime vuonna oli Tampere, jossa sakkomäärä kasvoi edellisvuodesta parilla tuhannella. Tampereelle väärinpysäköinti tuotti 4,26 miljoonaa euroa.Vuonna 2022 ahkerimman sakottajan titteli oli Aamulehden mukaan Tampereella. Tuolloin sakkomäärät selittyivät erityisesti valvonnan tehokkaalla organisoinnilla.Myös kaupungin pormestari Kalervo Kummola kommentoi syksyllä Aamulehdelle pysäköinninvalvonnan tarkkaa linjaa, sillä rapsuilta eivät säästyneet poliisin virka-auto tai Espanjan suurlähettiläskään.Tampereella tarkastajia ohjataan sinne missä tapahtuu, sanoo Tampereen kaupungin vastaavan pysäköinnintarkastajan sijainen Perttu Manka.– Pyrimme ohjaamaan resursseja sellaisille alueille sellaisina kellonaikoina, missä liikennettä on eniten ja sitä myöten myös väärinpysäköintejä ja niistä aiheutuvia ongelmia.Pysäköintivirheiden todennäköisyys kasvaa talvisin kaupunkialueilla, joissa talvikunnossapito rajoittaa pysäköintiä. Tampereen keskustassa isolla osalla kaduista on talvisin käytössä pysäköintikiellot tiettyihin vuorokauden aikoihin.Sellaisille alueille myös valvontaa voidaan ohjata.– Joudumme jonkin verran talvisin kohdistamaan valvontaa talvikunnossapidon kieltoalueille koska näistä tulee meille useita valvontapyyntöjä, sanoo pysäköinnintarkastaja Leevi Löytönen Tampereen kaupungilta.4. Lain tulkintaLain mukaan pysäköintivirheen ollessa vähäinen, siitä voidaan määrätä huomautus parkkisakon sijaan.Espoon Petteri Aumalan mukaan kaupunkien väliset erot lain tulkinnassa näkyvät siinä, kuinka huomautusta seuraamuksena käytetään.Espoossa huomautusten määrä viime vuonna yli kaksinkertaistui.Niitä kirjattiin yhteensä 5 610, kun vuotta aiemmin lukema oli 2 074. Aumala sanoo, että muutos ylöspäin on tarkoituksellinen.– Huomautusten osuutta seuraamuksena on kasvatettu. Meillä on myös opastus- ja neuvontatehtävä. Huomautuksella pystytään ohjaamaan käyttäytymistä, esimerkiksi silloin, jos on tapahtunut jotain liikennejärjestelymuutoksia.Tulevaisuudessa Espoossa pyritään Aumalan mukaan siihen, että noin joka viides toimenpide kentällä olisi huomautus.
+Viime vuonna Tampereella kirjattiin 1 837 huomautusta, siis huomattavasti vähemmän kuin Espoossa. Espooseen verrattuna Tampere määräsi sen sijaan lähes kaksin verroin parkkisakkoja, vaikka autoja kaupungissa on vähemmän.Perttu Manka sanoo, että suurin osa huomautuksista jää Tampereella kirjaamatta tilastoihin.– Suurin osa on suullisia huomautuksia, joista ei jää merkintää tilastoihin. Olettaisin, että näin voisi olla monella muullakin paikkakunnalla.Espoossa myös suulliset huomautukset pyritään kirjaamaan, mikä voi osaltaan selittää suurta eroa kahden paikkakunnan välillä.Oulussa sen sijaan huomautuksia jaettiin lähes yhtä paljon kuin Tampereella. Oulun kaupungin pysäköinninvalvoja Jukka Lampen pohtii eroja kaupunkien välillä ja päätyy edellä listattuihin syihin.– Sekin voi vaikuttaa, jos linja on tiukka. Tämähän on nyt vain arvailua, mutta suureltahan tuo Tampereen määrä vaikuttaa.Tampereen Perttu Manka lisää, että eroavaisuuksia laintulkinnassa voi olla paikkakunnittain myös siinä, millaista virhesyytä seuraamuksen määrittämisessä milloinkin käytetään.– Totta kai on paikallisia tulkintaeroja liikennesäännöistä lähtien, että miten mitäkin pykälää jossakin käytetään. Myös valvonnassa käytettävät virhesyyt voivat poiketa eri paikkakunnilla, mutta pääosin ne ovat kaikille samat.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>25</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Kommentti: Kimi Räikkösen jälkeinen kuiva putki vihdoin katki? Unelma­liitosta jättipotti tylsäksi haukutulle F1-sarjalle</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20072549</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Formula 1 -maailma hätkähti oikein kunnolla perjantaina. ”Lewis Hamilton on siirtymässä Ferrarille”, raportoi muun muassa erittäin luotettu ja perinteikäs moottoriurheilumedia Autosport.Sitä ennen italialainen Corriere della Sera oli aamulla spekuloinut siirrolla ja saanut F1-fanit hämmästelemään. Voiko tämä olla totta? Voiko tähän uskoa, vaikka Autosport erittäin harvoin tekee huteja?Autosportin ja Sky Sportsin perään moni muu alkoi myös uutisoida samaa asiaa. Britannin yleisradioyhtiö BBC kertoi myös Mercedeksen reaktiosta. Kokoon oli kutsuttu koko tiimi palaveriin torstai-iltapäiväksi.Italialaisen Gazzetta dello Sportin mukaan ratkaisu oli niin pikainen, että Mercedes-pomo Toto Wolff johti puhetta ja kertoi Hamiltonin yllätysratkaisusta etäyhteydellä ulkomailta. Sky Sports näytti, kuinka Mercedeksen väki tuli paikalle ja sitten poistui nopeasti tehtaalta palaverin jälkeen. Tilanne alleviivasi koko asian yllätyksellisyyttä.Lewis Hamiltonin siirtymisestä Ferrarille on puhuttu jo monena vuotena aikaisemminkin. Ei ole oikeastaan ollut silly seasonia, F1-kuljettajien siirtoaikaa, jolloin tätä liittoa ei olisi nostettu esiin.Nyt kuitenkin tärähti voimalla ja oikein kunnolla. Tavalla, jota ei koskaan aiemmin Hamiltonin Ferrari-huhuissa nähty. Normaalisti silly season ei ole käynnissä ainakaan helmikuun alussa, vaan kesähelteillä ja alkusyksystä.Šokkisiirto sai sinettinsä torstaina noin kello 21 Suomen aikaa. Ensin Mercedes kertoi, että Hamilton on hyödyntänyt sopimuksessaan ollutta purkupykälää ja siirtyy toisaalle kauden 2024 jälkeen.Ferrari tiedotti perään, että Hamilton siirtyy kaudeksi 2025 Ferrarille monivuotisella sopimuksella.Lue lisää: F1-jättipaukulle vahvistus! Näin Lewis Hamilton selittää lähtöään FerrarilleAvaa kuvien katseluLewis Hamilton jättää Mercedeksen historiallisena menestyneenä F1-kuskina. Kuva: NurPhoto / Getty ImagesKaikkein aikojen menestyneimmän F1-kuljettajan siirtyminen kaikkein perinteikkäämpään formulatalliin on järisyttävä uutinen.Hamiltonin ja Ferrarin sopimus on unelmaliitto, jota F1-sarjan omistaja Liberty Media ei varmasti edes villeimmissä unelmissaan uskonut. Hamiltonin ja Ferrarin toiminta avaa valtavia kaupallisia mahdollisuuksia. Ei vain Hamiltonille ja Ferrarille, mutta myös koko sarjalle.F1-sarja oli jo ehtinyt kitua kiinnostavuusongelman kanssa, kun Red Bullista ja Max Verstappenista tuli jopa historiallisen ylivoimaisia. Suurin osa kilpailuista on ollut viime vuosina todella ennalta-arvattavia.Vaikka F1-sarja on kasvanut kasvamistaan, Red Bullin ja Max Verstappenin ylivoimasta olisi tullut varmasti tulevina vuosina iso uhka kuninkuusluokan kiinnostavuudelle globaalisti.Nyt Hamiltonin sopimus Ferrarin kanssa luo ihan uutta kiinnostavuutta sarjaan.Netflixin F1-dokumenttisarjan Drive to Surviven tekijät varmasti hierovat käsiään. Miten Hamilton ajaa tällä kaudella kaikki 24 kilpailua Mercedeksellä, kun hän siirtyy kuitenkin seuraavaksi vuodeksi kilpailijan riveihin? Mitä tapahtuu kulisseissa? Puheenaiheita varmasti riittää.Kimi Räikkösen haamu poistuu?Ferrarin takamatka Red Bulliin on toki vielä melkoinen, mutta nyt on monen mielestä käsillä kaikkien aikojen kovimman kuljettajan viimeinen tanssi. Hamiltonin himoa ei pidä aliarvioida. Brittimestarin kohdalla 40 vuotta ei ole ikä, joka estäisi voittamista.Asetelmat ovat mielenkiintoiset. Vuonna 2025 valmistaudutaan sääntömuutoksiin ja uusiin autoihin. Vuonna 2026 historiallinen kahdeksas kuljettajien mestaruus. Viimeinen niitti ohi Michael Schumacherin kaikkien aikojen ykkösenä. Tällainen elokuvamainen tarina on varmasti monen mielessä.Toisella puolella kolikkoa on sitten Sebastian Vettelin tarina. Saksalainen saapui Ferrarille neljän mestaruuden ja yhden heikomman kauden jälkeen Red Bullilta 2010-luvun puolivälissä. Ferrari ei kuitenkaan siivittänyt Vetteliä enää mestariksi, kun Hamilton ja Mercedes olivat vahvempia.Maranellossa odotukset ovat myös varmasti korkealla. On suorastaan käsittämätön ja monelle Ferrari-fanille, tifosolle, kiusallinen fakta, että Kimi Räikkönen on yhä Ferrarin viimeisen kuljettajien maailmanmestari vuodelta 2007. Sen jälkeen tuli vielä yksi tiimien mestaruus, mutta muuten mahtitallissa on vietetty todella kuivaa putkea.Avaa kuvien katseluJoko joku muukin Ferrari-kuski pääsee vihdoin Kimi Räikkösen jalanjäljissä juhlimaan F1-mestaruutta? Kuva: Getty ImagesNyt jos koskaan Ferrarin kuljettajan pitäisi nousta kuljettajien maailmanmestariksi. Pitkään aikaan ei ole nähty formula ykkösissä kovempaa kuljettajakaksikkoa kuin Lewis Hamilton ja Charles Leclerc. Jälkimmäinen ei varmasti tule myöskään helpolla luovuttamaan valtikkaansa Hamiltonille.Ferrarin oma poika, akatemiasta kasvatettu Leclerc himoinnee varmasti Hamiltonin päänahkaa ja sitä, että hän toisi pitkään odotetun mestaruuden Maranelloon. Ferrarin toimintaan olennaisesti kuuluvaa sisäpolitiikkaa nähdään varmasti.Italialaismedia pääsee takomaan herkullisia otsikoita. Kehutun ranskalaispomon ja Lewis Hamiltonin siirron takapiruna pidetyn Frederic Vasseurin taidot päästään mittaamaan kunnolla.Kaiken kaikkiaan Lewis Hamiltonin šokkipäätös tuo autourheilun kuninkuusluokkaan sähinää, jota se on kaikkien tylsien kisojen jälkeen tarvinnut.Tätä F1-herkkua tuskin malttaa odottaa. Melkoinen täyskäännös viime vuosien tunnelmiin.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>26</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>F1-jättipaukulle vahvistus! Näin Lewis Hamilton selittää lähtöään Ferrarille</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20072598</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Mercedeksen F1-talli vahvisti tiedotteessaan, että seitsemänkertainen mestari Lewis Hamilton siirtyy muualle tallista tämän kauden jälkeen. Tiedotteen mukaan Hamilton on hyödyntänyt sopimuksessaan ollutta purkupykälää. Vielä viime elokuussa Hamilton oli tehnyt Mercedeksen kanssa sopimuksen tästä ja ensi kaudesta.Ferrari tiedotti perään, että Hamilton siirtyy kaudeksi 2025 Ferrarille monivuotisella sopimuksella.– Minulla on ollut 11 uskomatonta vuotta tiimissä. Olen ylpeä siitä, mitä saavutimme yhdessä. Mercedes on ollut osa elämääni 13-vuotiaasta asti. Olen kasvanut Mercedeksen mukana. Tämä oli yksi vaikeimmista päätöksistäni elämässäni. Nyt on kuitenkin oikea aika ottaa tämä askel. Olen innoissani uudesta haasteesta, Hamilton sanoi tiedotteessa ja kiitteli tallipäällikkö Toto Wolffia.Hamilton vakuuttaa antavansa vielä alkavalla kaudella kaikkensa Mercedeksellä.– Suhteemme Lewisin kanssa on ollut historian menestyksekkäin, kun katsotaan tiimiä ja kuljettajaa. Lewis tulee olemaan tärkeä osa Mercedeksen moottoriurheiluhistoriaa. Tiesimme, että yhteistyömme tulee luonnolliseen loppuun jossain vaiheessa. Nyt se päivä on tullut. Hyväksymme Lewisin päätöksen hakea uusia haasteita, Wolff sanoi.Avaa kuvien katseluTästä se kaikki lähti. Lewis Hamilton ja Toto Wolff juhlivat ensimmäistä F1-mestaruuttaan vuonna 2014. Kuva: Getty ImagesHamilton siirtyi Mercedekselle vuodeksi 2013 McLarenilta. Hän voitti Mercedeksellä kuusi kuljettajien mestaruutta. Vuonna 2016 tuli tappio Nico Rosbergille, mutta muuten britti dominoi Mercedeksen kanssa F1-sarjaa.Jo McLarenilla Hamilton ajoi Mercedeksen moottoreilla F1-uransa alusta asti eli nyt Hamiltonilla katkeaa pitkä 17 vuoden ajanjakso saksalaisen autonvalmistajan kanssa. Jo sitä ennenkin Hamilton teki yhteistyötä Mercedeksen kanssa.Viime vuodet ovat olleet hankalia Hamiltonille ja Mercedekselle. Viimeksi britti on voittanut F1-kilpailun joulukuussa 2021. Kaikkien aikojen eniten F1-kilpailuja voittanut kuljettaja ei ole siis kahdella edellisellä kaudella noussut kertaakaan korkeimmalle korokkeelle.39-vuotias Hamilton on napannut myös kaikkien aikojen eniten paalupaikkoja. Michael Schumacher on ainoa, joka on Lewis Hamiltonin tavoin yltänyt seitsemään mestaruuteen.Siirto tarkoittaa sitä, että Carlos Sainz ei jatka enää alkavan kauden jälkeen Ferrarilla. Lewis Hamiltonin tallitoveriksi jää Charles Leclerc kaudelle 2025.– Meillä on pitkä kausi edessämme. Kuten aina, tulen tekemään parhaani tiimilleni ja tifosoille (Ferrari-faneille) ympäri maailmaa, Sainz kirjoitti X-tilillään.Sainz kertoo, että hänen oma F1-tulevaisuutensa ratkeaa aikanaan.F1-kausi alkaa kolmen viikon päästä testeillä Bahrainissa. Kauden ensimmäinen kilpailu on luvassa Bahrainissa 2. maaliskuuta.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>27</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ukrainan hätä­apu­paketti Yhdysvaltain senaattiin ensi viikolla – eteneminen epävarmaa republi­kaanien vastustuksen takia</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20072602</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Yhdysvaltain senaatti äänestää ensi viikolla paketista, joka tulee edistämään rajaturvallisuutta sekä lisäämään tukea Israeliin ja Ukrainaan, kertoi torstaina senaatin demokraattien johtaja Chuck Schumer.– Emme voi vain vältellä vastuutamme, jos tehtävä on hankala, Schumer sanoi senaatille. Hän lisäsi, että paketista äänestetään alustavasti viimeistään keskiviikkona.Yhdysvaltain presidentti Joe Biden pyysi kongressia viime lokakuussa hyväksymään 106 miljardin dollarin eli lähes 98 miljardin euron hätäapupakettia, josta Ukrainalle on esitetty 61 miljardia dollaria ja Israelille 14 miljardia dollaria.Republikaanit nihkeitä paketilleSenaatti on neuvotellut tukipaketista jo kuukausien ajan. Republikaanit ovat yrittäneet saada pakettiin mukaan ratkaisua siirtolaistilanteeseen maan etelärajalla, jossa laittomasti rajan ylittäneiden siirtolaisten määrä on noussut ennätyksellisesti Bidenin presidenttikauden aikana.Yhdysvaltain entinen presidentti Donald Trump on vaatinut paketin hylkäämistä. Trump nauttii suurta suosiota edustajainhuoneen ja senaatin republikaanien keskuudessa, minkä uskotaan estävän tukipaketin etenemistä.Myös edustajainhuoneen puhemies Mike Johnson on esittänyt epäilynsä paketin suhteen viimeksi tällä viikolla.– Kuulemani mukaan tähän niin sanottuun sopimukseen ei sisälly mullistavia muutoksia linjauksiin, joita tarvitaan katastrofin pysäyttämiseksi rajalla, Johnson sanoi.Sen sijaan pakettia neuvotellut Arizonan sitoutumaton senaattori Kyrsten Sinema sanoi, että sopimusehdotus lopettaa rajan laittomasti ylittäneiden siirtolaisten vapauttamisen, mahdollistaa hätäviranomaisia sulkemaan rajan sekä uudistaa maan turvapaikanhakujärjestelmää.– Muutamme linjauksia dramaattisesti.Lähteet: AFP, Reuters</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>28</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Analyysi: Ministerin torilla saama vastaanotto paljasti, ettei helppoja aikoja ole edessä</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20072566</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Työministeri Arto Satonen (kok.) nousi buuausten saattelemana torstaina Senaatintorin lavalle toistamaan tuttua viestiä. Hallituksen ajamat muutokset ovat välttämättömiä kansantalouden tasapainottamiseksi, kilpailukyvyn parantamiseksi ja työllisyyden lisäämiseksi.Satosen puhe ei varsinaisesti uponnut mielenosoittajiin kuin veitsi sulaan voihin.Ay-liikkeen nyt nähtävät ponnistukset ovat jatkoa jo viime syksyllä alkaneille toimille.Kaava vaikuttaa selkeältä.Siinä missä joulukuiset lakot olivat vuorokauden mittaisia, tämänhetkiset toimet kestävät enintään kaksi päivää.Laajuus on myös paisunut. Nyt kolmen päivän ajalle ulottuvien, erimittaisten lakkojen piirissä on ammattiliittojen mukaan jopa 300 000 työntekijää.Ylen tietojen mukaan SAK:n työvaliokunta kokoontuu huomenna perjantaina ja luvassa on lisää työtaisteluilmoituksia.Jatkoa voi siis seurata jo ennen kuin viimeisetkin keiton jämät on kaavittu soppatykkien pohjilta.Seuraavat toimet tuskin poikkeavat linjasta. Vaikka työntekijäleiri toistelee toivovansa hallitukselta vastaantuloa, siitä ei ainakaan vielä näy merkkejä. Toki siitä ei myöskään ole varmuutta, millainen vastaantulo olisi riittävä.Suurin työntekijäkenttää hiertävä kysymys on varmasti kokemus siitä, että neuvottelut työelämämuutoksista eivät ole aitoja. Työntekijäleiri katsoo elinkeinoelämän kädenjäljen näkyvän niin voimakkaasti hallitusohjelmassa, että työnantajaleirillä ei ole motivaatiota tulla piiruakaan vastaan.Työministeri Satonen heitti jälleen Senaatintorilla palloa palkansaajapuolelle.Hän toivoi, että työntekijäkeskusjärjestö SAK palaa takaisin neuvottelemaan vientivetoisesta palkkamallista. SAK keskeytti neuvottelut joulukuussa, kun asialistaa ei suostuttu laajentamaan koskemaan muita hallituksen ajamia työelämämuutoksia.Perinteisesti merkittävistä työelämämuutoksista on neuvoteltu työmarkkinaosapuolten kanssa. Nyt työ kolmikannoissa on takunnut, ja esimerkiksi poliittisten lakkojen rajaamista pohtineen työryhmän työ päättyi erimielisenä.Osa hallituksen ajamista muutoksista on ay-liikkeelle hyvin periaatteellisia.Esimerkiksi paikallisen sopimisen laajentamisen järjestäytymättömiin yrityksiin pelätään romuttavan koko työehtosopimusten yleissitovuuden.Onko tilanteesta ulospääsyä?Vaikka työnantajat eivät ole nyt nähtävän kiistan suora osapuoli, lakoilla pyritään vaikuttamaan myös työnantajalinnakkeen, Eteläranta 10:n, joukkoihin. Hallitus kuuntelee työnantajaleiriä hyvin herkällä korvalla, palkansaajajärjestöissä nähdään.Työnantajaleirissä katsotaan, että hallitusohjelmakirjauksilla saavutetaan isommat hyödyt kuin mitä haittoja työtaisteluista aiheutuu.Elinkeinoelämän keskusliitto arvioi, että nyt käynnissä olevien lakkotoimien tekemä lovi bruttokansantuotteeseen on 360 miljoonaa euroa. Kipurajan sijaintia voi vain arvailla.Työnantajaleirissä luotetaan eduskunnan kokoonpanon pysyvän vastaisuudessakin heille niin suotuisana, että kerran läpi saatuja poliittisia päätöksiä tuskin tullaan lähitulevaisuudessa purkamaan.Senaatintorille kokoontuneet työntekijät olivat täynnä taistelutahtoa. Ilmassa oli tyytymättömyyttä, vihaakin. Osalle taas tapahtuma saattoi olla toivottu lisävapaapäivä, jolloin saa viettää vapaa-aikaa kollegoiden kanssa.Osassa ammattiliitoista poliittisiin työtaisteluihin osallistuminen jakaa jäsenistöä. Jäsenistöstä iso osa voi olla hallituspuolueiden kannattajia, ja se näkyy muun muassa monessa korkeakoulutettujen keskusjärjestö Akavan jäsenliitossa.Akavalaiset liitot laajemmin eivät olekaan yhtyneet työntekijäkeskusjärjestö SAK:n johtamaan ja STTK:n peesaamaan lakkorintamaan. Ensi viikolla Akavakin kuitenkin järjestää kahden tunnin mielenilmauksen vastalauseena hallituksen toimille. Aika näyttää, meneekö viesti akavalaisten kautta paremmin perille.Kannatus pysynytHallituspuolueiden kannatus on pitänyt pintansa kovista toimista huolimatta.Jos jonkun hallituspuolueen kannatus kääntyisi kovaan laskuun hallituksen työpolitiikan vuoksi, se voisi lisätä soraääniä hallituksen sisällä ja edesauttaa vastaantuloa työntekijäleirin suuntaan.Katse on kohdistunut etenkin perussuomalaisiin. Pettymistä puolueeseen oli ilmassa ainakin Senaatintorilla, kun lakkoilijoita epäisänmaallisuudesta syyttänyt perussuomalaisten kansanedustaja Miko Bergbom piti puheen mielenosoitusväelle.Omaa tarinaansa kertoi yhden mielenosoittajan kantama kyltti, joka julisti tutunkuuloista fraasia mukaillen: ”Perussuomalaiset pettävät aina”.Edessä häämöttää myös huhtikuinen kehysriihi, josta valtiovarainministeri Riikka Purra (ps.) on ennakoinut jopa kahden miljardin lisäleikkauksia.Palkansaajajärjestöt vakuuttavat keinovalikoimaa vielä riittävän. Vaikka Teollisuusliiton ja AKT:n kaltaisia voimaliittoja seurataan tarkasti, esimerkiksi naisvaltaisten matalapalkka-alojen pidemmillä lakoilla voisi olla merkittäviä vaikutuksia ihmisten arkeen.Ammattiyhdistyksiin kuuluu yhä pienempi osa työvoimasta. Tämä voi vaikuttaa ay-liikkeen iskuvoimaan.Nyt nähtävä ponnistus ei kuitenkaan ole viimeinen laatuaan.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>29</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Venäjä-pakotteiden rikkomisesta syytetty huolin­tay­rittäjä sanoo toimineensa määräysten mukaisesti</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20072603</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Venäjä-pakotteiden rikkomisesta syytetty Gabriel Temin kiisti keskiviikkona syyllistyneensä mihinkään rikolliseen. Teminiä itseään kuultiin oikeudenkäynnissä Itä-Uudenmaan käräjäoikeudessa.Teminiä syytetään törkeästä säännöstelyrikoksesta ja puolustustarvikkeiden maastavientirikoksesta. Syyttäjän mukaan hän vei tai yritti viedä Luminor- ja Siberica-nimisten yhtiöidensä kautta Venäjälle pakotteiden alaisia tuotteita tai Venäjän läpi tuotteita, joiden kauttakulku on ollut kielletty.Syytteet koskevat muun muassa lämpökameroita sekä lähes kolmea tuhatta dronea. Osan tuotteista Tulli pysäytti, mutta osa päätyi syyttäjien mukaan Venäjälle.Yritystiedoissa Luminorin toimialaksi on ilmoitettu huolinta ja rahtaus ja Siberican toimialaksi varastointi. Temin sanoi, että yhtiöt olivat toimineet vain välivarastona asiakkaiden tilaamien tavaroiden lähettäjän ja niiden määränpään välillä.Palveluun sisältyi tullikuljetuksissa tarvittava tavaroiden vientiselvitys tai passitus, jos asiakas ei itse halunnut hoitaa sitä. Teminin mukaan tavarat ilmoitettiin Tullille niillä nimikkeillä, joilla ne olivat varastoon saapuneet, eikä mitään yritetty peitellä.”Yhtiö riippuvainen muiden antamista tiedoista”Teminin mukaan vientiselvityksen avaaminen oli ainoa keino saada Tulli paikalle tarkistamaan tavaroita, koska huolintafirmalla ei ole siihen oikeutta. Hänen mukaansa yhtiöt tekivät hyvää yhteistyötä Tullin kanssa.– Tulliviranomaiset kävivät meillä kahvilla! (Tullin ) lausunto (pakotteiden alaisuudesta) ei ollut rangaistus, vaan hyvä asia, joka otettiin aina ilomielin vastaan. Ja sitten ilmoitimme asiakkaalle asiasta.Teminin puolustus on korostanut, että huolintayhtiö on riippuvainen tavaroiden mukana tulevista tiedoista, joita se ei itse voi edes mennä muuttamaan. Tavaroiden mukana tulevia tavarankuvauksia Temin kertoi selvittäneensä tarkemmin googlaamalla.Pakotteiden lisäksi Teminin syytetään vieneen ja yrittäneen viedä kaksikäyttötuotteita Venäjälle. Kaksikäyttötuotteet ovat tarvikkeita, jotka soveltuvat siviilikäytön lisäksi sotilaallisiin tarkoituksiin. Niiden viemiseen tarvitaan erikseen lupa.Temin vangittiin viime syyskuussa sen jälkeen, kun Yhdysvallat oli lisännyt Siberican ja Luminorin pakotelistalleen. Keskiviikkona syyttäjä katsoi, että Teminin kuulemisen jälkeen karttamisvaaraa ei enää ollut, joten käräjäoikeus määräsi hänet vapautettavaksi päivän päätteeksi.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>30</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Yhdysvallat keksi luovan keinon jatkaa Ukrainan sotilasapua – alkaa kierrättää kalustoa Kreikan välityksellä</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20072570</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Kreikan hallitus on alkanut pikaisesti valmistella kahdenvälistä, sotilaallista tukipakettia Ukrainalle. Kreikka panee kasaan paketin, johon kuuluu muun muassa aseistusta ja tarvikkeita.Itsestään Kreikka ei apupakettia keksinyt vaan pyyntö tuli suoraan Yhdysvalloilta, joka ei viime vuoden lopun jälkeen ole pystynyt sopimaan Ukrainan tuen jatkosta.Yllättävintä Kreikan apupaketissa on se, että myös Ukrainalle luovuttava kalusto tulee Yhdysvalloilta. Asiasta ovet kertoneet kreikkalaiset tiedotusvälineet.– Kun rahat ovat nyt loppu, tehdään luovia ratkaisuja, sanoo Ruotsin maanpuolustuskorkeakoulun sotatieteiden dosentti Ilmari Käihkö.Homma toimii näin.Yhdysvallat lahjoittaa Kreikalle muun muassa partiointiveneitä, kuljetuskoneita ja panssariajoneuvoja, joita se ei itse tarvitse.Avaa kuvien katseluYhdysvallat kierrättää Ukrainaan Kreikan kautta muun muassa kaksi ilmavoimien Hercules C-130H-kuljetuskonetta. Kuva: Alireza Boeini/AOPPresidentillä on oikeus määrätä lahjoitukselle hinta, nolla dollaria, kunhan Kreikka huolehtii kaluston siirtämisestä. Lupaa kongressilta ei tarvitse kysyä.Yhdysvallat on liittänyt lahjoitukset ja niiden toimitukset Ukrainaan osaksi samaa sopimusta, jolla se myy Kreikalle 40 F-35-hävittäjää.– Kyllä Yhdysvaltain hallinnossa ja tiedustelupalveluissa ymmärretään, että jos Ukrainaa ei tueta nyt ja Venäjä pääsee tavoitteeseensa, siitä tulee valtavia seurauksia kansainväliselle turvallisuudelle, Käihkö sanoo.Kilpajuoksu aikaa vastaanYhdysvaltain keskustiedustelupalvelun CIA:n johtaja William Burns kirjoitti tällä viikolla Foreign Affairs -lehdessä, että tuen vetäminen Ukrainalta olisi Yhdysvalloilta ”kaikkien aikojen oma maali”.Republikaanienemmistöinen edustajainhuone on estänyt rahoituspäätöksen teon kongressissa viime vuoden lopulta lähtien.Käihkö sanoo, että Yhdysvaltain tuen jumiutuminen jo tässä vaiheessa on tullut yllätyksenä.– Uskottiin, että Ukraina-tuki jatkuisi ainakin tämän vuoden loppuun asti, Käihkö sanoo viitaten Yhdysvaltain presidentinvaaleihin marraskuussa.Yhdysvaltain sisäpoliittinen vääntö on osoittanut, että Ukrainan tukijoilla onkin yhtäkkiä vuosi vähemmän aikaan saada korvaavaa tukea kuntoon.Kilpajuoksu aikaa vastaan on käynnissä.– Euroopan pitäisi päättää, mitä haluamme Ukrainassa tapahtuvan ja toimia sitten sen mukaan. Tästä Euroopassa ei ole yhteistä näkemystä, Käihkö sanoo.Torstaina Euroopan unioni sopi huippukokouksessa neljän vuoden aikana Ukrainalle annettavasta 50 miljardin euron talousavusta kotirintaman tukemiseen.Alla olevalla videolla Ukrainan presidentti Volodymyr Zelenskyi kiittää päätöksestä.Ukrainan presidentti Volodymyr Zelenskyi kiitti EU-johtajia tukipäätöksestä.Valmisteilla on lisäksi päätös seuraavasta 5 miljardin euron sotilasavusta rauhanrahaston kautta.Euroopalta kysytään riskinottokykyäKäihkö muistuttaa, että kahdenvälinen tuki Ukrainalle on kasvanut. Saksa on luvannut kaksinkertaistaa tukensa kahdeksaan miljardiin euroon tänä vuonna.Suuri kysymys Yhdysvaltain tuen jumiutuessa on se, että vaikka tahtoa Euroopassa Ukrainan tukemiseen löytyisi, onko siihen kykyä.– Tähän vaikuttaa eurooppalaisten oma riskinottokyky eli kuinka paljon on halua ja uskallusta siirtää materiaalia Ukrainaan, Käihkö sanoo.Avaa kuvien katseluIlmari Käihkö sanoo, että Ukrainan tukeminen testaa Euroopan riskinottokykyä. Kuva: Berislav Jurišić / YleEsimerkiksi jatkuva ammuslupauksista lipsuminen on osoittanut, että sotamateriaalin tuottaminen vie aikaa ja tuki tässä vaiheessa on nimenomaan pois maiden omista varastoista.– Ukrainan tuen varmistamisessa on kyse kolmesta asiasta: poliittisesta tahdosta, kyvyistä ja halusta kantaa riskiä, Käihkö summaa.Tällä hetkellä Ukrainaa ei tueta tarpeeksi verrattuna sen omiin tavoitteisiin palauttaa vuoden 1991 rajat.Menossa ”rakennusvuosi”Viime viikonloppuna The Washington Post -lehti kirjoitti, että Valkoinen talo muuttaa tänä vuonna Ukraina-strategiaansa.Ukraina ei pysty tänä vuonna valtaamaan menettämiään alueita takaisin. Niinpä Ukrainaa tuetaan vahvistamalla sen puolustusvoimaa ja taloutta.– Ukrainalla ei tällä hetkellä ei ole resursseja laajamittaiseen hyökkäykseen, Käihkö toteaa.Rintamalla tämä näkyy.Kesällä Ukraina ampui hyökkäysvaiheessaan päivittäin arviolta 7 000 ammusta ja Venäjä ampui 5 000.Nyt Ukraina ampuu päivässä 2 000 kranaattia, Venäjä 10 000.– Tästä vuodesta on puhuttu rakennusvuotena, jolloin Ukrainaa valmistellaan siihen, että hyökkäyskyky löytyisi vuonna 2025, Käihkö sanoo.Ukrainaa tuetaan muun muassa rakentamaan omaa puolustusteollisuutta, jolloin sen riippuuvuus epävarmasta, ulkopuolisesta tuesta vähenisi.Venäjäkin tietää tämän. Käihkö huomauttaa, että Venäjä on kohdistanut tänä talvena ilmaiskujaan juuri puolustusteollisuuteen eikä esimerkiksi sähkövoimaloiden kaltaisiin infrakohteisiin.Hyviä uutisia rintamalta ei ole tiedossaKäihkö muistuttaa, että rintama ei ole juurikaan liikkunut yli vuoteen. Venäjän vähimmäistavoite on kuitenkin edelleen liittää ainakin Itä-Ukrainan Donbas pysyvästi itseensä.– Venäjä jatkaa hyökkäyksiään ja sen olisi varmaan hyvä saada jotain aikaiseksi ennen [maaliskuun] presidentinvaaleja.Avaa kuvien katseluVenäjän ohjusisku teki 23. tammikuuta tuhoa Kiovan lähellä. Kuva: Aleksandr Gusev/AOPKäihkö harmittelee, että usein Ukraina-keskustelussa unohtuu vastapuoli eli Venäjä.– Venäjällä varmasti myös ajatellaan, että Ukraina on nyt heikko ja kannattaa käyttää tilaisuus hyväkseen, Käihkö sanoo.
+Aloite on ainakin väliaikaisesti enemmän Venäjän käsissä. Käihkön mukaan nykytietojen valossa ei kuitenkaan ole syytä odottaa Ukrainan suurta romahdusta.– Hyviä uutisia ei Ukrainan puolelta kannata hirveästi tänä vuonna odottaa, Käihkö sanoo.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>31</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Venäjän Mustanmeren laivasto pieneni jälleen? Ukraina kertoo upottaneensa korvetin</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20072569</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Ukraina sanoo upottaneensa venäläisen korvetin, Ivanovetsin.Reuters julkaisi videon, jolla väitetty meridroonihyökkäys näkyy. Ivanovetsiin osuu videon perusteella ainakin kolme meridroonia. Alukselta yritetään tulittaa drooneja, mutta ne onnistuvat tehtävässään ja räjähtävät tuhoisin seurauksin.Videon väitetään olevan keskiviikon ja torstain väliseltä yöltä.Kyse on vuonna 1988 valmistuneesta kevyestä Molnija-luokan ohjuskorvetista. Alus kuului 41. ohjusveneprikaatin 298. ohjusvenelaivueeseen, vahvistaa Ylen asiantuntija Marko Eklund.– Se on suhteellisen pieni, 56-metrinen alus. Kyseisen alusluokan miehistöön kuuluu noin 40 henkeä, Eklund kertoo.Pääaseena aluksella on neljä P-270 ”Moskit” -merimaaliohjusta, joiden kantaman arvioidaan olevan versiosta riippuen 120–250 kilometriä. Ohjus lentää yli kaksinkertaisella äänennopeudella ja siitä on ollut käytössä myös lentokoneesta laukaistava versio.Ukrainan sotilastiedustelupalvelun mukaan alus oli partioimassa Krimin niemimaan edustalla.Turvallisuusyhtiö Ambreyn mukaan Ukraina käytti iskussa todennäköisesti kuutta meridroonia. Kukin sisältää noin 300 kiloa räjähteitä. Asiasta kertoo uutistoimisto AP.Avaa kuvien katseluIvanovets (oik.) osallistui Mustanmeren laivastopäivään Krimin Sevastopolissa toisen korvetin kanssa vuonna 2019. Kuva: EPA-EFEVenäjä ei ole kommentoinut upottamista, mutta Venäjän armeijaan kytköksissä olevalla Telegram-kanavalla kerrottiin Ukrainan hyökänneen yhdeksällä meridroonilla alueelle yöllä. Kanavan mukaan neljä drooneista havaittiin ja niitä kohti avattiin tuli.Kanavan mukaan yksi kohteena ollut alus ”vaurioitui”.Lähteet: AP, AFP, STT</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>32</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>EU:n ydinjoukko laittoi Unkarin ruotuun huippu­ko­kouksen aamuna</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20072530</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Unkarin pääministeri Viktor Orbán suostui Ukrainalle maksettavaan tukeen EU:n ydinjoukon kurinpalautuksessa, joka edelsi varsinaista huippukokousta.Paikalla olivat Ranskan presidentti Emmanuel Macron, Saksan pääministeri Olaf Scholz ja Italian pääministeri Giorgia Meloni sekä EU-komission puheenjohtaja Ursula von der Leyen.EU-päättäjät olivat kokoontuneet Brysseliin ylimääräiseen huippukokoukseen siksi, että Unkari torppasi joulukuun kokouksessa Ukrainalle maksettavan tuen.Orbán toisti tiettävästi kokouksessa vaatimuksiaan muun muassa veto-oikeudesta. Hän halusi, että tukea myönnettäisiin Ukrainalle vain vuodeksi, minkä jälkeen siitä pitäisi taas päättää yksimielisesti.Kokouslähde arvioi, että Orbánin piti kuulla kasvotusten EU-johtajilta, että he ovat tosissaan eikä vastaantuloa ole odotettavissa. Orbán ei luottanut pääministerien lähimpien neuvonantajien viesteihin, vaikka kannat ovat olleet samat viikkojen ajan.Orbánin pelimerkit alkoivat olla vähissä.Varsinainen huippukokous ehti kestää vain muutaman minuutin, kun Eurooppa-neuvoston puheenjohtaja Charles Michel ilmoitti, että Unkari hyväksyy Ukrainan tukipaketin.Pieninä myönnytyksinä sopimukseen kirjattiin, että tuesta keskustellaan vuosittain ja tarvittaessa voidaan tehdä arvio kahden vuoden kuluttua. Tämä on kaukana Unkarin vaatimasta veto-oikeudesta.Nämäkin lauseet olisi voitu kirjata sopimukseen jo joulukuun huippukokouksessa, yksi virkamies totesi.Orbán selitti asiaa tviitissään parhain päin: ”Tehtävä suoritettu. Unkarin rahoja ei päädy Ukrainaan, ja meillä on kontrollimekanismi.”Unkarilta jäädytettyjä varoja ei ole ollut tarkoituskaan käyttää Ukrainan tukemiseen. Tuki maksetaan EU-budjetista, jonka maksajia ovat jäsenmaat.Unkarin päätökseen saattoi vaikuttaa myös aiemmin viikolla Financial Timesiin vuodettu asiakirja, jonka mukaan Unkarin tukemista aiottiin rajoittaa, niin että maan talous ajautuu entistä pahempaan alamäkeen ja sijoittajat menettävät luottamuksensa.EU-johtajat pohjustivat päätöstä edellispäivän illallisella. Pääministeri Petteri Orpon (kok.) mukaan siellä vahvistui, ettei kukaan lipeä Unkarin puolelle. Orbán ei ollut illallisella.Moni tympääntyi Unkariin tukiriidan kestäessä. Orpon mukaan Unkari ei päätöksen jälkeen saanut muilta arvostelua mutta ei kehujakaan.Esimerkiksi Puolen pääministeri Donald Tusk totesi Reutersin mukaan, ettei hän luottaisi siihen, että Orbán jatkossa pelaa joukkueessa.Unkari on harannut EU:ssa vastaan jo monissa päätöksissä, esimerkiksi Venäjän-vastaisissa sanktioissa.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>33</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Tammikuu tarjosi kaikkea paukku­pak­kasista vesisateisiin – katso kuukauden parhaat sääkuvat</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20070418</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Avaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katselu</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>34</v>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>Haavisto ja Stubb paljastavat ystä­vä­kirjassa lempiruokansa ja hirveimmät kokemukset ulkomailta</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20072243</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t xml:space="preserve">Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.
 Toteutus vaatii toimiakseen JavaScriptin.
 </t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>21</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Näin Stora Enson pomo perustelee yt-neuvotteluja, joista voi seurata potkut tuhannelle ihmiselle</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20072562</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Metsäyhtiö Stora Enso kertoo valmistelevansa kannattavuuden parantamisohjelmaa, joka voi johtaa noin tuhannen työntekijän vähentämiseen.Henkilöstövähennykset koskettaisivat konsernin kaikkia toimintoja. Vielä ei ole tiedossa, miten paljon ja mistä yksiköistä työpaikkoja lähtee Suomessa.– Markkinatilanne on edelleen haastava. Näkyvissä on joitakin normalisoitumisen merkkejä, ja me teemme oikeita asioita, koska pystyimme kuitenkin kolmannesta kvartaalista jonkun verran parantamaan tulosta, mutta edelleen ollaan epätyydyttävän alhaisella tasolla, sanoo toimitusjohtaja Hans Sohlström.Yhtiö keskittyy ydintoimintoihin, joita ovat asiakkaiden palveleminen ja tuotteiden tehokas tuottaminen. Joitakin hallinnollisia tehtäviä saattaa jäädä pois. Tavoitteena on 80 miljoonan euron säästöt.– Meidän pitää epävarmassa markkinatilanteessa keskittyä niihin asioihin, mihin me voimme vaikuttaa. Muun muassa kustannustehokkuus on meidän käsissämme.Osinko laskee rajustiMuutosneuvottelut yhtiön eri toimintamaissa käynnistyvät lähiaikoina.Valtaosa suunnitelluista säästöistä voisi toteutua vuonna 2025, mutta merkittävä osa mahdollisista työntekijävähennyksistä tapahtuisi jo vuoden 2024 ensimmäisellä puoliskolla.Ohjelmaan ei ole suunniteltu uusia tuotantolaitosten sulkemisia.Stora Enson loka–joulukuun liikevaihto laski liki neljänneksen ja oli 2,17 miljardia euroa. Operatiivinen liiketulos pieneni 51 miljoonaan euroon vuoden takaisesta 355 miljoonasta.Osinko laskee 0,10 euroon osaketta kohti viime vuonna maksetusta 0,60 eurosta.Viime vuoden lopussa yhtiö sai päätökseen kesäkuussa 2023 käynnistyneen uudelleenjärjestelyohjelman. Sen myötä operatiivinen liiketulos parani 110 miljoonalla eurolla vuodessa ja henkilöstöstä vähennettiin 1 150 työntekijää.Vuonna 2023 liikevaihto oli 9,4 miljardia euroa. Vuotta aiemmin se oli 11,7 miljardia euroa. Yhtiö työllistää noin 21 000 henkilöä.</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>23</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Yhä useampi kesätyöpaikka toivoo hakijasta videota – katso vinkit, mitä esitte­ly­videossa kannattaa näyttää</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20071287</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Kesätyöhaku käy juuri nyt kuumimmillaan. Nykyään moni työnantaja pyytää hakijalta myös esittelyvideota.Kysyimme eri yrityksiltä, mikä merkitys videolla on työpaikan saamisessa ja voiko sen avulla parantaa asemaansa rekrytoinnissa.Tavarataloketju Motonetin henkilöstöjohtaja Mira Prinz kertoo, että heillä esittelyvideo pyydetään, sillä se on heidän kokemuksensa mukaan monelle nuorelle hyvin luonteva tapa ilmaista itseään.– Jokainen saa loistaa omalla tavallaan. Toki huomioimme, että videon tekeminen voi olla myös epämiellyttävää. Emme pudota ketään pois hakuprosessista pelkän videon perusteella, Prinz kommentoi.Avaa kuvien katseluMotonetin Mira Prinzin mukaan video usein syventää hakijan persoonaa. ”Siinä voi tulla esille myös jotakin sellaista, mitä ei varsinaiseen hakulomakkeeseen ole huomannut laittaa tai me emme ole huomanneet kysyä.” Kuvituskuva. Kuva: Juuso Stoor / YlePersoona ja asenne esiinTavarataloketju Tokmannilta kerrotaan videohakemusten määrän kasvaneen selvästi. Heille hakiessa videon tekeminen ei ole pakollista, mutta sitä kannattaa harkita.Video ei kuitenkaan aseta hakijoita eri viivalle, vaan se on hyvä mahdollisuus tuoda esiin eri tavalla omaa persoonaa, motivaatiota ja asennetta.– Sisältö ratkaisee, ei niinkään sisällön tiedostomuoto, kertoo Tokmannin HR-asiantuntija Jasmin Rinne sähköpostitse.Avaa kuvien katseluKaikki eivät ole luontaisia esiintyjiä. Tämän ymmärtävät myös työnantajat. ”Jännittäminenkin on ok, jos asenne ja motivaatio on kunnossa”, sanoo Tokmannin Jasmin Rinne. Kuvituskuva. Kuva: Tiina Jutila / YleLinnanmäen huvipuiston henkilöstöjohtaja Mirva Mölsä kertoo, että esittelyvideo on merkityksellinen lisä hakuprosessissa niin työnhakijalle kuin rekrytoijallekin.– Video voi auttaa välittämään asiakaspalveluosaamista ja positiivista asennetta. Myös kielitaidon voi esitellä videolla.Mölsä pitää esittelyvideon vahvuutena myös sitä, että siinä hakija saa kertoa itsestään haluamallaan tavalla ja haluamassaan järjestyksessä. Persoonallinen ote ja toteutus huomataan.Vaikka toteutustapa on vapaa, yhden vinkin Mölsä kuitenkin antaa.– Video kannattaa tehdä rauhallisessa paikassa, jotta itse esittely tulee selkeästi esille.Avaa kuvien katseluLinnanmäen huvipuistoon hakevien kannattaa harkita videohakemuksen tekemistä. ”Se voi tuoda hyvän loppusilauksen hakemukseen ja täydentää kirjallista hakemusta”, sanoo Linnanmäen henkilöstöjohtaja Mirva Mölsä. Kuvituskuva vuodelta 2020. Kuva: Matti Myller / Yle Hakuprosessissa kokonaisuus ratkaiseeS-ryhmän rekrytoinnista vastaava päällikkö Annina Hyvönen kertoo sähköpostitse, että muutamissa osuuskaupoissa on käytössä videoesittely.Pääsääntöisesti haku kuitenkin tapahtuu netin kautta perinteisellä hakemuksella ja CV:llä, eli ansioluettelolla. Hyvönen pitää tätä tärkeänä osana hakemusta.– Kesätyö on usein nuorelle ensimmäinen työpaikka, mihin CV:n tarvitsee. Sen tekeminen osaltaan kartuttaa nuoren työelämätaitoja, kun sen yhteydessä tulee listattua, mitä kaikkea on tehnyt ja mitä vahvuuksia löytyy.Avaa kuvien katseluIkea Suomen rekrytointipäällikkö Anna-Maija Korko arvioi, että noin viidessä prosentissa hakemuksia on mukana video. ”Kannattaa tehdä hakemus siinä muodossa, joka itselle tuntuu luontevimmalle.” Kuva: Yle KuvapalveluJos kirjallinen ilmaisu ontuu, voiko hyvällä videolla pelata itselleen kesätyöpaikan?Kaikki kyselyyn vastanneet työnantajat painottavat, että hakuprosessissa kokonaisuus ratkaisee. Erinomainen video ei välttämättä pelasta, jos kokonaisuus ei ole kunnossa.– Mutta sen avulla voi löytyä joku potentiaalinen kultajyvä, joka ehkä muuten jäisi huomaamatta, sanoo Motonetin henkilöstöjohtaja Mira Prinz.</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>24</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Lapissa juhlitaan penkkareita jo nyt – katso tunnelmat</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20072555</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Penkkarikausi alkoi jo pohjoisessa, kun Rovaniemellä järjestettiin tänään penkinpainajaiset eli penkkarit.Bilettävien abien rekat saapuivat Lordinaukion laitaan harmaan, mutta lauhan sään saattelemina.Avaa kuvien katseluSome ja energiajuomat näkyvät Lyseonpuiston lukion abien penkkarilakanassa. Kuva: Antti Mikkola / YleAvaa kuvien katseluAbit lähdössä ajelulle Lyseonpuiston lukiolta.  Kuva: Antti Mikkola / YleNykyään penkkareita juhlitaan eri puolilla maata eri aikoihin.Vuosikymmenten ajan penkkareita sekä vanhojen tansseja vietettiin kaikkialla Suomessa helmikuun puolessa välissä yo-kuunteluiden päättymisen jälkeen. Se oli sopiva ajankohta, koska kuunteluihin päättyi abiturienttien opiskelu ennen lukulomaa.Avaa kuvien katseluSuomennos: ”Kuinka paljon IB (tai IB-lukio) on oravanpyörä”? IB-lukiossa opetus tapahtuu englanniksi.  Kuva: Antti Mikkola / YleKeväällä 2018 perinteiset erilliset yo-kuuntelut loppuivat, ja muutos on vaikuttanut myös penkkareiden aikatauluihin.Tänä vuonna monilla paikkakunnilla penkkarit järjestetään ensi viikolla: Helsingissä ja Tampereella torstaina, Turussa perjantaina. Myös Lapissa esimerkiksi Kemissä penkkarit järjestetään ensi viikon torstaina.Avaa kuvien katseluAbi pukeutuneena tietokonepeli Minecraftin timanttihaarniskaan.  Kuva: Antti Mikkola / YleAvaa kuvien katselu“Mitä Kenin sisko vuokraa” viittaa viime syksyn englannin pitkän oppimäärän ylioppilaskokeeseen, joka hämmensi opiskelijoita.  Kuva: Antti Mikkola / Yle</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>25</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Valtava määrä musiikkia katosi Tiktokista – Mikael Gabriel: ”Koko katalogini 17 vuoden ajalta on hävinnyt”</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20072531</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Yksi maailman suurimmista levy-yhtiöstä, Universal Music lopetti yhteistyönsä Tiktokin kanssa eilen keskiviikkona. Siksi Universalin artistien musiikki katosi sosiaalisen median palvelusta torstaina.Mikael Gabriel on yksi levy-yhtiön suomalaisartisteista.– Tänä aamuna huomasin, että koko mun katalogi viimeisen 17 vuoden ajalta on hävinnyt Tiktokista, ja niin myös kaikkien muiden Universalin artistien biisit.Hän kuvaa Ylelle tunnelmiaan näin:– Aika negatiiviset fiilikset.Universal Music kertoi päätöksestään artisteille ja musiikin tekijöille nettisivuillaan julkaisemassaan avoimessa kirjeessä.Levy-yhtiö ei ole tyytyväinen Tiktokilta saamiensa korvausten suuruuteen.Universal Musicin mielestä Tiktokin korvaus musiikin käytöstä ei ole samalla tasolla kuin mitä muut sosiaalisen median palvelut sille tilittävät.Kiinalaisen ByteDance-yhtiön omistaman Tiktokin mukaan Universalin väitteet ovat vääriä.Mikael Gabriel: ”Artistit sivutulen alla”Muusikkojen liiton puheenjohtaja Ahti Vänttiselle Universalin ilmoitus vetää miljoonia kappaleita pois Tiktokista ei tullut yllätyksenä.– Näista asioista on aika paljon puhuttu ja tämä on Universalin reaktio tilanteeseen.– Levy-yhtiöllä on oikeus totta kai toimia noin. Universalin osalta kyse on ensisijaisesti rahasta, Vänttinen toteaa.Mikael Gabrielin mielestä artistit ovat jääneet sivustaseuraajiksi, kun kukaan ei ole neuvotellut päätöksestä heidän kanssaan.– Tuntuu, että tässä on tilanne, jossa kaksi isoa tahoa on vastakkain, ja me artistit ja työntekijät joudumme sivutulen alle. Nyt on kyse aivan jostain muusta kuin että artisteille ei makseta tarpeeksi.Avaa kuvien katseluUniversalin sopimus sosiaalisen median palvelu Tiktokin kanssa päättyi tammikuun viimeinen päivä. Kuva: Getty ImagesTiktokilla valtava promootioarvoHollantilais-amerikkalaisella Universalilla on ollut Tiktokissa miljoonia musiikkikappaleita.– Taiteilijoiden kannalta suurin vaikutus ei ole taloudellinen, vaan välillinen ja liittyy promootioarvoon, joka Tiktok-alustalla on, Ahti Vänttinen sanoo.Samaa sanoo Mikael Gabriel.– Tiktok on meille artisteille isoin alusta promota musiikkia. Sen arvoa on vaikea mitata rahassa.Muusikkojen liitossa on vajaa 4 000 jäsentä. Liiton puheenjohtaja Ahti Vänttisen mukaan muusikot eivät ole olleet häneen vielä asiasta yhteydessä.– Onhan se ikävää, jos musiikki ei näy jatkossa Tiktokissa. Joissain mielessä ymmärrän, että jos sopimukseen ei päästä, tuollainen tulos siitä voi tulla.Vaihtavatko artistit levy-yhtiötä?Mikael Gabrielin mukaan artistit saattavat harkita Universal Musicin päätöksen takia levy-yhtiön vaihtamista.– Jos homma jatkuu pitkään näin, ei artisti halua Universalille tulla, koska heillä ei ole tarjota artistille Tiktok-alustaa. He tekevät diilejä Sonyn ja Warnerin kanssa tai independenttinä [itsenäisinä], jotta pääsevät Tiktokiin.Päätöksellä on myös muita seurauksia. Se voi jatkossa vaikuttaa myös artistin ja yhteistyökumppaneiden välisiin sopimuksiin.– Varmasti vaikuttaa siihen, että haluaako yhteistyökumppanit tehdä musiikkia artistin kanssa, jonka musiikkia ei löydy isommalta platformilta.Avaa kuvien katseluUuden musiikin kilpailun osallistujat ytheiskuvassa. Vasemmalla Mikael Gabriel ja Nublu. Kuva: Yle / Miikka VarilaUMK:n kannalta huono ajoitusMikael Gabrielin mukaan levy-yhtiön päätös tuli erittäin huonoon aikaan.Hän osallistuu parhaillaan Uuden musiikin kilpailuun yhdessä virolaisartisti Nublun kanssa.Universalin poistuminen Tiktokista tarkoittaa, ettei heidän kilpailukappale Vox Populista tehtyjä videoita nähdä siellä.– Ajankohta on todella ikävä, koska tässä on UMK isosti käynnissä. Vox Populiin tehdään videoita, ja siinä on hyvä ilmiöitys menossa. Kun video vedetään isoimmalta alustalta alas, se on aika iso etulyöntiasema muille kilpailijoille.Mikael Gabrielin kritiikki ei kohdistu oman levy-yhtiön toimintaan Suomessa.– Kaikki info tulee Amerikasta, eikä Suomen Universal voi siihen vaikuttaa. Se on pelkästään sen tiedon varassa, joka tulee pääkonttorilta.Mikael Gabriel toivoo, että levy-yhtiö ja Tiktok pääsisivät asiassa pikaisesti sopuun.– Tämähän on neuvottelukysymys ja varmasti aika pienistä nyansseista kiinni.</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>26</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Synkkä pilvi Suomen Davis Cup -ryhmän yllä – kestääkö Otto Virtasen nilkka?</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20072573</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Suomen joukkueen Davis Cup -karsinnat alkavat Turusta 2.–3. helmikuuta, kun Suomi kohtaa Portugalin. Yle näyttää kaikki Suomen joukkueen Davis Cup 2024 -ottelut kanavillaan.Tennismaajoukkue on pelannut vuodesta 2019 alkaen kotiottelunsa Espoossa, mutta kun varaustilanne ei sallinut pelaamista pääkaupunkiseudulla, niin Turusta valikoitui uusi pelipaikka.Davis Cupin karsintaottelu on järjestetty Turussa viimeksi vuonna 2002. Suomi ja Portugali taas ovat kohdanneet tenniksessä kahdesti aiemmin: vuonna 1968 Suomi vei voiton, mutta vuonna 2015 Portugalin joukkue oli vahvempi.Perjantaina kello 17.30 alkaen luvassa on kaksi kaksinpeliä, joissa maiden ykköspelaajat kohtaavat kakkoset.Ottelun ohjelman mukaan aloittava Suomen kakkospelaaja Otto Virtanen koki kovia viime viikolla pyöräyttäessään harmittavasti nilkkansa, jonka lopullinen kunto ja kestävyys selviävät vasta seuraavina kahtena päivänä.– Kondis on ok. Viime viikolla tuli vähän loukkaantumista, ei sen enempää. Kentällä on tullut oltua kuitenkin pelaamassa suht paljon. Meillä on hyvä taustatiimi, joka pitää huolen, että pääsen pelaamaan. Paljon hoitoa ja oheisharjoittelua, selvitti Virtanen Ylelle.Suomella on ollut Davis Cupin arvonnoissa tuuria, kun se on saanut usein kotikenttäedun karsintoihin. Syyskuusta 2019 alkaen Suomi on kohdannut kotonaan Itävallan, Intian, Belgian, Uuden-Seelannin, Argentiinan ja nyt Portugalin. Ainoastaan vuoden 2020 Meksiko-ottelu on pelattu vieraskentällä, kun turnaustapahtumia ei lasketa.– Onhan se tosi iso etu, ja kaikki pelaajat nauttivat siitä, että saadaan olla yhdessä kotimaassa ekstraviikko. Se on meille maailmalla reissaaville aina iso bonus, huomauttaa Virtanen.Otto Virtaselle on vastassa Portugalin ykköspelaaja, hyvävireinen Nuno Borges heti perjantaina.– Aika tuttu kaveri, jopa ihan pelikentän ulkopuolellakin. On tullut harjoiteltua paljon hänen kanssaan ja pelattua kerran vastaan. On hyvä pelaaja, niin kuin on nähty viimeisen kuukauden aikana, kun on ottanut kovia voittoja ja pelasi viimeksi Australiassa tosi hyvin. Top-50 -sijoitus kertoo hänestä aika paljon, tuumii Virtanen torstai-iltana.Suomen ja Portugalin kohtaamisen ohjelmaPe 2.2. klo 17.30 alkaenOtto Virtanen (ATP-166) – Nuno Borges (ATP-47)
-Emil Ruusuvuori (ATP-55) – Joao Sousa (ATP-245)La 3.2. klo 15.00 alkaenHarri Heliövaara / Patrik Niklas-Salminen – Francisco Cabral / Nuno Borges
-Emil Ruusuvuori – Nuno Borges
-Otto Virtanen – Joao SousaAvaaBorges tällä hetkellä tennisuransa huipullaBorges myöntää pelaavansa elämänsä parasta tennistä juuri tällä hetkellä.Hän voitti äskettäin Australian Grand Slamissa kolme ottelua ja eteni 16 parhaan joukkoon, kunnes taipui maailmanlistan kolmoselle, finaaliin yltäneelle Daniil Medvedeville erin 3–6, 6–7, 7–5, 1–6.– Viime vuosi oli minulle jo iso menestys ja askel uralla eteenpäin. Vuosi 2024 lähti sitten minun osaltani upeasti käyntiin. Aion pitää kiinni tästä viretilastani, mutta aika näyttää, onnistunko siinä.Borges tuntee Suomen nuorekkaan joukkueen omasta mielestään erittäin hyvin ja on harjoitellut Virtasen ja myös Emil Ruusuvuoren kanssa paljon.Tuoreimpien tietojen mukaan tapahtumaan on myyty yhteensä 13 300 lippua – perjantaiksi 6 100 ja lauantaiksi 7 200. Areenan kapasiteetti on noin 8 300.Suomen yleisöennätykset menevät siis komeasti uusiksi. Tennismaajoukkueiden edellinen yleisöennätys on viime vuoden helmikuulta, kun Espoon maaottelussa kahden päivän aikana oli 9 500 katsojaa. Samalla joukkue kirjasi päiväkohtaisen ennätyksensä 5 200 katsojaa.– Turun sisähallin pelialusta ei ole mikään uusi tuttavuus, ja meillä on ollut riittävästi aikaa tottua siihen. Ehkä Suomi on niukasti ennakkosuosikki, koska heillä on ollut joukkueena hyviä kokemuksia ja he pelaavat kotiyleisönsä edessä. Tiedän kuitenkin, että voimme voittaa täällä, jos pelaamme huipputennistämme, paaluttaa Borges.Avaa kuvien katseluSuomen ja Portugalin tennismaajoukkueet joukkuekuvassa torstaina. Kuva: Suomen tennisliittoSuomen viisihenkisen maajoukkueen muodostavat Emil Ruusuvuori, Otto Virtanen, Harri Heliövaara, Patrik Niklas-Salminen ja Eero Vasa. Vasa korvasi joukkueessa loukkaantuneen Patrick Kaukovallan. Kapteenina toimii Jarkko Nieminen.Portugalin riveissä ovat Nuno Borgesin lisäksi Joao Sousa, Henrique Rocha, Gastao Elias ja Francisco Cabral.– Aika odotettu kokoonpano Portugalilta. Avauspäivän osalta voi sanoa, että vastustajilla on kaksi todella kovaa ja tasaista takakentän pelaajaa. Borges tavoittelee varmasti paikkaa takalinjan lähellä, eikä tykkää pelata, jos joutuu kauemmas peruuttelemaan. Sousa sen sijaan pystyy myös kauempaakin pelaamaan ja on sitkeä sekä taitavan monipuolinen lyönneissään, analysoi kapteeni Nieminen.Miesten tennismaajoukkue onnistui erinomaisesti viime vuonna, kun se ylsi Davis Cupin välieriin. Suomalaiset seurasivat joukkueen otteita niin kotikatsomoissa kuin paikan päällä Malagassa, Espanjassa. Marraskuun puolivälissä Malagan stadionilla oli yli 5 000 suomalaista. Onnistumisten myötä Davis Cup -joukkue palkittiin vuoden esikuvana ja vuoden joukkueena Urheilugaalassa 11. tammikuuta.</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>27</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Miksi nyt oikein lakkoillaan? Lue tästä, miten Suomi muuttuu ja miksi se ei käy kaikille</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20072498</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Miksi työntekijät muun muassa päiväkodeissa, ruokakaupoissa, teollisuudessa ja kuljetusalalla ovat nyt lakossa?Työntekijöitä edustavat ammattiliitot ovat päättäneet poliittisista lakoista ja ulosmarsseista, koska ne vastustavat hallituksen työelämää koskevia muutoksia ja leikkauksia sosiaaliturvaan.Liitot toivovat hallituksen neuvottelevan muutoksista työntekijöitä ja työnantajia edustavien tahojen kanssa. Kaikki ammattiliitot eivät vastusta kaikkia suunniteltuja muutoksia.Lakko-oikeus ja irtisanominenHallitus haluaa rajoittaa juuri nyt käsillä olevia poliittisia lakkoja ja tukilakkoja. Poliittinen lakko voisi kestää korkeintaan yhden vuorokauden. Tukilakon pitäisi olla ”kohtuullinen suhteessa tavoitteisiin” ja se voisi kohdistua vain työriidan osapuoliin.Laittomaan lakkoon osallistumisesta voisi jatkossa tulla työntekijälle 200 euron sakko. Liiton lakkosakon ylärajaa nostettaisiin 150 000 euroon.Työntekijän irtisanomista, määräaikaisten työsopimusten käyttöä ja paikallista sopimista eli työehdoista sopimista esimerkiksi yritys- tai toimipistekohtaisesti halutaan helpottaa.Sairausajan palkkaLainsäädäntöä halutaan muuttaa niin, että sairausloman ensimmäiseltä päivältä ei tarvitsisi maksaa palkkaa.TyöttömyysturvaTyöttömyysturvaan ja muuhun sosiaaliturvaan on suunnitteilla useita muutoksia, jotka ovat ammattiliittojen mukaan rajuja ja kohdistuvat jo ennestään pienituloisiin. Osan arvioidaan kannustavan osa-aikatöitä tekeviä siirtyvän kokonaan työttömäksi.Osa hallituksen työttömyysturvaan suunnittelemista muutoksista on jo tullut voimaan, kuten työttömyysturvan omavastuuajan pidennys ja lomakorvausten jaksotus. Nämä muutokset pidentävät aikaa, jolta työttömäksi jäänyt ei saa työttömyyskorvausta.Lisäksi työttömyysturvasta poistetaan lapsikorotus ja niin sanottu 300 euron suojaosa, mikä tarkoittaa summaa, jonka on voinut ansaita ilman, että työttömyyskorvaus pienenee.Työttömyysturvaa kutistetaan myös pidentämällä työssäoloehtoa ja muuttamalla sen laskentatapa tuloperusteiseksi. Ansiosidonnaista työttömyysturvaa porrastetaan niin, korvaussumma laskee, kun työttömyyttä on kestänyt pidempään.Katso Ylen laskurista, miten ansiosidonnainen työttömyysturva muuttuu eri tulotasoillaLisäksi hallitus aikoo lakkauttaa vuorotteluvapaan ja aikuiskoulutustuen.Useita Kelan maksamia etuuksia, kuten työmarkkinatukea, ansiosidonnaista työttömyysturvaa, vanhempainpäivärahaa, opintorahaa ja osaa asumistuista on päätetty jättää nostamatta vuoteen 2027 saakka.Kun etuuksia ei koroteta, niiden ostovoima laskee inflaation eli yleisen hintojen nousun takia.AsumistukiAsumistukea pienennetään muun muassa korottamalla omavastuuta, alentamalla korvaustasoa sekä poistamalla 300 euron ansiotulovähennys.Lisäksi helsinkiläisten asumistukea heikennetään laskemalla asumiskustannusten enimmäismäärää muun pääkaupunkiseudun tasolle. Omistusasujat menettävät asumistuen kokonaan.Ammattiliittojen mukaan asumistuen leikkaukset lisäävät köyhyyttä ja iskevät erityisesti pienipalkkaisiin työntekijöihin.Laskuri näyttää, paljonko asumistuki putoaa – opiskelijalle ja asunnonomistajalle tulos on karuPalkatHallitus valmistelee niin sanottua vientimallia, joka sitoisi lainsäädännöllä muiden kuin vientialojen palkankorotukset enintään vientialojen korotusten tasolle.Käytännössä mallissa esimerkiksi hoitajien palkankorotukset eivät voisi ylittää vientialoilla työskentelevien työntekijöiden palkankorotuksia. Liittojen mukaan tämä voisi jättää osan aloista palkkakuoppaan.Mikä ihmeen poliittinen lakko ja miksi se saa toiset näkemään punaista?Yle Uutispodcast: Mikä ihmeen poliittinen lakko ja miksi se saa toiset näkemään punaista?Kolmiottelussa lakkokenraalit ja Helle: Kenen kanta voittaa?Politiikkaradio: Ay-liike aloittaa laajat lakot, jotta hallitus perääntyisi aikeistaan. Ovatko uhattuina naisten palkankorotukset vai Suomen talous? Kuka taipuu? Mitä pitäisi ajatella työmarkkinapomojen ristiriitaisista tavoitteista? Studiossa Tehyn puheenjohtaja Millariikka Rytkönen ja AKT:n Ismo Kokko, joista ensimmäinen sulkee päiväkoteja ja toinen satamia. Työnantajia edustaa Teknologiateollisuuden varatoimitusjohtaja Minna Helle. Toimittajana on Antti Pilke. Voit keskustella aiheesta 2.2. klo 23 saakka.</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>29</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>”Kiusataan pieniä yrittäjiä” – osaa yrittäjistä lakko häiritsee, toisilla on enemmän ymmärrystä</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20072539</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Hallituksen esitykset ensimmäisen sairauspäivän palkattomuudesta ja lakko-oikeuden rajoittamisesta ovat vieneet sadat tuhannet suomalaiset poliittiseen lakkoon.Tilanne vetää Suomen yrittäjien puheenjohtajan Petri Salmisen mielen vakavaksi.– Työtaistelutoimenpiteet kohdistuvat nyt tahoon, joka ei ole riitelyssä millään tavalla osapuolena eli yrityksiin ja työpaikkoihin, hän sanoo.Elinkeinoelämän keskusliitto on arvioinut lakon maksavan yhteiskunnalle jopa 360 miljoonaa euroa.Salminen ei osaa sanoa, millaiset ovat pienten ja keskisuurten yritysten kustannukset.– Hintaa ei ole pystytty laskemaan, koska moni työntekijä käyttää oikeuttaan olla osallistumatta lakkoon ja tulee työpaikalle, hän sanoo.Samisen mukaan osa yrityksistä on vaikeassa tilanteessa pelkästään taloussuhdanteen takia. Näille yrityksille lakko aiheuttaa vaikeuksia ja ylimääräistä työtä.Ymmärrystäkin löytyyLaukaalainen ilmalämpöpumppuja myyvä ja asentava yrittäjä Esa Forsström kertoo, ettei lakolla ole vaikutusta hänen töihinsä.Forsström ymmärtää työntekijöiden mielenilmausta.– Yrittäjän näkökulmasta ensimmäisen sairauspäivän palkattomuus tietysti kelpaisi, mutta eihän se työntekijälle ole hyvä, hän toteaa.Avaa kuvien katselu– Olisi parempi ratkaista asiat neuvottelemalla kuin sanelemalla, sanoo yrittäjä Esa Forsström. Kuva: Riikka Pennanen / YleForsströmillä on esittää myös ratkaisuehdotus.– Voisiko uuden työntekijän koeajalla ensimmäinen sairaspäivä olla palkaton, mutta muuttua palkalliseksi koeajan jälkeen? hän pohtii.Tavarantoimitukset ovat jäissä lakon ajan, mutta siihen Forsström on varautunut etukäteen.Lakko näkyy tavallisille ihmisille etenkin kauppakeskuksissa.Osa ruokapaikoista on suljettu ja asiakkaita liikkeellä tavallista torstaita vähemmän.Avaa kuvien katseluMarkettien aukioloaikoja on tänään supistettu lakon takia.  Kuva: Petri Niemi / YleKultakauppiaana 30 vuotta toiminut yrittäjä Juha Mäntynen kertoo, että jokainen poikkeustilanne näkyy kauppojen myynnissä.– Ensin kovat pakkaset, ja nyt tämä lakko, hän sanoo.Yrittäjien lisäksi myös esimiehet hyppäävät itse puikkoihin, jos työntekijät jäävät lakon takia kotiin.Näin on tehnyt tänä aamuna myös Jyväskylän Seppälän Prisma-tavaratalon johtaja Joonas Heiskanen.– Päivän suorituksesta päätellen siinä tulee oltua ehkä vähän liian harvoin, hän naurahtaa.Lakon takia kaupan aukioloaikaa on hieman supistettu ja verkkokauppa ei toimi.– Normaalia vähemmän ihmisiä on töissä, mutta tehdään se mitä tällä porukalla voidaan. Huomenna pitäisi olla ihan normaali päivä, Heiskanen sanoo.Kello 19.02 Täsmennetty Joonas Heiskasen roolia.</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>30</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Itärajan tulli­vir­kailjoita on komennettu töihin satojen kilometrien päähän kotoa – työhy­vinvointi on koetuksella</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20072513</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Itärajan sulku on vaikeuttanut merkittävästi useiden Tullin työntekijöiden elämää. Työntekijöitä on komennettu töihin eri puolille maata siitä lähtien, kun raja-asemat ovat olleet suljettuina.Tullivirkamiesliiton mukaan suurin osa työntekijöistä on sopeutunut tilanteeseen hyvin, mutta epävarmuus jatkosta rasittaa kaikkia.– Ilman muuta tämä on vaikuttanut työhyvinvointiin ja jaksamiseen. Hankalinta on ollut perheellisillä ja sellaisilla, joilla on terveydellisiä rajoitteita, liiton puheenjohtaja Jari Nieminen sanoo.Itärajalla työskenteli ennen rajan sulkua noin 250 tullivirkailijaa. Viime aikoina heitä on komennettu töihin muun muassa Helsinki-Vantaan lentoasemalle ja Etelä-Suomen satamiin.Avaa kuvien katselu Kuva: Miku Huttunen / YleKäytännössä työmatkat ovat pidentyneet jopa sadoilla kilometreillä. Komennukset ovat kestäneet esimerkiksi yhden viikon kerrallaan.– On siinä ollut haasteita heillä, joiden pitäisi olla iltaisin kotona lasten luona, Nieminen kertoo.Töitä on riittänytTullin johtokeskuksen mukaan kaikille itärajan tullivirkailijoille on riittänyt töitä. Joulukuussa apuvoimia tarvittiin Pohjois-Suomen lentokentille, minkä lisäksi pääkaupunkiseudun lento- ja meritullissa on ollut jo pitkään työvoimapulaa.Myös Venäjän vastaisten pakotteiden valvonta työllistää tullivirkailijoita.– Etätöitä tai suljetuilla asemilla tehtävää työtä on onnistuttu järjestämään yksittäisille työntekijöille perustelluista syistä. Mutta kyllähän suurin osa töistämme vaatii läsnäoloa, Tullin johtokeskuksen päällikkö Linda Satola kertoo.Avaa kuvien katseluTullin tehtäviin kuuluu myös Suomeen saapuvien postilähetysten tarkastaminen. Arkistokuva. Kuva: TulliKauas kotoa komennetuille työntekijöille on järjestetty Tullin puolesta majoitus. Satolan mukaan järjestelystä on saatu positiivistakin palautetta.– Ne työntekijät, joille komennuksille lähtö on ollut helppoa, ovat kokeneet eri tehtävien tekemisen lisäävän ammattitaitoa, hän kertoo.– Mutta totta kai tästä tilanteesta palattaisiin mieluummin entiseen. Emme voi muuta kuin odottaa ja reagoida hallituksen kulloisiinkin päätöksiin, Satola lisää.Sulun syitä ymmärretäänTämänhetkisen tiedon mukaan itärajan sulku jatkuu helmikuun 11. päivään saakka. Tällä hetkellä rajan yli kulkee vain tavaraliikennettä Vainikkalan rajanylityspaikalla.Raja-asemia suljettiin ensimmäisen kerran marraskuussa. Sulkemisen syynä on Venäjän viranomaisten harjoittama välineellistetty maahantulo. Se tarkoittaa, että turvapaikanhakijoita on päästetty rajalle ilman tarvittavia matkustusasiakirjoja, vaikka aiemmin tämä on estetty.– Tullin työntekijät ymmärtävät, ettei tässä tilanteessa ole vaihtoehtoja. Töitä pitää tehdä nyt eri paikassa Venäjän hybridivaikuttamisen vuoksi, Tullivirkamiesliiton puheenjohtaja Jari Nieminen sanoo.</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>31</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Entistä poliisia epäillään vakavista rikoksista Helsingissä – polii­si­päällikkö: ”Tieto järkyttänyt myös minua”</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20072563</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Helsingin poliisilaitoksesta irtisanoutunutta poliisia epäillään vakavista rikoksista.Iltalehden mukaan poliisia epäillään lukuisista seksuaalirikoksista, muun muassa törkeästä lapsen seksuaalisesta hyväksikäytöstä. Lehden tietojen mukaan uhreja on kuusi.Poliisin torstaina lähettämän tiedotteen mukaan epäilty henkilö irtisanoutui Helsingin poliisilaitokselta ennen virkamiesoikeudellisen menettelyn alkamista.Syyttäjä johtaa poliisien tekemiksi epäiltyjen rikosten esitutkintaa ja vastaa myös tiedottamisesta.Helsingin poliisilaitos ei vahvista epäillyn nimeä tai tarkempia tietoja käynnissä olevan esitutkinnan takia.– Tieto nyt epäiltyjen rikosten vakavuudesta on järkyttänyt myös minua ja laitoksen henkilöstöä. Toivottavasti esitutkinta tuo vastauksen moniin mielessä oleviin kysymyksiin, sanoo Helsingin poliisilaitoksen poliisipäällikkö Lasse Aapio tiedotteessa.Aapion mukaan kaikki poliiseihin kohdistuvat rikosepäilyt ja muut epäselvyydet on ilmoitettu vuosien ajan valtakunnansyyttäjän toimiston poliisirikosyksikköön.</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>32</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Tämä kuvapari tiivistää Euroopan tunnelmat juuri nyt – tutkija kertoo, miksi smokki­pu­kuinen Macron suututtaa</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20072437</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Ranskan presidentin Emmanuel Macronin ja tämän vaimon Brigitte Macronin valtiovierailu Ruotsiin puhuttaa sosiaalisessa mediassa.Macron osallistui keskiviikkona juhlalliseen illallisgaalaan Ruotsin kuninkaallisten kanssa samaan aikaan, kun ihmiset vastustivat dieselin ja lannoitteiden korkeita hintoja ja inflaatiota Pariisin edustalla.Avaa kuvien katseluMielenosoittajia Pariisin edustalla 30.1.2024 Kuva: EPA-EFEMitä yhteiskunnallista ilmiötä kuvapari yrittää tehdä näkyväksi?Keskiviikkoiltana Ruotsin kuningas Kaarle XVI Kustaa ja kuningatar Silvia ottivat Ranskan presidentin vastaan Tukholman linnassaan.Vastaanotto oli osa Macronin kaksipäiväistä vierailua, jota oli aiemmin lykätty.Vastaanotolle osallistuivat lisäksi kruununprinsessa Victoria, tämän puoliso prinssi Daniel, prinssi Carl Philip ja prinsessa Sofia.Keskiviikkoiltana sosiaaliseen mediaan alkoi ilmestyä kuvapareja: ensimmäisessä kuvassa näkyi Macron smokkipuvussa kristallilasien ja kuninkaallisten ympäröimänä. Toisessa kuvassa taas näkyi traktoreita, nuotioita ja ihmisiä moottoritiellä.Vaikka kuvat ovat yleensä monitulkintaisia, kuvapari Macronista ja maanviljelijöistä ei tarvitse selitystekstiä ollakseen ymmärrettävä, sanoo sosiologian professori Eeva Luhtakallio Helsingin yliopistosta.– Kuvaa voisi tulkita tietynlaisena yhteiskunnan eriarvoisuuden metaforana. Siinä pelataan erilaisuudella mahdollisimman räikeällä tavalla, Luhtakallio sanoo.Samaan aikaan, kun Macron puolisoineen nautti Tukholman kuninkaallisessa linnassa ranskalaisia klassikkoruokaruokalajeja, kuten merimiehen simpukoita, ranskalaiset mielenosoittajat paistoivat makkaraa Pariisiin edustalla moottoriteiden varressa.Sosiaalisen median päivityksissä ranskalaiset ovat ilmaisseet närkästyksensä Macroniin, joka oli matkustanut valtiovierailulle Ruotsiin Ranskan levottomuuksista huolimatta.Videolla ranskalainen maanviljelijä Bertin Moret kertoo oman näkemyksensä siitä, mitä protestiliike haluaa saavuttaa.Mikä presidentin smokissa ärsytti?Sosiaalisessa mediassa ja mielenosoitusten aikana Macronia on syytetty välinpitämättömyydestä ranskalaisten maanviljelijöiden ahdinkoa kohtaan.Ruotsissa Macron puhui lähinnä Ruotsin Nato-jäsenyyden merkityksestä, eikä ottanut kantaa kotimaansa protesteihin.Näin Macron kommentoi maatalouspolitiikkaa tiistaina tiedotustilaisuudessa Tukholmassa. Macron lupasi edistää elintarvikkeiden tuontia koskevaa sääntelyä Euroopan unionissa.Tiistaina tiedotustilaisuudessa Macron lupasi edistää elintarvikkeiden tuontia koskevaa sääntelyä Euroopan unionissa.Dieselin ja lannoitteiden hinnan lisäksi maataloutta Euroopassa rasittavat monet muutkin ongelmat, jotka ovat nakertaneet maatalouden kannattavuutta ja heikentäneet maanviljelijöiden ansioita.Esimerkiksi säiden ääri-ilmiöiden heikentämät sadot, hallitusten budjettileikkaukset ja EU:n poliittiset päätökset, kuten Ukrainan viljalle myönnetty tullivapaus vaikuttavat maanviljelijöiden palkkoihin eri puolilla Eurooppaa.Maanviljelijät ovat protestoineet Ranskan lisäksi esimerkiksi Saksassa, Belgiassa ja Puolassa.Maanviljelijät protestoivat Belgian Brysselissä 24.1.2024Luhtakallion mukaan kuvapareja poliitikoista on tehty ennenkin, mutta Macronin Ruotsin vierailu oli visuaalisesti kiinnostava ja tarjosi herkullisen asetelman.– Istuihan presidentti smokissa ja Ruotsin kuningattaren vieressä, Luhtakallio toteaa.Avaa kuvien katseluRanskan presidentti Emmanuel Macron puhui valtiovierailunsa aikana Tukholman kuninkaallisessa linnassa 30.1. Kuvassa Macronista vasemmalla kuningatar Silvia ja oikealla kruununprinsessa Victoria. Kuva: LUDOVIC MARIN -POOL/SIPA/Shutterstock/All Over PressMacronin smokki tuskin yksinään synnytti ärsytystä, vaan kuvaparit syntyivät todennäköisesti reaktiona jo aikaisempiin tapahtumiin, asiantuntija pohtii.Kuviin tiivistyy kansalaisten pitkään kytenyt turhautuminen Macroniin ja hänen suhtautumiseensa protesteihin, Luhtakallio arvioi.– Macron on kansainvälisestikin tunnettu välinpitämättömästä suhtautumisestaan kansalaistoimintaan, ja hän suhtautui halveksuvasti keltaliivien mielenosoituksiin.Vuonna 2018 syntynyt liike on vastustanut keskiluokan olojen kurjistumista sekä verojen ja elinkustannusten nousua Ranskassa.Voiko huumorin ja meemien keinoin vaikuttaa politiikkaan?Samana iltana kun Macron illallisti Ruotsin kuninkaallisten seurassa, sosiaaliseen mediaan ladattiin ranskalaisen poliittisen johdon elitismiä havainnollistavia tekoälyllä tehtyjä kuvia.Luhtakallion mukaan kasvavan eriarvoisuuden maailmassa kysymys siitä, kenen ääni tulee kuuluviin, on yhä keskeisempi.– Kuvan voiman vahvistuminen on osa nykypäivän julkisuutta, jossa algoritmien tyrannia usein hallitsee, mutta jossa viraalisuus on aina mahdollista. Kuvia käyttävät usein vähäväkisetkin toimijat, joille ne tehokas keino saada äänensä kuuluviinMyös huumorin ja meemien kautta voidaan välittää poliittista viestiä, jota ei muuten saisi läpi.Esimerkiksi oikeistopopulistit käyttävät usein kuvia, jotta eivät joutuisi sanoittamaan ideologiaansa.– Sloganeihin painetuista sanoista voi jäädä kiinni ja syyllistyä kunnianloukkaukseen, Luhtakallio selittää.Kuvat sen sijaan ovat monitulkintaisia ja niiden kohdalla kunnianloukkausta on vaikeampi todistaa.Kuvapareja voidaan tutkijan mukaan käyttää monella tavalla visuaalisen politiikan työkaluina.Esimerkiksi Suomessa Elokapina-liike on kuvapareissaan rinnastanut Kaisaniemen protestit Yhdysvalloissa UC Davisin kampuksella tapahtuneeseen poliisiväkivaltaan.Vuonna 2012 finanssikriisin näköalattomuudesta syntynyt Occupy-liike piti mielenilmauksen kalifornialaisen korkeakoulun pihalla. Protestin aikana poliisi käytti muiden muassa pippurisumutetta vaarattomia aktivisteja vastaan.Ilmastonmuutosta vastustavat liikkeet taas käyttävät usein kuvapareja, jotka havainnollistavat vaikkapa jäätiköiden tai koralliriuttojen tilannetta eri ajanjaksoilla.Politiikan ja rahan kietoutumista arvostellaan kuvien avullaAvaa kuvien katseluKuvassa kuningatar Silvia (vas.), Brigitte Macron, Emmanuel Macron ja Ruotsin kuningas Kaarle Kustaa vastaanoton aikana Tukholman kuninkaallisessa linnassa 30.1.2024 Kuva: Jacques Witt/SIPA/Shutterstock/All Over PressKuvien vaikutusvalta poliittisen vaikuttamisen keinona on viime vuosina lisääntynyt merkittävästi, koska kaikki maailman kuvat kulkevat nykyään älypuhelimessa taskussa.Luhtakallion mukaan kuvia voidaan käyttää monenlaisina argumentteina ja niiden avulla tehdään politiikkaa jopa ohi sanojen tai ilman niitä.– Kuvat muuttavat julkisen keskustelun sääntöjä ja keinovalikoimaa. Niiden merkitykset voivat olla ristiriitaisia, mutta niitä ei voi ohittaa eivätkä ne välttämättä tarvitse sanoja tukeakseen asetelmiaan.Kuvan voimasta kertoo myös se, että kuva voi levitä helposti globaalisti. Toisin kuin teksti, kuva ei vaadi kieltä ollakseen ymmärrettävä.Avaa kuvien katseluLähikuva Brigitte Macronin koruista Tukholman vierailun aikana 30.1. Daily Mailin mukaan Brigitte Macron oli pukeutunut siniseen iltapukuun ja timanttikorvakoruihin. Kuva: Patrik C. Österberg/ STELLA Pictures/All Over PressMitä ajatuksia artikkeli herätti? Voit keskustella aiheesta 2.2. klo 23.00 saakka.</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>33</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Jokilaiva upposi yllättäen Turussa Aurajoen pohjamutiin – pelastustyötä tehdään yötä myöten sataman isolla kalustolla</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20072532</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Turun vanhin ravintolalaiva Esposito on uponnut osittain Aurajokeen. Varsinais-Suomen pelastuslaitos sai hälytyksen laivan uppoamisesta torstaina iltapäivällä.Laivan pelastustyöt aloitettiin noin kello 17:n aikaan.Avaa kuvien katseluEsposito on vajonnut huomattavasti Aurajoen rantapenkerettä alemmas. Kuva: Heidi Akselin / Yle– Yritämme saada vettä pois, että laiva olisi vähemmän kallistunut ja se saataisiin tyhjennettyä, kertoi laivan omistaja, yrittäjä Mika Salonen illalla.Vielä kello 20 torstai-iltana ei ollut tiedossa, miten pitkään pelastustyöt jatkuvat tai mitä laivalle ylipäätään nyt tapahtuu.– Meillä on täällä nyt sataman kalustoa eli iso pumppu, joka pumppaa vettä, Salonen kertoi.Koska ruuma oli yhä täynnä vettä, ei uppoamisen syystä voitu tehdä vielä mitään arviota.Laiva eristettiin heti iltapäivälläLaiva sijaitsee Aurajoessa Läntisellä Rantakadulla ja on paikoillaan vuoden ympäri. Pelastuslaitos eristi alueen uponneen laivan ympäristöstä.– Pelastuslaitos ei voi tehdä enempää kuin nyt eristää alueen. Jokilaiva on Aurajoen pohjassa, osittain uponneena, kertoo päivystävä palomestari Petteri Broström.Broströmin mukaan Aurajoessa on niin vähän vettä, että siksi laiva on uponnut vain osittain. Pelastuslaitos sai laivan omistajan kiinni kello 16 maissa iltapäivällä.– Omistaja hoitaa laivan jatkon. Jokilaivassa ei ole polttoainetta, joten ympäristövahingon riskiä ei tapauksessa ole, päivystävä palomestari kertoo.Avaa kuvien katseluLaivan uppoamisen syistä ei vielä torstai-iltana tiedetty, koska ruuma oli täynnä vettä. Kuva: Heidi Akselin / YleJuttua on täydennetty kello 20.25 laivan omistajan kommenteilla ja täsmennetty, että kyseessä on Turun vanhin ravintolalaiva.</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>36</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Pinkki lumi säikäytti juvalaisen talon koiran: ”Kulkee edelleen vain puhdistettua polkua pitkin”, sanoo isäntä</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20072528</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Artur Särkisen vaimo huomasi heidän kotipihansa värjäytyneen pinkiksi iltapäivällä tammikuun 9. päivä. Särkinen itse palasi töistä kotiin vasta iltakahdeksan jälkeen. Hän soitti pian hätäkeskukseen.Särkinen keräsi ainetta pulloon ja epäili sitä hajun perusteella lentokerosiiniksi.Enempää hän ei suostu arvailemaan.– Spekulaatioita toki on monia, mutta niihin en lähde. Faktat ovat faktoja, Särkinen sanoo.Etelä-Savon pelastuslaitoksen teettämän analyysin perusteella aine on kaliumpermanganaattia. Se on ihmiselle ja ympäristölle vaarallinen aine, joka voi vaikeuttaa hengitystä ja aiheuttaa nieltynä pahoinvointia, oksentelua ja ripulia.Pelastuslaitoksen tiedotteen mukaan näyte sisälsi myös muita yhdisteitä, joita alustavassa analyysissa ei tunnistettu.Koira vierastaa kemikaalin tahrimaa aluetta edelleenPelastuslaitos keräsi värjäytyneen lumen Särkisen ja hänen kahden naapurinsa pihalta vielä samana iltana.Särkisen mukaan ainetta kuitenkin jäi pihalle pieniä määriä. Muutaman päivän kuluttua voimakkaan pinkki väri oli muuttunut ruskeaksi.Talon koira vierasti outoa kemikaalia.– Varmasti hajuaisti kertoi, että siellä on jotain sopimatonta.Sittemmin tahriutuneen alueen päälle on satanut uutta lunta, mutta koira ei suostu vieläkään menemään puskien juurelle.– Hän haluaa mennä vain puhdistettua polkua pitkin, Särkinen kertoo.Kaliumpermanganaatti peitti noin kolmasosan Särkisen pihasta. Hän on kiinnostunut näkemään, miten aineen jäämät vaikuttavat pihan kasveihin, kun kevät tulee.Juomavedestä Särkinen ei ole huolissaan, sillä talo on kunnan vesi- ja viemäriverkostossa. Alueella ei tiettävästi ole kaivoja.Avaa kuvien katseluKaliumpermanganaatin vesiliuokset ovat purppuransävyisiä, kertoo Pelastuslaitos tiedotteessaan.  Kuva: Asko Valtonen / Etelä-Savon pelastuslaitosPoliisi lähettää näytteen rikostekniseen laboratorioonSe, miten kaliumpermanganaatti päätyi Särkisen ja naapureiden pihoille, on edelleen täysi mysteeri. Asiaa selvittää nyt Itä-Suomen poliisi.Rikoskomisario Markku Kärpäsen mukaan asiaa tutkitaan rikosnimikkeellä ympäristön turmeleminen.Tapauksessa ei ole tällä hetkellä epäiltyjä. Poliisi aikoo lähettää Juvalta otetut näytteet rikostekniseen laboratorioon. Tavoitteena on selvittää, mitä ne sisältävät.– Sen jälkeen pohdimme, mikä laite tai kone tällaista ainetta käyttää, sanoo Kärpänen.Poliisin tiedossa ei ole, että pinkkiä lunta olisi havaittu muualla Suomessa.Voit keskustella aiheesta 2.2.2024 klo 23 saakka.</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>37</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Puuta nakertanut majava teki kohtalokkaan arvioin­ti­virheen – autoliikenne seisahtui Polvijärvellä</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20072584</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Majavan nakertama puu pysäytti liikenteen Polvijärvellä torstaina.Pohjois-Karjalan pelastuslaitos sai iltapäivällä tiedon liikenteen estävästä ison puun kaatumisesta Kaavintiellä. Puuta raivattaessa syylliseksi oli osoittautunut majava.Pelastuslaitos arvelee majavan nakertaneen puusta nälissään ruokaa itselleen.Vanhemman pelastajan Pekka Kontkasen mukaan majavan osuudesta puun kaatumiseen ei voi erehtyä. Eläimen noin puolimetriseen haapaan jättämät jäljet olivat varsin tuoreet.– Ison urakan majava on tehnyt.Tapaus oli pelastuslaitoksellekin uusi.– En muista, että majavan tekosena olisi ollut tällainen liikenne-este, Kontkanen sanoo.Majavien suuntaamat kaadot ovat yleensä Kontkasen mukaan onnistuneita.– Nyt oli vain ilmeisesti yllättänyt puuskittainen tuuli, joka oli kaatanut puun tielle. Tai mistäpä minä tiedän mihin suuntaan majava on yrittänyt puuta kaataa, Kontkanen toteaa.Epäilty tekijä oli pelastuslaitoksen mukaan poistunut paikalta viereistä Saarvonjokea pitkin.</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>38</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Järjes­tyk­sen­val­vojille vankeutta ihmisten pahoin­pi­telyistä juna-asemilla – puolet syytetyistä selvisi ilman rangaistusta</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20072350</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Itä-Uudenmaan käräjäoikeus on antanut tänään keskiviikkona tuomion Avarn Securityn entisten järjestyksenvalvojien pahoinpitelyvyyhdistä.Kaksi päätekijää tuomittiin noin kolmen vuoden ehdottomiin vankeusrangaistuksiin. Kaksi muuta useissa teoissa mukana ollutta miestä tuomittiin ehdolliseen vankeuteen.Neljän muun tuomitun kohdalla osa syytteistä hylättiin. Heidät tuomittiin sakkorangaistuksiin.Seitsemän järjestyksenvalvojan syytteet hylättiin kokonaan. Hylätyt syytteet koskivat pääasiassa perusmuotoisia pahoinpitelyjä.Kaikkiaan viittätoista entistä järjestyksenvalvojaa syytettiin useista pahoinpitelyistä ja virkarikoksista. Käräjäoikeus hylkäsi kaikki virkarikossyytteet.Käräjäoikeuden mukaan yksityisistä turvallisuuspalveluista annetussa laissa ei ole riittävän selkeää viittausta rikoslain virkarikoksia koskeviin säännöksiin. Sen vuoksi rikoslain kohtaa ei voitu soveltaa järjestyksenvalvojiin.Yhden syytetyn järjestyksenvalvojan osalta syytteitä käsitellään myöhemmin. Yksi sakkoihin tuomituista ei ollut järjestyksenvalvoja, vaan hän oli myös uhri. Mies puri järjestyksenvalvojaa tämän käydessä häneen kiinni.Kuuntele, miten aluesyyttäjä Mika Lopmeri kommentoi tuomiota toimittaja Katri Kirsin haastattelussa.Syyttäjä harkitsee Avarn-tuomiosta valittamistaUhrit olivat puolustuskyvyttömiäTeot tapahtuivat pääosin Vantaan ja Helsingin juna-asemien läheisyydessä kevään 2021 ja joulun 2022 välisenä aikana.Väkivallanteot kohdistuivat tuomion mukaan pääsääntöisesti heikommassa asemassa oleviin, kuten päihtyneisiin ja puolustuskyvyttömiin ihmisiin.Uhreja on yli 20. Heistä kaksi oli tapahtumien aikaan alaikäisiä.Syytetyt pääosin kiistivät epäillyt rikokset. Heidän mielestään voimakäyttö oli tilanteissa perusteltua.Lisää: ”Kuin olisi koira, joka lopetetaan”, sanoo uhri – videot näyttävät, millaisesta väkivallasta järjestyksenvalvojia syytetäänTällaisista teoista päätekijät tuomittiinVuonna 1999 syntynyt Olli Robert Havukainen tuomittiin kolmen vuoden ja neljän kuukauden ehdottomaan vankeuteen. Lisäksi kersantin sotilasarvo tuomittiin menetetyksi.Hänen syykseen katsottiin viisi törkeää pahoinpitelyä, useita pahoinpitelyjä, kaksi vapaudenriistoa, väärä ilmianto, laiton uhkaus, huumausainerikos ja vaarallisen esineen hallussapito. Yhden haastehakemuksen syytteet hylättiin.Vuonna 2000 syntynyt Valtteri Juho Räisänen tuomittiin kolmen vuoden ehdottomaan vankeuteen.Hänen syykseen luettiin kolme törkeää pahoinpitelyä, useita pahoinpitelyjä, kaksi vapaudenriistoa, väärä ilmianto, laiton uhkaus ja huumausainerikos. Yhdessä tapauksessa hänen syytteensä hylättiin.Avaa kuvien katseluOsa uhreista jäi tunnistamatta, joten todisteena joistain teoista olivat vain haalarikameran videot.  Kuva: PoliisiVuonna 2001 syntynyt mies tuomittiin yhden vuoden ja kuuden kuukauden ehdolliseen vankeuteen.Hänen rikoksikseen katsottiin törkeä pahoinpitely, avunanto törkeään pahoinpitelyyn, kolme pahoinpitelyä, laiton uhkaus, väärä ilmianto, vapaudenriisto, huumausainerikos.Hänen syytteensä hylättiin kokonaan neljässä asiassa. Myös vaatimus sotilasarvon menettämisestä hylättiin.Lisäksi 21-vuotias mies sai viisi kuukautta ehdollista vankeutta kolmesta pahoinpitelystä, vapaudenriistosta, väärästä ilmiannosta ja huumausainerikoksesta.Tuhansien eurojen korvaukset uhreilleKaikki neljä päätekijää tuomittiin maksamaan juttujen asianomistajille vahingonkorvausta. Vahingonkorvauksen määrä vaihteli tapauksittain muutamasta sadasta eurosta 6 000 euroon.Tapauksen syyttäjät harkitsevat, ilmoittavatko he tyytymättömyyttä tuomioon.– Käräjäoikeuskin toteaa, että lainsäätäjä on tarkoittanut, että rikoslain kohtaa virkarikoksista voidaan soveltaa järjestyksenvalvojiin. Tutkimme, onko tästä syytä lähteä hakemaan ylemmän oikeusasteen ratkaisu, toteaa aluesyyttäjä Mika Lopmeri.Kovimman tuomion saaneen 24-vuotiaan tuomitun asianajajan mukaan he perehtyvät tuomioon ja harkitsevat tyytyvätkö he siihen.Vuonna 2000 syntyneen tuomitun asianajajan mukaan he aikovat ilmoittaa tyytymättömyytensä ja valittaa tuomiosta. Puolustuksen mielestä 23-vuotiaan syyksi katsotut törkeät pahoinpitelyt ovat perusmuotoisia pahoinpitelyjä.Tuomio ei ole lainvoimainen.Neljää miestä voi pitää tapauksen päätekijöinä tekojen määrän ja vakavuuden perusteella. </t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>Yle</t>
@@ -1311,21 +1325,21 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Kuvat kertovat, ettei poliittinen lakko täysin tehonnut</t>
+          <t>Näin Stora Enson pomo perustelee yt-neuvotteluja, joista voi seurata potkut tuhannelle ihmiselle</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072369</t>
+          <t>https://yle.fi/a/74-20072562</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Hallitusta vastustavat poliittiset lakot alkoivat Suomessa keskiviikkona. Tänään torstaina lakot laajenivat, ja muun muassa lentoliikenne tyrehtyi lähes kokonaan.Helsinki-Vantaan lentoasemalta lähti torstaina Finavian mukaan lähes 30 lentoa, muun muassa Istanbuliin, Tukholmaan, Teneriffalle ja Frankfurtiin. Saapuvia lentoja oli noin 40.Normaalisti kentältä lähtee ja sinne saapuu yhden päivän aikana noin 350 lentoa.Yle vieraili lentoasemalla keskiviikkona ja torstaina. Valokuvasimme asemalla samat paikat samaan aikaan.Avaa kuvien katseluTältä näytti Helsinki-Vantaan lentoaseman ala-aulassa keskiviikkona 31. tammikuuta kello 10.08. Asemalla työskentelevien mukaan keskiviikkona asemalla oli jo normaalia hiljaisempaa. Kuva: Silja Viitala / YleAvaa kuvien katseluTorstaina, tasan 24 tuntia myöhemmin, ala-aulassa oli silmämääräisesti saman verran ihmisiä kuin keskiviikkonakin. Kuva: Silja Viitala / YleAvaa kuvien katseluAseman Alepa keskiviikkona kello 10.10. Kuva: Silja Viitala / YleAvaa kuvien katselu... ja vuorokautta myöhemmin. Kuva: Silja Viitala / YleAvaa kuvien katseluPutkiasentajat Kimmo Virolainen ja Joni Koski olivat kahvitauolla keskiviikkona kello 10.19. Mitä mieltä olette lakosta? – Täyden kympin annan, täysin oikeutettua, vastaa Virolainen. Mikä hallituksen toimissa sitten ketuttaa eniten? – Kaikki! [Valtiovarainministeri Riikka] Purra (ps.) sanoi, että meitä ei voi kiristää. No, samat terveiset takaisin, jatkaa Virolainen. – Meitä on enemmän, täydentää Koski ja jatkaa: – Yleislakkoa odotellessa. Kuva: Silja Viitala / YleAvaa kuvien katseluPorvoolainen Jaana Järvinen nautti ystävänsä kanssa kahvilassa aamiaista torstaina kello 10.18. Ystävykset olivat palanneet Suomeen lomamatkalta edellisenä päivänä. Paluuta oli aikaistettu lakon vuoksi. Kuva: Silja Viitala / YleKlikkaa kuvia nähdäksesi ne suurempana.Avaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluReijo Kuivalainen ja Allan Saar olivat keskiviikkona lähdössä viikoksi lomalle Dubaihin. Heidät kuvattiin lähtöaulassa kello 10.28. – Jos lento olisi peruttu, olisi harmittanut, mutta ei haitannut, sanovat molemmat.  – Lakko on oikeutettu, työntekijöiden pitää pitää puoliaan, sanoo Kuivalainen. Kuva: Silja Viitala / YleAvaa kuvien katseluTorstaina kello 10.28 samassa paikassa näytti tältä. Kuva: Silja Viitala / YleYleislakkoa odotellessa.Putkiasentaja Joni KoskiAvaa kuvien katseluAseman tuloaulassa tehtiin kunnostustöitä keskiviikkona kello 10.34. Kuva: Silja Viitala / YleAvaa kuvien katseluTorstaiaamuna samaan aikaan aula oli hiljainen. Kuva: Silja Viitala / YleKlikkaa kuvia nähdäksesi ne suurempana.Avaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAseman ulkopuolella oli muutamia ihmisiä keskiviikkona kello 10.44. Kuva: Silja Viitala / YleAvaa kuvien katseluTulijoita riitti myös torstaina aamupäivällä. Kuva: Silja Viitala / YleIhmiset joutaisivat töihin.Anu PirttijärviAvaa kuvien katseluKärryjä riitti ulkona kaikille halukkaille keskiviikkona kello 10.45. Kuva: Silja Viitala / YleAvaa kuvien katseluJa samoin torstaina, 24 tuntia myöhemmin. Kuva: Silja Viitala / YleAvaa kuvien katselu– Ihmiset joutaisivat töihin, sanoi aulassa keskiviikkona kello 10.49 odotellut Anu Pirttijärvi (punainen takki). Pirttijärvi oli lähdössä äitinsä Riitta-Leena Strengin kanssa lomalle Bangkokiin. – Pakkohan se on näyttää mieltäkin, jos kiristetään. Mutta periaatteessa en kyllä kannata mitään lakkoja tässä taloustilanteessa, Streng lisää. Kuva: Silja Viitala / YleAvaa kuvien katseluTorstaina kello 10.49 paikalla olivat Helsingin ranskalais-suomalaisen koulun kahdeksasluokkalaiset. He olivat saattamassa koulussa vierailulla olleita oppilaita. Kuva: Silja Viitala / YleAvaa kuvien katseluKeskiviikkona kello 10.57 lähtöselvityskoneen vieressä odotti matkalaukku. Kuva: Silja Viitala / YleAvaa kuvien katselu... ja torstaina kello 10.57 paikalla näytti tältä. Kuva: Silja Viitala / YleAvaa kuvien katseluKeskiviikkona kello 11.02 lähtevien lentojen lista oli pitkä. Aulassa kävi tasainen kuhina. Kuva: Silja Viitala / YleAvaa kuvien katseluTasan 24 tuntia myöhemmin lähtevien lentojen lista oli lyhyt. Ranskalais-suomalaisen koulun oppilaat odottelivat aikataulunäytön luona. Kuva: Silja Viitala / Yle</t>
+          <t>Metsäyhtiö Stora Enso kertoo valmistelevansa kannattavuuden parantamisohjelmaa, joka voi johtaa noin tuhannen työntekijän vähentämiseen.Henkilöstövähennykset koskettaisivat konsernin kaikkia toimintoja. Vielä ei ole tiedossa, miten paljon ja mistä yksiköistä työpaikkoja lähtee Suomessa.– Markkinatilanne on edelleen haastava. Näkyvissä on joitakin normalisoitumisen merkkejä, ja me teemme oikeita asioita, koska pystyimme kuitenkin kolmannesta kvartaalista jonkun verran parantamaan tulosta, mutta edelleen ollaan epätyydyttävän alhaisella tasolla, sanoo toimitusjohtaja Hans Sohlström.Yhtiö keskittyy ydintoimintoihin, joita ovat asiakkaiden palveleminen ja tuotteiden tehokas tuottaminen. Joitakin hallinnollisia tehtäviä saattaa jäädä pois. Tavoitteena on 80 miljoonan euron säästöt.– Meidän pitää epävarmassa markkinatilanteessa keskittyä niihin asioihin, mihin me voimme vaikuttaa. Muun muassa kustannustehokkuus on meidän käsissämme.Osinko laskee rajustiMuutosneuvottelut yhtiön eri toimintamaissa käynnistyvät lähiaikoina.Valtaosa suunnitelluista säästöistä voisi toteutua vuonna 2025, mutta merkittävä osa mahdollisista työntekijävähennyksistä tapahtuisi jo vuoden 2024 ensimmäisellä puoliskolla.Ohjelmaan ei ole suunniteltu uusia tuotantolaitosten sulkemisia.Stora Enson loka–joulukuun liikevaihto laski liki neljänneksen ja oli 2,17 miljardia euroa. Operatiivinen liiketulos pieneni 51 miljoonaan euroon vuoden takaisesta 355 miljoonasta.Osinko laskee 0,10 euroon osaketta kohti viime vuonna maksetusta 0,60 eurosta.Viime vuoden lopussa yhtiö sai päätökseen kesäkuussa 2023 käynnistyneen uudelleenjärjestelyohjelman. Sen myötä operatiivinen liiketulos parani 110 miljoonalla eurolla vuodessa ja henkilöstöstä vähennettiin 1 150 työntekijää.Vuonna 2023 liikevaihto oli 9,4 miljardia euroa. Vuotta aiemmin se oli 11,7 miljardia euroa. Yhtiö työllistää noin 21 000 henkilöä.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1339,21 +1353,21 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Isä on pelastanut lapsensa satoja kertoja tukeh­tu­miselta – hyvin­voin­tia­lueen mielestä lapsi ei tarvitse erityistukea</t>
+          <t>Yhä useampi kesätyöpaikka toivoo hakijasta videota – katso vinkit, mitä esitte­ly­videossa kannattaa näyttää</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072315</t>
+          <t>https://yle.fi/a/74-20071287</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Ennen kuin pohjoispohjalaiselle äidille selvisi, että hänellä on kaksi erityislasta, hän kuvitteli tuen saannista hyvinvointivaltiossa toisin. Hän ajatteli, että yhteiskunta rientäisi apuun, jos lasten kanssa tulisi tarvetta.Nyt hänestä tuntuu, että luottamus hyvinvointivaltioon on mennyt, kun kaikesta on saanut taistella: omaishoitajuudesta, omaishoitajan vapaista, lasten tukihenkilöistä, kuntouttavasta päivähoidosta, iltapäivähoidosta.Parhaillaan hän odottaa seuraavaa oikeudenkäyntiä. Aluehallintovirasto ja hallinto-oikeus ovat linjanneet, että perheen nuoremmalle lapselle kuuluu kuntouttava päivähoito, mutta tämä ei riitä hyvinvointialueelle. Se haluaa jatkaa asian käsittelyä vielä korkeimmassa hallinto-oikeudessa ja on hakenut sieltä valituslupaa.Koska prosessissa on kestänyt, kouluikäinen lapsi ei enää ehdi saamaan päivähoitoa. Oikeudenkäynti on muuttunut periaatekysymykseksi.Avaa kuvien katseluPerheen nuorempi lapsi käy erilaisissa terapioissa.  Kuva: Rami Moilanen / YleÄiti on koulutukseltaan erityisopettaja ja isä työskentelee vammaisten parissa. He ovat myös luoneet laajat vertaistukiverkostot ja hankkineet tietoa muun muassa eri järjestöjen kursseilta.– Luulen, että hirveän moni luovuttaa taistelun jo alussa heti ensimmäiseen hylkäyspäätökseen eivätkä he ymmärrä olla kovana ja vaatia oikeuksiaan, isä sanoo.Perheen henkilöllisyys on Ylen tiedossa, mutta lasten yksityisyyden suojelemiseksi heidän nimiään ei kerrota.Tilanteen pelätään pahenevanVastaava kokemus siitä, että palveluja on vaikea saada, on tutkimusten mukaan monilla vammaispalvelujen asiakkailla.Kehitysvammaisten tukiliitto sekä vammaispalveluja tutkinut Lapin yliopiston sosiaalityön yliopistonlehtori Jari Lindh ovat huolissaan siitä, mihin suuntaan tilanne on menossa vuonna 2023 aloittaneiden hyvinvointialueiden aikana. Nyt nimittäin näyttää, ettei ainakaan parempaan.Tukiliiton tuoreen kyselyn perusteella sen alueellisissa vaikuttamisryhmissä ollaan huolissaan palveluiden saatavuudesta, riittävyydestä ja jatkuvuudesta. Esimerkiksi lapsiperheiden palveluista oli huolissaan yli puolet vastaajista.Tukiliiton huolena on, että hyvinvointialueiden säästöpaine ajaa ne karsimaan kaikki palvelut minimiin. Silloin asiakkaan yksilöllisiä tarpeita ei huomioida riittävästi, vaan etsitään pienintä mahdollista panosta palvelun järjestäjän näkökulmasta.Myös Lindhin mukaan riskinä on, että vammaiset joutuvat hakemaan oikeuksiaan esimerkiksi valitusten, kanteluiden ja oikeustapausten kautta. Se eriarvoistaa. Kaikilla ei ole samalla tavalla osaamista, jaksamista tai kykyä edes hakea palveluita, saati valittaa päätöksistä tai käydä oikeutta.Hyvinvointialueet säästävät ja yhtenäistävätYle kysyi kaikilta hyvinvointialueilta, millaisia muutoksia ne ovat tehneet esimerkiksi kehitysvammaisten palveluihin. Vastauksissa nousi esiin toistuva sana: yhtenäistäminen. Ennen samoja palveluita järjestivät lukuisat kunnat, ja käytännöt ja hinnastot vaihtelivat.Vaikka tasa-arvo lisääntyy, yksittäisille ihmisille muutokset voivat olla isoja. Esimerkiksi Siun soten alueella kehitysvammaisten päivä- ja työtoiminnan ja asumispalvelujen ruokamaksuista osa on noussut yli 50 prosenttia kahtena vuonna peräkkäin.Pohjois-Pohjanmaan hyvinvointialueen Pohteen vammaispalvelujen palvelualuejohtaja Marja Salo sanoo, että alueen kunnissa on myönnetty myös palveluita, joita laki ei vaadi. Hänen mukaansa niitä on karsittu ennen kaikkea yhdenvertaisuuden takia, ei niinkään säästöjen.Kehitysvammapalveluissa on paljon lakisääteisiä palveluita, joita ei voi evätä keneltäkään säästöihin vedoten, vaan ne on pakko järjestää, Salo toteaa. Perheen tai hoitavien tahojen mielipidettä kuunnellaan, mutta lopulta laki määrittelee, syntyykö oikeutta palveluun vai ei, hän sanoo.Kehitysvammaisten tukiliitto näkee hyvinvointialueiden yhtenäistämisen ja joustamattomat palvelukriteerit riskialttiina. Samoin ajattelee Lindh.– Vammaispalveluissa lähtökohtana ovat asiakkaan yksilölliset tarpeet, joihin palvelujärjestelmien pitäisi vastata.Pohteen alueella yksi esimerkki palvelujen muutoksesta on esimerkiksi kehitysvammaisille suunnatun iltapäivätoiminnan muuttuminen. Hyvinvointialue on tulkinnut, että kehitysvammaiset ja erityislapset voivat lähtökohtaisesti olla muiden mukana perusopetuslain mukaisessa maksullisessa iltapäivätoiminnassa.Vastaavia suunnitelmia on ainakin Lapissa ja Päijät-Hämeessä. Tukiliitto on jyrkästi laintulkintaa vastaan. Se muistuttaa, että etenkin vanhemmilla lapsilla palvelun tarve perustuu vammaisuuteen ja jatkuu muita lapsia pidempään, jolloin tuen pitäisi olla maksutonta.Videolla Pohteen palvelupäällikkö kertoo näkemyksensä siitä, miksi osa asiakkaista on ollut tyytymättömiä.Marja Salon mukaan iltapäivätoiminnan muutoksesta on tullut paljon palautetta. Video: Paulus Markkula / Yle, Anna Polo / YleOikeudessa väännetään siitä, voiko palveluita tarjota vain määräajaksiPohjoispohjalaisessa perheessä taistelua aiotaan jatkaa, vaikka voimat ovat jo vähissä.Oikeustapauksessa on kyse siitä, onko nuoremmalla lapsella sellainen kehityshäiriö, että erityishuolto-ohjelmaan olisi oikeus, sekä siitä, onko kehityksessä tapahtunut muutosta, jonka perusteella aikaisemmin tarjottuja palveluita voi lakkauttaa. Hyvinvointialueen mukaan vastaavissa tapauksissa päätöksiä voi tehdä määräaikaisina, kuten alun perin lapselle tehtiin. Hallinto-oikeuden mukaan se oli vastoin hallintolakia.Hyvinvointialue on hakenut valituslupaa KHO:sta. Sen ratkaisulla on merkitystä sille, voidaanko lasten kohdalla tehdä päätöksiä määräaikaisina kuten Pohde toivoo.Perheen mielestä on raskasta joutua jatkuvasti perustelemaan, miksi he tarvitsevat apua: mitä lapsi ei osaa ja missä asioissa hän ei ole tarpeeksi kehittynyt.Arki on muutenkin kuormittavaa: isä kertoo muun muassa pelastaneensa nuoremman lapsen satoja kertoja tukehtumiselta, koska tällä on synnynnäisiä vaikeuksia syömisessä. Kahdella erityislapsella riittää virtaa.Avaa kuvien katseluNuorempi lapsi pureskelee paitansa rikki usein jo päivässä. Perhe on hakenut mutta ei ole saanut vaaterahaa. Kuva: Rami Moilanen / Yle– Me elämme tätä arkea ja sitten meille lyödään päälle oikeusjutut. Meillä ei ole vastaavaa luksusta (kuin virkahenkilöillä) kuin vapaapäivät ja lomat. Kuinka helkkarin uuvuttavaa se on. Ja vielä moneen kertaan ja vielä kahdesta lapsesta.</t>
+          <t>Kesätyöhaku käy juuri nyt kuumimmillaan. Nykyään moni työnantaja pyytää hakijalta myös esittelyvideota.Kysyimme eri yrityksiltä, mikä merkitys videolla on työpaikan saamisessa ja voiko sen avulla parantaa asemaansa rekrytoinnissa.Tavarataloketju Motonetin henkilöstöjohtaja Mira Prinz kertoo, että heillä esittelyvideo pyydetään, sillä se on heidän kokemuksensa mukaan monelle nuorelle hyvin luonteva tapa ilmaista itseään.– Jokainen saa loistaa omalla tavallaan. Toki huomioimme, että videon tekeminen voi olla myös epämiellyttävää. Emme pudota ketään pois hakuprosessista pelkän videon perusteella, Prinz kommentoi.Avaa kuvien katseluMotonetin Mira Prinzin mukaan video usein syventää hakijan persoonaa. ”Siinä voi tulla esille myös jotakin sellaista, mitä ei varsinaiseen hakulomakkeeseen ole huomannut laittaa tai me emme ole huomanneet kysyä.” Kuvituskuva. Kuva: Juuso Stoor / YlePersoona ja asenne esiinTavarataloketju Tokmannilta kerrotaan videohakemusten määrän kasvaneen selvästi. Heille hakiessa videon tekeminen ei ole pakollista, mutta sitä kannattaa harkita.Video ei kuitenkaan aseta hakijoita eri viivalle, vaan se on hyvä mahdollisuus tuoda esiin eri tavalla omaa persoonaa, motivaatiota ja asennetta.– Sisältö ratkaisee, ei niinkään sisällön tiedostomuoto, kertoo Tokmannin HR-asiantuntija Jasmin Rinne sähköpostitse.Avaa kuvien katseluKaikki eivät ole luontaisia esiintyjiä. Tämän ymmärtävät myös työnantajat. ”Jännittäminenkin on ok, jos asenne ja motivaatio on kunnossa”, sanoo Tokmannin Jasmin Rinne. Kuvituskuva. Kuva: Tiina Jutila / YleLinnanmäen huvipuiston henkilöstöjohtaja Mirva Mölsä kertoo, että esittelyvideo on merkityksellinen lisä hakuprosessissa niin työnhakijalle kuin rekrytoijallekin.– Video voi auttaa välittämään asiakaspalveluosaamista ja positiivista asennetta. Myös kielitaidon voi esitellä videolla.Mölsä pitää esittelyvideon vahvuutena myös sitä, että siinä hakija saa kertoa itsestään haluamallaan tavalla ja haluamassaan järjestyksessä. Persoonallinen ote ja toteutus huomataan.Vaikka toteutustapa on vapaa, yhden vinkin Mölsä kuitenkin antaa.– Video kannattaa tehdä rauhallisessa paikassa, jotta itse esittely tulee selkeästi esille.Avaa kuvien katseluLinnanmäen huvipuistoon hakevien kannattaa harkita videohakemuksen tekemistä. ”Se voi tuoda hyvän loppusilauksen hakemukseen ja täydentää kirjallista hakemusta”, sanoo Linnanmäen henkilöstöjohtaja Mirva Mölsä. Kuvituskuva vuodelta 2020. Kuva: Matti Myller / Yle Hakuprosessissa kokonaisuus ratkaiseeS-ryhmän rekrytoinnista vastaava päällikkö Annina Hyvönen kertoo sähköpostitse, että muutamissa osuuskaupoissa on käytössä videoesittely.Pääsääntöisesti haku kuitenkin tapahtuu netin kautta perinteisellä hakemuksella ja CV:llä, eli ansioluettelolla. Hyvönen pitää tätä tärkeänä osana hakemusta.– Kesätyö on usein nuorelle ensimmäinen työpaikka, mihin CV:n tarvitsee. Sen tekeminen osaltaan kartuttaa nuoren työelämätaitoja, kun sen yhteydessä tulee listattua, mitä kaikkea on tehnyt ja mitä vahvuuksia löytyy.Avaa kuvien katseluIkea Suomen rekrytointipäällikkö Anna-Maija Korko arvioi, että noin viidessä prosentissa hakemuksia on mukana video. ”Kannattaa tehdä hakemus siinä muodossa, joka itselle tuntuu luontevimmalle.” Kuva: Yle KuvapalveluJos kirjallinen ilmaisu ontuu, voiko hyvällä videolla pelata itselleen kesätyöpaikan?Kaikki kyselyyn vastanneet työnantajat painottavat, että hakuprosessissa kokonaisuus ratkaisee. Erinomainen video ei välttämättä pelasta, jos kokonaisuus ei ole kunnossa.– Mutta sen avulla voi löytyä joku potentiaalinen kultajyvä, joka ehkä muuten jäisi huomaamatta, sanoo Motonetin henkilöstöjohtaja Mira Prinz.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1367,21 +1381,21 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4 000-vuotias hirven­pää­kirves hämmästyttää tutkijaa – Kuusamosta löytynyt esine kertoo varsin kehittyneestä kulttuurista</t>
+          <t>Valtava määrä musiikkia katosi Tiktokista – Mikael Gabriel: ”Koko katalogini 17 vuoden ajalta on hävinnyt”</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072459</t>
+          <t>https://yle.fi/a/74-20072531</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Kuusamosta viime vuoden toukokuussa löydetty kivikautinen hirvenpääkirves on mitä todennäköisimmin tehty Kuusamon seudulla yli 4 000 vuotta sitten.Museoviraston amanuenssi Sami Raninen kertoo, että kirves on GTK:n tutkimusten mukaan kvartsiittia. Sitä esiintyy Kuusamon seudulla. Alkuperäinen oletus oli, että kirves olisi ollut samaa kivilajia kuin Säkkijärveltä 1900-luvun alussa löydetty metatuffiittinen kirves.Ranisen mukaan kirves osoittaa, että Kuusamossa eli yli 4 000 vuotta sitten hyvin taitavia kiven työstäjiä. Kvartsiitti on kova kivilaji, jonka työstäminen ei ole helppoa.– Se kertoo kivikauden ihmisen hämmästyttävistä kädentaidoista ja esteettisestä silmästä. Ja laajemmin siitä, että kulttuuri on ollut sellainen, että on ollut kiinnostusta näyttäviä esineitä kohtaan, Raninen kuvaa.– Esine on vaikuttava, sitä voi pitää taideteoksena.Voit tutkia hirvenpääveistosta Oulun Tietomaan 3D-mallinnuksesta.Avaa kuvien katseluKuusamon hirvenpää on rituaali- tai statusesineenä käytetyn kivikirveen hamarapuoli. Kuva: Museovirasto / Matti Kilponen, HelsinkiRanisen mukaan sinänsä ei ole yllättävää, että Pohjois-Suomessa on ollut varsin kehittynyt yhteiskunta jo 4 000 vuotta sitten.– Tällainen ajattelutapa, että pohjoinen olisi ollut periferiaa ja kaikki näyttävä olisi Etelä-Suomesta, ei esihistorian tutkimuksessa päde lainkaan.Kuuntele, kuinka kirveen löytänyt Raimo Virpi kertoi löytämästään kivikautisesta hirvenpääkirveestä viime kesänä.Raimo Virpi kertoo löytämästään kivikautisesta hirvenpääkirveestä</t>
+          <t>Yksi maailman suurimmista levy-yhtiöstä, Universal Music lopetti yhteistyönsä Tiktokin kanssa eilen keskiviikkona. Siksi Universalin artistien musiikki katosi sosiaalisen median palvelusta torstaina.Mikael Gabriel on yksi levy-yhtiön suomalaisartisteista.– Tänä aamuna huomasin, että koko mun katalogi viimeisen 17 vuoden ajalta on hävinnyt Tiktokista, ja niin myös kaikkien muiden Universalin artistien biisit.Hän kuvaa Ylelle tunnelmiaan näin:– Aika negatiiviset fiilikset.Universal Music kertoi päätöksestään artisteille ja musiikin tekijöille nettisivuillaan julkaisemassaan avoimessa kirjeessä.Levy-yhtiö ei ole tyytyväinen Tiktokilta saamiensa korvausten suuruuteen.Universal Musicin mielestä Tiktokin korvaus musiikin käytöstä ei ole samalla tasolla kuin mitä muut sosiaalisen median palvelut sille tilittävät.Kiinalaisen ByteDance-yhtiön omistaman Tiktokin mukaan Universalin väitteet ovat vääriä.Mikael Gabriel: ”Artistit sivutulen alla”Muusikkojen liiton puheenjohtaja Ahti Vänttiselle Universalin ilmoitus vetää miljoonia kappaleita pois Tiktokista ei tullut yllätyksenä.– Näista asioista on aika paljon puhuttu ja tämä on Universalin reaktio tilanteeseen.– Levy-yhtiöllä on oikeus totta kai toimia noin. Universalin osalta kyse on ensisijaisesti rahasta, Vänttinen toteaa.Mikael Gabrielin mielestä artistit ovat jääneet sivustaseuraajiksi, kun kukaan ei ole neuvotellut päätöksestä heidän kanssaan.– Tuntuu, että tässä on tilanne, jossa kaksi isoa tahoa on vastakkain, ja me artistit ja työntekijät joudumme sivutulen alle. Nyt on kyse aivan jostain muusta kuin että artisteille ei makseta tarpeeksi.Avaa kuvien katseluUniversalin sopimus sosiaalisen median palvelu Tiktokin kanssa päättyi tammikuun viimeinen päivä. Kuva: Getty ImagesTiktokilla valtava promootioarvoHollantilais-amerikkalaisella Universalilla on ollut Tiktokissa miljoonia musiikkikappaleita.– Taiteilijoiden kannalta suurin vaikutus ei ole taloudellinen, vaan välillinen ja liittyy promootioarvoon, joka Tiktok-alustalla on, Ahti Vänttinen sanoo.Samaa sanoo Mikael Gabriel.– Tiktok on meille artisteille isoin alusta promota musiikkia. Sen arvoa on vaikea mitata rahassa.Muusikkojen liitossa on vajaa 4 000 jäsentä. Liiton puheenjohtaja Ahti Vänttisen mukaan muusikot eivät ole olleet häneen vielä asiasta yhteydessä.– Onhan se ikävää, jos musiikki ei näy jatkossa Tiktokissa. Joissain mielessä ymmärrän, että jos sopimukseen ei päästä, tuollainen tulos siitä voi tulla.Vaihtavatko artistit levy-yhtiötä?Mikael Gabrielin mukaan artistit saattavat harkita Universal Musicin päätöksen takia levy-yhtiön vaihtamista.– Jos homma jatkuu pitkään näin, ei artisti halua Universalille tulla, koska heillä ei ole tarjota artistille Tiktok-alustaa. He tekevät diilejä Sonyn ja Warnerin kanssa tai independenttinä [itsenäisinä], jotta pääsevät Tiktokiin.Päätöksellä on myös muita seurauksia. Se voi jatkossa vaikuttaa myös artistin ja yhteistyökumppaneiden välisiin sopimuksiin.– Varmasti vaikuttaa siihen, että haluaako yhteistyökumppanit tehdä musiikkia artistin kanssa, jonka musiikkia ei löydy isommalta platformilta.Avaa kuvien katseluUuden musiikin kilpailun osallistujat ytheiskuvassa. Vasemmalla Mikael Gabriel ja Nublu. Kuva: Yle / Miikka VarilaUMK:n kannalta huono ajoitusMikael Gabrielin mukaan levy-yhtiön päätös tuli erittäin huonoon aikaan.Hän osallistuu parhaillaan Uuden musiikin kilpailuun yhdessä virolaisartisti Nublun kanssa.Universalin poistuminen Tiktokista tarkoittaa, ettei heidän kilpailukappale Vox Populista tehtyjä videoita nähdä siellä.– Ajankohta on todella ikävä, koska tässä on UMK isosti käynnissä. Vox Populiin tehdään videoita, ja siinä on hyvä ilmiöitys menossa. Kun video vedetään isoimmalta alustalta alas, se on aika iso etulyöntiasema muille kilpailijoille.Mikael Gabrielin kritiikki ei kohdistu oman levy-yhtiön toimintaan Suomessa.– Kaikki info tulee Amerikasta, eikä Suomen Universal voi siihen vaikuttaa. Se on pelkästään sen tiedon varassa, joka tulee pääkonttorilta.Mikael Gabriel toivoo, että levy-yhtiö ja Tiktok pääsisivät asiassa pikaisesti sopuun.– Tämähän on neuvottelukysymys ja varmasti aika pienistä nyansseista kiinni.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1395,21 +1409,21 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Erosor­muksista ei aina luovuta – asiantuntijan mukaan katkeria tuntemuksia saatetaan vaalia maso­kis­tisesti</t>
+          <t>Miksi nyt oikein lakkoillaan? Lue tästä, miten Suomi muuttuu ja miksi se ei käy kaikille</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20067812</t>
+          <t>https://yle.fi/a/74-20072498</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Kunnes kuolema meidät erottaa.Tilastot kuitenkin osoittavat, että Suomessa puolet avioliitoista päättyy kuoleman sijasta avioeroon.Kumppanuuden ja ikuisen liiton symboli, vihkisormus, voi eron jälkeen olla muisto kauniista ajoista tai karvas vertauskuva pettymykselle ja sirpaloituneille unelmille.– Esineisiin varastoituu muistia, vihkisormukseen erityisesti tunnemuistia, kertoo psykoterapeutti Marja Saarenheimo.Avaa kuvien katseluPsykoterapeutti Marja Saarenheimo on tutkinut ihmisen suhdetta esineisiin. Kuva: Jari Pussinen / YleAjan saatossa moni sormus unohtuu piirongin perälle, mutta säilytyspäätös voi olla myös aktiivista sorttia.– Jos ero on ollut sopuisa, voi haluta säilyttää sormuksen, koska siihen liittyy hyviä muistoja, Saarenheimo toteaa.Katkeran eron myötä sormus latautuu negatiivisilla tunteilla, mutta sekään ei automaattisesti ole syy hankkiutua siitä eroon.Saarenheimon mukaan jotkut haluavat kaikesta huolimatta pitää sormuksesta kiinni ja masokistisesti vaalia katkeria tuntemuksiaan.– Me ihmiset ollaan tällaisia. Ei me välttämättä haluta luopua jostain, joka herättää meissä paljon negatiivisia tunteita, vaan me ryvetään siinä.Moni vihkisormus päätyy panttilainaamoon tai romukullaksi.Erosormuksia kiikutetaan myös panttilainaamoihin, kertoo Helsingin Pantin konttorinjohtaja Roope Sipilä.– Kyllä niitä useita tulee ihan päivittäin.Myös koruseppä Tom Antell kertoo ostavansa vihkisormuksia asiakkailtaan.Sormuksen myyminen voi olla kylmän laskelmoitu vihanpurkaus, psykoterapeutti Marja Saarenheimo arvioi.– Ainakin siitä saa rahaa, vaikka mitään muuta ei jäisikään.Paljonko?Panttilainaamo maksaa sormuksista oman arvionsa mukaan, koruseppä Tom Antell jalometallin markkina-arvon perusteella. Jalokivistä maksetaan erikseen.Helsingin Pantin Roope Sipilä arvioi heille saapuvien sormusten keskiarvoksi 150–500 euroa. Antell kertoo, että hänen ostamissa sormuksissa liikutaan 1000–1500 euron haitarissa.Silloin tällöin myytäväksi tuodaan myös poikkeuksellisen arvokkaita erosormuksia.– Joskus sanotaan suoraan, että ero tuli, toteaa kultaseppä Tom Antell.Jokainen sormus kantaa tarinaaVihkisormus on enemmän kuin pelkkä esine.Sillä on paitsi valtava vaikutus identiteettiin, se on myös muistojen tallentaja ja tarinoiden kantaja.Toisinaan ihmisillä on tarve jakaa oman erosormuksensa tarina.– Kaikkiin koruihin liittyy tunnetiloja. Joskus ne on positiivisia, joskus ei niin positiivisia, mutta kyllä niitä meille välillä kerrotaan, toteaa Roope Sipilä Helsingin Pantista.Kultaseppä Tom Antell vahvistaa, että osa ihmisistä haluaa kertoa myyntipäätöksen taustat.– Joskus sanotaan suoraan, että ero tuli.Tapa, jolla sormuksesta luovutaan, voi kuvastaa luopujan persoonallisuutta.Luopuminen voi olla myös rituaaliTemperamenttiselle ihmiselle myyminen ei välttämättä tuo riittävää tyydytystä. Silloin sormuksen voi tuhota tai hävittää rituaalinomaisesti.– Kiivasluontoinen ihminen saattaa haluta päästä sormuksesta eroon hyvin dramaattisella tavalla, vaikka heittämällä sen järveen. Se on myymistä impulsiivisempi teko ja kuvastaa luopujan persoonallisuutta, psykoterapeutti Marja Saarenheimo toteaa.Järveäkin dramaattisempi vesistö löytyy lähes jokaisesta kodista.Helsingin seudun ympäristöpalveluista vahvistetaan, että jotkut hävittävät sormuksen wc-pönttöön.– Kyllä on tullut puhelinsoitto tai ehkä jokunen. On ollut riitaa henkilöiden välillä, sitten on sormus heitetty vessanpönttöön ja seuraavana päivänä on harmittanut, kertoo HSY:n tuotantopäällikkö Marina Graan.Viikinmäen jätevedenpuhdistamon ”leluhyllyyn” on kerätty jäteveden seasta paitsi purukalustoa......myös peräkalustoa.Jäteveden seasta löytyy kaikenlaista pikkutavaraa kännyköistä tekohampaisiin ja lasten leluista aikuisten leluihin, joista osa on päätynyt Viikinmäen jätevedenpuhdistamon vitriiniin näytille.Sormuksia jäteveden seasta ei ole löytynyt.– Meillähän on isot viemäritunnelit. Ne on monta metriä leveät, niin niihin johonkin rakosiin on varmaan jäänyt. Tai sitten sormus on päätynyt tämän trasselimönjän joukkoon, ja sitten se menee tuonne voimalaitokselle polttoon, Graan avaa.Katso Puoli seiskan tv-juttu erosormusten erilaisista kohtaloista.</t>
+          <t>Miksi työntekijät muun muassa päiväkodeissa, ruokakaupoissa, teollisuudessa ja kuljetusalalla ovat nyt lakossa?Työntekijöitä edustavat ammattiliitot ovat päättäneet poliittisista lakoista ja ulosmarsseista, koska ne vastustavat hallituksen työelämää koskevia muutoksia ja leikkauksia sosiaaliturvaan.Liitot toivovat hallituksen neuvottelevan muutoksista työntekijöitä ja työnantajia edustavien tahojen kanssa. Kaikki ammattiliitot eivät vastusta kaikkia suunniteltuja muutoksia.Lakko-oikeus ja irtisanominenHallitus haluaa rajoittaa juuri nyt käsillä olevia poliittisia lakkoja ja tukilakkoja. Poliittinen lakko voisi kestää korkeintaan yhden vuorokauden. Tukilakon pitäisi olla ”kohtuullinen suhteessa tavoitteisiin” ja se voisi kohdistua vain työriidan osapuoliin.Laittomaan lakkoon osallistumisesta voisi jatkossa tulla työntekijälle 200 euron sakko. Liiton lakkosakon ylärajaa nostettaisiin 150 000 euroon.Työntekijän irtisanomista, määräaikaisten työsopimusten käyttöä ja paikallista sopimista eli työehdoista sopimista esimerkiksi yritys- tai toimipistekohtaisesti halutaan helpottaa.Sairausajan palkkaLainsäädäntöä halutaan muuttaa niin, että sairausloman ensimmäiseltä päivältä ei tarvitsisi maksaa palkkaa.TyöttömyysturvaTyöttömyysturvaan ja muuhun sosiaaliturvaan on suunnitteilla useita muutoksia, jotka ovat ammattiliittojen mukaan rajuja ja kohdistuvat jo ennestään pienituloisiin. Osan arvioidaan kannustavan osa-aikatöitä tekeviä siirtyvän kokonaan työttömäksi.Osa hallituksen työttömyysturvaan suunnittelemista muutoksista on jo tullut voimaan, kuten työttömyysturvan omavastuuajan pidennys ja lomakorvausten jaksotus. Nämä muutokset pidentävät aikaa, jolta työttömäksi jäänyt ei saa työttömyyskorvausta.Lisäksi työttömyysturvasta poistetaan lapsikorotus ja niin sanottu 300 euron suojaosa, mikä tarkoittaa summaa, jonka on voinut ansaita ilman, että työttömyyskorvaus pienenee.Työttömyysturvaa kutistetaan myös pidentämällä työssäoloehtoa ja muuttamalla sen laskentatapa tuloperusteiseksi. Ansiosidonnaista työttömyysturvaa porrastetaan niin, korvaussumma laskee, kun työttömyyttä on kestänyt pidempään.Katso Ylen laskurista, miten ansiosidonnainen työttömyysturva muuttuu eri tulotasoillaLisäksi hallitus aikoo lakkauttaa vuorotteluvapaan ja aikuiskoulutustuen.Useita Kelan maksamia etuuksia, kuten työmarkkinatukea, ansiosidonnaista työttömyysturvaa, vanhempainpäivärahaa, opintorahaa ja osaa asumistuista on päätetty jättää nostamatta vuoteen 2027 saakka.Kun etuuksia ei koroteta, niiden ostovoima laskee inflaation eli yleisen hintojen nousun takia.AsumistukiAsumistukea pienennetään muun muassa korottamalla omavastuuta, alentamalla korvaustasoa sekä poistamalla 300 euron ansiotulovähennys.Lisäksi helsinkiläisten asumistukea heikennetään laskemalla asumiskustannusten enimmäismäärää muun pääkaupunkiseudun tasolle. Omistusasujat menettävät asumistuen kokonaan.Ammattiliittojen mukaan asumistuen leikkaukset lisäävät köyhyyttä ja iskevät erityisesti pienipalkkaisiin työntekijöihin.Laskuri näyttää, paljonko asumistuki putoaa – opiskelijalle ja asunnonomistajalle tulos on karuPalkatHallitus valmistelee niin sanottua vientimallia, joka sitoisi lainsäädännöllä muiden kuin vientialojen palkankorotukset enintään vientialojen korotusten tasolle.Käytännössä mallissa esimerkiksi hoitajien palkankorotukset eivät voisi ylittää vientialoilla työskentelevien työntekijöiden palkankorotuksia. Liittojen mukaan tämä voisi jättää osan aloista palkkakuoppaan.Mikä ihmeen poliittinen lakko ja miksi se saa toiset näkemään punaista?Yle Uutispodcast: Mikä ihmeen poliittinen lakko ja miksi se saa toiset näkemään punaista?Kolmiottelussa lakkokenraalit ja Helle: Kenen kanta voittaa?Politiikkaradio: Ay-liike aloittaa laajat lakot, jotta hallitus perääntyisi aikeistaan. Ovatko uhattuina naisten palkankorotukset vai Suomen talous? Kuka taipuu? Mitä pitäisi ajatella työmarkkinapomojen ristiriitaisista tavoitteista? Studiossa Tehyn puheenjohtaja Millariikka Rytkönen ja AKT:n Ismo Kokko, joista ensimmäinen sulkee päiväkoteja ja toinen satamia. Työnantajia edustaa Teknologiateollisuuden varatoimitusjohtaja Minna Helle. Toimittajana on Antti Pilke. Voit keskustella aiheesta 2.2. klo 23 saakka.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1423,25 +1437,136 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Juha Kauppisen kolumni: Jos luontokato on vakava asia, miksi eliitti keskustelee siitä vain ylätasolla?</t>
+          <t>Entistä poliisia epäillään vakavista rikoksista Helsingissä – polii­si­päällikkö: ”Tieto järkyttänyt myös minua”</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20070391</t>
+          <t>https://yle.fi/a/74-20072563</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>KolumniKolumneja kirjoittaa laaja joukko Ylen ulkopuolisia tekijöitä.Lue kolumneja
-Kuuntele kolumneja Yle AreenassaOsallistuin äskettäin finanssialan luontohuippukokoukseen Helsingissä. Oli hienoa kuulla eliitin puhuvan luonnon puolesta.Pääministeri Petteri Orpo (kok.) avasi tilaisuuden. Yhdysvaltalaisen jättipankki JPMorgan Chasen asiantuntijan johdolla todettiin, että luontokato on vakava uhka taloudelle. Asian kiteyttivät kokouksen jälkeen Helsingin Sanomien vieraskynäkirjoituksessa finanssialan ja elinkeinoelämän nokkamiehet: ”Taloutemme on täysin riippuvainen luonnosta.”Luonnon tuhlaamista pitäisi suitsia. Ekosysteemien hävittämisen pitäisi olla niin kallista, että siitä tulisi kannattamatonta. Mutta mikä on luonnon tuhlaamista? Kunnolliset mittarit puuttuvat, kokouksessa todettiin.Tämä on osin totta. Ilmaston kuumenemisen ongelma on paperilla helpompi: tiedetään tarkkaan, paljonko päästöjä pitää leikata, jotta pysytään alle 1,5 asteessa. Luonnon näivettämiselle tällaista yhtä lukua ei ole. Mittareita toki on, jos niitä haluaa lukea.Luontokato on paikallinen ilmiö. Se on ratkaistava siellä, missä se aiheutetaan. Luontokato, monimuotoisuuden katoaminen, aiheutuu globaalisti pääosin ekosysteemien raivaamisesta ja luonnonvarojen intensiivisestä käytöstä, kertovat YK, kansainvälinen Luontopaneeli ja vertaisarvioidut tutkimukset.Luontokato on paikallinen ilmiö. Se on ratkaistava siellä, missä se aiheutetaan. Suomi on metsien maa. Täällä merkittävä osa luontokadosta tapahtuu metsissä isoin hakkuin.Puolet Suomen maapinta-alasta on metsiä, lajistosta puolet metsälajeja. Eniten lajien uhanalaisuutta on synnyttänyt avohakkuumetsätalous muokkaamalla metsiä. Tämä on heikentänyt metsäekosysteemien toimintaa.Ekosysteemit kierrättävät ravinteita, varastoivat hiiltä ja puhdistavat vettä. Niiden toiminta perustuu lajien vuorovaikutussuhteille. Monimuotoinen ekosysteemi toimii tehokkaasti. Suuri määrä vuorovaikutussuhteita tuo vakautta. Rikkaat ekosysteemit syntyvät usein hitaasti.Istutusmetsät ovat köyhdytettyjä, heikennettyjä ekosysteemejä, epävakaampia kuin luonnonmetsät. Istutusmetsästä puuttuu luonnonmetsän olemus, esimerkiksi eri-ikäisten elävien ja kuolleiden puiden jatkumo, puuston keskeinen piirre. Sen myötä puuttuu suuri joukko muita lajeja. Istutusmetsät ovat köyhdytettyjä, heikennettyjä ekosysteemejä, epävakaampia kuin luonnonmetsät. Elämämme niiden katveessa on epävarmempaa.Paitsi meidän ”kotiekosysteemimme”, Suomen metsät ovat tulonlähde sadoilletuhansille metsänomistajille ja osa kansantaloutta.Siksi syntyy kiistoja. Suojelu törmää talouteen. Leivotaan kompromisseja. Tappiolle jää se, joka ei osaa puhua: luonto. Metsäekosysteemien heikkeneminen jatkuu.Yksityismetsissä koko luontokadon katkaisemisen työkalu on eräänlainen kompromissi: omistajat tarjoavat metsiä METSO-ohjelmaan, jos huvittaa. Ei siis suojella ekologisesti arvokkaimpia metsiä ja korvata niitä metsänomistajille, vaan suojelu on vapaaehtoista.Siksi METSO:lla on kyllä hyvä maine, mutta iso tavoite, metsälajiston ja luontotyyppien taantumisen katkaiseminen, ei ole lähelläkään toteutumista. Ohjelma tarvitsisi lisärahaa, mutta rahoitusta leikataan.Valtion metsissä luontokadon katkaiseminen on asemasotaa. Nyt, kun vanhat metsät pitää suojella EU:n biodiversiteettistrategian myötä, laaditaan kriteereitä sille, mikä on vanha metsä.Arviointityöhön osallistuva Suomen ympäristökeskuksen biologi kertoi äskettäin Helsingin Sanomissa poliittisen paineen olevan ”yllättävän kova”. ”Tietyt tahot” haluavat kriteereistä mahdollisimman tiukat.Nurin päätyisi metsiä, joissa on vielä rikas metsäekosysteemi.Näin mahdollisimman suuri osa metsistä määriteltäisiin joksikin muuksi kuin vanhoiksi ja ne voitaisiin hakata. Nurin päätyisi metsiä, joissa on vielä rikas metsäekosysteemi.Luontokato jatkuisi.Ei ole yhdentekevää, mitä talouseliitti sanoo luonnosta. Eliitti vaikuttaa siihen, kuinka tärkeänä luonto nähdään.Asioita on monenlaisia. Liikuntaa pitää harrastaa ja vihanneksia syödä. Nämä ovat suosituksia. Orjatyövoimaa ei saa käyttää, eikä ketään murhata. Nämä ovat määräyksiä.Mihin luontokadon katkaiseminen asettuu? Suositeltavaa vai välttämätöntä?”Taloutemme on täysin riippuvainen luonnosta”, kirjoittivat talousmiehet.Kuulostaa tärkeältä. Ja hyvä, että luontokadon katkaisemista vaaditaan ylätasolla. Mutta se ei riitä. Tarvitaan konkretiaa, esimerkiksi painokasta puhetta metsien suojelun tärkeydestä. Se olisi luontevaa, kun kerran luontokato on vakava uhka.Valta on koko ajan kaikkialla. Keskustelukenttä on auki! Jos vaikka joku haluaisi vaikuttaa historian kulkuun. Valta on koko ajan kaikkialla. Konttoreissa on ihmisiä, jotka etsivät rohkeutta tehdä kirjauksia, joilla luontokato katkaistaisiin. He arvostaisivat tukeasi.Juha KauppinenKirjoittaja on kirjailija ja biologi.</t>
+          <t>Helsingin poliisilaitoksesta irtisanoutunutta poliisia epäillään vakavista rikoksista.Iltalehden mukaan poliisia epäillään lukuisista seksuaalirikoksista, muun muassa törkeästä lapsen seksuaalisesta hyväksikäytöstä. Lehden tietojen mukaan uhreja on kuusi.Poliisin torstaina lähettämän tiedotteen mukaan epäilty henkilö irtisanoutui Helsingin poliisilaitokselta ennen virkamiesoikeudellisen menettelyn alkamista.Syyttäjä johtaa poliisien tekemiksi epäiltyjen rikosten esitutkintaa ja vastaa myös tiedottamisesta.Helsingin poliisilaitos ei vahvista epäillyn nimeä tai tarkempia tietoja käynnissä olevan esitutkinnan takia.– Tieto nyt epäiltyjen rikosten vakavuudesta on järkyttänyt myös minua ja laitoksen henkilöstöä. Toivottavasti esitutkinta tuo vastauksen moniin mielessä oleviin kysymyksiin, sanoo Helsingin poliisilaitoksen poliisipäällikkö Lasse Aapio tiedotteessa.Aapion mukaan kaikki poliiseihin kohdistuvat rikosepäilyt ja muut epäselvyydet on ilmoitettu vuosien ajan valtakunnansyyttäjän toimiston poliisirikosyksikköön.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>42</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Jokilaiva upposi yllättäen Turussa Aurajoen pohjamutiin – pelastustyötä tehdään yötä myöten sataman isolla kalustolla</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20072532</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Turun vanhin ravintolalaiva Esposito on uponnut osittain Aurajokeen. Varsinais-Suomen pelastuslaitos sai hälytyksen laivan uppoamisesta torstaina iltapäivällä.Laivan pelastustyöt aloitettiin noin kello 17:n aikaan.Avaa kuvien katseluEsposito on vajonnut huomattavasti Aurajoen rantapenkerettä alemmas. Kuva: Heidi Akselin / Yle– Yritämme saada vettä pois, että laiva olisi vähemmän kallistunut ja se saataisiin tyhjennettyä, kertoi laivan omistaja, yrittäjä Mika Salonen illalla.Vielä kello 20 torstai-iltana ei ollut tiedossa, miten pitkään pelastustyöt jatkuvat tai mitä laivalle ylipäätään nyt tapahtuu.– Meillä on täällä nyt sataman kalustoa eli iso pumppu, joka pumppaa vettä, Salonen kertoi.Koska ruuma oli yhä täynnä vettä, ei uppoamisen syystä voitu tehdä vielä mitään arviota.Laiva eristettiin heti iltapäivälläLaiva sijaitsee Aurajoessa Läntisellä Rantakadulla ja on paikoillaan vuoden ympäri. Pelastuslaitos eristi alueen uponneen laivan ympäristöstä.– Pelastuslaitos ei voi tehdä enempää kuin nyt eristää alueen. Jokilaiva on Aurajoen pohjassa, osittain uponneena, kertoo päivystävä palomestari Petteri Broström.Broströmin mukaan Aurajoessa on niin vähän vettä, että siksi laiva on uponnut vain osittain. Pelastuslaitos sai laivan omistajan kiinni kello 16 maissa iltapäivällä.– Omistaja hoitaa laivan jatkon. Jokilaivassa ei ole polttoainetta, joten ympäristövahingon riskiä ei tapauksessa ole, päivystävä palomestari kertoo.Avaa kuvien katseluLaivan uppoamisen syistä ei vielä torstai-iltana tiedetty, koska ruuma oli täynnä vettä. Kuva: Heidi Akselin / YleJuttua on täydennetty kello 20.25 laivan omistajan kommenteilla ja täsmennetty, että kyseessä on Turun vanhin ravintolalaiva.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>44</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Pinkki lumi säikäytti juvalaisen talon koiran: ”Kulkee edelleen vain puhdistettua polkua pitkin”, sanoo isäntä</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20072528</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Artur Särkisen vaimo huomasi heidän kotipihansa värjäytyneen pinkiksi iltapäivällä tammikuun 9. päivä. Särkinen itse palasi töistä kotiin vasta iltakahdeksan jälkeen. Hän soitti pian hätäkeskukseen.Särkinen keräsi ainetta pulloon ja epäili sitä hajun perusteella lentokerosiiniksi.Enempää hän ei suostu arvailemaan.– Spekulaatioita toki on monia, mutta niihin en lähde. Faktat ovat faktoja, Särkinen sanoo.Etelä-Savon pelastuslaitoksen teettämän analyysin perusteella aine on kaliumpermanganaattia. Se on ihmiselle ja ympäristölle vaarallinen aine, joka voi vaikeuttaa hengitystä ja aiheuttaa nieltynä pahoinvointia, oksentelua ja ripulia.Pelastuslaitoksen tiedotteen mukaan näyte sisälsi myös muita yhdisteitä, joita alustavassa analyysissa ei tunnistettu.Koira vierastaa kemikaalin tahrimaa aluetta edelleenPelastuslaitos keräsi värjäytyneen lumen Särkisen ja hänen kahden naapurinsa pihalta vielä samana iltana.Särkisen mukaan ainetta kuitenkin jäi pihalle pieniä määriä. Muutaman päivän kuluttua voimakkaan pinkki väri oli muuttunut ruskeaksi.Talon koira vierasti outoa kemikaalia.– Varmasti hajuaisti kertoi, että siellä on jotain sopimatonta.Sittemmin tahriutuneen alueen päälle on satanut uutta lunta, mutta koira ei suostu vieläkään menemään puskien juurelle.– Hän haluaa mennä vain puhdistettua polkua pitkin, Särkinen kertoo.Kaliumpermanganaatti peitti noin kolmasosan Särkisen pihasta. Hän on kiinnostunut näkemään, miten aineen jäämät vaikuttavat pihan kasveihin, kun kevät tulee.Juomavedestä Särkinen ei ole huolissaan, sillä talo on kunnan vesi- ja viemäriverkostossa. Alueella ei tiettävästi ole kaivoja.Avaa kuvien katseluKaliumpermanganaatin vesiliuokset ovat purppuransävyisiä, kertoo Pelastuslaitos tiedotteessaan.  Kuva: Asko Valtonen / Etelä-Savon pelastuslaitosPoliisi lähettää näytteen rikostekniseen laboratorioonSe, miten kaliumpermanganaatti päätyi Särkisen ja naapureiden pihoille, on edelleen täysi mysteeri. Asiaa selvittää nyt Itä-Suomen poliisi.Rikoskomisario Markku Kärpäsen mukaan asiaa tutkitaan rikosnimikkeellä ympäristön turmeleminen.Tapauksessa ei ole tällä hetkellä epäiltyjä. Poliisi aikoo lähettää Juvalta otetut näytteet rikostekniseen laboratorioon. Tavoitteena on selvittää, mitä ne sisältävät.– Sen jälkeen pohdimme, mikä laite tai kone tällaista ainetta käyttää, sanoo Kärpänen.Poliisin tiedossa ei ole, että pinkkiä lunta olisi havaittu muualla Suomessa.Voit keskustella aiheesta 2.2.2024 klo 23 saakka.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>45</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Puuta nakertanut majava teki kohtalokkaan arvioin­ti­virheen – autoliikenne seisahtui Polvijärvellä</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20072584</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Majavan nakertama puu pysäytti liikenteen Polvijärvellä torstaina.Pohjois-Karjalan pelastuslaitos sai iltapäivällä tiedon liikenteen estävästä ison puun kaatumisesta Kaavintiellä. Puuta raivattaessa syylliseksi oli osoittautunut majava.Pelastuslaitos arvelee majavan nakertaneen puusta nälissään ruokaa itselleen.Vanhemman pelastajan Pekka Kontkasen mukaan majavan osuudesta puun kaatumiseen ei voi erehtyä. Eläimen noin puolimetriseen haapaan jättämät jäljet olivat varsin tuoreet.– Ison urakan majava on tehnyt.Tapaus oli pelastuslaitoksellekin uusi.– En muista, että majavan tekosena olisi ollut tällainen liikenne-este, Kontkanen sanoo.Majavien suuntaamat kaadot ovat yleensä Kontkasen mukaan onnistuneita.– Nyt oli vain ilmeisesti yllättänyt puuskittainen tuuli, joka oli kaatanut puun tielle. Tai mistäpä minä tiedän mihin suuntaan majava on yrittänyt puuta kaataa, Kontkanen toteaa.Epäilty tekijä oli pelastuslaitoksen mukaan poistunut paikalta viereistä Saarvonjokea pitkin.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>50</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Erosor­muksista ei aina luovuta – asiantuntijan mukaan katkeria tuntemuksia saatetaan vaalia maso­kis­tisesti</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20067812</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Kunnes kuolema meidät erottaa.Tilastot kuitenkin osoittavat, että Suomessa puolet avioliitoista päättyy kuoleman sijasta avioeroon.Kumppanuuden ja ikuisen liiton symboli, vihkisormus, voi eron jälkeen olla muisto kauniista ajoista tai karvas vertauskuva pettymykselle ja sirpaloituneille unelmille.– Esineisiin varastoituu muistia, vihkisormukseen erityisesti tunnemuistia, kertoo psykoterapeutti Marja Saarenheimo.Avaa kuvien katseluPsykoterapeutti Marja Saarenheimo on tutkinut ihmisen suhdetta esineisiin. Kuva: Jari Pussinen / YleAjan saatossa moni sormus unohtuu piirongin perälle, mutta säilytyspäätös voi olla myös aktiivista sorttia.– Jos ero on ollut sopuisa, voi haluta säilyttää sormuksen, koska siihen liittyy hyviä muistoja, Saarenheimo toteaa.Katkeran eron myötä sormus latautuu negatiivisilla tunteilla, mutta sekään ei automaattisesti ole syy hankkiutua siitä eroon.Saarenheimon mukaan jotkut haluavat kaikesta huolimatta pitää sormuksesta kiinni ja masokistisesti vaalia katkeria tuntemuksiaan.– Me ihmiset ollaan tällaisia. Ei me välttämättä haluta luopua jostain, joka herättää meissä paljon negatiivisia tunteita, vaan me ryvetään siinä.Moni vihkisormus päätyy panttilainaamoon tai romukullaksi.Erosormuksia kiikutetaan myös panttilainaamoihin, kertoo Helsingin Pantin konttorinjohtaja Roope Sipilä.– Kyllä niitä useita tulee ihan päivittäin.Myös koruseppä Tom Antell kertoo ostavansa vihkisormuksia asiakkailtaan.Sormuksen myyminen voi olla kylmän laskelmoitu vihanpurkaus, psykoterapeutti Marja Saarenheimo arvioi.– Ainakin siitä saa rahaa, vaikka mitään muuta ei jäisikään.Paljonko?Panttilainaamo maksaa sormuksista oman arvionsa mukaan, koruseppä Tom Antell jalometallin markkina-arvon perusteella. Jalokivistä maksetaan erikseen.Helsingin Pantin Roope Sipilä arvioi heille saapuvien sormusten keskiarvoksi 150–500 euroa. Antell kertoo, että hänen ostamissa sormuksissa liikutaan 1000–1500 euron haitarissa.Silloin tällöin myytäväksi tuodaan myös poikkeuksellisen arvokkaita erosormuksia.– Joskus sanotaan suoraan, että ero tuli, toteaa kultaseppä Tom Antell.Jokainen sormus kantaa tarinaaVihkisormus on enemmän kuin pelkkä esine.Sillä on paitsi valtava vaikutus identiteettiin, se on myös muistojen tallentaja ja tarinoiden kantaja.Toisinaan ihmisillä on tarve jakaa oman erosormuksensa tarina.– Kaikkiin koruihin liittyy tunnetiloja. Joskus ne on positiivisia, joskus ei niin positiivisia, mutta kyllä niitä meille välillä kerrotaan, toteaa Roope Sipilä Helsingin Pantista.Kultaseppä Tom Antell vahvistaa, että osa ihmisistä haluaa kertoa myyntipäätöksen taustat.– Joskus sanotaan suoraan, että ero tuli.Tapa, jolla sormuksesta luovutaan, voi kuvastaa luopujan persoonallisuutta.Luopuminen voi olla myös rituaaliTemperamenttiselle ihmiselle myyminen ei välttämättä tuo riittävää tyydytystä. Silloin sormuksen voi tuhota tai hävittää rituaalinomaisesti.– Kiivasluontoinen ihminen saattaa haluta päästä sormuksesta eroon hyvin dramaattisella tavalla, vaikka heittämällä sen järveen. Se on myymistä impulsiivisempi teko ja kuvastaa luopujan persoonallisuutta, psykoterapeutti Marja Saarenheimo toteaa.Järveäkin dramaattisempi vesistö löytyy lähes jokaisesta kodista.Helsingin seudun ympäristöpalveluista vahvistetaan, että jotkut hävittävät sormuksen wc-pönttöön.– Kyllä on tullut puhelinsoitto tai ehkä jokunen. On ollut riitaa henkilöiden välillä, sitten on sormus heitetty vessanpönttöön ja seuraavana päivänä on harmittanut, kertoo HSY:n tuotantopäällikkö Marina Graan.Viikinmäen jätevedenpuhdistamon ”leluhyllyyn” on kerätty jäteveden seasta paitsi purukalustoa......myös peräkalustoa.Jäteveden seasta löytyy kaikenlaista pikkutavaraa kännyköistä tekohampaisiin ja lasten leluista aikuisten leluihin, joista osa on päätynyt Viikinmäen jätevedenpuhdistamon vitriiniin näytille.Sormuksia jäteveden seasta ei ole löytynyt.– Meillähän on isot viemäritunnelit. Ne on monta metriä leveät, niin niihin johonkin rakosiin on varmaan jäänyt. Tai sitten sormus on päätynyt tämän trasselimönjän joukkoon, ja sitten se menee tuonne voimalaitokselle polttoon, Graan avaa.Katso Puoli seiskan tv-juttu erosormusten erilaisista kohtaloista.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
         <is>
           <t>Yle</t>
         </is>

--- a/dynamic-datasets/articles_excel.xlsx
+++ b/dynamic-datasets/articles_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>indexdf</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>popularity</t>
@@ -451,12 +456,27 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>articleid</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>provider</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>paragraph</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>text</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>provider</t>
         </is>
       </c>
     </row>
@@ -465,30 +485,42 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Halla-aho ja Rehn olivat suosittuja idässä ja pohjoisessa, mutta Stubb ja Haavisto eivät aio niissä käydä – tässä syyt</t>
+          <t>Ylen ennuste julki! Seuraa jännittävää tilannetta reaaliajassa tästä jutusta</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072456</t>
+          <t>https://yle.fi/a/74-20074016</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Toisen kierroksen kampanjointi käynnistyi maanantaina kiivaana.Jatkoon päässeet kokoomuksen Alexander Stubb sekä valitsijayhdistyksen Pekka Haavisto (vihr.) yrittävät houkutella taakseen niitä 1,5 miljoonaa suomalaista, jotka äänestivät ensimmäisellä kierroksella karsiutuneita ehdokkaita. Lisäksi ääniä hamutaan niiltä 1,3 miljoonalta, jotka jättivät kokonaan äänestämättä.Etenkin pohjoisessa, idässä ja Pohjanmaalla äänestettiin ahkeraasti kisasta karsiutuneita perussuomalaisten Jussi Halla-ahoa ja valitsijayhdistyksen ja keskustan Olli Rehniä. Siellä on siis paljon äänestäjiä, jotka etsivät itselleen uutta ehdokasta.
-Toteutus vaatii toimiakseen JavaScriptin.
-Keiden tavoittamiseen kampanjoissa erityisesti panostetaan? Selvitimme, minne kakkoskierroksen ehdokkaat kampanjakiertueillaan suuntaavat ja missä he aikovat kohdata äänestäjiä kasvokkain.Reissujen kohteena ovat etenkin suuret kaupungit, joissa Stubb ja Haavisto veivät ensimmäisellä kierroksella ykkös- ja kakkossijat. Kovin itään tai pohjoiseen kampanjabussit eivät suuntaa.
-Alla oleva grafiikka selittää reittivalintoja.Maantieteeseen perustuvat tuloskartat eivät huomioi asutuksen jakaumista. Määrällisesti selvästi eniten potentiaalisia äänestäjiä on suurissa kaupungeissa ja etelässä. Kun aikaa on käytettävissä rajallisesti, on reissukohteet valittava harkiten.
-</t>
+          <t>2024-02-11T19:01:36+02:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420074016</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Jännittävä Ylen ennuste presidentinvaalien tuloksesta julkaistiin ennen iltayhdeksää.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Ääntenlaskun reaaliaikaisen tilanteen voi katsoa Ylen tulospalvelusta.Ylen ennusteen mukaan kokoomuksen ehdokkaan Alexander Stubbin kannatus toisella kierroksella on 51,4 %. Valitsijayhdistyksen ehdokkaan, vihreiden tukeman Pekka Haaviston kannatus on 48,6 %.
+Tulospalvelu mahdollistaa toisen kierroksen tuloksen tarkemman seuraamisen. Siitä näet molempien ehdokkaiden äänimäärät valtakunnallisesti ja alueittain.Yhteensä 44,7 prosenttia äänioikeutetuista äänesti ennakkoon. Suomessa asuvien Suomen kansalaisten luku oli puolestaan 46,4 prosenttia.Seuraava tasavallan presidentti ratkeaa illan aikana.Päivitetty kello 20.00, 20.21, 20.36 ja 20.47 ja 20.55 tuoreilla tiedoilla.</t>
         </is>
       </c>
     </row>
@@ -497,26 +529,41 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Kotiäänestys noussut ennä­tys­lu­kemiin – osuus on silti vielä pieni</t>
+          <t>Alexander Stubb piti perheensä käsistä kiinni, kun ennakkoäänten tulos tuli – katso tunteelliset kuvat vaali-illasta</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072160</t>
+          <t>https://yle.fi/a/74-20074038</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Presidentinvaalien ensimmäisellä kierroksella kotiäänestäjiä oli lähes 17 000.Luku yllätti jossain määrin oikeusministeriön vaalijohtaja Arto Jääskeläisen. Tilastot osoittavat kuitenkin, että melko lähelle tuota lukua on päästy aiemminkin.– 17 000 on lukuna kieltämättä korkein. Presidentinvaalien toisella kierroksella vuonna 2000 ja 2006 on päästy jo lähelle, kun määrät olivat 14 000 ja 15 000, Jääskeläinen kertoo.Koska suuret ikäpolvet vanhenevat, olisi luontevaa ajatella, että kotiäänestysten määrä jatkaa kasvuaan.Arto Jääskeläisen mukaan ennätysluvusta voi kuitenkin tehdä ennen kaikkea yhden johtopäätöksen.– Kotiäänestysten lukumäärä korreloi aika hyvin sitä, miten kiinnostavat vaalit ovat kyseessä ja missä vaalityypissä on paras äänestysaktiivisuus. Presidentinvaaleissa se on tyypillisesti ollut juuri näin, Jääskeläinen kuvaa.Kotona saa äänestää ennakkoon äänioikeutettu henkilö, jonka kyky liikkua tai toimia on rajoittunut eikä hän pääse äänestyspaikkaan ilman kohtuuttomia vaikeuksia.Kotiäänestykseen pitää ilmoittautua erikseen oman paikkakunnan keskusvaalilautakuntaan, mutta syitä kotiäänestämisen tarpeelle ei tarvitse erikseen perustella.Kotiäänestysten määrä on kuitenkin edelleen kokonaisuuteen nähden hyvin marginaalinen, Arto Jääskeläinen muistuttaa.Jääskeläisen mukaan näin myös ajateltiin vuonna 1988, kun kotiäänestys otettiin käyttöön. Kotiäänestysten määrä voi kuitenkin jatkossa jonkin verran kasvaa, kun entistä useampi esimerkiksi ikäihmisistä asuu kotonaan pidempään.Tasaista kasvua joissakin kunnissa - resurssit tiukillaEnsimmäisellä kierroksella jopa kolme neljästä äänioikeutetusta käytti äänioikeuttaan.Kotiäänestysten lukumäärä on aina suhteessa muuhun äänestysvilkkauteen, sanoo vaalijohtaja Arto Jääskeläinen.Tasaista kasvua on kuitenkin havaittu esimerkiksi Seinäjoella ja Kokkolassa.Kokkolassa presidentinvaalin ensimmäisellä kierroksella kotiäänestyksiä oli 206 kappaletta, kun viime kevään 2023 eduskuntavaaleissa niitä annettiin 109.Seinäjoen kaupungin hallintojohtaja Jari Jokinen kertoo kotiäänestysmäärän kasvaneen tasaisesti.– Syinä ovat kaupungin asukasluvun kasvu, väestön ikääntyminen ja näissä vaaleissa myös äänestysprosentin nousu muutoinkin.Kotiäänestysten lisääntyminen vaikuttaa myös vaalitoimitsijoiden tarpeeseen. Jokisen mukaan kotiäänestysten määrä on lisääntynyt Seinäjoella nyt myös vaalien toisella kierroksella ja resurssit ovatkin tiukassa.Lisää: Tästä pääset Ylen vaalikoneeseen.</t>
+          <t>2024-02-11T19:38:15+02:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420074038</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yle seuraa päivittyvässä kuvakoosteessa vaali-illan tapahtumia. </t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Tänä iltana ratkeaa, kuka on Suomen seuraava presidentti. Seuraamme päivittyvässä kuvakoosteessa illan tärkeimpiä tunnelmia.Ehdokkaiden reaktiot ennakkoäänien tulokseen olivat tunteikkaatEnnakkoäänten tulos on 52,7 % Alexander Stubbin hyväksi. Pekka Haavisto kiri etumatkaa umpeen.Alexander Stubb huokaisi helpotuksesta, kun ennakkoäänten tulokset julkaistiin. Pääministeri Petteri Orpo (oik.) äityi tuuletuksiin.Pekka Haavisto kertoi olevansa luottavainen, että vaalipäivän äänillä hän voi vielä saada Stubbin kiinni. Ennakkoäänten tulosten julkistamisen jälkeen kannattajat äityivät takamatkasta huolimatta hurrauksiin.Hieman takamatkalta lähdetään, mutta vaalipäivän äänissä on mahdollista saada kiinni. Jännitys tulee säilymään loppuun asti.Pekka HaavistoAvaa kuvien katseluPresidenttiehdokas Alexander Stubb piti läheistensä käsistä kiinni h-hetkellä. Kuva: Silja Viitala / YleAlexander Stubb kaappasi perheensä tiukkaan halaukseen ennakkoäänten tulosjulkistuksen jälkeen. Video: Jani Saikko / YleAvaa kuvien katseluTaustalla kaulailevat myös isä Göran Stubb puolisonsa Pirkko Mannolan kanssa. Kuva: Silja Viitala / YlePresidentti Niinistö kävi äänestämässä poikansa kanssa, Stubb toi lapsensa vaalivalvojaisiinAvaa kuvien katseluTasavallan presidentti Sauli Niinistö äänesti virallisena vaalipäivänä Espoossa Lähderannan koululla. Mukana äänestämässä olivat puoliso Jenni Haukio sekä parin Aaro-poika. Kuva: Jari Kovalainen / YleAvaa kuvien katseluPresidentti Sauli Niinistölle ja puoliso Jenni Haukiolle maistui vaalikahvi ja -herkku. Parin Aaro-poika hörppäsi pillimehua. Kuva: Jari Kovalainen / YleAvaa kuvien katseluOliver Stubb (kesk.) innostui isänsä Alexander Stubbin vaalivalvojaisten esityksistä. Vieressä taputtaa sisko Emilie.  Kuva: Silja Viitala / YleAvaa kuvien katseluValitsijayhdistyksen presidenttiehdokas Pekka Haavisto (oik.) ja puoliso Antonio Flores saivat äänestettyään kahviseuraa toimittajista. Kuva: LehtikuvaVaalivalvojaisissa odotetaan jo jännittyneinä ennakkoäänien tuloksiaPekka Haaviston vaalivalvojaiset järjestetään Korjaamolla Helsingin Töölössä, Alexander Stubbin vaalivalvojaiset puolestaan Pikku-Parlamentissa Helsingin Töölönlahden rannallaAvaa kuvien katseluGöran Stubb ja puoliso Pirkko Mannola seuraavat keskittyneesti vaalivalvojaisten humua. Kuva: Silja Viitala / YleAvaa kuvien katseluEhdokas Pekka Haavisto antoi vaalivalvojaisissa haastattelun vain hetkeä ennen ennakkoäänten julkistamista. Kuva: Henrietta Hassinen / YleAvaa kuvien katseluKonkaripoliitikko Rosa Meriläinen (toinen vas.) vietti vaali-iltaa Pekka Haaviston valvojaisissa poikansa Frans Frangénin (kolmas vas.) kanssa. Kuva: Henrietta Hassinen / YleAvaa kuvien katseluMarco Bjurström juontaa Pekka Haaviston vaalivalvojaiset Kulttuuritehdas Korjaamolla. Kuva: Henrietta Hassinen / YleAvaa kuvien katseluGöran Stubb selaili puhelintaan poikansa vaalivalvojaisissa hieman ennen ennakkoäänten tulosten julkistusta. Rinnalla puoliso Pirkko Mannola. Kuva: Silja Viitala / YleAvaa kuvien katseluPerhe Stubbilla oli hauskaa vaalivalvojaisissa. Kuva: Silja Viitala / YleAvaa kuvien katseluKokoomuksen presidenttiehdokas Alexander Stubbin vaalivalvojaisiin Pikku-Finlandiaan alkoi alkuillasta kertyä jonoa. Kuva: Silja Viitala / Yle</t>
         </is>
       </c>
     </row>
@@ -529,22 +576,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Katso lakon vaikutukset busseihin, juniin ja ratikoihin</t>
+          <t>Stubb johtaa ennak­ko­äänissä: ”En ajattele muuta kuin kiitol­lisuutta” – Haaviston mukaan peli ei ole vielä menetetty</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072444</t>
+          <t>https://yle.fi/a/74-20074042</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Julkinen liike pysähtyy tai harvenee perjantaina lakkojen takia lähes koko Suomessa.Julkisten ja hyvinvointialojen liitto JHL:n lakko pysäyttää matkustajajunaliikenteen koko maassa Pohjois-Suomen yöjunia lukuun ottamatta. Junaliikenteen lakko koskee työvuoroja, jotka alkavat 2. helmikuuta kello 00.01 ja 23.59 välillä. Lauantain junaliikenne kulkee normaalisti.VR:n kaukoliikenteen kertalipun voi muuttaa halutessaan toiseen ajankohtaan maksutta. Jos matkan ajankohtaa ei vaihda, VR palauttaa rahat automaattisesti takaisin lakon ajalle ostetuista junalipuista.Osa kaukoliikenteen busseista ei liikennöiAuto- ja kuljetusalan työntekijäjärjestö AKT:n lakko vaikuttaa kaukoliikenteen linja-autoihin.Osa Matkahuollon vuoroista jää liikennöimättä. Matkahuollon verkkosivujen aikatauluhaussa ja nettilipunmyynnissä on ajantasainen tieto mahdollisen lakonkin aikana.Onnibus pyrkii ajamaan suurimman osan vuoroista. Lipunmyynnissä voi olla peruttuja vuoroja, mutta lista ajettavista vuoroista päivittyy Onnibusin nettisivuille. Lauantaina Onnibus ajaa vuorot normaalisti lukuun ottamatta klo 1.30 Tampereelta lentokentälle lähtevää vuoroa.Vuoroihin voi tulla muutoksia lyhyellä varoitusajalla. Sekä Onnibus että Matkahuolto hyvittävät perutuille vuoroille ostetut liput.Toimittaja Juha Kokkala kyseli Tampereen rautatieasemalle, että vieläkö matkustajilla riittää lakkolaisille ymmärrystä.Paikallisliikenteen vuoroja peruttu ympäri SuomeaAKT:n ja JHL:n lakot iskevät myös paikallisliikenteeseen. Selvitimme, miten lakon vaikutukset näkyvät eri puolilla Suomea.PääkaupunkiseutuPääkaupunkiseudulla paikallisjunat, metrot ja raitiovaunut eivät liikennöi tänään lainkaan. Myös suuri osa HSL:n bussiliikenteestä jää ajamatta.Torstain ja perjantain välisenä yönä bussit ja raitiovaunut kulkevat noin kello kahteen. Sen jälkeen liikenne on lähes kokonaan seisahduksissa ja alkaa uudelleen lauantaiaamuna.Osa busseista kuitenkin kulkee myös perjantaina.HSL päivittää sivuilleen ajantasaista tietoa lakon vaikutuksista liikennöintiin.AvaaTampereBussit, ratikat ja lähijunat eivät kulje perjantaina Tampereen seudulla. Torstain ja perjantain välisenä yönä ratikat ja bussit liikennöivät työvuorot loppuun eli noin kello kahteen.Joitain yksittäisiä bussivuoroja saatetaan ajaa perjantain aikana. Vain neljä linjaa liikennöi perjantaina normaalisti aikataulun mukaan. Ajantasaisen tiedon liikennöivistä linjoista voi tarkistaa Nyssen reittioppaasta.Lauantaina bussiliikenne palaa normaaliksi lauantaiaamuna noin neljän ja viiden välillä. Ratikkaliikenne käynnistyy viiden jälkeen lauantaiaamuna.AvaaTurkuLakko pysäyttää ainakin osan Fölin bussiliikenteestä perjantaina, mutta ajettavia vuoroja on lähes kaikilla linjoilla.Ajettavat vuorot selviävät vasta, kun tiedetään lakkoon osallistuvien kuljettajien määrä. Ajantasainen tieto ajettavista vuoroista löytyy Fölin verkkosivuilta.Fölin reittiopas ei päivity lakon aikana, mutta peruutetut vuorot ovat nähtävissä reittioppaan pysäkkiaikatauluista.AvaaLahtiLahden seudun liikenteessä suurinta osaa vuoroista ei ajeta perjantaina. Lakkopäivänä ajettavat vuorot löytyvät LSL:n verkkosivuilta.Ajettavat linjat kulkevat pääsääntöisesti vain perjantai-iltapäivään saakka.AvaaHämeenlinnaOsa Hämeenlinnan seudun bussivuoroista jää ajamatta perjantaina. Pekolan Liikenteen ja Mikkolan Liikenteen seutulinjat sekä Lehdon liikenteen vuorot kulkevat normaalisti.Esimerkiksi kaikkia Länsilinjojen liikennöimiä linjoja ei ajeta. Myös osa koulukuljetuksista voi jäädä ajamatta.Tiedot päivitetään reittioppaaseen sekä Hämeenlinnan kaupungin verkkosivuille.AvaaJyväskyläUseimmat Linkki-linjat jäävät ajamatta Jyväskylässä, Laukaassa ja Muuramessa. Muutamat linjat kuitenkin liikennöivät normaalisti. Kokonaan ajamatta jäävät Koiviston Auto Jyväskylän vuorot.Linkin aikataulu- ja reittioppaasta näkee, mitkä vuorot liikennöivät lakon aikana.AvaaItä-SuomiLakon takia Itä-Suomessa jää ajamatta osa Koiviston auto Kuopion, Pohjolan matkan, Savonlinjan, Savo-Karjalan linjan ja Soisalon liikenteen vuoroista.Kuopiossa suurin osa paikallisliikenteen bussivuoroista jää ajamatta, mutta muutamia yksittäisiä linjoja ja vuoroja liikennöi normaalisti.Myös osa ely-keskuksen järjestämän liikenteen vuoroista voi jäädä ajamatta. Lakon aikaisen liikennöinnin tietoja päivitetään ely-keskuksen verkkosivuille ja aluekohtaisiin reittioppaisiin.AvaaKaakkois-SuomiPerjantain lakko peruuttaa suuren osan paikallisliikenteen bussivuoroista Kaakkois-Suomessa. Lauantaina liikenne ajetaan normaalisti aamukolmesta alkaen.Katso täältä tarkemmat tiedot Lappeenrannan, Kouvolan ja Kotkan seudun paikallisliikenteestä.AvaaSatakuntaSatakunnassa osa paikallisliikenteestä ei liikennöi perjantaina Raumalla ja Porissa. Lakon piirissä ovat Rauman Gyyt, Porin Linjat ja Satakunnan Liikenne.AvaaVaasaVaasassa suurin osa bussiliikenteen vuoroista jää ajamatta. Kaupunki pyrkii pitämään Liftin reittioppaan aikataulutiedot ajan tasalla.Lakon aikana Vaasan kaupunki tarjoaa bussimatkat ilmaiseksi Vekan ja Oravaisten Liikenteen liikennöimillä linjoilla.AvaaRovaniemiRovaniemellä osa paikallisliikenne Linkkarin bussivuoroista jää ajamatta perjantaina. Myös koulukuljetuksissa on muutoksia.Ajantasainen tieto lakon aiheuttamista muutoksista löytyy Linkkarin sivuilta.Avaa</t>
+          <t>2024-02-11T20:09:27+02:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420074042</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ennakkoäänissä suurempi osa meni kokoomuksen Alexander Stubbille.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Ennakkoäänet on nyt julkistettu. Niistä 52,7 prosenttia meni kokoomuksen ehdokkaalle Alexander Stubbille, 47,3 prosenttia vihreiden tukemalle, valitsijayhdistyksen Pekka Haavistolle.– Oikein hyvä alku tälle illalle, Stubb kommentoi ennakkoäänten tulosta.– Hyvältä tuntuu, mutta paljon on ääniä vielä laskematta.Stubbin mukaan tilanne kannattaa kuitenkin ottaa maltilla.– Tällä hetkellä en ajattele muuta kuin kiitollisuutta.Haavisto: Peli ei ole menetetty– Hieman takamatkalta lähdetään, mutta vaalipäivän äänissä on mahdollista ottaa kiinni, Haavisto kommentoi tuoreeltaan ennakkoäänten tultua.Peli ei ole menetetty, vaalipäivä tuo lisää ääniä, hän sanoo.– Täytyy odottaa loppuun asti nämäkin tulokset. En lähde analysoimaan vielä, Haavisto sanoo.Tehokas kampanja on saatu aikaan viimeisten päivien aikana, kiitos siitä kaikille, Haavisto kiittelee jo kampanjaväkeään.Yle seuraa vaalipäivää tässä artikkelissa.</t>
         </is>
       </c>
     </row>
@@ -557,22 +619,38 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mobilepay ei peräänny runsaasta palautteesta huolimatta – kaikki nimet näkyvät käyttäjälle jatkossakin</t>
+          <t>Stubb on viemässä valtaosan vaali­piireistä – katso, miten suosikki eroaa maakunnittain</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072568</t>
+          <t>https://yle.fi/a/74-20074019</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Mobilepay uudisti 23. tammikuuta sovellustaan, minkä takia käyttäjänimen tai keksityn nimen käyttäminen ei enää ole sovelluksessa mahdollista.Niiden sijaan sovelluksessa näkyvät nyt etu- ja sukunimen lisäksi ihmisten toiset ja kolmannetkin nimet.Sovelluksesta on myös mahdollista saada selville puhelinnumerolla tai nimellä hakemalla ihmisen koko nimi tai puhelinnumero, vaikka kyseessä olisi salattu numero.Tämä tosin edellyttää, että numeron haltija on rekisteröitynyt Mobilepayn käyttäjäksi.Mobilepay on saanut kymmeniä palautteita sekä nimimerkkien poistamisesta että puhelinnumerolla tehtävistä hauista, kertoo Vipps Mobilepayn maajohtaja Perttu Kröger.Ilta-Sanomien mukaan tietosuojavaltuutetun toimisto on saanut muutaman kantelun liittyen Mobilepayn uudistukseen. Krögerin mukaan Mobilepaylla ei ole tiedossa, että uudistukseen liittyisi ongelmia tietosuojalain suhteen.Palautteista huolimatta Mobilepay ei ole palauttamassa mahdollisuutta käyttää sovelluksessa pelkkää nimimerkkiä tai vain etu- tai sukunimeä.– Voin aika suoraviivaisesti sanoa, että emme tule palaamaan aliaksen mahdollistamiseen, keksittyyn nimeen tai sallimaan yksittäistä etu- tai sukunimen käyttöä​, Kröger toteaa.Muutoksen taustalla väärinkäytökset Norjassa ja TanskassaMuutosta perustellaan käyttäjämäärän kasvulla Suomessa sekä turvallisuuden parantamisella.– Tanskassa ja Norjassa olemme lähes kaikkien kuluttajien puhelimessa, ja nähneet väärinkäytösten määrän kasvun näillä markkinoilla ja siitä syystä haluamme muuttaa Suomessa toimintalogiikkaa niin, että voimme ennaltaehkäistä väärinkäytöksiä ja olla turvallinen ratkaisu käyttäjillemme, Kröger sanoo.Mobilepayssa on tällä hetkellä käynnissä selvitys siitä, onnistuisiko sovelluksessa pelkän etu- ja sukunimen näyttäminen asiakkaan koko nimen sijaan.Se, miksi koko nimi on ylipäätään uudistuksessa näkynyt, liittyy Krögerin mukaan tapaan, jolla yritys käyttää nimitietoja.– Osittain se (koko nimen käyttäminen) liittyy siihen, miten käytämme virallisia rekisterejä. Käytämme koko nimen tietoja muissakin yhteyksissä kuten erinäisissä turvallisuuteen liittyvissä tarkistuksissa. Varmistamme esimerkiksi, että siirrot eivät liity rahanpesuun, Kröger sanoo.Uudistuksen aiheuttamasta ärtymyksestä huolimatta Mobilepayn aktiivisten käyttäjien määrä on Krögerin mukaan pysynyt samana.Applikaatiota myös ladataan sovelluskaupoista edelleen päivittäin samoja määriä kuin ennen, eikä Kröger ei usko muutoksesta aiheutuvan mainehaittaa Mobilepaylle.</t>
+          <t>2024-02-11T20:20:17+02:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420074019</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ylen tulospalvelu kertoo ehdokkaiden kannatuksen eri vaalipiireissä.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Kokoomuksen presidenttiehdokas Alexander Stubb on voittamassa valtaosan vaalipiireistä toisella kierroksella.Stubb on voittamassa muun muassa Hämeen, Kaakkois-Suomen, Oulun, Pirkanmaan, Satakunnan, Savo-Karjalan, Uudenmaan, Vaasan ja Varsinais-Suomen vaalipiirit. Tilanne saattaa edelleen muuttua, sillä ääniä on vielä laskematta.Sen sijaan Helsinki, Keski-Suomi, Pirkanmaa, Lappi ja Ahvenanmaa ovat menossa valitsijayhdistyksen ehdokkaalle, vihreiden tukemalle Pekka Haavistolle.Reaaliaikaisen laskentatilanteen voi katsoa Ylen tulospalvelusta.Molemmat ehdokkaat ovat lähtöisin Helsingistä. Kello kahdeksan jälkeen Haavisto on saamassa Helsingin vaalipiirin äänistä runsaat 56 %, kun Stubbin äänipotti on vajaa 44 %.
+Pudonneiden ehdokkaiden vaalipiiritMielenkiintoista on, mitä on tapahtunut niissä vaalipiireissä, joissa suurimman äänipotin keräsi joku ensimmäisen kierroksen pudonneista ehdokkaista.Ensimmäisellä kierroksella perussuomalaisten Jussi Halla-aho sai ehdokkaista eniten ääniä Satakunnan ja Lapin vaalipiireissä. Valitsijayhdistyksen ehdokas, keskustan Olli Rehn sai Pohjois-Pohjanmaalla eniten ääniä.Näillä näkymin kaksi vaalipiireistä, Satakunta ja Pohjois-Pohjanmaa, ovat menossa Stubbille. Haavisto on viemässä puolestaan Lapin vaalipiirin.Avaa kuvien katseluAlexander Stubb on voittamassa valtaosan vaalipiireistä. Kuva: Silja Viitala / YleJuttu päivittyy sitä mukaa, kun luvut päivittyvät.</t>
         </is>
       </c>
     </row>
@@ -581,26 +659,42 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Martti Ahtisaaren hauta­muis­to­merkin suunnit­te­lu­kilpailu avataan</t>
+          <t>Kysely: Yli kolmannes on sitä mieltä, ettei Stubb yhdistä kansaa – Haavistolla kohut rasitteena</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072619</t>
+          <t>https://yle.fi/a/74-20074004</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Presidentti Martti Ahtisaaren hautamuistomerkin suunnittelukilpailusta on kerrottu lisää tietoja.Muistomerkin suunnitteluun kutsutaan osallistumaan suomalaisia ja Suomessa pysyvästi asuvia ammattitaiteilijoita. Ehdotuksia voi jättää 12.2.–15.4.Kilpailun järjestää valtioneuvoston kanslian asettama toimikunta. Kilpailun tuloksista päättää palkintolautakunta, johon kuuluu yhdeksän muistomerkkitoimikunnan jäsentä sekä kaksi Suomen taiteilijaseuran nimeämää jäsentä.Kilpailun tulokset julkistetaan 13. toukokuuta. Palkintorahaa on varattu yhteensä 24 000 euroa. Muistomerkki on tarkoitus toteuttaa voittavan ehdotuksen pohjalta.Valtioneuvoston kanslian tiedotteessa sanotaan, että muistomerkin pitää olla aikaa ja luonnonolosuhteita kestävä. Sen luokse pitää voida tulla, ja sen läheisyyteen, viereen ja sitä vasten voi asettaa kukkalaitteen.Presidentti Martti Ahtisaari kuoli 16. lokakuuta. Hänet haudattiin Helsingin Hietaniemen hautausmaalle 10. marraskuuta 2023. Ahtisaaren hautamuistomerkki on määrä paljastaa tämän vuoden marraskuun 10. päivä, eli tasan vuosi hautajaisten jälkeen.Myös edellisten tasavallan presidenttien haudoille on tehty muistomerkit. Mauno Koiviston haudan hautamuistomerkin suunnitteli Perttu Saksa, ja se paljastettiin vuonna 2018.Avaa kuvien katseluPerttu Saksa suunnittelemansa Kartta-muistomerkin äärellä. Teoksen koko on 2,5x1,6 metriä. Kuva: Jari Kovalainen / Yle</t>
+          <t>2024-02-11T20:00:36+02:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420074004</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Arvot olivat painavin syy olla äänestämättä kumpaakaan ehdokasta, kertoo Helsingin yliopiston tuore kansalaisbarometri.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Helsingin yliopisto on jälleen selvittänyt syitä, miksi suomalaiset eivät halua äänestää presidenttiehdokkaita toisella kierroksella.Arvot nousivat kyselyssä painavimmaksi syyksi molempien ehdokkaiden kohdalla. Helsingin yliopiston kansalaisbarometriin vastanneista yli puolet (51 %) koki, että kokoomuksen presidenttiehdokas Alexander Stubbin arvot vaikuttavat erittäin paljon päätökseen olla äänestämättä häntä.Arvot olivat suurin syy olla äänestämättä myös vihreiden tukemaa, valitsijayhdistyksen ehdokasta Pekka Haavistoa, mutta eivät niin vahvasti kuin Stubbilla (45 %).Hieman yli kolmannes vastaajista oli sitä mieltä, ettei Stubb yhdistä kansaa. Tämä oli toiseksi suurin syy olla äänestämättä Stubbia ja tilastollisesti merkittävä ero ehdokkaiden välillä. Vaikeudet yhdistää kansaa oli Haaviston osalta järjestyksessään vasta seitsemäs syy (26 %).Kyselyssä vastaajille esitettiin yhteensä 12 syytä, muun muassa ehdokkaan puoluetausta, arvot, kumppani ja näkemykset ulkopolitiikasta. Kumpaakin ehdokasta arvioi noin 600 henkilöä.Tutkimuksen virhemarginaali vaihtelee kysymyksestä riippuen. Kyselyn virhemarginaalit poikkeavat Ylen teettämistä kyselyistä, joissa virhemarginaali on korkeintaan kaksi prosenttiyksikköä suuntaansa. Helsingin yliopiston kansalaisbarometrissä virhemarginaali vaihtelee yhdestä neljään prosenttiyksikköä kysymyksestä riippuen.Kyselyssä vastaajat olivat aiemmin ilmoittaneet, kumpaa ehdokasta he aikovat äänestää. He arvioivat väittämiä vastaehdokkaan osalta. Osa vastaajista sanoi äänestävänsä tyhjää tai jättävänsä kokonaan äänestämättä. He arvioivat molempia ehdokkaita.
+Kumppanin merkitys korostuu yhäHaaviston puoliso näyttäytyy edelleen voimakkaana syynä siihen, miksei osa äänestäjistä halua häntä äänestää. Haaviston kumppani Antonio Flores oli toiseksi yleisin syy olla äänestämättä häntä. Tätä mieltä oli 41 prosenttia vastaajista.Puoliso oli toinen tilastollisesti merkittävä ero ehdokkaiden välillä: Stubbin kohdalla vain neljä prosenttia vastaajista piti kumppania erittäin voimakkaana syynä olla äänestämättä häntä. Stubb elää heterosuhteessa.Näin kysely tehtiinAineisto kerättiin osana Helsingin yliopiston Kansalaisbarometria.Aineisto kerättiin 2.–9. helmikuuta, ensimmäisen ja toisen kierroksen välissä.Vastaajia oli noin 1 250. Ehdokasta kohden vastaajia oli siis noin 600.Ne vastaajat, jotka ovat vastanneet Stubbia koskevaan kysymykseen, ovat aikaisemmin ilmoittaneet aikeistaan äänestää Haavistoa, tyhjää tai jättävänsä kokonaan äänestämättä. Sama logiikka pätee Haaviston osalta vastanneilta.Vastaajien ikähaarukka oli 18–80 vuotta.Kyselyn virhemarginaali 1 250 vastaajamäärällä on noin 2,8 prosenttia suuntaansa. Yksittäisten ehdokkaiden arvioiden osalta virhemarginaali on suurempi ja vaihtelee vastausten mukaan.Vastaajia pyydettiin arvioimaan eri syitä olla äänestämättä ehdokkaita presidentinvaaleissa.Vastausvaihtoehdot olivat: ei vaikuta lainkaan, vaikuttaa kohtuullisesti ja vaikuttaa erittäin paljon.AvaaKokemuksen puute ja kohut erottivat ehdokkaitaMenneet poliittiset kohut nousivat niin ikään keskeiseksi syyksi olla äänestämättä Haavistoa (36 %). Stubbilla kohut vaikuttivat erittäin paljon 20 prosentilla vastaajista. Ero oli merkittävä: kohut olivat Haaviston osalta neljänneksi painavin syy, Stubbilla vasta kahdeksanneksi.Myös kokemuksen puute näyttäytyi merkittävänä erona kyselyssä. 21 prosenttia vastaajista oli sitä mieltä, että Stubbin kokemuksen puute vaikuttaa erittäin paljon siihen, miksei häntä haluta äänestää. Haaviston osalta näin arvioi lähes puolet vähemmän, 12 prosenttia.Ehdokkaan puoluetausta oli painavampi syy Haaviston (39 %) kuin Stubbin (31 %) kohdalla. Näkemykset ehdokkaiden ulkopolitiikasta menivät kyselyssä melko tasan.Suoriutuminen vaalitenteissä ja ehdokkaan sukupuoli jäivät kyselyssä vähälle painoarvolle. Tilastollinen ero ehdokkaiden välillä oli kampanjan merkityksessä: Stubbin osalta 11 prosenttia vastaajista katsoi, että kampanja oli erittäin painava syy olla äänestämättä häntä. Haaviston osalta osuus jäi neljään prosenttiin.Apulaisprofessori Johanna Rainio-Niemi arvioi ehdokkaiden eroja Ylen Ykkösaamussa lauantaina:</t>
         </is>
       </c>
     </row>
@@ -609,26 +703,41 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Puolus­tus­mi­nisteri Antti Häkkänen aikoo estää reservistä eroamisen, kertoo Kyrönmaa-lehti</t>
+          <t>Naton pääsihteeri puuttui Trumpin puheisiin: ”Asettaa euroop­pa­laiset ja amerik­ka­laiset sotilaat vaaraan”</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072595</t>
+          <t>https://yle.fi/a/74-20074020</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Puolustusministeri Antti Häkkänen (kok.) suunnittelee estävänsä reservistä eroamisen.Näin hän kertoi Laihialla ilmestyvälle Kyrönmaa-lehdelle torstaina.Häkkänen aikoo etsiä keinot, ettei reservistä eroaminen olisi enää jatkossa mahdollista.Haastattelussa hän kertoo pitävänsä epäisänmaallisena sitä, että reservistä erotaan.Yhä useampi armeijan käynyt reserviläinen on siirtynyt siviilipalvelukseenVuoden 2022 lopulla Ylelläkin uutisoitiin, että reservistä siviilipalvelukseen siirtyvien määrä on moninkertaistunut Ukrainan sodan alkamisen jälkeen.Vaikka tarkkoja syitä reserviläisten siviilipalveluksen suosion rajuun kasvuun ei kuitenkaan tiedetä, arvioi siviilipalvelusjohtaja Mikko Reijonen siviilipalveluskeskuksesta, että Ukrainan sodan vaikutus oli ilmeinen.Puolustusvoimissa ei oltu kuitenkaan huolissaan lukujen kasvusta.</t>
+          <t>2024-02-11T16:56:31+02:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420074020</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Donald Trump sanoi  lauantaina vaalitilaisuudessa ”rohkaisevansa” Venäjää hyökkäämään sellaisten Nato-maiden kimppuun, jotka eivät täytä taloudellisia velvoitteitaan.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Naton pääsihteeri Jens Stoltenberg puuttui sunnuntaina Trumpin tuoreimpiin heittoihin, jotka koskevat Naton jäsenmaita, siis myös Suomea.Republikaanien presidenttiehdokkuutta tavoitteleva ex-presidentti Donald Trump sanoi vaalitilaisuudessa Etelä-Carolinassa ”rohkaisevansa” Venäjää hyökkäämään sellaisten sotilasliitto Naton jäsenmaiden kimppuun, jotka eivät ole täyttäneet taloudellisia velvoitteitaan.Trump kuvaili puheessaan keskustelua, jonka hän oli käynyt toisen valtionpäämiehen kanssa Naton kokouksessa, jonka aikaa tai paikkaa hän ei yksilöinyt.– Erään suuren maan presidentti nousi ylös ja sanoi: Kuulkaa, sir, jos me emme maksa ja Venäjä hyökkää kimppuumme, suojeletteko te meitä? Sanoin: Ette maksaneet, olette kykenemättömiä maksamaan?- En, minä en suojelisi teitä. Itse asiassa rohkaisisin heitä (Venäjää) tekemään ihan mitä vain haluavat. Teidän on maksettava, laskut on maksettava, ex-presidentti sanoi.Avaa kuvien katseluTrump puhui tukjoilleen Etelä-Carolinassa lauantaina. Kuva: Julia Nikhinson / AFPTrumpin puheet kirvoittivat huolestuneita kommentteja Euroopassa.– Vihjailut, joiden mukaan Nato-jäsenmaat eivät puolustaisi toisiaan, heikentävät turvallisuustilannetta ja asettavat amerikkalaiset ja eurooppalaiset sotilaat vaaraan, Naton pääsihteeri sanoo lausunnossaan.Hän lisää, että hyökkäykseen Nato-maata vastaan vastattaisiin yhtenäisenä ja voimalla.Valkoinen talo: Mielipuolisia kommenttejaValkoisen talon mukaan Trumpin kommentit ovat ”mielipuolisia”.– Murhanhimoisten hallintojen houkutteleminen hyökkäämään lähimpien liittolaistemme kimppuun on vastenmielistä ja mielipuolista, kiteytti Valkoisen talon edustaja Andrew Bates omassa lausunnossaan.– Toisin kuin Trump, presidentti Biden jatkaa Yhdysvaltojen johtajuuden vahvistamista eikä lietso sotia ja edistä kaaosta, Bates jatkoi.EU-komissaari Thierry Breton puolestaan totesi, että EU-maat ymmärtävät kyllä, että puolustukseen on laitettava lisää rahaa. Hän tuskaili tilannetta, johon Eurooppakin on joutunut Yhdysvaltojen poliittisten suhdanteiden aallokossa.– Emme voi heittää kolikkoa turvallisuudestamme joka neljäs vuosi sen mukaan, mikä on lopputulos Yhdysvaltain vaaleissa.Puolan puolustusministeri Władysław Kosiniak-Kamysz kirjoitti viestipalvelu X:ssä, että vaalikampanja ei voi olla tekosyy Naton turvallisuudella leikkimiseen.Lähteet: Reuters, STT</t>
         </is>
       </c>
     </row>
@@ -637,29 +746,42 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jarkko Nieminen rakennutti kauhukentän – tästä syystä 396 vaneripalaa siivittivät Suomen sensaatiota</t>
+          <t>Mika Aaltola ilmestyi Alexander Stubbin vaali­val­vo­jaisiin: ”Ilman muuta olen täällä tukemassa”</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072542</t>
+          <t>https://yle.fi/a/74-20074043</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Suomen joukkueen Davis Cup -karsinnat alkavat Turusta 2.–3. helmikuuta, kun Suomi kohtaa Portugalin. Yle näyttää kaikki Suomen joukkueen Davis Cup 2024 -ottelut kanavillaan.Urheilussa puhutaan usein kotikenttäedusta. Tenniksessä, etenkin Davis Cupissa, kentällä on hyvinkin konkreettinen vaikutus.Turnaukseen sisältyy vahva taktinen elementti, sillä kotijoukkue saa valita, millä alustalla pelataan. Päätökseen vaikuttavat ennen kaikkea omien pelaajien vahvuudet, mutta mahdollisesti myös vastustajan heikkoudet.Alustalla on valtava vaikutus pallon käyttäytymiseen. Massalla pallo pomppaa hitaammin ja korkeammalle kuin kovilla kentillä, joilla pallon pomppu on nopea ja matala. Nurmikentät ovat pääsääntöisesti kaikista nopeimpia, mutta niillä pelataan harvoin.Massakentät suosivat pelaajia, jotka tuottavat lyönneillään palloon voimakkaan kierteen. Kovat kentät taas suosivat pelaajia, jotka syöttävät ja lyövät kovaa.Suomen Davis Cup -joukkueen pelaajat kuuluvat jälkimmäiseen kategoriaan.Avaa kuvien katseluJarkko Niemisen mukaan pelialustan nopeus ja matala, eteenpäin vievä pomppu suosivat Suomen joukkuetta. Kuva: Minna Rosvall / YleTäällä pohjoisessa tennistä pelataan sääolojen takia pääsääntöisesti kovilla sisäkentillä. Länsi-Euroopassa ja Etelä-Amerikassa on perinteisesti viihdytty paremmin massakentillä.Tenniskentät jaetaan karkeasti kolmeen eri nopeusluokkaan: hidas, keskinopea ja nopea.Ammattipiireissä nopeutta mitataan 50 yksikön tarkkuudella, jossa 50 on nopein. Kenttien nopeuksista on yleisölle harvoin tarjolla virallisia lukemia.Suomen Davis Cup -joukkueen kapteenin Jarkko Niemisen mukaan Portugalia vastaan käytössä olevan kentän nopeusindeksi on 41. Se rakennettiin sellaiseksi viime vuoden Argentiina-ottelua varten.Argentiinalaiset joutuivat matalapomppuisella alustalla epämukavuusalueelleen, ja Suomi eteni historiallisesti Davis Cupin 16 parhaan joukkoon.– Koin silloin, että me hyödymme alustasta suhteessa enemmän kuin vastustajat. Meidän pelaajamme pääsevät pelaamaan enemmän omilla vahvuuksillaan, kun on tällainen eteenpäinvievä matalahko pomppu.Vaikka kenttä onkin nopea, oli Nieminen alun perin kaavaillut vielä nopeampaa alustaa. Kapteenin toive oli, että nopeusindeksi olisi ollut 43–44.– Aika lähelle päästiin kuitenkin. Argentiina-ottelu meni hienosti, ja haluttiin pitää ihan konkreettisesti sama kenttä nyt Portugalia vastaan.Suomen ja Portugalin kohtaamisen ohjelmaPe 2.2. klo 17.30 alkaenOtto Virtanen (ATP-166) – Nuno Borges (ATP-47)
-Emil Ruusuvuori (ATP-55) – Joao Sousa (ATP-245)La 3.2. klo 15.00 alkaenHarri Heliövaara / Patrik Niklas-Salminen – Francisco Cabral / Nuno Borges
-Emil Ruusuvuori – Nuno Borges
-Otto Virtanen – Joao SousaAvaaKatso tästä, miten Jarkko Nieminen esitteli kenttää aiemmin Urheiluruudussa.396 palan palapeli odotti vuoden varastossaSuomen käyttämä kenttä koostuu 396 vaneripalasta. Se on tanskalaisen firman valmistama. Kentän pinnassa on muutama maalikerros. Alustan nopeutta säädetään lisäämällä maalin sekaan hiekkaa. Maalipinnan kuluessa kenttä nopeutuu.Argentiina-ottelun jälkeen se oli vuoden ajan varastoituna Saksassa ja Tanskassa, ja täksi viikoksi se rahdattiin Turkuun.Kenttä ei ole Suomen Tennisliiton omistama, vaan Suomi on sitoutunut vuokraamaan sitä tietyn ottelumäärän verran. Toimitusjohtaja Teemu Purhon mukaan liitto maksaa kentästä 20 000–30 000 euron viikkovuokraa.Avaa kuvien katseluSuomi pääsee haastamaan Portugalia jo tutuksi tulleella pelialustalla. Kuva: Kimmo Hiltunen / YleAvaa kuvien katseluTurun areenaan on saapumassa suomalaistenniksen ennätysyleisö. Kuva: Kimmo Hiltunen / YlePortugalia vastaan pelialusta ei välttämättä tarjoa aivan samanlaista etua kuin Argentiinaa vastaan.Portugalin ykköspelaaja Nuno Borges eteni viime viikolla päättyneissä kovien kenttien Australian avoimissa aina neljännelle kierrokselle asti, ja nousi rankingissa Emil Ruusuvuoren ohi sijalle 47.Australiassa Borges kaatoi muun muassa kovassa vireessä olleen Grigor Dimitrovin, joka on rankingin 13:s.– Portugalilaiset pelaavat varmasti hyvin tällä alustalla, mutta jos oltaisiin vieraskentällä, niin uskon, että vastustaja olisi valinnut hitaamman alustan, jossa on korkeampi pomppu, Nieminen arvelee.Avaa kuvien katseluOtto Virtanen ja Nuno Borges aloittavat Suomen ja Portugalin välisen Davis Cupin karsintaottelun perjantaina Turussa.  Kuva: Suomen tennisliittoAlustan lisäksi Nieminen uskoo Suomen hyötyvän ennen kaikkea kotiyleisön edessä pelaamisesta. Turun areenaan on kahden päivän tapahtumaan myyty jo yli 13 000 lippua – perjantaiksi 6 100 ja lauantaiksi 7 200.Yleisöennätykset menevät siis komeasti uusiksi. Tennismaajoukkueiden edellinen yleisöennätys on viime vuoden helmikuulta, kun Espoossa Argentiina-ottelussa kahden päivän aikana oli 9 500 katsojaa. Samalla joukkue kirjasi päiväkohtaisen ennätyksensä 5 200 katsojaa.Suomi kohtaa Portugalin tenniksen Davis Cupissa. Yle näyttää ottelut TV2:ssa ja Yle Areenassa. Perjantain ensimmäinen ottelu alkaa klo 17.30. Lauantaina lähetys alkaa Areenassa klo 15.00 ja TV2:ssa klo 15.20.</t>
+          <t>2024-02-11T20:36:37+02:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420074043</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Mika Aaltola osallistui presidentinvaalien ensimmäiselle kierrokselle, mutta hänen kannatuksensa jäi puoleentoista prosenttiin.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Ensimmäisen kierroksen presidenttiehdokas ja Ulkopoliittisen instituutin johtaja Mika Aaltola osallistui kokoomuksen Alexander Stubbin vaalivalvojaisiin.Hän kertoo tukevansa Stubbia presidentiksi.– Stubb on vanha ystäväni, jonka tunnen vuosien varrelta erityisesti noista akateemisista tutkimuskuvioista niin ilman muuta olen täällä tukemassa, Aaltola kommentoi Ylelle vaalivalvojaisissa.Aaltola osallistui ensimmäiselle kierrokselle valitsijayhdistyksen ehdokkaana. Hänen kannatuksensa jäi 1,5 prosenttiin.
+Lisätty kello 20.43 tiedot reaaliaikainen laskennan tilanne.</t>
         </is>
       </c>
     </row>
@@ -668,26 +790,41 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Analyysi: Pekka Haavisto kehui Olli Rehniä – Alexander Stubb toivoi Riikka Purralle talousonnea</t>
+          <t>Näissä asetelmissa vaali-iltaan, arvioivat asiantuntijat</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072585</t>
+          <t>https://yle.fi/a/74-20074023</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Presidentinvaalien toisen kierroksen ehdokkaat kohtasivat torstai-iltana Ylen presidenttiväittelyssä.Valitsijayhdistyksen ja vihreiden presidenttiehdokas Pekka Haavisto ja kokoomuksen presidenttiehdokas Alexander Stubb tavoittelevat lisää ääniä ensimmäisellä kierroksella presidenttikisasta pudonneiden kannattajajoukoista.Ylen presidenttiväittelyssä Pekka Haavisto heitti verkkojaan erityisesti valitsijayhdistyksen ja keskustan ehdokkaana presidentiksi pyrkineen Olli Rehnin äänestäjille.– No tuolla on ollut erittäin hyviä ehdokkaita ensimmäisellä kierroksella ja taisin jossain sanoa, että nukkuisin yöni ihan hyvin, vaikka Olli Rehnin hallitsemassa tasavallassa, Haavisto sanoi.– Totta kai minä tuon Pekan ottaisin, naurahti Alexander Stubb kysymykseen, kenet ensimmäisen kierroksen ehdokkaista hän ottaisi varapresidentiksi, jos sellainen Suomessa olisi.Ehdokkaat kosivat maaseudun äänestäjiäHaavistolla ja Stubbilla on haasteita myös maaseudun äänestäjien tavoittelemisessa.Haavisto kiinnitti huomiota maanviljelijöiden talousvaikeuksiin, kun kustannukset ovat nousseet. Stubb kertoi, että hän on menossa maatilalle perjantaina.Suurin potti kodittomia äänestäjiä on perussuomalaisten ehdokkaana kampanjoineen Jussi Halla-ahon tukijoukoissa.Stubb on pääministeripuolue kokoomuksen ehdokas, mutta hän on varonut leimautumista hallituksen ehdokkaaksi.Ylen presidenttiväittelyssä Stubb toivotti kuitenkin valtiovarainministeri Riikka Purralle (ps.) menestystä talouspolitiikan hoidossa.Erilaisia näkemyksiä Nato-politiikastaPresidenttiväittelyn ensimmäisenä aiheena oli ulko- ja turvallisuuspolitiikka.Haavistolla ja Stubbilla on entisinä ulkoministerinä vahvaa käytännön kokemusta ulkopolitiikan hoitamisesta.Kokemus näkyi ja kuului ehdokkaiden linjauksissa. Vastaukset tulivat nopeasti ja sujuvasti. Näkemyksistä löytyi myös eroja äänestäjien arvioitavaksi.Alexander Stubb edustaa ulko- ja turvallisuuspolitiikassa suoraviivaisempaa linjaa kuin ainakin sanoissaan hieman varovaisempi Haavisto.Presidenttiehdokkaat Alexander Stubb ja Pekka Haavisto sanailivat Suomen Nato-politiikasta Ylen presidenttiväittelyssä 1. helmikuuta 2024.Ydinasepolitiikassa Stubb haluaa viestittää Nato-liittolaisille ja myös Venäjälle, että Suomella ei ole rajoitteita ydinaseiden liikuttelussa tai sijoittamisessa Suomeen.Haavisto muistutti, että ydinenergialaki kieltää ydinaseiden sijoittamisen Suomeen. Stubb vastasi, että lakia voidaan muuttaa.Stubb toivoi, että Suomeen sijoitettaisiin pysyvästi esikuntatehtäviin 40–50 Nato-upseeria.Haaviston mielestä harjoitusyhteistyö riittää, eikä Suomeen tarvita pysyviä Nato-joukkoja.Ehdokkaat säilyttivät malttinsa väittelyssäYlen ensimmäinen presidenttiväittely ei presidenttikisaa vielä ratkaissut.Haavisto ja Stubb säilyttivät hyvin malttinsa väittelyssä.Nopeassa sanailussa äänestäjillä saattoi olla välillä hieman vaikeuksia pysyä mukana, mutta koko väittelyn voi katsoa uudelleen Yle Areenasta.Katso koko presidenttiväittely.Presidentinvaalien toisen kierroksen ehdokkaat Pekka Haavisto ja Alexander Stubb kohtasivat Ylen presidenttiväittelyssä 1. helmikuuta 2024.</t>
+          <t>2024-02-11T19:43:12+02:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420074023</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ehdokkaiden välinen ero voi jäädä pieneksi, arvioivat vaaliasiantuntijat.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Vaali-iltaan lähdetään kokoomuksen Alexander Stubbin johtoasemassa, mutta vahvana haastajana on valitsijayhdistyksen ja vihreiden tukema Pekka Haavisto.Ylen tulosillan vaalistudiossa presidentinvaalien toisen kierroksen tulosta arvioitiin ennen ennakkoäänien julkistamista.Ennakkoäänien tulosta odotetaan pian kello 20 jälkeen. Tuleva presidentti saattaa selvitä ennakkoäänten perusteella.– Tiedämme ehkä melko varmasti, mutta emme täysin varmasti. Kiinnostavaa nähdä, miten hyvin kannatusmittaukset osuvat kohdalleen, paljon riippuu äänestysprosentista, totesi Ylen vaaliasiantuntija ja Kunnallisalan kehittämissäätiön tutkimuspäällikkö Sami Borg.Borgin mukaan tämä menee tasaisten kierrosten joukkoon. Hänestä on mielenkiintoista nähdä, meneekö yhtä tiukoille kuin vuosina 2000 ja 2006.– Stubb on kantanut ennakkosuosikin viittaa marraskuusta 2023 kyselystä saakka ja kantaa sitä edelleen. Haavisto on ärhäkkänä viimeisissä tenteissä. Haavisto on kirinyt ja saanut nimekkäitä vaikuttajia taakseen sekä taloudellista tukea. Mielenkiintoista nähdä, näkyykö tämä loppukiri, sanoi Ylen Politiikka ja yhteiskunta -toimituksen päällikkö Paula Pokkinen.Ennakkoäänet osoittavat suuntaa, mutta lopullinen tulos ratkeaa vasta myöhemmin laskennan edetessä.Kello 20:18 Kuvatekstiin päivitetty tarkentunut ennakkoäänetysprosentti.</t>
         </is>
       </c>
     </row>
@@ -696,26 +833,41 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Neljä huippukohtaa Stubbin ja Haaviston presi­dent­ti­väit­telystä</t>
+          <t>Ulkomainen media pitää tulevan presidentin tärkeimpänä tehtävänä Suomen luotsaamista Natossa</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072600</t>
+          <t>https://yle.fi/a/74-20074035</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Presidentinvaalien toisen kierroksen ehdokkaat, kokoomuksen Alexander Stubb ja vihreiden tukema, valitsijayhdistyksen Pekka Haavisto kohtasivat Ylen presidenttiväittelyssä torstaina. Katso alta neljä huippukohtaa.Alexander Stubb ehdottaa Suomeen jonkinlaista Naton alaesikuntaa, jossa ei olisi kysymys tukikohdasta vaan muutamasta kymmenestä upseerista. Haaviston mukaan Suomen puolustus nojaa suomalaisiin eikä turvallisuustilanne ole sellainen, että Nato-joukkoja tarvittaisiin.Pekka Haavisto ei halua Suomen liikuttavan ydinaseita konkreettisesti. Alexander Stubbin mukaan Suomella on nyt mahdollisuus saada ydinasepelote. Hänen mukaansa on kyse siitä, että Suomi viestittää muulle maailmalle, ettei sillä ole rajoitteita Nato-jäsenyytensä suhteen.Haavisto voisi presidenttinä ottaa kantaan työmarkkina-asioihin kulisseissa. Hän suosittelisi sopimusyhteiskunnassa pysymistä eikä rajujen selkävoittojen ottamista.Alexander Stubbin mukaan presidentin tehtävä ei ole tukea hallituksen politiikkaa. Hän sanoo olevansa asian kanssa varovainen, koska on ollut itsekin hallitusvastuussa, joissa päätökset ovat olleet hankalia.Yle näyttää vielä ensi viikon torstaina 8. helmikuuta toisen presidenttiväittelyn, jolloin teemana on erityisesti ulkopolitiikka.</t>
+          <t>2024-02-11T19:32:14+02:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420074035</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Huomiota on saanut myös ehdokkaiden näkemysero koskien ydinaseita ja Nato-joukkojen sijoittaminen Suomeen. Myös kansainvälinen media pitää Stubbia ennakkosuosikkina.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Ulkomaisissa tiedotusvälineissä Suomen presidentinvaalit kiteytyvät Suomen rooliin Natossa ja ehdokkaiden välille eroja luoneeseen ydinasekysymykseen. Esimerkiksi qatarilainen uutismedia Al Jazeera kertoo, että tulevan presidentin päätehtävänä on ”ohjata ulko- ja turvallisuuspolitiikkaa, joka on saanut uuden merkityksen Suomen liityttyä Natoon vastauksena Venäjän hyökkäykselle Ukrainaan”.Yleisesti ottaen kansainvälinen lehdistö näkee Alexander Stubbin (kok.) ennakkosuosikkina, ja kilpakumppani Pekka Haavistoa (valitsijayhdistys, vihr.) pidetään ihmisoikeus- ja ympäristökysymyksiin painottuneena, hieman Stubbia vasemmalla olevana ehdokkaana.Kansainvälisessä mediassa ehdokkaita pidetään hyvin samanmielisinä, vaikka monet mediat nostavatkin esiin ehdokkaiden eriävät näkemykset koskien ydinaseita ja Nato-joukkojen sijoittamista Suomeen. Muun muassa saksalainen Deutsche Welle on nostanut esiin Stubbin lausunnon, jonka mukaan ”ydinase on toisinaan rauhan tae”.Brittilehti The Guardian kertoo, että suomalaisille keskeisiä vaaliteemoja ovat olleet kansainvälinen turvallisuus ja puolustuspolitiikka itärajan tilanteen vuoksi. Lehti nostaa esiin Stubbin kommentin, jonka mukaan ”ulkopolitiikka ja turvallisuus ovat Suomen kannalta eksistentiaalisia kysymyksiä”.Lisäksi suomalaisehdokkaiden tapaa kampanjoida pidetään yllättävänä. Saksan yleisradioyhtiö ARD:n uutissivusto Tagesschau kertoo, että ”saksalaisin silmin” katsottuna vaalikampanjointi on ollut ”uskomattoman sivistynyttä” ja että ehdokkaat harvoin puhuvat pahasti kilpailijoistaan.Myös ruotsalaismedioissa ehdokkaat esitellään samanmielisinäEsimerkiksi Ruotsissa sanomalehti Aftonbladet kertoo, että vaalitaisto käydään ”polkupyörä-Stubbin” ja ”DJ Pexin” välillä, ja ennakkosuosikkina pidetään Stubbia. Samaisessa jutussa on nostettu esiin myös molempien ehdokkaiden sukujuuret Ruotsissa. Aftonbladet kirjoittaa, että ”molemmat ehdokkaat näyttävät olevan suurimmalta osin samaa mieltä”, mutta ydinaseisiin liittyvät kysymykset luovat suurimmat erot ehdokkaiden välillä.Ruotsin yleisradioyhtiö SVT puolestaan käsittelee Haaviston seksuaalista suuntautumista. SVT viittaa Helsingin yliopiston kansalaisbarometriin, jossa kolmannes vastanneista kertoi, että Haaviston kumppani on syy olla äänestämättä häntä.– Se oli hieman yllättävää siinä mielessä, että olen ollut ehdokkaana pari kertaa aiemmin. Sillä ei ole ollut mitään merkitystä. Mutta nyt kun olen toisella kierroksella, se tuli aika vahvasti esiin, Haavisto sanoo SVT:n haastattelussa.Sanomalehti Dagens Nyheterissä julkaistussa reportaasissa kerrotaan Espoon Westendin äänestäjien mietteistä. Stubbia kehutaan diplomaattiseksi ja taitavaksi poliitikoksi, joka haluaa tiivistää suhteita Yhdysvaltoihin. Stubb ei kuitenkaan välty kritiikiltä: yksi haastateltavista kritisoi Stubbin puolueen kokoomuksen politiikkaa hallituksessa, eikä tämän vuoksi halua äänestää Westendissä asuvaa Stubbia.Lehti esittelee sekä Haaviston että Stubbin liberaaleina ehdokkaina. Dagens Nyheter kirjoittaa, että Haavisto on ”Stubbista katsottuna vasemmalla” ja että Haavisto on painottanut ilmasto- ja ihmisoikeuskysymyksiä.Yhdysvalloissa media painottaa Nato-Suomen ulkopolitiikkaaUutistoimisto AP kirjoittaa, että suomalaiset äänestäjät valitsevat tänään sunnuntaina presidentin kahden kokeneen ehdokkaan välillä. Presidentin tärkeimpänä tehtävänä pidetään Nato-Suomen ulkopolitiikan ohjaamista. Myös AP huomioi ehdokkaiden samanmielisyyden sekä ydinasekysymyksen esille tuomat näkemyserot.Sanomalehti The New York Times kirjoittaa, että ”suomalaiset valitsevat vaaleissa johtajan, joka on ratkaisevassa osassa, kun maan roolia määritetään sotilasliitto Natossa aikana, jolloin suhteet Venäjään kiristyvät”. Lehden mukaan Suomen vaalit saattaisivat tyypillisesti saada vain vähän huomiota ukomailla, mutta Suomen Nato-jäsenyys ja pitkä raja Venäjän kanssa on herättänyt erityistä kiinnostusta ”Suomen eurooppalaisten ja amerikkalaisten liittolaisten keskuudessa geopoliittisen järjestyksen muuttuessa”.</t>
         </is>
       </c>
     </row>
@@ -724,27 +876,41 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Lauri Kontron kolumni: Vero­kes­kus­telussa hämärtyy metsä puilta</t>
+          <t>Sisälämpötila kymmenen astetta, mutta sähkölasku satoja euroja – Sandra Strömvall joutuu palaamaan öljy­läm­mi­tykseen</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072481</t>
+          <t>https://yle.fi/a/74-20073583</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>KolumniKolumneja kirjoittaa laaja joukko Ylen ulkopuolisia tekijöitä.Lue kolumneja
-Kuuntele kolumneja Yle AreenassaMuistatteko tarinan norsusta ja viidestä miehestä. Kertomus voisi kuvata myös suomalaista verokeskustelua.Miesjoukko hapuili savannilla ja törmäsi norsuun pimeässä. Estettä ryhdyttiin tunnistamaan käsikopelolla.Miehistä ensimmäinen sanoi: olemme törmänneet letkuun. Se on joustava ja sitä on helppo taivutella.Toinen oli eri mieltä. Tämähän on keihäs, terävä keihäs.Kolmannella oli ihan toinen käsitys. Kyllä tämä on iso puu, akaasiapuu.Ei ole, neljäs sanoi. Tämä on köysi.Viidennen mielestä edessä oli suuri muuri. Sen yli ei päästäisi.Jokainen oli oikeassa, omasta näkökulmastaan. Kaikki nuo yksityiskohdat löytyivät elefantista. Silti kukaan ei hahmottanut kokonaisuutta.Sama koskee verotusta: katsomme yksityiskohtia – emme kokonaisuutta.Suurin osa noin 115 miljardin euron veropotista kerätään kansalaisten ja yritysten tuloista. Silti yksi erityisen hiertävä vero on perintövero. Sen poistamista vaaditaan usein.Kuitenkin juuri perintövero on Suomessa varsin matala - joitakin suuria perintöjä lukuun ottamatta. Perintöveron poistaminen, Ruotsin tapaan, voisi johtaa kuitenkin jopa perinnönsaajan lopullisen verotuksen kiristymiseen.Suurin osa veropotista kerätään tuloista. Silti yksi erityisen hiertävä vero on perintövero.Veroja voi tietysti myös vältellä, esimerkiksi muuttamalla kirjansa ulkomaille, kuten vaikkapa Björn Wahlroos on tehnyt. Syyksi veropakolaisuuten mainitaan usein Suomen korkea verotus. Ehkä muitakin syitä kuitenkin löytyy. Todella isoista pääomatuloista kun maksetaan veroja paljon vähemmän kuin vastaavista palkkatuloista – ja pääomatulojahan suuret tulot yleensä ovat.Jotkut miljonääreistä, kuten vaikkapa Supercellin Ilkka Paananen sanovat kuitenkin maksavansa veronsa mielellään Suomeen: ovathan he saaneet tästä maasta koulutuksen, hyvän elämän ja sosiaaliturvan. Mielenkiintoista on myös se, että varsinaiset superrikkaat, miljardöörit, suorastaan vaativat, että heidän verotustaan kiristettäisiin.Järjestelmän uudistamisen estää etujärjestöjen paine.Valtio kerää suuren potin verottaessaan kaupantekoa. Arvonlisäverokantoja on neljä, nollasta 24 prosenttiin. Voidaan kysyä, miksi näin on, kun vähempikin riittäisi?Jos prosentti olisi kaikille sama, korkein prosentti alenisi ja alimmat nousisivat. Todennäköisesti sekä talous että kuluttajat hyötyisivät. Mutta tässä järjestelmän uudistamisen estää etujärjestöjen paine.Ja on verotuksessa muutakin mahdotonta muuttaa. Sekä ammattiyhdistykset että työnantajat valvovat silmä kovana omia etuoikeuksiaan. Järjestöt saavat kuitata pörssiosinkonsa verovapaasti – tavalliset kansalaiset sen sijaan maksavat pienistä osinkotuloistaan veron. Ay-liikkeen ja työnantajaleirin järjestöjä nimitetäänkin usein Hakaniemen ja Etelärannan veroparatiiseiksi.Verotus ei siis ole aina loogista, eikä ole koskaan ollutkaan.On suosittua vaatia verohelpotuksia pienituloisille, kukapa sitä vastustaisi. Eikä tarvitsekaan vastustaa, sillä pienituloiset eivät todellisuudessa maksa paljoa veroja. Esimerkiksi veroista vähäisintä, Yle-veroa, ei maksa kuin kaksi kolmasosaa verovelvollisista. Silti juuri tämä vero tuntuu ärsyttävän erityisesti, vaikka se kustantaa enimmilläänkin kuukaudessa saman verran kuin kaksi tuoppia kaljaa.Jokaisella on mielipide myös auto- ja bensaverosta. Ei ihme, sillä kyseessä ei ole yksinkertainen juttu. Autovero on sidottu auton tuottamiin haitallisiin päästöihin, saastuttaja maksaa enemmän, mutta haitoista lasketaan mukaan vain osa. Sähköautot, jotka eivät tuota pakokaasuja, tuottavat auton valmistusprosessissa enemmän päästöjä kuin perinteiset autot. Tätä verotuksessa ei taas oteta huomioon.Tupakkaa ja viinaa verotetaan terveyssyistä. Jostain syystä rasvan ja sokerin verotusta ei saada millään aikaan.Verotus ei siis ole aina loogista, eikä ole koskaan ollutkaan. Kautta aikain on keksitty luovasti veroja kuten ikkunavero, partavero, koiravero, vanhanpiianvero, huvivero, pelikorttivero, somevero – ja autojen peräkoukkuvero.Veroja tietysti tarvitaan, koska valtio tarvitsee rahaa. Tupakkaa ja viinaakin verotetaan, mikä on järkevää, ovathan ne epäterveellisiä aineita. Terveyden kannalta olisi hyviä verottaa myös sokeria ja rasvaa. Jostain syystä sitä ei saada millään aikaan.Veronurinoistamme huolimatta olemme kuitenkin hyviä veronmaksajia. Gallupien mukaan korkeat verot myös hyväksytään – varsinkin naapurin korkeat verot. Omista ei ole niin suurta väliä.Lauri KontroKirjoittaja on vapaa toimittaja.Kirjoittajalle voi lähettää suoraan palautetta osoitteeseen lauri.kontro@gmail.com</t>
+          <t>2024-02-11T12:46:32+02:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420073583</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Kallis sähkö ja kylmä sää pakottavat talonomistajia ottamaan fossiiliset keinot käyttöön. Yli 22 000 pientaloa on jo tehnyt tuetun lämmitysremontin.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Vaasalainen Sandra Strömvall pitää kotinsa sisälämpötilan minimissä.Tammikuun sähkölasku kiinteällä sähköhinnalla on silti noin 450 euroa, hän arvelee Svenska Ylen haastattelussa.Strömvall asuu 1930-luvulla rakennetussa paritalossa. Korkea sähkön hinta on vaikuttanut hänen elämäänsä suuressa määrin viime vuosina.Lisää: Monessa kodissa avataan nyt karuja sähkölaskuja ‒ suolaiseen hintaan on kaksi syytä, näin laskua voi siirtääVaikka sisälämpötila pidettäisiin alhaisena, kuluttavat Strömvallin mukaan ilmalämpöpumppu, lämminvesivaraaja ja patterit kylmimpinä päivinä jopa 100 kilowattituntia vuorokaudessa.Joulukuussa Strömvallilla oli pörssisähkö, ja sähkölasku oli vajaa 300 euroa.– Minulla oli korkeintaan kymmenen astetta lämmintä talon lämpimimmässä paikassa. Sähkölasku tuntuu hieman kalliilta, ottaen huomioon kuinka kylmä täällä on.Avaa kuvien katseluSandra Strömvall pitää mielialansa korkealla, vaikka sisätiloissa on kylmä niin ihmisille kuin kissoillekin. Kuva: Jessica Morney / YleTammikuu oli kylmempi kuin vuosiin ja pörssisähkön hinta vaihteli, ollen paikoin kovempi kuin loppuvuodesta 2023. Yhtälö näkyy nyt etenkin monen vanhan talon sähkölaskussa.Kylmimpinä päivinä Strömvall joutui kamppailemaan pitääkseen lämpötilan kotona plussalla.Vaikka hän sulki osia talosta, makuuhuoneessa lämpötila oli pakkasen puolella.Keittiössä lämpötila oli neljä astetta.Strömvallin pihalla on iso puukasa pressun alla. Takka ei varastoi lämpöä, mutta on olohuoneessa Strömvallin mukaan mukavampi olla, kun takassa palaa tuli.”En ole vielä löytänyt sopivaa ratkaisua”Strömvall aikoo palata osittaiseen öljylämmitykseen, vaikka moni muu on siirtymässä siitä pois.Tilanne harmittaa.– Haluaisin investoida kaukolämpöön tai maalämpöön, mutta en ole vielä löytänyt talooni sopivaa ratkaisua. Öljylämmitykseen palaaminen ei ole kivaa, ei ympäristön eikä lompakon kannalta, Strömvall sanoo.Hallituksen tavoite on, että fossiilisen öljyn lämmityskäytöstä luovutaan 2030-luvun alkuun mennessä.Vielä viime kesänä Suomessa oli reilut 100 000 öljyllä lämpenevää pientaloa. Yle uutisoi tuolloin, että huomattava osa taloista oli kasvukeskusten ulkopuolella eikä energiaremontin toteuttaminen ollut niille kaikille kannattavaa.Lisää: Talo öljylämmityksellä ei käy kaupaksi edes kaupungin lähiössä, mutta haja-asutusalueella energiaremontti ei välttämättä kannataAvaa kuvien katseluVaasalainen Sandra Strömvall on joskus nukkunut olohuoneen tulisijan ääressä pysyäkseen lämpimänä. Kuva: Jessica Morney / YleElinkeino-, liikenne- ja ympäristökeskuksen avustusta pientalon fossiilisesta öljy- tai maakaasulämmityksestä luopumiseen oli viime lokakuun tietojen mukaan jäljellä vielä noin 42 miljoonaa euroa.Avustusta oli myönnetty noin 25 000 öljylämmityksen vaihtajalle ja noin 1 000 maakaasulämmityksen vaihtajalle yhteensä noin 88 miljoonaa euroa. Lämmitysremontti oli elyn mukaan toteutettu siis jo yli 22 300 pientalossa.Elyn tukea voi hakea, jos pientalo siirtyy öljylämmityksestä maalämpöpumpun- tai ilma-vesilämpöpumpun käyttöön tai kaukolämpöön.Avustuspäätöksiä voidaan tehdä enintään elokuuhun 2025 asti.Artikkeli on mukailtu käännös Svenska Ylen toimittaja Jessica Morneyn artikkelista: Kylan och dyr el tvingar Sandra att starta oljepannan igen – hemma hos henne är det 10 grader varmt</t>
         </is>
       </c>
     </row>
@@ -753,26 +919,41 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Käsivarren Lapissa lumikaaos – katso taksin­kul­jet­tajan ottamat kuvat</t>
+          <t>Tällainen on Windows95man eli Teemu Keisteri: speedoja ja Ukkeli-taidetta</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072577</t>
+          <t>https://yle.fi/a/74-20074013</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Voimakkaat myrskypuuskat ovat ravistelleet Lappia torstaina.Ajokeli on erittäin huono Käsivarren Lapissa. Enontekiöläinen taksiautoilija Elli-Maria Kultima kertoi alkuillasta jääneensä jumiin autollaan tien syrjään Muotkatakan kohdalla, vaikka vauhtia oli vain vähän. Lunta oli kertymässä tielle, ja näkyvyyttä oli iltapäivällä vain muutamia metrejä.– Ylämäkeen täytyy pikkuisen vauhtia pitää, Kultima sanoo.Avaa kuvien katseluNäkyvyyttä muutamia metrejä. Tältä näytti torstai-iltapäivänä Valtatie 21 Enontekiöllä.  Kuva: Elli-Maria Kultima Ylämäkeä seudulla riittää, sillä Muotkatakassa sijaitsee Suomen maanteiden korkein kohta. Autossa oli onneksi lämmin, ja puoli kahdeksan aikaan illalla Kultima kertookin jo päässeensä pinteestä, sillä hänen sukulaisensa saapuivat apuun.– Älä lähde ajamaan, jos ei ole pakko, kuuluu Elli-Maria Kultiman neuvo.Kymmeniä vuosia ajanut Kultima ei muista, milloin viimeksi ajokeli olisi ollut yhtä huono. Kultiman mukaan myös muita autoja on jäänyt kiinni tiellä.Finntrafficin mukaan huono sää jatkuu maan pohjoisosassa puoleen yöhön saakka. Ajokeli on huono lumi- ja räntäsateen vuoksi. Paikoin kova tuuli kinostaa lunta.Norjassa Ingunn-myrskyn tuulet raivosivat torstain vastaisena yönä hirmumyrskylukemissa.Avaa kuvien katseluPohjois-Norjan Tromssan myrskyä kuvattuna torstaina. Norjan myrskylle on annettu nimeksi Ingunn. Kuva: Seija TuulentieReittilennoilla vaikeuksia RovaniemelläUseat ulkomaiset reittilennot eivät päässeet laskeutumaan aikataulussa Rovaniemen lentokentälle torstaina myräkän vuoksi.Rovaniemelle oli tarkoitus torstaina laskeutua kuusi lentoa, mutta lentoaseman päällikkö Johan Juujärven mukaan vain kaksi niistä pääsi laskeutumaan normaaliajassa.Kaksi Ryanairin lentoa ja yksi Transavia Francen lento joutuivat ensi lentämään Luulajaan. Myöhemmin torstaina ne pääsivät hakemaan matkustajansa sään parannuttua.Eurowingsin lento sen sijaan lensi Luulajaan tankkaamaan, ja palasi Saksaan. Se palaa perjantaina hakemaan matkustajansa.Normaalisti pääsivät laskeutumaan Turkish Airlines sekä charter-lento Freebird.</t>
+          <t>2024-02-11T16:36:58+02:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420074013</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Tiesitkö, että Windows95man tekee myös kuvataidetta ja on ollut kiertueella Japanissakin?</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Tuore UMK-voittaja, DJ- ja kuvataiteilija Teemu Keisteri ryhtyi julkaisemaan teemoiltaan ja tasoltaan vaihtelevia videoita Youtubeen jo vuoden 2006 tienoilla. Videoissa Keisteri soittaa muun muassa musiikkia, versioi Swedish House Mafia -yhtyettä ja esiintyy usein vähäpukeisena. Esimerkiksi vuonna 2012 tehdyllä Ukkeli puu -videolla näkyy niin sanottu työmiehen hymy.Vuoden 2013 DJ-keikka Flow-festivaaleilla sementoi Windows95man-hahmon sellaiseksi, kuin se nähtiin UMK-finaalissa. Asuun kuuluvat lyhyiksi leikatut shortsit, valkoinen Windows95-paita, lippis sekä toisinaan myös 90-lukulaista rekvisiittaa. Aiemmin Keisteri oli vetänyt kuumatunnelmaisia DJ-keikkojaan myös pelkissä ”jäätävissä” speedoissa.Windows95man on esiintynyt vuoden 2022 Helsingin kaupungin uudenvuoden juhlassa, toiminut Käärijän jäähallikeikan lämmittelijänä ja käynyt Japanissakin. Vuoden 2016 Japanin kiertueeseen kuului muun muassa Osaka, jossa saatiin nauttia ysäri- ja italodiscoon nojaavasta musasta.Ukkelitaidetta kultakauden klassikoistaKeisteri tunnetaan myös iloittelevasta ja värikkäästä Ukkeli-taiteestaan ja hän on pitänyt myös omaa taidegalleriaa Helsingissä.Ukkeli-taiteen hengessä Keisteri on maalannut muun muun muassa uusia versioita kotimaisista taideklassikoista, kuten Haavoittunut Ukkeli, Taistelevat Ukkelit ja Ukkelin äiti, joiden lähtökohtina ovat olleet Hugo Simbergin Haavoittunut enkeli, Ferdinand von Wrightin Taistelevat metsot sekä Akseli Gallen-Kallelan Lemminkäisen äiti. Ukkeli-taiteen keskiössä on usein keltainen, niin – ukkeli. Teoksia voisi tarkastella esimerkiksi pop-taiteen kontekstista.Vuonna 2020 Keisteri teki yhteistyötä Vaasan sähkön kanssa ja Ukkeli-taiteella koristeltu pinkki kontti kiersi ympäri Suomea muun muassa festareilla, kuten Turun Aura Festissä.Ei alkoholilleKeisteri on ollut esiintymässä myös alkoholittomassa yökerhoklubi Sober Furiousissa. Vuonna 2021 Keisteriä haastateltiin Ylen Darravapaana -podcastiin. Hän kertoo lopettaneensa juomisen tilanteessa, jossa joutui pohtimaan Helsingin keskuspuistossa kriisipuhelimeen soittaessaan, lähteäkö ”elämän polulle vai kuoleman tuhoon”. Keisterin mukaan oli hyvä lopettaa alkoholin juominen ”ennen kuin menettää kaiken”.UMK:ssa Windows95man julkaisi ensimmäisen oman singlensä, No Rulesin. Kappaleen nimi viittaa artistin mottoon, joka musiikin ohella näkyy hänen muussakin tekemisessään.– Mielestäni kaikki suomalaiset ovat syvällä sisimmässään hieman hulluja, ja halusin tuoda tuota piirrettä enemmän esille. Nyt pääsen myös itse tuomaan musiikkini suuremman yleisön tietoon ja samalla levittää No Rules -biisin ilosanomaa, Keisteri kertoo Ylen haastattelussa.Siviilielämässä Teemu Keisteri on Espoossa asuva perheenisä.Windows95man voitti UMK:n lauantaina.</t>
         </is>
       </c>
     </row>
@@ -781,26 +962,41 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Miljar­di­bisnes ulkomerellä odottaa pelisääntöjä – tuuli­voi­mayhtiöt haluavat yksi­noi­keuksia merialueiden käyttöön</t>
+          <t>”Täydellinen yllätys” – näin Windows95manin voittoon reagoitiin naapurimaissa</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072461</t>
+          <t>https://yle.fi/a/74-20074009</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Merituulivoiman rakentaminen on Suomelle ja maan teollisuudelle valtava mahdollisuus.Tutkimuslupia tuulivoimayhtiöille on Suomen läntisen merialueen talousvyöhykkeelle myönnetty toistakymmentä, ja osa hankkeista on edennyt jo ympäristövaikutusten arviontimenettelyyn saakka.Tuulivoima-ala haluaisi nopeasti saada tarkat pelisäännöt siihen, ketkä lopulta saavat oikeuksia rakentaa merituulivoimaa talousvyöhykkeelle. Tähtäimessä on malli, jossa yhtiölle myönnettäisiin jo varsin varhaisessa vaiheessa yksinoikeus tietylle alueelle.Talousvyöhykkeellä tarkoitetaan aluevesien ulkopuolista merialuetta, jossa Suomella on oikeus tutkia ja hyödyntää luonnonvaroja.Avaa kuvien katseluSuomen tuulivoimayhdistyksen toiminnanjohtaja Anni Mikkonen korostaa yrityslähtöisyyttä merituulivoimahankkeissa. Kuva: Esa Syväkuru / YleTällä hetkellä uusia merialueita pääsee kyllä tutkimaan, mutta jatko tästä eteenpäin onkin pitkälti hämärän peitossa. Kiirekin olisi, sillä ensimmäiset investointipäätökset aiotaan tehdä lähivuosina.Esimerkiksi kolmea jättikokoista merituulipuistoa suunnitteleva OX2-yhtiö arvioi, että luvitusprosessin sujuessa liukkaasti sähköntuotanto voisi alkaa jo vuonna 2030.Anomuksia yksinoikeuksista on jo tehty työ- ja elinkeinoministeriölle, vaikka itse lainsäädäntöhanke on vielä kesken.Toistaiseksi Suomessa on vasta yksi merellä toimiva tuulipuisto. Porin edustalla sähköä tuottava Tahkoluodon merituulipuisto on sekin laajenemassa.Tavoitteena on saada merituulivoimaa koskeva talousvyöhykelaki lausuntokierrokselle tänä keväänä ja eduskuntaan syksyllä.– Keskeistä uudessa laissa olisi se, että yritys voisi saada yksinoikeuden haluamalleen merialueelle. Malli voisi olla sellainen, että alustavien tutkimusten jälkeen valtio kilpailuttaisi alueen siitä kiinnostuneille, kiteyttää Suomen tuulivoimayhdistyksen toiminnanjohtaja Anni Mikkonen.Ministeri: Sääntöjen oltavat selkeätYmpäristö- ja ilmastoministeri Kai Mykkänen (kok.) puolestaan korostaa, että kyse on ainutlaatuisista alueista, joita on olemassa rajallinen määrä.Hallitusohjelmaan on kirjattu tavoitteeksi pelisääntöjen lisäksi edistää kunnianhimoisesti merituulivoiman rakentamista.Avaa kuvien katseluYmpäristö- ja ilmastoministeri Kai Mykkänen (kok.) haluaa merituulivoimalle kestävät ja kilpailukykyiset pelisäännöt. Kuva: Tiina Jutila / Yle– Meidän täytyy löytää oikeudenmukainen ja suomalaisen veronmaksajan kannalta järkevä tapa kaupata oikeuksia merituulivoiman tuotantoon, Mykkänen toteaa.Hän pitää tärkeänä, että pelisäännöistä tehdään riittävän selkeät, jotta Suomi pystyy kilpailemaan miljardiluokan hankkeista esimerkiksi Ruotsin, Tanskan tai Saksan kanssa.– Tavoite on, että merituulivoima ei kohtuuttomasti häiritse muuta toimintaa ja toisaalta pelisääntöjen pitää viestittää tuulivoimayhtiöille, että Suomeen kannattaa panostaa, Mykkänen sanoo.Tuulivoimayhtiöiden halu saada varhaisessa vaiheessa yksinoikeuksia parhaille merituulivoima-alueille on ymmärrettävää.Kuuntele, millaisia ajatuksia ministeri Kai Mykkäsellä on merituulivoiman pelisäännöistäSopivan alueen tutkimiseen ja ympäristövaikutusten arviointiin uppoaa iso säkillinen miljoonia, eivätkä yhtiöt nykytilanteessa voi olla varmoja siitä, kuka lopulta saa ja millaisin ehdoin oikeuden merituulivoiman rakentamiseen tietylle alueelle.Miljardeja euroja verotuloja?Varsin kriittinen asia merituulivoimaa koskevan talousvyöhykelain valmistelussa on se, miten merituulivoimaa tulevaisuudessa verotetaan. Se on olennainen kysymys, kun nyt hankkeitaan valmistelevat tuulivoimayhtiöt tekevät kannattavuuslaskelmiaan.Alan toimijat ovat viestineet julkisuuteen toiveen, että valtio ei rahastaisi tuulivoimayhtiöitä siinä vaiheessa, kun merialueiden käyttöoikeuksia kilpailutetaan.Toiveena on, että valtion kassa saisi täytettä esimerkiksi kohtuullisen kiinteistöverotuksen ja käyttöoikeusmaksujen muodossa. Iso hyöty yhteiskunnalle tulee jo siitä, jos arviot voimaloiden rakentamisen ja ylläpidon työllisyysvaikutuksista pitävät. Toimitusjohtaja Anni Mikkonen valottaa tuulivoimayhtiöiden toiveita merituulivoiman verottamisestaJos kaikki vireillä olevat merituulivoimahankkeet toteutuisivat, tuottaisi se viime keväänä tehdyn arvion mukaan Suomelle usean miljardin euron verohyödyn ja työtä lähes 150 000 henkilötyövuoden edestä.Suomen tuulivoimayhdistyksen toimitusjohtaja Anni Mikkonen muistuttaa, että tuulivoimaloiden rakentaminen jopa sadan kilometrin päähän Suomen rantaviivasta on kallista puuhaa.– Rakentamisen kalleus pitäisi huomioida tulevaisuuden verotuksessa, ettei lisätä sitä kustannusrasitetta kohtuuttomasti talousvyöhykkeelle, Mikkonen tiivistää.</t>
+          <t>2024-02-11T14:49:59+02:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420074009</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suomen viisukarsinnoista on kirjoitettu muun muassa Ruotsin ja Viron mediassa. </t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Windows95manin voitto Suomen euroviisukarsinnoissa on saanut myös kansainvälistä huomiota. Raisu esitys on huomioitu etenkin naapurimaamme Ruotsin mediassa.Expressen-iltapäivälehdessä todetaan, että Windows95manin shown aikana voi todellakin tapahtua ihan mitä tahansa ja viitataan samalla farkkuihin puettuun jättiläismunaan, artistin ”pieniin kalsongeihin” ja 1990-luvun Casio-rannekelloon.Expressen on poiminut artikkeliinsa myös ruotsalaisten X:ään (entinen Twitter) kirjoittamia sosiaalisen median kommentteja, joissa kehutaan esityksen huumoria ja railakkuutta.– Hauskaa ja 90-luvun viboja. Hyvä valinta, Suomi! kirjoittaa Windows95manin tyyliin ihastunut viisufani.Ihan kaikkien ruotsalaisten suosiota Windows95man ei kuitenkaan ole saavuttanut.– Suomi, sinä joudut vielä maksamaan rikoksestasi, puhkuu pettynyt katsoja.Avaa kuvien katseluNublun ja Mikael Gabrielin esitystä.  Kuva: Miikka Varila / YleVirossa haikaillaan Mikael Gabrielin ja Nublun peräänViron Õhtuleht taas kiteyttää Windows95manin voiton kahteen sanaan: ”täydellinen yllätys”. Virossa Suomen euroviisukarsinnat ovat luonnollisestikin kiinnostaneet, koska Mikael Gabrielin kanssa esiintyi virolaisen hip hopin kärkinimi Nublu. Õhtuleht huomioikin, että kaksikko sai finaalissa raikuvat aplodit.Lehdessä todetaan myös, että suursuosikkina oli etukäteen Sara Siipola, mutta että alushousuihin pukeutunut mies voitti suomalaisten sydämet.ERR eli Viron yleisradio kertoo jo juttunsa otsikossa, että Mikael Gabriel ja Nublu pääsivät Vox Populi -kappaleellaan vasta kolmannelle sijalle. Jutussa kirjoitetaan myös, että voitto oli yllätys myös Windows95manille eli Teemu Keisterille ja Henri Piispaselle.</t>
         </is>
       </c>
     </row>
@@ -809,30 +1005,41 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Kammokeli iski, mutta kokenut ratamestari ei hätkähtänyt – histo­rial­linen jättihankinta takaa lumiset ladut</t>
+          <t>Analyysi: Windows95man voitti – viisutosikot tyrmistyivät</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072582</t>
+          <t>https://yle.fi/a/74-20073993</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Tänä viikonloppuna Vantaalla ratkotaan hiihdon Suomen mestaruudet vapaan hiihtotavan sprinteissä, perinteisen hiihtotavan 20 kilometrillä ja perinteisen hiihtotavan parisprintissä.Eteläisessä Suomessa on viime päivinä satanut ja lämpötila on ollut päivisin plussalla. Hakunilan SM-kisojen ratamestarin Juha Savolaisen puhelimet ovat käyneet kuumina, mutta hän ei ole kuitenkaan menettänyt yöuniaan kisapaikkakunnan olosuhteiden takia. Tilanne on hänen mukaansa normaali.– Talven säätiedotuksessa on normaalisti pakkasta ja hyvä keli, mutta kun vesisadetta rupeaa tulemaan, se tarkoittaa, että hiihtokisat Vantaalla lähestyvät, hän naurahtaa.– Tämän kanssa on totuttu elämään. Radat ovat hyvässä kunnossa, ja ihan hyvää palautetta tullut.Säälle ei anneta periksi – ainakaan helpollaTorstain iltapäivän auringonpaisteessa Savolainen katsoo tyytyväisenä Hakunilan hiihtostadionia.Radat ovat hyvässä kunnossa, ne on ajettu paksusti tykkilumella, ja vaikka vielä torstaiaamulla satoi rankasti, ei sitä huomaa radoilla. Viileä tuuli auttaa tilanteessa, sillä se vie hautovan lämmön pois.– Plussakelillä vettä tulee paljon pelto-osuuksille, joten laitamme sinne putkia ja lisäksi ajamme sinne lunta yöllä.Avaa kuvien katseluJuha Savolainen oli tyytyväinen näkemäänsä, kun hän tarkasteli Hakunilan SM-kisojen radan pintaa torstaina. Kuva: Kimmo Hiltunen / YleSavolainen ei halua miettiä liiaksi viikonlopun sääennusteita. Ne lupaavat lauhan sään jatkuvan, mutta yöllä pitäisi kuitenkin pakastaa.Vantaan Hiihtoseura on järjestänyt Suomen cupin osakilpailuja ja SM-hiihtoja useasti, ja onpa Hakunilassa kisattu parisprintin maailmancupiakin vuonna 1999.Savolainen on ollut mukana vuodesta 1990 lähtien, ja hänen tiiminsä on halunnut huoltaa radat aina huippukuntoon, ovat olosuhteet olleet minkälaiset tahansa.– Emme anna periksi säälle, ainakaan kovin helpolla. Minun aikanani ei ole kertaakaan kisoja peruttu tai siirretty. Kerran yhtä matkaa tosin piti lyhentää sään takia, Savolainen sanoo.Uusi lumetusjärjestelmä auttaa leutoihin talviinVantaa on myös saanut uuden lumetusjärjestelmän, joka ei vaadi pakkasta lumen tekemiseen, kuten lumitykit vaativat.Normaalisti lumitykkien lunta on säilötty sahanpurupeitteen alla, mutta koska Vantaalla lumikuormalle on vaikea löytää paikkaa kesäksi, on paikkakunnalla turvauduttu toisenlaiseen ratkaisuun.Uusi lumetusjärjestelmä on kahden teräskontin muodostama rakennelma, jonka päälle on asennettu lauhduttimet ja joka on kytketty tekojään kylmälaitteisiin. Sen avulla pystytään tekemään arviolta 200 metriä latua päivässä tekojään synnyttämien hiutaleiden avulla.Tältä näyttää Vantaan Hakunilan hiihtostadionilla.– Saamme tekojäästä hilettä ja lunta koko ajan, ja sitä voidaan hyödyntää hiihdossa. Lunta on niin paljon, että pystyisimme varmaan levittämään sillä ladut uudelleen, Savolainen kertoo.– Tällainen talvi, jossa marraskuussa tulee pysyvät lumet ja pakkasta, valehtelee. Pystymme tällä kuitenkin lauhoina talvina turvaamaan kilpailut ja ylipäätään hiihto-olosuhteet vantaalaisille.Vantaan liikuntajohtaja Veli-Matti Kallislahti naureskeli Helsingin Sanomille, että uuden lumetusjärjestelmän takia Vantaa on Suomen lumivarmin paikkakunta, vaikka se kuulostaakin ehkä vähän mahtipontiselta ja hassulta.Lumetuskontti on italialaisen TechnoAlpin-yhtiön valmistama ja hintaa sillä on noin 800 000 euroa. Valtio tuki vantaalaisten hankintaa 150 000 eurolla.– Se oli iso kädenojennus valtion puolelta. Sielläkin oli haluja nähdä, miten tuommoinen systeemi toimii. Olemme tässä tietyllä tavalla vähän uranuurtajia, Kallislahti kehui HS:lle.Avaa kuvien katseluTältä näyttää Suomen ensimmäinen lumetuskontti Hakunilan urheilupuistossa Vantaalla. Kuva: Markku Ulander / LehtikuvaRatamestarina Savolainen odottaa mielenkiintoista kisaviikonloppua. Perjantain sprintti hiihdetään uusitulla sprinttiradalla, joka on vähän pidempi ja vaativampi kuin aiempi, ja se antaa osviittaa sunnuntain parisprinttiin.Lauantaina ”Vantaan Holmenkollenilla” hiihdetään 20 kilometrin kilpailut neljän kilometrin pituisella radalla.– Meillä ei ole ollut pitkiä matkoja täällä ohjelmassa, ja nyt mennään vielä perinteisellä. Veikkaan, että hyvät kisat tulee, mutta se on rankka reitti kaikille, Savolainen muistuttaa.Vantaan SM-hiihdotPerjantai 2.2. (TV2 kello 12.30)kello 10 sprintti (v), karsinta
-kello 12.45 sprintti (v), erävaiheLauantai 3.2. (Yle Areena kello 10.40, TV2 kello 11.25 ja kello 13.10)kello 10.45 20 km (p), miehet
-kello 13.15 20 km (p), naisetSunnuntai (TV2 kello 11.55)kello 10 parisprintti (p), karsinta
-kello 12 parisprintti (p), finaali, naiset
-kello 12.30 parisprintti (p), finaali, miehet</t>
+          <t>2024-02-11T11:47:37+02:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420073993</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Suomen viisuedustaja joutunee muuttamaan nimensä kisoihin. Windows95manin vitsi ei välttämättä ulkomailla aukene, kirjoittaa viisutoimittaja Ville Vedenpää.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Tampereen areenalla tapahtui lauantaina iltapäivällä jotain maagista. UMK-finaalin kenraaliharjoitusta seuraamaan tullut yleisö odotti selkeästi ennakkosuosikki Sara Siipolan esitystä, mutta todellinen herääminen tapahtui vasta viimeisen kilpailuesityksen aikana.Windows95manin No rules -kappaleen posketon esitys isolla farkkumunalla höystettynä sai yleisön liekkeihin. Kun artisti lopulta pyöritteli farkkushortseissaan tulisuihkuletkuja, oli selvää, että nyt tapahtuu jotain erityistä.Euroviisuissa live-esityksellä on suuri merkitys ja se ratkaisi kisan myös UMK:ssa. Ennakkosuosikki Sara Siipolan tyylikäs esitys ei riittänyt voittoon. Hän myös lauloi hieman epävireisesti.Windows95manin voitto on saanut ristiriitaisen vastaanoton. Häntä äänestäneiden mielestä esitys oli hulvattoman hauskaa huumoria, jota kaivataan tähän ikävään aikaan. Toisten mielestä ysäridancen kliseisiin pohjautuva biisi on köyhä ja nolo vitsi. Moni suomalainen viisufani on ilmoittanut olevansa valinnasta paskana viitataten Sara Siipolan biisiin.Useat ulkomaiset euroviisufanit ovat olleet Suomen viisuedustajan valinnasta tyrmistyneitä. Esimerkiksi suositun viisusivusto Wiwibloggsin Instagram-tilillä fanit ovat kommentoineet, että Suomi menetti menestymismahdollisuudet valitsemalla huumorin laadun sijaan.Se on totta, että Suomi olisi voinut osoittaa olevansa monipuolinen viisumaa valitsemalla Sara Siipolan balladin Käärijän jälkeen.Minkälaisen vastaanoton Windows95man sitten saa toukokuun Euroviisuissa Ruotsin Malmössä?Jotain osviittaa antoi jo UMK-finaali. Ulkomaiset raadit antoivat No rules -kappaleelle vähiten pisteitä. Huumori upposi ainoastaan britteihin, jotka antoivat täydet 12 pistettä.Windows95manin vitsi on kuitenkin yllättävän suomalainen. Hahmo on ylistys suomalaisille insinööreille, jotka nostivat Suomen lamasta teknologisella osaamisella vuoden 1995 lätkän MM-voiton jälkeen. Ja tyylistä viis.Tämä ei aivan helposti ulkomaalaisille aukene.Tilannetta vaikeuttaa vielä se, että Windows95man joutunee vaihtamaan artistinimensä Euroviisuihin. Laulukilpailussa kun ei hyväksytä tuotenimiä.Meillä on siis tällä hetkellä euroviisuedustaja, jolla ei ole edes nimeä.UMK-finaalin jälkeen järjestetyssä lehdistötilaisuudessa ulkomainen toimittaja totesi, että Suomi taitaa vihdoin karistaa maineensa jurottavana kansana. Täällä osataan pitää hauskaa pilke silmäkulmassa.Sama on Windows95man-kaksikon eli Teemu Keisterin ja Henri Piispasen viesti: ihmisille pitää tuoda iloa.Windows95manin No rules -kappaleen esitys UMK:n finaalissa.</t>
         </is>
       </c>
     </row>
@@ -841,26 +1048,41 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Lauri Markkanen kovassa iskussa ratkai­su­hetkillä, tähdis­tö­ottelu jäi nyt haaveeksi</t>
+          <t>Sauli Niinistö ja Jenni Haukio kävivät äänestämässä yhdessä Aaro-pojan kanssa</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072607</t>
+          <t>https://yle.fi/a/74-20074010</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lauri Markkasen Utah Jazz taipui Philadelphia 76ersille koripallon NBA:ssa. Philadelphia vei tasaisen kamppailun 127–124. Tappio oli Jazzille kolmas peräkkäinen.Utahin tehokkain pelaaja Markkanen heitti 28 pistettä ja hankki 10 levypalloa. Markkanen heitti peräti 14 pistettä ottelun viimeisellä neljänneksellä. Jazzin pelaajista Collin Sexton heitti 22 pistettä ja Jordan Clarkson upotti 16 pistettä.Kentän ylivoimainen ykkönen oli Philadelphian Tyrese Maxey, joka kuritti isäntiä heittämällä peräti 51 pistettä. Maxey pääsee ensimmäistä kertaa urallaan tähdistöotteluun. Vieraiden suurin tähti Joel Embiid ei pelannut ottelussa.Utah kamppailee länsilohkossa pääsystä pudotuspelikarsintoihin. Lännessä kymmenentenä oleva Jazz on voittanut 24 ottelua ja hävinnyt 26.Jazzin kausi jatkuu varhain maanantaina Suomen aikaa kotiottelulla Milwaukee Bucksia vastaan.Videokooste Lauri Markkasen illasta Philadelphiaa vastaan.  Markkanen jäi rannalle tähdistöottelustaPerjantaina varmistui, ettei Markkanen ole mukana NBA:n tähdistöottelussa. NBA kertoi tulevan tähdistöottelun loput pelaajat varhain perjantaina Suomen aikaa.Nyt kerrotut 14 pelaajaa valittiin NBA-joukkueiden päävalmentajien äänillä. Markkanen oli havitellut paikkaa länsilohkon joukkueessa.Länsilohkosta tulevat pelaamaan Kawhi Leonard, Anthony Davis, Devin Booker, Anthony Edwards, Stephen Curry, Paul George ja Karl-Anthony Towns.Itälohkoa puolestaan edustavat Jaylen Brown, Donovan Mitchell, Jalen Brunson, Bam Adebayo, Julius Randle, Tyrese Maxey ja Paolo Banchero.Tähdistöottelun avausviisikot ilmoitettiin jo viime viikolla. Avausviisikot valittiin fanien, NBA-pelaajien ja median muodostaman paneelin tulosten perusteella.Länsilohkon avausviisikossa ovat LeBron James, Kevin Durant, Nikola Jokic, Luka Doncic ja Shai Gilgeous-Alexander. Itälohkon avausviisikkoon taas valittiin Giannis Antetokounmpo, Joel Embiid, Jayson Tatum, Tyrese Haliburton ja Damian Lillard.Markkanen teki historiaa viime vuonna, kun hänestä tuli ensimmäinen pohjoismainen pelaaja NBA:ssa, joka valittiin mukaan tähdistöotteluun.Tämän vuoden ottelu pelataan 18. helmikuuta Indianapolisissa.Päivitetty kello 8.35: Utahin ja Philadelphian ottelu täydennetty uutiseen.</t>
+          <t>2024-02-11T15:09:51+02:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420074010</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Äänestämisen jälkeen nautittiin vaalikahvit ja pillimehu.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Presidentti Sauli Niinistö ja tohtori Jenni Haukio kävivät äänestämässä Lähderannan koululla Espoossa. Aaro-poika oli kaksikon mukana äänestyspaikalla.Äänestys sujui niin sanotusti perinteisin menoin. Puolilta päivin äänestyspaikalla, tunnistautuminen, äänestyskoppi, äänestyslipukkeen leimaus ja sitten lipuke vaaliuurnaan.Sen verran tapahtuma poikkesi tavallisesta, että Niinistön äänestyslipuke sujahti uurnaan hieman viipeellä. Presidentti antoi paikalla oleville valokuvaajille kohteliaasti hieman aikaa ikuistaa historiallinen tilanne.Avaa kuvien katseluHetki valokuvajille ennen äänestyslipukkeen pudottamista vaaliuurnaan. Kuva: Jari Kovalainen / YleJatko olikin sitten monelle muullekin äänioikeuttaan käyttävälle perin tuttu: vaalikahvit. Ne Niinistö ja Haukio nauttivat äänestyspaikan kahviosta kertakäyttöasioista. Kahvin kera nautittiin pullat ja mokkapalat. Aaro-Pojalla oli juomanaan vadelmapillimehu.Avaa kuvien katseluJenni Haukio sekä Aaro ja Sauli Niinistö saapuivat Lähderannan koulun äänestyspaikalle Espoossa sunnuntaina puolenpäivän aikaan. Presidentti Niinistö antoi luvan kuvan käyttöön. Kuva: Jari Kovalainen / YleMyös presidenttiehdokas Alexander Stubb kävi äänestämässä Espossa. Westendinpuiston koululla aamupäivällä oli mukana myös hänen puolisonsa Suzanne Innes-Stubb.Presidenttiehdokas Pekka Haavisto kävi äänestämässä Helsingin Kulosaaressa yhdessä puolisonsa Antonio Floresin kanssa.Äänestyspaikat sulkeutuvat kello 20. Presidentinvaalien tulosilta alkaa Yle Areenassa ja Yle TV1:ssä kello 19.30. Vaaleja seurataan myös Radio Suomen vaali-illassa kello 19.30 alkaen.</t>
         </is>
       </c>
     </row>
@@ -869,29 +1091,41 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Kun työ on merki­tyk­sellistä, ei sitä halua lopettaa eläkeiässä – Helmi Hannunkari ei aio eläkkeelle</t>
+          <t>Kysy vaaleista ja kerro tunnelmistasi Ylen chatissa kello 19</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072045</t>
+          <t>https://yle.fi/a/74-20073890</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Espoossa Laaksolahdessa fysioterapeuttina toimiva Helmi Hannunkari on ohittanut eläkeiän, mutta ei edes harkitse töiden lopettamista.Hänelle työ tuo merkitystä elämään.– Siinä on todella tuntee tekevänsä merkityksellistä työtä, kun pystyy auttamaan ihmisiä kivuissa ja säryissä ja ohjaamaan liikkumaan, Hannunkari sanoo.Hannunkari innostui fysioterapiasta jo lukion jälkeen. Välillä hän työskenteli Yhdysvalloissa, sitten suomalaisissa yrityksissä. Yrittäjä hän on ollut viimeiset 20 vuotta.Töitä voi muokata omien menojen mukaan. Työ on palkitsevaa ja asiakkaista on monista tullut ystäviä. Hannunkarin mukaan työskentely pitää hänet myös fyysisesti kunnossa. Kokemus on tuonut viisautta ja taitoa hänen työhönsä. Sen ansiosta hän näkee nopeasti, miten toimia potilaiden kanssa.Hannunkari ei ole asettanut päättymispäivää työurallensa, vaan sanoo jatkavansa sitä päivä kerrallaan.Töissä jatketaan aina vain pidempäänYhä useampi suomalainen jatkaa työuraansa eläkeiän ohi. Etenkin viimeisen kymmenen vuoden aikana yli 65-vuotiaiden työskentely on lisääntynyt huimasti.Syitä on monia. Yksi niistä on politiikka: työuria on pidennetty eläkeikää nostamalla.Eläkeuudistuksia on tehty tietoisesti, koska hallitus toisensa jälkeen on halunnut ihmisten jäävän eläkkeelle myöhemmin, jotta veronmaksajia ja eläkkeenmaksajia olisi enemmän.Toinen syy on ihmisten eliniän piteneminen viime vuosikymmeninä.– Lisää elinaikaa ei ole tullut sinne terminaalivaiheeseen elämän loppuun, vaan ihmisille on tullut toimintakykyisiä terveitä elinvuosia lisää, sanoo Eläketurvakeskuksen kehityspäällikkö, tilastoasiantuntija Jari Kannasto.Nyt eläkeikään tulevat ovat yhä paremmassa kunnossa. Siksi töitä jaksetaan ja halutaan tehdä. Kannasto sanoo, että erityisesti monet yrittäjät työskentelevät aivan siihen asti, kunnes ovat lähellä toimintakyvyttömyyttä. Mutta myös tuiki tavalliset työntekijät jatkavat uraansa entistä pidempään.– Tietysti tämä meidän väestörakenne on johtanut siihen, että meillä ikääntyneelle työvoimalle on yhä enemmän kysyntää, Kannasto sanoo.Niin, tämä väestörakenne.Suomessa syntyi ennakkotilaston mukaan 43 320 lasta viime vuonna. Viimeksi näin vähän lapsia syntyi 187 vuotta sitten, jolloin Suomen väkiluku oli noin 1,4 miljoonaa.Avaa kuvien katseluEläkeikä ei nykyään tarkoita kiikkustuolin hankkimista. Kuva: Kati M. RantalaUutta työvoimaa ei ole entiseen tapaan saatavilla, joten työnantajilla on tarve pitää työvoimasta kiinni. Siksi ikääntyneitä työntekijöitä arvostetaan yhä enemmän. Kannaston mukaan tämä käy ilmi tutkimuksista.Toki edelleen puolet kaikista eläkkeelle jääneistä ei ole tennyt enää töitä eikä halua tehdä.
-Jopa puolet vanhuuseläkkeelle jääneistä haluaa tehdä töitäTilastot ja tutkimukset tosiaan kertovat, että työ kiinnostaa ikääntyviäkin. Puolet työstä vastikään vanhuuseläkkeelle siirtyneistä on kiinnostunut työskentelemään. Kolmasosa vuosina 2019–2021 palkkatyöstä vanhuuseläkkeelle siirtyneistä työskentelee tai on työskennellyt eläkkeellä. Näin kertoo Eläketurvakeskuksen kyselytutkimus.Useimmat töissä jatkavat pysyvät samalla työnantajalla samanlaisissa tehtävissä kuin ennen eläkeikää. Työskentely on yleensä epäsäännöllistä ja satunnaista.Tilastokeskuksen yliaktuaari Pertti Taskinen toteaa, että eläkeikäisten työllisyys on kasvanut viimeisen kymmenen vuoden aikana, erityisesti 65–69-vuotiaiden ryhmässä.– Vuonna 2013 työllisyysaste oli noin 12 prosenttia, kun se viime vuonna oli jo 19 prosentin tuntumassa. Tämä nousu on tapahtunut erityisesti koronapandemian jälkeisenä aikana, jolloin työllisyysaste kasvoi 16 prosentista yli 19 prosenttiin.Taskinenkin muistuttaa, että eläkeiän asteittainen nousu on vaikuttanut tähän.Myös 70–74-vuotiaiden ikäryhmässä työllisyysaste on noussut, mutta kasvu on ollut pienempää verrattuna nuorempiin ikäryhmiin.Eläketurvakeskuksen Jari Kannasto toteaa, että työntekijäammateissa tyypillisesti jäädään eläkkeelle, kun vanhuseläkkeen alaikäraja täyttyy, ja sitten tehdään töitä sen verran kuin on mahdollista. Asiantuntija-ammateissa taas tyypillisesti jatketaan työssä yli vanhuseläkkeen alaikärajan ilman eläkettä.– Ja yhä useampi suomalainen on nykyään asiantuntija-ammatissa.Naiset jatkavat pidempään kuin miehetSuomalaisten naisten työnteko 60 vuoden iän täyttämisen jälkeen on jonkin verran yleisempää kuin miesten. Tosin vertailussa suomalaiset jäävät esimerkiksi muista pohjoismaista jälkeen.
-Eläketurvakeskuksen Jari Kannasto sanoo, että eläkeikään lähestyvien ihmisten työllisyysaste on korkea, mikä on ristiriidassa yleisen käsityksen kanssa, että yli viisikymppiset eivät työllisty yhtä hyvin.Ikäsyrjintää kokevatkin usein yli 50-vuotiaana työttömäksi jäävät. Heidän on vaikeampi löytää uutta työtä. Työssä olevien keskuudessa ikäsyrjintä ei välttämättä ole yhtä yleistä, muistuttaa puolestaan Mervi Ruokolainen.– Työssä jatkamista eläkkeellä voi vähentää myös kokemus siitä, ettei työmarkkinoilla ole tarjolla sopivia tehtäviä tai joustoja heidän tilanteeseensa.Työpaikan tasolla pitäisi Ruokolaisen mukaan pyrkiä työroolien ja työaikojen muokkaamiseen.Milloin jäädä eläkkeelle ja miten tasapainottaa harrastukset ja työ?Matti Lappalainen on 63-vuotias. Eläkeiän lähestyessä hän jo pohtii sitä, milloin olisi hyvä hetki jäädä eläkkeelle.Asia tuli erityisen ajankohtaiseksi, kun hänen työpaikkansa jokin aika sitten lakkautettiin. Hän joutui harkitsemaan vakavasti, mitä seuraavaksi. Hän teki 34 vuotta uraa samalla työnantajalla, koulutusalalla ja virassa. Siis asiantuntijana.Mutta nyt hän on juuri aloittamassa uudessa työpaikassa. Lappalainen sanoo, ettei tiedä, milloin hän haluaa jäädä eläkkeelle. Kuntoa ja energiaa riittää, ainakin toistaiseksi.– Jos jatkan töitä yli eläkeiän, pitää jäädä energiaa myös harrastuksille ja muulle elämälle.Lappalaisen vaimo on samassa iässä. Harkinta eläkkeellejäämisestä on yhteinen.– Työn mielekkyyden pohtiminen, se että ihmiset aidosti otetaan mukaan, on tärkeää.
-</t>
+          <t>2024-02-11T14:59:43+02:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420073890</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Chatin kautta voit vaikuttaa siihen, mistä suorassa lähetyksessä keskustellaan. Poimimme chatista kysymyksiä lähetyksen keskusteluun.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Tänään selviää, kenestä tulee Suomen seuraava tasavallan presidentti.Yle jännittää vaalien huipennusta ja toisen kierroksen ääntenlaskentaa suorassa lähetyksessä kello 19.30 alkaen.Osallistu kanssamme vaali-iltaan Ylen chatissa, joka aukeaa kello 19. Osallistumalla chattiin voit vaikuttaa siihen, mistä lähetyksessä keskustellaan. Poimimme lähetykseen kysymyksiä ja teemoja chatista.Asiantuntijavieraina chattiin osallistuvat Helsingin yliopiston politiikan tutkija Johanna Vuorelma sekä Ulkopoliittisen instituutin johtava tutkija Matti Pesu.Pesu ja Vuorelma myös keskustelevat suorassa lähetyksessä chatissa esiin nousevista teemoista yhdessä Ylen politiikan erikoistoimittajan Ari Hakahuhdan sekä tuloslähetyksen juontajan Piia Pasanen kanssa.Voit siis esittää kysymyksiä vaaleista, jakaa vaali-illan tunnelmia ja jännittää muiden kanssa.Osallistumiseen vaaditaan Yle-tunnus, joten kirjaudu sisään tai luo itsellesi tunnus osoitteessa https://tunnus.yle.fi/.Toivomme sinulta etenkin kysymyksiä sekä hyvin perusteltuja mielipiteitä ja kommentteja, jotka tuovat keskusteluun uusia ajatuksia. Epäasiallinen kielenkäyttö ei ole sallittua teksteissä tai nimimerkeissä.Tervetuloa mukaan!Chattiin pääset täältä.Tuloslähetys on katsottavissa suorana kello 19.30 alkaen TV1:llä ja Yle Areenassa.</t>
         </is>
       </c>
     </row>
@@ -900,26 +1134,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Osa oppi­lai­toksista palaa tänään etäopetukseen – yhdeksi päiväksi: ”Toimimme opiskelijan parhaaksi”</t>
+          <t>Mitä se edes tekee, häh? Tämä juttu näyttää hyvin selvästi, miksi meillä on presidentti</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072450</t>
+          <t>https://yle.fi/a/74-20069686</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Osa pääkaupunkiseudun oppilaitoksista järjestää tänään perjantaina opetuksen etänä joukkoliikenteen lakon vuoksi.Osassa lukioista on kuitenkin meneillään koeviikko, jonka vuoksi opetus järjestetään pääosin lähiopetuksena.Helsingissä kaupungin ylläpitämät lukiot saavat itse päättää perjantain opetustavasta oppilaitoskohtaisesti. Opetus järjestetään etä- tai lähiopetuksena tai näiden yhdistelmänä.– Tämä on yksittäinen tilanne. Kun toimimme opiskelijan parhaaksi, silloin päätäntävalta on parasta antaa lukioille, sanoo lukiokoulutuksen päällikkö Tarja Aro-Kuuskoski Helsingin kaupungilta.Opiskelijat matkustavat Helsingin lukioihin myös toiselta puolelta kaupunkia tai pidempiä matkoja naapurikaupungeista ja -kunnista.Pari kaupungin lukiota tarjoaa pelkästään lähiopetusta, koska oppilaat tulevat lähialueelta.Kaikissa kaupungin 12 lukiossa ovet ovat kuitenkin auki ja lounasta on tarjolla.– Lähettäisin lakkoilijoille sellaisen pyynnön, että tällaista lakkoa ei järjestettäisi ylioppilaskirjoituspäivinä. Opiskelijat olisivat pulassa, ja he eivät ole aiheuttaneet tätä lakkoilun syytä millään tavalla, Aro-Kuuskoski vetoaa.Helsingissä on myös yksityisiä lukioita. Niissäkin toimitaan koulukohtaisesti.Lukioiden annettiin päättää Helsingissä perjantain opetusjärjestelyistä itseHelsingin kaupungin lukiokoulutuksen päällikkö Tarja Aro-Kuuskosken mukaan lukioille annettiin mahdollisuus päättää opetusjärjestelyistä itse, koska se on oppilaiden edun mukaista. Metropoliassa ja Haaga-Heliassa yksikkökohtaisia ratkaisujaMetropolia ammattikorkeakoulussa opetus toteutuu pääosin suunnitellun mukaisesti. Joillekin opiskelijoille on annettu kotitehtäviä etukäteen, eikä lähiopetusta ole perjantaina.– Opetusjärjestelyihin liittyvät käytännön ratkaisut tehdään tutkinto-ohjelmissa, ja sovituista ratkaisuista viestitään opiskelijoille, Metropolian viestintäpäällikkö Liisa Salo kertoo.Haaga-Helia ammattikorkeakoulussa opettajia ja opiskelijoita on ohjeistettu, että opetus järjestetään ja opetukseen osallistutaan normaalisti joukkoliikenteen lakosta huolimatta.– Kampuksella toteutettavan opetuksen voi siirtää verkkoon, jos se on mielekkäästi järjestettävissä. Opettajat sopivat suoraan opiskelijoiden kanssa, Haaga-Helian viestintäpäällikkö Ari Nevalainen sanoo.Vantaalla lukiot auki, joissakin etäopiskelumahdollisuusVantaalla odotetaan, että lukioiden ja Vantaan ammattiopisto Varian opiskelijat saapuvat oppilaitoksiin. Jos opiskelija ei pääse tulemaan paikalle joukkoliikenteen lakon vuoksi, opettaja voi mahdollisuuksien mukaan avata tunnillaan etäyhteyden.Rehtorit viestivät oppilaitoskohtaisesti perjantain käytännön järjestelyistä. Esimerkiksi Martinlaakson ja Helsinge gymnasiumin rehtorit ilmoittavat, ettei lukioilla ole etäopetusta.Vantaalla on viisi suomenkielistä ja yksi ruotsinkielinen lukio.Espoon lukioissa koeviikon vuoksi lähiopetusEspoon lukioissa on tällä viikolla arviointiviikko eli runsaasti kokeita ja muita arviointeja.Kokeissa on läsnäolovelvollisuus.– Opetus järjestetään normaalisti lähiopetuksena arviointiviikon vuoksi. Meillä ei ole etäopetusta, sanoo toisen asteen koulutuksen johtaja Tapio Erma Espoon kaupungilta.Espoossa on kymmenen suomenkielistä ja yksi ruotsinkielinen lukio.</t>
+          <t>2024-02-11</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420069686</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.
+Toteutus vaatii toimiakseen JavaScriptin.
+</t>
         </is>
       </c>
     </row>
@@ -928,26 +1175,41 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hallitus yrittää tukkia porsaanreiän: poliittinen lakko saisi kestää 24 tuntia</t>
+          <t>Näin maanantain lakko vaikuttaa liikenteeseen</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072525</t>
+          <t>https://yle.fi/a/74-20073675</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Hallitus aikoo rajoittaa poliittiset työtaistelut vuorokauden mittaisiksi. Samalla laissa on tarkoitus määritellä sitä, miten pian työtaistelun saa toistaa.Kysymys on esimerkiksi siitä, voisiko ensin järjestää poliittisen lakon vaikkapa palkattoman sairauslomapäivän vastustamiseksi ja heti seuraavana päivänä työttömyysturvan heikentämistä vastaan. Työtaistelu kestäisi kaksi vuorokautta, mutta kohde vaihtuisi puolessa välissä.Lopullista vastausta ei vielä voi antaa, koska lain jatkovalmistelu on kesken. Jotain osviittaa asiasta antaa viime syksynä lausuntokierroksella ollut luonnos hallituksen esitykseksi.Ei peräkkäisiä lakkoja samaa asiaa vastaanEsitysluonnoksessa sanotaan, että poliittista työtaistelua samaan asiaan vaikuttamiseksi ei saisi toistaa. Tarkoituksena on estää se, että enimmäiskestoa voisi kiertää.Työtaistelun kielletystä toistamisesta voisi olla kyse erityisesti silloin, jos sama järjestö järjestää lyhyellä aikavälillä toistuvia poliittisia työnseisauksia.Sallittua uuden työtaistelun järjestäminen olisi, jos aikaa on kulunut enemmän tai työtaistelu liittyy ajallisesti jonkin uuden poliittisen päätöksen tekemiseen.Jokainen tapaus pitäisi kuitenkin aina harkita erikseen.Lisää: EK rajaisi lakot muutamaan tuntiin – näin kaukana työnantajat ja työntekijät ovatUusi lakko sallittu, jos hallitus vaihtuuPoliittisen työtaistelun saisi toistaa myös, jos se kohdistuu esimerkiksi eri hallitusohjelmiin. Uuden työtaistelun voisi järjestää, jos vaikkapa hallitus tai kunnanvaltuusto on vaihtunut.Arvioinnissa pitää luonnoksen mukaan huomioida myös poliittisen työtaistelun järjestäjän tosiasiallinen mahdollisuus vaikuttaa poliittisen päätöksentekoon.Esimerkiksi hallitusohjelman työelämähankkeisiin vaikuttamiseksi järjestettävä poliittinen työtaistelu ei vielä sinänsä poistaisi oikeutta järjestää myöhemmin hallituskaudella toista poliittista työtaistelua, jonka tavoite on vaikuttaa työntekijöiden oikeuksiin.Poliittisen työtaistelun voisi esimerkiksi toistaa, jos hallitusohjelman kirjauksen tavoite ja sen toteuttamistapa muuttuvat valmistelun aikana niin paljon, etteivät ne enää vastaa hallitusohjelman kirjauksen sisältöä.Esitysluonnos sai kritiikkiä epäselvyydestäSekä työnantaja- että työntekijäpuoli jättivät syksyllä eriävän mielipiteen työryhmän mietintöön, johon luonnos hallituksen esitykseksi sisältyy. Ne ottivat lyhyesti kantaa myös työtaistelun toistamista koskevaan kysymykseen.Työnantajapuoli korosti, että lailla pitää pystyä estämään poliittisten työtaisteluiden enimmäiskestoa koskevien rajoitusten kiertäminen. Sen mukaan työtaistelutoimia ei pitäisi voida pilkkoa näennäisesti eri asioita koskeviin poliittisiin työtaisteluihin tai eri ryhmien toimeenpanemiin samaa asiaa koskeviin työtaisteluihin.Työntekijäpuoli sanoi eriävässä mielipiteessään, että esitetty kielto toistaa poliittinen työtaistelu samaan asiaan vaikuttamiseksi on epäselvä, eikä täytä perusoikeuksien rajoitusedellytysten tarkkarajaisuuden ja täsmällisyyden vaatimuksia.Myös lausuntokierroksella esitysluonnokseen tuli työtaistelujen toistamista koskevia kommentteja. Ne on tarkoitus ottaa huomioon jatkovalmistelussa.</t>
+          <t>2024-02-11T18:37:56+02:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420073675</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Jos lakko toteutuu, kaikki junat perutaan maanantaina koko maassa.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Alkavalla viikolla käynnistyvät poliittiset lakot vaikuttavat usealla alalla helmikuun kolmannella viikolla. Lakot liittyvät #painava syy -nimiseen kampanjaan, jolla vastustetaan hallituksen suunnittelemia työmarkkinatoimia.Liikenteeseen lakko kohdistuu jo maanantaina, sillä Rautatiealan unioni RAUn jäsenet ovat porrastetusti pois töistä maanantain ja tiistain aikana.Lakon toteutuessa kaikki kauko-, lähi- ja yöjunat perutaan maanantaina. Fintraffic tiedotti perjantaina, että tiistain junat pyritään ajamaan normaalisti, mutta yksittäisiä peruutuksia saattaa olla.Avaa kuvien katseluHSL:n lähijunat on maanantaina peruttu. Kuva: Matti Myller / YleUseat muut lakot alkavat myös alkuviikostaLiikenteen lisäksi lakot näkyvät alkavalla viikolla myös muilla yhteiskunnan sektoreilla. Voit lukea tarkemmin tästä jutusta, mitkä ammattiliitot lakkoilevat eri päivinä.</t>
         </is>
       </c>
     </row>
@@ -956,26 +1218,41 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Näin lakot vaikuttavat tänään eri puolilla Suomea – katso lista kaikilta päiviltä</t>
+          <t>Katso listasta, miten lakot vaikuttavat arkeesi ensi viikolla</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071469</t>
+          <t>https://yle.fi/a/74-20073787</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Osa päiväkodeista, julkisesta liikenteestä, kuljetuksista, ruokakaupoista ja teollisuudesta pysähtyi, kun ammattiliittojen lakot alkoivat.Ensimmäiset lakot alkoivat keskiviikkona, mutta suurimmat vaikutukset nähdään eilen torstaina ja tänään perjantaina. Lakkojen kesto vaihtelee aloittain yhdestä päivästä kahteen. Lisäksi 6. helmikuuta on tiedossa ulosmarsseja.Lisää: Lakko pakotti turkulaisen Anu Kankareen töihin puolitoista tuntia etuajassa – Yle seuraa poikkeuksellista jättilakkoaPoliittisilla lakoilla ja ulosmarsseilla vastustetaan hallituksen työelämäuudistuksia ja sosiaaliturvaleikkauksia. Niiden piiriin kuuluvat useat keskusjärjestö SAK:n, STTK:n ja Akavan ammattiliitot.Lakon vaikutukset keskiviikkona, torstaina ja perjantainaKeskiviikkona lakko vaikutti etenkin varhaiskasvatukseen, päiväkoteihin, esiopetukseen, perhepäivätoimintaan ja puistotoimintaan. Vaikutukset jatkuvat torstaihin.Eilen torstaina lakko vaikutti lentoliikenteeseen, ruokakauppojen aukioloihin ja valikoimaan, hotelleihin ja ravintoloihin, postin jakeluun, pankkien ja vakuutusyhtiöiden konttoreihin, logistiikkaan ja kuljetuksiin sekä laajasti teollisuuteen. Torstaina alkaneet työtaistelutoimet kestävät perjantaihin asti.Tänään perjantaina lakko vaikuttaa torstain osalta mainittujen lisäksi julkiseen liikenteeseen, kun junat, raitiovaunut ja metrot pysähtyvät ja bussit kulkevat harvennetusti tai eivät lainkaan.Lakon vaikutukset ammattialoittainTiedot lakon vaikutuksista löydät alta laajemmin.Päivitämme tähän tuoreimmat tiedot lakon vaikutuksista eri puolilla Suomea.Bussit, junat, raitiovaunut ja metrotJulkinen liikenne pysähtyy tai harvenee lakon ajaksi monissa Suomen kaupungeissa.Pääkaupunkiseudulla paikallisjunat, metrot ja raitiovaunut eivät liikennöi perjantaina 2. helmikuuta lainkaan. Myös HSL:n bussiliikenteestä suuri osa jää ajamatta.Katso lista HSL:n ajettavista bussivuoroista.Tampereen seudulla lakot pysäyttävät käytännössä koko Nysse-liikenteen perjantaina. Ratikat ja bussit liikennöivät noin kello kahteen perjantaina aamuyöllä. Torstaina joukkoliikenne sujuu normaalisti.Turussa Fölin bussiliikenne jatkuu todennäköisesti kaikilla linjoilla, mutta harvennetusti. Heillä lakko kestää perjantain ajan.Kuopiossa suurin osa paikallisliikenteen bussivuoroista jää ajamatta perjantaina. Myös osa ELY-liikenteen vuoroista ja PALI-kyydeistä voi jäädä ajamatta.Jyväskylän alueella linja-autot eivät kulje perjantaina Jyväskylässä, Laukaassa ja Muuramessa. Koulumatkoja ei perjantaina ajeta, pois lukien taksikuljetusoppilaiden koulukuljetukset.Itä-Suomessa lakko koskee perjantaina Koiviston auto Kuopion, Pohjolan matkan, Savonlinjan, Savo-Karjalan linjan ja Soisalon liikenteen vuoroja. Osa näiden vuoroista jää ajamatta.Lappeenrannan ja Imatran paikallisliikenne ei todennäköisesti liikennöi perjantaina lainkaan. Sama koskee seutu- ja lähiliikennelinjoja. Lappeenrannan kaupunki ei voi taata lakisääteisten koulukuljetusten toteutumista.Satakunnassa osa paikallisliikenteestä ei liikennöi perjantaina ainakaan Raumalla ja Porissa. Lakon piirissä ovat Rauman Gyyt, Porin linjat ja Satakunnan liikenne.Rovaniemellä vaikutuksia on bussiliikenteeseen ja osa koulukuljetuksista jää perjantaina ajamatta.Lakko vaikuttaa myös Onnibussin liikennöintiin perjantaina. Ajettavat vuorot on syytä tarkistaa Onnibussin verkkosivuilta ennen matkan ostoa.Koko Suomen matkustajajunaliikenne seisahtuu perjantaina Pohjois-Suomen yöjunia lukuun ottamatta. Junaliikenteen lakko koskee työvuoroja, jotka alkavat 2.2. kello 00.01 ja 23.59 välillä.Radan kunnossapito- ja ratatyökalustoa liikkuu rataverkolla normaalisti.Kaikki ratapihatoiminnot keskeytyvät Haminan ja Kotkan ratapihoilla torstain ajaksi.AvaaLentoliikenneSuomen kaupallinen matkustaja- ja rahtilentoliikenne pysähtyy lähes kaikilla Suomen isoilla lentokentillä torstaina.Lentokenttiä hallinnoivan Finavian mukaan kapasiteettirajoituksia kaupalliselle matkustaja- ja rahtilentoliikenteelle aikavälille 1.–2. helmikuuta on tiedossa Helsinki-Vantaan, Ivalon, Jyväskylän, Kittilän, Kuopion, Kuusamon, Oulun, Rovaniemen, Tampere-Pirkkalan, Turun ja Vaasan lentokentille.Kaupallinen matkustaja- ja rahtilentoliikenne pysähtyy kokonaan aikavälillä 1.2. kello 0.00–2.2. kello 24.00 Joensuun, Kajaanin, Kemi-Tornion, Kokkola-Pietarsaaren, Porin ja Savonlinnan lentokentillä.Puolustusvoimien käytössä olevat Utin ja Hallin sotilaslentokentät sekä Maarianhaminan lentoasema eivät ole lakon piirissä. Myös jotkut Finavian ulkopuoliset kentät voivat olla käytössä.Lentoyhtiö Finnair joutuu perumaan noin 550 lentoa. Yhtiö on valmis siirtämään asiakkaidensa lennot lakkopäiviltä toiseen ajankohtaan lipputyypistä huolimatta. Muille tehdään lentojen uudelleenreititys.Finnair lentää torstain aikana noin kymmenen lentoa. Näistä on tiedotettu asiakkaille.Lentoasemien muista palveluista, kuten kaupoista ja ravintoloista, osa pyritään pitämään auki.Lakon vuoksi lentoasemilla voi olla ruuhkaa lakkoa ennen ja sen jälkeen.Lakoissa ovat mukana ainakin Finavian tai Airpron palveluksessa työskentelevät JHL:n jäsenet, PAMin lentoasemien kiinteistöhuollosta, siivouksesta ja vartioinnista vastaavat työntekijät sekä Finnairin lentäjiä edustava Liikennelentäjäliitto.Monet ulkomaalaiset ovat jo peruneet Lapin-matkansa lakkojen vuoksi.AvaaRuokakaupat, ravintolat ja muut palvelutKaupan ala järjestää vuorokauden mittaisen lakon torstaina 1. helmikuuta. Mukana ovat suurimmat ketjut, eli S- ja K-ryhmät ja Lidl sekä Tokmanni.Lakko voi näkyä ruokakauppojen valikoimassa sekä kauppojen aukioloajoissa. Useat ympärivuorokautiset kaupat sulkeutuvat yöksi. Monet keskikokoiset kaupat sulkeutuvat etuajassa. Osa maan isoista Prismoista on torstaina suljettuna.Alko on auki normaalisti. Verkkotilauksissa voi ilmetä viiveitä.Myös osuuskauppojen pankki- ja parturi-kampaamoiden palvelut saattavat olla kiinni.Myös hotellien, ravintoloiden, liikenneasemien sekä kiinteistö- ja siivouspalvelualan yritysten työntekijöitä on lakossa ympäri Suomea.Hotellit ja ravintolat pyritään pitämään auki esimiesvoimin tai liittoon kuulumattomien työntekijöiden avulla.Jätteenlajittelussa voi 1. ja 2. helmikuuta olla viiveitä. Ainakin Rinki-ekopisteissä tähän varaudutaan.Lakko vaikuttaa torstaina myös pankkien ja vakuutusyhtiöiden palveluihin. Useat konttorit ovat kiinni ja puhelinpalvelut ovat ruuhkaisia. Pankkiautomaatit toimivat näillä näkymin normaalisti.Suomen elintarviketyöläisten liitto (SEL) lakkoilee myös: mukana on lähes 4 500 elintarvikealan työntekijää 21 työpaikalla 1.–2. helmikuuta. Lakko pysäyttää muun muassa Saarioisten tehtaiden tuotannon ja logistiikan kahdeksi päiväksi.AvaaPäiväkodit, koulut ja kirjastotPääkaupunkiseudulla suurin osa päiväkodeista, perhepäivähoidoista ja ryhmäperhepäiväkodeista on suljettuna keskiviikkona ja torstaina. Lakko koskee kaikkia yksityisiä ja julkisia yksiköitä Helsingissä, Espoossa, Vantaalla ja Kauniaisissa. Myös puistotoiminta pysähtyy.Lakko koskee työvuoroja, jotka alkoivat tämän keskiviikon 31.1. kello 6 ja huomisen torstain 1.2. kello 21 välisenä aikana. Lakossa ovat mukana lastenhoitajat, osa varhaiskasvatuksen opettajista ja perhepäivähoitajat.Lopullinen henkilöstötilanne ja torstaina avoinna olevat päiväkodit selviävät vasta huomenna aamulla.Lakon aikaan päiväkoteja on auki Helsingissä 59, Vantaalla 20–30, Espoossa noin 40 ja Kauniaisissa kaksi.Katso täältä lista auki olevista päiväkodeista pääkaupunkiseudullaLakko voi torstaina vaikuttaa myös joidenkin nuorisotilojen, kirjastojen ja liikuntapaikkojen aukioloaikoihin. Näin on esimerkiksi Jyväskylässä.Lakoissa ovat mukana sosiaali-, terveys- ja kasvatusalan ammattijärjestö Tehy, lähi- ja perushoitajaliitto SuPer, julkisten ja hyvinvointialojen liitto JHL ja sosiaalialan korkeakoulutettujan ammattijärjestö Talentia.Tehy ja SuPer rajaavat lakon ulkopuolelle vain viranhaltijat. JHL:n mukaan lakko ei koske heidän osaltaan kotona tehtävää perhepäivähoitoa, ryhmäperhepäivähoitoa, ryhmäperhepäiväkoteja ja yksityistä perhepäivähoitoa.Myös Opetusalan ammattiliitto OAJ ja ammattiliitto Jyty ilmoittivat päivän mittaisesta lakosta pääkaupunkiseudun varhaiskasvatuksessa 31. tammikuuta. Jytyn lakko koskee myös perhepäivähoitoa ja puistotoimintaa.Korkeakoulutettujen keskusjärjestö Akava ilmoitti, että se järjestää ulosmarssin pääkaupunkiseudulla, Turussa ja Tampereella 6. helmikuuta kello 14–16. Marssiin osallistuvat lukuisat sote-työntekijät, insinöörit ja lääkärit.Ulosmarssit eivät koske virkasuhteisia työntekijöitä, kuten opettajia ja poliiseja. Näin ollen Akavan suurin jäsenliitto OAJ ei osallistu ulosmarssiin.AvaaPostiPostin työntekijät eivät tee työvuoroja aikavälillä 1. helmikuuta kello 0.00–2. helmikuuta kello 18. Tämä koskee noin 10 000 työntekijää.Lakon aikana kirjeposti, pakettilajittelu ja logistiikka seisoo. Tämä aiheuttaa muutamien päivien viiveitä lähetysten kulkuun. Posti neuvoo seuraamaan pakettien kulkua OmaPostissa.Postin yritysasiakkaat voivat lähettää lähetyksiä Postille normaalisti.Posti- ja logistiikka-alan unioni PAU kertoi, että lakon ulkopuolelle on rajattu terveyteen ja turvallisuuteen liittyvät työt.AvaaKuljetukset, logistiikka ja huoltoAuto- ja kuljetusalan työntekijäliitto AKT:n lakko kestää torstain ja perjantain, tosin linja-autoalan ja matkahuoltoalan osalta vain perjantain.Lakossa ovat mukana liki kaikki toimialat eli kuorma-autoala, linja-autoala, matkahuoltoala, kaupan automiehet, säiliöauto- ja öljytuoteala, matkatoimistoala, terminaalitoiminta, huolinta-ala, huoltokorjaamot, AKT:n Viking Linen työntekijät ja ahtausliikkeiden toimihenkilöt sekä ahtausala.Myös toimihenkilöliitto Erto ilmoitti lakosta autoliikenne-, huolinta- ja sosiaalialalle 1.–2. helmikuuta.AvaaRakennustyömaat, sähköt, satamat ja muu teollisuusMoni Suomen isoista teollisuusyrityksistä pysäyttää toimintansa osittain tai kokonaan torstaina ja perjantaina. Myös rakennustyömaat hiljenevät etenkin pääkaupunkiseudulla.Rakennusliiton työntekijöiden osalta hätätyö, LVI-huolto ja tienhoito jatkuvat, mutta muutoin lakon piirissä ovat kaikkien sopimusalojen työt Helsingissä, Espoossa ja Vantaalla.Rakennustyömaiden sähkötyöt sekä matkapuhelin- ja tietoliikenneverkkotyöt pysähtyvät JHL:n ja Sähköliiton työtaistelun vuoksi. Mukana on lukuisia yhtiöitä, jotka vastaavat sähköverkkojen rakentamisesta ja kunnossapidosta. Sähkön ja lämmön tuotanto ja jakelu sekä raideliikenteessä tehtävät työt ovat lakon ulkopuolella.Ammattiliitto Pron lakko laajenee koskemaan Digitaa, ICT-alaa, rahoitusalaa, vakuutusalaa sekä tiettyjä kiinteistöalan työpaikkoja. Näissä työnseisaus on 1. helmikuuta.Suomen suurin yleissatama, Haminan-Kotkan satama, on pysähdyksissä torstain ja perjantain. Tämä aiheuttaa todennäköisesti useiden vuorokausien purkutarpeen suman.Useat Stora Enson, UPM:n ja Huhtamäen tehtaat pysähtyvät tai vähentävät toimintaansa paperiliiton lakon ajaksi. Lakot alkavat torstain 1. helmikuuta aamuvuoroista ja päättyvät 3. helmikuuta aamuvuoroihin. Vaikutuksia on ainakin Imatralla, Oulussa, Varkaudessa, Kymissä, Pietarsaaressa ja Raumalla.Myös ruudin valmistus voi pysähtyä. Lakon piirissä on 1. ja 2. helmikuuta myös neljä ammusvalmistaja Nammon tehdasta.Kemianteollisuudessa lakko vaikuttaa ainakin Porvoon Kilpilahden ja Kokkolan teollisuusalueisiin.Lakko vaikuttaa useisiin kaivoksiin ja jalostamoihin esimerkiksi Kittilässä, Sodankylässä, Naantalissa, Kemissä, Torniossa, Raahessa, Sotkamossa ja Siilinjärvellä. Ainakin Nesteen Porvoon jalostamo jatkaa toimintaansa työtaistelusta huolimatta, vaikka on lakon piirissä.AvaaTyötaistelujen ulkopuolelle kaikilla ammattialoilla jäävät ne tehtävät, joiden tekemättä jättäminen aiheuttaisi vaaraa ihmisten hengelle, terveydelle tai omaisuudelle.Katso alla olevasta videosta kootusti, miten lakko vaikuttaa arkeesi.Toimittaja Minna Matintupa selventää, mitä vaikutuksia tulevilla lakoilla on sinun arkeesi. Kuvaus ja editointi: Isto Janhunen / Yle</t>
+          <t>2024-02-09T14:33:19+02:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420073787</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Jos poliittiset lakot toteutuvat, lakkoilee suurin osa ammattiliitoista ensi viikolla. Lakot vaikuttavat teollisuuteen, energiantuotantoon, kauppoihin, elintarvikealaan, joukkoliikenteeseen ja varhaiskasvatukseen.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Alkavalle viikolle suunnitellut poliittiset lakot vaikuttavat toteutuessaan suomalaisten arkeen useana päivänä. Lakot liittyvät #painava syy -nimiseen kampanjaan, jolla vastustetaan hallituksen suunnittelemia työmarkkinatoimia.Lakot vaikuttavat teollisuuteen, energiantuotantoon, kauppoihin, elintarvikealaan, joukkoliikenteeseen ja varhaiskasvatukseen.Osa ammattiliitoista pitää lakkojaan porrastetusti eri työpaikoilla. Siksi lakot jatkuvat useana päivänä.Lakkoon osallistuvien työpaikkojen määrä vaihtelee suuresti. Paperiliitossa lakko vaikuttaa vain neljään työpaikkaan, mutta esimerkiksi Suomen elintarviketyöläisten liiton koskee useita työpaikkoja. Katso ammattiliittojen verkkosivuilta, mitä työpaikkoja kunkin ammattiliiton lakko koskee.Tästä jutusta voit lukea päivä päivältä, miten tällä hetkellä tiedossa olevat lakot vaikuttavat arkeen.MaanantaiMaanantaina lakossa on Rautatiealan unioni RAU. Lakon takia kaikki lähi-, kauko- ja yöjunat perutaan koko maassa. VR:n mukaan junaliikenteessä saattaa olla muutoksia myös tiistaina. Fintrafficin mukaan tiistain junaliikenne pyritään ajamaan normaalisti, mutta joitakin peruutuksia saattaa tulla.Maanantaina työnseisauksia järjestetään myös osassa Suomen elintarviketyöläisten liiton työpaikoissa.TiistaiTiistaina lakossa ovat sosiaali-, terveys- ja kasvatusalan ammattijärjestö Tehy ja lähi- ja perushoitajaliitto Super. Lakko koskee kaikkea varhaiskasvatuksen työtehtäviä kaikilla työehtosopimusaloilla kattaen Helsingin, Vantaan, Espoon, Kauniaisen, Vaasan, Mustasaaren, Rovaniemen, Tampereen, Jyväskylän, Kuopion, Joensuun, Oulun, Turun ja Porin.Lakko vaikuttaa päiväkotien, varhaiskasvatusyksiköiden, perhepäivähoidon ja avoimen varhaiskasvatuksen työtehtäviin, sisältäen myös leikkipuisto- ja kerhotoiminnan.Lakon vaikutukset päiväkotien aukioloaikoihin tarkentunevat. Esimerkiksi Vantaan kaupunki tiedotti aiemmin, että mahdollisuuksien mukaan jotkin päiväkodeista saattavat olla auki lakon aikana.Myös JHL osallistuu päiväkotien ja muun varhaiskasvatuksen lakkoon samoilla paikkakunnilla kuin Tehy ja Super. JHL kertoo, että käytännössä valtaosa päiväkodeista ja musta varhaiskasvatuksesta on kiinni tiistain ja keskiviikon aikana. Lakko koskee sekä julkista ja yksityistä varhaiskasvatusta. JHL:n lakossa ovat mukana myös varhaiskasvatuksen ruokapalvelut.Lakot jatkuvat myös osassa Suomen elintarviketyöläisten liiton työpaikoissa.KeskiviikkoTehy, Super ja JHL jatkavat varhaiskasvatuksen lakkoaan myös keskiviikkona. Lakot jatkuvat myös Suomen elintarviketyöläisten liiton työpaikoissa.Palvelualojen ammattiliitto PAM aloittaa kolmen vuorokauden mittaisen lakon kaupan logistiikkakeskuksissa keskiviikkona. Kaupan liitto kertoi aiemmin, että ruoka- ja päivittäistavara eivät lakon aikana lopu kaupoista, mutta yksittäisiä tuotteita saattaa puuttua tai valikoima olla tavallista suppeampi.Julkisten ja hyvinvointialojen liitto JHL aloittaa keskiviikkona lakon, joka vaikuttaa laajasti bussivuoroihin ja pysäyttää raitiovaunu- ja metroliikenteen kokonaan. Lakko iskee paikallisliikenteeseen Helsingissä, Turussa ja Tampereella.Myös toimihenkilöitä edustava Ammattiliitto Pro aloittaa työnseisauksensa. Teollisuusliitto ja Paperiliitto aloittavat lakkonsa keskiviikkona.Sähköliitto järjestää keskiviikkona työnseisauksen Loviisan ydinvoimalassa. JHLn lakon piirissä ovat keskiviikkona myös seuraavat voimalaitokset: Kuopio Energia Oy, Enersense IN Oy (Helen Oy:n toiminnot) sekä Helen Oy.Keskiviikkona lakon aloittaa myös Rakennusliitto. Rakennusliiton lakon piirissä ovat kaikkien sopimusalojen työt Joensuussa, Jyväskylässä, Kokkolassa, Kuopiossa, Oulussa, Porissa, Rovaniemellä, Seinäjoella, Tampereella, Turussa ja Vaasassa.Avaa kuvien katseluVarhaiskasvatuksen lakko aiheuttaa merkittävää haittaa varhaiskasvatuspalvelujen ja esiopetuksen järjestämiseen. Kuvassa Kaivokselan päiväkoti Vantaalla. Kuva: Terhi Liimu / YleTorstaiPAM jatkaa lakkoaan torstaina. Lakot jatkuvat myös osassa Suomen elintarviketyöläisten liiton työpaikoista.Ammattiliitto Pro jatkaa lakkoaan torstaina. Myös Teollisuusliitto ja Paperiliitto jatkavat lakkoaan, samoin Helsingin, Turun ja Tampereen joukkoliikenteeseen vaikuttava JHL:n lakko jatkuu.JHL jatkaa myös voimalaitosten lakkoaan.Sähköliitto järjestää työnseisauksen torstaina Olkiluodon ydinvoimalassa. Rakennusliiton lakko jatkuu.PerjantaiPAM jatkaa lakkoaan myös perjantaina. Osassa kohteista lakko päättyy perjantain ja lauantain välisenä yönä.Lakko jatkuu perjantaina Suomen elintarviketyöläisten liiton työpaikassa Porissa. Myös Ammattiliitto Pro ja Teollisuusliitto jatkavat lakkoaan perjantaina. Lakkoaan jatkavat myös Paperiliitto ja JHL voimalaitosten osalta.Sähköliitto jatkaa lakkoaan perjantaina vesivoimaloissa. Myös Rakennusliiton lakko jatkuu perjantaina.LauantaiPAMin lakko päättyy suurimmassa osassa lakon piirissä olevista työpaikoista varhain lauantaiaamulla. Ammattiliitto Pron viimeiset työnseisaukset paperiteollisuudessa päättyvät lauantaiaamuna kello 6.Poliittisia lakkoja järjestettiin myös helmikuun alussa. Aiheesta keskusteltiin tammikuun lopussa julkaistussa A-studion jaksossa.Juttua korjattu 9.2. klo 16.47: Jutussa luki aiemmin virheellisesti, että Sähköliiton lakko seisauttaa Loviisan ydinvoimalan. Voimalassa järjestetään työnseisaus, mutta voimalan tuotantoa ei ajeta lakon aikana alas.Juttua päivitetty 9.2. klo 15.41: Lisätty tieto Ammattiliitto Pron viimeisten työnseisausten päättymisestä lauantaiaamuna.Juttua korjattu 9.2. klo 14.44: JHL tiedotti virheellisesti, että varhaiskasvatuksen lakot kestävät kolme päivää. Varhaiskasvatukseen kohdistuvat lakot kestävät tiistain ja keskiviikon ajan, 13.–14. helmikuuta.</t>
         </is>
       </c>
     </row>
@@ -984,26 +1261,41 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Brittilehti: YK:n rahaston työntekijät ovat ottaneet lahjuksia Irakissa – Suomi on yksi rahaston maksajista</t>
+          <t>Ukraina epäilee: Venäjä käyttää Starlink-verkkoa sodassa – julkaisi ääniklipin väitetystä puhe­lu­kaap­pauksesta</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072127</t>
+          <t>https://yle.fi/a/74-20073999</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>YK:n työntekijöitä Irakissa epäillään lahjuksien ottamisesta. Asiasta kertoo brittilehti The Guardian oman selvityksensä perusteella.Epäselvyydet koskevat YK:n kehitysrahaston UNDP:n Irakin vakauttamisrahastoa, johon Suomikin osallistuu. Vakauttamisrahastoon on maksettu yhteensä noin 1,4 miljardia euroa vuodesta 2015 lähtien. Suomen osuus tästä on 12,5 miljoonaa euroa.Irakin vakauttamisrahasto perustettiin tukemaan terroristijärjestö Isisiltä vapautettujen alueiden jälleenrakennusta ja vakauttamista. Tavoitteena oli mahdollistaa paikallisväestön paluu koteihinsa.”Tässä maassa ei saa mitään, ellei maksa”The Guardianin mukaan UNDP:n Irakin-henkilöstö on vaatinut urakoitsijoilta lahjuksia vastineeksi avusta tarjouskilpailussa. Lahjusten suuruus on ollut jopa 15 prosenttia urakan arvosta.Lahjotut työntekijät ovat auttaneet urakoitsijoita luovimaan YK:n monimutkaisessa tarjousjärjestelmässä, jotta nämä voittaisivat tavoittelemansa urakan.– Kukaan ei voi saada sopimusta maksamatta. Tässä maassa ei saa mitään ellei maksa, ei hallitukselta eikä UNDP:ltä, nimettömänä esiintyvä urakoitsija sanoo The Guardianille.The Guardian on haastatellut noin 30:tä nykyistä ja entistä UNDP:n Irakin-työntekijää, irakilaista urakoitsijaa sekä länsimaista että irakilaista virkamiestä. Heidän mukaansa YK on osa paikallista lahjuskulttuuria.Lehti ei esitä jutussaan arviota siitä, kuinka suuri osuus rahastolle maksetuista avustuksista olisi voinut kulua lahjuksiin. Jutussa ei ole arvioita myöskään siitä, kuinka suuressa osassa vakauttamisrahaston hankkeista epäselvyyksiä olisi ilmennyt.YK:n kehitysrahasto kertoo toteuttaneensa Irakin vakauttamisrahastosta kaikkiaan 3 600 projektia. Rahaston tuella on jälleenrakennettu kouluja, sairaaloita, vesi- ja sähköverkkoja, asuintaloja ja teitä.Alla olevalla videolla kerrotaan Mosulin vedenpuhdistamon korjaamisesta vuonna 2017. Korjaukset maksettiin Irakin vakauttamisrahastosta.Mosulin vedenpuhdistuslaitos korjattiin YK:n kehitysohjelman rahoilla vuonna 2017.Suomi ollut lopettamassa rahoitustaSuomi on osallistunut Irakin vakauttamisrahastoon vuodesta 2016. Viimeisin maksatus rahastoon tehtiin vuonna 2021. Suomi on ollut lopettamassa Irakin vakauttamisrahaston rahoitusta jo ennen tietoa lahjusepäilyistä.Ulkoministeriön Lähi-idän yksikön päällikön Riikka Eelan mukaan uusia maksatuksia ei ole ollut, eikä ole suunnitteilla. UNDP on The Guardianin paljastuksen jälkeen ottanut yhteyttä rahoittajayhteisöön, myös Suomeen.– Kaikki väärinkäyttösyytökset ovat hirveän valitettavia, Eela toteaa Ylelle puhelimitse.Hän on kuitenkin tyytyväinen siihen, että UNDP on ollut aktiivisesti yhteydessä rahoittajiin ja kertonut selvittävänsä epäilyt. Selvitys on vasta alussa, joten Suomen rahoituksen päätymisestä mahdollisesti vääriin käsiin ei ole tietoa.Eela toteaa, että Suomi on maksanut rahastoon könttäsumman, eikä ole korvamerkinnyt Irakin vakauttamisrahaston kautta antamaansa tukea millekään tietylle hankkeelle.– Rahaston hankkeita on valtavan paljon, ja ne ovat aika pieniä, Eela huomauttaa.– The Guardianin jutun väitteet pitää selvittää yksi kerrallaan, ja ne olivat rakenteellisia asioita. Ne tuskin selviävät kovin nopeasti.Eela huomauttaa, että kansainvälinen yhteisö toimii Irakissa juuri sen vuoksi, että valtio on hauras. Valtion toiminnot romahtivat suuressa osassa maata islamistisen terroristijärjestö Isisin hyökkäyksen ja valtakauden aikana 2014–2017.Eela korostaa, että Suomelle on turvallisempaa toimia tällaisessa ympäristössä isojen kansainvälisten järjestöjen, kuten YK:n kautta. YK:lla on kyky hallita riskejä ja arvioida niitä.– Heillä on hyvä rutiini tutkia niitä. He osaavat sen kyllä.Irakin vakauttamisrahastoon on kohdistunut vuosina 2015–2023 kaikkiaan 130 epäilyä korruptiosta tai muista epäselvyyksistä. Noin 50:ssä tapauksessa ilmoitukset on todettu aiheellisiksi.UNDP: Väitteet tutkitaanYK:n kehitysohjelma UNDP on julkisessa lausunnossaan sanonut ottavansa väitteet vakavasti ja tutkivansa ne kiireellisesti.UNDP:n mukaan kaikki väitteet lahjuksista, korruptiosta tai petoksista arvioidaan ja UNDP:n riippumaton tarkastus- ja tutkintavirasto tutkii ne tarvittaessa. Se vakuuttaa nollatoleranssia korruptioon.UNDP sanoo, että Irakin vakauttamisrahaston toimintaa on valvottu tavanomaista tarkemmin, koska se on monimutkainen ja kattava.UNDP on raportoinut parantaneensa Irakin vakauttamisrahaston kautta lähes yhdeksän miljoonan irakilaisen elämää.</t>
+          <t>2024-02-11T12:21:58+02:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420073999</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ukrainan tiedustelu on julkaissut raportin, jonka mukaan Venäjä käyttäisi taistelukentillä  yhdysvaltalaista Starlink-internetjärjestelmää. </t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Ukrainan tiedustelu on julkaissut raportin, jonka mukaan Venäjä käyttää taistelukentillä Starlink-internetjärjestelmää.Ukrainan tiedustelun kaappaamista sotilaspuheluista selviää, että Venäjä asensi Starlinkin internet-yhteyden muodostamiseksi ainakin Venäjän 83. hyökkäysprikaatin käyttöön.Ukrainan tiedustelu julkaisi väitetystä puhelukaappauksesta ääniklipin Telegram-viestipalvelussa.Venäjän 83. hyökkäysprikaati toimii Donetskin alueella lähellä Klištšijivkiaa ja Andrijivkaa.Starlink on amerikkalaisen SpaceX-yhtiön kehittämä satelliitti-internetjärjestelmä.Starlinkin takana on miljardööri Elon Musk.Musk tarjosi Ukrainalle nettiyhteyden mahdollistavan Starlink-järjestelmän palveluita, kun Venäjä aloitti hyökkäyssotansa Ukrainaan.Muskin kuitenkin kerrottiin muuttaneen mieltään, kun Ukraina onnistui torjumaan Venäjän hyökkäyksen ja päätti aloittaa vastahyökkäyksen.Musk on sanonut, että Starlinkiä ei ole tarkoitus käyttää sodissa.Musk kytki Starlinkin pois KrimilläYhdysvaltalaismiljardöörin toiminta on herättänyt hämmennystä Venäjän hyökkäyssodassa jo aiemmin. Muun muassa Britannian yleisradioyhtiö BBC kirjoittaa Muskin kieltäneen Kiovalta pääsyn Starlinkiin ukranalaisten vetoomuksista huolimatta viime syksynä.Ukrainalaiset olivat tuolloin hakeneet Starlink-yhteyttä Venäjän Mustanmeren sataman Sevastopolin alueelle. Starlink-yhteyttä ei kuitenkaan sallittu venäläisaluksiin kohdistuvan iskun estämiseksi. Ukrainan mukaan katkos mahdollisti venäläisten iskuja ukranalaiskohteisiin.Elon Musk on puolustautunut puolueellisuusväitteitä vastaan sillä, ettei halua ”sodan muuttuvan entistä monimutkaisemmaksi”. Asiaa on käsitelty Walter Isaacsonin kirjoittamassa elämäkerrassa.Lähde: Reuters</t>
         </is>
       </c>
     </row>
@@ -1012,28 +1304,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Selvitimme: nämä neljä asiaa ratkaisevat, kuinka paljon kaupungit sakottavat</t>
+          <t>Avaa harvinainen ystäväkirja: Stubb ja Haavisto paljastavat lempiruokansa ja hirveimmät kokemukset ulkomailta</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071340</t>
+          <t>https://yle.fi/a/74-20072243</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Parkkisakkoja lätkäistiin autoihin viime vuonna ylivoimaisesti eniten Tampereella ja Helsingissä.Vaikka laki on kaikille sama, sakkomäärät kaupunkien välillä eroavat toisistaan suuresti.Tässä jutussa avaamme, mitkä neljä seikkaa selittävät valtavia eroja kymmenen suurimman kaupungin välillä.
-Tilastossa oleva suhdeluku kertoo, kuinka monta parkkisakkoa kaupungissa on kirjattu rekisterissä oleviin ja liikennekäyttöisiin henkilöautoihin verrattuna.1. Tiheän kaupunkialueen suuruusKovin sakottaja oli Helsingin kaupunki. Se kirjasi kymmenestä suurimmasta kaupungista eniten pysäköintisakkoja niin kappalemäärässä, tuloeuroina kuin henkilöautojen määrään suhteutettuna.Viime vuonna Helsingin kaupunki määräsi yli 24 000 pysäköintivirhemaksua enemmän kuin vuonna 2022, yhteensä siis 159 414 kappaletta.Helsingin pysäköintivirhemaksuista saamat tulot olivat viime vuonna hiukan alle 11 miljoonaa euroa.Helsingin kunnallinen pysäköinninvalvoja Kaija Kossila sanoo, että harppaus ylöspäin selittyy liikenteen reippaalla vilkastumisella koronavuosien jäljiltä.Ero parkkisakkojen määrässä on suuri pääkaupungin naapuripitäjiin verrattuna. Se selittyy erityisesti erilaisella kaupunkirakenteella.Suuriin eroihin kaupunkien välillä vaikuttaa pääosin se, kuinka paljon paikkakunnalla on tiheästi rakennettua kaupunkialuetta sekä se, kuinka paljon liikennettä ja pysäköintiä tällaisella alueella on.– Kantakaupunki on tiheästi liikennöity ja parkkitilasta on pulaa, jolloin tehdään helpommin vääriä ratkaisuja ja virheitä voi tulla enemmän, Kossila sanoo.Tiheään rakennetulla ruutukaava-alueella myös valvonta on tehokkaampaa, kun sitä voidaan tehdä jalan.Esimerkiksi Tampereella 17 pysäköinnintarkastajalla on käytössään vain kaksi autoa. Espoossa etäisyydet ovat suuremmat ja auton käyttö korostuu.Avaa kuvien katseluKeväällä 2022 Helsingin kaupungin pysäköinnintarkastajia siirtyi pandemian vaikutuksesta väliaikaisesti muihin tehtäviin. Tämä vähensi valvontaresursseja, Kaija Kossila selittää. Se korostaa eroa edellisten vuosien välillä parkkisakkojen määrässä. Kuva: Antti Kolppo / Yle2. Pysäköinnintarkastajien määräPysäköintivirheitä tulee aina enemmän kuin niistä määrättäviä seuraamuksia. Seuraamusten määrä on taas riippuvainen pysäköinnintarkastajien määrästä.Espoossa pysäköintivirhemaksujen määrä on neljän edellisen vuoden aikana vähentynyt.Espoon pysäköinninvalvonnasta vastaavan juristin Petteri Aumalan mukaan laskusuunta johtuu siitä, että kenttätyötä tekevistä pysäköinnintarkastajista on ollut vajausta, erityisesti viime vuonna.– On ollut aika paljon sairastapauksia ja osa nuoremmista tarkastajista on lähtenyt koulunpenkille ja osa lopettanut muuten.Aumala laskee, että mikäli virkapaikat olisivat täynnä, normaalissa tilanteessa kaupunki kirjaisi vuositasolla noin 50 000 seuraamusta pysäköintivirheestä. Viime vuonna lukema oli 41 000.Avaa kuvien katseluOulussa valvonnasta vastasi viime vuonna 6–7 pysäköinnintarkastajaa, Tampereella vuoden lopussa tarkastajia oli 17. Kuvassa Helsingin kaupungin vastaava pysäköinnintarkastaja Väinö Palva. Kuva: Antti Kolppo / Yle3. Valvonnan ohjaaminenToiseksi kovin sakottaja viime vuonna oli Tampere, jossa sakkomäärä kasvoi edellisvuodesta parilla tuhannella. Tampereelle väärinpysäköinti tuotti 4,26 miljoonaa euroa.Vuonna 2022 ahkerimman sakottajan titteli oli Aamulehden mukaan Tampereella. Tuolloin sakkomäärät selittyivät erityisesti valvonnan tehokkaalla organisoinnilla.Myös kaupungin pormestari Kalervo Kummola kommentoi syksyllä Aamulehdelle pysäköinninvalvonnan tarkkaa linjaa, sillä rapsuilta eivät säästyneet poliisin virka-auto tai Espanjan suurlähettiläskään.Tampereella tarkastajia ohjataan sinne missä tapahtuu, sanoo Tampereen kaupungin vastaavan pysäköinnintarkastajan sijainen Perttu Manka.– Pyrimme ohjaamaan resursseja sellaisille alueille sellaisina kellonaikoina, missä liikennettä on eniten ja sitä myöten myös väärinpysäköintejä ja niistä aiheutuvia ongelmia.Pysäköintivirheiden todennäköisyys kasvaa talvisin kaupunkialueilla, joissa talvikunnossapito rajoittaa pysäköintiä. Tampereen keskustassa isolla osalla kaduista on talvisin käytössä pysäköintikiellot tiettyihin vuorokauden aikoihin.Sellaisille alueille myös valvontaa voidaan ohjata.– Joudumme jonkin verran talvisin kohdistamaan valvontaa talvikunnossapidon kieltoalueille koska näistä tulee meille useita valvontapyyntöjä, sanoo pysäköinnintarkastaja Leevi Löytönen Tampereen kaupungilta.4. Lain tulkintaLain mukaan pysäköintivirheen ollessa vähäinen, siitä voidaan määrätä huomautus parkkisakon sijaan.Espoon Petteri Aumalan mukaan kaupunkien väliset erot lain tulkinnassa näkyvät siinä, kuinka huomautusta seuraamuksena käytetään.Espoossa huomautusten määrä viime vuonna yli kaksinkertaistui.Niitä kirjattiin yhteensä 5 610, kun vuotta aiemmin lukema oli 2 074. Aumala sanoo, että muutos ylöspäin on tarkoituksellinen.– Huomautusten osuutta seuraamuksena on kasvatettu. Meillä on myös opastus- ja neuvontatehtävä. Huomautuksella pystytään ohjaamaan käyttäytymistä, esimerkiksi silloin, jos on tapahtunut jotain liikennejärjestelymuutoksia.Tulevaisuudessa Espoossa pyritään Aumalan mukaan siihen, että noin joka viides toimenpide kentällä olisi huomautus.
-Viime vuonna Tampereella kirjattiin 1 837 huomautusta, siis huomattavasti vähemmän kuin Espoossa. Espooseen verrattuna Tampere määräsi sen sijaan lähes kaksin verroin parkkisakkoja, vaikka autoja kaupungissa on vähemmän.Perttu Manka sanoo, että suurin osa huomautuksista jää Tampereella kirjaamatta tilastoihin.– Suurin osa on suullisia huomautuksia, joista ei jää merkintää tilastoihin. Olettaisin, että näin voisi olla monella muullakin paikkakunnalla.Espoossa myös suulliset huomautukset pyritään kirjaamaan, mikä voi osaltaan selittää suurta eroa kahden paikkakunnan välillä.Oulussa sen sijaan huomautuksia jaettiin lähes yhtä paljon kuin Tampereella. Oulun kaupungin pysäköinninvalvoja Jukka Lampen pohtii eroja kaupunkien välillä ja päätyy edellä listattuihin syihin.– Sekin voi vaikuttaa, jos linja on tiukka. Tämähän on nyt vain arvailua, mutta suureltahan tuo Tampereen määrä vaikuttaa.Tampereen Perttu Manka lisää, että eroavaisuuksia laintulkinnassa voi olla paikkakunnittain myös siinä, millaista virhesyytä seuraamuksen määrittämisessä milloinkin käytetään.– Totta kai on paikallisia tulkintaeroja liikennesäännöistä lähtien, että miten mitäkin pykälää jossakin käytetään. Myös valvonnassa käytettävät virhesyyt voivat poiketa eri paikkakunnilla, mutta pääosin ne ovat kaikille samat.</t>
+          <t>2024-02-11</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420072243</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.
+Toteutus vaatii toimiakseen JavaScriptin.
+</t>
         </is>
       </c>
     </row>
@@ -1042,26 +1345,41 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Kommentti: Kimi Räikkösen jälkeinen kuiva putki vihdoin katki? Unelma­liitosta jättipotti tylsäksi haukutulle F1-sarjalle</t>
+          <t>Ystävät kertovat, millaisia Alex ja Pekka todella ovat</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072549</t>
+          <t>https://yle.fi/a/74-20073783</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Formula 1 -maailma hätkähti oikein kunnolla perjantaina. ”Lewis Hamilton on siirtymässä Ferrarille”, raportoi muun muassa erittäin luotettu ja perinteikäs moottoriurheilumedia Autosport.Sitä ennen italialainen Corriere della Sera oli aamulla spekuloinut siirrolla ja saanut F1-fanit hämmästelemään. Voiko tämä olla totta? Voiko tähän uskoa, vaikka Autosport erittäin harvoin tekee huteja?Autosportin ja Sky Sportsin perään moni muu alkoi myös uutisoida samaa asiaa. Britannin yleisradioyhtiö BBC kertoi myös Mercedeksen reaktiosta. Kokoon oli kutsuttu koko tiimi palaveriin torstai-iltapäiväksi.Italialaisen Gazzetta dello Sportin mukaan ratkaisu oli niin pikainen, että Mercedes-pomo Toto Wolff johti puhetta ja kertoi Hamiltonin yllätysratkaisusta etäyhteydellä ulkomailta. Sky Sports näytti, kuinka Mercedeksen väki tuli paikalle ja sitten poistui nopeasti tehtaalta palaverin jälkeen. Tilanne alleviivasi koko asian yllätyksellisyyttä.Lewis Hamiltonin siirtymisestä Ferrarille on puhuttu jo monena vuotena aikaisemminkin. Ei ole oikeastaan ollut silly seasonia, F1-kuljettajien siirtoaikaa, jolloin tätä liittoa ei olisi nostettu esiin.Nyt kuitenkin tärähti voimalla ja oikein kunnolla. Tavalla, jota ei koskaan aiemmin Hamiltonin Ferrari-huhuissa nähty. Normaalisti silly season ei ole käynnissä ainakaan helmikuun alussa, vaan kesähelteillä ja alkusyksystä.Šokkisiirto sai sinettinsä torstaina noin kello 21 Suomen aikaa. Ensin Mercedes kertoi, että Hamilton on hyödyntänyt sopimuksessaan ollutta purkupykälää ja siirtyy toisaalle kauden 2024 jälkeen.Ferrari tiedotti perään, että Hamilton siirtyy kaudeksi 2025 Ferrarille monivuotisella sopimuksella.Lue lisää: F1-jättipaukulle vahvistus! Näin Lewis Hamilton selittää lähtöään FerrarilleAvaa kuvien katseluLewis Hamilton jättää Mercedeksen historiallisena menestyneenä F1-kuskina. Kuva: NurPhoto / Getty ImagesKaikkein aikojen menestyneimmän F1-kuljettajan siirtyminen kaikkein perinteikkäämpään formulatalliin on järisyttävä uutinen.Hamiltonin ja Ferrarin sopimus on unelmaliitto, jota F1-sarjan omistaja Liberty Media ei varmasti edes villeimmissä unelmissaan uskonut. Hamiltonin ja Ferrarin toiminta avaa valtavia kaupallisia mahdollisuuksia. Ei vain Hamiltonille ja Ferrarille, mutta myös koko sarjalle.F1-sarja oli jo ehtinyt kitua kiinnostavuusongelman kanssa, kun Red Bullista ja Max Verstappenista tuli jopa historiallisen ylivoimaisia. Suurin osa kilpailuista on ollut viime vuosina todella ennalta-arvattavia.Vaikka F1-sarja on kasvanut kasvamistaan, Red Bullin ja Max Verstappenin ylivoimasta olisi tullut varmasti tulevina vuosina iso uhka kuninkuusluokan kiinnostavuudelle globaalisti.Nyt Hamiltonin sopimus Ferrarin kanssa luo ihan uutta kiinnostavuutta sarjaan.Netflixin F1-dokumenttisarjan Drive to Surviven tekijät varmasti hierovat käsiään. Miten Hamilton ajaa tällä kaudella kaikki 24 kilpailua Mercedeksellä, kun hän siirtyy kuitenkin seuraavaksi vuodeksi kilpailijan riveihin? Mitä tapahtuu kulisseissa? Puheenaiheita varmasti riittää.Kimi Räikkösen haamu poistuu?Ferrarin takamatka Red Bulliin on toki vielä melkoinen, mutta nyt on monen mielestä käsillä kaikkien aikojen kovimman kuljettajan viimeinen tanssi. Hamiltonin himoa ei pidä aliarvioida. Brittimestarin kohdalla 40 vuotta ei ole ikä, joka estäisi voittamista.Asetelmat ovat mielenkiintoiset. Vuonna 2025 valmistaudutaan sääntömuutoksiin ja uusiin autoihin. Vuonna 2026 historiallinen kahdeksas kuljettajien mestaruus. Viimeinen niitti ohi Michael Schumacherin kaikkien aikojen ykkösenä. Tällainen elokuvamainen tarina on varmasti monen mielessä.Toisella puolella kolikkoa on sitten Sebastian Vettelin tarina. Saksalainen saapui Ferrarille neljän mestaruuden ja yhden heikomman kauden jälkeen Red Bullilta 2010-luvun puolivälissä. Ferrari ei kuitenkaan siivittänyt Vetteliä enää mestariksi, kun Hamilton ja Mercedes olivat vahvempia.Maranellossa odotukset ovat myös varmasti korkealla. On suorastaan käsittämätön ja monelle Ferrari-fanille, tifosolle, kiusallinen fakta, että Kimi Räikkönen on yhä Ferrarin viimeisen kuljettajien maailmanmestari vuodelta 2007. Sen jälkeen tuli vielä yksi tiimien mestaruus, mutta muuten mahtitallissa on vietetty todella kuivaa putkea.Avaa kuvien katseluJoko joku muukin Ferrari-kuski pääsee vihdoin Kimi Räikkösen jalanjäljissä juhlimaan F1-mestaruutta? Kuva: Getty ImagesNyt jos koskaan Ferrarin kuljettajan pitäisi nousta kuljettajien maailmanmestariksi. Pitkään aikaan ei ole nähty formula ykkösissä kovempaa kuljettajakaksikkoa kuin Lewis Hamilton ja Charles Leclerc. Jälkimmäinen ei varmasti tule myöskään helpolla luovuttamaan valtikkaansa Hamiltonille.Ferrarin oma poika, akatemiasta kasvatettu Leclerc himoinnee varmasti Hamiltonin päänahkaa ja sitä, että hän toisi pitkään odotetun mestaruuden Maranelloon. Ferrarin toimintaan olennaisesti kuuluvaa sisäpolitiikkaa nähdään varmasti.Italialaismedia pääsee takomaan herkullisia otsikoita. Kehutun ranskalaispomon ja Lewis Hamiltonin siirron takapiruna pidetyn Frederic Vasseurin taidot päästään mittaamaan kunnolla.Kaiken kaikkiaan Lewis Hamiltonin šokkipäätös tuo autourheilun kuninkuusluokkaan sähinää, jota se on kaikkien tylsien kisojen jälkeen tarvinnut.Tätä F1-herkkua tuskin malttaa odottaa. Melkoinen täyskäännös viime vuosien tunnelmiin.</t>
+          <t>2024-02-10T12:01:36+02:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420073783</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Presidenttiehdokkaat on läpivalaistu perusteellisesti viime viikkoina. Mutta minkälaisia miehiä Alexander Stubb ja Pekka Haavisto ovat kun kamerat on sammutettu?</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Millaisia presidenttiehdokkaat Alexander Stubb ja Pekka Haavisto ovat vapaa-ajallaan? Kysyimme sitä molempien ystävältä viimeisellä vaaliviikolla.Tapaamme Sauli Haahtelan, Alexin ystävän tämän kotitalon kellarissa Helsingin Punavuoressa.– Tämä on yksi paikka, jossa me tapaamme. Alex on tuonut tänne vaikka renkaan paikattavaksi tai sukset voideltavaksi, amatööriurheilija, hammaslääkäri Haahtela kertoo.Pekan ystävän tapaamme Helsingin keskustakirjastossa Oodissa.– Pekka tuli sivistyskodista, jossa keskusteltiin paljon kirjallisuudesta, tietokirjailija Teppo Turkki kertoo.Pekan ja Alexin ystävät esittäytyvät.Haahtelan ja Stubbin yhdisti triathlon, uinnin, pyöräilyn ja juoksun yhdistelmälaji noin kymmenen vuotta sitten. Nopeatempoisilla ja järjestelmällisillä miehillä synkkasi heti.Turkki ja Haavisto ovat kotoisin Helsingin Munkkivuoresta, lähes samanikäisiä, ystäviä jo kouluajoilta. Nuorukaisia yhdisti halu ymmärtää, mitä maailmassa tapahtuu.– Me saatoimme kävellä illalla ja yöllä Helsingin katuja, keskustella yhteiskunnasta ja politiikasta.Pekan ja Alexin ystävät kertovat, miten ystävyys syntyi.Alexin ja Pekan ystävät kertovat erityisestä tapaamispaikasta.”Pekka on sosiaalinen mestari”Turkki ja Haavisto eivät edelleenkään urheile, kalasta tai pelaa shakkia yhdessä. He keskustelevat, kuten ennenkin.– Pekan kanssa on älyllisesti nautinnollista keskustella siitä, miltä tulevaisuus näyttää. Hän näkee pitkälle, Turkki sanoo.Miehet vaihtavat kokemuksia myös kirjallisuudesta, elokuvista, matkakohteista ja tapaamistaan ihmisistä.Avaa kuvien katseluTeppo Turkki Radio Cityn toimittajana 1985. Pekka Haavisto valittiin vihreiden kansanedustajaksi 1987. Kuva on vuodelta 1991. Kuva: Jari Flinck ja Seppo Sarkkinen / YleNuoret miehet tekivät 1970- ja 80-luvuilla vaihtoehtolehtiä, kuten Suomi-lehteä, ja olivat pelastamassa Koijärveä 1979. Haavisto lähti vihreiden politiikkaan, Turkki perustamaan helsinkiläistä paikallisradiota Radio Cityä. Ystävyys säilyi.–Kun on nuorena ystävystynyt syvästi jonkun kanssa, niin se kestää parhaimmillaan läpi elämän. Siihen liittyy voimakas luottamus toiseen ja siihen että voi oikeasti jakaa elämäänsä ja ajatuksia toisen kanssa.Ystävät kertovat, missä merkeissä he Pekkaa ja Alexia tapaavat ja mistä puhuvat.Viime vuosina tapaamisia on ollut harvemmin, koska Turkki työskenteli kymmenen vuotta Aasiassa ja Haavisto oli ulkoministeri 2019–2023.Haavisto kokoaa yleensä isomman porukan erilaisia ihmisiä illanistujaisiin kotiinsa Helsingin Kulosaaressa, jossa puhutaan Turkin mukaan hyvin vähän päivänpolitiikasta, enemmänkin kulttuurista.– Istutaan pitkä ilta, pohditaan, puhutaan, tutustutaan. Pekka kykenee tuomaan ihmisiä yhteen ja kommunikoimaan, olemaan sellainen sosiaalinen mestari siinä.Ystävät kertovat erityisen muiston Alexista ja Pekasta.”Alex antoi lempikarkkeja ja jatkoi matkaa”Sauli Haahtela tapaa ystäväänsä Alexia usein urheilun merkeissä. He treenaavat viikoittain yhdessä.Ehtiikö Alex harrastaa muuta kuin triathlonia?– Hän harrastaa avantouintia ja kirjallisuutta eli lukee hyvin paljon.Kirjallisuus ei liene vierasta Sauli Haahtelallekaan. Kirjailija Joel Haahtela on hänen veljensä.Sauli Haahtela kertoo Ironman-kisasta.Sauli Haahtela sanoo arvostavansa suuresti aikuisena syntynyttä ystävyyttään Alexin kanssa.– Puhumme elämästä, perheestä, ystävistä, treeneistä. Tunnemme perinpohjin toisemme, meillä ei ole suodatinta mistä puhumme. Politiikkaa puhumme kovin vähän.Saulin ja Alexin ystävyydestä on tullut myös Haahtelan ja Stubbin perheiden ystävyyttä.Stubb on puhunut kampanjassaan empaattisuudesta. Ystävän mukaan hän on myös sellainen.– Alex on tosi välittävä ja empaattinen, Sauli Haahtela sanoo.Avaa kuvien katseluAlexander Stubb tuli katsomaan pyöräkolarissa ollutta ystäväänsä Sauli Haahtelaa tämän mökille juhannusaattona 2021.  Kuva: Sauli HaahtelaYstävän mieleen on erityisesti jäänyt Alexin vierailu, kun Haahtela oli ajanut rajun pyöräkolarin ennen juhannusta 2021. Alex ajoi juhannusaattona 100 kilometriä Haahtelan mökille katsomaan ystäväänsä, joka oli kotiutunut sairaalasta.– Hän tuli katsomaan, onko jätkä kunnossa. Antoi lempikarkkeja ja jatkoi matkaa.Ystävät kertovat, mitä Alex ja Pekka syövät ja juovat.”Alex on avoin kirja, Pekka ei ole latino”Molemmat sanovat ystävistään, että he ovat varsin samanlaisia yksityisesti kuin julkisesti.– Mielestäni Alex on nyt niin avoin kirja, että Suomen kansa tietää tällaisen presidenttirumban jälkeen ihan kaiken, Sauli Haahtela sanoo.Mitä triathlon kertoo Alexista?Laji vaatii pitkäjänteisyyttä, säännöllisyyttä ja kurinalaisuutta. Kilpailijana Alexilla on jalat maassa. Hän yleensä tietää mihin pystyy ja usein sen saavuttaakin, Haahtela kertoo.Teppo Turkki kertoo ympäristöliikkeen vaikuttavasta hahmosta Pentti Linkolasta.Tähtäsikö Pekka jo nuorena presidentiksi?– En usko, se oli uteliaisuutta, hakemista ja etsimistä. Kaikilla poliitikoilla on sellainen sisäinen logiikkaa, että haluat mennä eteenpäin ja poliittista valtaa täytyy olla jos haluat vaikuttaa asioihin, Teppo Turkki sanoo.– Pekka on hyvin pitkälle se mikä on. Hänessä ovat monet ominaisuudet jalostuneet ja kypsyneet. Esimerkiksi kiinnostus maailman tapahtumiin.Myös tunteiden näyttäminen vastaa ystävien mukaan presidenttiehdokkaiden julkista kuvaa.– Se on enemmän rivien välissä. Pekka ei ole latino, vaikka elääkin latino Antonion kanssa, vaan hänessä on vähän vetäytyvä puoli. Silloin Pekkaa täytyy osata lukea ja tulkita, Turkki kertoo.–Aivan avoimesti, Alex uskaltaa paukuttaa niin paljon kuin lähtee, Sauli Haahtela sanoo.Kaikenlaisia tunteita?– Kaikki tunteet, kyllä.Ystävät kertovat miten Pekka ja Alex ilmaisevat tunteitaan.Ystävien huonot puolet vähissäHuonoja puolia ystävistään Haahtela ja Turkki eivät juuri löydä tai halua kertoa.Sauli Haahtela miettii, että Alexin sosiaalisuus ja spontaanius saattaa joskus hidastaa ystävien matkaa.– Jos yritämme päästä uimahallilta nopeasti autolle, niin saattaa olla, että hän jää suustaan kiinni.– Kun en ole tehnyt työtä Pekan kanssa, niin en ole ehkä törmännyt tähän tahtovaan ja oliko se nyt jääräpäiseen puoleen, Teppo Turkki sanoo.”Pekka on kokenein ja lahjakkain, Alex kestää kaikki paineet”Molemmat tukevat ystäviään presidenteiksi ja auttavat heitä mahdollisuuksiensa mukaan, mutta eivät kuulu varsinaiseen kampanjaorganisaatioon.Sauli Haahtela on muun muassa vetänyt hiihtolenkin Stubbin kampanjassa. Teppo Turkki sanoo keskustelleensa Haaviston kanssa, jos on tehnyt jotain huomioita kampanjasta.Ystävät kertovat miksi he tukevat Pekkaa ja Alexia presidentiksi.Miksi ystävä sopisi presidentiksi?– Pekka on ehdottomasti sukupolvemme lahjakkain ja kokenein ihminen, joka voi sen postin ottaa vastaan. Minulla ei ole minkäänlaista epäilystä, että hän hoitaisi sen hienosti, erityisesti hänellä on sellainen historian taju, Turkki sanoo.Haahtela tuntee Alexista muutakin kuin hänen osaamisensa ja vaikuttavan cv:een.– Olen oppinut, että hän on sellainen persoona, että hän kestää kaikki nämä paineet. Olen nähnyt sen urheilusta, olen nähnyt sen muuten elämässä.</t>
         </is>
       </c>
     </row>
@@ -1070,26 +1388,41 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>F1-jättipaukulle vahvistus! Näin Lewis Hamilton selittää lähtöään Ferrarille</t>
+          <t>Rattiraivo on merkki empatian puutteesta – asiantuntija vinkkaa, miten rauhoittua</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072598</t>
+          <t>https://yle.fi/a/74-20071494</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Mercedeksen F1-talli vahvisti tiedotteessaan, että seitsemänkertainen mestari Lewis Hamilton siirtyy muualle tallista tämän kauden jälkeen. Tiedotteen mukaan Hamilton on hyödyntänyt sopimuksessaan ollutta purkupykälää. Vielä viime elokuussa Hamilton oli tehnyt Mercedeksen kanssa sopimuksen tästä ja ensi kaudesta.Ferrari tiedotti perään, että Hamilton siirtyy kaudeksi 2025 Ferrarille monivuotisella sopimuksella.– Minulla on ollut 11 uskomatonta vuotta tiimissä. Olen ylpeä siitä, mitä saavutimme yhdessä. Mercedes on ollut osa elämääni 13-vuotiaasta asti. Olen kasvanut Mercedeksen mukana. Tämä oli yksi vaikeimmista päätöksistäni elämässäni. Nyt on kuitenkin oikea aika ottaa tämä askel. Olen innoissani uudesta haasteesta, Hamilton sanoi tiedotteessa ja kiitteli tallipäällikkö Toto Wolffia.Hamilton vakuuttaa antavansa vielä alkavalla kaudella kaikkensa Mercedeksellä.– Suhteemme Lewisin kanssa on ollut historian menestyksekkäin, kun katsotaan tiimiä ja kuljettajaa. Lewis tulee olemaan tärkeä osa Mercedeksen moottoriurheiluhistoriaa. Tiesimme, että yhteistyömme tulee luonnolliseen loppuun jossain vaiheessa. Nyt se päivä on tullut. Hyväksymme Lewisin päätöksen hakea uusia haasteita, Wolff sanoi.Avaa kuvien katseluTästä se kaikki lähti. Lewis Hamilton ja Toto Wolff juhlivat ensimmäistä F1-mestaruuttaan vuonna 2014. Kuva: Getty ImagesHamilton siirtyi Mercedekselle vuodeksi 2013 McLarenilta. Hän voitti Mercedeksellä kuusi kuljettajien mestaruutta. Vuonna 2016 tuli tappio Nico Rosbergille, mutta muuten britti dominoi Mercedeksen kanssa F1-sarjaa.Jo McLarenilla Hamilton ajoi Mercedeksen moottoreilla F1-uransa alusta asti eli nyt Hamiltonilla katkeaa pitkä 17 vuoden ajanjakso saksalaisen autonvalmistajan kanssa. Jo sitä ennenkin Hamilton teki yhteistyötä Mercedeksen kanssa.Viime vuodet ovat olleet hankalia Hamiltonille ja Mercedekselle. Viimeksi britti on voittanut F1-kilpailun joulukuussa 2021. Kaikkien aikojen eniten F1-kilpailuja voittanut kuljettaja ei ole siis kahdella edellisellä kaudella noussut kertaakaan korkeimmalle korokkeelle.39-vuotias Hamilton on napannut myös kaikkien aikojen eniten paalupaikkoja. Michael Schumacher on ainoa, joka on Lewis Hamiltonin tavoin yltänyt seitsemään mestaruuteen.Siirto tarkoittaa sitä, että Carlos Sainz ei jatka enää alkavan kauden jälkeen Ferrarilla. Lewis Hamiltonin tallitoveriksi jää Charles Leclerc kaudelle 2025.– Meillä on pitkä kausi edessämme. Kuten aina, tulen tekemään parhaani tiimilleni ja tifosoille (Ferrari-faneille) ympäri maailmaa, Sainz kirjoitti X-tilillään.Sainz kertoo, että hänen oma F1-tulevaisuutensa ratkeaa aikanaan.F1-kausi alkaa kolmen viikon päästä testeillä Bahrainissa. Kauden ensimmäinen kilpailu on luvassa Bahrainissa 2. maaliskuuta.</t>
+          <t>2024-02-11T16:00:36+02:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420071494</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Professori Martti Tuomisto varoittaa rattiraivon seuraamuksista ja korostaa empatian merkitystä liikenteessä.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Liikennekäyttäytyminen on muuttunut aggressivisemmaksi, arvioi emeritusprofessori ja terapeutti Martti Tuomisto.Syitä on monia. Ajoneuvojen määrä ja suorituskyky on kasvanut. Kännykät vievät huomiota ajamiselta, ja yleinen ilmapiiri on kiireisempi kuin vaikkapa kolmekymmentä vuotta sitten.Tuomiston mukaan tieraivon taustalla on muun muassa se, että kuljettaja saattaa tuntea olevansa jumissa tilanteessa, josta on vaikea päästä pois, kuten ruuhkassa tai moottoritiellä.Avaa kuvien katseluProfessori Martti Tuomisto on hoitanut rattiraivosta kärsiviä psykoterapiassa. Kuva: Mikko Kilpinen / YlePersoonattomat autot voivat toimia aggressioiden purkukohteena, erityisesti silloin, kun vastapuolen kuljettajaa ei näe. Toisin sanoen muut tienkäyttäjät nähdään esteinä eikä ihmisinä.Tuomisto antaa käytännön vinkin tieraivon hillitsemiseksi: kuvittele, että tiellä töppäilevä autoilija voisi olla oma läheinen. Tällainen ajattelutapa mahdollistaa empaattisemman suhtautumisen muihin kuljettajiin.Älä ryhdy poliisiksi tai liikenneopettajaksiTuomisto korostaa, että meillä kaikilla on mahdollisuus ärsyyntyä liikenteessä, mutta vakavimmillaan seuraukset voivat olla tuhoisia.– Jos rattiraivo yleistyy ja pahenee, se voi johtaa kuolemiin.Vakava rattiraivo kumpuaa vihanhallintaongelmasta, jolle liikennetilanteet tarjoavat otolliset puitteet aktivoitua.Liikennerikkeet, kuten ylinopeus ja rattijuopumus, ja alttius tieraivoon kulkevat usein käsi kädessä, Tuomisto kertoo.– Lisäksi henkilöt, joilla on taipumus vakavaan rattiraivoon, ovat yleensä vähemmän empaattisia.Tuomisto muistuttaa, että jokaisen on syytä keskittyä omaan ajamiseen.– Se, että yritän kontrolloida toisten käyttäytymistä liikenteessä, johtaa siihen, että minun oma oloni menee huonoksi.Vaikka toiset kuljettajat törttöilisivät, älä ryhdy poliisiksi tai liikenneopettajaksi.Katso Puoli seiskan tv-insertti rattiraivosta kokonaisuudessaan.</t>
         </is>
       </c>
     </row>
@@ -1098,26 +1431,41 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ukrainan hätä­apu­paketti Yhdysvaltain senaattiin ensi viikolla – eteneminen epävarmaa republi­kaanien vastustuksen takia</t>
+          <t>Ruotsa­lais­tytöt kanniskelivat käsi­kra­naatteja ympäri Tukholmaa tunnetun liikkeen kassissa</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072602</t>
+          <t>https://yle.fi/a/74-20073991</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Yhdysvaltain senaatti äänestää ensi viikolla paketista, joka tulee edistämään rajaturvallisuutta sekä lisäämään tukea Israeliin ja Ukrainaan, kertoi torstaina senaatin demokraattien johtaja Chuck Schumer.– Emme voi vain vältellä vastuutamme, jos tehtävä on hankala, Schumer sanoi senaatille. Hän lisäsi, että paketista äänestetään alustavasti viimeistään keskiviikkona.Yhdysvaltain presidentti Joe Biden pyysi kongressia viime lokakuussa hyväksymään 106 miljardin dollarin eli lähes 98 miljardin euron hätäapupakettia, josta Ukrainalle on esitetty 61 miljardia dollaria ja Israelille 14 miljardia dollaria.Republikaanit nihkeitä paketilleSenaatti on neuvotellut tukipaketista jo kuukausien ajan. Republikaanit ovat yrittäneet saada pakettiin mukaan ratkaisua siirtolaistilanteeseen maan etelärajalla, jossa laittomasti rajan ylittäneiden siirtolaisten määrä on noussut ennätyksellisesti Bidenin presidenttikauden aikana.Yhdysvaltain entinen presidentti Donald Trump on vaatinut paketin hylkäämistä. Trump nauttii suurta suosiota edustajainhuoneen ja senaatin republikaanien keskuudessa, minkä uskotaan estävän tukipaketin etenemistä.Myös edustajainhuoneen puhemies Mike Johnson on esittänyt epäilynsä paketin suhteen viimeksi tällä viikolla.– Kuulemani mukaan tähän niin sanottuun sopimukseen ei sisälly mullistavia muutoksia linjauksiin, joita tarvitaan katastrofin pysäyttämiseksi rajalla, Johnson sanoi.Sen sijaan pakettia neuvotellut Arizonan sitoutumaton senaattori Kyrsten Sinema sanoi, että sopimusehdotus lopettaa rajan laittomasti ylittäneiden siirtolaisten vapauttamisen, mahdollistaa hätäviranomaisia sulkemaan rajan sekä uudistaa maan turvapaikanhakujärjestelmää.– Muutamme linjauksia dramaattisesti.Lähteet: AFP, Reuters</t>
+          <t>2024-02-11T10:11:39+02:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420073991</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Valvontakameroiden kuvissa näkyy, että teinitytöt veivät räjähteitä sisältävän kassin metroon, vilkkaalle ostoskadulle, kauppakeskukseen ja kahvilaan.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Ruotsin poliisi tutkii tapausta, jossa kaksi teinityttöä liikkui Tukholman keskustassa mukanaan kassillinen käsikranaatteja, Aftonbladet uutisoi.Metroasemien valvontakameroille on tallentunut kuvia 14- ja 15-vuotiaasta, joilla on mukanaan Normal-ketjuliikkeen isokokoinen turkoosi kassi.Poliisin mukaan tyttöjen kassissa oli kuusi käsikranaattia.Valvontakameroiden kuvien avulla poliisi on kartoittanut tyttöjen liikkeet vaarallisten räjähteiden kanssa.– Valvontakuvista näkyy, että he kulkivat ympäri kaupunkia, kävivät kahvilla ja liikkuivat metrolla, syyttäjä Jonas Nygren sanoi Aftonbladet Krim -podcastissa.Syyttäjän mukaan tytöt toimivat todennäköisesti rikollisryhmän leivissä.Poliisi selvittää parhaillaan, mikä rikollisryhmä värväsi alaikäiset kuljettamaan vaarallisia räjähteitä.Kahvilla käsikranaattien kanssaValvontakamerat tallensivat kahden teinin liikkeet Tukholmassa elokuussa. Ensi silmäyksellä näyttää siltä, että tytöt ovat ostoksilla.12. elokuuta valvontakameraan tallentui liikkuvaa kuvaa siitä, kuinka 15-vuotias tyttö nousee bussiin Tukholman pohjoispuolella. Mukanaan hänellä on Normal-liikkeen kassi.Tyttö matkustaa läntiseen Tukholmaan, jossa hän tapaa 14-vuotiaan ystävänsä. Tytöt menevät Länsi-Tukholmassa sijaitsevaan kauppakeskukseen.Puoli viiden aikaan tytöt nousevat metroon. Valvontakameran kuvista näkyy, että metrolaiturilla on paljon ihmisiä.Tytöt matkustavat metrolla Husbyn kaupunginosaan ja nousevat liukuportaita pitkin vilkkaalle kävelykadulle.Ulkona tytöt istahtavat hetkeksi päivittäistavaraliikkeen eteen juomaan energiajuomia. Toinen tytöistä polttaa tupakkaa, kuvissa näkyy.Kello viiden jälkeen tytöt laskeutuvat metroon. Alle tunnin päästä he saapuvat keskustaan, suuntaavat Sergelin aukiolta Drottninggatanin ostoskadulle ja siirtyvät Espresso House -kahvilaan.Kahvilassa 14-vuotias ottaa useita kuvia. Melkein kaikissa kuvissa näkyy turkoosi Normal-kassi.Myöhemmin 14-vuotias palaa kotiinsa bussilla ja lähijunalla. Hänellä on mukanaan räjähteitä sisältävä kassi.Nuoremman tytön äiti teki poliisille ilmoituksen seuraavana päivänä tyttöjen tapaamisen jälkeen.Aftonbladetin mukaan 14-vuotiaan äiti löysi räjähteitä sisältävän kassin tyttärensä yöpöydän laatikosta.15-vuotias tuomittiin hiljattain räjähdeainerikoksesta kahdeksaksi kuukaudeksi nuorille tarkoitettuun laitokseen. 14-vuotiasta ei tuomittu nuoren ikänsä vuoksi.</t>
         </is>
       </c>
     </row>
@@ -1126,26 +1474,41 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Analyysi: Ministerin torilla saama vastaanotto paljasti, ettei helppoja aikoja ole edessä</t>
+          <t>Suomalaiset ostavat nyt innolla reser­vi­läis­ki­väärejä, koska moni on löytänyt uuden harrastuksen</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072566</t>
+          <t>https://yle.fi/a/74-20073351</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Työministeri Arto Satonen (kok.) nousi buuausten saattelemana torstaina Senaatintorin lavalle toistamaan tuttua viestiä. Hallituksen ajamat muutokset ovat välttämättömiä kansantalouden tasapainottamiseksi, kilpailukyvyn parantamiseksi ja työllisyyden lisäämiseksi.Satosen puhe ei varsinaisesti uponnut mielenosoittajiin kuin veitsi sulaan voihin.Ay-liikkeen nyt nähtävät ponnistukset ovat jatkoa jo viime syksyllä alkaneille toimille.Kaava vaikuttaa selkeältä.Siinä missä joulukuiset lakot olivat vuorokauden mittaisia, tämänhetkiset toimet kestävät enintään kaksi päivää.Laajuus on myös paisunut. Nyt kolmen päivän ajalle ulottuvien, erimittaisten lakkojen piirissä on ammattiliittojen mukaan jopa 300 000 työntekijää.Ylen tietojen mukaan SAK:n työvaliokunta kokoontuu huomenna perjantaina ja luvassa on lisää työtaisteluilmoituksia.Jatkoa voi siis seurata jo ennen kuin viimeisetkin keiton jämät on kaavittu soppatykkien pohjilta.Seuraavat toimet tuskin poikkeavat linjasta. Vaikka työntekijäleiri toistelee toivovansa hallitukselta vastaantuloa, siitä ei ainakaan vielä näy merkkejä. Toki siitä ei myöskään ole varmuutta, millainen vastaantulo olisi riittävä.Suurin työntekijäkenttää hiertävä kysymys on varmasti kokemus siitä, että neuvottelut työelämämuutoksista eivät ole aitoja. Työntekijäleiri katsoo elinkeinoelämän kädenjäljen näkyvän niin voimakkaasti hallitusohjelmassa, että työnantajaleirillä ei ole motivaatiota tulla piiruakaan vastaan.Työministeri Satonen heitti jälleen Senaatintorilla palloa palkansaajapuolelle.Hän toivoi, että työntekijäkeskusjärjestö SAK palaa takaisin neuvottelemaan vientivetoisesta palkkamallista. SAK keskeytti neuvottelut joulukuussa, kun asialistaa ei suostuttu laajentamaan koskemaan muita hallituksen ajamia työelämämuutoksia.Perinteisesti merkittävistä työelämämuutoksista on neuvoteltu työmarkkinaosapuolten kanssa. Nyt työ kolmikannoissa on takunnut, ja esimerkiksi poliittisten lakkojen rajaamista pohtineen työryhmän työ päättyi erimielisenä.Osa hallituksen ajamista muutoksista on ay-liikkeelle hyvin periaatteellisia.Esimerkiksi paikallisen sopimisen laajentamisen järjestäytymättömiin yrityksiin pelätään romuttavan koko työehtosopimusten yleissitovuuden.Onko tilanteesta ulospääsyä?Vaikka työnantajat eivät ole nyt nähtävän kiistan suora osapuoli, lakoilla pyritään vaikuttamaan myös työnantajalinnakkeen, Eteläranta 10:n, joukkoihin. Hallitus kuuntelee työnantajaleiriä hyvin herkällä korvalla, palkansaajajärjestöissä nähdään.Työnantajaleirissä katsotaan, että hallitusohjelmakirjauksilla saavutetaan isommat hyödyt kuin mitä haittoja työtaisteluista aiheutuu.Elinkeinoelämän keskusliitto arvioi, että nyt käynnissä olevien lakkotoimien tekemä lovi bruttokansantuotteeseen on 360 miljoonaa euroa. Kipurajan sijaintia voi vain arvailla.Työnantajaleirissä luotetaan eduskunnan kokoonpanon pysyvän vastaisuudessakin heille niin suotuisana, että kerran läpi saatuja poliittisia päätöksiä tuskin tullaan lähitulevaisuudessa purkamaan.Senaatintorille kokoontuneet työntekijät olivat täynnä taistelutahtoa. Ilmassa oli tyytymättömyyttä, vihaakin. Osalle taas tapahtuma saattoi olla toivottu lisävapaapäivä, jolloin saa viettää vapaa-aikaa kollegoiden kanssa.Osassa ammattiliitoista poliittisiin työtaisteluihin osallistuminen jakaa jäsenistöä. Jäsenistöstä iso osa voi olla hallituspuolueiden kannattajia, ja se näkyy muun muassa monessa korkeakoulutettujen keskusjärjestö Akavan jäsenliitossa.Akavalaiset liitot laajemmin eivät olekaan yhtyneet työntekijäkeskusjärjestö SAK:n johtamaan ja STTK:n peesaamaan lakkorintamaan. Ensi viikolla Akavakin kuitenkin järjestää kahden tunnin mielenilmauksen vastalauseena hallituksen toimille. Aika näyttää, meneekö viesti akavalaisten kautta paremmin perille.Kannatus pysynytHallituspuolueiden kannatus on pitänyt pintansa kovista toimista huolimatta.Jos jonkun hallituspuolueen kannatus kääntyisi kovaan laskuun hallituksen työpolitiikan vuoksi, se voisi lisätä soraääniä hallituksen sisällä ja edesauttaa vastaantuloa työntekijäleirin suuntaan.Katse on kohdistunut etenkin perussuomalaisiin. Pettymistä puolueeseen oli ilmassa ainakin Senaatintorilla, kun lakkoilijoita epäisänmaallisuudesta syyttänyt perussuomalaisten kansanedustaja Miko Bergbom piti puheen mielenosoitusväelle.Omaa tarinaansa kertoi yhden mielenosoittajan kantama kyltti, joka julisti tutunkuuloista fraasia mukaillen: ”Perussuomalaiset pettävät aina”.Edessä häämöttää myös huhtikuinen kehysriihi, josta valtiovarainministeri Riikka Purra (ps.) on ennakoinut jopa kahden miljardin lisäleikkauksia.Palkansaajajärjestöt vakuuttavat keinovalikoimaa vielä riittävän. Vaikka Teollisuusliiton ja AKT:n kaltaisia voimaliittoja seurataan tarkasti, esimerkiksi naisvaltaisten matalapalkka-alojen pidemmillä lakoilla voisi olla merkittäviä vaikutuksia ihmisten arkeen.Ammattiyhdistyksiin kuuluu yhä pienempi osa työvoimasta. Tämä voi vaikuttaa ay-liikkeen iskuvoimaan.Nyt nähtävä ponnistus ei kuitenkaan ole viimeinen laatuaan.</t>
+          <t>2024-02-10T13:56:52+02:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420073351</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Itselataavien kiväärien hankkimisluvat ovat olleet kasvussa jo kymmenen vuotta. Venäjän hyökkäyssota Ukrainassa nosti kysynnän uudelle tasolle.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Yhä useampaa suomalaista kiinnostaa maanpuolustus ja toiminnallinen ammunta, mikä näkyy myös aseluvissa. Viime vuonna poliisi myönsi hankkimisluvan yli 2 300 itselataavalle kiväärille.Vielä kymmenen vuotta sitten näitä niin sanottuja reserviläiskiväärejä luvitettiin vuosittain noin 500. Lupamäärässä oli piikki vuosina 2019 ja 2020, jolloin aselakia uudistettiin ja osa itselataavan kiväärin hankkineista joutui hakemaan samalle aseelle uuden luvan.Itselataavalla kiväärillä voidaan ampua nopeasti useita laukauksia peräkkäin ilman lataamista. Arkikielessä puhutaan puoliautomaattisesta aseesta.Puoliautomaattiselle kiväärille voi saada luvan myös metsästykseen. Suurilippaisia, sotilaskäyttöön tarkoitettuja kiväärejä voivat kuitenkin Suomessa hankkia vain ampumaurheilua harrastavat tai sotilaallisia valmiuksia edistävään koulutukseen osallistuvat.Avaa kuvien katseluKaaviossa ovat mukana vain ampumaharrastuksen tai sotilaallisia valmiuksia edistävään koulutukseen osallistumisen perusteella myönnetyt luvat. Vuosien 2019–2020 piikki johtuu pääosin lakimuutoksesta, jonka myötä osa aseen hankkineista joutui hakemaan sille uuden luvan. Kuva: Lucas Holm / YleToiminta kiinnostaa nuoriaSuomessa itselataavilla kivääreillä harrastetaan muun muassa practical-ammuntaa ja Suomessa kehitettyä sovellettua reserviläisammuntaa eli SRA:ta. Molemmissa ajatuksena on jäljitellä aitoa aseenkäyttötilannetta, jossa pitää esimerkiksi ampua useisiin maaleihin, liikkua ja vaihtaa lipasta.Varsinkin SRA:n suosio on kasvanut viime aikoina kovasti. Lajin harrastaminen edellyttää aseturvallisuutta painottavan kurssin ja ampumakokeen suorittamista.Viime vuonna lajin pariin tuli ennätykselliset yli 1 600 uutta ampujaa. Yhteensä harrastajia on yli 12 500.Reserviläisurheiluliiton mukaan sovelletun reserviläisammunnan kursseja ei edes ehditä järjestää yhtä paljon kuin niille olisi kysyntää.– Niitä ei tarvitse tai oikeastaan voikaan mainostaa, sillä ne täyttyvät heti, liiton toiminnanjohtaja Veli-Matti Kesälahti sanoo.Reserviläisurheiluliiton alaisuudessa harrastetaan myös perinteisempää rata-ammuntaa. Se on Kesälahden mukaan jäänyt vanhemmille harrastajille.– Se joukko, joka on aktiivisesti reservissä ja jolla on vaikka sodanajan sijoitus, on kiinnostuneempi SRA-tyyppisestä ammunnasta, jossa toimitaan ikään kuin tilanteen mukaisesti.Avaa kuvien katseluKuvassa olevassa Reserviläisurheiluliiton tilastossa mukana ovat teoriakurssin ja ampumakokeen läpäisseet sekä rekisteröintimaksun maksaneet harrastajat. Uusien harrastajien tilastointi alkaa vuodesta 2016.  Kuva: Lucas Holm / YleSota vilkastutti asekauppaaToiminta-ammunnan suosio näkyy myös asekaupassa. Esimerkiksi Jämsässä, Tampereella ja Jyväskylässä toimiva ase- ja eräliike Aawee:n yhtenä erikoisalana on toiminta-ammunta.Toimitusjohtaja Santeri Vääriskosken mukaan kiinnostus toiminta-ammuntaan on ollut kasvussa jo pitempään. Hänen mukaansa suurimmalle osalle kysymys on ensisijaisesti harrastuksesta.– Osa harrastajista tulee maanpuolustushenki edellä. Ensisijaisesti kuitenkin urheiluammunta kiinnostaa, ja maanpuolustus tulee siinä sivussa. Nämä ovat hyvin toisiaan tukevia asioita, hän sanoo.Venäjän hyökkäys Ukrainaan kaksi vuotta sitten näkyi kuitenkin selvästi kaupassa.– Alkurytinässä oli hetkellisesti todella kiireellisiä jaksoja, mutta siitä se sitten tasoittui, Vääriskoski sanoo.Aseet voidaan jakaa esimerkiksi toimintatavan mukaan. Video: Lucas Holm / YlePatruunoihin menee rahaaToiminta-ammunta ei ole halpa harrastus. Santeri Vääriskosken mukaan hyvälaatuinen kivääri tarvikkeineen voi maksaa noin viisi tuhatta euroa.– Kannattaa panostaa koulutukseen ja tiedon hankintaan luotettavista lähteistä. Noin 1 500 euron kiväärillä pystyy jo hyvin aloittamaan harrastuksen, Vääriskoski neuvoo.Patruunat ovat iso menoerä. Kivääreissä yleisimmin käytetyn .223-kaliiberin patruunoiden hinta on muutamassa vuodessa lähes kaksinkertaistunut 60–70 senttiin kappaleelta. 30 patruunan lippaan tyhjentäminen maksaa siis parikymppiä.Vääriskosken mukaan monet harrastajat kertovat, että aselupien käsittelyajat vaihtelevat kovasti eri puolilla Suomea. Pisimmillään päätöstä voi joutua odottamaan jopa puoli vuotta.Hän on kuitenkin yleisellä tasolla tyytyväinen aselakeihin.– Aito harrastaja saa luvat, mutta ei sellainen, joka ajattelee, että olisi kiva omistaa ase, Vääriskoski sanoo.</t>
         </is>
       </c>
     </row>
@@ -1154,26 +1517,41 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Venäjä-pakotteiden rikkomisesta syytetty huolin­tay­rittäjä sanoo toimineensa määräysten mukaisesti</t>
+          <t>Analyysi: Saatana saapuu Moskovaan -romaanin uusi filmatisointi pillastutti Venäjän propa­gan­daväen</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072603</t>
+          <t>https://yle.fi/a/74-20073906</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Venäjä-pakotteiden rikkomisesta syytetty Gabriel Temin kiisti keskiviikkona syyllistyneensä mihinkään rikolliseen. Teminiä itseään kuultiin oikeudenkäynnissä Itä-Uudenmaan käräjäoikeudessa.Teminiä syytetään törkeästä säännöstelyrikoksesta ja puolustustarvikkeiden maastavientirikoksesta. Syyttäjän mukaan hän vei tai yritti viedä Luminor- ja Siberica-nimisten yhtiöidensä kautta Venäjälle pakotteiden alaisia tuotteita tai Venäjän läpi tuotteita, joiden kauttakulku on ollut kielletty.Syytteet koskevat muun muassa lämpökameroita sekä lähes kolmea tuhatta dronea. Osan tuotteista Tulli pysäytti, mutta osa päätyi syyttäjien mukaan Venäjälle.Yritystiedoissa Luminorin toimialaksi on ilmoitettu huolinta ja rahtaus ja Siberican toimialaksi varastointi. Temin sanoi, että yhtiöt olivat toimineet vain välivarastona asiakkaiden tilaamien tavaroiden lähettäjän ja niiden määränpään välillä.Palveluun sisältyi tullikuljetuksissa tarvittava tavaroiden vientiselvitys tai passitus, jos asiakas ei itse halunnut hoitaa sitä. Teminin mukaan tavarat ilmoitettiin Tullille niillä nimikkeillä, joilla ne olivat varastoon saapuneet, eikä mitään yritetty peitellä.”Yhtiö riippuvainen muiden antamista tiedoista”Teminin mukaan vientiselvityksen avaaminen oli ainoa keino saada Tulli paikalle tarkistamaan tavaroita, koska huolintafirmalla ei ole siihen oikeutta. Hänen mukaansa yhtiöt tekivät hyvää yhteistyötä Tullin kanssa.– Tulliviranomaiset kävivät meillä kahvilla! (Tullin ) lausunto (pakotteiden alaisuudesta) ei ollut rangaistus, vaan hyvä asia, joka otettiin aina ilomielin vastaan. Ja sitten ilmoitimme asiakkaalle asiasta.Teminin puolustus on korostanut, että huolintayhtiö on riippuvainen tavaroiden mukana tulevista tiedoista, joita se ei itse voi edes mennä muuttamaan. Tavaroiden mukana tulevia tavarankuvauksia Temin kertoi selvittäneensä tarkemmin googlaamalla.Pakotteiden lisäksi Teminin syytetään vieneen ja yrittäneen viedä kaksikäyttötuotteita Venäjälle. Kaksikäyttötuotteet ovat tarvikkeita, jotka soveltuvat siviilikäytön lisäksi sotilaallisiin tarkoituksiin. Niiden viemiseen tarvitaan erikseen lupa.Temin vangittiin viime syyskuussa sen jälkeen, kun Yhdysvallat oli lisännyt Siberican ja Luminorin pakotelistalleen. Keskiviikkona syyttäjä katsoi, että Teminin kuulemisen jälkeen karttamisvaaraa ei enää ollut, joten käräjäoikeus määräsi hänet vapautettavaksi päivän päätteeksi.</t>
+          <t>2024-02-11T07:05:36+02:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420073906</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Kulttiromaanin elokuvaversio on saanut Venäjällä sekä kiitosta että äärikansallismielisten tuomion, kirjoittaa Venäjän-kirjeenvaihtaja Heikki Heiskanen.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>MOSKOVA Elokuvan Master i Margarita trailerissa kuuluu kysymys: ”Ketä sinä oikein tarkoitit... Wolandin hahmolla?”Mihail Lokšinin ohjaama elokuva on Mihail Bulgakovin (1891–1940) klassikkoromaanin Saatana saapuu Moskovaan uusin filmatisointi.Repliikki ei tuossa muodossa esiinny itse elokuvassa, vaan siinä kirjailija-päähenkilön ystävä kysyy varoen, viittaako päähenkilön näytelmässä esiintyvä Pontius Pilatus erääseen viiksekkääseen hahmoon. 1930-luvun Neuvostoliitossa tämä tarkoittaa Josif Stalinia.Mutta kuka Woland on ja keneen hahmo viittaa?Bulgakovin fantasiaa ja satiiria hyödyntävässä moniäänisessä romaanissa stalinistista Moskovaa hämmentää salaperäinen mustan magian asiantuntija, professori Woland demonisen seurueensa kanssa.Venäläiset ihmettelevät romaanin suomenkielistä nimeä, sillä se sisältää pahan juonipaljastuksen: Woland on tietenkin Saatana itse.Bulgakovin teos nauttii Venäjällä suoranaista kulttimainetta. Monet sen sitaateista elävät lentävinä lauseina kuten ”Käsikirjoitukset eivät pala.”Lokšinin suurella rahalla tehty elokuva on kahtena viikonloppuna peräkkäin ollut Venäjän katsotuin. Se on kerännyt jo yli miljardin ruplan eli noin 10 miljoonan euron lipputulot.Ohjaaja Lokšin ja käsikirjoittaja Roman Kantor ovat tehneet romaanista hyvin vapaan sovituksen. Moni katsoja on pahoittanut mielensä siitä, että suuria osia Bulgakovin teoksesta on jäänyt sivuun.Eniten vaikuttavat kuitenkin suuttuneen nationalistipiirit ja valtiontelevision äänitorvet. Syynä on se, että Yhdysvalloissa asuva Lokšin on esittänyt sodanvastaisia mielipiteitä ja ilmaissut tukeaan Ukrainalle.Avaa kuvien katseluMihail Afanasjevitš Bulgakov syntyi Kiovassa 1891 ja kuoli Moskovassa 1940. Pääteoksensa Saatana saapuu Moskovaan hän kirjoitti pöytälaatikkoon. Stalinin Neuvostoliitossa sitä ei olisi voinut julkaista. Kuva: Sovfoto / Universal Images Group / Shutterstock / AOPEpätoivoinen rakkaustarina nousi pääosaanLokšin ja Kantor ovat ottaneet tulkintansa keskiöön päähenkilö Mestarin ja hänen muusansa Margaritan rakkaustarinan.Hyvin Bulgakovin näköinen kirjailija (Jevgeni Tsyganov) joutuu 1930-luvun Neuvostoliiton vallanpitäjien hampaisiin kirjoittamansa Pontius Pilatuksesta (Claes Bang) kertovan näytelmän takia.Näytelmä kielletään, ja kirjailijaliitto Massolitin toverituomioistuimessa kirjailijatoverit hylkäävät päähenkilön.Vaikeuksiensa keskellä kirjailija rakastuu Margaritaan (Julija Snigir), joka on onnettomassa avioliitossa tärkeän virkamiehen kanssa. Margarita kutsuu kirjailijaa Mestariksi.Margaritan innoittamana kirjailija alkaa kirjoittaa romaania Wolandista (August Diehl), joka apureineen piinaa pirullisilla tempuillaan juuri niitä mukavuudenhaluisia kulttuuribyrokraatteja ja vallitsevaan ideologiaan sitoutuneita kirjailijoita, jotka ovat ajaneet kirjailijan epätoivoon.Mestarin romaani on eräänlainen lennokas kostofantasia. Todellisuus ja mielikuvitus sekoittuvat.Z-patriootit raivostuivatVenäläisiltä kriitikoilta elokuva on saanut varsin suopean vastaanoton.Nykyään Latviassa toimivan Meduza-uutissivuston kriitikko Anton Dolin kutsui sitä romaanin ensimmäiseksi onnistuneeksi filmatisoinniksi.Myös hallituksen lehden Rossiiskaja Gazetan kriitikko Valeri Kitšin koki, että ensi kertaa elokuvantekijät olivat kyenneet kesyttämään venäläisistä romaaneista arvoituksellisimman.Jyrkän kansallismieliset piirit, niin sanotut Z-patriootit, ovat raivonneet viestipalvelu Telegramissa. Erityisesti heitä on suututtanut, että sodanvastaisia mielipiteitä esittäneen ohjaajan elokuvaa on rahoitettu julkisista varoista. He vaativat tilille ohjaajan lisäksi myös Venäjän elokuvasäätiötä, kulttuuriministeriötä ja elokuvan tuottajia.Johtavaksi sotapropagandistiksi noussut juontaja Vladimir Solovjov ei edes suostunut mainitsemaan elokuvan tai sen ohjaajan nimeä.– Nyt kaikki keskustelevat yhdestä ohjaajasta, joka kuvasi osin amerikkalaisilla, osin jostain syystä valtiollisilla rahoilla suuren venäläisen klassikon – en halua sanoa minkä – pamflettimaiseen neuvostovastaiseen, venäläisvastaiseen tyyliin, Solovjov sanoi iltaohjelmassaan Rossija-1-kanavalla.Hän vaati viranomaisia selvittämään, miten tämä oli mahdollista. Hänen mukaansa etulinjassa palvelevat miehet kyselevät häneltä, mitä maassa oikein tapahtuu. Solovjov vaati kulttuurieliitiltä ryhtiliikettä.Toisaalta kaikki Vladimir Putinin hallinnon vastustajatkaan eivät ole tyytyväisiä.Historioitsija ja kirjailija Sergei Medvedev kyseenalaisti elokuvan taiteelliset arvot: hänen mukaansa kevyestä ja teräväjärkisestä polyfonisesta romaanista on tehty raskassoutuista steam-punkia rakkauden ja totalitarismin vastakkainasettelusta.Medvdev katsoi, että elokuva toimii terapeuttisena varoventtiilinä, viimeisenä protestin sallittuna muotona.Hän vertaa elokuvateatterijonoja presidenttiehdokkaaksi pyrkineen Boris Nadeždinin kampanjan allekirjoitusten keruuseen.Avaa kuvien katseluProfessori Wolandin seurueen jäsenet Korovjov-Fagot ja kissa Begemot päivystävät patsaina Bulgakov-museon edustalla Moskovassa. Kuva: Denis Baranov / YleMutta kuka Woland on?Ehkä kaikki palaa siihen, ketä Woland oikeastaan edustaa.Bulgakovin romaani alkaa Goethe-sitaatilla: ”Kas niin, ken olet? Osa voimaa syvää, mi tahtoo pahaa vain ja aikaan saa vain hyvää.” Sitaattia toistellaan myös Lokšinin elokuvassa.Bulgakovin monitasoinen romaani käsittelee muun muassa vallan ja taiteilijan suhdetta. Kirjailijalla oli siitä paljon materiaalia, sillä hän kärsi koko uransa ajan neuvostosensuurista.Bulgakov kirjoitti suurta romaaniaan 1920-luvun lopulta aina kuolemaansa saakka. Se julkaistiin ensi kertaa vasta 1960-luvulla sensuurin ankarasti leikkelemänä.Kirjailijan suhde Staliniin oli mutkikas. Bulgakovin näytelmä Turbinien päivät (Dni Turbinyh, 1926) oli neuvostodiktaattorin suosikkinäytelmiä siitä huolimatta, että Venäjän kansalaissodassa Bulgakovin myötätunto oli hävinneiden valkoisten puolella.Stalinin kerrotaan katsoneen näytelmän viisitoista kertaa. Kun Bulgakov anoi lupaa lähteä maasta, Stalin soitti hänelle henkilökohtaisesti ja palautti Turbinien päivät teatteriohjelmistoon.Avaa kuvien katseluNeuvostodiktaattori Josif Stalin (1878–1953) pelasi kirjailijoiden kanssa julmaa kissa ja hiiri -leikkiä. Monet kuolivat NKVD:n käsissä, toiset säästettiin. Kuva: Sovfoto / Universal Images Group / Shutterstock / AOPStalinin nimeä ei Bulgakovin romaanissa ääneen lausuta. Joskus on pohdittu, symboloiko Woland-Saatana itseään Stalinia. Heijasteliko Bulgakov Wolandin hahmoon toiveitaan siitä, että paha Stalin voisi kaikesta huolimatta saada aikaa hyvää?Woland saattaa sormiaan napsauttamalla muuttaa ihmisen kohtalon. Neuvostojohtaja saattoi tehdä saman soittamalla yhden puhelun.Se herättää kysymyksen, ketä kaikkivoipa Woland symboloi uudessa elokuvassa: onko hän ehkä vallanpitäjien korruption paljastava oppositiojohtaja Aleksei Navalnyi – vai sittenkin kaikkivoipa presidentti Vladimir Putin?Vallanpitäjien karnevaaliWolandin eli Saatanan ja hänen seurueensa kammottavat jekut ovat eräänlaista karnevalismia: maalliset valtasuhteet kiepautetaan hetkeksi päälaelleen, kun neuvostoeliitin jäsenet joutuvat saatanallisten taikojen kohteeksi.Karnevalismin kääntöpuoli on se, että joskus vallanpitäjät voivat kääntää sen omaksi aseekseen. Usein sanotaan, että diktaattorien pahin vihollinen on nauru, mutta yhtä hyvin autoritaarinen valta voi valjastaa naurun aseekseen.Hyvä esimerkki ilmiöstä ovat Putinin Venäjällä vaikuttavat valtiollistetut pilapuheluiden soittajat Vovan ja Lexus. Heidän kohteekseen joutui viime vuonna myös Suomen ulkoministeri Elina Valtonen (kok.).Viime aikoina maalitauluna ovat olleet Venäjän hyökkäyssotaa vastustaneet suositut kirjailijat Dmitri Bykov, Boris Akunin ja Ljudmila Ulitskaja.Vovan ja Lexus esittäytyivät heille Ukrainan johdon edustajina lypsääkseen kirjailijoilta raskauttavia lausuntoja Ukrainan tukemisesta.Avaa kuvien katseluPränksterit Vladimir ”Vovan” Krasnov ja Aleksei ”Lexus” Stoljarov kampittavat pilasoitoilla Venäjän vihollisina pidettyjä julkisuuden hahmoja. Krasnov ja Stoljarov kuvattuna syyskuussa 2015.  Kuva: Yuri Kochetkov / EPAAseena on pilkanteko ja karnevalisointi: itsensä vakavasti ottaneet intellektuellit luulivat saaneensa puhelun arvovaltaisilta tahoilta, mutta he puhuivatkin vain perkeleellisten ”pränkstereiden” kanssa.Pilanteon seurauksena kirjailijoiden teoksia siivotaan pois kirjakauppojen ja kirjastojen hyllyiltä. Akuninia vastaan on nostettu rikossyyte.Bulgakovin romaani kuvasi pirulliseen sävyyn kirjailijaliitto Massolitin jäsenten nauttimaa leveää elämää. Nyt Venäjän vallanpitäjät ovat ottaneet hampaisiinsa pääkaupunkilaisen ”eliitin” riehakkaat juhlat.Viime vuonna pintajulkkisten ”alaston illanvietto” sai sosiaalisen median moraalinvartijat liikkeelle ja viranomaisetkin reagoivat.Venäjän johto maalaa kuvaa moraalinsa kadottaneesta yltiöliberaalista ”eliitistä”, joka ei oikeasti seiso Venäjän ja sen käymän ”sotilaallisen erikoisoperaation” takana. Tätä eliittiä pitää rankaista, jotta Venäjä voisi käydä sotaansa Ukrainassa tehokkaasti.Samaan aikaan mitään ei puhuta Venäjän todellisista vallanpitäjistä, joiden omistukset on piilotettu mutkikkaiden bulvaanijärjestelyiden taakse.Ehkäpä 2020-luvun Woland paljastaisi hallitsevan luokan palatsit ja jahdit kansalle, joka elää asuntopulan ja inflaation ahdistamana.Voi myös olla, että uusi Bulgakov-filmatisointi herättää levottomuutta, koska se tulee sanoneeksi, että mistään oikeutta jakavasta Wolandista on turha haaveillakaan.Elokuvassa Woland elää vain kärsivän kirjailijan ja hänen muusansa mielikuvituksessa. Todellisuudessa vallanpitäjien groteski karnevaali sen sijaan jatkuu.</t>
         </is>
       </c>
     </row>
@@ -1182,27 +1560,41 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Yhdysvallat keksi luovan keinon jatkaa Ukrainan sotilasapua – alkaa kierrättää kalustoa Kreikan välityksellä</t>
+          <t>Lukas Hradecky hehkutti Leverkusenin pääval­men­tajaa massiivisen voiton jälkeen: ”Parasta puolus­tus­peliä tällä kaudella”</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072570</t>
+          <t>https://yle.fi/a/74-20074003</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Kreikan hallitus on alkanut pikaisesti valmistella kahdenvälistä, sotilaallista tukipakettia Ukrainalle. Kreikka panee kasaan paketin, johon kuuluu muun muassa aseistusta ja tarvikkeita.Itsestään Kreikka ei apupakettia keksinyt vaan pyyntö tuli suoraan Yhdysvalloilta, joka ei viime vuoden lopun jälkeen ole pystynyt sopimaan Ukrainan tuen jatkosta.Yllättävintä Kreikan apupaketissa on se, että myös Ukrainalle luovuttava kalusto tulee Yhdysvalloilta. Asiasta ovet kertoneet kreikkalaiset tiedotusvälineet.– Kun rahat ovat nyt loppu, tehdään luovia ratkaisuja, sanoo Ruotsin maanpuolustuskorkeakoulun sotatieteiden dosentti Ilmari Käihkö.Homma toimii näin.Yhdysvallat lahjoittaa Kreikalle muun muassa partiointiveneitä, kuljetuskoneita ja panssariajoneuvoja, joita se ei itse tarvitse.Avaa kuvien katseluYhdysvallat kierrättää Ukrainaan Kreikan kautta muun muassa kaksi ilmavoimien Hercules C-130H-kuljetuskonetta. Kuva: Alireza Boeini/AOPPresidentillä on oikeus määrätä lahjoitukselle hinta, nolla dollaria, kunhan Kreikka huolehtii kaluston siirtämisestä. Lupaa kongressilta ei tarvitse kysyä.Yhdysvallat on liittänyt lahjoitukset ja niiden toimitukset Ukrainaan osaksi samaa sopimusta, jolla se myy Kreikalle 40 F-35-hävittäjää.– Kyllä Yhdysvaltain hallinnossa ja tiedustelupalveluissa ymmärretään, että jos Ukrainaa ei tueta nyt ja Venäjä pääsee tavoitteeseensa, siitä tulee valtavia seurauksia kansainväliselle turvallisuudelle, Käihkö sanoo.Kilpajuoksu aikaa vastaanYhdysvaltain keskustiedustelupalvelun CIA:n johtaja William Burns kirjoitti tällä viikolla Foreign Affairs -lehdessä, että tuen vetäminen Ukrainalta olisi Yhdysvalloilta ”kaikkien aikojen oma maali”.Republikaanienemmistöinen edustajainhuone on estänyt rahoituspäätöksen teon kongressissa viime vuoden lopulta lähtien.Käihkö sanoo, että Yhdysvaltain tuen jumiutuminen jo tässä vaiheessa on tullut yllätyksenä.– Uskottiin, että Ukraina-tuki jatkuisi ainakin tämän vuoden loppuun asti, Käihkö sanoo viitaten Yhdysvaltain presidentinvaaleihin marraskuussa.Yhdysvaltain sisäpoliittinen vääntö on osoittanut, että Ukrainan tukijoilla onkin yhtäkkiä vuosi vähemmän aikaan saada korvaavaa tukea kuntoon.Kilpajuoksu aikaa vastaan on käynnissä.– Euroopan pitäisi päättää, mitä haluamme Ukrainassa tapahtuvan ja toimia sitten sen mukaan. Tästä Euroopassa ei ole yhteistä näkemystä, Käihkö sanoo.Torstaina Euroopan unioni sopi huippukokouksessa neljän vuoden aikana Ukrainalle annettavasta 50 miljardin euron talousavusta kotirintaman tukemiseen.Alla olevalla videolla Ukrainan presidentti Volodymyr Zelenskyi kiittää päätöksestä.Ukrainan presidentti Volodymyr Zelenskyi kiitti EU-johtajia tukipäätöksestä.Valmisteilla on lisäksi päätös seuraavasta 5 miljardin euron sotilasavusta rauhanrahaston kautta.Euroopalta kysytään riskinottokykyäKäihkö muistuttaa, että kahdenvälinen tuki Ukrainalle on kasvanut. Saksa on luvannut kaksinkertaistaa tukensa kahdeksaan miljardiin euroon tänä vuonna.Suuri kysymys Yhdysvaltain tuen jumiutuessa on se, että vaikka tahtoa Euroopassa Ukrainan tukemiseen löytyisi, onko siihen kykyä.– Tähän vaikuttaa eurooppalaisten oma riskinottokyky eli kuinka paljon on halua ja uskallusta siirtää materiaalia Ukrainaan, Käihkö sanoo.Avaa kuvien katseluIlmari Käihkö sanoo, että Ukrainan tukeminen testaa Euroopan riskinottokykyä. Kuva: Berislav Jurišić / YleEsimerkiksi jatkuva ammuslupauksista lipsuminen on osoittanut, että sotamateriaalin tuottaminen vie aikaa ja tuki tässä vaiheessa on nimenomaan pois maiden omista varastoista.– Ukrainan tuen varmistamisessa on kyse kolmesta asiasta: poliittisesta tahdosta, kyvyistä ja halusta kantaa riskiä, Käihkö summaa.Tällä hetkellä Ukrainaa ei tueta tarpeeksi verrattuna sen omiin tavoitteisiin palauttaa vuoden 1991 rajat.Menossa ”rakennusvuosi”Viime viikonloppuna The Washington Post -lehti kirjoitti, että Valkoinen talo muuttaa tänä vuonna Ukraina-strategiaansa.Ukraina ei pysty tänä vuonna valtaamaan menettämiään alueita takaisin. Niinpä Ukrainaa tuetaan vahvistamalla sen puolustusvoimaa ja taloutta.– Ukrainalla ei tällä hetkellä ei ole resursseja laajamittaiseen hyökkäykseen, Käihkö toteaa.Rintamalla tämä näkyy.Kesällä Ukraina ampui hyökkäysvaiheessaan päivittäin arviolta 7 000 ammusta ja Venäjä ampui 5 000.Nyt Ukraina ampuu päivässä 2 000 kranaattia, Venäjä 10 000.– Tästä vuodesta on puhuttu rakennusvuotena, jolloin Ukrainaa valmistellaan siihen, että hyökkäyskyky löytyisi vuonna 2025, Käihkö sanoo.Ukrainaa tuetaan muun muassa rakentamaan omaa puolustusteollisuutta, jolloin sen riippuuvuus epävarmasta, ulkopuolisesta tuesta vähenisi.Venäjäkin tietää tämän. Käihkö huomauttaa, että Venäjä on kohdistanut tänä talvena ilmaiskujaan juuri puolustusteollisuuteen eikä esimerkiksi sähkövoimaloiden kaltaisiin infrakohteisiin.Hyviä uutisia rintamalta ei ole tiedossaKäihkö muistuttaa, että rintama ei ole juurikaan liikkunut yli vuoteen. Venäjän vähimmäistavoite on kuitenkin edelleen liittää ainakin Itä-Ukrainan Donbas pysyvästi itseensä.– Venäjä jatkaa hyökkäyksiään ja sen olisi varmaan hyvä saada jotain aikaiseksi ennen [maaliskuun] presidentinvaaleja.Avaa kuvien katseluVenäjän ohjusisku teki 23. tammikuuta tuhoa Kiovan lähellä. Kuva: Aleksandr Gusev/AOPKäihkö harmittelee, että usein Ukraina-keskustelussa unohtuu vastapuoli eli Venäjä.– Venäjällä varmasti myös ajatellaan, että Ukraina on nyt heikko ja kannattaa käyttää tilaisuus hyväkseen, Käihkö sanoo.
-Aloite on ainakin väliaikaisesti enemmän Venäjän käsissä. Käihkön mukaan nykytietojen valossa ei kuitenkaan ole syytä odottaa Ukrainan suurta romahdusta.– Hyviä uutisia ei Ukrainan puolelta kannata hirveästi tänä vuonna odottaa, Käihkö sanoo.</t>
+          <t>2024-02-11T13:39:13+02:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420074003</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen voitti Bayern Münchenin 3–0 jalkapallon Saksan Bundesliigassa lauantai-iltana.  Leverkusen kasvatti sarjajohtonsa viiteen pisteeseen.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Suomalaismaalivahti Lukas Hradecky torjui nollapelin massivisessa ottelussa lauantai-iltana. Hänen edustamansa Bayer Leverkusen kaatoi Bayern Münchenin maalein 3–0 jalkapallon Saksan Bundesliigassa.Ottelun jälkeen Hradecky kiitteli Leverkusenin päävalmentajaa Xabi Alonsoa.– Saimme pidettyä heidän hyökkääjänsä hyvin kurissa, varmaan parasta peliä puolustussuuntaan, mitä olemme tällä kaudella pelanneet. Taktisesti onnistuimme myös nappiin, kiitos siitä Xabille. Muu näkyy lopputuloksessa – teimme kolme maalia. Uskomatonta, Hradecky kommentoi Leverkusenin verkkosivuilla.Avaa kuvien katseluLeverkusenin päävalmentaja Xabi Alonso (oik.) huusi Hradeckyn korvaan lokakuussa. Kuva: Berengui / DeFodi Images / Getty ImagesVoitto oli Leverkusenille merkittävä. Sarjakärjessä oleva joukkue karkasi viiden pisteen päähän Bayernista, kun jäljellä on 13 kierrosta. Leverkusen ei ole tällä kaudella hävinnyt yhtäkään ottelua. Nyt joukkue voi hävitä kertaalleen, eikä Bayern silti nousisi ohi.Leverkusenin kapteeni Hradecky on torjunut 20 pelissä kauden 21 ottelusta. Noissa peleissä hänelle on kertynyt jopa kymmenen nollapeliä.Suomen maajoukkuemaalivahti pelaa kuudetta kauttaan Leverkusenissa. Bayern-voiton jälkeen kannattajien suosikiksi noussut Hradecky kiipesi katsomoon laulattamaan faneja.Katso video Hradeckyn ja kannattajien juhlista alta tai tästä linkistä.Bayern-tähdet pettyivätBayern Münchenin varakapteeni Thomas Müller oli suorasanaisena Skyn haastattelussa. Hänen mukaansa tappio ei ollut valmennuksen syytä, vaan pelaajat epäonnistuivat.– Oliver Kahnia lainatakseni: Kaipaan meiltä pelaajilta enemmän munaa. Onnistumme paljon paremmin harjoituksissa. Paineet ovat okei, mutta pelissä pitää olla energiaa ja vapautta. Ne meiltä puuttuvat, Müller totesi.Bayernin pitkäaikainen kapteeni Manuel Neuer taasen sanoi, että joukkueen esitys oli surkein kauden tärkeimmässä ottelussa.– Tuolla tavalla emme pysty haastamaan tuollaista joukkuetta. Yksinkertaisesti yritimme liian vähän, Neuer sanaili saksalaislehti Bildin haastattelussa.Avaa kuvien katseluBayern-pelaajat joutuivat pettymään Leverkusenin vieraina. Kuva: Stefan Matzke / Corbis / Getty ImagesNiin ikään Bayernin kapteenistoon kuuluva Joshua Kimmich totesi, että joukkueen pelistä puuttui ilo, luovuus, helppous ja vapaus.– Minusta tuntuu, että emme tule toimeen keskenämme eli emme pelaa riittävän hyvin. Sitä pitää kehittää todella, todella nopeasti.Bayern München on voittanut Saksan mestaruuden 11 kertaa peräkkäin. Viime kaudella joukkue voitti erittäin niukasti Borussia Dortmundin. Kauden päättyessä kärkikaksikko oli tasapisteissä, mutta mestaruus meni Bayernille paremman maalieron ansiosta.</t>
         </is>
       </c>
     </row>
@@ -1211,26 +1603,41 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Venäjän Mustanmeren laivasto pieneni jälleen? Ukraina kertoo upottaneensa korvetin</t>
+          <t>Naisleijonat päätti EHT-kautensa voittoputkeen – tähtäin huhtikuussa</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072569</t>
+          <t>https://yle.fi/a/74-20074024</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ukraina sanoo upottaneensa venäläisen korvetin, Ivanovetsin.Reuters julkaisi videon, jolla väitetty meridroonihyökkäys näkyy. Ivanovetsiin osuu videon perusteella ainakin kolme meridroonia. Alukselta yritetään tulittaa drooneja, mutta ne onnistuvat tehtävässään ja räjähtävät tuhoisin seurauksin.Videon väitetään olevan keskiviikon ja torstain väliseltä yöltä.Kyse on vuonna 1988 valmistuneesta kevyestä Molnija-luokan ohjuskorvetista. Alus kuului 41. ohjusveneprikaatin 298. ohjusvenelaivueeseen, vahvistaa Ylen asiantuntija Marko Eklund.– Se on suhteellisen pieni, 56-metrinen alus. Kyseisen alusluokan miehistöön kuuluu noin 40 henkeä, Eklund kertoo.Pääaseena aluksella on neljä P-270 ”Moskit” -merimaaliohjusta, joiden kantaman arvioidaan olevan versiosta riippuen 120–250 kilometriä. Ohjus lentää yli kaksinkertaisella äänennopeudella ja siitä on ollut käytössä myös lentokoneesta laukaistava versio.Ukrainan sotilastiedustelupalvelun mukaan alus oli partioimassa Krimin niemimaan edustalla.Turvallisuusyhtiö Ambreyn mukaan Ukraina käytti iskussa todennäköisesti kuutta meridroonia. Kukin sisältää noin 300 kiloa räjähteitä. Asiasta kertoo uutistoimisto AP.Avaa kuvien katseluIvanovets (oik.) osallistui Mustanmeren laivastopäivään Krimin Sevastopolissa toisen korvetin kanssa vuonna 2019. Kuva: EPA-EFEVenäjä ei ole kommentoinut upottamista, mutta Venäjän armeijaan kytköksissä olevalla Telegram-kanavalla kerrottiin Ukrainan hyökänneen yhdeksällä meridroonilla alueelle yöllä. Kanavan mukaan neljä drooneista havaittiin ja niitä kohti avattiin tuli.Kanavan mukaan yksi kohteena ollut alus ”vaurioitui”.Lähteet: AP, AFP, STT</t>
+          <t>2024-02-11T17:36:25+02:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420074024</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juuso Toivola näkee selvää kehitystä joukkueensa EHT-turnausotteissa. Pelillisesti tämä oli kauden paras tapahtuma, iloitsee Naisleijonien päävalmentaja. </t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Suomen naisten jääkiekkomaajoukkue päätti tämän kauden pelinsä EHT-kiertueella kolmen ottelun voittoputkeen, kun Saksa kaatui Tshekin turnauksen päätöspäivänä 4–0. Naisleijonilla seuraavat tosipelit ovat edessä vasta huhtikuussa, kun Yhdysvalloissa pelataan MM-turnaus.Naisleijonille maalasivat kapteeni Jenni Hiirikoski kahdesti sekä Noora Tulus ja Julia Liikala. Maalivahti Tiia Pajarinen piti nollan 16 torjunnalla.Suomi avasi turnauksen tappiolla Ruotsille voittolaukauskisan myötä, mutta voitti sen jälkeen Sveitsin, Tshekin ja Saksan. Kauden aiempiin koitoksiin verrattaessa turnaus oli paras tuloksellisesti ja päävalmentaja Juuso Toivolan iloksi myös pelillisesti.– Ehjä turnaus, ehjä kokonaisuus. Ensimmäisen ottelun rankkaritappio jäi hampaankoloon, mutta pelillisesti tämä oli kauden paras tapahtuma, Toivola tiivisti STT:lle puhelimitse Tshekin Liberecistä.Toivolan näki, että tapahtuma oli onnistunut niin kaukalossa kuin jään ulkopuolella, joukkueessa oli hyvä ilmapiiri.– Pystyttiin hyvin riistämään, merkkaamaan ja riistämään, laittamaan vastustaja ahtaalle. Ja hyökkäyspeli oli samanrytmisempää, päästiin viidellä hyökkäämään paremmin. Ja kun hyökkäysalueelle päästiin, niin maaleja onneksi tuli, mutta toki sitä edelleen tehostetaan. Maalivahtipeliin saa olla tyytyväinen, ja myös erikoistilannepeli otti askeleen eteenpäin.Tapanin paluu ilahduttiTurnaus oli kokeneen hyökkääjän Susanna Tapanin paluutapahtuma maajoukkueeseen. Edellisen kerran syksyllä 2022 Naisleijonissa pelanneen Tapanin otteet ilahduttivat valmennusta.– Näkyy, että on pelannut (Pohjois-Amerikan ammattilaisliiga) PWHL:ssä, toi hyvää kokemusta, luisteluvoimaa ja kiekollista varmuutta meidän peliin. Hän on todella hyvä joukkuepelaaja, joka toi myös kentän ulkopuolelle oman kokemuksensa. Oli kiva saada hänet mukaan, Toivola totesi.Tapani jatkaa kauttaan rapakon takana, muu pelaajisto Ruotsin ja Suomen sarjoissa. Huhtikuun 3. päivä Yhdysvaltain Uticassa alkavaan MM-turnaukseen Naisleijonat matkaa 25. maaliskuuta ja ottelee MM-leirillään Kanadassa yhden ottelun ennen turnausta.Toivola toivoo, että ainakin suurimmalla osalla joukkueesta pelituntuma säilyy mahdollisimman pitkään eli Euroopan sarjoissa mennään pudotuspeleissä pitkälle.</t>
         </is>
       </c>
     </row>
@@ -1239,26 +1646,41 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EU:n ydinjoukko laittoi Unkarin ruotuun huippu­ko­kouksen aamuna</t>
+          <t>150 pommikonetta vyöryi Neuvos­to­liitosta Suomeen tasan 80 vuotta sitten – näin Kotka pelastui täystuholta</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072530</t>
+          <t>https://yle.fi/a/74-20073619</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Unkarin pääministeri Viktor Orbán suostui Ukrainalle maksettavaan tukeen EU:n ydinjoukon kurinpalautuksessa, joka edelsi varsinaista huippukokousta.Paikalla olivat Ranskan presidentti Emmanuel Macron, Saksan pääministeri Olaf Scholz ja Italian pääministeri Giorgia Meloni sekä EU-komission puheenjohtaja Ursula von der Leyen.EU-päättäjät olivat kokoontuneet Brysseliin ylimääräiseen huippukokoukseen siksi, että Unkari torppasi joulukuun kokouksessa Ukrainalle maksettavan tuen.Orbán toisti tiettävästi kokouksessa vaatimuksiaan muun muassa veto-oikeudesta. Hän halusi, että tukea myönnettäisiin Ukrainalle vain vuodeksi, minkä jälkeen siitä pitäisi taas päättää yksimielisesti.Kokouslähde arvioi, että Orbánin piti kuulla kasvotusten EU-johtajilta, että he ovat tosissaan eikä vastaantuloa ole odotettavissa. Orbán ei luottanut pääministerien lähimpien neuvonantajien viesteihin, vaikka kannat ovat olleet samat viikkojen ajan.Orbánin pelimerkit alkoivat olla vähissä.Varsinainen huippukokous ehti kestää vain muutaman minuutin, kun Eurooppa-neuvoston puheenjohtaja Charles Michel ilmoitti, että Unkari hyväksyy Ukrainan tukipaketin.Pieninä myönnytyksinä sopimukseen kirjattiin, että tuesta keskustellaan vuosittain ja tarvittaessa voidaan tehdä arvio kahden vuoden kuluttua. Tämä on kaukana Unkarin vaatimasta veto-oikeudesta.Nämäkin lauseet olisi voitu kirjata sopimukseen jo joulukuun huippukokouksessa, yksi virkamies totesi.Orbán selitti asiaa tviitissään parhain päin: ”Tehtävä suoritettu. Unkarin rahoja ei päädy Ukrainaan, ja meillä on kontrollimekanismi.”Unkarilta jäädytettyjä varoja ei ole ollut tarkoituskaan käyttää Ukrainan tukemiseen. Tuki maksetaan EU-budjetista, jonka maksajia ovat jäsenmaat.Unkarin päätökseen saattoi vaikuttaa myös aiemmin viikolla Financial Timesiin vuodettu asiakirja, jonka mukaan Unkarin tukemista aiottiin rajoittaa, niin että maan talous ajautuu entistä pahempaan alamäkeen ja sijoittajat menettävät luottamuksensa.EU-johtajat pohjustivat päätöstä edellispäivän illallisella. Pääministeri Petteri Orpon (kok.) mukaan siellä vahvistui, ettei kukaan lipeä Unkarin puolelle. Orbán ei ollut illallisella.Moni tympääntyi Unkariin tukiriidan kestäessä. Orpon mukaan Unkari ei päätöksen jälkeen saanut muilta arvostelua mutta ei kehujakaan.Esimerkiksi Puolen pääministeri Donald Tusk totesi Reutersin mukaan, ettei hän luottaisi siihen, että Orbán jatkossa pelaa joukkueessa.Unkari on harannut EU:ssa vastaan jo monissa päätöksissä, esimerkiksi Venäjän-vastaisissa sanktioissa.</t>
+          <t>2024-02-11T10:15:33+02:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420073619</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kotka oli yksi pommitetuimmista kaupungeista Suomessa sodan aikana. </t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Helmikuun 11. päivä vuonna 1944 Kotkan taivaalla jylisi kaikkiaan 150 neuvostoliittolaista pommikonetta.Pommitusten tarkoituksena oli tuhota Kotkan satama ja koko kaupunki, mutta hyökkäys epäonnistui.Hieman aiemmin 6. helmikuuta pommit moukaroivat Helsinkiä. Pommit tappoivat 103 ihmistä ja tuhosivat 15 rakennusta. Tämän hyökkäyksen jälkeen arveltiin, että se jäisi viimeiseksi.Muutaman päivän kuluttua tilanne kuitenkin muuttui.– Radiotiedustelu sai tiedon, että tällainen porukka on tulossa Kotkaan ja ehti varoittaa puolustusta ajoissa, kertoo Ville Jalovaara.Historiantutkija ja dosentti Ville Jalovaara on tutkinut helmikuista suurpommitusta. Hän julkaisi viime syksynä teoksen Helsinki 1944 – Taistelu pääkaupungista.Satama pommitusten kohteenaKotka valikoitui pommitusten kohteeksi sataman vuoksi. Lisäksi Kotkaan oli lyhyt matka vihollisen tukikohdista. Kotkaa oli myös pommitettu aiemmin, ja Neuvostoliitto tunsi kaupungin ja sen puolustuksen.Avaa kuvien katseluHistoriantutkija ja dosentti Ville Jalovaara on tutkinut helmikuista suurpommitusta ja julkaissut teoksen Helsinki 1944 – Taistelu pääkaupungista. Kuva: Kirsi-Marja Lönnblad / YleNeuvostoliitto oli helmikuussa 1944 kasannut Suomen-operaatioon kaikkiaan noin tuhat konetta, eli kyseessä oli suuri ilmaoperaatio. Kohteina olivat Helsingin ja Kotkan lisäksi myös Oulu ja Turku, joita pommitettiin 21. helmikuuta.– Tämä oli osa sitä kampanjaa, jonka tarkoitus oli raunioittaa kaupunkeja ja taivuttaa hallitusta siten Neuvostoliiton rauhanehtoihin, selventää Ville Jalovaara.Neuvostoliitto halusi vapauttaa joukkonsa taistelemaan Saksaa vastaan Keski-Euroopassa. Suomen hallitus ei kuitenkaan taipunut rauhanehtoihin, koska oli vihjeitä, että siellä on vaatimuksia, joita Suomi ei pystynyt täyttämään.– Vaatimuksiin kuului muun muassa, että Kymijoesta tehtäisiin rajajoki, eli Kotkan kupeeseen olisi syntynyt Suomen ja Neuvostoliiton raja. Aika vaikeaa olisi puhua itsenäisestä Suomesta sen jälkeen, toteaa Ville Jalovaara.Avaa kuvien katseluSuomalainen hävittäjä lentää Kotkan yläpuolella. Kuvassa oikealla kaupungintalon kulma ja suoraan edessä vanha rahatoimisto.  Kuva: SA-kuvaKotkassa hyvä ilmapuolustusPommitusten tuhot jäivät pieniksi Kotkassa. Neuvostolentäjillä oli puutteita taidoissa ja ongelmia tähtäämisessä ja he pelkäsivät kaupungin ilmapuolustusta.Helsingissä maaliin osui noin viisi prosenttia pommeista, Kotkassa kaupunkialueelle osui parikymmentä pommia ja loput menivät ohi.Kotkassa oli hyvä ilmapuolustus. Kaupungissa oli varauduttu hyökkäyksiin nimenomaan satamaa vastaan.– Helsingissä oli neljä ja Kotkassa kaksi kappaletta Saksasta ostettuja tulenjohtotutkia, jotka kertoivat siitä, että Suomen ilmatorjunta oli antanut vähät tutkalla varustetut ilmatorjuntapatterinsa näille kaupungeille. Lisäksi Tallinnasta tuli kaksi saksalaista Junkers 88 -yöhävittäjää auttamaan yllättäen Kotkan puolustajia, Ville Jalovaara kertoo.Osa pommeista osui tehdaskaupunginosa Sunilaan, jossa arviolta kahdeksan ihmistä sai surmansa.Vihollisen tappioista ei ole varmaa tietoa, sillä Venäjän arkistot ovat epäluotettavia.– Se tiedetään, että Kotkan ilmatorjunta ampui alas todennäköisesti kaksi Neuvostoliiton konetta, ja saksalainen hävittäjä ampui alas yhden pommikoneen Suomenlahdella, kertoo Ville Jalovaara.Avaa kuvien katseluPommitettua Kaivokatua 1939–1944.  Kuva: Jalmari Laitinen, Kymenlaakson museon arkistoKotkassa pommitukset jatkuivat aina sodan loppupuolelle asti.– Loppukesästä 1944 Neuvostoliitto upotti Niobe-aluksen Kotkan satamassa ja ilmahyökkäykset jatkuivat, sillä Neuvostoliitto näki Kotkan tärkeänä laivastotukikohtana.Ville Jalovaara on viime kuukausina kiertänyt Suomea luennoimassa uuden kirjansa pohjalta ja kiinnostuneita kuulijoita on riittänyt.– Yleisössä on sotahistoriasta kiinnostuneita ja jopa muutama veteraani. Ukrainan sodan myötä ihmiset ovat varmaan tajunneet, että meidänkin kaupungeissamme on aikanaan tapahtunut hyvin samanlaisia asioita, miettii Ville Jalovaara.Kotkalainen Olavi Wecksten joutui pikkupoikana uimareissullaan vuonna 1944 todistamaan saksalaisen Niobe-sotalaivan. Toimittajana Olli Törönen. Haastattelu on julkaistu helmikuussa 2019.Olavi Wecksten muistelee Niobe-laivan upotusta kesällä 1944</t>
         </is>
       </c>
     </row>
@@ -1267,26 +1689,41 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Tammikuu tarjosi kaikkea paukku­pak­kasista vesisateisiin – katso kuukauden parhaat sääkuvat</t>
+          <t>Camilla Richardsson juoksi uuden Suomen ennätyksen</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20070418</t>
+          <t>https://yle.fi/a/74-20073997</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Avaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katselu</t>
+          <t>2024-02-11T11:21:30+02:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420073997</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Camilla Richardsson on juossut viimeisen vuoden aikana kolmella matkalla uuden Suomen ennätyksen.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Camilla Richardsson on juossut uuden puolimaratonin Suomen ennätyksen.Richardsson juoksi Barcelonassa matkan aikaan 1.09.55 ja sijoittui yhdeksänneksi. Aiempi ennätys oli Annemari Sandellin nimissä vuodelta 1998. Richardsson paransi Sandellinin aikaa yhdeksällä sekunnilla.Richardssonin oma ennätys oli vuosi sitten juostu 1.10.08. Hän odotti tiedotteen mukaan jopa reilusti kovempaa aikaa Barcelonassa.– Jopa alle 1.09:n aikaa ajattelin, koska talven harjoittelu on sujunut hyvin ja olen tehnyt hyviä treenejä, Richardsson kertoi tiedotteen mukaan.Puolimaratonjuoksua vaikeutti Richardssonin mukaan kova tuuli, joka haittasi erityisesti viimeisen 4–5 kilometrin aikana.– Säätilaan nähden aikani oli jopa yllättävän hyvä. Ei ollut ihan paras päivä muutenkaan. Jalat tuntuivat hyviltä, mutta tuuli ja kylmyys jäykisti menoa.Richardsson on juossut viimeisen vuoden aikana Suomen ennätyksen useammalla matkalla.Viime vuoden joulukuussa hän juoksi Valenciassa maratonin SE-ajaksi 2.24.38 ja alitti Alisa Vainion aiemman ennätyksen lähes kolmella minuutilla. Toukokuussa hän puolestaan pinkoi 10 000 metrin Suomen ennätyksen Lontoossa.Nina Chydenius oli Barcelonassa 17:s ajalla 1.13.33. Kilpailun voitti Kenian Jouciline Jepkosgei ajalla 1.04.29.Oikaisu kello 14.08: Korjattu Nina Chydeniuksen loppuajaksi 1.13.33.</t>
         </is>
       </c>
     </row>
@@ -1295,28 +1732,41 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Haavisto ja Stubb paljastavat ystä­vä­kirjassa lempiruokansa ja hirveimmät kokemukset ulkomailta</t>
+          <t>Kaikki kohisevat Taylor Swiftistä, mutta on siellä joku pelikin – tässä ovat Super Bowlin kuumat puheenaiheet</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072243</t>
+          <t>https://yle.fi/a/74-20073865</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.
-Toteutus vaatii toimiakseen JavaScriptin.
-</t>
+          <t>2024-02-11T11:00:36+02:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420073865</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>”Herra turhake” haastaa Patrick Mahomesin, jota pidetään NFL:n parhaana pelaajana. Listasimme neljä puheenaihetta amerikkalaisen jalkapallon Super Bowliin, joka pelataan Suomen aikaa maanantaiyönä.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Mikko Koikkalainen perkaa lähtökohdat Super BowliinKuuntele, kun Mikko Koikkalainen perkaa lähtökohdat Super Bowliin.Amerikkalaisen jalkapalloilun NFL:n mestari ratkeaa maanantain vastaisena yönä Las Vegasissa. Viime vuoden voittaja Kansas City Chiefs puolustaa mestaruuttaan San Francisco 49ersia vastaan.Chiefs ja 49ers kohtasivat toisensa myös helmikuun 2020 Super Bowlissa. Patrick Mahomes oli jo tuolloin Chiefsin pelinrakentaja. San Franciscon hyökkäystä johti Jimmy Garoppolo. Mahomes onnistui voittamaan uransa ensimmäisen Super Bowlin, kun Chiefs nousi kymmenen pisteen takamatkalta ohi ja kaatoi Ninersin luvuin 31–20.Päävalmentajina ovat yhä Andy Reid ja Kyle Shanahan. Kokenut Reid luotsasi Chiefsin nyt neljättä kertaa Super Bowliin viiden viime vuoden aikana. Dynastiasta voitaneen puhua, jos Chiefs nostaa Lombardi Trophyn ilmaan kolmatta kertaa.Vuosi sitten Chiefs voitti Super Bowlissa Philadelphia Eaglesin 38–35. Eaglesin saaman rangaistuksen seurauksena Chiefs pääsi lopussa potkuetäisyydelle, kulutti kellon loppuun ja ratkaisi ottelun Harrison Butkerin kolmen pisteen suorituksella.Chiefsin huono kausi – tai eipä sittenkäänChiefsin tätä kautta on pidetty tavallista heikompana. Joukkue jäi edellisen kerran runkosarjassa alle 12 voiton vuonna 2017, jolloin Mahomes ei vielä tulokkaana ollut Chiefsin aloittava pelinrakentaja. KC aloitti kauden 2023 tappiolla Detroitille, ja normaalisti tulivoimainen hyökkäys yskähteli pitkin runkosarjaa.Joukkue lähti pudotuspeleihin kolmossijoitettuna. Ennen pudotuspelejä Chiefsiä ei pidetty suurimpana suosikkina, sillä räjähtävästä hyökkäyksestä ei ollut tietoakaan: Mahomesin touchdown-heittojen määrä (27) oli uran heikoin, ja tähti heitti myös enemmän syötönkatkoja (14) kuin aiemmin urallaan.Avaa kuvien katseluPatrick Mahomes on tottunut loistamaan, kun panokset ovat tapissa. Kuva: Getty ImagesLisäksi sisempi laitahyökkääjä Travis Kelce pelasi huonomman runkosarjan kuin vuosi sitten. Chiefsin pelaajat johtivat koko liigaa pudotuksissa, ja hyökkäys sai liigassa toiseksi eniten rangaistuksia. KC oli seitsemäs pallonmenetyksissä.– He ovat pelanneet ilmiömäiset pudotuspelit. Se, miten he pelasivat runkosarjan keskivaiheen ja lopun, ei antanut viitettä sille, että he olisivat Super Bowlissa. He ovat pelanneet kolme parasta peliään kolmena edellisenä viikkona, Suomen maajoukkueen päävalmentaja Mikko Koikkalainen sanoo.Joukkueiden tiet Super BowliinJoukkueiden tiet Super BowliinKansas City ChiefsRunkosarja: 11 voittoa, 6 tappiota (AFC-konferenssin 3. sijoitettu)AFC-puolivälierä: 26–7 vs. MiamiAFC-välierä: 27–24 vs. BuffaloAFC-finaali: 17–10 vs. BaltimoreSan Francisco 49ersRunkosarja: 12 voittoa, 5 tappiota (NFC-konferenssin 1. sijoitettu)Pääsi konferenssivoittonsa ansiosta suoraan pudotuspelien toiselle kierrokselleNFC-välierä: 24–21 vs. Green BayNFC-finaali: 34–31 vs. DetroitAvaaHyökkäysnerot”Puolustukset voittavat mestaruuksia”. Tällä kertaa vastakkain on kaksi hyökkäysnerona pidettyä valmentajaa, kun jo legendana pidetyn Reidin Chiefs saa vastaansa Shanahanin huippuunsa virittämän koneen.Shanahan oli Atlanta Falconsin hyökkäyksen koordinaattorina surullisen kuuluisassa helmikuun 2017 Super Bowlissa, kun Falcons menetti 28–3-johdon New England Patriotsia vastaan viimeisellä neljänneksellä. Shanahan tavoittelee yhä ensimmäistä Super Bowliaan. Hän on päässyt lähelle, mutta ratkaisuhetkillä Shanahanin joukkueita on leimannut hätiköinti.Tuleeko Super Bowlista ilotulitusta, kun päävalmentajina vastakkain on kaksi hyökkäysneroa?– En usko, etteivät puolustukset pystyisi pysäyttämään. Uskon, että tästä tulee siinä mielessä tasainen peli, että kummankin hyökkäys ja puolustus saavat onnistumisia, Koikkalainen arvioi.Avaa kuvien katseluKansas City Chiefsin Trent McDuffie. Kuva: Getty ImagesPuolustuksen tähtiä ovat Chiefsiltä kulmapuolustaja Trent McDuffie ja linjamies Chris Jones. 49ersilta mainittavia puolustajia ovat linjasta Nick Bosa sekä tukimies Fred Warner.”Herra Turhake”Harvassa ovat ne, jotka eivät pidä KC:n pelinrakentajaa sarjan parhaana pelaajana. Mahomesin Chiefs on huonona päivänäänkin parempi kuin useimmat kilpailijansa.San Franciscon pelin ytimessä hyökkäystä rakentelee Brock Purdy, jonka nousu huipulle uhmaa todennäköisyyksiä. Niners varasi Purdyn vuonna 2022 viimeisenä pelaajana, joten Purdy sai itselleen liikanimen ”Mr. Irrelevant”, suomennettuna ”Herra Turhake”.Vuoden 2021 draftissa kolmantena varatun Trey Lancen piti olla joukkueen tulevaisuus, mutta tämän haparointi ja loukkaantumiset antoivat mahdollisuuden Purdylle. Nuori peluri tosin loukkaantui viime vuoden pudotuspeleissä ja Ninersille jäi Eagles-tappiosta jossiteltavaa. Nyt Purdy on terve ja San Franciscon mestaruushaaveiden muuttaminen todeksi on hänen käsissään.Avaa kuvien katseluBrock Purdy on noussut mediahuomion kohteeksi tällä kaudella. Kuva: Getty Images49ersilla on muilla hyökkäyksen pelipaikoilla kattavampi arsenaali. Brandon Aiyuk, Deebo Samuel, George Kittle ja Christian McCaffrey muodostavat hyvän nelikon, jolle Purdy voi heittää tai ojentaa palloa.Vaikka Purdy on osoittanut tasonsa, on pelinrakentajissa etu KC:lla.– Purdy on ensimmäisessä Super Bowlissaan, ja aiemmissa otteluissa vastustaja on saanut paljon sellaisia palloja, joista olisi pitänyt saada katkoja. Mahomesia ei pitäisi ikinä aliarvioida. Hän on taas pudotuspeleissä osoittanut olevansa paras, Koikkalainen vertailee.Taylor Swift -ilmiöSuper Bowlia ei pysty katsomaan kuulematta poptähti Taylor Swiftin nimeä. Swift ja Chiefsin Kelce näet ovat viihtyneet tästä kaudesta alkaen yhdessä.Avaa kuvien katseluTravis Kelcen ja Taylor Swiftin suhteella on ollut merkittävät vaikutukset kokonaiseen urheilulajiin. Kuva: Patrick Smith / Getty ImagesAvaa kuvien katseluNämä fanit ovat löytäneet oman näkökulmansa NFL:n seuraamiseen. Kuva: Getty ImagesKuuluisa laulaja on ollut usein vieraana Chiefsin aitiossa. Tämän vuoden Super Bowlin väliajalla esiintyy Usher eikä Swift, mutta vedonlyöntiyhtiöillä on hurja määrä erilaisia Swiftiin liittyviä kohteita.Fanit voivat lyödä vetoa siitä, ilmoittavatko Kelce ja Swift odottavansa vauvaa, tai siitä, kuinka monta kertaa selostajat mainitsevat laulajan.Swift esiintyy tällä viikolla Japanissa, mutta artistin odotetaan saapuvan peliin. Kelce-romanssi on iso juttu NFL:lle, sillä sarja on tavoittanut uusia faneja.</t>
         </is>
       </c>
     </row>
@@ -1325,26 +1775,41 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Näin Stora Enson pomo perustelee yt-neuvotteluja, joista voi seurata potkut tuhannelle ihmiselle</t>
+          <t>UMK-voittaja Windows95man: Toivomme, että Israel ei osallistu Euroviisuihin</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072562</t>
+          <t>https://yle.fi/a/74-20073983</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Metsäyhtiö Stora Enso kertoo valmistelevansa kannattavuuden parantamisohjelmaa, joka voi johtaa noin tuhannen työntekijän vähentämiseen.Henkilöstövähennykset koskettaisivat konsernin kaikkia toimintoja. Vielä ei ole tiedossa, miten paljon ja mistä yksiköistä työpaikkoja lähtee Suomessa.– Markkinatilanne on edelleen haastava. Näkyvissä on joitakin normalisoitumisen merkkejä, ja me teemme oikeita asioita, koska pystyimme kuitenkin kolmannesta kvartaalista jonkun verran parantamaan tulosta, mutta edelleen ollaan epätyydyttävän alhaisella tasolla, sanoo toimitusjohtaja Hans Sohlström.Yhtiö keskittyy ydintoimintoihin, joita ovat asiakkaiden palveleminen ja tuotteiden tehokas tuottaminen. Joitakin hallinnollisia tehtäviä saattaa jäädä pois. Tavoitteena on 80 miljoonan euron säästöt.– Meidän pitää epävarmassa markkinatilanteessa keskittyä niihin asioihin, mihin me voimme vaikuttaa. Muun muassa kustannustehokkuus on meidän käsissämme.Osinko laskee rajustiMuutosneuvottelut yhtiön eri toimintamaissa käynnistyvät lähiaikoina.Valtaosa suunnitelluista säästöistä voisi toteutua vuonna 2025, mutta merkittävä osa mahdollisista työntekijävähennyksistä tapahtuisi jo vuoden 2024 ensimmäisellä puoliskolla.Ohjelmaan ei ole suunniteltu uusia tuotantolaitosten sulkemisia.Stora Enson loka–joulukuun liikevaihto laski liki neljänneksen ja oli 2,17 miljardia euroa. Operatiivinen liiketulos pieneni 51 miljoonaan euroon vuoden takaisesta 355 miljoonasta.Osinko laskee 0,10 euroon osaketta kohti viime vuonna maksetusta 0,60 eurosta.Viime vuoden lopussa yhtiö sai päätökseen kesäkuussa 2023 käynnistyneen uudelleenjärjestelyohjelman. Sen myötä operatiivinen liiketulos parani 110 miljoonalla eurolla vuodessa ja henkilöstöstä vähennettiin 1 150 työntekijää.Vuonna 2023 liikevaihto oli 9,4 miljardia euroa. Vuotta aiemmin se oli 11,7 miljardia euroa. Yhtiö työllistää noin 21 000 henkilöä.</t>
+          <t>2024-02-10T23:03:13+02:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420073983</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>No Rules -kappale on valittu edustamaan Suomea Euroviisuihin.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Windows95man on voittanut Uuden Musiikin Kilpailun finaalissa. Näin Windows95manin, oikealta nimeltään Teemu Keisterin ja Henri Piispasen esittämä No Rules -kappale on valittu edustamaan Suomea Euroviisuissa Malmössä toukokuussa.Keisteri ja Piispanen olivat onnesta soikeina hetki voiton jälkeen.– Tämä on ihan utopiaa. Me oltiin vikoja. Sitten me ollaan yhtäkkiä ekoja, Keisteri kuvaili tunnelmia.Keisteri viittasi siihen, että kansainvälisiltä raadeilta No Rules sai vähiten pisteitä. Yleisöäänistä tullut massiivinen potti kuitenkin siivitti sen voittoon ohi Sara Siipolan Paskana-kappaleen. Keisteri ja Piispanen kertoivat pitäneensä Saran voittoa varmana ja biisiä ”ihan mielettömänä”.Windows95man ja Sara Siipola jännittivät pisteidenlaskua UMK:n finaalissa.Ylen viisutoimittaja Ville Vedenpää kysyi artisteilta, vaikuttaako Israelin osallistuminen Euroviisuihin heidän osallistumiseensa.– Me toivoisimme, että Israel ei osallistuisi. Tämä on paha tilanne. Tässä on vielä kevääseen asti aikaa. Toivotaan, että EBU tekisi oikeat ratkaisut, Keisteri sanoi.Gazan sodan alettua ihmiset eri puolilla Eurooppaa ovat vaatineet, että viisuja järjestävä Euroopan yleisradiounioni EBU sulkisi Israelin pois kisasta.Miten käy nimen?Nyt pohdittavaksi tulee ainakin nimiasioita: Euroviisuissa ei hyväksytä tuotenimiä. Windows95man ja t-paita, jossa komeilee Microsoftin vanhan käyttöjärjestelmän logo, ovat siis ongelma.– No nyt alkaa kova työpaja. Nyt ruvetaan pohtimaan nimeä. Mutta hahmo on täällä, ihan sama mitä paidassa lukee, Keisteri sanoi ja paukutti UMK-pokaalilla rintaansa.Finaali kisattiin Tampereen areenalla tuhatpäisen yleisön edessä.Voittajan valitsivat yleisö ja kansainvälinen raati yhdessä. Yleisöäänten painoarvo oli 75 prosenttia ja raatien 25 prosenttia.Seurasimme UMK-finaalin tapahtumia tässä jutussa.Katso videolta Windows95manin No Rules -kappaleen esitys UMK-lavalla.</t>
         </is>
       </c>
     </row>
@@ -1353,26 +1818,41 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Yhä useampi kesätyöpaikka toivoo hakijasta videota – katso vinkit, mitä esitte­ly­videossa kannattaa näyttää</t>
+          <t>UMK on yksi näyttä­vimmistä Euroviisujen esikar­sinnoista – katso kuvat show-illasta</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20071287</t>
+          <t>https://yle.fi/a/74-20073994</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Kesätyöhaku käy juuri nyt kuumimmillaan. Nykyään moni työnantaja pyytää hakijalta myös esittelyvideota.Kysyimme eri yrityksiltä, mikä merkitys videolla on työpaikan saamisessa ja voiko sen avulla parantaa asemaansa rekrytoinnissa.Tavarataloketju Motonetin henkilöstöjohtaja Mira Prinz kertoo, että heillä esittelyvideo pyydetään, sillä se on heidän kokemuksensa mukaan monelle nuorelle hyvin luonteva tapa ilmaista itseään.– Jokainen saa loistaa omalla tavallaan. Toki huomioimme, että videon tekeminen voi olla myös epämiellyttävää. Emme pudota ketään pois hakuprosessista pelkän videon perusteella, Prinz kommentoi.Avaa kuvien katseluMotonetin Mira Prinzin mukaan video usein syventää hakijan persoonaa. ”Siinä voi tulla esille myös jotakin sellaista, mitä ei varsinaiseen hakulomakkeeseen ole huomannut laittaa tai me emme ole huomanneet kysyä.” Kuvituskuva. Kuva: Juuso Stoor / YlePersoona ja asenne esiinTavarataloketju Tokmannilta kerrotaan videohakemusten määrän kasvaneen selvästi. Heille hakiessa videon tekeminen ei ole pakollista, mutta sitä kannattaa harkita.Video ei kuitenkaan aseta hakijoita eri viivalle, vaan se on hyvä mahdollisuus tuoda esiin eri tavalla omaa persoonaa, motivaatiota ja asennetta.– Sisältö ratkaisee, ei niinkään sisällön tiedostomuoto, kertoo Tokmannin HR-asiantuntija Jasmin Rinne sähköpostitse.Avaa kuvien katseluKaikki eivät ole luontaisia esiintyjiä. Tämän ymmärtävät myös työnantajat. ”Jännittäminenkin on ok, jos asenne ja motivaatio on kunnossa”, sanoo Tokmannin Jasmin Rinne. Kuvituskuva. Kuva: Tiina Jutila / YleLinnanmäen huvipuiston henkilöstöjohtaja Mirva Mölsä kertoo, että esittelyvideo on merkityksellinen lisä hakuprosessissa niin työnhakijalle kuin rekrytoijallekin.– Video voi auttaa välittämään asiakaspalveluosaamista ja positiivista asennetta. Myös kielitaidon voi esitellä videolla.Mölsä pitää esittelyvideon vahvuutena myös sitä, että siinä hakija saa kertoa itsestään haluamallaan tavalla ja haluamassaan järjestyksessä. Persoonallinen ote ja toteutus huomataan.Vaikka toteutustapa on vapaa, yhden vinkin Mölsä kuitenkin antaa.– Video kannattaa tehdä rauhallisessa paikassa, jotta itse esittely tulee selkeästi esille.Avaa kuvien katseluLinnanmäen huvipuistoon hakevien kannattaa harkita videohakemuksen tekemistä. ”Se voi tuoda hyvän loppusilauksen hakemukseen ja täydentää kirjallista hakemusta”, sanoo Linnanmäen henkilöstöjohtaja Mirva Mölsä. Kuvituskuva vuodelta 2020. Kuva: Matti Myller / Yle Hakuprosessissa kokonaisuus ratkaiseeS-ryhmän rekrytoinnista vastaava päällikkö Annina Hyvönen kertoo sähköpostitse, että muutamissa osuuskaupoissa on käytössä videoesittely.Pääsääntöisesti haku kuitenkin tapahtuu netin kautta perinteisellä hakemuksella ja CV:llä, eli ansioluettelolla. Hyvönen pitää tätä tärkeänä osana hakemusta.– Kesätyö on usein nuorelle ensimmäinen työpaikka, mihin CV:n tarvitsee. Sen tekeminen osaltaan kartuttaa nuoren työelämätaitoja, kun sen yhteydessä tulee listattua, mitä kaikkea on tehnyt ja mitä vahvuuksia löytyy.Avaa kuvien katseluIkea Suomen rekrytointipäällikkö Anna-Maija Korko arvioi, että noin viidessä prosentissa hakemuksia on mukana video. ”Kannattaa tehdä hakemus siinä muodossa, joka itselle tuntuu luontevimmalle.” Kuva: Yle KuvapalveluJos kirjallinen ilmaisu ontuu, voiko hyvällä videolla pelata itselleen kesätyöpaikan?Kaikki kyselyyn vastanneet työnantajat painottavat, että hakuprosessissa kokonaisuus ratkaisee. Erinomainen video ei välttämättä pelasta, jos kokonaisuus ei ole kunnossa.– Mutta sen avulla voi löytyä joku potentiaalinen kultajyvä, joka ehkä muuten jäisi huomaamatta, sanoo Motonetin henkilöstöjohtaja Mira Prinz.</t>
+          <t>2024-02-11T15:00:36+02:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420073994</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Uuden Musiikin Kilpailu on itse Euroviisujen kokoluokkaa. Tältä viisuilta näytti.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Avaa kuvien katseluUMK-show'hun jonottanut yleisö pääsi etkoilemaan klo 18.00 alkaen. Kuva: Nelli Kenttä / YleAvaa kuvien katseluKello 20.30 alkanut UMK:n preshow lämmitteli viisukansaa. Kuvassa Moves Like Summerin tanssijat. Kuva: Miikka Varila / YleAvaa kuvien katseluUMK-show'n avasi Benjamin ja KUUMAA. Heidän yhteisesityksensä oli dramaattinen sovitus biiseistä Ylivoimainen ja Hoida Mut. Kuva: Miikka Varila / YleAvaa kuvien katseluBenjaminin dance break sai yleisön villiintymään. Kuva: Miikka Varila / YleAvaa kuvien katseluEnsimmäisenä esiintyneen Sini Sabotagen show sisälsi lukuita asunvaihtoja. Kuva: Miikka Varila / YleAvaa kuvien katseluCyan Kicksin lähes mustavalkoinen lavashow sisälsi paljon peilejä ja savua. Kuva: Miikka Varila / YleAvaa kuvien katseluKolmantena esiintyi Jesse Markin hyväntuulisella kilpailukappaleellaan Glow. Kuvassa vasemmalta oikealle Miranda Chambers, Jesse Markin, Yasmin Janatuinen ja Lamin Holmen. Kuva: Miikka Varila / YleAvaa kuvien katseluMikael Gabriel x nublun värikäs esitys energisöi UMK-yleisön.  Kuva: Miikka Varila / YleAvaa kuvien katseluViidentenä esiintynyt Sara Siipola vakuutti kansainväliset raadit pelkistetyllä ja tyylikkäällä lavaesityksellään. Kuva: Miikka Varila / YleAvaa kuvien katseluSexmanen näyttävä lavashow sisälsi jättimäisen laskuvarjoelementin Kuva: Miikka Varila / YleAvaa kuvien katseluUMK-voittaja Windows95man oli illan viimeinen esiintyjä.  Kuva: Nelli Kenttä / YleAvaa kuvien katseluJuontaja Pilvi Hämäläinen esitti show'n ”kahdeksannen” biisin Näytän sinulle taivaan. Kuva: Miikka Varila / YleAvaa kuvien katseluPilvin esitys sisälsi kaikki euroviisuelementit – ja enemmän. Kuva: Miikka Varila / YleAvaa kuvien katseluSuomea kaksi kertaa Euroviisuissa edustanut Katri Helena sai yleisön liikuttumaan Katson sineen taivaan -sovituksella. Kuva: Miikka Varila / YleAvaa kuvien katseluYleisöön syttyi valomeri. Kuva: Nelli Kenttä / YleAvaa kuvien katseluKatri Helenan esitys päättyi loppusanoihin: ”Voima yli kaiken on rakkaus. Se on kaikkein suurin ja kaikkein vahvin. Se ei petä eikä huolehdi turhia; se näkee olennaisen ja uskoo voimaansa” Kuva: Miikka Varila / YleAvaa kuvien katseluIllan viimeinen väliaikanumero alkoi Käärijän ja Erika Vikmanin uudella biisillä Ruoska.  Kuva: Miikka Varila / YleAvaa kuvien katseluJa tulihan sieltä se legendaarinen euroviisubiisi Cha Cha Cha. Kuva: Nelli Kenttä / YleAvaa kuvien katseluOnko tämä maailman pisin possujuna? Kuva: Miikka Varila / YleAvaa kuvien katseluEsitys päättyi vihreisiin liekkeihin. Kuva: Nelli Kenttä / YleAvaa kuvien katseluPisteidenannossa oli jännittävät tunnelmat. Sara Siipola sai raadeilta 70 pistettä ja yleisöltä 203. Yhteispistemäärä oli 273.  Kuva: Nelli Kenttä / YleAvaa kuvien katseluWindows95man sai raadeilta 28 pistettä ja yleisöltä 285. Yhteispistemäärä oli 313, joka johti UMK-voittoon. Kuvassa oikealta vasemmalle: Esa Nikkilä, Jussi Roine, Henri Piispanen, Teemu Keisteri ja maskotti. Kuva: Miikka Varila / YleAvaa kuvien katseluWindows95man voitti UMK:n 313 pisteellä. Kuva: Nelli Kenttä / YleAvaa kuvien katseluTeemu Keisterin muna villitsi yleisön. Kuva: Nelli Kenttä / YleAvaa kuvien katseluBiisin korkeat nuotit tarjoili Henri Piispanen. Kuva: Miikka Varila / YleAvaa kuvien katseluNäin paljon farkkukangasta euroviisulavoilla ei olla ikinä nähty. Kuva: Miikka Varila / YleAvaa kuvien katseluLähetys päättyi Windows95manin, Henri Piispasen sekä UMK-kansan yhteiskuvaan. Kuva: Miikka Varila / YleAvaa kuvien katseluShow'n jälkeen alkoivat kolmen kerroksen UMK-jatkot, jotka kestivät aamuneljään. Kuva: Nelli Kenttä / YleAvaa kuvien katseluUMK-karaokessa soi sekä Euroviisu- että UMK-biisejä. Kuva: Nelli Kenttä / YleAvaa kuvien katseluVoittaja Windows95manilla oli paikan päällä lukuisia faneja. Kuvassa vasemmalta oikealle: Jonna Litmanen, Katariina Toivonen, Merita Kinnunen, Minna Perttilahti ja Iina-Emilia Sorsa. Kuva: Miikka Varila / YleAvaa kuvien katseluFanien ilta kruunattiin, kun Henri Piispanen ja Teemu Keisteri saapuivat esittämään voittokappaleensa Viisudiskoon. Kuva: Miikka Varila / YleAvaa kuvien katseluBileet jatkuivat yön pikkutunneille. Kuva: Nelli Kenttä / YleAvaa kuvien katseluMinna Viitalähteen suunnittelema UMK-palkinto siirtyi illan päätteeksi Teemu Keisterin ja Henri Piispasen farkkuiseen huomaan. Kuva: Miikka Varila / Yle</t>
         </is>
       </c>
     </row>
@@ -1381,26 +1861,41 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Valtava määrä musiikkia katosi Tiktokista – Mikael Gabriel: ”Koko katalogini 17 vuoden ajalta on hävinnyt”</t>
+          <t>UMK-show tavoitti Yle TV1:ssä lähes 1,9 miljoonaa katsojaa</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072531</t>
+          <t>https://yle.fi/a/74-20073992</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Yksi maailman suurimmista levy-yhtiöstä, Universal Music lopetti yhteistyönsä Tiktokin kanssa eilen keskiviikkona. Siksi Universalin artistien musiikki katosi sosiaalisen median palvelusta torstaina.Mikael Gabriel on yksi levy-yhtiön suomalaisartisteista.– Tänä aamuna huomasin, että koko mun katalogi viimeisen 17 vuoden ajalta on hävinnyt Tiktokista, ja niin myös kaikkien muiden Universalin artistien biisit.Hän kuvaa Ylelle tunnelmiaan näin:– Aika negatiiviset fiilikset.Universal Music kertoi päätöksestään artisteille ja musiikin tekijöille nettisivuillaan julkaisemassaan avoimessa kirjeessä.Levy-yhtiö ei ole tyytyväinen Tiktokilta saamiensa korvausten suuruuteen.Universal Musicin mielestä Tiktokin korvaus musiikin käytöstä ei ole samalla tasolla kuin mitä muut sosiaalisen median palvelut sille tilittävät.Kiinalaisen ByteDance-yhtiön omistaman Tiktokin mukaan Universalin väitteet ovat vääriä.Mikael Gabriel: ”Artistit sivutulen alla”Muusikkojen liiton puheenjohtaja Ahti Vänttiselle Universalin ilmoitus vetää miljoonia kappaleita pois Tiktokista ei tullut yllätyksenä.– Näista asioista on aika paljon puhuttu ja tämä on Universalin reaktio tilanteeseen.– Levy-yhtiöllä on oikeus totta kai toimia noin. Universalin osalta kyse on ensisijaisesti rahasta, Vänttinen toteaa.Mikael Gabrielin mielestä artistit ovat jääneet sivustaseuraajiksi, kun kukaan ei ole neuvotellut päätöksestä heidän kanssaan.– Tuntuu, että tässä on tilanne, jossa kaksi isoa tahoa on vastakkain, ja me artistit ja työntekijät joudumme sivutulen alle. Nyt on kyse aivan jostain muusta kuin että artisteille ei makseta tarpeeksi.Avaa kuvien katseluUniversalin sopimus sosiaalisen median palvelu Tiktokin kanssa päättyi tammikuun viimeinen päivä. Kuva: Getty ImagesTiktokilla valtava promootioarvoHollantilais-amerikkalaisella Universalilla on ollut Tiktokissa miljoonia musiikkikappaleita.– Taiteilijoiden kannalta suurin vaikutus ei ole taloudellinen, vaan välillinen ja liittyy promootioarvoon, joka Tiktok-alustalla on, Ahti Vänttinen sanoo.Samaa sanoo Mikael Gabriel.– Tiktok on meille artisteille isoin alusta promota musiikkia. Sen arvoa on vaikea mitata rahassa.Muusikkojen liitossa on vajaa 4 000 jäsentä. Liiton puheenjohtaja Ahti Vänttisen mukaan muusikot eivät ole olleet häneen vielä asiasta yhteydessä.– Onhan se ikävää, jos musiikki ei näy jatkossa Tiktokissa. Joissain mielessä ymmärrän, että jos sopimukseen ei päästä, tuollainen tulos siitä voi tulla.Vaihtavatko artistit levy-yhtiötä?Mikael Gabrielin mukaan artistit saattavat harkita Universal Musicin päätöksen takia levy-yhtiön vaihtamista.– Jos homma jatkuu pitkään näin, ei artisti halua Universalille tulla, koska heillä ei ole tarjota artistille Tiktok-alustaa. He tekevät diilejä Sonyn ja Warnerin kanssa tai independenttinä [itsenäisinä], jotta pääsevät Tiktokiin.Päätöksellä on myös muita seurauksia. Se voi jatkossa vaikuttaa myös artistin ja yhteistyökumppaneiden välisiin sopimuksiin.– Varmasti vaikuttaa siihen, että haluaako yhteistyökumppanit tehdä musiikkia artistin kanssa, jonka musiikkia ei löydy isommalta platformilta.Avaa kuvien katseluUuden musiikin kilpailun osallistujat ytheiskuvassa. Vasemmalla Mikael Gabriel ja Nublu. Kuva: Yle / Miikka VarilaUMK:n kannalta huono ajoitusMikael Gabrielin mukaan levy-yhtiön päätös tuli erittäin huonoon aikaan.Hän osallistuu parhaillaan Uuden musiikin kilpailuun yhdessä virolaisartisti Nublun kanssa.Universalin poistuminen Tiktokista tarkoittaa, ettei heidän kilpailukappale Vox Populista tehtyjä videoita nähdä siellä.– Ajankohta on todella ikävä, koska tässä on UMK isosti käynnissä. Vox Populiin tehdään videoita, ja siinä on hyvä ilmiöitys menossa. Kun video vedetään isoimmalta alustalta alas, se on aika iso etulyöntiasema muille kilpailijoille.Mikael Gabrielin kritiikki ei kohdistu oman levy-yhtiön toimintaan Suomessa.– Kaikki info tulee Amerikasta, eikä Suomen Universal voi siihen vaikuttaa. Se on pelkästään sen tiedon varassa, joka tulee pääkonttorilta.Mikael Gabriel toivoo, että levy-yhtiö ja Tiktok pääsisivät asiassa pikaisesti sopuun.– Tämähän on neuvottelukysymys ja varmasti aika pienistä nyansseista kiinni.</t>
+          <t>2024-02-11T10:32:52+02:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420073992</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Uuden Musiikin Kilpailu keräsi jälleen suuren yleisön kotisohville. Illan aikana chatissa vieraili yli 200 000 eri käyttäjää.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>UMK-lähetystä seurasi esityspäivänä Yle TV1:llä Finnpanelin mukaan keskimäärin 1 244 000 miljoonaa katsojaa. Lähetys tavoitti lauantai-iltana televisiossa lähes 1,9 miljoonaa suomalaista. Yle Areenassa finaalilähetystä on tähän mennessä eli lauantaiaamuun mennessä käynnistetty 0,8 miljoonaa kertaa.UMK-lähetys kuultiin myös Yle Radio Suomessa, YleX:llä ja Yle X3M:ssä. Tänä vuonna lähetystä pystyi katsomaan Yle TV1:ssä ja Yle Areenasta selostettuna suomeksi, ruotsiksi, englanniksi, venäjäksi, pohjoissaameksi ja inarinsaameksi, ukrainaksi, sekä myös suomalaisella ja suomenruotsalaisella viittomakielellä.Ylen lähetysten lisäksi UMK näytettiin nyt ensimmäistä kertaa Viron TV3:lla sekä jälleen espanjalaisella TenTV- ja hollantilaisella OUTtv-kanavilla.Ääniä annettiin lähes 225 000UMK-chattiin pystyi osallistumaan Yle Areenassa, Yle-sovelluksessa ja Ylen verkkosivuilla. Illan aikana chatissa vieraili 211 716 eri käyttäjää.Yleisön oli myös mahdollista äänestää omaa suosikkiaan tekstiviestillä, soittamalla tai Yle-sovelluksessa. Ääniä annettiin tänä vuonna yhteensä 224 477 kappaletta. Voittajan saama äänimäärä erottui selkeästi muista.UMK järjestettiin tänä vuonna ensimmäistä kertaa Tampereella, ja finaali herätti valtavasti huomiota ja innostusta jo etukäteen. Finaaliliput menivät kaupaksi ennätysvauhtia syksyllä, jolloin ne myytiin loppuun muutamassa minuutissa.Israelin osallistuminen puhututtaaUMK-voittaja Windows95man eli Teemu Keisteri ilmoitti eilen toivovansa, ettei Israel osallistu viisuihin.– Tämä on paha tilanne. Tässä on vielä kevääseen asti aikaa. Toivotaan, että EBU tekisi oikeat ratkaisut, Keisteri totesi.Gazan sodan alettua ihmiset eri puolilla Eurooppaa ovat vaatineet, että viisuja järjestävä Euroopan yleisradiounioni EBU sulkisi Israelin pois kisasta.Ylen viestinnän ja brändin johtajan Jere Nurmisen mukaan tilannetta ei ole vielä käsitelty Keisterin ja laulaja Henri Piispasen kanssa.– Keskustelemme asiasta yhdessä artistien kanssa ja teemme johtopäätöksen sen jälkeen.Nurminen tähdentää, ettei Ylen Israel-kanta ole muuttunut mihinkään suuntaan.– Olemme kommunikoineet tilanteesta EBU:n ja myös muiden Pohjoismaiden kanssa, jotka ovat viisuäänestyksen suhteen suurin piirtein samassa tilanteessa Suomen kanssa.Ylen luovien sisältöjen ja median johtaja Ville Vilén totesi tammikuussa, että Suomen poisjääminen kilpailusta olisi mahdollista, jos konflikti Gazassa pahenee.– Luulen, että siinä vaiheessa EBU keskustelisi Israelin kanssa, että olisiko sen parempi jättää osallistumatta, tai sulkisi sotaa käyvän valtion kokonaan pois kilpailusta, Vilén sanoi.</t>
         </is>
       </c>
     </row>
@@ -1409,26 +1904,42 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Miksi nyt oikein lakkoillaan? Lue tästä, miten Suomi muuttuu ja miksi se ei käy kaikille</t>
+          <t>Stubb vai Haavisto? Nämä jutut lukemalla löydät eroja ehdokkaiden välillä, mikäli äänes­tys­päätös vielä pohdituttaa</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072498</t>
+          <t>https://yle.fi/a/74-20073182</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Miksi työntekijät muun muassa päiväkodeissa, ruokakaupoissa, teollisuudessa ja kuljetusalalla ovat nyt lakossa?Työntekijöitä edustavat ammattiliitot ovat päättäneet poliittisista lakoista ja ulosmarsseista, koska ne vastustavat hallituksen työelämää koskevia muutoksia ja leikkauksia sosiaaliturvaan.Liitot toivovat hallituksen neuvottelevan muutoksista työntekijöitä ja työnantajia edustavien tahojen kanssa. Kaikki ammattiliitot eivät vastusta kaikkia suunniteltuja muutoksia.Lakko-oikeus ja irtisanominenHallitus haluaa rajoittaa juuri nyt käsillä olevia poliittisia lakkoja ja tukilakkoja. Poliittinen lakko voisi kestää korkeintaan yhden vuorokauden. Tukilakon pitäisi olla ”kohtuullinen suhteessa tavoitteisiin” ja se voisi kohdistua vain työriidan osapuoliin.Laittomaan lakkoon osallistumisesta voisi jatkossa tulla työntekijälle 200 euron sakko. Liiton lakkosakon ylärajaa nostettaisiin 150 000 euroon.Työntekijän irtisanomista, määräaikaisten työsopimusten käyttöä ja paikallista sopimista eli työehdoista sopimista esimerkiksi yritys- tai toimipistekohtaisesti halutaan helpottaa.Sairausajan palkkaLainsäädäntöä halutaan muuttaa niin, että sairausloman ensimmäiseltä päivältä ei tarvitsisi maksaa palkkaa.TyöttömyysturvaTyöttömyysturvaan ja muuhun sosiaaliturvaan on suunnitteilla useita muutoksia, jotka ovat ammattiliittojen mukaan rajuja ja kohdistuvat jo ennestään pienituloisiin. Osan arvioidaan kannustavan osa-aikatöitä tekeviä siirtyvän kokonaan työttömäksi.Osa hallituksen työttömyysturvaan suunnittelemista muutoksista on jo tullut voimaan, kuten työttömyysturvan omavastuuajan pidennys ja lomakorvausten jaksotus. Nämä muutokset pidentävät aikaa, jolta työttömäksi jäänyt ei saa työttömyyskorvausta.Lisäksi työttömyysturvasta poistetaan lapsikorotus ja niin sanottu 300 euron suojaosa, mikä tarkoittaa summaa, jonka on voinut ansaita ilman, että työttömyyskorvaus pienenee.Työttömyysturvaa kutistetaan myös pidentämällä työssäoloehtoa ja muuttamalla sen laskentatapa tuloperusteiseksi. Ansiosidonnaista työttömyysturvaa porrastetaan niin, korvaussumma laskee, kun työttömyyttä on kestänyt pidempään.Katso Ylen laskurista, miten ansiosidonnainen työttömyysturva muuttuu eri tulotasoillaLisäksi hallitus aikoo lakkauttaa vuorotteluvapaan ja aikuiskoulutustuen.Useita Kelan maksamia etuuksia, kuten työmarkkinatukea, ansiosidonnaista työttömyysturvaa, vanhempainpäivärahaa, opintorahaa ja osaa asumistuista on päätetty jättää nostamatta vuoteen 2027 saakka.Kun etuuksia ei koroteta, niiden ostovoima laskee inflaation eli yleisen hintojen nousun takia.AsumistukiAsumistukea pienennetään muun muassa korottamalla omavastuuta, alentamalla korvaustasoa sekä poistamalla 300 euron ansiotulovähennys.Lisäksi helsinkiläisten asumistukea heikennetään laskemalla asumiskustannusten enimmäismäärää muun pääkaupunkiseudun tasolle. Omistusasujat menettävät asumistuen kokonaan.Ammattiliittojen mukaan asumistuen leikkaukset lisäävät köyhyyttä ja iskevät erityisesti pienipalkkaisiin työntekijöihin.Laskuri näyttää, paljonko asumistuki putoaa – opiskelijalle ja asunnonomistajalle tulos on karuPalkatHallitus valmistelee niin sanottua vientimallia, joka sitoisi lainsäädännöllä muiden kuin vientialojen palkankorotukset enintään vientialojen korotusten tasolle.Käytännössä mallissa esimerkiksi hoitajien palkankorotukset eivät voisi ylittää vientialoilla työskentelevien työntekijöiden palkankorotuksia. Liittojen mukaan tämä voisi jättää osan aloista palkkakuoppaan.Mikä ihmeen poliittinen lakko ja miksi se saa toiset näkemään punaista?Yle Uutispodcast: Mikä ihmeen poliittinen lakko ja miksi se saa toiset näkemään punaista?Kolmiottelussa lakkokenraalit ja Helle: Kenen kanta voittaa?Politiikkaradio: Ay-liike aloittaa laajat lakot, jotta hallitus perääntyisi aikeistaan. Ovatko uhattuina naisten palkankorotukset vai Suomen talous? Kuka taipuu? Mitä pitäisi ajatella työmarkkinapomojen ristiriitaisista tavoitteista? Studiossa Tehyn puheenjohtaja Millariikka Rytkönen ja AKT:n Ismo Kokko, joista ensimmäinen sulkee päiväkoteja ja toinen satamia. Työnantajia edustaa Teknologiateollisuuden varatoimitusjohtaja Minna Helle. Toimittajana on Antti Pilke. Voit keskustella aiheesta 2.2. klo 23 saakka.</t>
+          <t>2024-02-11T07:46:36+02:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420073182</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Sekä Alexander Stubb että Pekka Haavisto ovat kokeneita ulkopolitiikan tekijöitä. Tässä parhaat juttumme, jotka auttavat valottamaan eroja heidän näkemyksistään ja taustoistaan.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Suomi valitsee seuraavaksi tasavallan presidentiksi tänään sunnuntaina kokoomuksen Alexander Stubbin tai valitsijayhdistyksen ja vihreiden tukeman Pekka Haaviston. Äänestäminen on mahdollista vielä iltakahdeksaan saakka.Kokosimme yhteen vaalien alla julkaisemiamme artikkeleita, joiden avulla voit tutustua ehdokkaisiin ja presidentin tehtäviin sekä miettiä äänestyspäätöstäsi.Voit tutustua ehdokkaisiin myös Ylen vaalikoneessa.Vaalikonevastaukset paljastavat ehdokkaiden erojaAvaa kuvien katselu Kuva: Kuva: Silja Viitala, kuvamuokkaus: Asmo Raimoaho / YleKävimme läpi ehdokkaiden perustiedot ja vertailimme heidän vaalikonevastauksiaan. Eriäviä näkemyksiä löytyi muun muassa asevelvollisuudesta, presidentin armahdusoikeudesta sekä ydinaseiden ja Nato-joukkojen mahdollisesta tuomisesta Suomeen.Lue lisää: Tässä ovat kahden jäljellä olevan ehdokkaan keskeisimmät viisi eroaMenneisyys paljastuu ja Venäjä saa täyslaidallisen ehdokkaiden ystäväkirjassaAvaa kuvien katseluYstäväkirja kertoo, minkälaisia ovat Nato-jäsenyyden ulkoministeri Pekka Haavisto ja ulkopolitiikan nörtti Alexander Stubb. Kuva: Eeva Sarlin / YleTeimme presidenttiehdokkaista ystäväkirjan myös vaalien toiselle kierrokselle. Katso ehdokkaiden suosikkikaupungit ja lempiruoat ulkomailla sekä tietysti mielipiteet ja saavutukset ulkopolitiikassa.Lue lisää: Avaa harvinainen ystäväkirja: Stubb ja Haavisto paljastavat lempiruokansa ja hirveimmät kokemukset ulkomailtaAukeavatko maailman päättäjien ovet ehdokkaille?Avaa kuvien katseluPekka Haavisto ja Alexander Stubb ovat kehuneet kampanjan aikana suhteillaan maailman päättäjiin. Kuva: kuva: Miia Anttila / Yle, valokuvat: Silja Viitala / Yle, EPA / AOP, European Union, YleSekä Pekka Haavisto että Alexander Stubb ovat vaalikampanjan aikana korostaneet suhteitaan huippupoliitikkoihin, tunnettuja nimiä sopiviin väleihin tiputellen. Ylen kirjeenvaihtajat arvioivat Haaviston ja Stubbin suhteita asemamaidensa hallinnon avainhenkilöihin ja korkeisiin päättäjiin.Lue lisää: Katso kirjeenvaihtajien arvio Haaviston ja Stubbin suhteista maailman kärkipoliitikkoihinTunnistavatko maailman kaupunkien asukkaat Stubbin ja Haaviston? Katso, miten käviKirjeenvaihtajamme jalkautuivat myös maailman suurkaupunkien keskeisille paikoille, näyttivät Stubbin ja Haaviston kuvia tavallisille ihmisille ja kysyivät, tunnistavatko he heidät. Katso leikkimielisen visan tulos:Lue lisää: Kaksi lähes tuntematontaNäitä asioita et todennäköisesti tiennyt presidentistäAvaa kuvien katseluTasavallan presidentillä on kummallisiakin oikeuksia ja tehtäviä. Kuva: Silja ViitalaVideoilla Ylen toimittajat Elli Piirainen ja Jimi Holmberg kertovat yksityiskohtia – kummallisiakin sellaisia – presidentin tehtävistä. Miksi presidentti voi armahtaa rikollisia? Kuinka paljon presidentti tienaa? Voiko presidentti saada potkut? Muun muassa näihin kysymyksiin saat vastauksen.Lue lisää: Mitä se edes tekee, häh? Tämä juttu näyttää hyvin selvästi, miksi meillä on presidenttiTältä näyttivät ensimmäisen kierroksen hylätyt äänetAvaa kuvien katselu Kuva: Silja Viitala / YleÄänestyslipukkeeseen pitäisi kirjoittaa vain oman ehdokkaansa numero eikä mitään muuta. Helsingin vaalipiirissä hylättiin presidentinvaalien ensimmäisellä kierroksella 1 233 ääntä. Valokuvasimme niistä osan.Lue lisää: Pienikin virhe kostautui – näin tarkkaa on numeron piirtäminen ympyräänNäin Suomi äänesti vaalin ensimmäisellä kierroksella
+Keiltä Stubb ja Haavisto saivat eniten ääniä? Ketkä joutuivat etsimään itselleen uuden ehdokkaan? Nämä grafiikat näyttävät, millaisista asetelmista presidentinvaalin toiselle kierrokselle lähdetään.Lue lisää: Näin Suomi äänesti – tämä juttu paljastaa yksityiskohdat</t>
         </is>
       </c>
     </row>
@@ -1437,26 +1948,41 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Entistä poliisia epäillään vakavista rikoksista Helsingissä – polii­si­päällikkö: ”Tieto järkyttänyt myös minua”</t>
+          <t>Suomi valitsee tänään tasavallan 13. presidentin – näin seuraat vaalipäivää</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072563</t>
+          <t>https://yle.fi/a/74-20073970</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Helsingin poliisilaitoksesta irtisanoutunutta poliisia epäillään vakavista rikoksista.Iltalehden mukaan poliisia epäillään lukuisista seksuaalirikoksista, muun muassa törkeästä lapsen seksuaalisesta hyväksikäytöstä. Lehden tietojen mukaan uhreja on kuusi.Poliisin torstaina lähettämän tiedotteen mukaan epäilty henkilö irtisanoutui Helsingin poliisilaitokselta ennen virkamiesoikeudellisen menettelyn alkamista.Syyttäjä johtaa poliisien tekemiksi epäiltyjen rikosten esitutkintaa ja vastaa myös tiedottamisesta.Helsingin poliisilaitos ei vahvista epäillyn nimeä tai tarkempia tietoja käynnissä olevan esitutkinnan takia.– Tieto nyt epäiltyjen rikosten vakavuudesta on järkyttänyt myös minua ja laitoksen henkilöstöä. Toivottavasti esitutkinta tuo vastauksen moniin mielessä oleviin kysymyksiin, sanoo Helsingin poliisilaitoksen poliisipäällikkö Lasse Aapio tiedotteessa.Aapion mukaan kaikki poliiseihin kohdistuvat rikosepäilyt ja muut epäselvyydet on ilmoitettu vuosien ajan valtakunnansyyttäjän toimiston poliisirikosyksikköön.</t>
+          <t>2024-02-11T06:00:36+02:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420073970</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Verkossa vaalipäivää seurataan aamusta saakka, illalla Ylen vaalistudio aloittaa jännittävän presidentinvaalin seurannan kello 19.30.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Ylen vaalistudiolla tehdään viimeisiä virityksiä ennen h-hetkeä.– Nyt käydään läpi teknisiä asioita. Tämä on teknisesti monimutkainen show. On erilaisia grafiikan ulosajamisia, puomikameroiden liikuttelua ja lisätyn todellisuuden asemointia kuviin, selittää tuloslähetyksen isäntä, toimittaja Matti Rönkä harjoitusten aiheita.Kummasta tulee Suomen tasavallan 13. presidentti, Pekka Haavistosta vai Alexander Stubbista? Yle seuraa presidentinvaalien ratkaisupäivää aamusta alkaen.Yle.fi-osoitteessa avautuu sunnuntaiaamuna live-seuranta, johon päivitetään päivällä tunnelmia äänestyspaikoilta ympäri Suomea ja illalla seurataan vaalilähetystä. Vaalihuoneistot avautuvat kello yhdeksältä ja äänestää voi kello 20:een asti. Ylen vaalikoneen löydät täältä.Tunnelma tiivistyy päivän käännyttyä illaksi. Ylen vaalistudio aloittaa lähetyksensä kello 19.30 TV1:ssä ja Areenassa. Areenan kautta lähetystä voi seurata myös viitottuna. Samaan aikaan alkaa myös Radio Suomen oma vaalilähetys. Ruotsinkielinen vaalistudio aloittaa Areenassa ja Yle Fem -kanavalla kello 19.50.Näin seuraat Ylen presidentinvaalisisältöjäVerkossa vaalipäivää ja tulosiltaa seurataan aamusta asti.Osallistu vaalikeskusteluun. Vaalichat aukeaa kello 19 osoitteessa Yle.fi.TV1:ssä ja Areenassa vaalistudio kello 19.30 alkaen.Yle Radio Suomen vaali-ilta kello 19.30 alkaen.Ruotsinkielinen lähetys Yle Fem -kanavalla kello 19.50 alkaen.Lähetyksiä voi seurata Yle Areenassa ympäri maailman.Teksti-tv:n tulospalvelu sivulla 810.Näiden presidentinvaalien erikoisuus on vaalichat eli keskustelualusta, jossa voi esittää kysymyksiä presidentinvaaleista. Niihin ovat vastaamassa politiikantutkija Johanna Vuorelma, ulkopolitiikan tuntija Matti Pesu sekä Ylen politiikan toimittaja Ari Hakahuhta. Vaalichat aukeaa kello 19 ja mukaan pääsee Yle.fi-osoitteen kautta tai skannaamalla tuloslähetyksessä näkyvä qr-koodi.Kokemukset ensimmäisen kierroksen vuorovaikutteisuudesta olivat rohkaisevia, sanoo chat-keskustelua vetävä toimittaja Piia Pasanen.– Sinne tuli tosi paljon viestejä. Kaikesta päätellen se kiinnosti ihmisiä. Saimme hyviä huomioita, kommentteja ja kysymyksiä ja niiden avulla ehkä syvennettyä studiokeskustelua.Avaa kuvien katseluPiia Pasanen emännöi vaalichat-pöytää. Mikrofonia asentaa äänitarkkailija Jouko Ryhänen. Kuva: Mårten Lampén / YleVaali-illan ensimmäinen erityisen jännittävä hetki koetaan kello 20, jolloin ennakkoäänten tulos julkistetaan.Vaalien toisella kierroksella annettiin lähes kaksi miljoonaa ennakkoääntä eli äänestämässä kävi lähes 46 prosenttia Suomessa asuvista äänioikeutetuista. Se on kaksi prosenttiyksikköä enemmän kuin vaalien ensimmäisellä kierroksella. Jos ero ehdokkaiden välillä on suuri, se kertoo jo paljon lopputuloksesta. Jos taas ennakkoääniä on annettu tasaisesti molemmille, vasta vaalipäivän ääntenlasku selvittää kisan voittajan.– Kuulemme heti ehdokkaiden reaktiot ennakkoäänten tulokseen, jonka jälkeen kiteytämme ensi havainnot politiikan tutkija Sami Borgin ja politiikan toimituksen päällikön Paula Pokkisen kanssa. Olemme varautuneet molempiin skenaarioihin, Matti Rönkä sanoo.Ääntenlaskua voi seurata reaaliaikaisesti Ylen tulospalvelussa.Ylen vaalilähetyksissä vieraillaan myös molempien presidenttiehdokkaiden Alexander Stubbin ja Pekka Haaviston omissa vaalivalvojaisissa. Keskeinen tapahtumapaikka on myös Helsingin kaupungintalo, jonne ehdokkaat saapuvat seuraamaan ääntenlaskennan edistymistä, todennäköisesti pian ennakkoäänten tulosjulkistuksen jälkeen.Luvassa on jännittävä ja suhteellisen harvinainen vaalipäivä: edellisestä presidentinvaalien toisesta kierroksesta on ehtinyt vierähtää jo 12 vuotta. Se tuo perhosia vatsaan myös kokeneelle vaalilähetysten veteraanille.– Vaikka eri vaaleja onkin vaikea verrata keskenään, ei toimittajalle voi olla suurempaa juhlaa kuin presidentinvaalit, Matti Rönkä sanoo.</t>
         </is>
       </c>
     </row>
@@ -1465,26 +1991,43 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Jokilaiva upposi yllättäen Turussa Aurajoen pohjamutiin – pelastustyötä tehdään yötä myöten sataman isolla kalustolla</t>
+          <t>Asiantuntijat listaavat syyt hyvin korkealle äänes­tys­pro­sentille</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072532</t>
+          <t>https://yle.fi/a/74-20073573</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Turun vanhin ravintolalaiva Esposito on uponnut osittain Aurajokeen. Varsinais-Suomen pelastuslaitos sai hälytyksen laivan uppoamisesta torstaina iltapäivällä.Laivan pelastustyöt aloitettiin noin kello 17:n aikaan.Avaa kuvien katseluEsposito on vajonnut huomattavasti Aurajoen rantapenkerettä alemmas. Kuva: Heidi Akselin / Yle– Yritämme saada vettä pois, että laiva olisi vähemmän kallistunut ja se saataisiin tyhjennettyä, kertoi laivan omistaja, yrittäjä Mika Salonen illalla.Vielä kello 20 torstai-iltana ei ollut tiedossa, miten pitkään pelastustyöt jatkuvat tai mitä laivalle ylipäätään nyt tapahtuu.– Meillä on täällä nyt sataman kalustoa eli iso pumppu, joka pumppaa vettä, Salonen kertoi.Koska ruuma oli yhä täynnä vettä, ei uppoamisen syystä voitu tehdä vielä mitään arviota.Laiva eristettiin heti iltapäivälläLaiva sijaitsee Aurajoessa Läntisellä Rantakadulla ja on paikoillaan vuoden ympäri. Pelastuslaitos eristi alueen uponneen laivan ympäristöstä.– Pelastuslaitos ei voi tehdä enempää kuin nyt eristää alueen. Jokilaiva on Aurajoen pohjassa, osittain uponneena, kertoo päivystävä palomestari Petteri Broström.Broströmin mukaan Aurajoessa on niin vähän vettä, että siksi laiva on uponnut vain osittain. Pelastuslaitos sai laivan omistajan kiinni kello 16 maissa iltapäivällä.– Omistaja hoitaa laivan jatkon. Jokilaivassa ei ole polttoainetta, joten ympäristövahingon riskiä ei tapauksessa ole, päivystävä palomestari kertoo.Avaa kuvien katseluLaivan uppoamisen syistä ei vielä torstai-iltana tiedetty, koska ruuma oli täynnä vettä. Kuva: Heidi Akselin / YleJuttua on täydennetty kello 20.25 laivan omistajan kommenteilla ja täsmennetty, että kyseessä on Turun vanhin ravintolalaiva.</t>
+          <t>2024-02-11T07:30:36+02:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420073573</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Asiantuntijat uskovat, että äänestäjät lähtevät vilkkaasti liikkeelle. Maunulan majan kahvilassa on leivottu tuplamäärä pullaa vaalikahvittelijoille.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Maunulan majalla pullat ja munkit odottavat vitriinissä äänestäjiä. Niitä on leivottu aamuneljästä lähtien.– Tuplamäärä menee pullaa verrattuna tavalliseen sunnuntaihin. Vaalipäivä on supersunnuntai, sanoo yrittäjä Jenni Seppälä-Sahravuo.Helsingin Keskuspuistossa sijaitsevasta, ulkoilijoiden suosimasta vanhasta metsästysmajasta on vuosien varrella muotoutunut monille perinteinen vaalikahvittelupaikka.Äänestyspaikat avautuvat tänään sunnuntaina aamuyhdeksältä, ja äänestys jatkuu kello kahdeksaan illalla.Jos äänestysaktiivisuus nousee toisella kierroksella yhtä vilkkaaksi kuin ensimmäisellä kierroksella eli 75 prosenttiin, vaalikahville saapuu taatusti runsaasti väkeä.Vaalien jännitys tiivistyyHelsingin yliopiston politiikan tutkija Johanna Vuorelma uskoo, että samaan lukemaan voidaan päästä myös toisella kierroksella.– Se lisää vaalien jännittävyyttä, kun istuva presidentti ei ole ehdolla. Myös kilpailuasetelma on sen verran tasainen, että se voi motivoida ihmisiä äänestämään.Oikeusministeriön vaalijohtaja Arto Jääskeläinen on samaa mieltä.– Kyllä ennusmerkit ovat varsin hyvät sille, että vaalipäivänä lähtee äänestämään suurin piirtein sama määrä kuin ensimmäisessä vaalissa. Pienet mahdollisuudet on siihenkin, että äänestysaktiivisuus voisi olla jopa hieman sitä korkeampi, mutta se jää nähtäväksi.Jääskeläisen mukaan presidentinvaalin ensimmäisen kierroksen ennakkoäänestyksessä annettiin hieman yli 1,9 miljoonaa ääntä, ja toisella kierroksella reilut 2 miljoonaa ääntä.– Ennakkoäänten lisäys saattaa johtua siitä, että nyt tuli mukaan myös sellaisia äänestäjiä, jotka eivät ensimmäisessä vaalissa äänestäneet. On mahdollista, että toisessa vaalissa saadaan lopulta sama tai jopa korkeampi äänestysprosentti kuin ensimmäisessä vaalissa, Jääskeläinen pohtii.Avaa kuvien katseluKristallipullat voidellaan ennen paistamista. Kuva: Esa Syväkuru / YleÄänestysprosentti korkeampi kuin vuosikymmeniinPresidentinvaalin 2024 ensimmäisellä kierroksella annettiin 3 209 916 ääntä.Suomessa asuvien Suomen kansalaisten äänestysprosentti oli 75 eli 5,1 prosenttiyksikköä vuoden 2018 vaaleja suurempi.
+Äänestysprosentti oli ensimmäisten vaalien korkein vuoden 2000 jälkeen.Tämä oli odotettavissa nykyisessä maailmanpoliittisessa tilanteessa. Suomen turvallisuus, Nato-jäsenyys ja konfliktit maailmalla ovat saaneet suomalaiset kiinnostumaan vaaleista asiantuntijoiden mukaan.Naiset äänestivät jälleen miehiä aktiivisemmin, Suomessa asuvien naisten äänestysprosentti oli 77,3 ja miesten 72,5.
+1980-luvulla oli mahdollisuus ”mustille hevosille”Vuonna 1994 äänestysprosentti oli jopa yli 82 presidentinvaalin molemmilla kierroksilla. Jääskeläinen ei usko, että tähän tasoon enää päästään.– Siinä vaalissa oli merkittävää, että se oli ensimmäinen suora kansanvaali. Silloin äänestäjillä oli ensimmäistä kertaa täydet valtuudet ja mahdollisuudet ratkaista, kenestä tulee valtionpäämies.Vielä 1980-luvulla presidentti valittiin valitsijamiesvaalin kautta. Puolueet asettivat ehdokkaansa valitsijamiehiksi, joita oli noin 300. Kansalaiset valitsivat valitsijamiehet, ja valitsijamiehet äänestivät presidentin.– Lainsäädäntö ei lainkaan rajoittanut, ketä ehdokasta nämä valitut valitsijamiehet lopullisessa vaalissa äänestävät. Toki käytännössä he lähes aina äänestivät sitä ehdokasta, jonka puolesta he olivat kampanjoineet, mutta mahdollisuus oli myös niin sanotuille mustille hevosille, Jääskeläinen kertoo.Hänen mielestään tällaista menettelyä ei nykyään voisi pitää asianmukaisena tapana valtionpäämiehen valintaan.Avaa kuvien katseluMaunulan majan munkkirinkilät syntyvät näppärästi Seija Paakkola-Kuusisen hyppysissä. Kuva: Esa Syväkuru / YleAvaa kuvien katseluLaskiaispullissa on runsaat täytteet. Kuva: Esa Syväkuru / YleVaalihäirinnältä ei vältyttyTämän vuoden vaaleissa ehdokkaiden vaalikampanjointi on saanut myös negatiivista huomiota vaalihäirinnän muodossa. Esimerkiksi Jussi Halla-ahon (ps.) ja vielä toisella kierroksella mukana olevan Pekka Haaviston (vihr.) vaalijulisteita manipulointiin epätosilla väittämillä, jotka kääntyivät ehdokkaita vastaan.– Nämä olivat ikään kuin kahden ääripään mainokset, joista tehtiin samantyyppiset antivaalimainokset. Takana saattoi olla joku ryhmittymä, joka ei liittynyt kamppaileviin ehdokkaisiin, vaan se oli ehkä enemmänkin yleispoliittinen kannanotto.Jääskeläinen ei kuitenkaan usko, että vaalihäirintä on vaikuttanut kyseisten ehdokkaiden kannatukseen, sillä suomalaiset äänestäjät ovat hänen mukaansa valveutuneita ja medialukutaitoisia.Ainakin Maunulan majan asiakkaat ovat seuranneet vaalitenttejä tarkalla silmällä. Videolla Monica Sourander, Kai Joronen ja Jarmo Seppälä kertovat, mitä vaaleista on jäänyt mieleen.Monica Souranderin mukaan Ella-kissa on kehrännyt, kun joku presidenttiehdokkaista on puhunut erityisen hyvin vaalitenteissä.</t>
         </is>
       </c>
     </row>
@@ -1493,26 +2036,41 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Pinkki lumi säikäytti juvalaisen talon koiran: ”Kulkee edelleen vain puhdistettua polkua pitkin”, sanoo isäntä</t>
+          <t>Rehtorin syyte jäänee mysteeriksi Haapajärvellä, maanantaina koulu­yh­teisössä palataan normaaliin arkeen</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072528</t>
+          <t>https://yle.fi/a/74-20074036</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Artur Särkisen vaimo huomasi heidän kotipihansa värjäytyneen pinkiksi iltapäivällä tammikuun 9. päivä. Särkinen itse palasi töistä kotiin vasta iltakahdeksan jälkeen. Hän soitti pian hätäkeskukseen.Särkinen keräsi ainetta pulloon ja epäili sitä hajun perusteella lentokerosiiniksi.Enempää hän ei suostu arvailemaan.– Spekulaatioita toki on monia, mutta niihin en lähde. Faktat ovat faktoja, Särkinen sanoo.Etelä-Savon pelastuslaitoksen teettämän analyysin perusteella aine on kaliumpermanganaattia. Se on ihmiselle ja ympäristölle vaarallinen aine, joka voi vaikeuttaa hengitystä ja aiheuttaa nieltynä pahoinvointia, oksentelua ja ripulia.Pelastuslaitoksen tiedotteen mukaan näyte sisälsi myös muita yhdisteitä, joita alustavassa analyysissa ei tunnistettu.Koira vierastaa kemikaalin tahrimaa aluetta edelleenPelastuslaitos keräsi värjäytyneen lumen Särkisen ja hänen kahden naapurinsa pihalta vielä samana iltana.Särkisen mukaan ainetta kuitenkin jäi pihalle pieniä määriä. Muutaman päivän kuluttua voimakkaan pinkki väri oli muuttunut ruskeaksi.Talon koira vierasti outoa kemikaalia.– Varmasti hajuaisti kertoi, että siellä on jotain sopimatonta.Sittemmin tahriutuneen alueen päälle on satanut uutta lunta, mutta koira ei suostu vieläkään menemään puskien juurelle.– Hän haluaa mennä vain puhdistettua polkua pitkin, Särkinen kertoo.Kaliumpermanganaatti peitti noin kolmasosan Särkisen pihasta. Hän on kiinnostunut näkemään, miten aineen jäämät vaikuttavat pihan kasveihin, kun kevät tulee.Juomavedestä Särkinen ei ole huolissaan, sillä talo on kunnan vesi- ja viemäriverkostossa. Alueella ei tiettävästi ole kaivoja.Avaa kuvien katseluKaliumpermanganaatin vesiliuokset ovat purppuransävyisiä, kertoo Pelastuslaitos tiedotteessaan.  Kuva: Asko Valtonen / Etelä-Savon pelastuslaitosPoliisi lähettää näytteen rikostekniseen laboratorioonSe, miten kaliumpermanganaatti päätyi Särkisen ja naapureiden pihoille, on edelleen täysi mysteeri. Asiaa selvittää nyt Itä-Suomen poliisi.Rikoskomisario Markku Kärpäsen mukaan asiaa tutkitaan rikosnimikkeellä ympäristön turmeleminen.Tapauksessa ei ole tällä hetkellä epäiltyjä. Poliisi aikoo lähettää Juvalta otetut näytteet rikostekniseen laboratorioon. Tavoitteena on selvittää, mitä ne sisältävät.– Sen jälkeen pohdimme, mikä laite tai kone tällaista ainetta käyttää, sanoo Kärpänen.Poliisin tiedossa ei ole, että pinkkiä lunta olisi havaittu muualla Suomessa.Voit keskustella aiheesta 2.2.2024 klo 23 saakka.</t>
+          <t>2024-02-11T19:20:03+02:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420074036</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haapajärvellä on reagoitu loppuviikon uutisiin viikonlopun aikana. Esimerkiksi kaupungin nuorisotila Stolle on ollut auki viikonloppuna. </t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Haapajärvellä liikenneonnettomuudessa torstaina kuollut kaupunginhallituksen puheenjohtaja Jari Nahkanen oli syytteessä seksuaalisesta hyväksikäytöstä.Haapajärven kaupungille tieto rikossyytteestä tuli yllätyksenä. Ensitieto tuli median yhteydenoton kautta, kertoi Haapajärven kaupunginjohtaja Jonna Tamminen perjantaina Ylelle.Nahkanen oli Haapajärven yläasteen rehtori. Syytettä oli määrä käsitellä Oulun käräjäoikeudessa viime perjantaina.Tamminen sanookin, että Nahkasen syyte jää nähtävästi kysymysmerkiksi.– Tilanne on se, että syytteen osalta on tulevana perjantaina niin sanottu päättämiskäsittely. Se jää kysymysmerkiksi, joka on jatkon kannalta haastava. Sen kanssa pitää pystyä elämään, Tamminen summaa.Pohteen palveluja lisää tarjolla seuraavina viikkoinaHaapajärvellä on reagoitu viikonlopun aikana. Esimerkiksi kaupungin nuorisotila Stolle on ollut auki viikonlopun ajan ja siellä on ollut seurakunnan nuorisotyöntekijöitä paikalla juttelemassa.Tamminen kertoo Stollessa käyneen myös sellaisia lapsia ja nuoria ja joita siellä ei normaalisti käy.– Tunnelma on ollut varsin rauhallinen ja luottavainen siihen, että tästä mennään eteenpäin, Tamminen summaa.Maanantaina Haapajärvellä palataan kouluarjessa normaaliin.– Vararehtori toimii rehtorin tehtävässä ensi viikosta eteenpäin, hän on laittanut viestiä jatkosta vanhemmille, lapsille ja henkilökunnalle. Seuraavien viikkojen aikana on enemmän tarjolla Pohteen tarjoamaa terveydenhuoltopalvelua ja kuraattoripalvelua.</t>
         </is>
       </c>
     </row>
@@ -1521,26 +2079,47 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Puuta nakertanut majava teki kohtalokkaan arvioin­ti­virheen – autoliikenne seisahtui Polvijärvellä</t>
+          <t>Lämäri tyhjään maaliin – NHL:n tähtipelaaja pimeni ja löi poikit­taisella päähän</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20072584</t>
+          <t>https://yle.fi/a/74-20073988</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Majavan nakertama puu pysäytti liikenteen Polvijärvellä torstaina.Pohjois-Karjalan pelastuslaitos sai iltapäivällä tiedon liikenteen estävästä ison puun kaatumisesta Kaavintiellä. Puuta raivattaessa syylliseksi oli osoittautunut majava.Pelastuslaitos arvelee majavan nakertaneen puusta nälissään ruokaa itselleen.Vanhemman pelastajan Pekka Kontkasen mukaan majavan osuudesta puun kaatumiseen ei voi erehtyä. Eläimen noin puolimetriseen haapaan jättämät jäljet olivat varsin tuoreet.– Ison urakan majava on tehnyt.Tapaus oli pelastuslaitoksellekin uusi.– En muista, että majavan tekosena olisi ollut tällainen liikenne-este, Kontkanen sanoo.Majavien suuntaamat kaadot ovat yleensä Kontkasen mukaan onnistuneita.– Nyt oli vain ilmeisesti yllättänyt puuskittainen tuuli, joka oli kaatanut puun tielle. Tai mistäpä minä tiedän mihin suuntaan majava on yrittänyt puuta kaataa, Kontkanen toteaa.Epäilty tekijä oli pelastuslaitoksen mukaan poistunut paikalta viereistä Saarvonjokea pitkin.</t>
+          <t>2024-02-11T07:11:25+02:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420073988</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Toronton Morgan Rielly pimeni jääkiekkoliiga NHL:ssä ottelun viime sekunneilla. Aleksander Barkov katkaisi pitkän maalittoman putkensa.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Jääkiekkoliiga NHL:ssä nähtiin yön NHL-kierroksella harvinainen tilanne, kun Toronton tähtipelaaja Morgan Rielly ei sulattanut Ridly Greigin ratkaisua pelin loppuhetkillä.Ottawa Senatorsin Greig luisteli läpiajoon ja lämäsi kiekon tyhjään maaliin. Rielly tuohtui tilanteesta ja löi vastustajaa välittömästi poikittaisella kasvoihin.Rielly sai poikittaisesta mailastaan viiden minuutin rangaistuksen sekä ottelurangaistuksen. Tilannetta tarkastellaan todennäköisesti myös NHL:n kurinpidossa.Tilanteen voi katsoa tarkemmin seuraavalta videolta.Riellyn ratkaisu oli ottelun jälkeen suurin puheenaihe. Senatorsin päävalmentaja Jasques Martin ei pitänyt tekoa sopivana.– Se ei ole osa jääkiekkoa. Se on turhautumista tai jotain, mutta se ei ole osa tätä peliä. (Greig) laukoi kiekon maaliin. Sillä ei pitäisi olla väliä, työntääkö vai laukooko hän sen maaliin, Martin sanoi.– Hänen maalinsa oli aika hauska, Senatorsin Shane Pinto sanoi puolestaan naureskellen.Toronto Maple Leafsin päävalmentaja Sheldon Keefe oli eri linjoilla Riellyn poikittaisesta mailasta.– Minusta se oli asianmukainen teko, Keefe sanoi.– Hän vain reagoi peliin. Heidän pelaajalla on oikeus tehdä mitä haluaa sillä hetkellä ja meidän pelaajilla on oikeus reagoida, hän jatkoi.Toronton maalivahti Martin Jones kommentoi lämäriä niin ikään joukkueensa näkökulmasta.– Se oli typerää, mitä heidän pelaajansa teki loppuhetkillä, Jones sanoi.29-vuotias Rielly lukeutuu Toronton tähtipelaajiin. Puolustaja on tehnyt tällä kaudella pisteet 7+36=43. Mahdollinen pelikielto olisi hänelle ensimmäinen 11 vuotta kestäneen NHL-uran aikana.Ottelu päättyi Senatorsin 5–3-voittoon. Joonas Korpisalo torjui Ottawan maalilla 31 kertaa.Barkov katkaisi pitkän maalittoman putkensaNHL:n muissa otteluissa Aleksander Barkov oli huippuvireessä. Kapteeni Barkov tehtaili pisteet 1+2, kun Florida murjoi Coloradon maalein 4–0.Barkov oli ensin alustamassa kahta ensimmäistä maalia avauserässä, minkä jälkeen Eetu Luostarinen laukoi lukemat jo 3–0:aan toisen erän loppuhetkillä.Barkov katkaisi vielä päätöserässä 18 ottelun maalittoman putkensa. Hän onnistui edellisen kerran 16. joulukuuta Edmontonia vastaan.– Tuntuu hyvältä. Edellisestä on aikaa, Barkov tuumasi.Barkov kehui, että joukkue pelasi ehjän 60-minuuttisen.– Se oli vaikuttavaa, että lopussa peli oli 4–0 ja me silti teimme oikeita ratkaisuja. Emme yrittäneet viidettä maalia. Emme yrittäneet fuskata tai mitään, Barkov ihasteli.Aho Carolinan sankariSebastian Aho nousi Carolinan jatkoaikasankariksi NHL.ssä, kun joukkue otti niukan 1–0-voiton New Jersey Devilsiä vastaan.Aho pääsi lyömään kiekon ilmasta verkkoon, kun Vitek Vanecek torjui Martin Necasin laukauksen eteensä.– Necas leikkasi hyvin keskelle ja laukoi. Seurasin sitä ja irtokiekko tuli suoraan eteeni, Aho tuumasi.Carolinan maalilla Pjotr Kotšetkov koppasi kaikkiaan 34 kiekkoa. Jatkoajalla hän torjui esimerkiksi Tyler Toffolin yrityksen ennen kuin Aho tökkäsi ottelun ratkaisun.NHL-kierroksen tulokset:Buffalo – St. Louis 1–3
+BUF: Ukko-Pekka Luukkonen 23/26 torjuntaa, STL: Kasperi Kapanen 0+1.Detroit – Vancouver 4–3 ja.Montreal – Dallas 2–3
+DAL: Roope Hintz 0+1.NY Islanders – Calgary 2–5Boston – Washington 0–3Florida – Colorado 4–0
+FLA: Aleksander Barkov 1+2, Eetu Luostarinen 1+0.Carolina – New Jersey 1–0 ja.
+CAR: Sebastian Aho 1+0.Columbus – Tampa Bay 2–4Ottawa – Toronto 5–3
+OTT: Joonas Korpisalo 31/34 torjuntaa.Philadelphia – Seattle 3–2Winnipeg – Pittsburgh 2–1Nashville – Arizona 5–4 ja.
+NSH: Juuse Saros 27/31 torjuntaa, ARI: Juuso Välimäki 1+0.Los Angeles – Edmonton 4–0</t>
         </is>
       </c>
     </row>
@@ -1549,26 +2128,300 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Erosor­muksista ei aina luovuta – asiantuntijan mukaan katkeria tuntemuksia saatetaan vaalia maso­kis­tisesti</t>
+          <t>Jade Tammisen ja Sade Laakson ystävyys särkyi ilkeiden huhujen vuoksi – välirikon jälkeen ystävyys syveni entisestään</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20067812</t>
+          <t>https://yle.fi/a/74-20073549</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Kunnes kuolema meidät erottaa.Tilastot kuitenkin osoittavat, että Suomessa puolet avioliitoista päättyy kuoleman sijasta avioeroon.Kumppanuuden ja ikuisen liiton symboli, vihkisormus, voi eron jälkeen olla muisto kauniista ajoista tai karvas vertauskuva pettymykselle ja sirpaloituneille unelmille.– Esineisiin varastoituu muistia, vihkisormukseen erityisesti tunnemuistia, kertoo psykoterapeutti Marja Saarenheimo.Avaa kuvien katseluPsykoterapeutti Marja Saarenheimo on tutkinut ihmisen suhdetta esineisiin. Kuva: Jari Pussinen / YleAjan saatossa moni sormus unohtuu piirongin perälle, mutta säilytyspäätös voi olla myös aktiivista sorttia.– Jos ero on ollut sopuisa, voi haluta säilyttää sormuksen, koska siihen liittyy hyviä muistoja, Saarenheimo toteaa.Katkeran eron myötä sormus latautuu negatiivisilla tunteilla, mutta sekään ei automaattisesti ole syy hankkiutua siitä eroon.Saarenheimon mukaan jotkut haluavat kaikesta huolimatta pitää sormuksesta kiinni ja masokistisesti vaalia katkeria tuntemuksiaan.– Me ihmiset ollaan tällaisia. Ei me välttämättä haluta luopua jostain, joka herättää meissä paljon negatiivisia tunteita, vaan me ryvetään siinä.Moni vihkisormus päätyy panttilainaamoon tai romukullaksi.Erosormuksia kiikutetaan myös panttilainaamoihin, kertoo Helsingin Pantin konttorinjohtaja Roope Sipilä.– Kyllä niitä useita tulee ihan päivittäin.Myös koruseppä Tom Antell kertoo ostavansa vihkisormuksia asiakkailtaan.Sormuksen myyminen voi olla kylmän laskelmoitu vihanpurkaus, psykoterapeutti Marja Saarenheimo arvioi.– Ainakin siitä saa rahaa, vaikka mitään muuta ei jäisikään.Paljonko?Panttilainaamo maksaa sormuksista oman arvionsa mukaan, koruseppä Tom Antell jalometallin markkina-arvon perusteella. Jalokivistä maksetaan erikseen.Helsingin Pantin Roope Sipilä arvioi heille saapuvien sormusten keskiarvoksi 150–500 euroa. Antell kertoo, että hänen ostamissa sormuksissa liikutaan 1000–1500 euron haitarissa.Silloin tällöin myytäväksi tuodaan myös poikkeuksellisen arvokkaita erosormuksia.– Joskus sanotaan suoraan, että ero tuli, toteaa kultaseppä Tom Antell.Jokainen sormus kantaa tarinaaVihkisormus on enemmän kuin pelkkä esine.Sillä on paitsi valtava vaikutus identiteettiin, se on myös muistojen tallentaja ja tarinoiden kantaja.Toisinaan ihmisillä on tarve jakaa oman erosormuksensa tarina.– Kaikkiin koruihin liittyy tunnetiloja. Joskus ne on positiivisia, joskus ei niin positiivisia, mutta kyllä niitä meille välillä kerrotaan, toteaa Roope Sipilä Helsingin Pantista.Kultaseppä Tom Antell vahvistaa, että osa ihmisistä haluaa kertoa myyntipäätöksen taustat.– Joskus sanotaan suoraan, että ero tuli.Tapa, jolla sormuksesta luovutaan, voi kuvastaa luopujan persoonallisuutta.Luopuminen voi olla myös rituaaliTemperamenttiselle ihmiselle myyminen ei välttämättä tuo riittävää tyydytystä. Silloin sormuksen voi tuhota tai hävittää rituaalinomaisesti.– Kiivasluontoinen ihminen saattaa haluta päästä sormuksesta eroon hyvin dramaattisella tavalla, vaikka heittämällä sen järveen. Se on myymistä impulsiivisempi teko ja kuvastaa luopujan persoonallisuutta, psykoterapeutti Marja Saarenheimo toteaa.Järveäkin dramaattisempi vesistö löytyy lähes jokaisesta kodista.Helsingin seudun ympäristöpalveluista vahvistetaan, että jotkut hävittävät sormuksen wc-pönttöön.– Kyllä on tullut puhelinsoitto tai ehkä jokunen. On ollut riitaa henkilöiden välillä, sitten on sormus heitetty vessanpönttöön ja seuraavana päivänä on harmittanut, kertoo HSY:n tuotantopäällikkö Marina Graan.Viikinmäen jätevedenpuhdistamon ”leluhyllyyn” on kerätty jäteveden seasta paitsi purukalustoa......myös peräkalustoa.Jäteveden seasta löytyy kaikenlaista pikkutavaraa kännyköistä tekohampaisiin ja lasten leluista aikuisten leluihin, joista osa on päätynyt Viikinmäen jätevedenpuhdistamon vitriiniin näytille.Sormuksia jäteveden seasta ei ole löytynyt.– Meillähän on isot viemäritunnelit. Ne on monta metriä leveät, niin niihin johonkin rakosiin on varmaan jäänyt. Tai sitten sormus on päätynyt tämän trasselimönjän joukkoon, ja sitten se menee tuonne voimalaitokselle polttoon, Graan avaa.Katso Puoli seiskan tv-juttu erosormusten erilaisista kohtaloista.</t>
+          <t>2024-02-11T07:15:36+02:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Yle</t>
+          <t>7420073549</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Jade Tamminen ja Sade Laakso löysivät ystävyytensä uudelleen välirikon jälkeen. Joskus ystävyys voi katkeamisen jälkeenkin elpyä ja olla molemmille hyvä ihmissuhde.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Jade Tamminen, 25, ja Sade Laakso, 24, ovat toisensa läheisimmät ystävät. Viisi vuotta sitten heidän ystävyytensä kuitenkin särkyi.Jade Tammisen ja Sade Laakson välit menivät poikki, eivätkä he pitäneet yhteyttä vuoteen. Siihen jaksoon osuivat myös toisen valmistujaiset ja toisen ylioppilasjuhlat.Laakso luuli, että Tamminen oli puhunut hänestä törkyisiä juttuja. Tämä puolestaan loukkaantui siitä, että ystävä uskoi hänestä pahaa. Samaan aikaan sattui muita vaikeita asioita, eikä ilkeiden huhujen korjaamiseen ollut voimavaroja.Molemmilta meni luottamus toiseen. Yhteydenpito katkesi vuodeksi kokonaan.– Alkuun oli tosi vihainen olo, mutta ajan kanssa tuli tosi surullinen fiilis. Musta tuntui, että jotain puuttui elämästä – mun paras kaveri, Sade Laakso kertoo.Heistä tuntui pahalta nähdä somessa kuvia, joissa toisen elämä rullasi eteenpäin muiden ystävien seurassa eikä itse enää kuulunut toisen elämään.– Kun katsoin kuvia, joita tuli somessa vastaan, ajattelin, että eikö sulla ole ikävä mua. Onko mut korvattu, Jade Tamminen sanoo.Lopulta molemmilla oli kova ikävä toistensa seuraa.Kun välirikko oli kestänyt vuoden, Laakso laittoi spontaanisti viestiä ja ehdotti tapaamista saman tien. Tilanne oli molemmille yllättävä ja ristiriitainen.Videolla he kertovat, miten tapaaminen meni.Ystävykset kertovat tapaamisestaan pitkän tauon jälkeen.Luottamuksen menettäminen, erilaiset elämänvaiheetYle kysyi yleisöltä ystävyyssuhteiden katkeamisesta ja ystävyyden uudelleen löytymisestä.Riitaisan välirikon ja luottamuksen menettämisen lisäksi vastauksissa toistui se, että erilainen elämänvaihe oli erottanut ystävät toisistaan. Opiskelu, työ tai perhe-elämä olivat vieneet entistä enemmän aikaa tai muutto toiselle paikkakunnalle oli lisännyt välimatkaa. Mielenkiinnon kohteet olivat muuttuneet eri suuntiin.Kasvoimme erilleen, kun minua vanhempi ystäväni siirtyi yläasteelle ja itse olin vielä ala-asteella. Ystävä halusi sulautua omanikäistensä joukkoon.24-vuotias Merituulia Räty kirjoittaa ystävyydestä, joka löytyi myöhemmin uudelleenYstävyyden rikkoutuminen voi tuntua samalta kuin parisuhteen loppuLäheisen ystävyyssuhteen katkeaminen tai etääntyminen voi satuttaa syvältä.– Ystävyyden katkeaminen voi tuntua ihan samanlaiselta kuin parisuhteen päättyminen, psykologi Nina Lyytinen sanoo.Avaa kuvien katseluJade Tamminen ja Sade Laakso kirjoittivat lappusille, mitä he olisivat halunneet sanoa toisilleen, kun heidän ystävyytensä oli rikki. Välirikostaan huolimatta he välittivät toisistaan. Kuva: Karoliina Juntunen / YleYstävyyssuhteen hiipumisen mahdolliset syyt saattavat pyöriä mielessä vielä pitkänkin ajan jälkeen.Jos tapahtuneet asiat ja omat tunteet uskalletaan ottaa toisen kanssa puheeksi, Nina Lyytisen mukaan kerran katkennut ystävyys saattaa jatkossa jopa syventyä.Jade Tamminen ja Sade Laakso ovat puhuneet ystävyytensä katkeamisen syistä useita kertoja.Nykyisin he välillä jopa heittävät vitsiä välirikostaan.Ystävyyssuhde voi matkan varrella joutua joustamaan erilaisten tilanteiden mukaan. Muutokset voivat haastaa ystävyyttä, mutta toisaalta myös lähentää sitä.Joskus ystävyys kannattaa katkaistaPsykologi Nina Lyytisen mukaan ystävyyttä ei silti kannata pitää hengissä väkisin. On tilanteita, jolloin ystävyyssuhde kannattaakin oman hyvinvoinnin vuoksi katkaista.Ystävyyssuhde voi olla omalle hyvinvoinnille haitaksi, jos ystävän käytös toistuvasti loukkaa, satuttaa tai ystävä kelpuuttaa seuraansa vain tarvitessaan jotain. Ystävyys voi olla kuormittavaa myös silloin, jos ystävyydestä puuttuu kokonaan vastavuoroisuus.Välttämättä kerran katkenneeseen ystävyyteen ei löydy uudelleen riittävää tarttumapintaa, vaikka mitään varsinaista ongelmaa ei olisikaan.”Jännitti mennä tapaamaan”Ylen kyselyn vastaajista osa kertoo, että ystävyys on tuntunut pitkän tauon jälkeen uudelleen läheiseltä ja merkitykselliseltä.Jännitti mennä tapaamaan, mutta ihan sama ihminen siellä oli vastassa kuin vuosikymmeniä sitten. Olemme aina jakaneet hyvin henkilökohtaisia ja syvällisiä asioita.62-vuotias Sirpa SeppänenEräs vastaaja etsi uudelleen tärkeät lapsuudenystävänsä – veljekset, joista vanhemman hän ehti tavata vielä kerran.Aloin etsiä veljistä vanhempaa internetistä, Facebookista ja LinkedInistä, ja löysinkin etäisesti samannäköisen miehen, jolle pistin viestin. Valitettavasti tämä vanhempi veljistä menehtyi ennen kuin olimme nähneet toista kertaa. Nyttemmin olen ajoittain yhteydessä nuorempaan veljeen.61-vuotias Olavi BarckJade Tamminen sanoo pitävänsä ystäväänsä rohkeana, kun tämä otti yhteyttä pitkän ajan jälkeen.Psykologi Nina Lyytinen kannustaa yhteydenottoon, jos kaipaa katkennutta ystävyyssuhdetta.– Voi olla, että se toinenkin kaipaa, mutta kynnys ottaa ensimmäinen askel voi olla iso, Nina Lyytinen sanoo.Riski tulla torjutuksi on olemassa, mutta silloinkin voi ajatella, että on itse tehnyt ystävyyssuhteen eteen sen, minkä voi.”Ei kyllä kukaan voi enää tulla meidän ystävyyden väliin”Jade Tammisen ja Sade Laakson ystävyyssuhde tiivistyi välirikon jälkeen entisestään. Lopulta kävi ilmi, etteivät pahat puheet olleet pitäneet paikkaansa.– Oli sellainen fiilis, että ei kyllä kukaan voi enää tulla meidän ystävyyden väliin. Luottamus kasvoi isommaksi, kun saatiin puhuttua, Sade Laakso sanoo.Jo ennen välirikkoaan teini-iästä asti toisensa tunteneet ystävykset viettivät yhdessä kaikki uudetvuodet, vaput ja juhannukset. He olivat mukana toistensa tärkeissä hetkissä ja lohduttivat toisiaan ensimmäisissä sydänsuruissa.Nykyisin he kokevat olevansa vielä läheisempiä, ”erottamattomat”.– Me jaetaan vielä enemmän asioita. Ollaan ehkä avoimempia, luottavaisempia tietyllä tapaa, he pohtivat yhteen ääneen.Pyysimme Jade Tammista ja Sade Laaksoa kertomaan kolmella sanalla, mitä toinen itselle merkitsee.Kolmen sanan tiivistys siitä, mitä ystävykset merkitsevät toisilleen. Nykyisin he asuvat eri paikkakunnilla, mutta silti he tapaavat parin viikon välein ja puhuvat tai viestittelevät joka päivä.– Kun mulla on paha päivä ja mä soitan sulle…, Jade Tamminen aloittaa.– …sitten se on hyvä päivä, Sade Laakso jatkaa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>57</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Asumistuki muuttuu huhtikuun alussa – kerro meille, miten leikkaukset vaikuttavat sinuun</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20073976</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2024-02-11T10:44:01+02:00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7420073976</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Yleisen asumistuen leikkaukset tulevat pian voimaan. Yle tekee aiheesta juttua.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Hallituksen päättämät yleisen asumistuen leikkaukset tulevat voimaan huhtikuun alussa. Suuri osa muutoksista vaikuttaa lähes kaikkiin asumistuen saajiin, kun tuki tarkistetaan seuraavaan kerran.Tällaisia muutoksia on siis luvassa:Perusomavastuuosuus kasvaa 42 prosentista 50 prosenttiin.Korvausprosentti pienenee nykyisestä 80 prosentista 70 prosenttiin hyväksyttävien asumismenojen ja perusomavastuun erotuksesta.300 euron ansiotulovähennys poistuu.Helsingissä huomioon otettavien asumismenojen enimmäismäärä pienenee, kun Helsinki yhdistetään samaan kuntaryhmään muun pääkaupunkiseudun kanssa.Tarkempia tietoja muutoksista löytyy Kelan sivuilta.Yle tekee aiheesta juttua. Kerro meille, miten leikkaukset vaikuttavat sinuun. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>58</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Olympia­voit­tajia, laulajatähtiä ja historian suuruuksia vilisevä Kuopio – testaa, tunnetko kuuluisat kuopiolaiset</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20072308</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2024-02-11T10:27:36+02:00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7420072308</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yllättävän moni taiteen, tieteen ja politiikan hahmo on viettänyt jonkin elämänvaiheen Kuopiossa. </t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Mitä Jenni Vartiainen teki ennen laulajanuraansa? Kuinka moni seuraa Nikoa ja Santtua Youtubessa ja mistä löytyy Mualiman napa? Kuopion kuuluisuudet -visassa pääset testaamaan tietosi enemmän tai vähemmän savolaisista julkkiksista 1700-luvulta nykypäivään.Kuopion torilla vietetään keskiviikkona 14.2. klo 18-19 ystävänpäivätapahtumaa ja Puoli seitsemän -ohjelman suorissa lähetyksissä vieraana ovat muun muassa mäkilegenda Ari-Pekka Nikkola ja koomikko Teemu Vesterinen.Katso Puoli seitsemän -lähetykset Kuopiosta keskiviikkona ja torstaina 14. ja 15.2. klo 18.30 Yle TV1 ja Yle Areena.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>72</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Valtteri Bottaksen nimeä kantava päihde aiheuttaa voimakasta riippuvuutta – ”Huonoin mahdollinen tapa olla esikuva nuorille”</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20073978</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2024-02-11T08:30:36+02:00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7420073978</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erityisesti nuorille markkinoidut nikotiinipussit aiheuttavat voimakasta riippuvuutta. </t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Suomalaisiin päivittäistavarakauppoihin on tullut myyntiin 77 VB Edition -nimisiä nikotiinipusseja, joiden pakkauksen kannessa on F1-kuljettaja Valtteri Bottaksen siluetti. Nikotiinipusseja myyvissä verkkokaupoissa 77 VB Edition -tuotteiden kuvauksessa on mainittu Bottaksen nimi.Yle Urheilu tavoitti Bottaksen asiainhoitaja Ville Ahtiaisen, joka vastasi, että hän ei osaa kommentoida asiaa. Bottas ei itse ole kommentoinut osallisuuttaan nikotiinipussifirman mainoskasvona.Nikotiini on voimakkaasti riippuvuutta aiheuttava aine. Sosiaalisessa mediassa on viime päivinä ihmetelty, miksi Bottaksen kaltainen maailmalla tunnettu urheilija on ryhtynyt nikotiinituotteiden mainoskasvoksi.Kansanterveystieteen professori Jaakko Kaprio Helsingin yliopistosta pitää Bottaksen toimintaa vastuuttomana.– Se on likimain sama kuin ryhtyisi tupakkafirman mainoskasvoksi. Jos haluaa olla esikuva nuorille, tuo on huonoin mahdollinen tapa. Jos ryhtyy sellaisiin toimiin, joilla ylläpidetään tai edistetään nikotiiniriippuvuuden jatkumista yhteiskunnassa, se on mielestäni aivan vastuutonta toimintaa, Kaprio sanoo.77 VB Edition -nikotiinipusseja valmistava puolalaisbrändi ei ole sosiaalisen median kanavissaan julkaissut Bottaksen kuvia tai nimeä. Bottas on merkinnyt 77 Pouches -tilin syyskuussa julkaisemaansa Instagram-kuvaan, jossa hänen shortsiensa taskusta näkyy läpi kiekon muotoinen esine. Kyseinen kuva on Bottaksen Instagram-julkaisussa kuudentena.Syyskuussa 2023 Valtioneuvosto kielsi Suomen markkinoilta nikotiinipussit, joissa on 20 milligrammaa tai enemmän nikotiinia. Suomalaisissa ruokakaupoissa myytävissä 77 VB Edition -nikotiinipusseissa nikotiinia on 16 milligrammaa. Ulkomaisissa verkkokaupoissa myytävät, Bottaksen nimeä kantavat nikotiinipussit sisältävät 20 milligrammaa nikotiinia.Professori Kaprion mukaan tupakka- ja nikotiinituotteita markkinoidaan erityisesti nuorille.– Yli 25-30-vuotiaat hyvin harvoin aloittavat käyttämään nikotiinituotteita. Teinit ja nuoret aikuiset ovat kohderyhmää, koska nikotiinifirmojen pitää saada uusia asiakkaita, jotka jäävät koukkuun. Valtaosa ihmisistä ei enää aloita nikotiinituotteiden käyttöä, kun heidän aivonsa ovat kypsyneet.Professori F1-kuski Valtteri Bottaksen nikotiinipussiyhteistyöstä: "Täysin vastuutonta toimintaa"Professori Jaakko Kaprio sanoo mielipiteensä Valtteri Bottaksen osallisuudesta nikotiinipussibisnekseen.Nikotiinituotteita markkinoidaan nuorille esimerkiksi tervehenkisten ja urheilullisten mielikuvien kautta. Urheilija tuotteen keulakuvana voi osua suoraan kohderyhmään.– Tämä on yksi esimerkki siitä, kuinka nikotiiniteollisuus pyrkii edistämään nikotiinin käyttöä yhteiskunnassa kaikin mahdollisin tavoin. Se on häikäilemätöntä toimintaa, Kaprio sanoo.Avaa kuvien katseluNikotiinipusseja markkinoidaan terveellisempänä vaihtoehtona tupakkaa sisältävälle nuuskalle.  Kuva: Johanna Manu / YleNikotiinituotteita käyttävät henkilöt alkavat todennäköisesti käyttämään myös tupakkatuotteita, Kaprio sanoo. Tupakkaa sisältämättömilläkin nikotiinituotteilla on haitallisia vaikutuksia terveyteen ja urheilijan suorituskykyyn.– Nikotiini on myrkky. Jos sitä ottaa ison määrän kerralla, se voi tappaa. Aikuinen selviää melko isostakin annoksesta, mutta lapsi saattaa kuollakin siihen. Raskaana olevien nikotiinin käyttö on erittäin vaarallista sikiölle. Pitkäaikaiskäytössä nikotiini supistaa verisuonia, Kaprio sanoo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>73</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Roope Hintz kuuli nuorena tylyä kuittailua harjoit­te­lustaan – nyt NHL:n tähti­hyökkääjä avaa Ylelle uransa käännekohtia</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20071307</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2024-02-11T07:00:36+02:00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7420071307</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Roope Hintz kuuli nuorena tylyä kuittailua harjoittelustaan. Nyt hän avaa Ylelle uransa käännekohtia, jotka tekivät hänestä NHL-tähden.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>DALLAS. Roope Hintz viilettää kovalla vauhdilla pitkin keskikaistaa. Hän syöttää kiekon nopeasti Jason Robertsonilla, joka palauttaa kiekon nopealla syötöllä takaisin suomalaiselle. Hintz ottaa kiekon haltuunsa kahden Anaheim Ducks -puolustajan välissä.Tarkka laukaus painuu yläkulmaan ja Dallasin kotiareena räjähtää huutomyrskyyn.Tämä on ollut tuttu kaava ja näky Starsin peleissä jo useamman kauden ajan. 27-vuotias Hintz, 24-vuotias Robertson ja 39-vuotias Joe Pavelski ovat muodostaneet texasilaisseuran tehokkaan ykkösketjun jo useamman kauden ajan.Erinomaisesti peliä lukevalla Pavelskilla on ikää jo 39-vuotta, mutta hän täydentää loistavasti kovina luistelijoina tunnettuja Robertsonia ja Hintziä. Pavelski lukee peliä erinomaisesti ja hänen kaikki ratkaisunsa kiekon kanssa tai ilman ovat lähes poikkeuksetta oikeita.Tämä avaa runsaasti tilaa nuorisokaksikolle.– Minä yritän sentterinä käyttää vauhtiani hyväkseni. Pavelski on taas maalin ympäristössä aivan maailman kärkijätkiä. Robertsonilla on hyvä pelikäsitys ja laukaus. Tällä kaudella on ollut vielä vähän hakemista, mutta uskon, että homma lähtee toimimaan kunnolla, pohtii Hintz Yle Urheilun haastattelussa Dallasin keskustassa sijaitsevassa hotellissa.Näin Roope Hintz taituroi hattutempun Chicagon verkkoon loppuvuodesta 2023. Maalien syöttäjinä kunnostautuivat niin Joe Pavelski kuin Jason Robertson.Hintzin johtama tehoketju värkkäsi viime kaudella yhteensä 111 maalia, mikä oli reilusti yli kolmannes kaikista Starsin tekemistä maaleista (281). Tahti ei ole hiipunut tämänkään kauden aikana, mutta kriittiset NHL-toimittajat odottavat tältä kolmikolta vieläkin enemmän.Starsin ykkösnyrkillä on suurin vastuu tuloksenteosta, ja tämän myös Hintz tiedostaa. Niin sanottuihin ohipeleihin triolla ei ole varaa.– En ota siitä painetta. Se on ollut hauska huomata, että jos menee pari peliä niin, ettemme tee maalia, niin media alkaa samantien kyselemään, miksi homma ei toimi. Siitä sen huomaa, että odotukset ovat korkealla.Hintz ei ota turhia paineita omista tai ketjunsa tehoista.– Kun menen jäälle, niin silloin mikään ei stressaa tai jännitä minua. Ainoa, mitä välillä miettii, ettei vaan loukkaantuisi ainakaan pahasti, että joutuisi olemaan koko kauden sivussa. Se on ehkä ainoa asia, mitä mietin silloin tällöin.Starsilta odotetaan menestystä joka kausi. Ryhmä keikkuu tällä hetkellä aivan läntisen konferenssin kärkijoukkueiden Vancouver Canucksin, Winnipeg Jetsin ja Colorado Avalanchen kannoilla.Avaa kuvien katseluHintz on johtanut ykkösnyrkin peliä piste per peli tahdilla. Kuva: NHLI via Getty ImagesMyös Hintz on ollut jälleen tehokkaalla pelipäällä. Hän on kauden puolivälin tienoilla matkalla jo kolmantena vuotena peräkkäin kohti liki 40 maalin kautta. Starsin suomalaissentteri on kasannut 50 ottelussa tehot 22+26=48.– Kuulostaa ihan hyvälle, mutta tärkeintä on se, että olemme joukkueena voittaneet pelejä. Jos olisimme hävinneet yli puolet peleistä, niin silloin omat pisteet eivät juurikaan lämmittäisi. Joukkueen menestyminen on tärkein asia. Jos silloin pystyy pelaamaan hyvin ja auttamaan joukkuetta, se on hyvä juttu.– Mielestäni olemme pelanneet toistaiseksi tosi hyvin, mutta meille saattaa tulla silloin tällöin tosi huonoja yksittäisiä eriä. Se pitäisi saada fiksattua kuntoon. Vyörytämme neljällä kentällä tasaisesti, joten meillä pelikuorma jakautuu tosi tasaisesti koko porukalle.Roope Hintzillä oli 20. tammikuuta kahden maalin ilta, kun Devils kaatui lukemin 6–2.”Välillä olen kuullut juttuja”Vaikka Roope Hintz on on pelannut juniorimaajoukkueissa koko leijonapolun, pidettiin häntä nuorempana hiukan oman tiensä kulkijana. Nykyisen tähtisentterin lahjakkuus oli laajasti tiedossa, mutta Hintzillä oli silti laiskan harjoittelijan leima.– Tein nuorempana vähän omia juttujani. En ollut se, joka olisi lenkkiporukan kärkipaikoilla juoksemassa. Vietin aikaa enemmän ulkojäillä.Hintz vietti kauden 2012–2013 Tampa Bayn joukkueessa junioriliigassa, jossa hän koki ensimmäisen herätyksensä jääkiekkoilijana. Floridan auringon alla luotiin myös pohja sille, mistä hänet tunnetaan NHL:ssä, eli hyvästä luistelusta.– Koko luistelutekniikkani muutettiin. Luistelin ennen tosi leveällä, enkä saanut juurikaan potkua siihen mukaan, koska potku oli liian lyhyt. Olin joka toinen päivä jäällä ja välipäivinä tein kuivatreeniä. Sitten, kun alkoi tulemaan pituutta, aloitin voimaharjoittelun, Hintz kertoo.Avaa kuvien katseluRoope Hintz, kuten kaikki muutkin huippupelaajat, on kulkenut pitkän tien ammattilaisena nykyiseen tilanteeseensa.Kun pohjat oli laitettu kuntoon, Hintz nostettiin ensimmäisen kerran SM-liigajoukkueen mukaan kaudella 2013–2014, jolloin hän teki ensiesiintymisensä SM-liigassa paikallispelissä Tapparaa vastaan Hakametsässä.Liigan kirkkaat valot tulivat nopeasti tutuksi, sillä tehoja alkoi kertyä jo ensimmäisellä täydellä liigakaudella (2014–15) Ilveksessä.Myös Pohjois-Amerikassa oli seurattu liukasliikkeisen suomalaisen menoa, ja Dallas Stars varasi Hintzin toisella kierroksella 49:ntenä pelaajana kesällä 2015.Tuossa vaiheessa Helsingin IFK oli iskenyt silmänsä lahjakkaaseen nuorukaiseen. HIFK:ssa vierähti kaksi kautta, joiden aikana Hintz nousi lopullisesti suomalaisen kiekkoyleisön tietoisuuteen.– Minulla oli omat valmentajani ennen siirtoa HIFK:hon. Silloin aloin painamaan hommia tosissaan. Välillä olen kuullut niitä juttuja, että olen ollut laiska harjoittelemaan. Se ei kuitenkaan pidä ihan paikkaansa.Avaa kuvien katseluRoope Hintz pelasi ennen NHL:ää SM-liigassa Ilveksessa ja HIFK:ssa. 126 liigapelissä syntyivät tehot 32+35=67. Kuva: Miikka Jääskeläinen / AOPHintzin nykyistä olemusta katsoessa näkee selvästi, että treenisalilla ja harjoituksissa on vietetty aikaa enemmän kuin runsaasti. Siitä huolimatta NHL-uran alkuvaiheessa Hintz kuuli puheita siitä, ettei hän laittaisi kaikkea likoon harjoituksissa.Hän kuitenkin hiljensi kriitikoiden suut nopeasti.– Olen aina sanonut, että tervetuloa katsomaan treenejä, että siellä mennään tosi kovaa. Olen sitä mieltä, ettei pelaajana voi kehittyä, jos ei harjoittele kunnolla. Lahjakkuutta tarvitaan myös, mutta ei sekään loputtomiin riitä, sanoo Hintz.Ura on sujunut vahvassa myötätuulessaHintz on noussut kovalla harjoittelulla tähtipelaajan asemaan NHL:ssä. Nyt suomalaisella vauhtikoneella on menossa jo neljäs kausi piste per peli -tahdilla. Syksystä 2020 lähtien Hintzin tilastot ovat 244 runkosarjaottelua tehoin 111+126=238.Juuri tästä syystä texasilaisseura sorvasi runsas vuosi sitten Hintzin kanssa kahdeksan vuoden ja noin 65 miljoonan dollarin arvoisen sopimuksen, joka pitää hänet Starsissa aina vuoteen 2031 saakka.– Siinä huomasi, että on tehnyt asioita oikein, kun olen ansainnut tuollaisen. Kyllä sopimus oli myös tietynlainen palkinto, että olen tehnyt hyvin duunia. Tuollaisen sopimuksen jälkeen työnteon pitää jatkua. Hommat eivät voi sen jälkeen lässähtää.Roope Hintzin viimeisin kahden maalin iltapuhde nähtiin 23. tammikuuta. Hintz keräsi tehot 2+1 ja myös Esa Lindell onnistui maalinteossa, kun Dallas kukisti Detroitin 5–4.Hintz kokee, että hän on mennyt NHL-urallaan eteenpäin maltillisesti askel kerrallaan.– Kaikki alkoi AHL:stä. Sen jälkeen NHL:ssä aloitin pienillä minuuteilla neloskentässä, enkä saanut pelata ylivoimaa. Olen mennyt koko ajan mielestäni oikeaan suuntaan. Kehityskäyrä on pysynyt ainakin tähän asti koko ajan ylhäällä.Työnteko jatkuu edelleen. Hintz pyrkii jatkuvasti kehittymään pelaajana kaikilla osa-alueille. Luistelu on Ilveksen kasvatin vahvin ase jäällä, mutta kesäharjoittelussa samaa ominaisuutta pyritään kehittämään entisestään.– Kehitettävää löytyy ja niiden eteen teen koko ajan hommia. Luistelu on minun vahvuuteni, mutta silti joka kesä pyrimme kehittämään lähtönopeutta. Sitä pitäisi saada vielä paremmaksi. Myös käännöksiä harjoittelemme. Olen isokokoinen pelaaja ja yritän saada käännöksiä nopeammaksi sekä kiekon suojausta paremmaksi.Pelaajana kehittymisen lisäksi kirkkain tavoite on saavuttaa NHL:n mestaruus.– Joukkueena tietysti haluan voittaa Stanley Cupin. En tiedä, onko minulle suuria henkilökohtaisia tavoitteita, joita ajattelisin tai jahtaisin. Olisihan se kiva, jos saisi jotain henkilökohtaisia tunnustuksia. Itselleni isoin juttu olisi siinä, että pystyisin jatkuvasti kehittymään pelaajana.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>74</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Sara Sytelä, 30, menetti uskonsa deitti­so­vel­luksiin murustelun takia – ”Aiheuttaa älyttömästi henkistä damagea”</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20073166</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2024-02-10T11:51:49+02:00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7420073166</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Murusteleva henkilö flirttailee viestein juuri sen verran, että toisen osapuolen kiinnostus säilyy. Tosiasiassa hänellä ei ole aikomusta luoda aitoa suhdetta. </t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Treffiaikaa ei vain löydy. Jo sovittuja treffejä perutaan tai ”unohdetaan”. Silti sovellukseen kilahtaa kerta toisensa jälkeen viesti samalta tyypiltä. Flirttiä ja kehuja.Tätä voi jatkua kuukausia, mutta tapaamista ei tule koskaan.Murustelu (breadcrumbing) kuvaa sitä, miten ihminen tiputtaa deittinsä eteen juuri sen verran muruja, että kiinnostus säilyy.Yle kysyi kokemuksia asiasta. Kommentoijien henkilöllisyys on Ylen tiedossa. He esiintyvät jutussa nimettöminä aiheen arkaluontoisuuden vuoksi.Hyvin usein moni tykkää keskustella deittisovelluksissa ja antaa ymmärtää olevansa kiinnostunut, mutta kun kysyn, haluaisiko hän nähdä joskus kasvotusten, ei vastausta enää tule. Murustelusta on seurannut vitutus.parikymppinen mies, TampereOululainen Saara Tikkakoski, 34, kertoo, että aluksi viestittely tuntui kivalta, mutta näkemys muuttui hiljalleen, kun viestit eivät johtaneetkaan mihinkään.– Kun viestittely on jokapäiväistä tai -viikkoista ”mitä kuuluu, mitä teit tänään”, alkaa miettiä motiivia. Tekisi mieli kysyä: mitä sä musta haluat.Tietokirjailija ja psykoterapeutti Mikael Saarinen näkee ilmiön myös vastaanotollaan. Moni murustelijoista haluaa itsekin eroon ”harrastuksestaan”.He sanovat, että murustelusta tulee huono olo eikä se anna sitä, mitä oikeasti haetaan. Moni on kuvannut tapaa addiktioksi.– He tietävät, ettei se ole hyväksi, mutta siinä on jotain palkitsevaa. Kun lojuu työpäivän jälkeen sohvalla, automaatio mennä deittisovelluksiin on iso. Sitten viuhdotaan peukalolla kunnes tajutaan, ettei sieltä saakaan sitä, mitä toivoo.Olen itse viestitellyt miesten kanssa siten, että minulla ei ole ollut ainakaan vakavaa aikomusta ikinä tavata heitä. -- Kyse on ollut halusta saada huomiota silloin, kun se itselleni sopii tai siitä, että en ole sitten kuitenkaan uskaltanut tavata miestä. Tapauksista on jäänyt hieman huono omatunto.parikymppinen nainen, OuluMurustelu voi musertaa itsetunnonMurustelu herättää ihastumisen tunteita, turhia toiveita, hylkäämisen kokemusta ja aggressiota. Näin arvioi psykoterapeutti Mikael Saarisen lisäksi aiheesta gradun kyberpsykologian alalta 2023 tehnyt filosofian maisteri Mereta Helin.Gradu vahvisti sen, että digideittailussa ghostaaminen ja murustelu ovat hyvin yleistä.Ylen kyselyyn vastanneet ovat sitä mieltä, että deittisovellukset ovat monella tapaa pilalla. Sara Sytelän mielestä deittiapeista on pakko välillä poistua kokonaan oman mielenterveyden takia.Jos toinen on etsimässä tosirakkautta, murustelu tuntuu entistä pahemmalta.– Kuluu kauheasti turhaa aikaa, kun toivot, että jos se toinen kuitenkin vielä haluaisi tavata. Murustelu satuttaa eniten silloin, kun viestittely on jatkunut pitkään. Seuraa helposti pelko: uskaltaako yrittää enää uudestaan, Helin sanoo.Espoolaisen Sara Sytelän, 30, murustelu on saanut miettimään, onko hänessä jotain vikaa.– Kyllä se musertaa itsetuntoa ja aiheuttaa älyttömästi sellaista henkistä damagea. Kelaat, että miksi tämä toistuu ja toistuu. Sanoisin, että olen menettänyt uskon löytää ylipäätään rakkautta.Kyllä näitä juttukavereita riittää grindrissa. Antavat kuvan, että haluaisivat tavata erittäin paljon, mutta aina tulee joku tekosyy, kun pitäis tavata. Turhaudun menetetystä ajasta. Menee luotto koko touhuun.nelikymppinen mies, RovaniemiMurustelun takana voi olla pelko hylätyksi tulemisestaMurustelu ei ole uusi ilmiö, mutta digitaalisessa deittimaailmassa se on entistä helpompaa ja siksi lisääntynyt.– Digitaalisuus on tietyllä tavalla hyperaktivoinut meitä. Jos aamu alkaa sillä, että haet deittiapeista myönteistä fiilistä ja vahvistusta itsellesi, on selvää, ettei se lopu päivälläkään. Joidenkin kohdalla voidaan puhua melkein pakkotoiminnoista, sanoo psykoterapeutti Mikael Saarinen.On paljon ihmisiä, jotka eivät koskaan lähde edes ensimmäisille treffeille. Taustalla voi olla myös pelkoa.– Deittisovelluksissa halutaan tuoda esiin itsestä rakastettavaa puolta, ja ehkä se saa epävarmaksi: tullaanko minuun pettymään? Digitaalisesti turvallisen välimatkan pitäminen on tosi helppoa.Avaa kuvien katseluSaara Tikkakosken mukaan deittiapit herättävät hänessä ristiriitaisia tunteita. Hänellä on hyviäkin kohtaamisia, mutta yleisesti deittiprofiili on niin kapea siivu ihmisestä, että usein todellisuus on jotain muuta. ”Se johtaa moniin huteihin ja pettymyksiin”, Tikkakoski sanoo. Kuva: Saara TikkakoskiSovellus luo myös mahdollisuuden ylläpitää kuvitelmaa toisesta lähes ylimaallisena olentona. Digitaalinen suhde ei toisaalta aktivoi kehoa tai kosketa tunnetasolla samalla tavalla kuin läsnäoleva.Parisuhde vie aikaa ja vaatii panostamista, mutta etäsuhde näyttäytyy helppona: sitä voi hoitaa muutamalla minuutilla päivässä.– Digitaalisuus tekee vuorovaikutuksesta pikaruokalatyyppisen kokemuksen, Saarinen toteaa.Nykyajan deittailukulttuuri nyt vain on tällaista, ja mielestäni siihen kannattaa varautua, että iso osa ihmisistä ei ole tosissaan liikkeellä deittisovelluksissa.parikymppinen nainen, OuluKun kaksi ihmistä kohtaa, on riski, että tarpeet eivät ole samanlaisia. Sen takia aina on pettyjiä.– On ahdistavaa ja stressaavaa tulla hylätyksi. Se on oikeastaan pahinta, mitä ihmiselle voi tapahtua, sanoo psykoterapeutti Mikael Saarinen.Sovelluksissa osa on liikkeellä aidosti, mutta moni sanoo, ettei heillä ole aikaa hakeutua paikkoihin, joissa voisi tavata mahdollisen kumppanin.– Nythän voi heittää kerralla vaikka kuinka monta treffikoukkua ja katsoa, löytyisikö sieltä joku. Usein kuitenkin, kun pettymysten määrä on suuri, moni hyväksyy senkin, että viestittely on parempi kuin olla kokonaan yksin.Näin psykoterapeutti parantaisi deittiappeja1. Luo totuudenmukainen profiiliPsykoterapeutti Mikael Saarisen mukaan deittiappeilla on paikkansa parin etsinnässä. Hän kuitenkin kyseenalaistaa profiilien pinnallisuuden ja harhaanjohtamisen.– Tuo avoimesti profiilissa esiin, mitä kaipaat ja haet elämääsi. Kysy, löytyisikö ihmistä, joka olisi valmis jakamaan samoja tavoitteita ja arvoja.2. Livekamera olisi askel avoimuuteenDigitaaliset deittialustat on rakennettu niin, että aidon yhteyden luominen voi olla hankalaaSaarinen lisäisikin sovelluksiin mahdollisuuden käyttää livekameraa.3. Sovelluksiin digikoutsaustaVinkkejä, tutustumisharjoituksia ja neuvoja, miten olla oma itsensä ja vaikkapa aloittaa keskustelu.Matchin saaminen on vasta yksi sadasosa matkasta, sanoo Saarinen.– Jonkun pitäisi sanoa, että hei, sä olet vasta ihan alussa. Nyt seuraava vaihe on se, että oikeasti kohdataan se toinen ja pohditaan, mitä tunteita, toiveita ja tarpeita sinussa herää.4. Varoitus voisi olla tarpeenSaarinen uskoo, että moni sovellus yrittää aidosti löytää rakkauden salaisuuden.Hän pohtii, pitäisikö deittisovelluksissa olla varoitus:”Varoitamme, että tämä näyttäytyy paikkana, jossa ihmiset löytävät toisensa, mutta meillä ei ole siitä minkäänlaista näyttöä. Vaara tulla hylätyksi on suuri.”Voit keskustella aiheesta sunnuntaihin 11.2. kello 23:een saakka.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>75</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Arsi Jaakkola, 21, muutti omaan kotiin ja tuohtui, kun ei voinutkaan elää haluamallaan tavalla</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20073529</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2024-02-09T05:10:36+02:00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7420073529</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Yle</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Vammaisille tarjotut palvelut ovat liian kankeita. Ne eivät pysty vastaamaan tarpeeksi nopeasti nuorten vaihtuviin elämäntilanteisiin.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Arsi Jaakkolan yksi tavoite toteutui, kun hänestä tuli LAB-ammattikorkeakoulun tieto- ja viestintätekniikan opiskelija.Suunnitelmana oli, että Jaakkola opiskelisi ammattikorkeakoulun opinnot loppuun kotonaan. Jaakkola sairastaa lihasheikkoutta aiheuttavaa lihasdystrofiaa, jonka vuoksi hän tarvitsee apua monissa arkisissa toimissa. Omaishoitajana oli isä.Pikku hiljaa Jaakkolan ajatukset alkoivat muuttua.– Minulle tuli ajatus, että olisi helpompi olla siellä, missä ihmiset ovat esimerkiksi työpaikkojen takia. Halusin myös kokeilla jotain uutta. Olin mennyt pitkään samalla kehällä.Tammikuussa hän muutti vanhempiensa luota omaan kotiin.Ennen muuttoa Arsi Jaakkola ajatteli, että hän saisi asuntoonsa henkilökohtaisen avustajan koko vuorokaudeksi. Silloin hänellä olisi joku, joka auttaisi sänkyyn illalla ja tarvittaessa esimerkiksi vessaan.Toiveet osoittautuivat liian suuriksi. Hyvinvointialueen järjestämä henkilökohtainen avustaja lähtee yhdeltätoista illalla. Silloin Arsi Jaakkolan on viimeistään oltava kotona.Arsi Jaakkola kertoo, miten hän viettää viikonloppuiltansa.Vammaispalvelut liian jäykkiä nuorten elämäänHelsingin yliopiston yliopistotutkija Reetta Mietola toteaa, etteivät vammaisia tukevat palvelut ole aina tarpeeksi ketteriä vammaisten nuorten tarpeisiin. Mietola selvitti viime vuonna vammaisten ihmisoikeuksien toteutumista.Nuoruus on elämänvaihe, jossa elämäntilanne saattaa muuttua monta kertaa lyhyessä ajassa. Nuori voi aloittaa opinnot, muuttaa omilleen tai alkaa esimerkiksi seurustella. Elämänmuutokset voivat muuttaa myös vammaisen palveluntarpeita.Palvelujen järjestämisessä voi mennä kuukausia, mikä varsinkin nuoresta voi tuntua pitkältä ajalta odottaa.Lain mukaan hyvinvointialueen täytyy tehdä päätökset myönnettävästä palvelusta viimeistään kolmessa kuukaudessa.– Usein on tapana, että päätöksistä täytyy valittaa ainakin kerran ennen kuin palvelun saa. Yleensä päätöstä ei saa ennen sitä kolmea kuukautta. Jos päätös tulee hylättynä, täytyy valittaa uudelleen, toteaa Lyhytkasvuiset ry:n puheenjohtaja Ellen Nirhamo.Avaa kuvien katseluAvustaja on nostanut Arsi Jaakkolalle ruokatarvikkeet jääkaapista. Hän tekee lounaaksi kermakastiketta, nakkeja ja perunoita.  Kuva: Juha-Petri Koponen / YleReetta Mietolan mukaan osa vammaisista ihmisistä ei uskalla tehdä elämänmuutosta, koska he eivät luota siihen, että saavat tarpeeksi tukea.– Mietitään esimerkiksi miten muuttaminen paikkakunnalta toiselle vaikuttaa. On pariskuntia, jotka asuvat eri asunnoissa, koska he eivät tiedä, miten yhteenmuuttaminen vaikuttaisi taloudellisiin tukiin ja vammaispalveluihin.Mietolan mielestä palveluissa unohdetaan usein, että vammaisia nuoria pitäisi verrata muihin nuoriin. Vammaisilla nuorilla pitäisi olla samat oikeudet ja velvollisuudet kuin vammattomilla.– Palveluissa on olemassa vammaisen hahmo. Se on yksinkertaistettu mielikuva siitä, millaiseen elämäntilanteeseen palvelut mielletään. Palvelut ovat sopivia keskimääräiselle tyypille, jota ei ole olemassa.Erityisesti nuoren sukupolven edustajat ovat erittäin tietoisia omista oikeuksistaan. Mietola toteaa, että siksi kohtaaminen jäykän palvelujärjestelmän kanssa voi olla jännitteinen.Palveluja mietittiin vasta muuton jälkeenArsi Jaakkola on tuohtunut. Hänelle tarjotut palvelut eivät ole mahdollistaneet sellaista itsenäistä elämää, kuin hän toivoi.Jaakkolan mielestä Päijät-Hämeen hyvinvointialueen vammaispalveluiden olisi pitänyt kertoa, jos palvelujen järjestäminen ei onnistu tarpeeksi nopeasti.Silloin hän olisi voinut lykätä muuttoa.Alla olevalla videolla Jaakkola kertoo, miksi hän halusi itse vuokrata asunnon, vaikka hänelle tarjottiin asumista palveluyksikössä.Arsi Jaakkola kertoo, miksi ehdotettu palveluyksikön asunto ei kelvannut.Kuukausi muuton jälkeen on yhä epäselvää, miten palvelu pelaa.Muuton yhteydessä Jaakkolaa ohjeistettiin, että tarvittaessa hänen pitäisi yöaikaan soittaa hätäkeskukseen. Sieltä hänet ohjattaisiin päivystävälle sosiaalityöntekijälle.Kun avustaja lähtee kotiin, Jaakkolaa ei vielä väsytä. Niinpä hän jää istumaan tuoliinsa.– Nukkumaanmenoaikani on ollut yläasteesta asti yhdentoista jälkeen. Sen muuttaminen olisi hidasta. Siitä on tullut tapa.Jaakkola kertoo, että hänen soittojaan ihmeteltiin hätäkeskuksessa. Eihän kyseessä ollut oikea hätä. Hän tarvitsi apua päästäkseen tuolista sänkyyn nukkumaan.”Puolitoista tuntia on pitkä aika odottaa”Neuvottelujen jälkeen Arsi Jaakkola sai sovittua, että kotihoidon työntekijät tulevat auttamaan, kun hän soittaa yöllä. Avun saaminen kestää, koska palvelua ei ole suunniteltu.Jaakkolan mukaan kotihoito on ehtinyt paikalle keskimäärin noin puolentoista tunnin kuluttua soitosta.Myöhemmin Jaakkola löysi päivystävän sosiaalityöntekijän numeron verkkosivuilta. Hän ihmettelee, miksi sitä ei annettu hänelle suoraan, vaan käskettiin soittamaan hätäkeskukseen.Avaa kuvien katseluUlkona Arsi Jaakkola kulkee sähköisellä pyörätuolilla. Moniin paikkoihin on kuitenkin vaikea päästä pyörätuolilla. Kuva: Juha-Petri Koponen / YleVammaispalvelut ja Jaakkola ovat yhdessä etsineet ratkaisua siihen, miten tarpeellinen apu hoidetaan uudessa kodissa. Neuvotteluissa päätettiin venyttää kahdella tunnilla henkilökohtaisen avustajan paikallaoloa.Mutta tämä ei ratkaise avun tarvetta öisin.– Puolitoista tuntia on pitkä aika odottaa, jos yöllä tulee vessahätä. Apua ei tule, jos puhelin putoaa. Silloin olen tässä jumissa, kertoo Jaakkola.Näin Päijät-Hämeen hyvinvointialueen vammaispalvelu vastaaPäijät-Hämeen hyvinvointialueen vammaispalveluiden tulosyksikköpäällikkö Jonna Ritvanen ei kommentoi Jaakkolan tapausta, vaan kertoo yleisesti vammaispalveluiden järjestämisestä.Ritvanen toteaa, että esimerkiksi kun ihminen muuttaa, palveluiden järjestäminen yksilöllisiin tarpeisiin ei välttämättä tapahdu hetkessä.– Siksi kannattaa olla hyvissä ajoin yhteydessä. Päätökset perustuvat aina palvelutarpeen arvioon eli millaiset tarpeet tuelle ovat. Vammaisten arkea tukevia palveluita on lukuisia, ja jokaisen saamiseksi on erilaiset kriteerit.Ritvasen mukaan vammaispalveluissa ei ole ollut käytäntönä kehottaa soittamaan hätäkeskukseen.– Hätäkeskukseen soitetaan, kun on hätätilanne. En osaa sanoa, miksi asialle ei ole löydetty muuta ratkaisua. Palveluntarve olisi hyvä ratkaista ennen muuttamista.Ritvanen kertoo, että sosiaaliohjaajan ja asiakkaan välinen vuorovaikutus on tärkeää, kun arvioidaan ja järjestetään palveluita. Joskus asiakas voi olla myös eri mieltä päätöksestä. Silloin hänellä on mahdollisuus tehdä oikaisuvaatimus.Moni nuori vammainen tajuaa, ettei ole yhdenvertainen yhteiskunnassaTällä hetkellä nuoren vammaisen elämä ei voi olla spontaania, jos hän tarvitsee paljon apua.Monille haasteita aiheuttavat muun muassa kuljetuspalvelut sekä henkilökohtaisen avustajan ja apuvälineiden saaminen.Usein vammaisen nuoren täytyy suunnitella menonsa tiettyjen kellonaikojen tai myönnettyjen kuljetusten ehdoilla.Vammaisten lasten ja nuorten tukisäätiön viestintäsuunnittelija Peppi Santaniemi toteaa, että palveluista sopiminen voi olla todella uuvuttavaa uudessa elämänvaiheessa.– Puhutaan palvelupompottelusta. Lisähaasteen tuo se, kun palvelut eivät kommunikoi keskenään. Ammattilaiset eivät tiedä, mitkä palvelut kuuluvat nuorelle. Sitten nuoria heitellään luukulta toiselle.Helsingin yliopiston tutkijan Reetta Mietolan mukaan taistelu ei lopu edes palvelujen myöntämisen jälkeen.– Tekemässämme selvityksessä tuli myös ilmi, etteivät myönnetyt palvelut aina toteudu. Henkilö joutuu arvuuttelemaan, tuleeko taksi. Tai hänelle ei löydy avustajaa, vaikka sellainen on myönnetty.Vaarana on nuorten syrjäytyminen, jos vammaisten nuorten tarpeet ohitetaan jatkuvasti palveluissa. Jo nyt vammaiset nuoret kertovat kokevansa enemmän syrjintää ja ulkopuolisuutta kuin samanikäiset vammattomat.Avaa kuvien katseluNuorempana Arsi Jaakkola harrasti vuosia salibandya. Jaakkolan mukaan taistelija-palkintoa ei anneta parhaalle pelaajalle, vaan sille, joka on antanut kaikkensa. Kuva: Juha-Petri Koponen / YleInvalidiliiton järjestöasiantuntija Hanna Lahti sanoo, että vammaiset nuoret haluaisivat lisää tietoa palveluiden järjestämisen erilaisista vaihtoehdoista.Lahti toivoo, että hyvinvointialueet ja kunnat ottaisivat palvelujen suunnitteluun mukaan enemmän vammaisia nuoria. Jos vammaiset nuoret saadaan mukaan kehittämään heidän käyttämiään palveluja, ne voisivat vastata enemmän nuorten tarpeita.Kotiintuloaika aikaistuiEnnen jutun julkaisua Arsi Jaakkola saa vammaispalveluista sähköpostia. Viesti saa hänet pöyristymään.Yle on nähnyt viestin, jonka mukaan Jaakkolan oma arvio henkilökohtaisen avustajan tarpeesta on ristiriidassa avustajien kertomuksen kanssa.Jaakkola on kertonut heräävänsä päivittäin seitsemältä, mutta avustajat ovat kertoneet hänen heränneen paljon myöhemmin. Päätöksen mukaan Jaakkola myös pystyy toimimaan monissa asioissa omatoimisesti.Arsi Jaakkolan mielestä päätös on epäreilu. Hän kertoo, että on herännyt myöhemmin, koska on joutunut odottamaan avun saamista yöllä niin myöhään.Heti viestin saatuaan Jaakkola tavoittelee sosiaalityöntekijää, mutta hänelle ei vastata. Jos päätös pysyy voimassa, jatkossa henkilökohtainen avustaja lähtee kotiin illalla jo kello yhdeksän, eikä avustaja olisi käytössä koko päivän ajan.Paluu vanhemmillePerjantaina Yle saa tiedon, että koska henkilökohtaisen avustajan työaikoja on tarkoitus vähentää myös päiväsaikaan, Jaakkola ja hänen isänsä on päättänyt, että Jaakkolan täytyy palata vanhemmilleen.– Päivässä olisi niin paljon tyhjää, ettei yksinasuminen ole mahdollista.Jaakkola aikoo jatkaa neuvotteluja vammaispalveluiden kanssa, jotta voisi palata kotiinsa.Jutussa mainittujen henkilöiden lisäksi juttua varten haastateltiin Invalidiliiton juristi Henrik Gustafssonia. Yle sai tietoja myös useilta Invalidiliittoon kuuluvilta paikallisilta vammaisyhdistyksiltä.Juttua muutettu 9.2.2024 kello 13.10: Lisätty perjantaina tullut tieto ja kappale Jaakkolan muutosta takaisin vanhemmilleen.Muokattu 9.2.2024 kello 15.29: Keskustelu sulkeutuu aiottua aiemmin moderoinnin ruuhkautumisen vuoksi.</t>
         </is>
       </c>
     </row>
